--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\server\KFrame\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>苏昭展</author>
+  </authors>
+  <commentList>
+    <comment ref="E33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>苏昭展:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.在线;
+2.组队
+3.匹配
+4.游戏中
+5.离线</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="507">
   <si>
@@ -2847,7 +2885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2927,6 +2965,19 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3603,12 +3654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13497,5 +13548,6 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="503">
   <si>
     <t>Class</t>
   </si>
@@ -1484,10 +1484,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>是否队长( 1是 0不是 )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Group</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1504,10 +1500,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>匹配队员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupMember</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1516,10 +1508,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>匹配队员(不包括自己)没有队伍列表为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>收到的邀请列表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1549,10 +1537,6 @@
   </si>
   <si>
     <t>prepare</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家队伍准备状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1612,18 +1596,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>iscaptain</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscaptain</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是队长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1904,10 +1876,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>maxcount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>最大成员数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1917,14 +1885,6 @@
   </si>
   <si>
     <t>当前队伍人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupmatchid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍的匹配模式id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2757,10 +2717,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>预备的队伍id( 不是真正的队伍id )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>超过时间( 防止快速操作造成数据混乱 )</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2878,6 +2834,34 @@
   </si>
   <si>
     <t>bgmswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队伍信息, 队员包括自己</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配模式id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入队伍时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxcount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队员信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3655,11 +3639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y204"/>
+  <dimension ref="A1:Y194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3669,7 +3653,7 @@
     <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="8" bestFit="1" customWidth="1"/>
@@ -3728,28 +3712,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -3793,13 +3777,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>161</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>162</v>
@@ -3808,25 +3792,25 @@
         <v>163</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>164</v>
@@ -4023,17 +4007,17 @@
         <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -4080,17 +4064,17 @@
         <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -4491,7 +4475,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -4688,13 +4672,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -4738,13 +4722,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -4788,7 +4772,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -4885,16 +4869,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -4935,16 +4919,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -4985,16 +4969,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5035,7 +5019,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5138,7 +5122,7 @@
         <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -5188,7 +5172,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>36</v>
@@ -5238,13 +5222,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K31" s="20">
         <v>1</v>
@@ -5288,7 +5272,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
@@ -5491,13 +5475,13 @@
         <v>114</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F36" s="19"/>
       <c r="K36" s="20">
@@ -5542,13 +5526,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F37" s="19"/>
       <c r="K37" s="20">
@@ -5593,13 +5577,13 @@
         <v>114</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F38" s="19"/>
       <c r="K38" s="20">
@@ -5644,13 +5628,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5694,13 +5678,13 @@
         <v>114</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K40" s="20">
         <v>1</v>
@@ -5807,7 +5791,7 @@
         <v>126</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K42" s="5">
         <v>1</v>
@@ -6055,7 +6039,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>140</v>
@@ -6121,7 +6105,7 @@
         <v>126</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K48" s="5">
         <v>1</v>
@@ -6381,7 +6365,7 @@
         <v>128</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6584,7 +6568,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
@@ -6811,7 +6795,7 @@
         <v>75</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>50</v>
@@ -7531,16 +7515,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>296</v>
+        <v>496</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7552,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="7">
         <v>0</v>
@@ -7564,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="7">
         <v>0</v>
@@ -7576,21 +7563,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="29">
         <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>357</v>
+        <v>275</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="K75" s="7">
         <v>1</v>
@@ -7631,19 +7627,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G76" s="7">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -7667,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="7">
         <v>0</v>
@@ -7679,184 +7681,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="29">
         <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K77" s="7">
-        <v>1</v>
-      </c>
-      <c r="L77" s="7">
-        <v>0</v>
-      </c>
-      <c r="M77" s="7">
+      <c r="C77" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K77" s="42">
+        <v>1</v>
+      </c>
+      <c r="L77" s="42">
+        <v>1</v>
+      </c>
+      <c r="M77" s="42">
         <v>1</v>
       </c>
       <c r="N77" s="7">
         <v>1</v>
       </c>
-      <c r="O77" s="7">
-        <v>0</v>
-      </c>
-      <c r="P77" s="7">
+      <c r="O77" s="42">
+        <v>1</v>
+      </c>
+      <c r="P77" s="42">
         <v>0</v>
       </c>
       <c r="Q77" s="7">
         <v>0</v>
       </c>
-      <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7">
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0</v>
-      </c>
-      <c r="U77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R77" s="42">
+        <v>0</v>
+      </c>
+      <c r="S77" s="42">
+        <v>0</v>
+      </c>
+      <c r="T77" s="42">
+        <v>0</v>
+      </c>
+      <c r="U77" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="29">
         <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K78" s="7">
-        <v>1</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
+      <c r="C78" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K78" s="42">
+        <v>1</v>
+      </c>
+      <c r="L78" s="42">
+        <v>1</v>
+      </c>
+      <c r="M78" s="42">
         <v>1</v>
       </c>
       <c r="N78" s="7">
         <v>1</v>
       </c>
-      <c r="O78" s="7">
-        <v>0</v>
-      </c>
-      <c r="P78" s="7">
+      <c r="O78" s="42">
+        <v>1</v>
+      </c>
+      <c r="P78" s="42">
         <v>0</v>
       </c>
       <c r="Q78" s="7">
         <v>0</v>
       </c>
-      <c r="R78" s="7">
-        <v>0</v>
-      </c>
-      <c r="S78" s="7">
-        <v>0</v>
-      </c>
-      <c r="T78" s="7">
-        <v>0</v>
-      </c>
-      <c r="U78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R78" s="42">
+        <v>0</v>
+      </c>
+      <c r="S78" s="42">
+        <v>0</v>
+      </c>
+      <c r="T78" s="42">
+        <v>0</v>
+      </c>
+      <c r="U78" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="29">
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K79" s="7">
-        <v>1</v>
-      </c>
-      <c r="L79" s="7">
-        <v>0</v>
-      </c>
-      <c r="M79" s="7">
+      <c r="C79" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K79" s="42">
+        <v>1</v>
+      </c>
+      <c r="L79" s="42">
+        <v>1</v>
+      </c>
+      <c r="M79" s="42">
         <v>1</v>
       </c>
       <c r="N79" s="7">
         <v>1</v>
       </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-      <c r="P79" s="7">
+      <c r="O79" s="42">
+        <v>1</v>
+      </c>
+      <c r="P79" s="42">
         <v>0</v>
       </c>
       <c r="Q79" s="7">
         <v>0</v>
       </c>
-      <c r="R79" s="7">
-        <v>0</v>
-      </c>
-      <c r="S79" s="7">
-        <v>0</v>
-      </c>
-      <c r="T79" s="7">
-        <v>0</v>
-      </c>
-      <c r="U79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R79" s="42">
+        <v>0</v>
+      </c>
+      <c r="S79" s="42">
+        <v>0</v>
+      </c>
+      <c r="T79" s="42">
+        <v>0</v>
+      </c>
+      <c r="U79" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="29">
         <v>77</v>
       </c>
@@ -7864,16 +7857,19 @@
         <v>171</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>376</v>
+        <v>124</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="K80" s="42">
         <v>1</v>
@@ -7909,204 +7905,207 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="29">
         <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H81" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="K81" s="42">
-        <v>1</v>
-      </c>
-      <c r="L81" s="42">
-        <v>1</v>
-      </c>
-      <c r="M81" s="42">
+        <v>199</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K81" s="7">
+        <v>1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
         <v>1</v>
       </c>
       <c r="N81" s="7">
         <v>1</v>
       </c>
-      <c r="O81" s="42">
-        <v>1</v>
-      </c>
-      <c r="P81" s="42">
+      <c r="O81" s="7">
+        <v>1</v>
+      </c>
+      <c r="P81" s="7">
         <v>0</v>
       </c>
       <c r="Q81" s="7">
         <v>0</v>
       </c>
-      <c r="R81" s="42">
-        <v>0</v>
-      </c>
-      <c r="S81" s="42">
-        <v>0</v>
-      </c>
-      <c r="T81" s="42">
-        <v>0</v>
-      </c>
-      <c r="U81" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="29">
         <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H82" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="K82" s="42">
-        <v>1</v>
-      </c>
-      <c r="L82" s="42">
-        <v>1</v>
-      </c>
-      <c r="M82" s="42">
+      <c r="C82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1</v>
+      </c>
+      <c r="L82" s="7">
+        <v>1</v>
+      </c>
+      <c r="M82" s="7">
         <v>1</v>
       </c>
       <c r="N82" s="7">
         <v>1</v>
       </c>
-      <c r="O82" s="42">
-        <v>1</v>
-      </c>
-      <c r="P82" s="42">
+      <c r="O82" s="7">
+        <v>1</v>
+      </c>
+      <c r="P82" s="7">
         <v>0</v>
       </c>
       <c r="Q82" s="7">
         <v>0</v>
       </c>
-      <c r="R82" s="42">
-        <v>0</v>
-      </c>
-      <c r="S82" s="42">
-        <v>0</v>
-      </c>
-      <c r="T82" s="42">
-        <v>0</v>
-      </c>
-      <c r="U82" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="7">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7">
+        <v>0</v>
+      </c>
+      <c r="U82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="29">
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="D83" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H83" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="K83" s="42">
-        <v>1</v>
-      </c>
-      <c r="L83" s="42">
-        <v>1</v>
-      </c>
-      <c r="M83" s="42">
-        <v>1</v>
+      <c r="E83" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1</v>
+      </c>
+      <c r="L83" s="7">
+        <v>1</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0</v>
       </c>
       <c r="N83" s="7">
-        <v>1</v>
-      </c>
-      <c r="O83" s="42">
-        <v>1</v>
-      </c>
-      <c r="P83" s="42">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
         <v>0</v>
       </c>
       <c r="Q83" s="7">
         <v>0</v>
       </c>
-      <c r="R83" s="42">
-        <v>0</v>
-      </c>
-      <c r="S83" s="42">
-        <v>0</v>
-      </c>
-      <c r="T83" s="42">
-        <v>0</v>
-      </c>
-      <c r="U83" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7">
+        <v>0</v>
+      </c>
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="29">
         <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>379</v>
+        <v>470</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
       </c>
       <c r="L84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" s="7">
         <v>0</v>
@@ -8127,233 +8126,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="29">
         <v>82</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K85" s="7">
-        <v>1</v>
-      </c>
-      <c r="L85" s="7">
-        <v>1</v>
-      </c>
-      <c r="M85" s="7">
-        <v>1</v>
-      </c>
-      <c r="N85" s="7">
-        <v>1</v>
-      </c>
-      <c r="O85" s="7">
-        <v>1</v>
-      </c>
-      <c r="P85" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="7">
-        <v>0</v>
-      </c>
-      <c r="R85" s="7">
-        <v>0</v>
-      </c>
-      <c r="S85" s="7">
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0</v>
-      </c>
-      <c r="U85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="K85" s="46">
+        <v>1</v>
+      </c>
+      <c r="L85" s="46">
+        <v>1</v>
+      </c>
+      <c r="M85" s="46">
+        <v>1</v>
+      </c>
+      <c r="N85" s="46">
+        <v>0</v>
+      </c>
+      <c r="O85" s="46">
+        <v>0</v>
+      </c>
+      <c r="P85" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="46">
+        <v>0</v>
+      </c>
+      <c r="R85" s="46">
+        <v>0</v>
+      </c>
+      <c r="S85" s="46">
+        <v>0</v>
+      </c>
+      <c r="T85" s="46">
+        <v>0</v>
+      </c>
+      <c r="U85" s="46">
+        <v>0</v>
+      </c>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+    </row>
+    <row r="86" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="29">
         <v>83</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="B86" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="K86" s="7">
-        <v>1</v>
-      </c>
-      <c r="L86" s="7">
-        <v>1</v>
-      </c>
-      <c r="M86" s="7">
-        <v>0</v>
-      </c>
-      <c r="N86" s="7">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-      <c r="P86" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>0</v>
-      </c>
-      <c r="R86" s="7">
-        <v>0</v>
-      </c>
-      <c r="S86" s="7">
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0</v>
-      </c>
-      <c r="U86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="K86" s="46">
+        <v>1</v>
+      </c>
+      <c r="L86" s="46">
+        <v>1</v>
+      </c>
+      <c r="M86" s="46">
+        <v>1</v>
+      </c>
+      <c r="N86" s="46">
+        <v>0</v>
+      </c>
+      <c r="O86" s="46">
+        <v>0</v>
+      </c>
+      <c r="P86" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="46">
+        <v>0</v>
+      </c>
+      <c r="R86" s="46">
+        <v>0</v>
+      </c>
+      <c r="S86" s="46">
+        <v>0</v>
+      </c>
+      <c r="T86" s="46">
+        <v>0</v>
+      </c>
+      <c r="U86" s="46">
+        <v>0</v>
+      </c>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+    </row>
+    <row r="87" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="29">
         <v>84</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="K87" s="7">
-        <v>1</v>
-      </c>
-      <c r="L87" s="7">
-        <v>0</v>
-      </c>
-      <c r="M87" s="7">
-        <v>0</v>
-      </c>
-      <c r="N87" s="7">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-      <c r="P87" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="7">
-        <v>0</v>
-      </c>
-      <c r="R87" s="7">
-        <v>0</v>
-      </c>
-      <c r="S87" s="7">
-        <v>0</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0</v>
-      </c>
-      <c r="U87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="K87" s="46">
+        <v>1</v>
+      </c>
+      <c r="L87" s="46">
+        <v>1</v>
+      </c>
+      <c r="M87" s="46">
+        <v>1</v>
+      </c>
+      <c r="N87" s="46">
+        <v>0</v>
+      </c>
+      <c r="O87" s="46">
+        <v>0</v>
+      </c>
+      <c r="P87" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="46">
+        <v>0</v>
+      </c>
+      <c r="R87" s="46">
+        <v>0</v>
+      </c>
+      <c r="S87" s="46">
+        <v>0</v>
+      </c>
+      <c r="T87" s="46">
+        <v>0</v>
+      </c>
+      <c r="U87" s="46">
+        <v>0</v>
+      </c>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+    </row>
+    <row r="88" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="29">
         <v>85</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K88" s="7">
-        <v>1</v>
-      </c>
-      <c r="L88" s="7">
-        <v>0</v>
-      </c>
-      <c r="M88" s="7">
-        <v>0</v>
-      </c>
-      <c r="N88" s="7">
-        <v>0</v>
-      </c>
-      <c r="O88" s="7">
-        <v>0</v>
-      </c>
-      <c r="P88" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="7">
-        <v>0</v>
-      </c>
-      <c r="R88" s="7">
-        <v>0</v>
-      </c>
-      <c r="S88" s="7">
-        <v>0</v>
-      </c>
-      <c r="T88" s="7">
-        <v>0</v>
-      </c>
-      <c r="U88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="K88" s="46">
+        <v>1</v>
+      </c>
+      <c r="L88" s="46">
+        <v>1</v>
+      </c>
+      <c r="M88" s="46">
+        <v>1</v>
+      </c>
+      <c r="N88" s="46">
+        <v>0</v>
+      </c>
+      <c r="O88" s="46">
+        <v>0</v>
+      </c>
+      <c r="P88" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="46">
+        <v>0</v>
+      </c>
+      <c r="R88" s="46">
+        <v>0</v>
+      </c>
+      <c r="S88" s="46">
+        <v>0</v>
+      </c>
+      <c r="T88" s="46">
+        <v>0</v>
+      </c>
+      <c r="U88" s="46">
+        <v>0</v>
+      </c>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+    </row>
+    <row r="89" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="29">
         <v>86</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>196</v>
+        <v>461</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>198</v>
+        <v>462</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>143</v>
+        <v>463</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -8393,28 +8400,24 @@
       <c r="V89" s="47"/>
       <c r="W89" s="47"/>
     </row>
-    <row r="90" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="29">
         <v>87</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>118</v>
+        <v>452</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="H90" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I90" s="45" t="s">
-        <v>196</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
       <c r="K90" s="46">
         <v>1</v>
       </c>
@@ -8451,21 +8454,21 @@
       <c r="V90" s="47"/>
       <c r="W90" s="47"/>
     </row>
-    <row r="91" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="29">
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>458</v>
+        <v>144</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8505,21 +8508,21 @@
       <c r="V91" s="47"/>
       <c r="W91" s="47"/>
     </row>
-    <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C92" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>460</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>461</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -8559,221 +8562,245 @@
       <c r="V92" s="47"/>
       <c r="W92" s="47"/>
     </row>
-    <row r="93" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
         <v>90</v>
       </c>
-      <c r="B93" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="K93" s="46">
-        <v>1</v>
-      </c>
-      <c r="L93" s="46">
-        <v>1</v>
-      </c>
-      <c r="M93" s="46">
-        <v>1</v>
-      </c>
-      <c r="N93" s="46">
-        <v>0</v>
-      </c>
-      <c r="O93" s="46">
-        <v>0</v>
-      </c>
-      <c r="P93" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="46">
-        <v>0</v>
-      </c>
-      <c r="R93" s="46">
-        <v>0</v>
-      </c>
-      <c r="S93" s="46">
-        <v>0</v>
-      </c>
-      <c r="T93" s="46">
-        <v>0</v>
-      </c>
-      <c r="U93" s="46">
-        <v>0</v>
-      </c>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-    </row>
-    <row r="94" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11">
+        <v>1</v>
+      </c>
+      <c r="L93" s="11">
+        <v>1</v>
+      </c>
+      <c r="M93" s="11">
+        <v>1</v>
+      </c>
+      <c r="N93" s="11">
+        <v>1</v>
+      </c>
+      <c r="O93" s="11">
+        <v>1</v>
+      </c>
+      <c r="P93" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>0</v>
+      </c>
+      <c r="R93" s="9">
+        <v>0</v>
+      </c>
+      <c r="S93" s="9">
+        <v>0</v>
+      </c>
+      <c r="T93" s="9">
+        <v>0</v>
+      </c>
+      <c r="U93" s="11">
+        <v>0</v>
+      </c>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="29">
         <v>91</v>
       </c>
-      <c r="B94" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="K94" s="46">
-        <v>1</v>
-      </c>
-      <c r="L94" s="46">
-        <v>1</v>
-      </c>
-      <c r="M94" s="46">
-        <v>1</v>
-      </c>
-      <c r="N94" s="46">
-        <v>0</v>
-      </c>
-      <c r="O94" s="46">
-        <v>0</v>
-      </c>
-      <c r="P94" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="46">
-        <v>0</v>
-      </c>
-      <c r="R94" s="46">
-        <v>0</v>
-      </c>
-      <c r="S94" s="46">
-        <v>0</v>
-      </c>
-      <c r="T94" s="46">
-        <v>0</v>
-      </c>
-      <c r="U94" s="46">
-        <v>0</v>
-      </c>
-      <c r="V94" s="47"/>
-      <c r="W94" s="47"/>
-    </row>
-    <row r="95" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11">
+        <v>1</v>
+      </c>
+      <c r="L94" s="11">
+        <v>1</v>
+      </c>
+      <c r="M94" s="11">
+        <v>1</v>
+      </c>
+      <c r="N94" s="11">
+        <v>1</v>
+      </c>
+      <c r="O94" s="11">
+        <v>1</v>
+      </c>
+      <c r="P94" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>0</v>
+      </c>
+      <c r="R94" s="9">
+        <v>0</v>
+      </c>
+      <c r="S94" s="9">
+        <v>0</v>
+      </c>
+      <c r="T94" s="9">
+        <v>0</v>
+      </c>
+      <c r="U94" s="11">
+        <v>0</v>
+      </c>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A95" s="29">
         <v>92</v>
       </c>
-      <c r="B95" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="K95" s="46">
-        <v>1</v>
-      </c>
-      <c r="L95" s="46">
-        <v>1</v>
-      </c>
-      <c r="M95" s="46">
-        <v>1</v>
-      </c>
-      <c r="N95" s="46">
-        <v>0</v>
-      </c>
-      <c r="O95" s="46">
-        <v>0</v>
-      </c>
-      <c r="P95" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="46">
-        <v>0</v>
-      </c>
-      <c r="R95" s="46">
-        <v>0</v>
-      </c>
-      <c r="S95" s="46">
-        <v>0</v>
-      </c>
-      <c r="T95" s="46">
-        <v>0</v>
-      </c>
-      <c r="U95" s="46">
-        <v>0</v>
-      </c>
-      <c r="V95" s="47"/>
-      <c r="W95" s="47"/>
-    </row>
-    <row r="96" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11">
+        <v>1</v>
+      </c>
+      <c r="L95" s="11">
+        <v>1</v>
+      </c>
+      <c r="M95" s="11">
+        <v>1</v>
+      </c>
+      <c r="N95" s="11">
+        <v>1</v>
+      </c>
+      <c r="O95" s="11">
+        <v>1</v>
+      </c>
+      <c r="P95" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>0</v>
+      </c>
+      <c r="R95" s="9">
+        <v>0</v>
+      </c>
+      <c r="S95" s="9">
+        <v>0</v>
+      </c>
+      <c r="T95" s="9">
+        <v>0</v>
+      </c>
+      <c r="U95" s="11">
+        <v>0</v>
+      </c>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A96" s="29">
         <v>93</v>
       </c>
-      <c r="B96" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>466</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="K96" s="46">
-        <v>1</v>
-      </c>
-      <c r="L96" s="46">
-        <v>1</v>
-      </c>
-      <c r="M96" s="46">
-        <v>1</v>
-      </c>
-      <c r="N96" s="46">
-        <v>0</v>
-      </c>
-      <c r="O96" s="46">
-        <v>0</v>
-      </c>
-      <c r="P96" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="46">
-        <v>0</v>
-      </c>
-      <c r="R96" s="46">
-        <v>0</v>
-      </c>
-      <c r="S96" s="46">
-        <v>0</v>
-      </c>
-      <c r="T96" s="46">
-        <v>0</v>
-      </c>
-      <c r="U96" s="46">
-        <v>0</v>
-      </c>
-      <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
+      <c r="B96" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11">
+        <v>1</v>
+      </c>
+      <c r="L96" s="11">
+        <v>1</v>
+      </c>
+      <c r="M96" s="11">
+        <v>1</v>
+      </c>
+      <c r="N96" s="11">
+        <v>1</v>
+      </c>
+      <c r="O96" s="11">
+        <v>1</v>
+      </c>
+      <c r="P96" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>0</v>
+      </c>
+      <c r="R96" s="9">
+        <v>0</v>
+      </c>
+      <c r="S96" s="9">
+        <v>0</v>
+      </c>
+      <c r="T96" s="9">
+        <v>0</v>
+      </c>
+      <c r="U96" s="11">
+        <v>0</v>
+      </c>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="29">
@@ -8782,23 +8809,19 @@
       <c r="B97" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>131</v>
+      <c r="C97" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>292</v>
-      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="11">
         <v>1</v>
@@ -8845,14 +8868,14 @@
       <c r="B98" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>81</v>
+      <c r="C98" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>82</v>
+      <c r="E98" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -8897,217 +8920,195 @@
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="29">
         <v>96</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11">
-        <v>1</v>
-      </c>
-      <c r="L99" s="11">
-        <v>1</v>
-      </c>
-      <c r="M99" s="11">
-        <v>1</v>
-      </c>
-      <c r="N99" s="11">
-        <v>1</v>
-      </c>
-      <c r="O99" s="11">
-        <v>1</v>
-      </c>
-      <c r="P99" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="9">
-        <v>0</v>
-      </c>
-      <c r="R99" s="9">
-        <v>0</v>
-      </c>
-      <c r="S99" s="9">
-        <v>0</v>
-      </c>
-      <c r="T99" s="9">
-        <v>0</v>
-      </c>
-      <c r="U99" s="11">
-        <v>0</v>
-      </c>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B99" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="25"/>
+      <c r="K99" s="24">
+        <v>1</v>
+      </c>
+      <c r="L99" s="24">
+        <v>1</v>
+      </c>
+      <c r="M99" s="24">
+        <v>1</v>
+      </c>
+      <c r="N99" s="24">
+        <v>1</v>
+      </c>
+      <c r="O99" s="24">
+        <v>0</v>
+      </c>
+      <c r="P99" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="24">
+        <v>0</v>
+      </c>
+      <c r="R99" s="24">
+        <v>0</v>
+      </c>
+      <c r="S99" s="24">
+        <v>0</v>
+      </c>
+      <c r="T99" s="24">
+        <v>0</v>
+      </c>
+      <c r="U99" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
         <v>97</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="11" t="s">
+      <c r="B100" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11">
-        <v>1</v>
-      </c>
-      <c r="L100" s="11">
-        <v>1</v>
-      </c>
-      <c r="M100" s="11">
-        <v>1</v>
-      </c>
-      <c r="N100" s="11">
-        <v>1</v>
-      </c>
-      <c r="O100" s="11">
-        <v>1</v>
-      </c>
-      <c r="P100" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="9">
-        <v>0</v>
-      </c>
-      <c r="R100" s="9">
-        <v>0</v>
-      </c>
-      <c r="S100" s="9">
-        <v>0</v>
-      </c>
-      <c r="T100" s="9">
-        <v>0</v>
-      </c>
-      <c r="U100" s="11">
-        <v>0</v>
-      </c>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E100" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="25"/>
+      <c r="K100" s="24">
+        <v>1</v>
+      </c>
+      <c r="L100" s="24">
+        <v>1</v>
+      </c>
+      <c r="M100" s="24">
+        <v>1</v>
+      </c>
+      <c r="N100" s="24">
+        <v>1</v>
+      </c>
+      <c r="O100" s="24">
+        <v>0</v>
+      </c>
+      <c r="P100" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="24">
+        <v>0</v>
+      </c>
+      <c r="R100" s="24">
+        <v>0</v>
+      </c>
+      <c r="S100" s="24">
+        <v>0</v>
+      </c>
+      <c r="T100" s="24">
+        <v>0</v>
+      </c>
+      <c r="U100" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
         <v>98</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11">
-        <v>1</v>
-      </c>
-      <c r="L101" s="11">
-        <v>1</v>
-      </c>
-      <c r="M101" s="11">
-        <v>1</v>
-      </c>
-      <c r="N101" s="11">
-        <v>1</v>
-      </c>
-      <c r="O101" s="11">
-        <v>1</v>
-      </c>
-      <c r="P101" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="9">
-        <v>0</v>
-      </c>
-      <c r="R101" s="9">
-        <v>0</v>
-      </c>
-      <c r="S101" s="9">
-        <v>0</v>
-      </c>
-      <c r="T101" s="9">
-        <v>0</v>
-      </c>
-      <c r="U101" s="11">
-        <v>0</v>
-      </c>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="11"/>
+      <c r="B101" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" s="25"/>
+      <c r="K101" s="24">
+        <v>1</v>
+      </c>
+      <c r="L101" s="24">
+        <v>1</v>
+      </c>
+      <c r="M101" s="24">
+        <v>1</v>
+      </c>
+      <c r="N101" s="24">
+        <v>1</v>
+      </c>
+      <c r="O101" s="24">
+        <v>0</v>
+      </c>
+      <c r="P101" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="24">
+        <v>0</v>
+      </c>
+      <c r="R101" s="24">
+        <v>0</v>
+      </c>
+      <c r="S101" s="24">
+        <v>0</v>
+      </c>
+      <c r="T101" s="24">
+        <v>0</v>
+      </c>
+      <c r="U101" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A102" s="29">
         <v>99</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11">
-        <v>1</v>
-      </c>
-      <c r="L102" s="11">
-        <v>1</v>
-      </c>
-      <c r="M102" s="11">
-        <v>1</v>
-      </c>
-      <c r="N102" s="11">
-        <v>1</v>
-      </c>
-      <c r="O102" s="11">
+      <c r="B102" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9">
+        <v>1</v>
+      </c>
+      <c r="L102" s="9">
+        <v>1</v>
+      </c>
+      <c r="M102" s="9">
+        <v>1</v>
+      </c>
+      <c r="N102" s="9">
+        <v>1</v>
+      </c>
+      <c r="O102" s="9">
         <v>1</v>
       </c>
       <c r="P102" s="9">
@@ -9125,302 +9126,300 @@
       <c r="T102" s="9">
         <v>0</v>
       </c>
-      <c r="U102" s="11">
-        <v>0</v>
-      </c>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-    </row>
-    <row r="103" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U102" s="9">
+        <v>0</v>
+      </c>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A103" s="29">
         <v>100</v>
       </c>
-      <c r="B103" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F103" s="25"/>
-      <c r="K103" s="24">
-        <v>1</v>
-      </c>
-      <c r="L103" s="24">
-        <v>1</v>
-      </c>
-      <c r="M103" s="24">
-        <v>1</v>
-      </c>
-      <c r="N103" s="24">
-        <v>1</v>
-      </c>
-      <c r="O103" s="24">
-        <v>0</v>
-      </c>
-      <c r="P103" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="24">
-        <v>0</v>
-      </c>
-      <c r="R103" s="24">
-        <v>0</v>
-      </c>
-      <c r="S103" s="24">
-        <v>0</v>
-      </c>
-      <c r="T103" s="24">
-        <v>0</v>
-      </c>
-      <c r="U103" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9">
+        <v>1</v>
+      </c>
+      <c r="L103" s="9">
+        <v>1</v>
+      </c>
+      <c r="M103" s="9">
+        <v>1</v>
+      </c>
+      <c r="N103" s="9">
+        <v>1</v>
+      </c>
+      <c r="O103" s="9">
+        <v>1</v>
+      </c>
+      <c r="P103" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>0</v>
+      </c>
+      <c r="R103" s="9">
+        <v>0</v>
+      </c>
+      <c r="S103" s="9">
+        <v>0</v>
+      </c>
+      <c r="T103" s="9">
+        <v>0</v>
+      </c>
+      <c r="U103" s="9">
+        <v>0</v>
+      </c>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+    </row>
+    <row r="104" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="29">
         <v>101</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" s="25"/>
-      <c r="K104" s="24">
-        <v>1</v>
-      </c>
-      <c r="L104" s="24">
-        <v>1</v>
-      </c>
-      <c r="M104" s="24">
-        <v>1</v>
-      </c>
-      <c r="N104" s="24">
-        <v>1</v>
-      </c>
-      <c r="O104" s="24">
-        <v>0</v>
-      </c>
-      <c r="P104" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="24">
-        <v>0</v>
-      </c>
-      <c r="R104" s="24">
-        <v>0</v>
-      </c>
-      <c r="S104" s="24">
-        <v>0</v>
-      </c>
-      <c r="T104" s="24">
-        <v>0</v>
-      </c>
-      <c r="U104" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K104" s="31">
+        <v>1</v>
+      </c>
+      <c r="L104" s="31">
+        <v>1</v>
+      </c>
+      <c r="M104" s="31">
+        <v>1</v>
+      </c>
+      <c r="N104" s="31">
+        <v>1</v>
+      </c>
+      <c r="O104" s="31">
+        <v>1</v>
+      </c>
+      <c r="P104" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="31">
+        <v>0</v>
+      </c>
+      <c r="R104" s="31">
+        <v>0</v>
+      </c>
+      <c r="S104" s="31">
+        <v>0</v>
+      </c>
+      <c r="T104" s="31">
+        <v>0</v>
+      </c>
+      <c r="U104" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="29">
         <v>102</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F105" s="25"/>
-      <c r="K105" s="24">
-        <v>1</v>
-      </c>
-      <c r="L105" s="24">
-        <v>1</v>
-      </c>
-      <c r="M105" s="24">
-        <v>1</v>
-      </c>
-      <c r="N105" s="24">
-        <v>1</v>
-      </c>
-      <c r="O105" s="24">
-        <v>0</v>
-      </c>
-      <c r="P105" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="24">
-        <v>0</v>
-      </c>
-      <c r="R105" s="24">
-        <v>0</v>
-      </c>
-      <c r="S105" s="24">
-        <v>0</v>
-      </c>
-      <c r="T105" s="24">
-        <v>0</v>
-      </c>
-      <c r="U105" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B105" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K105" s="31">
+        <v>1</v>
+      </c>
+      <c r="L105" s="31">
+        <v>1</v>
+      </c>
+      <c r="M105" s="31">
+        <v>1</v>
+      </c>
+      <c r="N105" s="31">
+        <v>1</v>
+      </c>
+      <c r="O105" s="31">
+        <v>1</v>
+      </c>
+      <c r="P105" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="31">
+        <v>0</v>
+      </c>
+      <c r="R105" s="31">
+        <v>0</v>
+      </c>
+      <c r="S105" s="31">
+        <v>0</v>
+      </c>
+      <c r="T105" s="31">
+        <v>0</v>
+      </c>
+      <c r="U105" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" s="21" t="s">
+      <c r="B106" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9">
-        <v>1</v>
-      </c>
-      <c r="L106" s="9">
-        <v>1</v>
-      </c>
-      <c r="M106" s="9">
-        <v>1</v>
-      </c>
-      <c r="N106" s="9">
-        <v>1</v>
-      </c>
-      <c r="O106" s="9">
-        <v>1</v>
-      </c>
-      <c r="P106" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="9">
-        <v>0</v>
-      </c>
-      <c r="R106" s="9">
-        <v>0</v>
-      </c>
-      <c r="S106" s="9">
-        <v>0</v>
-      </c>
-      <c r="T106" s="9">
-        <v>0</v>
-      </c>
-      <c r="U106" s="9">
-        <v>0</v>
-      </c>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E106" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K106" s="31">
+        <v>1</v>
+      </c>
+      <c r="L106" s="31">
+        <v>1</v>
+      </c>
+      <c r="M106" s="31">
+        <v>1</v>
+      </c>
+      <c r="N106" s="31">
+        <v>1</v>
+      </c>
+      <c r="O106" s="31">
+        <v>1</v>
+      </c>
+      <c r="P106" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="31">
+        <v>0</v>
+      </c>
+      <c r="R106" s="31">
+        <v>0</v>
+      </c>
+      <c r="S106" s="31">
+        <v>0</v>
+      </c>
+      <c r="T106" s="31">
+        <v>0</v>
+      </c>
+      <c r="U106" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9">
-        <v>1</v>
-      </c>
-      <c r="L107" s="9">
-        <v>1</v>
-      </c>
-      <c r="M107" s="9">
-        <v>1</v>
-      </c>
-      <c r="N107" s="9">
-        <v>1</v>
-      </c>
-      <c r="O107" s="9">
-        <v>1</v>
-      </c>
-      <c r="P107" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="9">
-        <v>0</v>
-      </c>
-      <c r="R107" s="9">
-        <v>0</v>
-      </c>
-      <c r="S107" s="9">
-        <v>0</v>
-      </c>
-      <c r="T107" s="9">
-        <v>0</v>
-      </c>
-      <c r="U107" s="9">
-        <v>0</v>
-      </c>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
-    </row>
-    <row r="108" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K107" s="31">
+        <v>1</v>
+      </c>
+      <c r="L107" s="31">
+        <v>1</v>
+      </c>
+      <c r="M107" s="31">
+        <v>1</v>
+      </c>
+      <c r="N107" s="31">
+        <v>1</v>
+      </c>
+      <c r="O107" s="31">
+        <v>1</v>
+      </c>
+      <c r="P107" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="31">
+        <v>0</v>
+      </c>
+      <c r="R107" s="31">
+        <v>0</v>
+      </c>
+      <c r="S107" s="31">
+        <v>0</v>
+      </c>
+      <c r="T107" s="31">
+        <v>0</v>
+      </c>
+      <c r="U107" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="K108" s="31">
         <v>1</v>
@@ -9461,19 +9460,19 @@
         <v>106</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K109" s="31">
         <v>1</v>
@@ -9514,19 +9513,19 @@
         <v>107</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K110" s="31">
         <v>1</v>
@@ -9562,265 +9561,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="K111" s="31">
-        <v>1</v>
-      </c>
-      <c r="L111" s="31">
-        <v>1</v>
-      </c>
-      <c r="M111" s="31">
-        <v>1</v>
-      </c>
-      <c r="N111" s="31">
-        <v>1</v>
-      </c>
-      <c r="O111" s="31">
-        <v>1</v>
-      </c>
-      <c r="P111" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="31">
-        <v>0</v>
-      </c>
-      <c r="R111" s="31">
-        <v>0</v>
-      </c>
-      <c r="S111" s="31">
-        <v>0</v>
-      </c>
-      <c r="T111" s="31">
-        <v>0</v>
-      </c>
-      <c r="U111" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="K111" s="32">
+        <v>1</v>
+      </c>
+      <c r="L111" s="32">
+        <v>1</v>
+      </c>
+      <c r="M111" s="32">
+        <v>1</v>
+      </c>
+      <c r="N111" s="32">
+        <v>1</v>
+      </c>
+      <c r="O111" s="32">
+        <v>0</v>
+      </c>
+      <c r="P111" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="32">
+        <v>0</v>
+      </c>
+      <c r="R111" s="32">
+        <v>0</v>
+      </c>
+      <c r="S111" s="32">
+        <v>0</v>
+      </c>
+      <c r="T111" s="32">
+        <v>0</v>
+      </c>
+      <c r="U111" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
         <v>109</v>
       </c>
-      <c r="B112" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="K112" s="31">
-        <v>1</v>
-      </c>
-      <c r="L112" s="31">
-        <v>1</v>
-      </c>
-      <c r="M112" s="31">
-        <v>1</v>
-      </c>
-      <c r="N112" s="31">
-        <v>1</v>
-      </c>
-      <c r="O112" s="31">
-        <v>1</v>
-      </c>
-      <c r="P112" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="31">
-        <v>0</v>
-      </c>
-      <c r="R112" s="31">
-        <v>0</v>
-      </c>
-      <c r="S112" s="31">
-        <v>0</v>
-      </c>
-      <c r="T112" s="31">
-        <v>0</v>
-      </c>
-      <c r="U112" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K112" s="34">
+        <v>1</v>
+      </c>
+      <c r="L112" s="34">
+        <v>1</v>
+      </c>
+      <c r="M112" s="34">
+        <v>1</v>
+      </c>
+      <c r="N112" s="34">
+        <v>1</v>
+      </c>
+      <c r="O112" s="34">
+        <v>1</v>
+      </c>
+      <c r="P112" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="34">
+        <v>0</v>
+      </c>
+      <c r="R112" s="34">
+        <v>0</v>
+      </c>
+      <c r="S112" s="34">
+        <v>0</v>
+      </c>
+      <c r="T112" s="34">
+        <v>0</v>
+      </c>
+      <c r="U112" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="29">
         <v>110</v>
       </c>
-      <c r="B113" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="K113" s="31">
-        <v>1</v>
-      </c>
-      <c r="L113" s="31">
-        <v>1</v>
-      </c>
-      <c r="M113" s="31">
-        <v>1</v>
-      </c>
-      <c r="N113" s="31">
-        <v>1</v>
-      </c>
-      <c r="O113" s="31">
-        <v>1</v>
-      </c>
-      <c r="P113" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="31">
-        <v>0</v>
-      </c>
-      <c r="R113" s="31">
-        <v>0</v>
-      </c>
-      <c r="S113" s="31">
-        <v>0</v>
-      </c>
-      <c r="T113" s="31">
-        <v>0</v>
-      </c>
-      <c r="U113" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K113" s="34">
+        <v>1</v>
+      </c>
+      <c r="L113" s="34">
+        <v>1</v>
+      </c>
+      <c r="M113" s="34">
+        <v>1</v>
+      </c>
+      <c r="N113" s="34">
+        <v>1</v>
+      </c>
+      <c r="O113" s="34">
+        <v>1</v>
+      </c>
+      <c r="P113" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="34">
+        <v>0</v>
+      </c>
+      <c r="R113" s="34">
+        <v>0</v>
+      </c>
+      <c r="S113" s="34">
+        <v>0</v>
+      </c>
+      <c r="T113" s="34">
+        <v>0</v>
+      </c>
+      <c r="U113" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="29">
         <v>111</v>
       </c>
-      <c r="B114" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="K114" s="31">
-        <v>1</v>
-      </c>
-      <c r="L114" s="31">
-        <v>1</v>
-      </c>
-      <c r="M114" s="31">
-        <v>1</v>
-      </c>
-      <c r="N114" s="31">
-        <v>1</v>
-      </c>
-      <c r="O114" s="31">
-        <v>1</v>
-      </c>
-      <c r="P114" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="31">
-        <v>0</v>
-      </c>
-      <c r="R114" s="31">
-        <v>0</v>
-      </c>
-      <c r="S114" s="31">
-        <v>0</v>
-      </c>
-      <c r="T114" s="31">
-        <v>0</v>
-      </c>
-      <c r="U114" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="K114" s="34">
+        <v>1</v>
+      </c>
+      <c r="L114" s="34">
+        <v>1</v>
+      </c>
+      <c r="M114" s="34">
+        <v>1</v>
+      </c>
+      <c r="N114" s="34">
+        <v>1</v>
+      </c>
+      <c r="O114" s="34">
+        <v>1</v>
+      </c>
+      <c r="P114" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="34">
+        <v>0</v>
+      </c>
+      <c r="R114" s="34">
+        <v>0</v>
+      </c>
+      <c r="S114" s="34">
+        <v>0</v>
+      </c>
+      <c r="T114" s="34">
+        <v>0</v>
+      </c>
+      <c r="U114" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="29">
         <v>112</v>
       </c>
-      <c r="B115" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D115" s="33" t="s">
+      <c r="B115" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E115" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="K115" s="32">
-        <v>1</v>
-      </c>
-      <c r="L115" s="32">
-        <v>1</v>
-      </c>
-      <c r="M115" s="32">
-        <v>1</v>
-      </c>
-      <c r="N115" s="32">
-        <v>1</v>
-      </c>
-      <c r="O115" s="32">
-        <v>0</v>
-      </c>
-      <c r="P115" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="32">
-        <v>0</v>
-      </c>
-      <c r="R115" s="32">
-        <v>0</v>
-      </c>
-      <c r="S115" s="32">
-        <v>0</v>
-      </c>
-      <c r="T115" s="32">
-        <v>0</v>
-      </c>
-      <c r="U115" s="32">
+      <c r="E115" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F115" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K115" s="34">
+        <v>1</v>
+      </c>
+      <c r="L115" s="34">
+        <v>1</v>
+      </c>
+      <c r="M115" s="34">
+        <v>1</v>
+      </c>
+      <c r="N115" s="34">
+        <v>1</v>
+      </c>
+      <c r="O115" s="34">
+        <v>1</v>
+      </c>
+      <c r="P115" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="34">
+        <v>0</v>
+      </c>
+      <c r="R115" s="34">
+        <v>0</v>
+      </c>
+      <c r="S115" s="34">
+        <v>0</v>
+      </c>
+      <c r="T115" s="34">
+        <v>0</v>
+      </c>
+      <c r="U115" s="34">
         <v>0</v>
       </c>
     </row>
@@ -9829,16 +9828,19 @@
         <v>113</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>228</v>
+        <v>307</v>
+      </c>
+      <c r="F116" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="K116" s="34">
         <v>1</v>
@@ -9874,21 +9876,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
         <v>114</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="F117" s="35" t="s">
+        <v>318</v>
       </c>
       <c r="K117" s="34">
         <v>1</v>
@@ -9929,16 +9934,19 @@
         <v>115</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="D118" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>230</v>
+        <v>238</v>
+      </c>
+      <c r="F118" s="35" t="s">
+        <v>238</v>
       </c>
       <c r="K118" s="34">
         <v>1</v>
@@ -9979,16 +9987,19 @@
         <v>116</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="F119" s="35" t="s">
+        <v>317</v>
       </c>
       <c r="K119" s="34">
         <v>1</v>
@@ -10029,16 +10040,19 @@
         <v>117</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E120" s="35" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="K120" s="34">
         <v>1</v>
@@ -10079,16 +10093,19 @@
         <v>118</v>
       </c>
       <c r="B121" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="35" t="s">
         <v>308</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>325</v>
+        <v>319</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10129,16 +10146,19 @@
         <v>119</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>238</v>
+        <v>314</v>
+      </c>
+      <c r="F122" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10179,16 +10199,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>324</v>
+        <v>316</v>
+      </c>
+      <c r="F123" s="35" t="s">
+        <v>316</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10224,21 +10247,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="29">
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10279,16 +10305,19 @@
         <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>326</v>
+        <v>309</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10329,16 +10358,19 @@
         <v>123</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>321</v>
+        <v>302</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>302</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10379,16 +10411,19 @@
         <v>124</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="F127" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10424,21 +10459,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="29">
         <v>125</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="F128" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10479,16 +10517,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>316</v>
+        <v>326</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -10529,16 +10570,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>309</v>
+        <v>324</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -10579,16 +10623,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>328</v>
+        <v>459</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>459</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -10624,427 +10671,427 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="29">
         <v>129</v>
       </c>
-      <c r="B132" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="K132" s="34">
-        <v>1</v>
-      </c>
-      <c r="L132" s="34">
-        <v>1</v>
-      </c>
-      <c r="M132" s="34">
-        <v>1</v>
-      </c>
-      <c r="N132" s="34">
-        <v>1</v>
-      </c>
-      <c r="O132" s="34">
-        <v>1</v>
-      </c>
-      <c r="P132" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="34">
-        <v>0</v>
-      </c>
-      <c r="R132" s="34">
-        <v>0</v>
-      </c>
-      <c r="S132" s="34">
-        <v>0</v>
-      </c>
-      <c r="T132" s="34">
-        <v>0</v>
-      </c>
-      <c r="U132" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K132" s="37">
+        <v>1</v>
+      </c>
+      <c r="L132" s="37">
+        <v>1</v>
+      </c>
+      <c r="M132" s="37">
+        <v>1</v>
+      </c>
+      <c r="N132" s="37">
+        <v>1</v>
+      </c>
+      <c r="O132" s="37">
+        <v>1</v>
+      </c>
+      <c r="P132" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="37">
+        <v>0</v>
+      </c>
+      <c r="R132" s="37">
+        <v>0</v>
+      </c>
+      <c r="S132" s="37">
+        <v>0</v>
+      </c>
+      <c r="T132" s="37">
+        <v>0</v>
+      </c>
+      <c r="U132" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29">
         <v>130</v>
       </c>
-      <c r="B133" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D133" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="K133" s="34">
-        <v>1</v>
-      </c>
-      <c r="L133" s="34">
-        <v>1</v>
-      </c>
-      <c r="M133" s="34">
-        <v>1</v>
-      </c>
-      <c r="N133" s="34">
-        <v>1</v>
-      </c>
-      <c r="O133" s="34">
-        <v>1</v>
-      </c>
-      <c r="P133" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="34">
-        <v>0</v>
-      </c>
-      <c r="R133" s="34">
-        <v>0</v>
-      </c>
-      <c r="S133" s="34">
-        <v>0</v>
-      </c>
-      <c r="T133" s="34">
-        <v>0</v>
-      </c>
-      <c r="U133" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K133" s="37">
+        <v>1</v>
+      </c>
+      <c r="L133" s="37">
+        <v>1</v>
+      </c>
+      <c r="M133" s="37">
+        <v>1</v>
+      </c>
+      <c r="N133" s="37">
+        <v>1</v>
+      </c>
+      <c r="O133" s="37">
+        <v>1</v>
+      </c>
+      <c r="P133" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="37">
+        <v>0</v>
+      </c>
+      <c r="R133" s="37">
+        <v>0</v>
+      </c>
+      <c r="S133" s="37">
+        <v>0</v>
+      </c>
+      <c r="T133" s="37">
+        <v>0</v>
+      </c>
+      <c r="U133" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
         <v>131</v>
       </c>
-      <c r="B134" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="K134" s="34">
-        <v>1</v>
-      </c>
-      <c r="L134" s="34">
-        <v>1</v>
-      </c>
-      <c r="M134" s="34">
-        <v>1</v>
-      </c>
-      <c r="N134" s="34">
-        <v>1</v>
-      </c>
-      <c r="O134" s="34">
-        <v>1</v>
-      </c>
-      <c r="P134" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="34">
-        <v>0</v>
-      </c>
-      <c r="R134" s="34">
-        <v>0</v>
-      </c>
-      <c r="S134" s="34">
-        <v>0</v>
-      </c>
-      <c r="T134" s="34">
-        <v>0</v>
-      </c>
-      <c r="U134" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K134" s="37">
+        <v>1</v>
+      </c>
+      <c r="L134" s="37">
+        <v>1</v>
+      </c>
+      <c r="M134" s="37">
+        <v>1</v>
+      </c>
+      <c r="N134" s="37">
+        <v>1</v>
+      </c>
+      <c r="O134" s="37">
+        <v>1</v>
+      </c>
+      <c r="P134" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="37">
+        <v>0</v>
+      </c>
+      <c r="R134" s="37">
+        <v>0</v>
+      </c>
+      <c r="S134" s="37">
+        <v>0</v>
+      </c>
+      <c r="T134" s="37">
+        <v>0</v>
+      </c>
+      <c r="U134" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
-        <v>132</v>
-      </c>
-      <c r="B135" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="K135" s="34">
-        <v>1</v>
-      </c>
-      <c r="L135" s="34">
-        <v>1</v>
-      </c>
-      <c r="M135" s="34">
-        <v>1</v>
-      </c>
-      <c r="N135" s="34">
-        <v>1</v>
-      </c>
-      <c r="O135" s="34">
-        <v>1</v>
-      </c>
-      <c r="P135" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="34">
-        <v>0</v>
-      </c>
-      <c r="R135" s="34">
-        <v>0</v>
-      </c>
-      <c r="S135" s="34">
-        <v>0</v>
-      </c>
-      <c r="T135" s="34">
-        <v>0</v>
-      </c>
-      <c r="U135" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K135" s="32">
+        <v>1</v>
+      </c>
+      <c r="L135" s="32">
+        <v>0</v>
+      </c>
+      <c r="M135" s="32">
+        <v>1</v>
+      </c>
+      <c r="N135" s="32">
+        <v>1</v>
+      </c>
+      <c r="O135" s="32">
+        <v>0</v>
+      </c>
+      <c r="P135" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="32">
+        <v>0</v>
+      </c>
+      <c r="R135" s="32">
+        <v>0</v>
+      </c>
+      <c r="S135" s="32">
+        <v>0</v>
+      </c>
+      <c r="T135" s="32">
+        <v>0</v>
+      </c>
+      <c r="U135" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
-        <v>133</v>
-      </c>
-      <c r="B136" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D136" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="E136" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="K136" s="37">
-        <v>1</v>
-      </c>
-      <c r="L136" s="37">
-        <v>1</v>
-      </c>
-      <c r="M136" s="37">
-        <v>1</v>
-      </c>
-      <c r="N136" s="37">
-        <v>1</v>
-      </c>
-      <c r="O136" s="37">
-        <v>1</v>
-      </c>
-      <c r="P136" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="37">
-        <v>0</v>
-      </c>
-      <c r="R136" s="37">
-        <v>0</v>
-      </c>
-      <c r="S136" s="37">
-        <v>0</v>
-      </c>
-      <c r="T136" s="37">
-        <v>0</v>
-      </c>
-      <c r="U136" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="K136" s="32">
+        <v>1</v>
+      </c>
+      <c r="L136" s="32">
+        <v>0</v>
+      </c>
+      <c r="M136" s="32">
+        <v>0</v>
+      </c>
+      <c r="N136" s="32">
+        <v>0</v>
+      </c>
+      <c r="O136" s="32">
+        <v>0</v>
+      </c>
+      <c r="P136" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="32">
+        <v>0</v>
+      </c>
+      <c r="R136" s="32">
+        <v>0</v>
+      </c>
+      <c r="S136" s="32">
+        <v>0</v>
+      </c>
+      <c r="T136" s="32">
+        <v>0</v>
+      </c>
+      <c r="U136" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="29">
-        <v>134</v>
-      </c>
-      <c r="B137" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C137" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D137" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="E137" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="K137" s="37">
-        <v>1</v>
-      </c>
-      <c r="L137" s="37">
-        <v>1</v>
-      </c>
-      <c r="M137" s="37">
-        <v>1</v>
-      </c>
-      <c r="N137" s="37">
-        <v>1</v>
-      </c>
-      <c r="O137" s="37">
-        <v>1</v>
-      </c>
-      <c r="P137" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="37">
-        <v>0</v>
-      </c>
-      <c r="R137" s="37">
-        <v>0</v>
-      </c>
-      <c r="S137" s="37">
-        <v>0</v>
-      </c>
-      <c r="T137" s="37">
-        <v>0</v>
-      </c>
-      <c r="U137" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="K137" s="32">
+        <v>1</v>
+      </c>
+      <c r="L137" s="32">
+        <v>0</v>
+      </c>
+      <c r="M137" s="32">
+        <v>0</v>
+      </c>
+      <c r="N137" s="32">
+        <v>0</v>
+      </c>
+      <c r="O137" s="32">
+        <v>0</v>
+      </c>
+      <c r="P137" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="32">
+        <v>0</v>
+      </c>
+      <c r="R137" s="32">
+        <v>0</v>
+      </c>
+      <c r="S137" s="32">
+        <v>0</v>
+      </c>
+      <c r="T137" s="32">
+        <v>0</v>
+      </c>
+      <c r="U137" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="29">
-        <v>135</v>
-      </c>
-      <c r="B138" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="D138" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E138" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="K138" s="37">
-        <v>1</v>
-      </c>
-      <c r="L138" s="37">
-        <v>1</v>
-      </c>
-      <c r="M138" s="37">
-        <v>1</v>
-      </c>
-      <c r="N138" s="37">
-        <v>1</v>
-      </c>
-      <c r="O138" s="37">
-        <v>1</v>
-      </c>
-      <c r="P138" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="37">
-        <v>0</v>
-      </c>
-      <c r="R138" s="37">
-        <v>0</v>
-      </c>
-      <c r="S138" s="37">
-        <v>0</v>
-      </c>
-      <c r="T138" s="37">
-        <v>0</v>
-      </c>
-      <c r="U138" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="K138" s="32">
+        <v>1</v>
+      </c>
+      <c r="L138" s="32">
+        <v>0</v>
+      </c>
+      <c r="M138" s="32">
+        <v>0</v>
+      </c>
+      <c r="N138" s="32">
+        <v>0</v>
+      </c>
+      <c r="O138" s="32">
+        <v>0</v>
+      </c>
+      <c r="P138" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="32">
+        <v>0</v>
+      </c>
+      <c r="R138" s="32">
+        <v>0</v>
+      </c>
+      <c r="S138" s="32">
+        <v>0</v>
+      </c>
+      <c r="T138" s="32">
+        <v>0</v>
+      </c>
+      <c r="U138" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="29">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K139" s="32">
-        <v>1</v>
-      </c>
-      <c r="L139" s="32">
-        <v>0</v>
-      </c>
-      <c r="M139" s="32">
-        <v>1</v>
-      </c>
-      <c r="N139" s="32">
-        <v>1</v>
-      </c>
-      <c r="O139" s="32">
-        <v>0</v>
-      </c>
-      <c r="P139" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="32">
-        <v>0</v>
-      </c>
-      <c r="R139" s="32">
-        <v>0</v>
-      </c>
-      <c r="S139" s="32">
-        <v>0</v>
-      </c>
-      <c r="T139" s="32">
-        <v>0</v>
-      </c>
-      <c r="U139" s="32">
+        <v>268</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="H139" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="I139" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K139" s="40">
+        <v>1</v>
+      </c>
+      <c r="L139" s="40">
+        <v>0</v>
+      </c>
+      <c r="M139" s="40">
+        <v>1</v>
+      </c>
+      <c r="N139" s="40">
+        <v>1</v>
+      </c>
+      <c r="O139" s="40">
+        <v>0</v>
+      </c>
+      <c r="P139" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="40">
+        <v>0</v>
+      </c>
+      <c r="R139" s="40">
+        <v>0</v>
+      </c>
+      <c r="S139" s="40">
+        <v>0</v>
+      </c>
+      <c r="T139" s="40">
+        <v>0</v>
+      </c>
+      <c r="U139" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="29">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C140" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D140" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H140" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I140" s="33" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K140" s="32">
         <v>1</v>
@@ -11079,24 +11126,28 @@
       <c r="U140" s="32">
         <v>0</v>
       </c>
-      <c r="V140" s="39"/>
-      <c r="W140" s="39"/>
     </row>
     <row r="141" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="29">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>264</v>
+        <v>272</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H141" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I141" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11131,22 +11182,24 @@
       <c r="U141" s="32">
         <v>0</v>
       </c>
+      <c r="V141" s="39"/>
+      <c r="W141" s="39"/>
     </row>
     <row r="142" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="29">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K142" s="32">
         <v>1</v>
@@ -11184,19 +11237,19 @@
     </row>
     <row r="143" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="29">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K143" s="32">
         <v>1</v>
@@ -11234,19 +11287,19 @@
     </row>
     <row r="144" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" s="32">
         <v>1</v>
@@ -11287,19 +11340,19 @@
     </row>
     <row r="145" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>196</v>
+        <v>467</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -11308,10 +11361,10 @@
         <v>0</v>
       </c>
       <c r="M145" s="32">
-        <v>1</v>
-      </c>
-      <c r="N145" s="32">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N145" s="40">
+        <v>0</v>
       </c>
       <c r="O145" s="32">
         <v>0</v>
@@ -11340,16 +11393,16 @@
         <v>143</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -11358,10 +11411,10 @@
         <v>0</v>
       </c>
       <c r="M146" s="32">
-        <v>0</v>
-      </c>
-      <c r="N146" s="32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N146" s="40">
+        <v>1</v>
       </c>
       <c r="O146" s="32">
         <v>0</v>
@@ -11390,16 +11443,16 @@
         <v>144</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -11408,10 +11461,10 @@
         <v>0</v>
       </c>
       <c r="M147" s="32">
-        <v>0</v>
-      </c>
-      <c r="N147" s="32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N147" s="40">
+        <v>1</v>
       </c>
       <c r="O147" s="32">
         <v>0</v>
@@ -11435,59 +11488,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="29">
         <v>145</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C148" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="D148" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E148" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="H148" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="I148" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K148" s="40">
-        <v>1</v>
-      </c>
-      <c r="L148" s="40">
-        <v>0</v>
-      </c>
-      <c r="M148" s="40">
+        <v>332</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="K148" s="32">
+        <v>1</v>
+      </c>
+      <c r="L148" s="32">
+        <v>0</v>
+      </c>
+      <c r="M148" s="32">
         <v>1</v>
       </c>
       <c r="N148" s="40">
         <v>1</v>
       </c>
-      <c r="O148" s="40">
-        <v>0</v>
-      </c>
-      <c r="P148" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="40">
-        <v>0</v>
-      </c>
-      <c r="R148" s="40">
-        <v>0</v>
-      </c>
-      <c r="S148" s="40">
-        <v>0</v>
-      </c>
-      <c r="T148" s="40">
-        <v>0</v>
-      </c>
-      <c r="U148" s="40">
+      <c r="O148" s="32">
+        <v>0</v>
+      </c>
+      <c r="P148" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="32">
+        <v>0</v>
+      </c>
+      <c r="R148" s="32">
+        <v>0</v>
+      </c>
+      <c r="S148" s="32">
+        <v>0</v>
+      </c>
+      <c r="T148" s="32">
+        <v>0</v>
+      </c>
+      <c r="U148" s="32">
         <v>0</v>
       </c>
     </row>
@@ -11496,17 +11543,23 @@
         <v>146</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C149" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I149" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D149" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>340</v>
-      </c>
       <c r="K149" s="32">
         <v>1</v>
       </c>
@@ -11540,22 +11593,24 @@
       <c r="U149" s="32">
         <v>0</v>
       </c>
+      <c r="V149" s="39"/>
+      <c r="W149" s="39"/>
     </row>
     <row r="150" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
         <v>147</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -11564,10 +11619,10 @@
         <v>0</v>
       </c>
       <c r="M150" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150" s="32">
         <v>0</v>
@@ -11591,21 +11646,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>174</v>
+        <v>442</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>346</v>
+        <v>443</v>
       </c>
       <c r="K151" s="32">
         <v>1</v>
@@ -11646,16 +11701,16 @@
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="D152" s="38" t="s">
         <v>124</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>121</v>
@@ -11704,16 +11759,16 @@
         <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -11749,179 +11804,198 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
         <v>151</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="K154" s="32">
-        <v>1</v>
-      </c>
-      <c r="L154" s="32">
-        <v>0</v>
-      </c>
-      <c r="M154" s="32">
-        <v>1</v>
-      </c>
-      <c r="N154" s="40">
-        <v>1</v>
-      </c>
-      <c r="O154" s="32">
-        <v>0</v>
-      </c>
-      <c r="P154" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q154" s="32">
-        <v>0</v>
-      </c>
-      <c r="R154" s="32">
-        <v>0</v>
-      </c>
-      <c r="S154" s="32">
-        <v>0</v>
-      </c>
-      <c r="T154" s="32">
-        <v>0</v>
-      </c>
-      <c r="U154" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9">
+        <v>1</v>
+      </c>
+      <c r="L154" s="9">
+        <v>1</v>
+      </c>
+      <c r="M154" s="9">
+        <v>1</v>
+      </c>
+      <c r="N154" s="9">
+        <v>1</v>
+      </c>
+      <c r="O154" s="9">
+        <v>1</v>
+      </c>
+      <c r="P154" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="9">
+        <v>0</v>
+      </c>
+      <c r="R154" s="9">
+        <v>0</v>
+      </c>
+      <c r="S154" s="9">
+        <v>0</v>
+      </c>
+      <c r="T154" s="9">
+        <v>0</v>
+      </c>
+      <c r="U154" s="9">
+        <v>0</v>
+      </c>
+      <c r="V154" s="9"/>
+      <c r="W154" s="9"/>
+      <c r="X154" s="9"/>
+      <c r="Y154" s="9"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
         <v>152</v>
       </c>
-      <c r="B155" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="H155" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I155" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K155" s="32">
-        <v>1</v>
-      </c>
-      <c r="L155" s="32">
-        <v>0</v>
-      </c>
-      <c r="M155" s="32">
-        <v>1</v>
-      </c>
-      <c r="N155" s="40">
-        <v>1</v>
-      </c>
-      <c r="O155" s="32">
-        <v>0</v>
-      </c>
-      <c r="P155" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q155" s="32">
-        <v>0</v>
-      </c>
-      <c r="R155" s="32">
-        <v>0</v>
-      </c>
-      <c r="S155" s="32">
-        <v>0</v>
-      </c>
-      <c r="T155" s="32">
-        <v>0</v>
-      </c>
-      <c r="U155" s="32">
-        <v>0</v>
-      </c>
-      <c r="V155" s="39"/>
-      <c r="W155" s="39"/>
-    </row>
-    <row r="156" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9">
+        <v>1</v>
+      </c>
+      <c r="L155" s="9">
+        <v>1</v>
+      </c>
+      <c r="M155" s="9">
+        <v>1</v>
+      </c>
+      <c r="N155" s="9">
+        <v>1</v>
+      </c>
+      <c r="O155" s="9">
+        <v>1</v>
+      </c>
+      <c r="P155" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="9">
+        <v>0</v>
+      </c>
+      <c r="R155" s="9">
+        <v>0</v>
+      </c>
+      <c r="S155" s="9">
+        <v>0</v>
+      </c>
+      <c r="T155" s="9">
+        <v>0</v>
+      </c>
+      <c r="U155" s="9">
+        <v>0</v>
+      </c>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A156" s="29">
         <v>153</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="K156" s="32">
-        <v>1</v>
-      </c>
-      <c r="L156" s="32">
-        <v>0</v>
-      </c>
-      <c r="M156" s="32">
-        <v>0</v>
-      </c>
-      <c r="N156" s="40">
-        <v>0</v>
-      </c>
-      <c r="O156" s="32">
-        <v>0</v>
-      </c>
-      <c r="P156" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="32">
-        <v>0</v>
-      </c>
-      <c r="R156" s="32">
-        <v>0</v>
-      </c>
-      <c r="S156" s="32">
-        <v>0</v>
-      </c>
-      <c r="T156" s="32">
-        <v>0</v>
-      </c>
-      <c r="U156" s="32">
-        <v>0</v>
-      </c>
+      <c r="B156" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9">
+        <v>1</v>
+      </c>
+      <c r="L156" s="9">
+        <v>1</v>
+      </c>
+      <c r="M156" s="9">
+        <v>1</v>
+      </c>
+      <c r="N156" s="9">
+        <v>1</v>
+      </c>
+      <c r="O156" s="9">
+        <v>1</v>
+      </c>
+      <c r="P156" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="9">
+        <v>0</v>
+      </c>
+      <c r="R156" s="9">
+        <v>0</v>
+      </c>
+      <c r="S156" s="9">
+        <v>0</v>
+      </c>
+      <c r="T156" s="9">
+        <v>0</v>
+      </c>
+      <c r="U156" s="9">
+        <v>0</v>
+      </c>
+      <c r="V156" s="9"/>
+      <c r="W156" s="9"/>
+      <c r="X156" s="9"/>
+      <c r="Y156" s="9"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A157" s="29">
         <v>154</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>129</v>
+        <v>359</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>359</v>
+        <v>144</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -11971,16 +12045,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C158" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -11994,13 +12068,13 @@
         <v>1</v>
       </c>
       <c r="M158" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O158" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P158" s="9">
         <v>0</v>
@@ -12025,348 +12099,321 @@
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="29">
         <v>156</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9">
-        <v>1</v>
-      </c>
-      <c r="L159" s="9">
-        <v>1</v>
-      </c>
-      <c r="M159" s="9">
-        <v>1</v>
-      </c>
-      <c r="N159" s="9">
-        <v>1</v>
-      </c>
-      <c r="O159" s="9">
-        <v>1</v>
-      </c>
-      <c r="P159" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="9">
-        <v>0</v>
-      </c>
-      <c r="R159" s="9">
-        <v>0</v>
-      </c>
-      <c r="S159" s="9">
-        <v>0</v>
-      </c>
-      <c r="T159" s="9">
-        <v>0</v>
-      </c>
-      <c r="U159" s="9">
-        <v>0</v>
-      </c>
-      <c r="V159" s="9"/>
-      <c r="W159" s="9"/>
-      <c r="X159" s="9"/>
-      <c r="Y159" s="9"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B159" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C159" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K159" s="43">
+        <v>1</v>
+      </c>
+      <c r="L159" s="43">
+        <v>1</v>
+      </c>
+      <c r="M159" s="43">
+        <v>1</v>
+      </c>
+      <c r="N159" s="43">
+        <v>1</v>
+      </c>
+      <c r="O159" s="43">
+        <v>1</v>
+      </c>
+      <c r="P159" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="43">
+        <v>0</v>
+      </c>
+      <c r="R159" s="43">
+        <v>0</v>
+      </c>
+      <c r="S159" s="43">
+        <v>0</v>
+      </c>
+      <c r="T159" s="43">
+        <v>0</v>
+      </c>
+      <c r="U159" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="29">
         <v>157</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9">
-        <v>1</v>
-      </c>
-      <c r="L160" s="9">
-        <v>1</v>
-      </c>
-      <c r="M160" s="9">
-        <v>1</v>
-      </c>
-      <c r="N160" s="9">
-        <v>1</v>
-      </c>
-      <c r="O160" s="9">
-        <v>1</v>
-      </c>
-      <c r="P160" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="9">
-        <v>0</v>
-      </c>
-      <c r="R160" s="9">
-        <v>0</v>
-      </c>
-      <c r="S160" s="9">
-        <v>0</v>
-      </c>
-      <c r="T160" s="9">
-        <v>0</v>
-      </c>
-      <c r="U160" s="9">
-        <v>0</v>
-      </c>
-      <c r="V160" s="9"/>
-      <c r="W160" s="9"/>
-      <c r="X160" s="9"/>
-      <c r="Y160" s="9"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B160" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="D160" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="E160" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K160" s="43">
+        <v>1</v>
+      </c>
+      <c r="L160" s="43">
+        <v>1</v>
+      </c>
+      <c r="M160" s="43">
+        <v>1</v>
+      </c>
+      <c r="N160" s="43">
+        <v>1</v>
+      </c>
+      <c r="O160" s="43">
+        <v>1</v>
+      </c>
+      <c r="P160" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="43">
+        <v>0</v>
+      </c>
+      <c r="R160" s="43">
+        <v>0</v>
+      </c>
+      <c r="S160" s="43">
+        <v>0</v>
+      </c>
+      <c r="T160" s="43">
+        <v>0</v>
+      </c>
+      <c r="U160" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="29">
         <v>158</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9">
-        <v>1</v>
-      </c>
-      <c r="L161" s="9">
-        <v>1</v>
-      </c>
-      <c r="M161" s="9">
-        <v>0</v>
-      </c>
-      <c r="N161" s="9">
-        <v>0</v>
-      </c>
-      <c r="O161" s="9">
-        <v>0</v>
-      </c>
-      <c r="P161" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="9">
-        <v>0</v>
-      </c>
-      <c r="R161" s="9">
-        <v>0</v>
-      </c>
-      <c r="S161" s="9">
-        <v>0</v>
-      </c>
-      <c r="T161" s="9">
-        <v>0</v>
-      </c>
-      <c r="U161" s="9">
-        <v>0</v>
-      </c>
-      <c r="V161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="X161" s="9"/>
-      <c r="Y161" s="9"/>
-    </row>
-    <row r="162" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D161" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="E161" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K161" s="43">
+        <v>1</v>
+      </c>
+      <c r="L161" s="43">
+        <v>1</v>
+      </c>
+      <c r="M161" s="43">
+        <v>1</v>
+      </c>
+      <c r="N161" s="43">
+        <v>1</v>
+      </c>
+      <c r="O161" s="43">
+        <v>1</v>
+      </c>
+      <c r="P161" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="43">
+        <v>0</v>
+      </c>
+      <c r="R161" s="43">
+        <v>0</v>
+      </c>
+      <c r="S161" s="43">
+        <v>0</v>
+      </c>
+      <c r="T161" s="43">
+        <v>0</v>
+      </c>
+      <c r="U161" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
         <v>159</v>
       </c>
-      <c r="B162" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="C162" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="D162" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="E162" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="K162" s="43">
-        <v>1</v>
-      </c>
-      <c r="L162" s="43">
-        <v>1</v>
-      </c>
-      <c r="M162" s="43">
-        <v>1</v>
-      </c>
-      <c r="N162" s="43">
-        <v>1</v>
-      </c>
-      <c r="O162" s="43">
-        <v>1</v>
-      </c>
-      <c r="P162" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="43">
-        <v>0</v>
-      </c>
-      <c r="R162" s="43">
-        <v>0</v>
-      </c>
-      <c r="S162" s="43">
-        <v>0</v>
-      </c>
-      <c r="T162" s="43">
-        <v>0</v>
-      </c>
-      <c r="U162" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C162" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E162" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K162" s="49">
+        <v>1</v>
+      </c>
+      <c r="L162" s="49">
+        <v>1</v>
+      </c>
+      <c r="M162" s="49">
+        <v>0</v>
+      </c>
+      <c r="N162" s="49">
+        <v>0</v>
+      </c>
+      <c r="O162" s="49">
+        <v>0</v>
+      </c>
+      <c r="P162" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="49">
+        <v>0</v>
+      </c>
+      <c r="R162" s="49">
+        <v>0</v>
+      </c>
+      <c r="S162" s="49">
+        <v>0</v>
+      </c>
+      <c r="T162" s="49">
+        <v>0</v>
+      </c>
+      <c r="U162" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
-      <c r="B163" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="C163" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="D163" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="E163" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="K163" s="43">
-        <v>1</v>
-      </c>
-      <c r="L163" s="43">
-        <v>1</v>
-      </c>
-      <c r="M163" s="43">
-        <v>1</v>
-      </c>
-      <c r="N163" s="43">
-        <v>1</v>
-      </c>
-      <c r="O163" s="43">
-        <v>1</v>
-      </c>
-      <c r="P163" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="43">
-        <v>0</v>
-      </c>
-      <c r="R163" s="43">
-        <v>0</v>
-      </c>
-      <c r="S163" s="43">
-        <v>0</v>
-      </c>
-      <c r="T163" s="43">
-        <v>0</v>
-      </c>
-      <c r="U163" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C163" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="K163" s="49">
+        <v>1</v>
+      </c>
+      <c r="L163" s="49">
+        <v>1</v>
+      </c>
+      <c r="M163" s="49">
+        <v>0</v>
+      </c>
+      <c r="N163" s="49">
+        <v>0</v>
+      </c>
+      <c r="O163" s="49">
+        <v>0</v>
+      </c>
+      <c r="P163" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="49">
+        <v>0</v>
+      </c>
+      <c r="R163" s="49">
+        <v>0</v>
+      </c>
+      <c r="S163" s="49">
+        <v>0</v>
+      </c>
+      <c r="T163" s="49">
+        <v>0</v>
+      </c>
+      <c r="U163" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
-      <c r="B164" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="C164" s="44" t="s">
+      <c r="B164" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="D164" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="E164" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="K164" s="43">
-        <v>1</v>
-      </c>
-      <c r="L164" s="43">
-        <v>1</v>
-      </c>
-      <c r="M164" s="43">
-        <v>1</v>
-      </c>
-      <c r="N164" s="43">
-        <v>1</v>
-      </c>
-      <c r="O164" s="43">
-        <v>1</v>
-      </c>
-      <c r="P164" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="43">
-        <v>0</v>
-      </c>
-      <c r="R164" s="43">
-        <v>0</v>
-      </c>
-      <c r="S164" s="43">
-        <v>0</v>
-      </c>
-      <c r="T164" s="43">
-        <v>0</v>
-      </c>
-      <c r="U164" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="K164" s="49">
+        <v>1</v>
+      </c>
+      <c r="L164" s="49">
+        <v>1</v>
+      </c>
+      <c r="M164" s="49">
+        <v>0</v>
+      </c>
+      <c r="N164" s="49">
+        <v>0</v>
+      </c>
+      <c r="O164" s="49">
+        <v>0</v>
+      </c>
+      <c r="P164" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="49">
+        <v>0</v>
+      </c>
+      <c r="R164" s="49">
+        <v>0</v>
+      </c>
+      <c r="S164" s="49">
+        <v>0</v>
+      </c>
+      <c r="T164" s="49">
+        <v>0</v>
+      </c>
+      <c r="U164" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
         <v>162</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C165" s="48" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D165" s="48" t="s">
-        <v>198</v>
+        <v>398</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K165" s="49">
         <v>1</v>
@@ -12402,21 +12449,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
         <v>163</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D166" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
       <c r="K166" s="49">
         <v>1</v>
@@ -12452,22 +12499,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
         <v>164</v>
       </c>
       <c r="B167" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C167" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D167" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="E167" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="C167" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="D167" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E167" s="48" t="s">
-        <v>474</v>
-      </c>
       <c r="K167" s="49">
         <v>1</v>
       </c>
@@ -12502,21 +12549,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="29">
         <v>165</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K168" s="49">
         <v>1</v>
@@ -12552,21 +12599,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="29">
         <v>166</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D169" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K169" s="49">
         <v>1</v>
@@ -12602,21 +12649,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="29">
         <v>167</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D170" s="48" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K170" s="49">
         <v>1</v>
@@ -12652,21 +12699,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="29">
         <v>168</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D171" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K171" s="49">
         <v>1</v>
@@ -12702,21 +12749,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="29">
         <v>169</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C172" s="48" t="s">
-        <v>416</v>
+        <v>393</v>
+      </c>
+      <c r="C172" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="D172" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K172" s="49">
         <v>1</v>
@@ -12752,21 +12799,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="29">
         <v>170</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K173" s="49">
         <v>1</v>
@@ -12802,21 +12849,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="29">
         <v>171</v>
       </c>
       <c r="B174" s="48" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D174" s="48" t="s">
-        <v>198</v>
+        <v>418</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K174" s="49">
         <v>1</v>
@@ -12852,21 +12899,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="29">
         <v>172</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C175" s="49" t="s">
-        <v>422</v>
+        <v>393</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>492</v>
       </c>
       <c r="D175" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="K175" s="49">
         <v>1</v>
@@ -12902,21 +12949,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="29">
         <v>173</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="D176" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="K176" s="49">
         <v>1</v>
@@ -12957,16 +13004,16 @@
         <v>174</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>428</v>
+        <v>198</v>
       </c>
       <c r="E177" s="48" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="K177" s="49">
         <v>1</v>
@@ -13004,19 +13051,19 @@
     </row>
     <row r="178" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D178" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K178" s="49">
         <v>1</v>
@@ -13054,19 +13101,19 @@
     </row>
     <row r="179" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>504</v>
+        <v>420</v>
       </c>
       <c r="D179" s="48" t="s">
-        <v>198</v>
+        <v>398</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="K179" s="49">
         <v>1</v>
@@ -13104,19 +13151,19 @@
     </row>
     <row r="180" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="K180" s="49">
         <v>1</v>
@@ -13154,19 +13201,19 @@
     </row>
     <row r="181" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>502</v>
+        <v>425</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13204,19 +13251,19 @@
     </row>
     <row r="182" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D182" s="48" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13254,20 +13301,21 @@
     </row>
     <row r="183" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C183" s="48" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D183" s="48" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>433</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="H183" s="48"/>
       <c r="K183" s="49">
         <v>1</v>
       </c>
@@ -13302,245 +13350,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
-        <v>177</v>
-      </c>
-      <c r="B184" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="C184" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="D184" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E184" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="K184" s="49">
-        <v>1</v>
-      </c>
-      <c r="L184" s="49">
-        <v>1</v>
-      </c>
-      <c r="M184" s="49">
-        <v>0</v>
-      </c>
-      <c r="N184" s="49">
-        <v>0</v>
-      </c>
-      <c r="O184" s="49">
-        <v>0</v>
-      </c>
-      <c r="P184" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="49">
-        <v>0</v>
-      </c>
-      <c r="R184" s="49">
-        <v>0</v>
-      </c>
-      <c r="S184" s="49">
-        <v>0</v>
-      </c>
-      <c r="T184" s="49">
-        <v>0</v>
-      </c>
-      <c r="U184" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
-        <v>178</v>
-      </c>
-      <c r="B185" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="D185" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E185" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="K185" s="49">
-        <v>1</v>
-      </c>
-      <c r="L185" s="49">
-        <v>1</v>
-      </c>
-      <c r="M185" s="49">
-        <v>0</v>
-      </c>
-      <c r="N185" s="49">
-        <v>0</v>
-      </c>
-      <c r="O185" s="49">
-        <v>0</v>
-      </c>
-      <c r="P185" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="49">
-        <v>0</v>
-      </c>
-      <c r="R185" s="49">
-        <v>0</v>
-      </c>
-      <c r="S185" s="49">
-        <v>0</v>
-      </c>
-      <c r="T185" s="49">
-        <v>0</v>
-      </c>
-      <c r="U185" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
-        <v>179</v>
-      </c>
-      <c r="B186" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C186" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="D186" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E186" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="H186" s="48"/>
-      <c r="K186" s="49">
-        <v>1</v>
-      </c>
-      <c r="L186" s="49">
-        <v>1</v>
-      </c>
-      <c r="M186" s="49">
-        <v>0</v>
-      </c>
-      <c r="N186" s="49">
-        <v>0</v>
-      </c>
-      <c r="O186" s="49">
-        <v>0</v>
-      </c>
-      <c r="P186" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="49">
-        <v>0</v>
-      </c>
-      <c r="R186" s="49">
-        <v>0</v>
-      </c>
-      <c r="S186" s="49">
-        <v>0</v>
-      </c>
-      <c r="T186" s="49">
-        <v>0</v>
-      </c>
-      <c r="U186" s="49">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="29">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="29">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="29">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="29">
         <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="29">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="29">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="29">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="29">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="29">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="29">
-        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="516">
   <si>
     <t>Class</t>
   </si>
@@ -1254,13 +1254,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>opfive</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
+      <t>opten</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最多击伤数</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -1270,8 +1273,1523 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>opten</t>
-    </r>
+      <t>axhurt</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最多伤害量</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axmove</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最大移动距离（米）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最多点穴次数</t>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石(充值)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜钱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银两</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achieve</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chieve</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就完成情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就完成数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家模型id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothesid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家时装id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配小组id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配小组属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupmember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到的邀请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到的申请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家队伍id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像框</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否准备( 1是 0不是 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>captainid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>grading</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像图标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>configid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件配置表id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者服务器id( 服务器使用 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家头像图标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最多救援数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名前五场数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名前十场数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>救援数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxrescue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axdianxue</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxsurvival</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大存活时间（秒）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总伤害量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总击杀数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总移动距离(米)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总存活时间（秒）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dianxue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总点穴次数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxaccuracy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大招式精准度（万分比）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalscore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总招式精准度（万分比）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配模式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请的玩家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请者从哪里发起</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nowgroupcount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大队伍人数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大成员数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxgroupcount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前队伍人数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uild</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifesto</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派宣言</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uild</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮主id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>asic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>singlescore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishorder</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心愿单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wishorder</t>
+  </si>
+  <si>
+    <t>Wishorder</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>心愿单商城i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int64</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心愿单生成时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心愿单可见状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的最近列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家账号id(服务器使用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etting</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoopen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开门[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pi</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreview</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许他人查看历史战绩[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atchbattle</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许观战[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icture</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面品质[0,3]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数设置[0,3]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>utopick</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动拾取[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>picklistoff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起拾取列表时，停止自动拾取[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainsound</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oundeffects</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nterfacesound</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etting</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gm</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ike</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peaker</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬声器音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>howtime</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精彩时刻[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reerecord</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由录制[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ud</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义面板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线同步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏设置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家渠道id(服务器使用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的玩家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家基础属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int64</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局排名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局击杀人数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局评分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>recenttype</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总死亡数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系类型(0-队友，1-仇人)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalnum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局总人数或总队伍数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小眼睛灵敏度设置[0,2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyesdpi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头灵敏度设置[0,2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起邀请的时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过时间( 防止快速操作造成数据混乱 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动创建对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>键名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步查询者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oundswitch</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfaceswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgmswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队伍信息, 队员包括自己</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配模式id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入队伍时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxcount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队员信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1292,10 +2810,23 @@
   </si>
   <si>
     <t>单场最多击伤数</t>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总击杀数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupapply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -1305,16 +2836,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>axhurt</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单场最多伤害量</t>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
+      <t>core</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>victory</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -1324,35 +2856,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>axmove</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单场最大移动距离（米）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单场最多点穴次数</t>
-  </si>
-  <si>
-    <t>diamond</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石(充值)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银两</t>
+      <t>opfive</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1361,282 +2866,6 @@
   </si>
   <si>
     <t>kill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achieve</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>chieve</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就完成情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就完成数值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>player</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家模型id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothesid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家时装id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配小组id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配小组属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupmember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到的邀请列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到的申请列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家队伍id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家头像框</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepare</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否准备( 1是 0不是 )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>captainid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>grading</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家头像图标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>configid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件配置表id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者服务器id( 服务器使用 )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家头像图标</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1656,139 +2885,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>单场最多救援数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>core</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名前五场数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名前十场数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>survival</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>救援数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rescue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxrescue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>axdianxue</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxsurvival</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大存活时间（秒）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总伤害量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总击杀数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总移动距离(米)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总存活时间（秒）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dianxue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总点穴次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxaccuracy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大招式精准度（万分比）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalscore</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总招式精准度（万分比）</t>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>kda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>averagekill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场均击杀</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1800,1068 +2912,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hurt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupinvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配模式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请的玩家</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>source</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请者从哪里发起</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>nowgroupcount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大队伍人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大成员数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxgroupcount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前队伍人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uild</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派名字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>manifesto</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派宣言</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uild</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮主id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>asic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Player</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>singlescore</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>wishorder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupapply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心愿单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wishorder</t>
-  </si>
-  <si>
-    <t>Wishorder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>心愿单商城i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int64</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心愿单生成时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>心愿单可见状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>recent</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>record</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家的最近列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家账号id(服务器使用)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>etting</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoopen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动开门[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pi</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreview</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许他人查看历史战绩[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>atchbattle</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许观战[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>icture</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面品质[0,3]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ps</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧数设置[0,3]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>utopick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动拾取[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>picklistoff</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收起拾取列表时，停止自动拾取[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainsound</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oundeffects</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nterfacesound</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>etting</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gm</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ike</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克风音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>peaker</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬声器音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>howtime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>精彩时刻[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>reerecord</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由录制[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ud</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义面板</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线同步</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏设置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家渠道id(服务器使用)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的玩家</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家基础属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int64</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局排名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局击杀人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局评分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>recenttype</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>die</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总死亡数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系类型(0-队友，1-仇人)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalnum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局总人数或总队伍数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小眼睛灵敏度设置[0,2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eyesdpi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头灵敏度设置[0,2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起邀请的时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过时间( 防止快速操作造成数据混乱 )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatetime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动创建对象</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>键名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步查询者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sync</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oundswitch</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>interfaceswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgmswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配队伍信息, 队员包括自己</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配模式id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入队伍时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxcount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配队员信息</t>
+    <t>winrate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜率(客户端显示需要除以10000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kda比(客户端显示需要除以10000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场均击杀(客户端显示需要除以10000)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3639,11 +3702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y194"/>
+  <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112:F131"/>
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3712,28 +3775,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -3777,13 +3840,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>161</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>162</v>
@@ -3792,25 +3855,25 @@
         <v>163</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="P2" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="T2" s="26" t="s">
         <v>473</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>482</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>164</v>
@@ -3894,7 +3957,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4007,17 +4070,17 @@
         <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -4064,17 +4127,17 @@
         <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -4475,7 +4538,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -4672,13 +4735,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -4722,13 +4785,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -4772,7 +4835,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -4869,16 +4932,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -4919,16 +4982,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -4969,16 +5032,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5019,7 +5082,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5122,7 +5185,7 @@
         <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -5172,7 +5235,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>36</v>
@@ -5222,13 +5285,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K31" s="20">
         <v>1</v>
@@ -5272,7 +5335,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
@@ -5475,13 +5538,13 @@
         <v>114</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F36" s="19"/>
       <c r="K36" s="20">
@@ -5526,13 +5589,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F37" s="19"/>
       <c r="K37" s="20">
@@ -5577,13 +5640,13 @@
         <v>114</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F38" s="19"/>
       <c r="K38" s="20">
@@ -5628,13 +5691,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5678,13 +5741,13 @@
         <v>114</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K40" s="20">
         <v>1</v>
@@ -5791,7 +5854,7 @@
         <v>126</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K42" s="5">
         <v>1</v>
@@ -6039,7 +6102,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>140</v>
@@ -6105,7 +6168,7 @@
         <v>126</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K48" s="5">
         <v>1</v>
@@ -6365,7 +6428,7 @@
         <v>128</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6568,7 +6631,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
@@ -6795,7 +6858,7 @@
         <v>75</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>50</v>
@@ -7004,7 +7067,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>147</v>
@@ -7179,7 +7242,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>188</v>
@@ -7353,16 +7416,16 @@
         <v>223</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="K71" s="7">
         <v>1</v>
@@ -7406,16 +7469,16 @@
         <v>223</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="K72" s="7">
         <v>1</v>
@@ -7459,16 +7522,16 @@
         <v>171</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>129</v>
@@ -7518,16 +7581,16 @@
         <v>171</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7571,16 +7634,16 @@
         <v>171</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>129</v>
@@ -7630,16 +7693,16 @@
         <v>171</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>129</v>
@@ -7689,10 +7752,10 @@
         <v>171</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>224</v>
@@ -7701,7 +7764,7 @@
         <v>224</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K77" s="42">
         <v>1</v>
@@ -7745,7 +7808,7 @@
         <v>171</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>327</v>
+        <v>510</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>124</v>
@@ -7757,7 +7820,7 @@
         <v>225</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K78" s="42">
         <v>1</v>
@@ -7801,7 +7864,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>328</v>
+        <v>511</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>124</v>
@@ -7813,7 +7876,7 @@
         <v>226</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -7857,7 +7920,7 @@
         <v>171</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>124</v>
@@ -7869,7 +7932,7 @@
         <v>227</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K80" s="42">
         <v>1</v>
@@ -7913,22 +7976,22 @@
         <v>199</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K81" s="7">
         <v>1</v>
@@ -7972,22 +8035,22 @@
         <v>171</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K82" s="7">
         <v>1</v>
@@ -8028,19 +8091,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8084,13 +8147,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8131,7 +8194,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C85" s="45" t="s">
         <v>196</v>
@@ -8185,16 +8248,16 @@
         <v>83</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C86" s="45" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H86" s="45" t="s">
         <v>121</v>
@@ -8243,16 +8306,16 @@
         <v>84</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H87" s="45"/>
       <c r="I87" s="45"/>
@@ -8297,16 +8360,16 @@
         <v>85</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D88" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H88" s="45"/>
       <c r="I88" s="45"/>
@@ -8351,16 +8414,16 @@
         <v>86</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -8405,16 +8468,16 @@
         <v>87</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D90" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
@@ -8459,16 +8522,16 @@
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D91" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8513,16 +8576,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -8584,7 +8647,7 @@
         <v>128</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="11">
@@ -9616,10 +9679,10 @@
         <v>109</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>303</v>
+        <v>499</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>198</v>
@@ -9669,19 +9732,19 @@
         <v>110</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>304</v>
+        <v>498</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>229</v>
       </c>
       <c r="E113" s="35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F113" s="35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K113" s="34">
         <v>1</v>
@@ -9722,10 +9785,10 @@
         <v>111</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="D114" s="35" t="s">
         <v>198</v>
@@ -9775,19 +9838,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>301</v>
+        <v>504</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>231</v>
+        <v>512</v>
       </c>
       <c r="D115" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>306</v>
+        <v>513</v>
       </c>
       <c r="F115" s="35" t="s">
-        <v>306</v>
+        <v>505</v>
       </c>
       <c r="K115" s="34">
         <v>1</v>
@@ -9825,22 +9888,22 @@
     </row>
     <row r="116" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>232</v>
+        <v>501</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K116" s="34">
         <v>1</v>
@@ -9878,22 +9941,22 @@
     </row>
     <row r="117" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C117" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="35" t="s">
-        <v>318</v>
-      </c>
       <c r="F117" s="35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K117" s="34">
         <v>1</v>
@@ -9931,22 +9994,22 @@
     </row>
     <row r="118" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="29">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>237</v>
+        <v>502</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="K118" s="34">
         <v>1</v>
@@ -9984,22 +10047,22 @@
     </row>
     <row r="119" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="K119" s="34">
         <v>1</v>
@@ -10037,22 +10100,22 @@
     </row>
     <row r="120" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>233</v>
+        <v>503</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E120" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F120" s="34" t="s">
-        <v>234</v>
+        <v>144</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>311</v>
       </c>
       <c r="K120" s="34">
         <v>1</v>
@@ -10090,22 +10153,22 @@
     </row>
     <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>308</v>
+        <v>494</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>319</v>
+        <v>229</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10143,22 +10206,22 @@
     </row>
     <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>313</v>
+        <v>508</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>314</v>
+        <v>515</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>314</v>
+        <v>509</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10196,22 +10259,22 @@
     </row>
     <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D123" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10247,24 +10310,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="29">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E124" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F124" s="34" t="s">
-        <v>236</v>
+        <v>309</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F124" s="35" t="s">
+        <v>308</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10302,22 +10365,22 @@
     </row>
     <row r="125" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="29">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C125" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E125" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="D125" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>309</v>
-      </c>
       <c r="F125" s="35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10353,24 +10416,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="29">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E126" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F126" s="35" t="s">
-        <v>302</v>
+        <v>317</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10408,22 +10471,22 @@
     </row>
     <row r="127" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="29">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D127" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10461,22 +10524,22 @@
     </row>
     <row r="128" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="29">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D128" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E128" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F128" s="34" t="s">
-        <v>239</v>
+      <c r="E128" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10514,22 +10577,22 @@
     </row>
     <row r="129" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="29">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -10567,22 +10630,22 @@
     </row>
     <row r="130" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="29">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>324</v>
+        <v>198</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -10620,478 +10683,481 @@
     </row>
     <row r="131" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="29">
+        <v>126</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K131" s="34">
+        <v>1</v>
+      </c>
+      <c r="L131" s="34">
+        <v>1</v>
+      </c>
+      <c r="M131" s="34">
+        <v>1</v>
+      </c>
+      <c r="N131" s="34">
+        <v>1</v>
+      </c>
+      <c r="O131" s="34">
+        <v>1</v>
+      </c>
+      <c r="P131" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="34">
+        <v>0</v>
+      </c>
+      <c r="R131" s="34">
+        <v>0</v>
+      </c>
+      <c r="S131" s="34">
+        <v>0</v>
+      </c>
+      <c r="T131" s="34">
+        <v>0</v>
+      </c>
+      <c r="U131" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="29">
+        <v>127</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K132" s="34">
+        <v>1</v>
+      </c>
+      <c r="L132" s="34">
+        <v>1</v>
+      </c>
+      <c r="M132" s="34">
+        <v>1</v>
+      </c>
+      <c r="N132" s="34">
+        <v>1</v>
+      </c>
+      <c r="O132" s="34">
+        <v>1</v>
+      </c>
+      <c r="P132" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="34">
+        <v>0</v>
+      </c>
+      <c r="R132" s="34">
+        <v>0</v>
+      </c>
+      <c r="S132" s="34">
+        <v>0</v>
+      </c>
+      <c r="T132" s="34">
+        <v>0</v>
+      </c>
+      <c r="U132" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="29">
         <v>128</v>
       </c>
-      <c r="B131" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C131" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="D131" s="35" t="s">
+      <c r="B133" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D133" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E131" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="K131" s="34">
-        <v>1</v>
-      </c>
-      <c r="L131" s="34">
-        <v>1</v>
-      </c>
-      <c r="M131" s="34">
-        <v>1</v>
-      </c>
-      <c r="N131" s="34">
-        <v>1</v>
-      </c>
-      <c r="O131" s="34">
-        <v>1</v>
-      </c>
-      <c r="P131" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="34">
-        <v>0</v>
-      </c>
-      <c r="R131" s="34">
-        <v>0</v>
-      </c>
-      <c r="S131" s="34">
-        <v>0</v>
-      </c>
-      <c r="T131" s="34">
-        <v>0</v>
-      </c>
-      <c r="U131" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="29">
+      <c r="E133" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F133" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="K133" s="34">
+        <v>1</v>
+      </c>
+      <c r="L133" s="34">
+        <v>1</v>
+      </c>
+      <c r="M133" s="34">
+        <v>1</v>
+      </c>
+      <c r="N133" s="34">
+        <v>1</v>
+      </c>
+      <c r="O133" s="34">
+        <v>1</v>
+      </c>
+      <c r="P133" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="34">
+        <v>0</v>
+      </c>
+      <c r="R133" s="34">
+        <v>0</v>
+      </c>
+      <c r="S133" s="34">
+        <v>0</v>
+      </c>
+      <c r="T133" s="34">
+        <v>0</v>
+      </c>
+      <c r="U133" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="29">
+        <v>128</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="K134" s="34">
+        <v>1</v>
+      </c>
+      <c r="L134" s="34">
+        <v>1</v>
+      </c>
+      <c r="M134" s="34">
+        <v>1</v>
+      </c>
+      <c r="N134" s="34">
+        <v>1</v>
+      </c>
+      <c r="O134" s="34">
+        <v>1</v>
+      </c>
+      <c r="P134" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="34">
+        <v>0</v>
+      </c>
+      <c r="R134" s="34">
+        <v>0</v>
+      </c>
+      <c r="S134" s="34">
+        <v>0</v>
+      </c>
+      <c r="T134" s="34">
+        <v>0</v>
+      </c>
+      <c r="U134" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="29">
         <v>129</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B135" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K135" s="37">
+        <v>1</v>
+      </c>
+      <c r="L135" s="37">
+        <v>1</v>
+      </c>
+      <c r="M135" s="37">
+        <v>1</v>
+      </c>
+      <c r="N135" s="37">
+        <v>1</v>
+      </c>
+      <c r="O135" s="37">
+        <v>1</v>
+      </c>
+      <c r="P135" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="37">
+        <v>0</v>
+      </c>
+      <c r="R135" s="37">
+        <v>0</v>
+      </c>
+      <c r="S135" s="37">
+        <v>0</v>
+      </c>
+      <c r="T135" s="37">
+        <v>0</v>
+      </c>
+      <c r="U135" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="29">
+        <v>130</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K136" s="37">
+        <v>1</v>
+      </c>
+      <c r="L136" s="37">
+        <v>1</v>
+      </c>
+      <c r="M136" s="37">
+        <v>1</v>
+      </c>
+      <c r="N136" s="37">
+        <v>1</v>
+      </c>
+      <c r="O136" s="37">
+        <v>1</v>
+      </c>
+      <c r="P136" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="37">
+        <v>0</v>
+      </c>
+      <c r="R136" s="37">
+        <v>0</v>
+      </c>
+      <c r="S136" s="37">
+        <v>0</v>
+      </c>
+      <c r="T136" s="37">
+        <v>0</v>
+      </c>
+      <c r="U136" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="29">
+        <v>131</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D137" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C132" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D132" s="36" t="s">
+      <c r="E137" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="E132" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="K132" s="37">
-        <v>1</v>
-      </c>
-      <c r="L132" s="37">
-        <v>1</v>
-      </c>
-      <c r="M132" s="37">
-        <v>1</v>
-      </c>
-      <c r="N132" s="37">
-        <v>1</v>
-      </c>
-      <c r="O132" s="37">
-        <v>1</v>
-      </c>
-      <c r="P132" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="37">
-        <v>0</v>
-      </c>
-      <c r="R132" s="37">
-        <v>0</v>
-      </c>
-      <c r="S132" s="37">
-        <v>0</v>
-      </c>
-      <c r="T132" s="37">
-        <v>0</v>
-      </c>
-      <c r="U132" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29">
-        <v>130</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="E133" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="K133" s="37">
-        <v>1</v>
-      </c>
-      <c r="L133" s="37">
-        <v>1</v>
-      </c>
-      <c r="M133" s="37">
-        <v>1</v>
-      </c>
-      <c r="N133" s="37">
-        <v>1</v>
-      </c>
-      <c r="O133" s="37">
-        <v>1</v>
-      </c>
-      <c r="P133" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="37">
-        <v>0</v>
-      </c>
-      <c r="R133" s="37">
-        <v>0</v>
-      </c>
-      <c r="S133" s="37">
-        <v>0</v>
-      </c>
-      <c r="T133" s="37">
-        <v>0</v>
-      </c>
-      <c r="U133" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="29">
-        <v>131</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="D134" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E134" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="K134" s="37">
-        <v>1</v>
-      </c>
-      <c r="L134" s="37">
-        <v>1</v>
-      </c>
-      <c r="M134" s="37">
-        <v>1</v>
-      </c>
-      <c r="N134" s="37">
-        <v>1</v>
-      </c>
-      <c r="O134" s="37">
-        <v>1</v>
-      </c>
-      <c r="P134" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="37">
-        <v>0</v>
-      </c>
-      <c r="R134" s="37">
-        <v>0</v>
-      </c>
-      <c r="S134" s="37">
-        <v>0</v>
-      </c>
-      <c r="T134" s="37">
-        <v>0</v>
-      </c>
-      <c r="U134" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="29">
-        <v>138</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D135" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="K135" s="32">
-        <v>1</v>
-      </c>
-      <c r="L135" s="32">
-        <v>0</v>
-      </c>
-      <c r="M135" s="32">
-        <v>1</v>
-      </c>
-      <c r="N135" s="32">
-        <v>1</v>
-      </c>
-      <c r="O135" s="32">
-        <v>0</v>
-      </c>
-      <c r="P135" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="32">
-        <v>0</v>
-      </c>
-      <c r="R135" s="32">
-        <v>0</v>
-      </c>
-      <c r="S135" s="32">
-        <v>0</v>
-      </c>
-      <c r="T135" s="32">
-        <v>0</v>
-      </c>
-      <c r="U135" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="29">
-        <v>139</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="K136" s="32">
-        <v>1</v>
-      </c>
-      <c r="L136" s="32">
-        <v>0</v>
-      </c>
-      <c r="M136" s="32">
-        <v>0</v>
-      </c>
-      <c r="N136" s="32">
-        <v>0</v>
-      </c>
-      <c r="O136" s="32">
-        <v>0</v>
-      </c>
-      <c r="P136" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="32">
-        <v>0</v>
-      </c>
-      <c r="R136" s="32">
-        <v>0</v>
-      </c>
-      <c r="S136" s="32">
-        <v>0</v>
-      </c>
-      <c r="T136" s="32">
-        <v>0</v>
-      </c>
-      <c r="U136" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="29">
-        <v>140</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="K137" s="32">
-        <v>1</v>
-      </c>
-      <c r="L137" s="32">
-        <v>0</v>
-      </c>
-      <c r="M137" s="32">
-        <v>0</v>
-      </c>
-      <c r="N137" s="32">
-        <v>0</v>
-      </c>
-      <c r="O137" s="32">
-        <v>0</v>
-      </c>
-      <c r="P137" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="32">
-        <v>0</v>
-      </c>
-      <c r="R137" s="32">
-        <v>0</v>
-      </c>
-      <c r="S137" s="32">
-        <v>0</v>
-      </c>
-      <c r="T137" s="32">
-        <v>0</v>
-      </c>
-      <c r="U137" s="32">
+      <c r="K137" s="37">
+        <v>1</v>
+      </c>
+      <c r="L137" s="37">
+        <v>1</v>
+      </c>
+      <c r="M137" s="37">
+        <v>1</v>
+      </c>
+      <c r="N137" s="37">
+        <v>1</v>
+      </c>
+      <c r="O137" s="37">
+        <v>1</v>
+      </c>
+      <c r="P137" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="37">
+        <v>0</v>
+      </c>
+      <c r="R137" s="37">
+        <v>0</v>
+      </c>
+      <c r="S137" s="37">
+        <v>0</v>
+      </c>
+      <c r="T137" s="37">
+        <v>0</v>
+      </c>
+      <c r="U137" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="29">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>498</v>
+        <v>196</v>
       </c>
       <c r="D138" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K138" s="32">
+        <v>1</v>
+      </c>
+      <c r="L138" s="32">
+        <v>0</v>
+      </c>
+      <c r="M138" s="32">
+        <v>1</v>
+      </c>
+      <c r="N138" s="32">
+        <v>1</v>
+      </c>
+      <c r="O138" s="32">
+        <v>0</v>
+      </c>
+      <c r="P138" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="32">
+        <v>0</v>
+      </c>
+      <c r="R138" s="32">
+        <v>0</v>
+      </c>
+      <c r="S138" s="32">
+        <v>0</v>
+      </c>
+      <c r="T138" s="32">
+        <v>0</v>
+      </c>
+      <c r="U138" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="29">
+        <v>139</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D139" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E138" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="K138" s="32">
-        <v>1</v>
-      </c>
-      <c r="L138" s="32">
-        <v>0</v>
-      </c>
-      <c r="M138" s="32">
-        <v>0</v>
-      </c>
-      <c r="N138" s="32">
-        <v>0</v>
-      </c>
-      <c r="O138" s="32">
-        <v>0</v>
-      </c>
-      <c r="P138" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="32">
-        <v>0</v>
-      </c>
-      <c r="R138" s="32">
-        <v>0</v>
-      </c>
-      <c r="S138" s="32">
-        <v>0</v>
-      </c>
-      <c r="T138" s="32">
-        <v>0</v>
-      </c>
-      <c r="U138" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="29">
-        <v>142</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C139" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D139" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E139" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="H139" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="I139" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K139" s="40">
-        <v>1</v>
-      </c>
-      <c r="L139" s="40">
-        <v>0</v>
-      </c>
-      <c r="M139" s="40">
-        <v>1</v>
-      </c>
-      <c r="N139" s="40">
-        <v>1</v>
-      </c>
-      <c r="O139" s="40">
-        <v>0</v>
-      </c>
-      <c r="P139" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="40">
-        <v>0</v>
-      </c>
-      <c r="R139" s="40">
-        <v>0</v>
-      </c>
-      <c r="S139" s="40">
-        <v>0</v>
-      </c>
-      <c r="T139" s="40">
-        <v>0</v>
-      </c>
-      <c r="U139" s="40">
+      <c r="E139" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="K139" s="32">
+        <v>1</v>
+      </c>
+      <c r="L139" s="32">
+        <v>0</v>
+      </c>
+      <c r="M139" s="32">
+        <v>0</v>
+      </c>
+      <c r="N139" s="32">
+        <v>0</v>
+      </c>
+      <c r="O139" s="32">
+        <v>0</v>
+      </c>
+      <c r="P139" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="32">
+        <v>0</v>
+      </c>
+      <c r="R139" s="32">
+        <v>0</v>
+      </c>
+      <c r="S139" s="32">
+        <v>0</v>
+      </c>
+      <c r="T139" s="32">
+        <v>0</v>
+      </c>
+      <c r="U139" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="29">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="K140" s="32">
         <v>1</v>
@@ -11100,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="M140" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140" s="32">
         <v>0</v>
@@ -11129,25 +11195,19 @@
     </row>
     <row r="141" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="29">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C141" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E141" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H141" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>288</v>
+        <v>264</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>490</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11156,10 +11216,10 @@
         <v>0</v>
       </c>
       <c r="M141" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="32">
         <v>0</v>
@@ -11182,74 +11242,78 @@
       <c r="U141" s="32">
         <v>0</v>
       </c>
-      <c r="V141" s="39"/>
-      <c r="W141" s="39"/>
-    </row>
-    <row r="142" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="29">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="K142" s="32">
-        <v>1</v>
-      </c>
-      <c r="L142" s="32">
-        <v>0</v>
-      </c>
-      <c r="M142" s="32">
-        <v>1</v>
-      </c>
-      <c r="N142" s="32">
-        <v>1</v>
-      </c>
-      <c r="O142" s="32">
-        <v>0</v>
-      </c>
-      <c r="P142" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="32">
-        <v>0</v>
-      </c>
-      <c r="R142" s="32">
-        <v>0</v>
-      </c>
-      <c r="S142" s="32">
-        <v>0</v>
-      </c>
-      <c r="T142" s="32">
-        <v>0</v>
-      </c>
-      <c r="U142" s="32">
+      <c r="C142" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H142" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="I142" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K142" s="40">
+        <v>1</v>
+      </c>
+      <c r="L142" s="40">
+        <v>0</v>
+      </c>
+      <c r="M142" s="40">
+        <v>1</v>
+      </c>
+      <c r="N142" s="40">
+        <v>1</v>
+      </c>
+      <c r="O142" s="40">
+        <v>0</v>
+      </c>
+      <c r="P142" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="40">
+        <v>0</v>
+      </c>
+      <c r="R142" s="40">
+        <v>0</v>
+      </c>
+      <c r="S142" s="40">
+        <v>0</v>
+      </c>
+      <c r="T142" s="40">
+        <v>0</v>
+      </c>
+      <c r="U142" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="29">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="K143" s="32">
         <v>1</v>
@@ -11287,22 +11351,25 @@
     </row>
     <row r="144" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G144" s="32">
-        <v>1</v>
+        <v>268</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H144" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I144" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="K144" s="32">
         <v>1</v>
@@ -11337,22 +11404,24 @@
       <c r="U144" s="32">
         <v>0</v>
       </c>
+      <c r="V144" s="39"/>
+      <c r="W144" s="39"/>
     </row>
     <row r="145" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>467</v>
+        <v>259</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -11361,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="M145" s="32">
-        <v>0</v>
-      </c>
-      <c r="N145" s="40">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N145" s="32">
+        <v>1</v>
       </c>
       <c r="O145" s="32">
         <v>0</v>
@@ -11390,19 +11459,19 @@
     </row>
     <row r="146" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="29">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -11413,7 +11482,7 @@
       <c r="M146" s="32">
         <v>1</v>
       </c>
-      <c r="N146" s="40">
+      <c r="N146" s="32">
         <v>1</v>
       </c>
       <c r="O146" s="32">
@@ -11440,19 +11509,22 @@
     </row>
     <row r="147" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>335</v>
+        <v>278</v>
+      </c>
+      <c r="G147" s="32">
+        <v>1</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -11463,7 +11535,7 @@
       <c r="M147" s="32">
         <v>1</v>
       </c>
-      <c r="N147" s="40">
+      <c r="N147" s="32">
         <v>1</v>
       </c>
       <c r="O147" s="32">
@@ -11490,19 +11562,19 @@
     </row>
     <row r="148" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="29">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>339</v>
+        <v>491</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -11511,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="M148" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="32">
         <v>0</v>
@@ -11540,25 +11612,19 @@
     </row>
     <row r="149" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="29">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>332</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>124</v>
+        <v>196</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="H149" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I149" s="33" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -11593,24 +11659,22 @@
       <c r="U149" s="32">
         <v>0</v>
       </c>
-      <c r="V149" s="39"/>
-      <c r="W149" s="39"/>
     </row>
     <row r="150" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>468</v>
+        <v>327</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -11619,10 +11683,10 @@
         <v>0</v>
       </c>
       <c r="M150" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" s="32">
         <v>0</v>
@@ -11646,21 +11710,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="K151" s="32">
         <v>1</v>
@@ -11698,19 +11762,19 @@
     </row>
     <row r="152" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="D152" s="38" t="s">
         <v>124</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>121</v>
@@ -11756,19 +11820,19 @@
     </row>
     <row r="153" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="29">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -11804,198 +11868,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
-        <v>151</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9">
-        <v>1</v>
-      </c>
-      <c r="L154" s="9">
-        <v>1</v>
-      </c>
-      <c r="M154" s="9">
-        <v>1</v>
-      </c>
-      <c r="N154" s="9">
-        <v>1</v>
-      </c>
-      <c r="O154" s="9">
-        <v>1</v>
-      </c>
-      <c r="P154" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q154" s="9">
-        <v>0</v>
-      </c>
-      <c r="R154" s="9">
-        <v>0</v>
-      </c>
-      <c r="S154" s="9">
-        <v>0</v>
-      </c>
-      <c r="T154" s="9">
-        <v>0</v>
-      </c>
-      <c r="U154" s="9">
-        <v>0</v>
-      </c>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="K154" s="32">
+        <v>1</v>
+      </c>
+      <c r="L154" s="32">
+        <v>0</v>
+      </c>
+      <c r="M154" s="32">
+        <v>1</v>
+      </c>
+      <c r="N154" s="40">
+        <v>1</v>
+      </c>
+      <c r="O154" s="32">
+        <v>0</v>
+      </c>
+      <c r="P154" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="32">
+        <v>0</v>
+      </c>
+      <c r="R154" s="32">
+        <v>0</v>
+      </c>
+      <c r="S154" s="32">
+        <v>0</v>
+      </c>
+      <c r="T154" s="32">
+        <v>0</v>
+      </c>
+      <c r="U154" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
-        <v>152</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9">
-        <v>1</v>
-      </c>
-      <c r="L155" s="9">
-        <v>1</v>
-      </c>
-      <c r="M155" s="9">
-        <v>1</v>
-      </c>
-      <c r="N155" s="9">
-        <v>1</v>
-      </c>
-      <c r="O155" s="9">
-        <v>1</v>
-      </c>
-      <c r="P155" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q155" s="9">
-        <v>0</v>
-      </c>
-      <c r="R155" s="9">
-        <v>0</v>
-      </c>
-      <c r="S155" s="9">
-        <v>0</v>
-      </c>
-      <c r="T155" s="9">
-        <v>0</v>
-      </c>
-      <c r="U155" s="9">
-        <v>0</v>
-      </c>
-      <c r="V155" s="9"/>
-      <c r="W155" s="9"/>
-      <c r="X155" s="9"/>
-      <c r="Y155" s="9"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I155" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K155" s="32">
+        <v>1</v>
+      </c>
+      <c r="L155" s="32">
+        <v>0</v>
+      </c>
+      <c r="M155" s="32">
+        <v>1</v>
+      </c>
+      <c r="N155" s="40">
+        <v>1</v>
+      </c>
+      <c r="O155" s="32">
+        <v>0</v>
+      </c>
+      <c r="P155" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="32">
+        <v>0</v>
+      </c>
+      <c r="R155" s="32">
+        <v>0</v>
+      </c>
+      <c r="S155" s="32">
+        <v>0</v>
+      </c>
+      <c r="T155" s="32">
+        <v>0</v>
+      </c>
+      <c r="U155" s="32">
+        <v>0</v>
+      </c>
+      <c r="V155" s="39"/>
+      <c r="W155" s="39"/>
+    </row>
+    <row r="156" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="29">
-        <v>153</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9">
-        <v>1</v>
-      </c>
-      <c r="L156" s="9">
-        <v>1</v>
-      </c>
-      <c r="M156" s="9">
-        <v>1</v>
-      </c>
-      <c r="N156" s="9">
-        <v>1</v>
-      </c>
-      <c r="O156" s="9">
-        <v>1</v>
-      </c>
-      <c r="P156" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="9">
-        <v>0</v>
-      </c>
-      <c r="R156" s="9">
-        <v>0</v>
-      </c>
-      <c r="S156" s="9">
-        <v>0</v>
-      </c>
-      <c r="T156" s="9">
-        <v>0</v>
-      </c>
-      <c r="U156" s="9">
-        <v>0</v>
-      </c>
-      <c r="V156" s="9"/>
-      <c r="W156" s="9"/>
-      <c r="X156" s="9"/>
-      <c r="Y156" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="K156" s="32">
+        <v>1</v>
+      </c>
+      <c r="L156" s="32">
+        <v>0</v>
+      </c>
+      <c r="M156" s="32">
+        <v>0</v>
+      </c>
+      <c r="N156" s="40">
+        <v>0</v>
+      </c>
+      <c r="O156" s="32">
+        <v>0</v>
+      </c>
+      <c r="P156" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="32">
+        <v>0</v>
+      </c>
+      <c r="R156" s="32">
+        <v>0</v>
+      </c>
+      <c r="S156" s="32">
+        <v>0</v>
+      </c>
+      <c r="T156" s="32">
+        <v>0</v>
+      </c>
+      <c r="U156" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A157" s="29">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -12042,19 +12087,19 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A158" s="29">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -12068,13 +12113,13 @@
         <v>1</v>
       </c>
       <c r="M158" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O158" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="9">
         <v>0</v>
@@ -12099,371 +12144,398 @@
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
     </row>
-    <row r="159" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A159" s="29">
+        <v>153</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9">
+        <v>1</v>
+      </c>
+      <c r="L159" s="9">
+        <v>1</v>
+      </c>
+      <c r="M159" s="9">
+        <v>1</v>
+      </c>
+      <c r="N159" s="9">
+        <v>1</v>
+      </c>
+      <c r="O159" s="9">
+        <v>1</v>
+      </c>
+      <c r="P159" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="9">
+        <v>0</v>
+      </c>
+      <c r="R159" s="9">
+        <v>0</v>
+      </c>
+      <c r="S159" s="9">
+        <v>0</v>
+      </c>
+      <c r="T159" s="9">
+        <v>0</v>
+      </c>
+      <c r="U159" s="9">
+        <v>0</v>
+      </c>
+      <c r="V159" s="9"/>
+      <c r="W159" s="9"/>
+      <c r="X159" s="9"/>
+      <c r="Y159" s="9"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A160" s="29">
+        <v>154</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9">
+        <v>1</v>
+      </c>
+      <c r="L160" s="9">
+        <v>1</v>
+      </c>
+      <c r="M160" s="9">
+        <v>1</v>
+      </c>
+      <c r="N160" s="9">
+        <v>1</v>
+      </c>
+      <c r="O160" s="9">
+        <v>1</v>
+      </c>
+      <c r="P160" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="9">
+        <v>0</v>
+      </c>
+      <c r="R160" s="9">
+        <v>0</v>
+      </c>
+      <c r="S160" s="9">
+        <v>0</v>
+      </c>
+      <c r="T160" s="9">
+        <v>0</v>
+      </c>
+      <c r="U160" s="9">
+        <v>0</v>
+      </c>
+      <c r="V160" s="9"/>
+      <c r="W160" s="9"/>
+      <c r="X160" s="9"/>
+      <c r="Y160" s="9"/>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A161" s="29">
+        <v>155</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9">
+        <v>1</v>
+      </c>
+      <c r="L161" s="9">
+        <v>1</v>
+      </c>
+      <c r="M161" s="9">
+        <v>0</v>
+      </c>
+      <c r="N161" s="9">
+        <v>0</v>
+      </c>
+      <c r="O161" s="9">
+        <v>0</v>
+      </c>
+      <c r="P161" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="9">
+        <v>0</v>
+      </c>
+      <c r="R161" s="9">
+        <v>0</v>
+      </c>
+      <c r="S161" s="9">
+        <v>0</v>
+      </c>
+      <c r="T161" s="9">
+        <v>0</v>
+      </c>
+      <c r="U161" s="9">
+        <v>0</v>
+      </c>
+      <c r="V161" s="9"/>
+      <c r="W161" s="9"/>
+      <c r="X161" s="9"/>
+      <c r="Y161" s="9"/>
+    </row>
+    <row r="162" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="29">
         <v>156</v>
       </c>
-      <c r="B159" s="43" t="s">
+      <c r="B162" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D162" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E162" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K162" s="43">
+        <v>1</v>
+      </c>
+      <c r="L162" s="43">
+        <v>1</v>
+      </c>
+      <c r="M162" s="43">
+        <v>1</v>
+      </c>
+      <c r="N162" s="43">
+        <v>1</v>
+      </c>
+      <c r="O162" s="43">
+        <v>1</v>
+      </c>
+      <c r="P162" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="43">
+        <v>0</v>
+      </c>
+      <c r="R162" s="43">
+        <v>0</v>
+      </c>
+      <c r="S162" s="43">
+        <v>0</v>
+      </c>
+      <c r="T162" s="43">
+        <v>0</v>
+      </c>
+      <c r="U162" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="29">
+        <v>157</v>
+      </c>
+      <c r="B163" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C163" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D163" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E163" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K163" s="43">
+        <v>1</v>
+      </c>
+      <c r="L163" s="43">
+        <v>1</v>
+      </c>
+      <c r="M163" s="43">
+        <v>1</v>
+      </c>
+      <c r="N163" s="43">
+        <v>1</v>
+      </c>
+      <c r="O163" s="43">
+        <v>1</v>
+      </c>
+      <c r="P163" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="43">
+        <v>0</v>
+      </c>
+      <c r="R163" s="43">
+        <v>0</v>
+      </c>
+      <c r="S163" s="43">
+        <v>0</v>
+      </c>
+      <c r="T163" s="43">
+        <v>0</v>
+      </c>
+      <c r="U163" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="29">
+        <v>158</v>
+      </c>
+      <c r="B164" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C164" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="D164" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="C159" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="D159" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="E159" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="K159" s="43">
-        <v>1</v>
-      </c>
-      <c r="L159" s="43">
-        <v>1</v>
-      </c>
-      <c r="M159" s="43">
-        <v>1</v>
-      </c>
-      <c r="N159" s="43">
-        <v>1</v>
-      </c>
-      <c r="O159" s="43">
-        <v>1</v>
-      </c>
-      <c r="P159" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="43">
-        <v>0</v>
-      </c>
-      <c r="R159" s="43">
-        <v>0</v>
-      </c>
-      <c r="S159" s="43">
-        <v>0</v>
-      </c>
-      <c r="T159" s="43">
-        <v>0</v>
-      </c>
-      <c r="U159" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="29">
-        <v>157</v>
-      </c>
-      <c r="B160" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C160" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="D160" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="E160" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="K160" s="43">
-        <v>1</v>
-      </c>
-      <c r="L160" s="43">
-        <v>1</v>
-      </c>
-      <c r="M160" s="43">
-        <v>1</v>
-      </c>
-      <c r="N160" s="43">
-        <v>1</v>
-      </c>
-      <c r="O160" s="43">
-        <v>1</v>
-      </c>
-      <c r="P160" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="43">
-        <v>0</v>
-      </c>
-      <c r="R160" s="43">
-        <v>0</v>
-      </c>
-      <c r="S160" s="43">
-        <v>0</v>
-      </c>
-      <c r="T160" s="43">
-        <v>0</v>
-      </c>
-      <c r="U160" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="29">
-        <v>158</v>
-      </c>
-      <c r="B161" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C161" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="D161" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="E161" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="K161" s="43">
-        <v>1</v>
-      </c>
-      <c r="L161" s="43">
-        <v>1</v>
-      </c>
-      <c r="M161" s="43">
-        <v>1</v>
-      </c>
-      <c r="N161" s="43">
-        <v>1</v>
-      </c>
-      <c r="O161" s="43">
-        <v>1</v>
-      </c>
-      <c r="P161" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="43">
-        <v>0</v>
-      </c>
-      <c r="R161" s="43">
-        <v>0</v>
-      </c>
-      <c r="S161" s="43">
-        <v>0</v>
-      </c>
-      <c r="T161" s="43">
-        <v>0</v>
-      </c>
-      <c r="U161" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="29">
+      <c r="K164" s="43">
+        <v>1</v>
+      </c>
+      <c r="L164" s="43">
+        <v>1</v>
+      </c>
+      <c r="M164" s="43">
+        <v>1</v>
+      </c>
+      <c r="N164" s="43">
+        <v>1</v>
+      </c>
+      <c r="O164" s="43">
+        <v>1</v>
+      </c>
+      <c r="P164" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="43">
+        <v>0</v>
+      </c>
+      <c r="R164" s="43">
+        <v>0</v>
+      </c>
+      <c r="S164" s="43">
+        <v>0</v>
+      </c>
+      <c r="T164" s="43">
+        <v>0</v>
+      </c>
+      <c r="U164" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="29">
         <v>159</v>
       </c>
-      <c r="B162" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C162" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="D162" s="48" t="s">
+      <c r="B165" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C165" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E162" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K162" s="49">
-        <v>1</v>
-      </c>
-      <c r="L162" s="49">
-        <v>1</v>
-      </c>
-      <c r="M162" s="49">
-        <v>0</v>
-      </c>
-      <c r="N162" s="49">
-        <v>0</v>
-      </c>
-      <c r="O162" s="49">
-        <v>0</v>
-      </c>
-      <c r="P162" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="49">
-        <v>0</v>
-      </c>
-      <c r="R162" s="49">
-        <v>0</v>
-      </c>
-      <c r="S162" s="49">
-        <v>0</v>
-      </c>
-      <c r="T162" s="49">
-        <v>0</v>
-      </c>
-      <c r="U162" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="29">
+      <c r="E165" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K165" s="49">
+        <v>1</v>
+      </c>
+      <c r="L165" s="49">
+        <v>1</v>
+      </c>
+      <c r="M165" s="49">
+        <v>0</v>
+      </c>
+      <c r="N165" s="49">
+        <v>0</v>
+      </c>
+      <c r="O165" s="49">
+        <v>0</v>
+      </c>
+      <c r="P165" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="49">
+        <v>0</v>
+      </c>
+      <c r="R165" s="49">
+        <v>0</v>
+      </c>
+      <c r="S165" s="49">
+        <v>0</v>
+      </c>
+      <c r="T165" s="49">
+        <v>0</v>
+      </c>
+      <c r="U165" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="29">
         <v>160</v>
       </c>
-      <c r="B163" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C163" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="D163" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E163" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="K163" s="49">
-        <v>1</v>
-      </c>
-      <c r="L163" s="49">
-        <v>1</v>
-      </c>
-      <c r="M163" s="49">
-        <v>0</v>
-      </c>
-      <c r="N163" s="49">
-        <v>0</v>
-      </c>
-      <c r="O163" s="49">
-        <v>0</v>
-      </c>
-      <c r="P163" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="49">
-        <v>0</v>
-      </c>
-      <c r="R163" s="49">
-        <v>0</v>
-      </c>
-      <c r="S163" s="49">
-        <v>0</v>
-      </c>
-      <c r="T163" s="49">
-        <v>0</v>
-      </c>
-      <c r="U163" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="29">
-        <v>161</v>
-      </c>
-      <c r="B164" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C164" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="D164" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="K164" s="49">
-        <v>1</v>
-      </c>
-      <c r="L164" s="49">
-        <v>1</v>
-      </c>
-      <c r="M164" s="49">
-        <v>0</v>
-      </c>
-      <c r="N164" s="49">
-        <v>0</v>
-      </c>
-      <c r="O164" s="49">
-        <v>0</v>
-      </c>
-      <c r="P164" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="49">
-        <v>0</v>
-      </c>
-      <c r="R164" s="49">
-        <v>0</v>
-      </c>
-      <c r="S164" s="49">
-        <v>0</v>
-      </c>
-      <c r="T164" s="49">
-        <v>0</v>
-      </c>
-      <c r="U164" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="29">
-        <v>162</v>
-      </c>
-      <c r="B165" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C165" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D165" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="E165" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="K165" s="49">
-        <v>1</v>
-      </c>
-      <c r="L165" s="49">
-        <v>1</v>
-      </c>
-      <c r="M165" s="49">
-        <v>0</v>
-      </c>
-      <c r="N165" s="49">
-        <v>0</v>
-      </c>
-      <c r="O165" s="49">
-        <v>0</v>
-      </c>
-      <c r="P165" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="49">
-        <v>0</v>
-      </c>
-      <c r="R165" s="49">
-        <v>0</v>
-      </c>
-      <c r="S165" s="49">
-        <v>0</v>
-      </c>
-      <c r="T165" s="49">
-        <v>0</v>
-      </c>
-      <c r="U165" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="29">
-        <v>163</v>
-      </c>
       <c r="B166" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D166" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="K166" s="49">
         <v>1</v>
@@ -12499,21 +12571,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="D167" s="48" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="K167" s="49">
         <v>1</v>
@@ -12549,21 +12621,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="29">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="K168" s="49">
         <v>1</v>
@@ -12599,21 +12671,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="29">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D169" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="K169" s="49">
         <v>1</v>
@@ -12649,21 +12721,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="29">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B170" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C170" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="C170" s="48" t="s">
-        <v>408</v>
-      </c>
       <c r="D170" s="48" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K170" s="49">
         <v>1</v>
@@ -12699,21 +12771,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="29">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D171" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K171" s="49">
         <v>1</v>
@@ -12749,21 +12821,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="29">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C172" s="49" t="s">
-        <v>412</v>
+        <v>384</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>397</v>
       </c>
       <c r="D172" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="K172" s="49">
         <v>1</v>
@@ -12799,71 +12871,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="29">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D173" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E173" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K173" s="49">
+        <v>1</v>
+      </c>
+      <c r="L173" s="49">
+        <v>1</v>
+      </c>
+      <c r="M173" s="49">
+        <v>0</v>
+      </c>
+      <c r="N173" s="49">
+        <v>0</v>
+      </c>
+      <c r="O173" s="49">
+        <v>0</v>
+      </c>
+      <c r="P173" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="49">
+        <v>0</v>
+      </c>
+      <c r="R173" s="49">
+        <v>0</v>
+      </c>
+      <c r="S173" s="49">
+        <v>0</v>
+      </c>
+      <c r="T173" s="49">
+        <v>0</v>
+      </c>
+      <c r="U173" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="29">
+        <v>168</v>
+      </c>
+      <c r="B174" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C174" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="D174" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E173" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="K173" s="49">
-        <v>1</v>
-      </c>
-      <c r="L173" s="49">
-        <v>1</v>
-      </c>
-      <c r="M173" s="49">
-        <v>0</v>
-      </c>
-      <c r="N173" s="49">
-        <v>0</v>
-      </c>
-      <c r="O173" s="49">
-        <v>0</v>
-      </c>
-      <c r="P173" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q173" s="49">
-        <v>0</v>
-      </c>
-      <c r="R173" s="49">
-        <v>0</v>
-      </c>
-      <c r="S173" s="49">
-        <v>0</v>
-      </c>
-      <c r="T173" s="49">
-        <v>0</v>
-      </c>
-      <c r="U173" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="29">
-        <v>171</v>
-      </c>
-      <c r="B174" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="C174" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>418</v>
-      </c>
       <c r="E174" s="48" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="K174" s="49">
         <v>1</v>
@@ -12899,21 +12971,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="29">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C175" s="48" t="s">
-        <v>492</v>
+        <v>384</v>
+      </c>
+      <c r="C175" s="49" t="s">
+        <v>403</v>
       </c>
       <c r="D175" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>488</v>
+        <v>404</v>
       </c>
       <c r="K175" s="49">
         <v>1</v>
@@ -12949,21 +13021,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="29">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="D176" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>489</v>
+        <v>406</v>
       </c>
       <c r="K176" s="49">
         <v>1</v>
@@ -13001,19 +13073,19 @@
     </row>
     <row r="177" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="29">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="E177" s="48" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="K177" s="49">
         <v>1</v>
@@ -13051,19 +13123,19 @@
     </row>
     <row r="178" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D178" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K178" s="49">
         <v>1</v>
@@ -13101,19 +13173,19 @@
     </row>
     <row r="179" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="D179" s="48" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="K179" s="49">
         <v>1</v>
@@ -13151,19 +13223,19 @@
     </row>
     <row r="180" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="K180" s="49">
         <v>1</v>
@@ -13201,19 +13273,19 @@
     </row>
     <row r="181" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13251,19 +13323,19 @@
     </row>
     <row r="182" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D182" s="48" t="s">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13301,107 +13373,257 @@
     </row>
     <row r="183" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
+        <v>177</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K183" s="49">
+        <v>1</v>
+      </c>
+      <c r="L183" s="49">
+        <v>1</v>
+      </c>
+      <c r="M183" s="49">
+        <v>0</v>
+      </c>
+      <c r="N183" s="49">
+        <v>0</v>
+      </c>
+      <c r="O183" s="49">
+        <v>0</v>
+      </c>
+      <c r="P183" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="49">
+        <v>0</v>
+      </c>
+      <c r="R183" s="49">
+        <v>0</v>
+      </c>
+      <c r="S183" s="49">
+        <v>0</v>
+      </c>
+      <c r="T183" s="49">
+        <v>0</v>
+      </c>
+      <c r="U183" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="29">
+        <v>178</v>
+      </c>
+      <c r="B184" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D184" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E184" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K184" s="49">
+        <v>1</v>
+      </c>
+      <c r="L184" s="49">
+        <v>1</v>
+      </c>
+      <c r="M184" s="49">
+        <v>0</v>
+      </c>
+      <c r="N184" s="49">
+        <v>0</v>
+      </c>
+      <c r="O184" s="49">
+        <v>0</v>
+      </c>
+      <c r="P184" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="49">
+        <v>0</v>
+      </c>
+      <c r="R184" s="49">
+        <v>0</v>
+      </c>
+      <c r="S184" s="49">
+        <v>0</v>
+      </c>
+      <c r="T184" s="49">
+        <v>0</v>
+      </c>
+      <c r="U184" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="29">
+        <v>179</v>
+      </c>
+      <c r="B185" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E185" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="K185" s="49">
+        <v>1</v>
+      </c>
+      <c r="L185" s="49">
+        <v>1</v>
+      </c>
+      <c r="M185" s="49">
+        <v>0</v>
+      </c>
+      <c r="N185" s="49">
+        <v>0</v>
+      </c>
+      <c r="O185" s="49">
+        <v>0</v>
+      </c>
+      <c r="P185" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="49">
+        <v>0</v>
+      </c>
+      <c r="R185" s="49">
+        <v>0</v>
+      </c>
+      <c r="S185" s="49">
+        <v>0</v>
+      </c>
+      <c r="T185" s="49">
+        <v>0</v>
+      </c>
+      <c r="U185" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="29">
         <v>180</v>
       </c>
-      <c r="B183" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="48" t="s">
+      <c r="B186" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="D186" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E183" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="H183" s="48"/>
-      <c r="K183" s="49">
-        <v>1</v>
-      </c>
-      <c r="L183" s="49">
-        <v>1</v>
-      </c>
-      <c r="M183" s="49">
-        <v>0</v>
-      </c>
-      <c r="N183" s="49">
-        <v>0</v>
-      </c>
-      <c r="O183" s="49">
-        <v>0</v>
-      </c>
-      <c r="P183" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="49">
-        <v>0</v>
-      </c>
-      <c r="R183" s="49">
-        <v>0</v>
-      </c>
-      <c r="S183" s="49">
-        <v>0</v>
-      </c>
-      <c r="T183" s="49">
-        <v>0</v>
-      </c>
-      <c r="U183" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A184" s="29">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A185" s="29">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A186" s="29">
-        <v>183</v>
+      <c r="E186" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="H186" s="48"/>
+      <c r="K186" s="49">
+        <v>1</v>
+      </c>
+      <c r="L186" s="49">
+        <v>1</v>
+      </c>
+      <c r="M186" s="49">
+        <v>0</v>
+      </c>
+      <c r="N186" s="49">
+        <v>0</v>
+      </c>
+      <c r="O186" s="49">
+        <v>0</v>
+      </c>
+      <c r="P186" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="49">
+        <v>0</v>
+      </c>
+      <c r="R186" s="49">
+        <v>0</v>
+      </c>
+      <c r="S186" s="49">
+        <v>0</v>
+      </c>
+      <c r="T186" s="49">
+        <v>0</v>
+      </c>
+      <c r="U186" s="49">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="29">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="29">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="29">
         <v>191</v>
       </c>
     </row>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KFrame\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="2205" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -2931,7 +2931,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3705,8 +3705,8 @@
   <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KFrame\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>苏昭展:</t>
@@ -44,6 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2077,10 +2079,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>recent</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>record</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2593,10 +2591,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>recenttype</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2927,11 +2921,19 @@
     <t>场均击杀(客户端显示需要除以10000)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>relationtype</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>recentplayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3018,6 +3020,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3025,6 +3028,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3705,8 +3709,8 @@
   <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD74"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3775,10 +3779,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>373</v>
@@ -3787,7 +3791,7 @@
         <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>264</v>
@@ -3796,7 +3800,7 @@
         <v>345</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -3840,13 +3844,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>161</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>162</v>
@@ -3855,25 +3859,25 @@
         <v>163</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O2" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>467</v>
-      </c>
       <c r="S2" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="T2" s="26" t="s">
         <v>471</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>473</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>164</v>
@@ -5032,16 +5036,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5691,13 +5695,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5741,13 +5745,13 @@
         <v>114</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K40" s="20">
         <v>1</v>
@@ -6102,7 +6106,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>140</v>
@@ -6858,7 +6862,7 @@
         <v>75</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>50</v>
@@ -7587,10 +7591,10 @@
         <v>124</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7634,7 +7638,7 @@
         <v>171</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>188</v>
@@ -7643,7 +7647,7 @@
         <v>271</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>129</v>
@@ -7702,7 +7706,7 @@
         <v>270</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>129</v>
@@ -7808,7 +7812,7 @@
         <v>171</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>124</v>
@@ -7864,7 +7868,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>124</v>
@@ -8035,22 +8039,22 @@
         <v>171</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K82" s="7">
         <v>1</v>
@@ -8091,19 +8095,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8147,13 +8151,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8194,7 +8198,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C85" s="45" t="s">
         <v>196</v>
@@ -8248,16 +8252,16 @@
         <v>83</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C86" s="45" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="E86" s="45" t="s">
         <v>436</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>437</v>
       </c>
       <c r="H86" s="45" t="s">
         <v>121</v>
@@ -8306,16 +8310,16 @@
         <v>84</v>
       </c>
       <c r="B87" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="45" t="s">
         <v>438</v>
       </c>
-      <c r="C87" s="45" t="s">
+      <c r="E87" s="45" t="s">
         <v>380</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>381</v>
       </c>
       <c r="H87" s="45"/>
       <c r="I87" s="45"/>
@@ -8360,16 +8364,16 @@
         <v>85</v>
       </c>
       <c r="B88" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" s="45" t="s">
         <v>440</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>441</v>
       </c>
       <c r="D88" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H88" s="45"/>
       <c r="I88" s="45"/>
@@ -8414,16 +8418,16 @@
         <v>86</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C89" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" s="45" t="s">
         <v>452</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>453</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>454</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -8468,16 +8472,16 @@
         <v>87</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D90" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
@@ -8522,16 +8526,16 @@
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D91" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8576,16 +8580,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -9682,7 +9686,7 @@
         <v>297</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D112" s="35" t="s">
         <v>198</v>
@@ -9735,7 +9739,7 @@
         <v>297</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D113" s="35" t="s">
         <v>229</v>
@@ -9788,7 +9792,7 @@
         <v>297</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D114" s="35" t="s">
         <v>198</v>
@@ -9838,19 +9842,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D115" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F115" s="35" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K115" s="34">
         <v>1</v>
@@ -9894,7 +9898,7 @@
         <v>297</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>198</v>
@@ -10000,7 +10004,7 @@
         <v>297</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D118" s="35" t="s">
         <v>99</v>
@@ -10106,13 +10110,13 @@
         <v>297</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D120" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F120" s="35" t="s">
         <v>311</v>
@@ -10159,13 +10163,13 @@
         <v>297</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>229</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F121" s="34" t="s">
         <v>232</v>
@@ -10212,16 +10216,16 @@
         <v>297</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D122" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10795,16 +10799,16 @@
         <v>297</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D133" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -10848,16 +10852,16 @@
         <v>297</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D134" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11101,7 +11105,7 @@
         <v>264</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>198</v>
@@ -11201,13 +11205,13 @@
         <v>264</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11257,7 +11261,7 @@
         <v>188</v>
       </c>
       <c r="E142" s="40" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H142" s="33" t="s">
         <v>268</v>
@@ -11568,13 +11572,13 @@
         <v>268</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -11826,13 +11830,13 @@
         <v>324</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -11873,16 +11877,16 @@
         <v>148</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>196</v>
       </c>
       <c r="D154" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E154" s="33" t="s">
         <v>433</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>434</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -11923,16 +11927,16 @@
         <v>149</v>
       </c>
       <c r="B155" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>431</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>432</v>
       </c>
       <c r="D155" s="38" t="s">
         <v>124</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H155" s="38" t="s">
         <v>121</v>
@@ -11981,7 +11985,7 @@
         <v>150</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>102</v>
@@ -11990,7 +11994,7 @@
         <v>99</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12476,16 +12480,16 @@
         <v>159</v>
       </c>
       <c r="B165" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C165" s="48" t="s">
         <v>384</v>
-      </c>
-      <c r="C165" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="D165" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K165" s="49">
         <v>1</v>
@@ -12526,16 +12530,16 @@
         <v>160</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C166" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D166" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K166" s="49">
         <v>1</v>
@@ -12576,16 +12580,16 @@
         <v>161</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D167" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K167" s="49">
         <v>1</v>
@@ -12626,16 +12630,16 @@
         <v>162</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C168" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D168" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="D168" s="48" t="s">
+      <c r="E168" s="48" t="s">
         <v>389</v>
-      </c>
-      <c r="E168" s="48" t="s">
-        <v>390</v>
       </c>
       <c r="K168" s="49">
         <v>1</v>
@@ -12676,16 +12680,16 @@
         <v>163</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D169" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K169" s="49">
         <v>1</v>
@@ -12726,16 +12730,16 @@
         <v>164</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C170" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="D170" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E170" s="48" t="s">
         <v>393</v>
-      </c>
-      <c r="D170" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E170" s="48" t="s">
-        <v>394</v>
       </c>
       <c r="K170" s="49">
         <v>1</v>
@@ -12776,16 +12780,16 @@
         <v>165</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D171" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K171" s="49">
         <v>1</v>
@@ -12826,16 +12830,16 @@
         <v>166</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D172" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K172" s="49">
         <v>1</v>
@@ -12876,16 +12880,16 @@
         <v>167</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C173" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="D173" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E173" s="48" t="s">
         <v>399</v>
-      </c>
-      <c r="D173" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E173" s="48" t="s">
-        <v>400</v>
       </c>
       <c r="K173" s="49">
         <v>1</v>
@@ -12926,16 +12930,16 @@
         <v>168</v>
       </c>
       <c r="B174" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D174" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K174" s="49">
         <v>1</v>
@@ -12976,16 +12980,16 @@
         <v>169</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C175" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D175" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K175" s="49">
         <v>1</v>
@@ -13026,16 +13030,16 @@
         <v>170</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D176" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K176" s="49">
         <v>1</v>
@@ -13076,16 +13080,16 @@
         <v>171</v>
       </c>
       <c r="B177" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C177" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="C177" s="48" t="s">
+      <c r="D177" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="D177" s="48" t="s">
+      <c r="E177" s="48" t="s">
         <v>409</v>
-      </c>
-      <c r="E177" s="48" t="s">
-        <v>410</v>
       </c>
       <c r="K177" s="49">
         <v>1</v>
@@ -13126,16 +13130,16 @@
         <v>172</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D178" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K178" s="49">
         <v>1</v>
@@ -13176,16 +13180,16 @@
         <v>173</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D179" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K179" s="49">
         <v>1</v>
@@ -13226,16 +13230,16 @@
         <v>174</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K180" s="49">
         <v>1</v>
@@ -13276,16 +13280,16 @@
         <v>175</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13326,16 +13330,16 @@
         <v>176</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C182" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E182" s="48" t="s">
         <v>411</v>
-      </c>
-      <c r="D182" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E182" s="48" t="s">
-        <v>412</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13376,16 +13380,16 @@
         <v>177</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C183" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K183" s="49">
         <v>1</v>
@@ -13426,16 +13430,16 @@
         <v>178</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D184" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K184" s="49">
         <v>1</v>
@@ -13476,16 +13480,16 @@
         <v>179</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C185" s="48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D185" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K185" s="49">
         <v>1</v>
@@ -13526,16 +13530,16 @@
         <v>180</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C186" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D186" s="48" t="s">
         <v>174</v>
       </c>
       <c r="E186" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H186" s="48"/>
       <c r="K186" s="49">

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="528">
   <si>
     <t>Class</t>
   </si>
@@ -1506,10 +1506,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>captainid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>队长id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2927,6 +2923,94 @@
   </si>
   <si>
     <t>recentplayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>skilllist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图鉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillData</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>killData</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能熟练度评分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>captainid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3032,7 +3116,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3153,6 +3237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3183,7 +3273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3332,6 +3422,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3706,11 +3802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y197"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3779,28 +3875,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>264</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -3844,13 +3940,13 @@
         <v>160</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>161</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>162</v>
@@ -3859,25 +3955,25 @@
         <v>163</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>164</v>
@@ -4131,17 +4227,17 @@
         <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -4542,7 +4638,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -4739,13 +4835,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -4795,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -4839,7 +4935,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -4936,16 +5032,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -4986,16 +5082,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5036,16 +5132,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5086,7 +5182,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5189,7 +5285,7 @@
         <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -5239,7 +5335,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>36</v>
@@ -5339,7 +5435,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
@@ -5593,13 +5689,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F37" s="19"/>
       <c r="K37" s="20">
@@ -5644,13 +5740,13 @@
         <v>114</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F38" s="19"/>
       <c r="K38" s="20">
@@ -5695,13 +5791,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5745,13 +5841,13 @@
         <v>114</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K40" s="20">
         <v>1</v>
@@ -5858,7 +5954,7 @@
         <v>126</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K42" s="5">
         <v>1</v>
@@ -6106,7 +6202,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>140</v>
@@ -6172,7 +6268,7 @@
         <v>126</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K48" s="5">
         <v>1</v>
@@ -6432,7 +6528,7 @@
         <v>128</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6635,7 +6731,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
@@ -6862,7 +6958,7 @@
         <v>75</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>50</v>
@@ -7591,10 +7687,10 @@
         <v>124</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7638,7 +7734,7 @@
         <v>171</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>188</v>
@@ -7647,7 +7743,7 @@
         <v>271</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>129</v>
@@ -7697,7 +7793,7 @@
         <v>171</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>188</v>
@@ -7706,7 +7802,7 @@
         <v>270</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>129</v>
@@ -7756,10 +7852,10 @@
         <v>171</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>224</v>
@@ -7768,7 +7864,7 @@
         <v>224</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K77" s="42">
         <v>1</v>
@@ -7812,7 +7908,7 @@
         <v>171</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>124</v>
@@ -7824,7 +7920,7 @@
         <v>225</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K78" s="42">
         <v>1</v>
@@ -7868,7 +7964,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>124</v>
@@ -7880,7 +7976,7 @@
         <v>226</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -7924,7 +8020,7 @@
         <v>171</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>124</v>
@@ -7936,7 +8032,7 @@
         <v>227</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K80" s="42">
         <v>1</v>
@@ -7980,22 +8076,22 @@
         <v>199</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="J81" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K81" s="7">
         <v>1</v>
@@ -8039,22 +8135,22 @@
         <v>171</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K82" s="7">
         <v>1</v>
@@ -8095,19 +8191,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8151,13 +8247,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8193,82 +8289,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="29">
-        <v>82</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="C85" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="K85" s="46">
-        <v>1</v>
-      </c>
-      <c r="L85" s="46">
-        <v>1</v>
-      </c>
-      <c r="M85" s="46">
-        <v>1</v>
-      </c>
-      <c r="N85" s="46">
-        <v>0</v>
-      </c>
-      <c r="O85" s="46">
-        <v>0</v>
-      </c>
-      <c r="P85" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="46">
-        <v>0</v>
-      </c>
-      <c r="R85" s="46">
-        <v>0</v>
-      </c>
-      <c r="S85" s="46">
-        <v>0</v>
-      </c>
-      <c r="T85" s="46">
-        <v>0</v>
-      </c>
-      <c r="U85" s="46">
-        <v>0</v>
-      </c>
-      <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K85" s="7">
+        <v>1</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7">
+        <v>1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="29">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="H86" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I86" s="45" t="s">
-        <v>196</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
       <c r="K86" s="46">
         <v>1</v>
       </c>
@@ -8307,22 +8404,26 @@
     </row>
     <row r="87" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="29">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
+        <v>435</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I87" s="45" t="s">
+        <v>196</v>
+      </c>
       <c r="K87" s="46">
         <v>1</v>
       </c>
@@ -8361,19 +8462,19 @@
     </row>
     <row r="88" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="29">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="H88" s="45"/>
       <c r="I88" s="45"/>
@@ -8415,19 +8516,19 @@
     </row>
     <row r="89" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -8469,19 +8570,19 @@
     </row>
     <row r="90" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
@@ -8523,19 +8624,19 @@
     </row>
     <row r="91" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D91" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8577,19 +8678,19 @@
     </row>
     <row r="92" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>446</v>
+        <v>144</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -8629,89 +8730,84 @@
       <c r="V92" s="47"/>
       <c r="W92" s="47"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
-        <v>90</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11">
-        <v>1</v>
-      </c>
-      <c r="L93" s="11">
-        <v>1</v>
-      </c>
-      <c r="M93" s="11">
-        <v>1</v>
-      </c>
-      <c r="N93" s="11">
-        <v>1</v>
-      </c>
-      <c r="O93" s="11">
-        <v>1</v>
-      </c>
-      <c r="P93" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="9">
-        <v>0</v>
-      </c>
-      <c r="R93" s="9">
-        <v>0</v>
-      </c>
-      <c r="S93" s="9">
-        <v>0</v>
-      </c>
-      <c r="T93" s="9">
-        <v>0</v>
-      </c>
-      <c r="U93" s="11">
-        <v>0</v>
-      </c>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="K93" s="46">
+        <v>1</v>
+      </c>
+      <c r="L93" s="46">
+        <v>1</v>
+      </c>
+      <c r="M93" s="46">
+        <v>1</v>
+      </c>
+      <c r="N93" s="46">
+        <v>0</v>
+      </c>
+      <c r="O93" s="46">
+        <v>0</v>
+      </c>
+      <c r="P93" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="46">
+        <v>0</v>
+      </c>
+      <c r="R93" s="46">
+        <v>0</v>
+      </c>
+      <c r="S93" s="46">
+        <v>0</v>
+      </c>
+      <c r="T93" s="46">
+        <v>0</v>
+      </c>
+      <c r="U93" s="46">
+        <v>0</v>
+      </c>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>82</v>
+      <c r="C94" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="H94" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>283</v>
+      </c>
       <c r="J94" s="11"/>
       <c r="K94" s="11">
         <v>1</v>
@@ -8753,19 +8849,19 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A95" s="29">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -8812,19 +8908,19 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A96" s="29">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>85</v>
+      <c r="C96" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
@@ -8871,19 +8967,19 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="29">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>87</v>
+      <c r="C97" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -8930,19 +9026,19 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A98" s="29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>53</v>
+      <c r="C98" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>79</v>
+      <c r="E98" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -8987,72 +9083,80 @@
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
     </row>
-    <row r="99" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A99" s="29">
+        <v>95</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11">
+        <v>1</v>
+      </c>
+      <c r="L99" s="11">
+        <v>1</v>
+      </c>
+      <c r="M99" s="11">
+        <v>1</v>
+      </c>
+      <c r="N99" s="11">
+        <v>1</v>
+      </c>
+      <c r="O99" s="11">
+        <v>1</v>
+      </c>
+      <c r="P99" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>0</v>
+      </c>
+      <c r="R99" s="9">
+        <v>0</v>
+      </c>
+      <c r="S99" s="9">
+        <v>0</v>
+      </c>
+      <c r="T99" s="9">
+        <v>0</v>
+      </c>
+      <c r="U99" s="11">
+        <v>0</v>
+      </c>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+    </row>
+    <row r="100" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="29">
         <v>96</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F99" s="25"/>
-      <c r="K99" s="24">
-        <v>1</v>
-      </c>
-      <c r="L99" s="24">
-        <v>1</v>
-      </c>
-      <c r="M99" s="24">
-        <v>1</v>
-      </c>
-      <c r="N99" s="24">
-        <v>1</v>
-      </c>
-      <c r="O99" s="24">
-        <v>0</v>
-      </c>
-      <c r="P99" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="24">
-        <v>0</v>
-      </c>
-      <c r="R99" s="24">
-        <v>0</v>
-      </c>
-      <c r="S99" s="24">
-        <v>0</v>
-      </c>
-      <c r="T99" s="24">
-        <v>0</v>
-      </c>
-      <c r="U99" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="29">
-        <v>97</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F100" s="25"/>
       <c r="K100" s="24">
@@ -9089,21 +9193,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F101" s="25"/>
       <c r="K101" s="24">
@@ -9140,84 +9244,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="29">
+        <v>98</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9">
-        <v>1</v>
-      </c>
-      <c r="L102" s="9">
-        <v>1</v>
-      </c>
-      <c r="M102" s="9">
-        <v>1</v>
-      </c>
-      <c r="N102" s="9">
-        <v>1</v>
-      </c>
-      <c r="O102" s="9">
-        <v>1</v>
-      </c>
-      <c r="P102" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="9">
-        <v>0</v>
-      </c>
-      <c r="R102" s="9">
-        <v>0</v>
-      </c>
-      <c r="S102" s="9">
-        <v>0</v>
-      </c>
-      <c r="T102" s="9">
-        <v>0</v>
-      </c>
-      <c r="U102" s="9">
-        <v>0</v>
-      </c>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
+      <c r="E102" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="25"/>
+      <c r="K102" s="24">
+        <v>1</v>
+      </c>
+      <c r="L102" s="24">
+        <v>1</v>
+      </c>
+      <c r="M102" s="24">
+        <v>1</v>
+      </c>
+      <c r="N102" s="24">
+        <v>1</v>
+      </c>
+      <c r="O102" s="24">
+        <v>0</v>
+      </c>
+      <c r="P102" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="24">
+        <v>0</v>
+      </c>
+      <c r="R102" s="24">
+        <v>0</v>
+      </c>
+      <c r="S102" s="24">
+        <v>0</v>
+      </c>
+      <c r="T102" s="24">
+        <v>0</v>
+      </c>
+      <c r="U102" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A103" s="29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>193</v>
+      <c r="C103" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F103" s="10"/>
+      <c r="E103" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -9260,74 +9356,80 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A104" s="29">
+        <v>100</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9">
+        <v>1</v>
+      </c>
+      <c r="L104" s="9">
+        <v>1</v>
+      </c>
+      <c r="M104" s="9">
+        <v>1</v>
+      </c>
+      <c r="N104" s="9">
+        <v>1</v>
+      </c>
+      <c r="O104" s="9">
+        <v>1</v>
+      </c>
+      <c r="P104" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="9">
+        <v>0</v>
+      </c>
+      <c r="R104" s="9">
+        <v>0</v>
+      </c>
+      <c r="S104" s="9">
+        <v>0</v>
+      </c>
+      <c r="T104" s="9">
+        <v>0</v>
+      </c>
+      <c r="U104" s="9">
+        <v>0</v>
+      </c>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+    </row>
+    <row r="105" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="29">
         <v>101</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K104" s="31">
-        <v>1</v>
-      </c>
-      <c r="L104" s="31">
-        <v>1</v>
-      </c>
-      <c r="M104" s="31">
-        <v>1</v>
-      </c>
-      <c r="N104" s="31">
-        <v>1</v>
-      </c>
-      <c r="O104" s="31">
-        <v>1</v>
-      </c>
-      <c r="P104" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="31">
-        <v>0</v>
-      </c>
-      <c r="R104" s="31">
-        <v>0</v>
-      </c>
-      <c r="S104" s="31">
-        <v>0</v>
-      </c>
-      <c r="T104" s="31">
-        <v>0</v>
-      </c>
-      <c r="U104" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="29">
-        <v>102</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F105" s="31" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K105" s="31">
         <v>1</v>
@@ -9363,24 +9465,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D106" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K106" s="31">
         <v>1</v>
@@ -9418,75 +9520,75 @@
     </row>
     <row r="107" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C107" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K107" s="31">
+        <v>1</v>
+      </c>
+      <c r="L107" s="31">
+        <v>1</v>
+      </c>
+      <c r="M107" s="31">
+        <v>1</v>
+      </c>
+      <c r="N107" s="31">
+        <v>1</v>
+      </c>
+      <c r="O107" s="31">
+        <v>1</v>
+      </c>
+      <c r="P107" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="31">
+        <v>0</v>
+      </c>
+      <c r="R107" s="31">
+        <v>0</v>
+      </c>
+      <c r="S107" s="31">
+        <v>0</v>
+      </c>
+      <c r="T107" s="31">
+        <v>0</v>
+      </c>
+      <c r="U107" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="29">
+        <v>104</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D108" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E108" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F108" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="K107" s="31">
-        <v>1</v>
-      </c>
-      <c r="L107" s="31">
-        <v>1</v>
-      </c>
-      <c r="M107" s="31">
-        <v>1</v>
-      </c>
-      <c r="N107" s="31">
-        <v>1</v>
-      </c>
-      <c r="O107" s="31">
-        <v>1</v>
-      </c>
-      <c r="P107" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="31">
-        <v>0</v>
-      </c>
-      <c r="R107" s="31">
-        <v>0</v>
-      </c>
-      <c r="S107" s="31">
-        <v>0</v>
-      </c>
-      <c r="T107" s="31">
-        <v>0</v>
-      </c>
-      <c r="U107" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="29">
-        <v>105</v>
-      </c>
-      <c r="B108" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="K108" s="31">
         <v>1</v>
@@ -9524,22 +9626,22 @@
     </row>
     <row r="109" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>181</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K109" s="31">
         <v>1</v>
@@ -9575,233 +9677,233 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>181</v>
       </c>
       <c r="C110" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K110" s="31">
+        <v>1</v>
+      </c>
+      <c r="L110" s="31">
+        <v>1</v>
+      </c>
+      <c r="M110" s="31">
+        <v>1</v>
+      </c>
+      <c r="N110" s="31">
+        <v>1</v>
+      </c>
+      <c r="O110" s="31">
+        <v>1</v>
+      </c>
+      <c r="P110" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="31">
+        <v>0</v>
+      </c>
+      <c r="R110" s="31">
+        <v>0</v>
+      </c>
+      <c r="S110" s="31">
+        <v>0</v>
+      </c>
+      <c r="T110" s="31">
+        <v>0</v>
+      </c>
+      <c r="U110" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29">
+        <v>107</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D111" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E111" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="K110" s="31">
-        <v>1</v>
-      </c>
-      <c r="L110" s="31">
-        <v>1</v>
-      </c>
-      <c r="M110" s="31">
-        <v>1</v>
-      </c>
-      <c r="N110" s="31">
-        <v>1</v>
-      </c>
-      <c r="O110" s="31">
-        <v>1</v>
-      </c>
-      <c r="P110" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="31">
-        <v>0</v>
-      </c>
-      <c r="R110" s="31">
-        <v>0</v>
-      </c>
-      <c r="S110" s="31">
-        <v>0</v>
-      </c>
-      <c r="T110" s="31">
-        <v>0</v>
-      </c>
-      <c r="U110" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="29">
+      <c r="K111" s="31">
+        <v>1</v>
+      </c>
+      <c r="L111" s="31">
+        <v>1</v>
+      </c>
+      <c r="M111" s="31">
+        <v>1</v>
+      </c>
+      <c r="N111" s="31">
+        <v>1</v>
+      </c>
+      <c r="O111" s="31">
+        <v>1</v>
+      </c>
+      <c r="P111" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="31">
+        <v>0</v>
+      </c>
+      <c r="R111" s="31">
+        <v>0</v>
+      </c>
+      <c r="S111" s="31">
+        <v>0</v>
+      </c>
+      <c r="T111" s="31">
+        <v>0</v>
+      </c>
+      <c r="U111" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B112" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C112" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D111" s="33" t="s">
+      <c r="D112" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E112" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="K111" s="32">
-        <v>1</v>
-      </c>
-      <c r="L111" s="32">
-        <v>1</v>
-      </c>
-      <c r="M111" s="32">
-        <v>1</v>
-      </c>
-      <c r="N111" s="32">
-        <v>1</v>
-      </c>
-      <c r="O111" s="32">
-        <v>0</v>
-      </c>
-      <c r="P111" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="32">
-        <v>0</v>
-      </c>
-      <c r="R111" s="32">
-        <v>0</v>
-      </c>
-      <c r="S111" s="32">
-        <v>0</v>
-      </c>
-      <c r="T111" s="32">
-        <v>0</v>
-      </c>
-      <c r="U111" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="29">
+      <c r="K112" s="32">
+        <v>1</v>
+      </c>
+      <c r="L112" s="32">
+        <v>1</v>
+      </c>
+      <c r="M112" s="32">
+        <v>1</v>
+      </c>
+      <c r="N112" s="32">
+        <v>1</v>
+      </c>
+      <c r="O112" s="32">
+        <v>0</v>
+      </c>
+      <c r="P112" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="32">
+        <v>0</v>
+      </c>
+      <c r="R112" s="32">
+        <v>0</v>
+      </c>
+      <c r="S112" s="32">
+        <v>0</v>
+      </c>
+      <c r="T112" s="32">
+        <v>0</v>
+      </c>
+      <c r="U112" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="29">
         <v>109</v>
       </c>
-      <c r="B112" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="K112" s="34">
-        <v>1</v>
-      </c>
-      <c r="L112" s="34">
-        <v>1</v>
-      </c>
-      <c r="M112" s="34">
-        <v>1</v>
-      </c>
-      <c r="N112" s="34">
-        <v>1</v>
-      </c>
-      <c r="O112" s="34">
-        <v>1</v>
-      </c>
-      <c r="P112" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="34">
-        <v>0</v>
-      </c>
-      <c r="R112" s="34">
-        <v>0</v>
-      </c>
-      <c r="S112" s="34">
-        <v>0</v>
-      </c>
-      <c r="T112" s="34">
-        <v>0</v>
-      </c>
-      <c r="U112" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="29">
-        <v>110</v>
-      </c>
       <c r="B113" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>496</v>
       </c>
       <c r="D113" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K113" s="34">
+        <v>1</v>
+      </c>
+      <c r="L113" s="34">
+        <v>1</v>
+      </c>
+      <c r="M113" s="34">
+        <v>1</v>
+      </c>
+      <c r="N113" s="34">
+        <v>1</v>
+      </c>
+      <c r="O113" s="34">
+        <v>1</v>
+      </c>
+      <c r="P113" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="34">
+        <v>0</v>
+      </c>
+      <c r="R113" s="34">
+        <v>0</v>
+      </c>
+      <c r="S113" s="34">
+        <v>0</v>
+      </c>
+      <c r="T113" s="34">
+        <v>0</v>
+      </c>
+      <c r="U113" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="29">
+        <v>110</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D114" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="E113" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="K113" s="34">
-        <v>1</v>
-      </c>
-      <c r="L113" s="34">
-        <v>1</v>
-      </c>
-      <c r="M113" s="34">
-        <v>1</v>
-      </c>
-      <c r="N113" s="34">
-        <v>1</v>
-      </c>
-      <c r="O113" s="34">
-        <v>1</v>
-      </c>
-      <c r="P113" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="34">
-        <v>0</v>
-      </c>
-      <c r="R113" s="34">
-        <v>0</v>
-      </c>
-      <c r="S113" s="34">
-        <v>0</v>
-      </c>
-      <c r="T113" s="34">
-        <v>0</v>
-      </c>
-      <c r="U113" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="29">
-        <v>111</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>198</v>
-      </c>
       <c r="E114" s="35" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="F114" s="35" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="K114" s="34">
         <v>1</v>
@@ -9839,22 +9941,22 @@
     </row>
     <row r="115" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="29">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>502</v>
+        <v>296</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D115" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>511</v>
+        <v>230</v>
       </c>
       <c r="F115" s="35" t="s">
-        <v>503</v>
+        <v>230</v>
       </c>
       <c r="K115" s="34">
         <v>1</v>
@@ -9895,19 +9997,19 @@
         <v>112</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>297</v>
+        <v>501</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
       <c r="K116" s="34">
         <v>1</v>
@@ -9945,22 +10047,22 @@
     </row>
     <row r="117" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="D117" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F117" s="35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K117" s="34">
         <v>1</v>
@@ -9998,22 +10100,22 @@
     </row>
     <row r="118" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>500</v>
+        <v>231</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K118" s="34">
         <v>1</v>
@@ -10051,22 +10153,22 @@
     </row>
     <row r="119" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>235</v>
+        <v>499</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="K119" s="34">
         <v>1</v>
@@ -10104,22 +10206,22 @@
     </row>
     <row r="120" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>501</v>
+        <v>235</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>494</v>
+        <v>236</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="K120" s="34">
         <v>1</v>
@@ -10157,22 +10259,22 @@
     </row>
     <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E121" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="F121" s="34" t="s">
-        <v>232</v>
+      <c r="F121" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10213,19 +10315,19 @@
         <v>117</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="F122" s="35" t="s">
-        <v>507</v>
+        <v>229</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10263,22 +10365,22 @@
     </row>
     <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>302</v>
+        <v>505</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10316,22 +10418,22 @@
     </row>
     <row r="124" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10369,128 +10471,128 @@
     </row>
     <row r="125" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="29">
+        <v>119</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E125" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K125" s="34">
+        <v>1</v>
+      </c>
+      <c r="L125" s="34">
+        <v>1</v>
+      </c>
+      <c r="M125" s="34">
+        <v>1</v>
+      </c>
+      <c r="N125" s="34">
+        <v>1</v>
+      </c>
+      <c r="O125" s="34">
+        <v>1</v>
+      </c>
+      <c r="P125" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="34">
+        <v>0</v>
+      </c>
+      <c r="R125" s="34">
+        <v>0</v>
+      </c>
+      <c r="S125" s="34">
+        <v>0</v>
+      </c>
+      <c r="T125" s="34">
+        <v>0</v>
+      </c>
+      <c r="U125" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="29">
         <v>120</v>
       </c>
-      <c r="B125" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="35" t="s">
+      <c r="B126" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E125" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="K125" s="34">
-        <v>1</v>
-      </c>
-      <c r="L125" s="34">
-        <v>1</v>
-      </c>
-      <c r="M125" s="34">
-        <v>1</v>
-      </c>
-      <c r="N125" s="34">
-        <v>1</v>
-      </c>
-      <c r="O125" s="34">
-        <v>1</v>
-      </c>
-      <c r="P125" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="34">
-        <v>0</v>
-      </c>
-      <c r="R125" s="34">
-        <v>0</v>
-      </c>
-      <c r="S125" s="34">
-        <v>0</v>
-      </c>
-      <c r="T125" s="34">
-        <v>0</v>
-      </c>
-      <c r="U125" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29">
+      <c r="E126" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K126" s="34">
+        <v>1</v>
+      </c>
+      <c r="L126" s="34">
+        <v>1</v>
+      </c>
+      <c r="M126" s="34">
+        <v>1</v>
+      </c>
+      <c r="N126" s="34">
+        <v>1</v>
+      </c>
+      <c r="O126" s="34">
+        <v>1</v>
+      </c>
+      <c r="P126" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="34">
+        <v>0</v>
+      </c>
+      <c r="R126" s="34">
+        <v>0</v>
+      </c>
+      <c r="S126" s="34">
+        <v>0</v>
+      </c>
+      <c r="T126" s="34">
+        <v>0</v>
+      </c>
+      <c r="U126" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="29">
         <v>121</v>
       </c>
-      <c r="B126" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" s="35" t="s">
+      <c r="B127" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="D126" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="E126" s="34" t="s">
+      <c r="D127" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F127" s="34" t="s">
         <v>234</v>
-      </c>
-      <c r="K126" s="34">
-        <v>1</v>
-      </c>
-      <c r="L126" s="34">
-        <v>1</v>
-      </c>
-      <c r="M126" s="34">
-        <v>1</v>
-      </c>
-      <c r="N126" s="34">
-        <v>1</v>
-      </c>
-      <c r="O126" s="34">
-        <v>1</v>
-      </c>
-      <c r="P126" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="34">
-        <v>0</v>
-      </c>
-      <c r="R126" s="34">
-        <v>0</v>
-      </c>
-      <c r="S126" s="34">
-        <v>0</v>
-      </c>
-      <c r="T126" s="34">
-        <v>0</v>
-      </c>
-      <c r="U126" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="29">
-        <v>122</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="D127" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E127" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>303</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10528,22 +10630,22 @@
     </row>
     <row r="128" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D128" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10579,24 +10681,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D129" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -10632,183 +10734,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="29">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D130" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E130" s="34" t="s">
+      <c r="E130" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="K130" s="34">
+        <v>1</v>
+      </c>
+      <c r="L130" s="34">
+        <v>1</v>
+      </c>
+      <c r="M130" s="34">
+        <v>1</v>
+      </c>
+      <c r="N130" s="34">
+        <v>1</v>
+      </c>
+      <c r="O130" s="34">
+        <v>1</v>
+      </c>
+      <c r="P130" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="34">
+        <v>0</v>
+      </c>
+      <c r="R130" s="34">
+        <v>0</v>
+      </c>
+      <c r="S130" s="34">
+        <v>0</v>
+      </c>
+      <c r="T130" s="34">
+        <v>0</v>
+      </c>
+      <c r="U130" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="29">
+        <v>125</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E131" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="F130" s="34" t="s">
+      <c r="F131" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="K130" s="34">
-        <v>1</v>
-      </c>
-      <c r="L130" s="34">
-        <v>1</v>
-      </c>
-      <c r="M130" s="34">
-        <v>1</v>
-      </c>
-      <c r="N130" s="34">
-        <v>1</v>
-      </c>
-      <c r="O130" s="34">
-        <v>1</v>
-      </c>
-      <c r="P130" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="34">
-        <v>0</v>
-      </c>
-      <c r="R130" s="34">
-        <v>0</v>
-      </c>
-      <c r="S130" s="34">
-        <v>0</v>
-      </c>
-      <c r="T130" s="34">
-        <v>0</v>
-      </c>
-      <c r="U130" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="29">
+      <c r="K131" s="34">
+        <v>1</v>
+      </c>
+      <c r="L131" s="34">
+        <v>1</v>
+      </c>
+      <c r="M131" s="34">
+        <v>1</v>
+      </c>
+      <c r="N131" s="34">
+        <v>1</v>
+      </c>
+      <c r="O131" s="34">
+        <v>1</v>
+      </c>
+      <c r="P131" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="34">
+        <v>0</v>
+      </c>
+      <c r="R131" s="34">
+        <v>0</v>
+      </c>
+      <c r="S131" s="34">
+        <v>0</v>
+      </c>
+      <c r="T131" s="34">
+        <v>0</v>
+      </c>
+      <c r="U131" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="29">
         <v>126</v>
       </c>
-      <c r="B131" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C131" s="35" t="s">
+      <c r="B132" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D132" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E131" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="K131" s="34">
-        <v>1</v>
-      </c>
-      <c r="L131" s="34">
-        <v>1</v>
-      </c>
-      <c r="M131" s="34">
-        <v>1</v>
-      </c>
-      <c r="N131" s="34">
-        <v>1</v>
-      </c>
-      <c r="O131" s="34">
-        <v>1</v>
-      </c>
-      <c r="P131" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="34">
-        <v>0</v>
-      </c>
-      <c r="R131" s="34">
-        <v>0</v>
-      </c>
-      <c r="S131" s="34">
-        <v>0</v>
-      </c>
-      <c r="T131" s="34">
-        <v>0</v>
-      </c>
-      <c r="U131" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="29">
+      <c r="E132" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K132" s="34">
+        <v>1</v>
+      </c>
+      <c r="L132" s="34">
+        <v>1</v>
+      </c>
+      <c r="M132" s="34">
+        <v>1</v>
+      </c>
+      <c r="N132" s="34">
+        <v>1</v>
+      </c>
+      <c r="O132" s="34">
+        <v>1</v>
+      </c>
+      <c r="P132" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="34">
+        <v>0</v>
+      </c>
+      <c r="R132" s="34">
+        <v>0</v>
+      </c>
+      <c r="S132" s="34">
+        <v>0</v>
+      </c>
+      <c r="T132" s="34">
+        <v>0</v>
+      </c>
+      <c r="U132" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="29">
         <v>127</v>
       </c>
-      <c r="B132" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F132" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="K132" s="34">
-        <v>1</v>
-      </c>
-      <c r="L132" s="34">
-        <v>1</v>
-      </c>
-      <c r="M132" s="34">
-        <v>1</v>
-      </c>
-      <c r="N132" s="34">
-        <v>1</v>
-      </c>
-      <c r="O132" s="34">
-        <v>1</v>
-      </c>
-      <c r="P132" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="34">
-        <v>0</v>
-      </c>
-      <c r="R132" s="34">
-        <v>0</v>
-      </c>
-      <c r="S132" s="34">
-        <v>0</v>
-      </c>
-      <c r="T132" s="34">
-        <v>0</v>
-      </c>
-      <c r="U132" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29">
-        <v>128</v>
-      </c>
       <c r="B133" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="D133" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -10844,24 +10946,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
         <v>128</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="D134" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -10897,221 +10999,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
+        <v>128</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="K135" s="34">
+        <v>1</v>
+      </c>
+      <c r="L135" s="34">
+        <v>1</v>
+      </c>
+      <c r="M135" s="34">
+        <v>1</v>
+      </c>
+      <c r="N135" s="34">
+        <v>1</v>
+      </c>
+      <c r="O135" s="34">
+        <v>1</v>
+      </c>
+      <c r="P135" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="34">
+        <v>0</v>
+      </c>
+      <c r="R135" s="34">
+        <v>0</v>
+      </c>
+      <c r="S135" s="34">
+        <v>0</v>
+      </c>
+      <c r="T135" s="34">
+        <v>0</v>
+      </c>
+      <c r="U135" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="29">
         <v>129</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="K135" s="37">
-        <v>1</v>
-      </c>
-      <c r="L135" s="37">
-        <v>1</v>
-      </c>
-      <c r="M135" s="37">
-        <v>1</v>
-      </c>
-      <c r="N135" s="37">
-        <v>1</v>
-      </c>
-      <c r="O135" s="37">
-        <v>1</v>
-      </c>
-      <c r="P135" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="37">
-        <v>0</v>
-      </c>
-      <c r="R135" s="37">
-        <v>0</v>
-      </c>
-      <c r="S135" s="37">
-        <v>0</v>
-      </c>
-      <c r="T135" s="37">
-        <v>0</v>
-      </c>
-      <c r="U135" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="29">
-        <v>130</v>
       </c>
       <c r="B136" s="36" t="s">
         <v>246</v>
       </c>
       <c r="C136" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K136" s="37">
+        <v>1</v>
+      </c>
+      <c r="L136" s="37">
+        <v>1</v>
+      </c>
+      <c r="M136" s="37">
+        <v>1</v>
+      </c>
+      <c r="N136" s="37">
+        <v>1</v>
+      </c>
+      <c r="O136" s="37">
+        <v>1</v>
+      </c>
+      <c r="P136" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="37">
+        <v>0</v>
+      </c>
+      <c r="R136" s="37">
+        <v>0</v>
+      </c>
+      <c r="S136" s="37">
+        <v>0</v>
+      </c>
+      <c r="T136" s="37">
+        <v>0</v>
+      </c>
+      <c r="U136" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="29">
+        <v>130</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D137" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="E136" s="36" t="s">
+      <c r="E137" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="K136" s="37">
-        <v>1</v>
-      </c>
-      <c r="L136" s="37">
-        <v>1</v>
-      </c>
-      <c r="M136" s="37">
-        <v>1</v>
-      </c>
-      <c r="N136" s="37">
-        <v>1</v>
-      </c>
-      <c r="O136" s="37">
-        <v>1</v>
-      </c>
-      <c r="P136" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="37">
-        <v>0</v>
-      </c>
-      <c r="R136" s="37">
-        <v>0</v>
-      </c>
-      <c r="S136" s="37">
-        <v>0</v>
-      </c>
-      <c r="T136" s="37">
-        <v>0</v>
-      </c>
-      <c r="U136" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="29">
+      <c r="K137" s="37">
+        <v>1</v>
+      </c>
+      <c r="L137" s="37">
+        <v>1</v>
+      </c>
+      <c r="M137" s="37">
+        <v>1</v>
+      </c>
+      <c r="N137" s="37">
+        <v>1</v>
+      </c>
+      <c r="O137" s="37">
+        <v>1</v>
+      </c>
+      <c r="P137" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="37">
+        <v>0</v>
+      </c>
+      <c r="R137" s="37">
+        <v>0</v>
+      </c>
+      <c r="S137" s="37">
+        <v>0</v>
+      </c>
+      <c r="T137" s="37">
+        <v>0</v>
+      </c>
+      <c r="U137" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="29">
         <v>131</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B138" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C138" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="D137" s="36" t="s">
+      <c r="D138" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="E137" s="36" t="s">
+      <c r="E138" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="K137" s="37">
-        <v>1</v>
-      </c>
-      <c r="L137" s="37">
-        <v>1</v>
-      </c>
-      <c r="M137" s="37">
-        <v>1</v>
-      </c>
-      <c r="N137" s="37">
-        <v>1</v>
-      </c>
-      <c r="O137" s="37">
-        <v>1</v>
-      </c>
-      <c r="P137" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="37">
-        <v>0</v>
-      </c>
-      <c r="R137" s="37">
-        <v>0</v>
-      </c>
-      <c r="S137" s="37">
-        <v>0</v>
-      </c>
-      <c r="T137" s="37">
-        <v>0</v>
-      </c>
-      <c r="U137" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="29">
+      <c r="K138" s="37">
+        <v>1</v>
+      </c>
+      <c r="L138" s="37">
+        <v>1</v>
+      </c>
+      <c r="M138" s="37">
+        <v>1</v>
+      </c>
+      <c r="N138" s="37">
+        <v>1</v>
+      </c>
+      <c r="O138" s="37">
+        <v>1</v>
+      </c>
+      <c r="P138" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="37">
+        <v>0</v>
+      </c>
+      <c r="R138" s="37">
+        <v>0</v>
+      </c>
+      <c r="S138" s="37">
+        <v>0</v>
+      </c>
+      <c r="T138" s="37">
+        <v>0</v>
+      </c>
+      <c r="U138" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="29">
         <v>138</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="K138" s="32">
-        <v>1</v>
-      </c>
-      <c r="L138" s="32">
-        <v>0</v>
-      </c>
-      <c r="M138" s="32">
-        <v>1</v>
-      </c>
-      <c r="N138" s="32">
-        <v>1</v>
-      </c>
-      <c r="O138" s="32">
-        <v>0</v>
-      </c>
-      <c r="P138" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="32">
-        <v>0</v>
-      </c>
-      <c r="R138" s="32">
-        <v>0</v>
-      </c>
-      <c r="S138" s="32">
-        <v>0</v>
-      </c>
-      <c r="T138" s="32">
-        <v>0</v>
-      </c>
-      <c r="U138" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="29">
-        <v>139</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>490</v>
+        <v>196</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="K139" s="32">
         <v>1</v>
@@ -11120,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="M139" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" s="32">
         <v>0</v>
@@ -11147,21 +11252,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="29">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>279</v>
+        <v>489</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="K140" s="32">
         <v>1</v>
@@ -11170,10 +11275,10 @@
         <v>0</v>
       </c>
       <c r="M140" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" s="32">
         <v>0</v>
@@ -11197,21 +11302,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="29">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>488</v>
+        <v>279</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11220,10 +11325,10 @@
         <v>0</v>
       </c>
       <c r="M141" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" s="32">
         <v>0</v>
@@ -11247,134 +11352,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C142" s="40" t="s">
+      <c r="C142" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="K142" s="32">
+        <v>1</v>
+      </c>
+      <c r="L142" s="32">
+        <v>0</v>
+      </c>
+      <c r="M142" s="32">
+        <v>1</v>
+      </c>
+      <c r="N142" s="32">
+        <v>1</v>
+      </c>
+      <c r="O142" s="32">
+        <v>0</v>
+      </c>
+      <c r="P142" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="32">
+        <v>0</v>
+      </c>
+      <c r="R142" s="32">
+        <v>0</v>
+      </c>
+      <c r="S142" s="32">
+        <v>0</v>
+      </c>
+      <c r="T142" s="32">
+        <v>0</v>
+      </c>
+      <c r="U142" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="29">
+        <v>142</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C143" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="40" t="s">
+      <c r="D143" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E142" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="H142" s="33" t="s">
+      <c r="E143" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="H143" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="I142" s="40" t="s">
+      <c r="I143" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="K142" s="40">
-        <v>1</v>
-      </c>
-      <c r="L142" s="40">
-        <v>0</v>
-      </c>
-      <c r="M142" s="40">
-        <v>1</v>
-      </c>
-      <c r="N142" s="40">
-        <v>1</v>
-      </c>
-      <c r="O142" s="40">
-        <v>0</v>
-      </c>
-      <c r="P142" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="40">
-        <v>0</v>
-      </c>
-      <c r="R142" s="40">
-        <v>0</v>
-      </c>
-      <c r="S142" s="40">
-        <v>0</v>
-      </c>
-      <c r="T142" s="40">
-        <v>0</v>
-      </c>
-      <c r="U142" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="29">
+      <c r="K143" s="40">
+        <v>1</v>
+      </c>
+      <c r="L143" s="40">
+        <v>0</v>
+      </c>
+      <c r="M143" s="40">
+        <v>1</v>
+      </c>
+      <c r="N143" s="40">
+        <v>1</v>
+      </c>
+      <c r="O143" s="40">
+        <v>0</v>
+      </c>
+      <c r="P143" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="40">
+        <v>0</v>
+      </c>
+      <c r="R143" s="40">
+        <v>0</v>
+      </c>
+      <c r="S143" s="40">
+        <v>0</v>
+      </c>
+      <c r="T143" s="40">
+        <v>0</v>
+      </c>
+      <c r="U143" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="29">
         <v>132</v>
       </c>
-      <c r="B143" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C143" s="33" t="s">
+      <c r="B144" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D144" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E144" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K143" s="32">
-        <v>1</v>
-      </c>
-      <c r="L143" s="32">
-        <v>0</v>
-      </c>
-      <c r="M143" s="32">
-        <v>1</v>
-      </c>
-      <c r="N143" s="32">
-        <v>1</v>
-      </c>
-      <c r="O143" s="32">
-        <v>0</v>
-      </c>
-      <c r="P143" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="32">
-        <v>0</v>
-      </c>
-      <c r="R143" s="32">
-        <v>0</v>
-      </c>
-      <c r="S143" s="32">
-        <v>0</v>
-      </c>
-      <c r="T143" s="32">
-        <v>0</v>
-      </c>
-      <c r="U143" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="29">
-        <v>133</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C144" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D144" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E144" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H144" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I144" s="33" t="s">
-        <v>284</v>
-      </c>
       <c r="K144" s="32">
         <v>1</v>
       </c>
@@ -11408,24 +11507,28 @@
       <c r="U144" s="32">
         <v>0</v>
       </c>
-      <c r="V144" s="39"/>
-      <c r="W144" s="39"/>
     </row>
     <row r="145" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>260</v>
+      <c r="C145" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H145" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I145" s="33" t="s">
+        <v>283</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -11460,22 +11563,24 @@
       <c r="U145" s="32">
         <v>0</v>
       </c>
+      <c r="V145" s="39"/>
+      <c r="W145" s="39"/>
     </row>
     <row r="146" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -11513,22 +11618,19 @@
     </row>
     <row r="147" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="G147" s="32">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -11566,19 +11668,22 @@
     </row>
     <row r="148" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="29">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>489</v>
+        <v>278</v>
+      </c>
+      <c r="G148" s="32">
+        <v>1</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -11587,10 +11692,10 @@
         <v>0</v>
       </c>
       <c r="M148" s="32">
-        <v>0</v>
-      </c>
-      <c r="N148" s="40">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N148" s="32">
+        <v>1</v>
       </c>
       <c r="O148" s="32">
         <v>0</v>
@@ -11616,19 +11721,19 @@
     </row>
     <row r="149" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="29">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>196</v>
+        <v>455</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -11666,19 +11771,19 @@
     </row>
     <row r="150" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B150" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E150" s="33" t="s">
         <v>324</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>327</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -11716,19 +11821,19 @@
     </row>
     <row r="151" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K151" s="32">
         <v>1</v>
@@ -11766,25 +11871,19 @@
     </row>
     <row r="152" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" s="38" t="s">
-        <v>124</v>
+        <v>329</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="H152" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="K152" s="32">
         <v>1</v>
@@ -11819,131 +11918,131 @@
       <c r="U152" s="32">
         <v>0</v>
       </c>
-      <c r="V152" s="39"/>
-      <c r="W152" s="39"/>
     </row>
     <row r="153" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="29">
+        <v>146</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D153" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K153" s="32">
+        <v>1</v>
+      </c>
+      <c r="L153" s="32">
+        <v>0</v>
+      </c>
+      <c r="M153" s="32">
+        <v>1</v>
+      </c>
+      <c r="N153" s="40">
+        <v>1</v>
+      </c>
+      <c r="O153" s="32">
+        <v>0</v>
+      </c>
+      <c r="P153" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="32">
+        <v>0</v>
+      </c>
+      <c r="R153" s="32">
+        <v>0</v>
+      </c>
+      <c r="S153" s="32">
+        <v>0</v>
+      </c>
+      <c r="T153" s="32">
+        <v>0</v>
+      </c>
+      <c r="U153" s="32">
+        <v>0</v>
+      </c>
+      <c r="V153" s="39"/>
+      <c r="W153" s="39"/>
+    </row>
+    <row r="154" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="29">
         <v>147</v>
       </c>
-      <c r="B153" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="C153" s="33" t="s">
+      <c r="B154" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E154" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D153" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="K153" s="32">
-        <v>1</v>
-      </c>
-      <c r="L153" s="32">
-        <v>0</v>
-      </c>
-      <c r="M153" s="32">
-        <v>0</v>
-      </c>
-      <c r="N153" s="40">
-        <v>0</v>
-      </c>
-      <c r="O153" s="32">
-        <v>0</v>
-      </c>
-      <c r="P153" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="32">
-        <v>0</v>
-      </c>
-      <c r="R153" s="32">
-        <v>0</v>
-      </c>
-      <c r="S153" s="32">
-        <v>0</v>
-      </c>
-      <c r="T153" s="32">
-        <v>0</v>
-      </c>
-      <c r="U153" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="29">
+      <c r="K154" s="32">
+        <v>1</v>
+      </c>
+      <c r="L154" s="32">
+        <v>0</v>
+      </c>
+      <c r="M154" s="32">
+        <v>1</v>
+      </c>
+      <c r="N154" s="40">
+        <v>1</v>
+      </c>
+      <c r="O154" s="32">
+        <v>0</v>
+      </c>
+      <c r="P154" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="32">
+        <v>0</v>
+      </c>
+      <c r="R154" s="32">
+        <v>0</v>
+      </c>
+      <c r="S154" s="32">
+        <v>0</v>
+      </c>
+      <c r="T154" s="32">
+        <v>0</v>
+      </c>
+      <c r="U154" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="29">
         <v>148</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C154" s="33" t="s">
+      <c r="B155" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D155" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E155" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="E154" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="K154" s="32">
-        <v>1</v>
-      </c>
-      <c r="L154" s="32">
-        <v>0</v>
-      </c>
-      <c r="M154" s="32">
-        <v>1</v>
-      </c>
-      <c r="N154" s="40">
-        <v>1</v>
-      </c>
-      <c r="O154" s="32">
-        <v>0</v>
-      </c>
-      <c r="P154" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q154" s="32">
-        <v>0</v>
-      </c>
-      <c r="R154" s="32">
-        <v>0</v>
-      </c>
-      <c r="S154" s="32">
-        <v>0</v>
-      </c>
-      <c r="T154" s="32">
-        <v>0</v>
-      </c>
-      <c r="U154" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="29">
-        <v>149</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="H155" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I155" s="33" t="s">
-        <v>196</v>
-      </c>
       <c r="K155" s="32">
         <v>1</v>
       </c>
@@ -11977,133 +12076,130 @@
       <c r="U155" s="32">
         <v>0</v>
       </c>
-      <c r="V155" s="39"/>
-      <c r="W155" s="39"/>
     </row>
     <row r="156" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="29">
+        <v>149</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="H156" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I156" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K156" s="32">
+        <v>1</v>
+      </c>
+      <c r="L156" s="32">
+        <v>0</v>
+      </c>
+      <c r="M156" s="32">
+        <v>1</v>
+      </c>
+      <c r="N156" s="40">
+        <v>1</v>
+      </c>
+      <c r="O156" s="32">
+        <v>0</v>
+      </c>
+      <c r="P156" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="32">
+        <v>0</v>
+      </c>
+      <c r="R156" s="32">
+        <v>0</v>
+      </c>
+      <c r="S156" s="32">
+        <v>0</v>
+      </c>
+      <c r="T156" s="32">
+        <v>0</v>
+      </c>
+      <c r="U156" s="32">
+        <v>0</v>
+      </c>
+      <c r="V156" s="39"/>
+      <c r="W156" s="39"/>
+    </row>
+    <row r="157" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="29">
         <v>150</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C156" s="33" t="s">
+      <c r="B157" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C157" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D157" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E156" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="K156" s="32">
-        <v>1</v>
-      </c>
-      <c r="L156" s="32">
-        <v>0</v>
-      </c>
-      <c r="M156" s="32">
-        <v>0</v>
-      </c>
-      <c r="N156" s="40">
-        <v>0</v>
-      </c>
-      <c r="O156" s="32">
-        <v>0</v>
-      </c>
-      <c r="P156" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="32">
-        <v>0</v>
-      </c>
-      <c r="R156" s="32">
-        <v>0</v>
-      </c>
-      <c r="S156" s="32">
-        <v>0</v>
-      </c>
-      <c r="T156" s="32">
-        <v>0</v>
-      </c>
-      <c r="U156" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A157" s="29">
-        <v>151</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9">
-        <v>1</v>
-      </c>
-      <c r="L157" s="9">
-        <v>1</v>
-      </c>
-      <c r="M157" s="9">
-        <v>1</v>
-      </c>
-      <c r="N157" s="9">
-        <v>1</v>
-      </c>
-      <c r="O157" s="9">
-        <v>1</v>
-      </c>
-      <c r="P157" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q157" s="9">
-        <v>0</v>
-      </c>
-      <c r="R157" s="9">
-        <v>0</v>
-      </c>
-      <c r="S157" s="9">
-        <v>0</v>
-      </c>
-      <c r="T157" s="9">
-        <v>0</v>
-      </c>
-      <c r="U157" s="9">
-        <v>0</v>
-      </c>
-      <c r="V157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
+      <c r="E157" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="K157" s="32">
+        <v>1</v>
+      </c>
+      <c r="L157" s="32">
+        <v>0</v>
+      </c>
+      <c r="M157" s="32">
+        <v>1</v>
+      </c>
+      <c r="N157" s="40">
+        <v>1</v>
+      </c>
+      <c r="O157" s="32">
+        <v>0</v>
+      </c>
+      <c r="P157" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="32">
+        <v>0</v>
+      </c>
+      <c r="R157" s="32">
+        <v>0</v>
+      </c>
+      <c r="S157" s="32">
+        <v>0</v>
+      </c>
+      <c r="T157" s="32">
+        <v>0</v>
+      </c>
+      <c r="U157" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A158" s="29">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="E158" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -12150,19 +12246,19 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A159" s="29">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D159" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -12209,19 +12305,19 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A160" s="29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -12268,19 +12364,19 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A161" s="29">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="D161" s="10" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -12294,13 +12390,13 @@
         <v>1</v>
       </c>
       <c r="M161" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" s="9">
         <v>0</v>
@@ -12325,71 +12421,80 @@
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
     </row>
-    <row r="162" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
-        <v>156</v>
-      </c>
-      <c r="B162" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C162" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D162" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E162" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="K162" s="43">
-        <v>1</v>
-      </c>
-      <c r="L162" s="43">
-        <v>1</v>
-      </c>
-      <c r="M162" s="43">
-        <v>1</v>
-      </c>
-      <c r="N162" s="43">
-        <v>1</v>
-      </c>
-      <c r="O162" s="43">
-        <v>1</v>
-      </c>
-      <c r="P162" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="43">
-        <v>0</v>
-      </c>
-      <c r="R162" s="43">
-        <v>0</v>
-      </c>
-      <c r="S162" s="43">
-        <v>0</v>
-      </c>
-      <c r="T162" s="43">
-        <v>0</v>
-      </c>
-      <c r="U162" s="43">
-        <v>0</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9">
+        <v>1</v>
+      </c>
+      <c r="L162" s="9">
+        <v>1</v>
+      </c>
+      <c r="M162" s="9">
+        <v>0</v>
+      </c>
+      <c r="N162" s="9">
+        <v>0</v>
+      </c>
+      <c r="O162" s="9">
+        <v>0</v>
+      </c>
+      <c r="P162" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="9">
+        <v>0</v>
+      </c>
+      <c r="R162" s="9">
+        <v>0</v>
+      </c>
+      <c r="S162" s="9">
+        <v>0</v>
+      </c>
+      <c r="T162" s="9">
+        <v>0</v>
+      </c>
+      <c r="U162" s="9">
+        <v>0</v>
+      </c>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
     </row>
     <row r="163" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C163" s="44" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D163" s="44" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E163" s="44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K163" s="43">
         <v>1</v>
@@ -12427,119 +12532,119 @@
     </row>
     <row r="164" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
+        <v>157</v>
+      </c>
+      <c r="B164" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D164" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E164" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K164" s="43">
+        <v>1</v>
+      </c>
+      <c r="L164" s="43">
+        <v>1</v>
+      </c>
+      <c r="M164" s="43">
+        <v>1</v>
+      </c>
+      <c r="N164" s="43">
+        <v>1</v>
+      </c>
+      <c r="O164" s="43">
+        <v>1</v>
+      </c>
+      <c r="P164" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="43">
+        <v>0</v>
+      </c>
+      <c r="R164" s="43">
+        <v>0</v>
+      </c>
+      <c r="S164" s="43">
+        <v>0</v>
+      </c>
+      <c r="T164" s="43">
+        <v>0</v>
+      </c>
+      <c r="U164" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="29">
         <v>158</v>
       </c>
-      <c r="B164" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C164" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="D164" s="44" t="s">
+      <c r="B165" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D165" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E165" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="E164" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="K164" s="43">
-        <v>1</v>
-      </c>
-      <c r="L164" s="43">
-        <v>1</v>
-      </c>
-      <c r="M164" s="43">
-        <v>1</v>
-      </c>
-      <c r="N164" s="43">
-        <v>1</v>
-      </c>
-      <c r="O164" s="43">
-        <v>1</v>
-      </c>
-      <c r="P164" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="43">
-        <v>0</v>
-      </c>
-      <c r="R164" s="43">
-        <v>0</v>
-      </c>
-      <c r="S164" s="43">
-        <v>0</v>
-      </c>
-      <c r="T164" s="43">
-        <v>0</v>
-      </c>
-      <c r="U164" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="29">
-        <v>159</v>
-      </c>
-      <c r="B165" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C165" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D165" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E165" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="K165" s="49">
-        <v>1</v>
-      </c>
-      <c r="L165" s="49">
-        <v>1</v>
-      </c>
-      <c r="M165" s="49">
-        <v>0</v>
-      </c>
-      <c r="N165" s="49">
-        <v>0</v>
-      </c>
-      <c r="O165" s="49">
-        <v>0</v>
-      </c>
-      <c r="P165" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="49">
-        <v>0</v>
-      </c>
-      <c r="R165" s="49">
-        <v>0</v>
-      </c>
-      <c r="S165" s="49">
-        <v>0</v>
-      </c>
-      <c r="T165" s="49">
-        <v>0</v>
-      </c>
-      <c r="U165" s="49">
+      <c r="K165" s="43">
+        <v>1</v>
+      </c>
+      <c r="L165" s="43">
+        <v>1</v>
+      </c>
+      <c r="M165" s="43">
+        <v>1</v>
+      </c>
+      <c r="N165" s="43">
+        <v>1</v>
+      </c>
+      <c r="O165" s="43">
+        <v>1</v>
+      </c>
+      <c r="P165" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="43">
+        <v>0</v>
+      </c>
+      <c r="R165" s="43">
+        <v>0</v>
+      </c>
+      <c r="S165" s="43">
+        <v>0</v>
+      </c>
+      <c r="T165" s="43">
+        <v>0</v>
+      </c>
+      <c r="U165" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C166" s="48" t="s">
         <v>383</v>
-      </c>
-      <c r="C166" s="48" t="s">
-        <v>386</v>
       </c>
       <c r="D166" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="K166" s="49">
         <v>1</v>
@@ -12577,19 +12682,19 @@
     </row>
     <row r="167" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C167" s="48" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="D167" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K167" s="49">
         <v>1</v>
@@ -12627,19 +12732,19 @@
     </row>
     <row r="168" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="29">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D168" s="48" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="K168" s="49">
         <v>1</v>
@@ -12677,19 +12782,19 @@
     </row>
     <row r="169" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="29">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D169" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K169" s="49">
         <v>1</v>
@@ -12727,19 +12832,19 @@
     </row>
     <row r="170" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="29">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D170" s="48" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K170" s="49">
         <v>1</v>
@@ -12777,19 +12882,19 @@
     </row>
     <row r="171" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="29">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C171" s="48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D171" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E171" s="48" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K171" s="49">
         <v>1</v>
@@ -12827,19 +12932,19 @@
     </row>
     <row r="172" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="29">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D172" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E172" s="48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K172" s="49">
         <v>1</v>
@@ -12877,19 +12982,19 @@
     </row>
     <row r="173" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="29">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K173" s="49">
         <v>1</v>
@@ -12927,19 +13032,19 @@
     </row>
     <row r="174" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="29">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D174" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K174" s="49">
         <v>1</v>
@@ -12977,19 +13082,19 @@
     </row>
     <row r="175" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="29">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C175" s="49" t="s">
-        <v>402</v>
+        <v>382</v>
+      </c>
+      <c r="C175" s="48" t="s">
+        <v>399</v>
       </c>
       <c r="D175" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K175" s="49">
         <v>1</v>
@@ -13027,19 +13132,19 @@
     </row>
     <row r="176" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="29">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C176" s="48" t="s">
-        <v>404</v>
+        <v>382</v>
+      </c>
+      <c r="C176" s="49" t="s">
+        <v>401</v>
       </c>
       <c r="D176" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K176" s="49">
         <v>1</v>
@@ -13077,19 +13182,19 @@
     </row>
     <row r="177" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="29">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="E177" s="48" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K177" s="49">
         <v>1</v>
@@ -13127,19 +13232,19 @@
     </row>
     <row r="178" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>481</v>
+        <v>406</v>
       </c>
       <c r="D178" s="48" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="K178" s="49">
         <v>1</v>
@@ -13177,19 +13282,19 @@
     </row>
     <row r="179" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D179" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K179" s="49">
         <v>1</v>
@@ -13227,19 +13332,19 @@
     </row>
     <row r="180" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K180" s="49">
         <v>1</v>
@@ -13277,19 +13382,19 @@
     </row>
     <row r="181" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13327,19 +13432,19 @@
     </row>
     <row r="182" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="D182" s="48" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13377,19 +13482,19 @@
     </row>
     <row r="183" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C183" s="48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D183" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K183" s="49">
         <v>1</v>
@@ -13427,19 +13532,19 @@
     </row>
     <row r="184" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D184" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K184" s="49">
         <v>1</v>
@@ -13477,19 +13582,19 @@
     </row>
     <row r="185" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C185" s="48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D185" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K185" s="49">
         <v>1</v>
@@ -13527,107 +13632,247 @@
     </row>
     <row r="186" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
+        <v>179</v>
+      </c>
+      <c r="B186" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D186" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E186" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K186" s="49">
+        <v>1</v>
+      </c>
+      <c r="L186" s="49">
+        <v>1</v>
+      </c>
+      <c r="M186" s="49">
+        <v>0</v>
+      </c>
+      <c r="N186" s="49">
+        <v>0</v>
+      </c>
+      <c r="O186" s="49">
+        <v>0</v>
+      </c>
+      <c r="P186" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="49">
+        <v>0</v>
+      </c>
+      <c r="R186" s="49">
+        <v>0</v>
+      </c>
+      <c r="S186" s="49">
+        <v>0</v>
+      </c>
+      <c r="T186" s="49">
+        <v>0</v>
+      </c>
+      <c r="U186" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="29">
         <v>180</v>
       </c>
-      <c r="B186" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C186" s="48" t="s">
+      <c r="B187" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C187" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D187" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E187" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="D186" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E186" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="H186" s="48"/>
-      <c r="K186" s="49">
-        <v>1</v>
-      </c>
-      <c r="L186" s="49">
-        <v>1</v>
-      </c>
-      <c r="M186" s="49">
-        <v>0</v>
-      </c>
-      <c r="N186" s="49">
-        <v>0</v>
-      </c>
-      <c r="O186" s="49">
-        <v>0</v>
-      </c>
-      <c r="P186" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="49">
-        <v>0</v>
-      </c>
-      <c r="R186" s="49">
-        <v>0</v>
-      </c>
-      <c r="S186" s="49">
-        <v>0</v>
-      </c>
-      <c r="T186" s="49">
-        <v>0</v>
-      </c>
-      <c r="U186" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A187" s="29">
+      <c r="H187" s="48"/>
+      <c r="K187" s="49">
+        <v>1</v>
+      </c>
+      <c r="L187" s="49">
+        <v>1</v>
+      </c>
+      <c r="M187" s="49">
+        <v>0</v>
+      </c>
+      <c r="N187" s="49">
+        <v>0</v>
+      </c>
+      <c r="O187" s="49">
+        <v>0</v>
+      </c>
+      <c r="P187" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="49">
+        <v>0</v>
+      </c>
+      <c r="R187" s="49">
+        <v>0</v>
+      </c>
+      <c r="S187" s="49">
+        <v>0</v>
+      </c>
+      <c r="T187" s="49">
+        <v>0</v>
+      </c>
+      <c r="U187" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="29">
         <v>181</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A188" s="29">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B188" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C188" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D188" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E188" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="K188" s="51">
+        <v>1</v>
+      </c>
+      <c r="L188" s="51">
+        <v>1</v>
+      </c>
+      <c r="M188" s="51">
+        <v>1</v>
+      </c>
+      <c r="N188" s="51">
+        <v>1</v>
+      </c>
+      <c r="O188" s="51">
+        <v>0</v>
+      </c>
+      <c r="P188" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="51">
+        <v>0</v>
+      </c>
+      <c r="R188" s="51">
+        <v>0</v>
+      </c>
+      <c r="S188" s="51">
+        <v>0</v>
+      </c>
+      <c r="T188" s="51">
+        <v>0</v>
+      </c>
+      <c r="U188" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="B189" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C189" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="D189" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E189" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="K189" s="51">
+        <v>1</v>
+      </c>
+      <c r="L189" s="51">
+        <v>1</v>
+      </c>
+      <c r="M189" s="51">
+        <v>1</v>
+      </c>
+      <c r="N189" s="51">
+        <v>1</v>
+      </c>
+      <c r="O189" s="51">
+        <v>0</v>
+      </c>
+      <c r="P189" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="51">
+        <v>0</v>
+      </c>
+      <c r="R189" s="51">
+        <v>0</v>
+      </c>
+      <c r="S189" s="51">
+        <v>0</v>
+      </c>
+      <c r="T189" s="51">
+        <v>0</v>
+      </c>
+      <c r="U189" s="51">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="29">
         <v>191</v>
       </c>
     </row>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Server\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3845,8 +3845,8 @@
   <dimension ref="A1:Y193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8513,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="46">
         <v>1</v>
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="46">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" s="46">
         <v>1</v>
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" s="46">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" s="46">
         <v>1</v>
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="46">
         <v>1</v>
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" s="46">
         <v>1</v>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" s="46">
         <v>1</v>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="545">
   <si>
     <t>Class</t>
   </si>
@@ -3051,6 +3051,34 @@
   </si>
   <si>
     <t>签到信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派勋章</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派活跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeness</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3842,11 +3870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y193"/>
+  <dimension ref="A1:Y197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5831,13 +5859,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>381</v>
+        <v>541</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5846,19 +5874,19 @@
         <v>1</v>
       </c>
       <c r="M39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="20">
         <v>0</v>
@@ -5873,53 +5901,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29">
         <v>37</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="K40" s="20">
-        <v>1</v>
-      </c>
-      <c r="L40" s="20">
-        <v>1</v>
-      </c>
-      <c r="M40" s="20">
-        <v>0</v>
-      </c>
-      <c r="N40" s="20">
-        <v>0</v>
-      </c>
-      <c r="O40" s="20">
-        <v>0</v>
-      </c>
-      <c r="P40" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="20">
-        <v>0</v>
-      </c>
-      <c r="R40" s="20">
-        <v>0</v>
-      </c>
-      <c r="S40" s="20">
-        <v>0</v>
-      </c>
-      <c r="T40" s="20">
-        <v>0</v>
-      </c>
-      <c r="U40" s="20">
+      <c r="E40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <v>0</v>
+      </c>
+      <c r="U40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5931,15 +5960,20 @@
         <v>49</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="K41" s="5">
         <v>1</v>
       </c>
@@ -5955,19 +5989,19 @@
       <c r="O41" s="5">
         <v>0</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="14">
         <v>0</v>
       </c>
       <c r="Q41" s="5">
         <v>0</v>
       </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
+      <c r="R41" s="14">
+        <v>0</v>
+      </c>
+      <c r="S41" s="14">
+        <v>0</v>
+      </c>
+      <c r="T41" s="14">
         <v>0</v>
       </c>
       <c r="U41" s="5">
@@ -5982,20 +6016,15 @@
         <v>49</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>282</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="14"/>
       <c r="K42" s="5">
         <v>1</v>
       </c>
@@ -6011,55 +6040,56 @@
       <c r="O42" s="5">
         <v>0</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="5">
         <v>0</v>
       </c>
       <c r="Q42" s="5">
         <v>0</v>
       </c>
-      <c r="R42" s="14">
-        <v>0</v>
-      </c>
-      <c r="S42" s="14">
-        <v>0</v>
-      </c>
-      <c r="T42" s="14">
+      <c r="R42" s="5">
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
         <v>0</v>
       </c>
       <c r="U42" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="29">
         <v>40</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="K43" s="5">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5">
+      <c r="B43" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="K43" s="15">
+        <v>1</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
         <v>1</v>
       </c>
       <c r="N43" s="5">
         <v>1</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="15">
         <v>0</v>
       </c>
       <c r="P43" s="5">
@@ -6077,41 +6107,41 @@
       <c r="T43" s="5">
         <v>0</v>
       </c>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="29">
         <v>41</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>103</v>
+      <c r="B44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="K44" s="15">
-        <v>1</v>
-      </c>
-      <c r="L44" s="15">
-        <v>0</v>
-      </c>
-      <c r="M44" s="15">
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
         <v>1</v>
       </c>
       <c r="N44" s="5">
         <v>1</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O44" s="6">
         <v>0</v>
       </c>
       <c r="P44" s="5">
@@ -6129,7 +6159,7 @@
       <c r="T44" s="5">
         <v>0</v>
       </c>
-      <c r="U44" s="15">
+      <c r="U44" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6140,14 +6170,14 @@
       <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>54</v>
+      <c r="C45" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6155,13 +6185,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6">
-        <v>1</v>
-      </c>
-      <c r="N45" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
       </c>
       <c r="O45" s="6">
         <v>0</v>
@@ -6185,37 +6215,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="29">
         <v>43</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="K46" s="6">
-        <v>1</v>
-      </c>
-      <c r="L46" s="6">
-        <v>1</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="B46" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
         <v>0</v>
       </c>
       <c r="P46" s="5">
@@ -6233,7 +6262,7 @@
       <c r="T46" s="5">
         <v>0</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6241,19 +6270,24 @@
       <c r="A47" s="29">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>466</v>
+      <c r="B47" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="K47" s="5">
         <v>1</v>
       </c>
@@ -6292,23 +6326,17 @@
       <c r="A48" s="29">
         <v>45</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>282</v>
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K48" s="5">
         <v>1</v>
@@ -6352,13 +6380,13 @@
         <v>56</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K49" s="5">
         <v>1</v>
@@ -6394,35 +6422,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="29">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" s="5">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="C50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
         <v>1</v>
       </c>
       <c r="N50" s="5">
         <v>1</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="6">
         <v>0</v>
       </c>
       <c r="P50" s="5">
@@ -6440,59 +6470,59 @@
       <c r="T50" s="5">
         <v>0</v>
       </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="29">
         <v>48</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="K51" s="6">
-        <v>1</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>1</v>
-      </c>
-      <c r="N51" s="5">
-        <v>1</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>0</v>
-      </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
-        <v>0</v>
-      </c>
-      <c r="T51" s="5">
-        <v>0</v>
-      </c>
-      <c r="U51" s="6">
+      <c r="B51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>1</v>
+      </c>
+      <c r="P51" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>1</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1</v>
+      </c>
+      <c r="S51" s="7">
+        <v>1</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1</v>
+      </c>
+      <c r="U51" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6504,16 +6534,20 @@
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="K52" s="7">
         <v>1</v>
       </c>
@@ -6548,27 +6582,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="29">
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>282</v>
+      <c r="C53" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6577,34 +6605,34 @@
         <v>1</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="29">
         <v>51</v>
       </c>
@@ -6612,22 +6640,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>62</v>
+        <v>425</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -6663,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="29">
         <v>52</v>
       </c>
@@ -6671,19 +6690,19 @@
         <v>18</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>528</v>
+        <v>65</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>529</v>
+        <v>66</v>
       </c>
       <c r="K55" s="7">
         <v>1</v>
       </c>
       <c r="L55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -6713,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="29">
         <v>53</v>
       </c>
@@ -6721,19 +6740,28 @@
         <v>18</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K56" s="7">
         <v>1</v>
       </c>
       <c r="L56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -6763,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="29">
         <v>54</v>
       </c>
@@ -6771,13 +6799,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>67</v>
+        <v>528</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>68</v>
+        <v>529</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -6786,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
         <v>0</v>
@@ -6821,13 +6849,13 @@
         <v>18</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58" s="7">
         <v>1</v>
@@ -6836,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
         <v>0</v>
@@ -6871,34 +6899,25 @@
         <v>18</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K59" s="7">
         <v>1</v>
       </c>
       <c r="L59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7">
         <v>0</v>
@@ -6930,16 +6949,16 @@
         <v>18</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>50</v>
@@ -6988,20 +7007,29 @@
       <c r="B61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>112</v>
+      <c r="C61" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>111</v>
+        <v>64</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="K61" s="7">
         <v>1</v>
       </c>
       <c r="L61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -7010,10 +7038,10 @@
         <v>1</v>
       </c>
       <c r="O61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="7">
         <v>0</v>
@@ -7022,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="S61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7038,29 +7066,20 @@
       <c r="B62" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>74</v>
+      <c r="C62" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="K62" s="7">
         <v>1</v>
       </c>
       <c r="L62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -7069,10 +7088,10 @@
         <v>1</v>
       </c>
       <c r="O62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="7">
         <v>0</v>
@@ -7081,53 +7100,53 @@
         <v>0</v>
       </c>
       <c r="S62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="29">
         <v>60</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K63" s="13">
-        <v>1</v>
-      </c>
-      <c r="L63" s="13">
-        <v>1</v>
-      </c>
-      <c r="M63" s="13">
+      <c r="C63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="7">
+        <v>1</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
         <v>1</v>
       </c>
       <c r="N63" s="7">
         <v>1</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="7">
         <v>0</v>
       </c>
       <c r="P63" s="7">
@@ -7145,40 +7164,49 @@
       <c r="T63" s="7">
         <v>0</v>
       </c>
-      <c r="U63" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="29">
         <v>61</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>22</v>
+      <c r="C64" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="7">
-        <v>1</v>
-      </c>
-      <c r="L64" s="7">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7">
+        <v>90</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" s="13">
+        <v>1</v>
+      </c>
+      <c r="L64" s="13">
+        <v>1</v>
+      </c>
+      <c r="M64" s="13">
         <v>1</v>
       </c>
       <c r="N64" s="7">
         <v>1</v>
       </c>
-      <c r="O64" s="7">
-        <v>1</v>
+      <c r="O64" s="13">
+        <v>0</v>
       </c>
       <c r="P64" s="7">
         <v>0</v>
@@ -7187,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="7">
         <v>0</v>
@@ -7195,7 +7223,7 @@
       <c r="T64" s="7">
         <v>0</v>
       </c>
-      <c r="U64" s="7">
+      <c r="U64" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7207,13 +7235,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K65" s="7">
         <v>1</v>
@@ -7249,48 +7277,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="29">
         <v>63</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>147</v>
+        <v>195</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K66" s="13">
-        <v>1</v>
-      </c>
-      <c r="L66" s="13">
-        <v>1</v>
-      </c>
-      <c r="M66" s="13">
+        <v>146</v>
+      </c>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1</v>
+      </c>
+      <c r="M66" s="7">
         <v>1</v>
       </c>
       <c r="N66" s="7">
         <v>1</v>
       </c>
-      <c r="O66" s="13">
-        <v>0</v>
+      <c r="O66" s="7">
+        <v>1</v>
       </c>
       <c r="P66" s="7">
         <v>0</v>
@@ -7299,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" s="7">
         <v>0</v>
@@ -7307,7 +7323,7 @@
       <c r="T66" s="7">
         <v>0</v>
       </c>
-      <c r="U66" s="13">
+      <c r="U66" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7316,18 +7332,29 @@
         <v>64</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>172</v>
+        <v>18</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="K67" s="13">
         <v>1</v>
       </c>
@@ -7341,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="7">
         <v>0</v>
@@ -7362,48 +7389,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="29">
         <v>65</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K68" s="7">
-        <v>1</v>
-      </c>
-      <c r="L68" s="7">
-        <v>1</v>
-      </c>
-      <c r="M68" s="7">
+      <c r="B68" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="K68" s="13">
+        <v>1</v>
+      </c>
+      <c r="L68" s="13">
+        <v>1</v>
+      </c>
+      <c r="M68" s="13">
         <v>1</v>
       </c>
       <c r="N68" s="7">
         <v>1</v>
       </c>
-      <c r="O68" s="7">
-        <v>0</v>
+      <c r="O68" s="13">
+        <v>1</v>
       </c>
       <c r="P68" s="7">
         <v>0</v>
@@ -7420,7 +7436,7 @@
       <c r="T68" s="7">
         <v>0</v>
       </c>
-      <c r="U68" s="7">
+      <c r="U68" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7432,25 +7448,25 @@
         <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
@@ -7491,25 +7507,28 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="K70" s="7">
         <v>1</v>
@@ -7550,19 +7569,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="K71" s="7">
         <v>1</v>
@@ -7577,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" s="7">
         <v>0</v>
@@ -7603,19 +7628,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="K72" s="7">
         <v>1</v>
@@ -7630,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="7">
         <v>0</v>
@@ -7659,16 +7684,16 @@
         <v>223</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K73" s="7">
         <v>1</v>
@@ -7709,25 +7734,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>129</v>
+        <v>240</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7742,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" s="7">
         <v>0</v>
@@ -7771,31 +7790,37 @@
         <v>171</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>485</v>
+        <v>245</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="K75" s="7">
         <v>1</v>
       </c>
       <c r="L75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="7">
         <v>1</v>
       </c>
       <c r="N75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="7">
         <v>0</v>
@@ -7824,22 +7849,16 @@
         <v>171</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>129</v>
+        <v>485</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -7851,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="7">
         <v>0</v>
@@ -7883,16 +7902,16 @@
         <v>171</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>322</v>
+        <v>494</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>129</v>
@@ -7934,59 +7953,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="29">
         <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="K78" s="42">
-        <v>1</v>
-      </c>
-      <c r="L78" s="42">
-        <v>1</v>
-      </c>
-      <c r="M78" s="42">
+      <c r="C78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
         <v>1</v>
       </c>
       <c r="N78" s="7">
         <v>1</v>
       </c>
-      <c r="O78" s="42">
-        <v>1</v>
-      </c>
-      <c r="P78" s="42">
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
         <v>0</v>
       </c>
       <c r="Q78" s="7">
         <v>0</v>
       </c>
-      <c r="R78" s="42">
-        <v>0</v>
-      </c>
-      <c r="S78" s="42">
-        <v>0</v>
-      </c>
-      <c r="T78" s="42">
-        <v>0</v>
-      </c>
-      <c r="U78" s="42">
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
+      <c r="U78" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7998,19 +8020,19 @@
         <v>171</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>507</v>
+        <v>358</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -8054,16 +8076,16 @@
         <v>171</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>124</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H80" s="41" t="s">
         <v>296</v>
@@ -8102,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="29">
         <v>78</v>
       </c>
@@ -8110,16 +8132,16 @@
         <v>171</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>318</v>
+        <v>508</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>124</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H81" s="41" t="s">
         <v>296</v>
@@ -8158,89 +8180,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="29">
         <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K82" s="7">
-        <v>1</v>
-      </c>
-      <c r="L82" s="7">
-        <v>1</v>
-      </c>
-      <c r="M82" s="7">
+        <v>171</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K82" s="42">
+        <v>1</v>
+      </c>
+      <c r="L82" s="42">
+        <v>1</v>
+      </c>
+      <c r="M82" s="42">
         <v>1</v>
       </c>
       <c r="N82" s="7">
         <v>1</v>
       </c>
-      <c r="O82" s="7">
-        <v>1</v>
-      </c>
-      <c r="P82" s="7">
+      <c r="O82" s="42">
+        <v>1</v>
+      </c>
+      <c r="P82" s="42">
         <v>0</v>
       </c>
       <c r="Q82" s="7">
         <v>0</v>
       </c>
-      <c r="R82" s="7">
-        <v>0</v>
-      </c>
-      <c r="S82" s="7">
-        <v>0</v>
-      </c>
-      <c r="T82" s="7">
-        <v>0</v>
-      </c>
-      <c r="U82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R82" s="42">
+        <v>0</v>
+      </c>
+      <c r="S82" s="42">
+        <v>0</v>
+      </c>
+      <c r="T82" s="42">
+        <v>0</v>
+      </c>
+      <c r="U82" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="29">
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>514</v>
+        <v>360</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8276,24 +8295,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="29">
         <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>424</v>
+        <v>78</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8302,13 +8327,13 @@
         <v>1</v>
       </c>
       <c r="M84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" s="7">
         <v>0</v>
@@ -8329,27 +8354,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="29">
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>18</v>
+        <v>421</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>457</v>
+        <v>423</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
       </c>
       <c r="L85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -8379,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="29">
         <v>83</v>
       </c>
@@ -8387,186 +8415,178 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K86" s="7">
+        <v>1</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="7">
+        <v>0</v>
+      </c>
+      <c r="T86" s="7">
+        <v>0</v>
+      </c>
+      <c r="U86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="29">
+        <v>84</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D87" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K86" s="7">
-        <v>1</v>
-      </c>
-      <c r="L86" s="7">
-        <v>1</v>
-      </c>
-      <c r="M86" s="7">
-        <v>1</v>
-      </c>
-      <c r="N86" s="7">
-        <v>1</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-      <c r="P86" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>0</v>
-      </c>
-      <c r="R86" s="7">
-        <v>0</v>
-      </c>
-      <c r="S86" s="7">
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0</v>
-      </c>
-      <c r="U86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29">
+      <c r="K87" s="7">
+        <v>1</v>
+      </c>
+      <c r="L87" s="7">
+        <v>1</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7">
+        <v>0</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0</v>
+      </c>
+      <c r="U87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="29">
         <v>85</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K87" s="7">
-        <v>1</v>
-      </c>
-      <c r="L87" s="7">
-        <v>1</v>
-      </c>
-      <c r="M87" s="7">
-        <v>1</v>
-      </c>
-      <c r="N87" s="7">
-        <v>1</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-      <c r="P87" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="7">
-        <v>0</v>
-      </c>
-      <c r="R87" s="7">
-        <v>0</v>
-      </c>
-      <c r="S87" s="7">
-        <v>0</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0</v>
-      </c>
-      <c r="U87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="29">
+      <c r="K88" s="7">
+        <v>1</v>
+      </c>
+      <c r="L88" s="7">
+        <v>1</v>
+      </c>
+      <c r="M88" s="7">
+        <v>1</v>
+      </c>
+      <c r="N88" s="7">
+        <v>1</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>0</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="7">
+        <v>0</v>
+      </c>
+      <c r="T88" s="7">
+        <v>0</v>
+      </c>
+      <c r="U88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="29">
         <v>86</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="K88" s="46">
-        <v>1</v>
-      </c>
-      <c r="L88" s="46">
-        <v>0</v>
-      </c>
-      <c r="M88" s="46">
-        <v>1</v>
-      </c>
-      <c r="N88" s="46">
-        <v>0</v>
-      </c>
-      <c r="O88" s="46">
-        <v>0</v>
-      </c>
-      <c r="P88" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="46">
-        <v>0</v>
-      </c>
-      <c r="R88" s="46">
-        <v>0</v>
-      </c>
-      <c r="S88" s="46">
-        <v>0</v>
-      </c>
-      <c r="T88" s="46">
-        <v>0</v>
-      </c>
-      <c r="U88" s="46">
-        <v>0</v>
-      </c>
-      <c r="V88" s="47"/>
-      <c r="W88" s="47"/>
-    </row>
-    <row r="89" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29">
-        <v>87</v>
       </c>
       <c r="B89" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="H89" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I89" s="45" t="s">
-        <v>196</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
       <c r="K89" s="46">
         <v>1</v>
       </c>
@@ -8603,24 +8623,28 @@
       <c r="V89" s="47"/>
       <c r="W89" s="47"/>
     </row>
-    <row r="90" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>378</v>
+        <v>118</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
+        <v>435</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" s="45" t="s">
+        <v>196</v>
+      </c>
       <c r="K90" s="46">
         <v>1</v>
       </c>
@@ -8657,21 +8681,21 @@
       <c r="V90" s="47"/>
       <c r="W90" s="47"/>
     </row>
-    <row r="91" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="29">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8711,21 +8735,21 @@
       <c r="V91" s="47"/>
       <c r="W91" s="47"/>
     </row>
-    <row r="92" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>450</v>
+        <v>144</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -8765,21 +8789,21 @@
       <c r="V92" s="47"/>
       <c r="W92" s="47"/>
     </row>
-    <row r="93" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H93" s="45"/>
       <c r="I93" s="45"/>
@@ -8819,21 +8843,21 @@
       <c r="V93" s="47"/>
       <c r="W93" s="47"/>
     </row>
-    <row r="94" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="29">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D94" s="45" t="s">
         <v>144</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -8873,21 +8897,21 @@
       <c r="V94" s="47"/>
       <c r="W94" s="47"/>
     </row>
-    <row r="95" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="29">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>445</v>
+        <v>144</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -8927,89 +8951,84 @@
       <c r="V95" s="47"/>
       <c r="W95" s="47"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="29">
-        <v>94</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11">
-        <v>1</v>
-      </c>
-      <c r="L96" s="11">
-        <v>1</v>
-      </c>
-      <c r="M96" s="11">
-        <v>1</v>
-      </c>
-      <c r="N96" s="11">
-        <v>1</v>
-      </c>
-      <c r="O96" s="11">
-        <v>1</v>
-      </c>
-      <c r="P96" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="9">
-        <v>0</v>
-      </c>
-      <c r="R96" s="9">
-        <v>0</v>
-      </c>
-      <c r="S96" s="9">
-        <v>0</v>
-      </c>
-      <c r="T96" s="9">
-        <v>0</v>
-      </c>
-      <c r="U96" s="11">
-        <v>0</v>
-      </c>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="K96" s="46">
+        <v>1</v>
+      </c>
+      <c r="L96" s="46">
+        <v>0</v>
+      </c>
+      <c r="M96" s="46">
+        <v>1</v>
+      </c>
+      <c r="N96" s="46">
+        <v>0</v>
+      </c>
+      <c r="O96" s="46">
+        <v>0</v>
+      </c>
+      <c r="P96" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="46">
+        <v>0</v>
+      </c>
+      <c r="R96" s="46">
+        <v>0</v>
+      </c>
+      <c r="S96" s="46">
+        <v>0</v>
+      </c>
+      <c r="T96" s="46">
+        <v>0</v>
+      </c>
+      <c r="U96" s="46">
+        <v>0</v>
+      </c>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>82</v>
+      <c r="C97" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>283</v>
+      </c>
       <c r="J97" s="11"/>
       <c r="K97" s="11">
         <v>1</v>
@@ -9051,19 +9070,19 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A98" s="29">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -9110,19 +9129,19 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A99" s="29">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>85</v>
+      <c r="C99" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
@@ -9169,19 +9188,19 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>87</v>
+      <c r="C100" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -9228,19 +9247,19 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>53</v>
+      <c r="C101" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>79</v>
+      <c r="E101" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -9285,72 +9304,80 @@
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
     </row>
-    <row r="102" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A102" s="29">
+        <v>99</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11">
+        <v>1</v>
+      </c>
+      <c r="L102" s="11">
+        <v>1</v>
+      </c>
+      <c r="M102" s="11">
+        <v>1</v>
+      </c>
+      <c r="N102" s="11">
+        <v>1</v>
+      </c>
+      <c r="O102" s="11">
+        <v>1</v>
+      </c>
+      <c r="P102" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>0</v>
+      </c>
+      <c r="R102" s="9">
+        <v>0</v>
+      </c>
+      <c r="S102" s="9">
+        <v>0</v>
+      </c>
+      <c r="T102" s="9">
+        <v>0</v>
+      </c>
+      <c r="U102" s="11">
+        <v>0</v>
+      </c>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
+    </row>
+    <row r="103" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="29">
         <v>100</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="25"/>
-      <c r="K102" s="24">
-        <v>1</v>
-      </c>
-      <c r="L102" s="24">
-        <v>1</v>
-      </c>
-      <c r="M102" s="24">
-        <v>1</v>
-      </c>
-      <c r="N102" s="24">
-        <v>1</v>
-      </c>
-      <c r="O102" s="24">
-        <v>0</v>
-      </c>
-      <c r="P102" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="24">
-        <v>0</v>
-      </c>
-      <c r="R102" s="24">
-        <v>0</v>
-      </c>
-      <c r="S102" s="24">
-        <v>0</v>
-      </c>
-      <c r="T102" s="24">
-        <v>0</v>
-      </c>
-      <c r="U102" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="29">
-        <v>101</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F103" s="25"/>
       <c r="K103" s="24">
@@ -9387,21 +9414,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="29">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F104" s="25"/>
       <c r="K104" s="24">
@@ -9438,84 +9465,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="29">
-        <v>103</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9">
-        <v>1</v>
-      </c>
-      <c r="L105" s="9">
-        <v>1</v>
-      </c>
-      <c r="M105" s="9">
-        <v>1</v>
-      </c>
-      <c r="N105" s="9">
-        <v>1</v>
-      </c>
-      <c r="O105" s="9">
-        <v>1</v>
-      </c>
-      <c r="P105" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="9">
-        <v>0</v>
-      </c>
-      <c r="R105" s="9">
-        <v>0</v>
-      </c>
-      <c r="S105" s="9">
-        <v>0</v>
-      </c>
-      <c r="T105" s="9">
-        <v>0</v>
-      </c>
-      <c r="U105" s="9">
-        <v>0</v>
-      </c>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" s="25"/>
+      <c r="K105" s="24">
+        <v>1</v>
+      </c>
+      <c r="L105" s="24">
+        <v>1</v>
+      </c>
+      <c r="M105" s="24">
+        <v>1</v>
+      </c>
+      <c r="N105" s="24">
+        <v>1</v>
+      </c>
+      <c r="O105" s="24">
+        <v>0</v>
+      </c>
+      <c r="P105" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="24">
+        <v>0</v>
+      </c>
+      <c r="R105" s="24">
+        <v>0</v>
+      </c>
+      <c r="S105" s="24">
+        <v>0</v>
+      </c>
+      <c r="T105" s="24">
+        <v>0</v>
+      </c>
+      <c r="U105" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>193</v>
+      <c r="C106" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F106" s="10"/>
+      <c r="E106" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -9558,174 +9577,180 @@
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
     </row>
-    <row r="107" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
-        <v>105</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="K107" s="37">
-        <v>1</v>
-      </c>
-      <c r="L107" s="37">
-        <v>1</v>
-      </c>
-      <c r="M107" s="37">
-        <v>1</v>
-      </c>
-      <c r="N107" s="37">
-        <v>1</v>
-      </c>
-      <c r="O107" s="37">
-        <v>0</v>
-      </c>
-      <c r="P107" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="37">
-        <v>0</v>
-      </c>
-      <c r="R107" s="37">
-        <v>0</v>
-      </c>
-      <c r="S107" s="37">
-        <v>0</v>
-      </c>
-      <c r="T107" s="37">
-        <v>0</v>
-      </c>
-      <c r="U107" s="37">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9">
+        <v>1</v>
+      </c>
+      <c r="L107" s="9">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9">
+        <v>1</v>
+      </c>
+      <c r="N107" s="9">
+        <v>1</v>
+      </c>
+      <c r="O107" s="9">
+        <v>1</v>
+      </c>
+      <c r="P107" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="9">
+        <v>0</v>
+      </c>
+      <c r="R107" s="9">
+        <v>0</v>
+      </c>
+      <c r="S107" s="9">
+        <v>0</v>
+      </c>
+      <c r="T107" s="9">
+        <v>0</v>
+      </c>
+      <c r="U107" s="9">
+        <v>0</v>
+      </c>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="36" t="s">
         <v>530</v>
       </c>
       <c r="C108" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="K108" s="37">
+        <v>1</v>
+      </c>
+      <c r="L108" s="37">
+        <v>1</v>
+      </c>
+      <c r="M108" s="37">
+        <v>1</v>
+      </c>
+      <c r="N108" s="37">
+        <v>1</v>
+      </c>
+      <c r="O108" s="37">
+        <v>0</v>
+      </c>
+      <c r="P108" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="37">
+        <v>0</v>
+      </c>
+      <c r="R108" s="37">
+        <v>0</v>
+      </c>
+      <c r="S108" s="37">
+        <v>0</v>
+      </c>
+      <c r="T108" s="37">
+        <v>0</v>
+      </c>
+      <c r="U108" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="29">
+        <v>106</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="C109" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D109" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E108" s="36" t="s">
+      <c r="E109" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="K108" s="37">
-        <v>1</v>
-      </c>
-      <c r="L108" s="37">
-        <v>1</v>
-      </c>
-      <c r="M108" s="37">
-        <v>1</v>
-      </c>
-      <c r="N108" s="37">
-        <v>1</v>
-      </c>
-      <c r="O108" s="37">
-        <v>0</v>
-      </c>
-      <c r="P108" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="37">
-        <v>0</v>
-      </c>
-      <c r="R108" s="37">
-        <v>0</v>
-      </c>
-      <c r="S108" s="37">
-        <v>0</v>
-      </c>
-      <c r="T108" s="37">
-        <v>0</v>
-      </c>
-      <c r="U108" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="29">
-        <v>107</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K109" s="31">
-        <v>1</v>
-      </c>
-      <c r="L109" s="31">
-        <v>1</v>
-      </c>
-      <c r="M109" s="31">
-        <v>1</v>
-      </c>
-      <c r="N109" s="31">
-        <v>1</v>
-      </c>
-      <c r="O109" s="31">
-        <v>1</v>
-      </c>
-      <c r="P109" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="31">
-        <v>0</v>
-      </c>
-      <c r="R109" s="31">
-        <v>0</v>
-      </c>
-      <c r="S109" s="31">
-        <v>0</v>
-      </c>
-      <c r="T109" s="31">
-        <v>0</v>
-      </c>
-      <c r="U109" s="31">
+      <c r="K109" s="37">
+        <v>1</v>
+      </c>
+      <c r="L109" s="37">
+        <v>1</v>
+      </c>
+      <c r="M109" s="37">
+        <v>1</v>
+      </c>
+      <c r="N109" s="37">
+        <v>1</v>
+      </c>
+      <c r="O109" s="37">
+        <v>0</v>
+      </c>
+      <c r="P109" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="37">
+        <v>0</v>
+      </c>
+      <c r="R109" s="37">
+        <v>0</v>
+      </c>
+      <c r="S109" s="37">
+        <v>0</v>
+      </c>
+      <c r="T109" s="37">
+        <v>0</v>
+      </c>
+      <c r="U109" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F110" s="31" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K110" s="31">
         <v>1</v>
@@ -9763,22 +9788,22 @@
     </row>
     <row r="111" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K111" s="31">
         <v>1</v>
@@ -9816,75 +9841,75 @@
     </row>
     <row r="112" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K112" s="31">
+        <v>1</v>
+      </c>
+      <c r="L112" s="31">
+        <v>1</v>
+      </c>
+      <c r="M112" s="31">
+        <v>1</v>
+      </c>
+      <c r="N112" s="31">
+        <v>1</v>
+      </c>
+      <c r="O112" s="31">
+        <v>1</v>
+      </c>
+      <c r="P112" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="31">
+        <v>0</v>
+      </c>
+      <c r="R112" s="31">
+        <v>0</v>
+      </c>
+      <c r="S112" s="31">
+        <v>0</v>
+      </c>
+      <c r="T112" s="31">
+        <v>0</v>
+      </c>
+      <c r="U112" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="29">
+        <v>110</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D113" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E113" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F112" s="31" t="s">
+      <c r="F113" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="K112" s="31">
-        <v>1</v>
-      </c>
-      <c r="L112" s="31">
-        <v>1</v>
-      </c>
-      <c r="M112" s="31">
-        <v>1</v>
-      </c>
-      <c r="N112" s="31">
-        <v>1</v>
-      </c>
-      <c r="O112" s="31">
-        <v>1</v>
-      </c>
-      <c r="P112" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="31">
-        <v>0</v>
-      </c>
-      <c r="R112" s="31">
-        <v>0</v>
-      </c>
-      <c r="S112" s="31">
-        <v>0</v>
-      </c>
-      <c r="T112" s="31">
-        <v>0</v>
-      </c>
-      <c r="U112" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="29">
-        <v>111</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="K113" s="31">
         <v>1</v>
@@ -9922,22 +9947,22 @@
     </row>
     <row r="114" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="29">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>181</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K114" s="31">
         <v>1</v>
@@ -9973,180 +9998,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>181</v>
       </c>
       <c r="C115" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K115" s="31">
+        <v>1</v>
+      </c>
+      <c r="L115" s="31">
+        <v>1</v>
+      </c>
+      <c r="M115" s="31">
+        <v>1</v>
+      </c>
+      <c r="N115" s="31">
+        <v>1</v>
+      </c>
+      <c r="O115" s="31">
+        <v>1</v>
+      </c>
+      <c r="P115" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="31">
+        <v>0</v>
+      </c>
+      <c r="R115" s="31">
+        <v>0</v>
+      </c>
+      <c r="S115" s="31">
+        <v>0</v>
+      </c>
+      <c r="T115" s="31">
+        <v>0</v>
+      </c>
+      <c r="U115" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="29">
+        <v>113</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D116" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E116" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F116" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="K115" s="31">
-        <v>1</v>
-      </c>
-      <c r="L115" s="31">
-        <v>1</v>
-      </c>
-      <c r="M115" s="31">
-        <v>1</v>
-      </c>
-      <c r="N115" s="31">
-        <v>1</v>
-      </c>
-      <c r="O115" s="31">
-        <v>1</v>
-      </c>
-      <c r="P115" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="31">
-        <v>0</v>
-      </c>
-      <c r="R115" s="31">
-        <v>0</v>
-      </c>
-      <c r="S115" s="31">
-        <v>0</v>
-      </c>
-      <c r="T115" s="31">
-        <v>0</v>
-      </c>
-      <c r="U115" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="29">
+      <c r="K116" s="31">
+        <v>1</v>
+      </c>
+      <c r="L116" s="31">
+        <v>1</v>
+      </c>
+      <c r="M116" s="31">
+        <v>1</v>
+      </c>
+      <c r="N116" s="31">
+        <v>1</v>
+      </c>
+      <c r="O116" s="31">
+        <v>1</v>
+      </c>
+      <c r="P116" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="31">
+        <v>0</v>
+      </c>
+      <c r="R116" s="31">
+        <v>0</v>
+      </c>
+      <c r="S116" s="31">
+        <v>0</v>
+      </c>
+      <c r="T116" s="31">
+        <v>0</v>
+      </c>
+      <c r="U116" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="29">
         <v>114</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B117" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C117" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D117" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E117" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="K116" s="32">
-        <v>1</v>
-      </c>
-      <c r="L116" s="32">
-        <v>1</v>
-      </c>
-      <c r="M116" s="32">
-        <v>1</v>
-      </c>
-      <c r="N116" s="32">
-        <v>1</v>
-      </c>
-      <c r="O116" s="32">
-        <v>0</v>
-      </c>
-      <c r="P116" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="32">
-        <v>0</v>
-      </c>
-      <c r="R116" s="32">
-        <v>0</v>
-      </c>
-      <c r="S116" s="32">
-        <v>0</v>
-      </c>
-      <c r="T116" s="32">
-        <v>0</v>
-      </c>
-      <c r="U116" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="29">
+      <c r="K117" s="32">
+        <v>1</v>
+      </c>
+      <c r="L117" s="32">
+        <v>1</v>
+      </c>
+      <c r="M117" s="32">
+        <v>1</v>
+      </c>
+      <c r="N117" s="32">
+        <v>1</v>
+      </c>
+      <c r="O117" s="32">
+        <v>0</v>
+      </c>
+      <c r="P117" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="32">
+        <v>0</v>
+      </c>
+      <c r="R117" s="32">
+        <v>0</v>
+      </c>
+      <c r="S117" s="32">
+        <v>0</v>
+      </c>
+      <c r="T117" s="32">
+        <v>0</v>
+      </c>
+      <c r="U117" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="29">
         <v>115</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E117" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F117" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="K117" s="34">
-        <v>1</v>
-      </c>
-      <c r="L117" s="34">
-        <v>1</v>
-      </c>
-      <c r="M117" s="34">
-        <v>1</v>
-      </c>
-      <c r="N117" s="34">
-        <v>1</v>
-      </c>
-      <c r="O117" s="34">
-        <v>1</v>
-      </c>
-      <c r="P117" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="34">
-        <v>0</v>
-      </c>
-      <c r="R117" s="34">
-        <v>0</v>
-      </c>
-      <c r="S117" s="34">
-        <v>0</v>
-      </c>
-      <c r="T117" s="34">
-        <v>0</v>
-      </c>
-      <c r="U117" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="29">
-        <v>116</v>
       </c>
       <c r="B118" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="K118" s="34">
         <v>1</v>
@@ -10182,24 +10207,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="K119" s="34">
         <v>1</v>
@@ -10237,22 +10262,22 @@
     </row>
     <row r="120" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>501</v>
+        <v>296</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D120" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>502</v>
+        <v>230</v>
       </c>
       <c r="K120" s="34">
         <v>1</v>
@@ -10290,22 +10315,22 @@
     </row>
     <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>299</v>
+        <v>510</v>
       </c>
       <c r="F121" s="35" t="s">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10343,22 +10368,22 @@
     </row>
     <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="D122" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10396,22 +10421,22 @@
     </row>
     <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>499</v>
+        <v>231</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10449,22 +10474,22 @@
     </row>
     <row r="124" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="29">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>235</v>
+        <v>499</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10502,22 +10527,22 @@
     </row>
     <row r="125" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>500</v>
+        <v>235</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>493</v>
+        <v>236</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10555,22 +10580,22 @@
     </row>
     <row r="126" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E126" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>232</v>
+        <v>144</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10608,22 +10633,22 @@
     </row>
     <row r="127" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="29">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E127" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>506</v>
+        <v>229</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="F127" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10661,22 +10686,22 @@
     </row>
     <row r="128" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="29">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>312</v>
+        <v>506</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10714,22 +10739,22 @@
     </row>
     <row r="129" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="29">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -10767,22 +10792,22 @@
     </row>
     <row r="130" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="29">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -10818,24 +10843,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F131" s="34" t="s">
-        <v>234</v>
+        <v>99</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -10871,24 +10896,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="29">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F132" s="35" t="s">
-        <v>302</v>
+        <v>316</v>
+      </c>
+      <c r="E132" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F132" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -10926,22 +10951,22 @@
     </row>
     <row r="133" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D133" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -10979,22 +11004,22 @@
     </row>
     <row r="134" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D134" s="35" t="s">
         <v>198</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11032,22 +11057,22 @@
     </row>
     <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D135" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E135" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>237</v>
+      <c r="E135" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11085,22 +11110,22 @@
     </row>
     <row r="136" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>319</v>
+        <v>198</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11138,22 +11163,22 @@
     </row>
     <row r="137" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11191,22 +11216,22 @@
     </row>
     <row r="138" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="29">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>446</v>
+        <v>315</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>447</v>
+        <v>317</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>447</v>
+        <v>317</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11244,122 +11269,125 @@
     </row>
     <row r="139" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="29">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E139" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="F139" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="K139" s="34">
+        <v>1</v>
+      </c>
+      <c r="L139" s="34">
+        <v>1</v>
+      </c>
+      <c r="M139" s="34">
+        <v>1</v>
+      </c>
+      <c r="N139" s="34">
+        <v>1</v>
+      </c>
+      <c r="O139" s="34">
+        <v>1</v>
+      </c>
+      <c r="P139" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="34">
+        <v>0</v>
+      </c>
+      <c r="R139" s="34">
+        <v>0</v>
+      </c>
+      <c r="S139" s="34">
+        <v>0</v>
+      </c>
+      <c r="T139" s="34">
+        <v>0</v>
+      </c>
+      <c r="U139" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="29">
+        <v>137</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="F139" s="35" t="s">
+      <c r="F140" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="K139" s="34">
-        <v>1</v>
-      </c>
-      <c r="L139" s="34">
-        <v>1</v>
-      </c>
-      <c r="M139" s="34">
-        <v>1</v>
-      </c>
-      <c r="N139" s="34">
-        <v>1</v>
-      </c>
-      <c r="O139" s="34">
-        <v>1</v>
-      </c>
-      <c r="P139" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="34">
-        <v>0</v>
-      </c>
-      <c r="R139" s="34">
-        <v>0</v>
-      </c>
-      <c r="S139" s="34">
-        <v>0</v>
-      </c>
-      <c r="T139" s="34">
-        <v>0</v>
-      </c>
-      <c r="U139" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="29">
-        <v>138</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="D140" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E140" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="K140" s="37">
-        <v>1</v>
-      </c>
-      <c r="L140" s="37">
-        <v>1</v>
-      </c>
-      <c r="M140" s="37">
-        <v>1</v>
-      </c>
-      <c r="N140" s="37">
-        <v>1</v>
-      </c>
-      <c r="O140" s="37">
-        <v>1</v>
-      </c>
-      <c r="P140" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q140" s="37">
-        <v>0</v>
-      </c>
-      <c r="R140" s="37">
-        <v>0</v>
-      </c>
-      <c r="S140" s="37">
-        <v>0</v>
-      </c>
-      <c r="T140" s="37">
-        <v>0</v>
-      </c>
-      <c r="U140" s="37">
+      <c r="K140" s="34">
+        <v>1</v>
+      </c>
+      <c r="L140" s="34">
+        <v>1</v>
+      </c>
+      <c r="M140" s="34">
+        <v>1</v>
+      </c>
+      <c r="N140" s="34">
+        <v>1</v>
+      </c>
+      <c r="O140" s="34">
+        <v>1</v>
+      </c>
+      <c r="P140" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="34">
+        <v>0</v>
+      </c>
+      <c r="R140" s="34">
+        <v>0</v>
+      </c>
+      <c r="S140" s="34">
+        <v>0</v>
+      </c>
+      <c r="T140" s="34">
+        <v>0</v>
+      </c>
+      <c r="U140" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="29">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="36" t="s">
         <v>246</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K141" s="37">
         <v>1</v>
@@ -11397,119 +11425,119 @@
     </row>
     <row r="142" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="29">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K142" s="37">
+        <v>1</v>
+      </c>
+      <c r="L142" s="37">
+        <v>1</v>
+      </c>
+      <c r="M142" s="37">
+        <v>1</v>
+      </c>
+      <c r="N142" s="37">
+        <v>1</v>
+      </c>
+      <c r="O142" s="37">
+        <v>1</v>
+      </c>
+      <c r="P142" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="37">
+        <v>0</v>
+      </c>
+      <c r="R142" s="37">
+        <v>0</v>
+      </c>
+      <c r="S142" s="37">
+        <v>0</v>
+      </c>
+      <c r="T142" s="37">
+        <v>0</v>
+      </c>
+      <c r="U142" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="29">
+        <v>140</v>
+      </c>
+      <c r="B143" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C143" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="D142" s="36" t="s">
+      <c r="D143" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="E142" s="36" t="s">
+      <c r="E143" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="K142" s="37">
-        <v>1</v>
-      </c>
-      <c r="L142" s="37">
-        <v>1</v>
-      </c>
-      <c r="M142" s="37">
-        <v>1</v>
-      </c>
-      <c r="N142" s="37">
-        <v>1</v>
-      </c>
-      <c r="O142" s="37">
-        <v>1</v>
-      </c>
-      <c r="P142" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="37">
-        <v>0</v>
-      </c>
-      <c r="R142" s="37">
-        <v>0</v>
-      </c>
-      <c r="S142" s="37">
-        <v>0</v>
-      </c>
-      <c r="T142" s="37">
-        <v>0</v>
-      </c>
-      <c r="U142" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="29">
-        <v>142</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="K143" s="32">
-        <v>1</v>
-      </c>
-      <c r="L143" s="32">
-        <v>0</v>
-      </c>
-      <c r="M143" s="32">
-        <v>1</v>
-      </c>
-      <c r="N143" s="32">
-        <v>1</v>
-      </c>
-      <c r="O143" s="32">
-        <v>0</v>
-      </c>
-      <c r="P143" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="32">
-        <v>0</v>
-      </c>
-      <c r="R143" s="32">
-        <v>0</v>
-      </c>
-      <c r="S143" s="32">
-        <v>0</v>
-      </c>
-      <c r="T143" s="32">
-        <v>0</v>
-      </c>
-      <c r="U143" s="32">
+      <c r="K143" s="37">
+        <v>1</v>
+      </c>
+      <c r="L143" s="37">
+        <v>1</v>
+      </c>
+      <c r="M143" s="37">
+        <v>1</v>
+      </c>
+      <c r="N143" s="37">
+        <v>1</v>
+      </c>
+      <c r="O143" s="37">
+        <v>1</v>
+      </c>
+      <c r="P143" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="37">
+        <v>0</v>
+      </c>
+      <c r="R143" s="37">
+        <v>0</v>
+      </c>
+      <c r="S143" s="37">
+        <v>0</v>
+      </c>
+      <c r="T143" s="37">
+        <v>0</v>
+      </c>
+      <c r="U143" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>489</v>
+        <v>196</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="K144" s="32">
         <v>1</v>
@@ -11547,19 +11575,19 @@
     </row>
     <row r="145" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -11597,19 +11625,19 @@
     </row>
     <row r="146" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="29">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>487</v>
+        <v>279</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -11645,133 +11673,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C147" s="40" t="s">
+      <c r="C147" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="K147" s="32">
+        <v>1</v>
+      </c>
+      <c r="L147" s="32">
+        <v>0</v>
+      </c>
+      <c r="M147" s="32">
+        <v>1</v>
+      </c>
+      <c r="N147" s="32">
+        <v>1</v>
+      </c>
+      <c r="O147" s="32">
+        <v>0</v>
+      </c>
+      <c r="P147" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="32">
+        <v>0</v>
+      </c>
+      <c r="R147" s="32">
+        <v>0</v>
+      </c>
+      <c r="S147" s="32">
+        <v>0</v>
+      </c>
+      <c r="T147" s="32">
+        <v>0</v>
+      </c>
+      <c r="U147" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="29">
+        <v>145</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D147" s="40" t="s">
+      <c r="D148" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="40" t="s">
+      <c r="E148" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="H147" s="33" t="s">
+      <c r="H148" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="I147" s="40" t="s">
+      <c r="I148" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="K147" s="40">
-        <v>1</v>
-      </c>
-      <c r="L147" s="40">
-        <v>0</v>
-      </c>
-      <c r="M147" s="40">
-        <v>1</v>
-      </c>
-      <c r="N147" s="40">
-        <v>1</v>
-      </c>
-      <c r="O147" s="40">
-        <v>0</v>
-      </c>
-      <c r="P147" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="40">
-        <v>0</v>
-      </c>
-      <c r="R147" s="40">
-        <v>0</v>
-      </c>
-      <c r="S147" s="40">
-        <v>0</v>
-      </c>
-      <c r="T147" s="40">
-        <v>0</v>
-      </c>
-      <c r="U147" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="29">
-        <v>147</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K148" s="32">
-        <v>1</v>
-      </c>
-      <c r="L148" s="32">
-        <v>0</v>
-      </c>
-      <c r="M148" s="32">
-        <v>1</v>
-      </c>
-      <c r="N148" s="32">
-        <v>1</v>
-      </c>
-      <c r="O148" s="32">
-        <v>0</v>
-      </c>
-      <c r="P148" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="32">
-        <v>0</v>
-      </c>
-      <c r="R148" s="32">
-        <v>0</v>
-      </c>
-      <c r="S148" s="32">
-        <v>0</v>
-      </c>
-      <c r="T148" s="32">
-        <v>0</v>
-      </c>
-      <c r="U148" s="32">
+      <c r="K148" s="40">
+        <v>1</v>
+      </c>
+      <c r="L148" s="40">
+        <v>0</v>
+      </c>
+      <c r="M148" s="40">
+        <v>1</v>
+      </c>
+      <c r="N148" s="40">
+        <v>1</v>
+      </c>
+      <c r="O148" s="40">
+        <v>0</v>
+      </c>
+      <c r="P148" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="40">
+        <v>0</v>
+      </c>
+      <c r="R148" s="40">
+        <v>0</v>
+      </c>
+      <c r="S148" s="40">
+        <v>0</v>
+      </c>
+      <c r="T148" s="40">
+        <v>0</v>
+      </c>
+      <c r="U148" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="29">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C149" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E149" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H149" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I149" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -11806,24 +11828,28 @@
       <c r="U149" s="32">
         <v>0</v>
       </c>
-      <c r="V149" s="39"/>
-      <c r="W149" s="39"/>
     </row>
     <row r="150" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C150" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>260</v>
+      <c r="C150" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H150" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I150" s="33" t="s">
+        <v>283</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -11858,22 +11884,24 @@
       <c r="U150" s="32">
         <v>0</v>
       </c>
+      <c r="V150" s="39"/>
+      <c r="W150" s="39"/>
     </row>
     <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K151" s="32">
         <v>1</v>
@@ -11911,22 +11939,19 @@
     </row>
     <row r="152" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>198</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="G152" s="32">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="K152" s="32">
         <v>1</v>
@@ -11964,19 +11989,22 @@
     </row>
     <row r="153" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="29">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>268</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>455</v>
+        <v>277</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>488</v>
+        <v>278</v>
+      </c>
+      <c r="G153" s="32">
+        <v>1</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -11987,7 +12015,7 @@
       <c r="M153" s="32">
         <v>1</v>
       </c>
-      <c r="N153" s="40">
+      <c r="N153" s="32">
         <v>1</v>
       </c>
       <c r="O153" s="32">
@@ -12014,19 +12042,19 @@
     </row>
     <row r="154" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>196</v>
+        <v>455</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>324</v>
+        <v>488</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12064,19 +12092,19 @@
     </row>
     <row r="155" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>325</v>
+        <v>196</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12114,19 +12142,19 @@
     </row>
     <row r="156" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="29">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12164,25 +12192,19 @@
     </row>
     <row r="157" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="29">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="D157" s="38" t="s">
-        <v>124</v>
+        <v>329</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H157" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I157" s="33" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12217,75 +12239,81 @@
       <c r="U157" s="32">
         <v>0</v>
       </c>
-      <c r="V157" s="39"/>
-      <c r="W157" s="39"/>
     </row>
     <row r="158" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="29">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C158" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H158" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K158" s="32">
+        <v>1</v>
+      </c>
+      <c r="L158" s="32">
+        <v>0</v>
+      </c>
+      <c r="M158" s="32">
+        <v>1</v>
+      </c>
+      <c r="N158" s="40">
+        <v>1</v>
+      </c>
+      <c r="O158" s="32">
+        <v>0</v>
+      </c>
+      <c r="P158" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="32">
+        <v>0</v>
+      </c>
+      <c r="R158" s="32">
+        <v>0</v>
+      </c>
+      <c r="S158" s="32">
+        <v>0</v>
+      </c>
+      <c r="T158" s="32">
+        <v>0</v>
+      </c>
+      <c r="U158" s="32">
+        <v>0</v>
+      </c>
+      <c r="V158" s="39"/>
+      <c r="W158" s="39"/>
+    </row>
+    <row r="159" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="29">
+        <v>156</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D159" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E158" s="33" t="s">
+      <c r="E159" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="K158" s="32">
-        <v>1</v>
-      </c>
-      <c r="L158" s="32">
-        <v>0</v>
-      </c>
-      <c r="M158" s="32">
-        <v>1</v>
-      </c>
-      <c r="N158" s="40">
-        <v>1</v>
-      </c>
-      <c r="O158" s="32">
-        <v>0</v>
-      </c>
-      <c r="P158" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="32">
-        <v>0</v>
-      </c>
-      <c r="R158" s="32">
-        <v>0</v>
-      </c>
-      <c r="S158" s="32">
-        <v>0</v>
-      </c>
-      <c r="T158" s="32">
-        <v>0</v>
-      </c>
-      <c r="U158" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="29">
-        <v>158</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>432</v>
-      </c>
       <c r="K159" s="32">
         <v>1</v>
       </c>
@@ -12320,27 +12348,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="29">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>429</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>124</v>
+        <v>196</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>431</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H160" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I160" s="33" t="s">
-        <v>196</v>
+        <v>432</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12375,133 +12397,130 @@
       <c r="U160" s="32">
         <v>0</v>
       </c>
-      <c r="V160" s="39"/>
-      <c r="W160" s="39"/>
     </row>
     <row r="161" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="29">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>429</v>
       </c>
       <c r="C161" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K161" s="32">
+        <v>1</v>
+      </c>
+      <c r="L161" s="32">
+        <v>0</v>
+      </c>
+      <c r="M161" s="32">
+        <v>1</v>
+      </c>
+      <c r="N161" s="40">
+        <v>1</v>
+      </c>
+      <c r="O161" s="32">
+        <v>0</v>
+      </c>
+      <c r="P161" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="32">
+        <v>0</v>
+      </c>
+      <c r="R161" s="32">
+        <v>0</v>
+      </c>
+      <c r="S161" s="32">
+        <v>0</v>
+      </c>
+      <c r="T161" s="32">
+        <v>0</v>
+      </c>
+      <c r="U161" s="32">
+        <v>0</v>
+      </c>
+      <c r="V161" s="39"/>
+      <c r="W161" s="39"/>
+    </row>
+    <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="29">
+        <v>159</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C162" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D162" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="E162" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="K161" s="32">
-        <v>1</v>
-      </c>
-      <c r="L161" s="32">
-        <v>0</v>
-      </c>
-      <c r="M161" s="32">
-        <v>1</v>
-      </c>
-      <c r="N161" s="40">
-        <v>1</v>
-      </c>
-      <c r="O161" s="32">
-        <v>0</v>
-      </c>
-      <c r="P161" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="32">
-        <v>0</v>
-      </c>
-      <c r="R161" s="32">
-        <v>0</v>
-      </c>
-      <c r="S161" s="32">
-        <v>0</v>
-      </c>
-      <c r="T161" s="32">
-        <v>0</v>
-      </c>
-      <c r="U161" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A162" s="29">
-        <v>161</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9">
-        <v>1</v>
-      </c>
-      <c r="L162" s="9">
-        <v>1</v>
-      </c>
-      <c r="M162" s="9">
-        <v>1</v>
-      </c>
-      <c r="N162" s="9">
-        <v>1</v>
-      </c>
-      <c r="O162" s="9">
-        <v>1</v>
-      </c>
-      <c r="P162" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="9">
-        <v>0</v>
-      </c>
-      <c r="R162" s="9">
-        <v>0</v>
-      </c>
-      <c r="S162" s="9">
-        <v>0</v>
-      </c>
-      <c r="T162" s="9">
-        <v>0</v>
-      </c>
-      <c r="U162" s="9">
-        <v>0</v>
-      </c>
-      <c r="V162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="X162" s="9"/>
-      <c r="Y162" s="9"/>
+      <c r="K162" s="32">
+        <v>1</v>
+      </c>
+      <c r="L162" s="32">
+        <v>0</v>
+      </c>
+      <c r="M162" s="32">
+        <v>1</v>
+      </c>
+      <c r="N162" s="40">
+        <v>1</v>
+      </c>
+      <c r="O162" s="32">
+        <v>0</v>
+      </c>
+      <c r="P162" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="32">
+        <v>0</v>
+      </c>
+      <c r="R162" s="32">
+        <v>0</v>
+      </c>
+      <c r="S162" s="32">
+        <v>0</v>
+      </c>
+      <c r="T162" s="32">
+        <v>0</v>
+      </c>
+      <c r="U162" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>345</v>
+      <c r="C163" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
@@ -12512,16 +12531,16 @@
         <v>1</v>
       </c>
       <c r="L163" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" s="9">
         <v>1</v>
       </c>
       <c r="N163" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O163" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P163" s="9">
         <v>0</v>
@@ -12548,19 +12567,19 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>339</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>346</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -12571,16 +12590,16 @@
         <v>1</v>
       </c>
       <c r="L164" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164" s="9">
         <v>1</v>
       </c>
       <c r="N164" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O164" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P164" s="9">
         <v>0</v>
@@ -12607,19 +12626,19 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -12630,16 +12649,16 @@
         <v>1</v>
       </c>
       <c r="L165" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165" s="9">
         <v>1</v>
       </c>
       <c r="N165" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O165" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" s="9">
         <v>0</v>
@@ -12666,19 +12685,19 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>355</v>
+        <v>539</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -12689,10 +12708,10 @@
         <v>1</v>
       </c>
       <c r="L166" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" s="9">
         <v>0</v>
@@ -12723,321 +12742,348 @@
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
     </row>
-    <row r="167" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
+        <v>164</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9">
+        <v>1</v>
+      </c>
+      <c r="L167" s="9">
+        <v>0</v>
+      </c>
+      <c r="M167" s="9">
+        <v>1</v>
+      </c>
+      <c r="N167" s="9">
+        <v>0</v>
+      </c>
+      <c r="O167" s="9">
+        <v>0</v>
+      </c>
+      <c r="P167" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="9">
+        <v>0</v>
+      </c>
+      <c r="R167" s="9">
+        <v>0</v>
+      </c>
+      <c r="S167" s="9">
+        <v>0</v>
+      </c>
+      <c r="T167" s="9">
+        <v>0</v>
+      </c>
+      <c r="U167" s="9">
+        <v>0</v>
+      </c>
+      <c r="V167" s="9"/>
+      <c r="W167" s="9"/>
+      <c r="X167" s="9"/>
+      <c r="Y167" s="9"/>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A168" s="29">
+        <v>165</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9">
+        <v>1</v>
+      </c>
+      <c r="L168" s="9">
+        <v>0</v>
+      </c>
+      <c r="M168" s="9">
+        <v>1</v>
+      </c>
+      <c r="N168" s="9">
+        <v>0</v>
+      </c>
+      <c r="O168" s="9">
+        <v>0</v>
+      </c>
+      <c r="P168" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="9">
+        <v>0</v>
+      </c>
+      <c r="R168" s="9">
+        <v>0</v>
+      </c>
+      <c r="S168" s="9">
+        <v>0</v>
+      </c>
+      <c r="T168" s="9">
+        <v>0</v>
+      </c>
+      <c r="U168" s="9">
+        <v>0</v>
+      </c>
+      <c r="V168" s="9"/>
+      <c r="W168" s="9"/>
+      <c r="X168" s="9"/>
+      <c r="Y168" s="9"/>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A169" s="29">
         <v>166</v>
       </c>
-      <c r="B167" s="43" t="s">
+      <c r="B169" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9">
+        <v>1</v>
+      </c>
+      <c r="L169" s="9">
+        <v>0</v>
+      </c>
+      <c r="M169" s="9">
+        <v>1</v>
+      </c>
+      <c r="N169" s="9">
+        <v>0</v>
+      </c>
+      <c r="O169" s="9">
+        <v>0</v>
+      </c>
+      <c r="P169" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="9">
+        <v>0</v>
+      </c>
+      <c r="R169" s="9">
+        <v>0</v>
+      </c>
+      <c r="S169" s="9">
+        <v>0</v>
+      </c>
+      <c r="T169" s="9">
+        <v>0</v>
+      </c>
+      <c r="U169" s="9">
+        <v>0</v>
+      </c>
+      <c r="V169" s="9"/>
+      <c r="W169" s="9"/>
+      <c r="X169" s="9"/>
+      <c r="Y169" s="9"/>
+    </row>
+    <row r="170" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="29">
+        <v>167</v>
+      </c>
+      <c r="B170" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="C167" s="44" t="s">
+      <c r="C170" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="D167" s="44" t="s">
+      <c r="D170" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="E167" s="44" t="s">
+      <c r="E170" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="K167" s="43">
-        <v>1</v>
-      </c>
-      <c r="L167" s="43">
-        <v>1</v>
-      </c>
-      <c r="M167" s="43">
-        <v>1</v>
-      </c>
-      <c r="N167" s="43">
-        <v>1</v>
-      </c>
-      <c r="O167" s="43">
-        <v>1</v>
-      </c>
-      <c r="P167" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="43">
-        <v>0</v>
-      </c>
-      <c r="R167" s="43">
-        <v>0</v>
-      </c>
-      <c r="S167" s="43">
-        <v>0</v>
-      </c>
-      <c r="T167" s="43">
-        <v>0</v>
-      </c>
-      <c r="U167" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="29">
-        <v>167</v>
-      </c>
-      <c r="B168" s="43" t="s">
+      <c r="K170" s="43">
+        <v>1</v>
+      </c>
+      <c r="L170" s="43">
+        <v>1</v>
+      </c>
+      <c r="M170" s="43">
+        <v>1</v>
+      </c>
+      <c r="N170" s="43">
+        <v>1</v>
+      </c>
+      <c r="O170" s="43">
+        <v>1</v>
+      </c>
+      <c r="P170" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="43">
+        <v>0</v>
+      </c>
+      <c r="R170" s="43">
+        <v>0</v>
+      </c>
+      <c r="S170" s="43">
+        <v>0</v>
+      </c>
+      <c r="T170" s="43">
+        <v>0</v>
+      </c>
+      <c r="U170" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="29">
+        <v>168</v>
+      </c>
+      <c r="B171" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="44" t="s">
+      <c r="C171" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="D168" s="44" t="s">
+      <c r="D171" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="E168" s="44" t="s">
+      <c r="E171" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="K168" s="43">
-        <v>1</v>
-      </c>
-      <c r="L168" s="43">
-        <v>1</v>
-      </c>
-      <c r="M168" s="43">
-        <v>1</v>
-      </c>
-      <c r="N168" s="43">
-        <v>1</v>
-      </c>
-      <c r="O168" s="43">
-        <v>1</v>
-      </c>
-      <c r="P168" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q168" s="43">
-        <v>0</v>
-      </c>
-      <c r="R168" s="43">
-        <v>0</v>
-      </c>
-      <c r="S168" s="43">
-        <v>0</v>
-      </c>
-      <c r="T168" s="43">
-        <v>0</v>
-      </c>
-      <c r="U168" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="29">
-        <v>168</v>
-      </c>
-      <c r="B169" s="43" t="s">
+      <c r="K171" s="43">
+        <v>1</v>
+      </c>
+      <c r="L171" s="43">
+        <v>1</v>
+      </c>
+      <c r="M171" s="43">
+        <v>1</v>
+      </c>
+      <c r="N171" s="43">
+        <v>1</v>
+      </c>
+      <c r="O171" s="43">
+        <v>1</v>
+      </c>
+      <c r="P171" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="43">
+        <v>0</v>
+      </c>
+      <c r="R171" s="43">
+        <v>0</v>
+      </c>
+      <c r="S171" s="43">
+        <v>0</v>
+      </c>
+      <c r="T171" s="43">
+        <v>0</v>
+      </c>
+      <c r="U171" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="29">
+        <v>169</v>
+      </c>
+      <c r="B172" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="C169" s="44" t="s">
+      <c r="C172" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="D169" s="44" t="s">
+      <c r="D172" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="E169" s="44" t="s">
+      <c r="E172" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="K169" s="43">
-        <v>1</v>
-      </c>
-      <c r="L169" s="43">
-        <v>1</v>
-      </c>
-      <c r="M169" s="43">
-        <v>1</v>
-      </c>
-      <c r="N169" s="43">
-        <v>1</v>
-      </c>
-      <c r="O169" s="43">
-        <v>1</v>
-      </c>
-      <c r="P169" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="43">
-        <v>0</v>
-      </c>
-      <c r="R169" s="43">
-        <v>0</v>
-      </c>
-      <c r="S169" s="43">
-        <v>0</v>
-      </c>
-      <c r="T169" s="43">
-        <v>0</v>
-      </c>
-      <c r="U169" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="29">
-        <v>169</v>
-      </c>
-      <c r="B170" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C170" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D170" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E170" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="K170" s="49">
-        <v>1</v>
-      </c>
-      <c r="L170" s="49">
-        <v>1</v>
-      </c>
-      <c r="M170" s="49">
-        <v>0</v>
-      </c>
-      <c r="N170" s="49">
-        <v>0</v>
-      </c>
-      <c r="O170" s="49">
-        <v>0</v>
-      </c>
-      <c r="P170" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q170" s="49">
-        <v>0</v>
-      </c>
-      <c r="R170" s="49">
-        <v>0</v>
-      </c>
-      <c r="S170" s="49">
-        <v>0</v>
-      </c>
-      <c r="T170" s="49">
-        <v>0</v>
-      </c>
-      <c r="U170" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="29">
-        <v>170</v>
-      </c>
-      <c r="B171" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C171" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="D171" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E171" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="K171" s="49">
-        <v>1</v>
-      </c>
-      <c r="L171" s="49">
-        <v>1</v>
-      </c>
-      <c r="M171" s="49">
-        <v>0</v>
-      </c>
-      <c r="N171" s="49">
-        <v>0</v>
-      </c>
-      <c r="O171" s="49">
-        <v>0</v>
-      </c>
-      <c r="P171" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="49">
-        <v>0</v>
-      </c>
-      <c r="R171" s="49">
-        <v>0</v>
-      </c>
-      <c r="S171" s="49">
-        <v>0</v>
-      </c>
-      <c r="T171" s="49">
-        <v>0</v>
-      </c>
-      <c r="U171" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="29">
-        <v>171</v>
-      </c>
-      <c r="B172" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C172" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="D172" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E172" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="K172" s="49">
-        <v>1</v>
-      </c>
-      <c r="L172" s="49">
-        <v>1</v>
-      </c>
-      <c r="M172" s="49">
-        <v>0</v>
-      </c>
-      <c r="N172" s="49">
-        <v>0</v>
-      </c>
-      <c r="O172" s="49">
-        <v>0</v>
-      </c>
-      <c r="P172" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q172" s="49">
-        <v>0</v>
-      </c>
-      <c r="R172" s="49">
-        <v>0</v>
-      </c>
-      <c r="S172" s="49">
-        <v>0</v>
-      </c>
-      <c r="T172" s="49">
-        <v>0</v>
-      </c>
-      <c r="U172" s="49">
+      <c r="K172" s="43">
+        <v>1</v>
+      </c>
+      <c r="L172" s="43">
+        <v>1</v>
+      </c>
+      <c r="M172" s="43">
+        <v>1</v>
+      </c>
+      <c r="N172" s="43">
+        <v>1</v>
+      </c>
+      <c r="O172" s="43">
+        <v>1</v>
+      </c>
+      <c r="P172" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="43">
+        <v>0</v>
+      </c>
+      <c r="R172" s="43">
+        <v>0</v>
+      </c>
+      <c r="S172" s="43">
+        <v>0</v>
+      </c>
+      <c r="T172" s="43">
+        <v>0</v>
+      </c>
+      <c r="U172" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="29">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B173" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K173" s="49">
         <v>1</v>
@@ -13075,19 +13121,19 @@
     </row>
     <row r="174" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="29">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B174" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D174" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E174" s="48" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="K174" s="49">
         <v>1</v>
@@ -13125,19 +13171,19 @@
     </row>
     <row r="175" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="29">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C175" s="48" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="K175" s="49">
         <v>1</v>
@@ -13175,19 +13221,19 @@
     </row>
     <row r="176" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="29">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B176" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D176" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K176" s="49">
         <v>1</v>
@@ -13225,19 +13271,19 @@
     </row>
     <row r="177" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="29">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D177" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E177" s="48" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K177" s="49">
         <v>1</v>
@@ -13275,19 +13321,19 @@
     </row>
     <row r="178" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D178" s="48" t="s">
         <v>387</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K178" s="49">
         <v>1</v>
@@ -13325,19 +13371,19 @@
     </row>
     <row r="179" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D179" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K179" s="49">
         <v>1</v>
@@ -13375,19 +13421,19 @@
     </row>
     <row r="180" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C180" s="49" t="s">
-        <v>401</v>
+      <c r="C180" s="48" t="s">
+        <v>395</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K180" s="49">
         <v>1</v>
@@ -13425,19 +13471,19 @@
     </row>
     <row r="181" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B181" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D181" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13475,19 +13521,19 @@
     </row>
     <row r="182" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D182" s="48" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13525,19 +13571,19 @@
     </row>
     <row r="183" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C183" s="48" t="s">
-        <v>480</v>
+      <c r="C183" s="49" t="s">
+        <v>401</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="K183" s="49">
         <v>1</v>
@@ -13575,19 +13621,19 @@
     </row>
     <row r="184" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>481</v>
+        <v>403</v>
       </c>
       <c r="D184" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="K184" s="49">
         <v>1</v>
@@ -13625,19 +13671,19 @@
     </row>
     <row r="185" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C185" s="48" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
       <c r="D185" s="48" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="K185" s="49">
         <v>1</v>
@@ -13675,19 +13721,19 @@
     </row>
     <row r="186" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B186" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C186" s="48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D186" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E186" s="48" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K186" s="49">
         <v>1</v>
@@ -13725,19 +13771,19 @@
     </row>
     <row r="187" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B187" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C187" s="48" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D187" s="48" t="s">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="K187" s="49">
         <v>1</v>
@@ -13775,19 +13821,19 @@
     </row>
     <row r="188" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C188" s="48" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="D188" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E188" s="48" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="K188" s="49">
         <v>1</v>
@@ -13825,19 +13871,19 @@
     </row>
     <row r="189" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C189" s="48" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
       <c r="D189" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="K189" s="49">
         <v>1</v>
@@ -13875,19 +13921,19 @@
     </row>
     <row r="190" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K190" s="49">
         <v>1</v>
@@ -13925,153 +13971,308 @@
     </row>
     <row r="191" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>382</v>
       </c>
       <c r="C191" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D191" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E191" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K191" s="49">
+        <v>1</v>
+      </c>
+      <c r="L191" s="49">
+        <v>1</v>
+      </c>
+      <c r="M191" s="49">
+        <v>0</v>
+      </c>
+      <c r="N191" s="49">
+        <v>0</v>
+      </c>
+      <c r="O191" s="49">
+        <v>0</v>
+      </c>
+      <c r="P191" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="49">
+        <v>0</v>
+      </c>
+      <c r="R191" s="49">
+        <v>0</v>
+      </c>
+      <c r="S191" s="49">
+        <v>0</v>
+      </c>
+      <c r="T191" s="49">
+        <v>0</v>
+      </c>
+      <c r="U191" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="29">
+        <v>189</v>
+      </c>
+      <c r="B192" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="C192" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D192" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K192" s="49">
+        <v>1</v>
+      </c>
+      <c r="L192" s="49">
+        <v>1</v>
+      </c>
+      <c r="M192" s="49">
+        <v>0</v>
+      </c>
+      <c r="N192" s="49">
+        <v>0</v>
+      </c>
+      <c r="O192" s="49">
+        <v>0</v>
+      </c>
+      <c r="P192" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="49">
+        <v>0</v>
+      </c>
+      <c r="R192" s="49">
+        <v>0</v>
+      </c>
+      <c r="S192" s="49">
+        <v>0</v>
+      </c>
+      <c r="T192" s="49">
+        <v>0</v>
+      </c>
+      <c r="U192" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="29">
+        <v>190</v>
+      </c>
+      <c r="B193" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D193" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E193" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K193" s="49">
+        <v>1</v>
+      </c>
+      <c r="L193" s="49">
+        <v>1</v>
+      </c>
+      <c r="M193" s="49">
+        <v>0</v>
+      </c>
+      <c r="N193" s="49">
+        <v>0</v>
+      </c>
+      <c r="O193" s="49">
+        <v>0</v>
+      </c>
+      <c r="P193" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="49">
+        <v>0</v>
+      </c>
+      <c r="R193" s="49">
+        <v>0</v>
+      </c>
+      <c r="S193" s="49">
+        <v>0</v>
+      </c>
+      <c r="T193" s="49">
+        <v>0</v>
+      </c>
+      <c r="U193" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="29">
+        <v>191</v>
+      </c>
+      <c r="B194" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D191" s="48" t="s">
+      <c r="D194" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E191" s="48" t="s">
+      <c r="E194" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="H191" s="48"/>
-      <c r="K191" s="49">
-        <v>1</v>
-      </c>
-      <c r="L191" s="49">
-        <v>1</v>
-      </c>
-      <c r="M191" s="49">
-        <v>0</v>
-      </c>
-      <c r="N191" s="49">
-        <v>0</v>
-      </c>
-      <c r="O191" s="49">
-        <v>0</v>
-      </c>
-      <c r="P191" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="49">
-        <v>0</v>
-      </c>
-      <c r="R191" s="49">
-        <v>0</v>
-      </c>
-      <c r="S191" s="49">
-        <v>0</v>
-      </c>
-      <c r="T191" s="49">
-        <v>0</v>
-      </c>
-      <c r="U191" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="29">
-        <v>191</v>
-      </c>
-      <c r="B192" s="50" t="s">
+      <c r="H194" s="48"/>
+      <c r="K194" s="49">
+        <v>1</v>
+      </c>
+      <c r="L194" s="49">
+        <v>1</v>
+      </c>
+      <c r="M194" s="49">
+        <v>0</v>
+      </c>
+      <c r="N194" s="49">
+        <v>0</v>
+      </c>
+      <c r="O194" s="49">
+        <v>0</v>
+      </c>
+      <c r="P194" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="49">
+        <v>0</v>
+      </c>
+      <c r="R194" s="49">
+        <v>0</v>
+      </c>
+      <c r="S194" s="49">
+        <v>0</v>
+      </c>
+      <c r="T194" s="49">
+        <v>0</v>
+      </c>
+      <c r="U194" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="29">
+        <v>192</v>
+      </c>
+      <c r="B195" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C192" s="50" t="s">
+      <c r="C195" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="D192" s="50" t="s">
+      <c r="D195" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E192" s="50" t="s">
+      <c r="E195" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="K192" s="51">
-        <v>1</v>
-      </c>
-      <c r="L192" s="51">
-        <v>1</v>
-      </c>
-      <c r="M192" s="51">
-        <v>1</v>
-      </c>
-      <c r="N192" s="51">
-        <v>1</v>
-      </c>
-      <c r="O192" s="51">
-        <v>0</v>
-      </c>
-      <c r="P192" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q192" s="51">
-        <v>0</v>
-      </c>
-      <c r="R192" s="51">
-        <v>0</v>
-      </c>
-      <c r="S192" s="51">
-        <v>0</v>
-      </c>
-      <c r="T192" s="51">
-        <v>0</v>
-      </c>
-      <c r="U192" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="29">
-        <v>192</v>
-      </c>
-      <c r="B193" s="50" t="s">
+      <c r="K195" s="51">
+        <v>1</v>
+      </c>
+      <c r="L195" s="51">
+        <v>1</v>
+      </c>
+      <c r="M195" s="51">
+        <v>1</v>
+      </c>
+      <c r="N195" s="51">
+        <v>1</v>
+      </c>
+      <c r="O195" s="51">
+        <v>0</v>
+      </c>
+      <c r="P195" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="51">
+        <v>0</v>
+      </c>
+      <c r="R195" s="51">
+        <v>0</v>
+      </c>
+      <c r="S195" s="51">
+        <v>0</v>
+      </c>
+      <c r="T195" s="51">
+        <v>0</v>
+      </c>
+      <c r="U195" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="29">
+        <v>193</v>
+      </c>
+      <c r="B196" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C193" s="50" t="s">
+      <c r="C196" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="D193" s="50" t="s">
+      <c r="D196" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E193" s="50" t="s">
+      <c r="E196" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="K193" s="51">
-        <v>1</v>
-      </c>
-      <c r="L193" s="51">
-        <v>1</v>
-      </c>
-      <c r="M193" s="51">
-        <v>1</v>
-      </c>
-      <c r="N193" s="51">
-        <v>1</v>
-      </c>
-      <c r="O193" s="51">
-        <v>0</v>
-      </c>
-      <c r="P193" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q193" s="51">
-        <v>0</v>
-      </c>
-      <c r="R193" s="51">
-        <v>0</v>
-      </c>
-      <c r="S193" s="51">
-        <v>0</v>
-      </c>
-      <c r="T193" s="51">
-        <v>0</v>
-      </c>
-      <c r="U193" s="51">
-        <v>0</v>
+      <c r="K196" s="51">
+        <v>1</v>
+      </c>
+      <c r="L196" s="51">
+        <v>1</v>
+      </c>
+      <c r="M196" s="51">
+        <v>1</v>
+      </c>
+      <c r="N196" s="51">
+        <v>1</v>
+      </c>
+      <c r="O196" s="51">
+        <v>0</v>
+      </c>
+      <c r="P196" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="51">
+        <v>0</v>
+      </c>
+      <c r="R196" s="51">
+        <v>0</v>
+      </c>
+      <c r="S196" s="51">
+        <v>0</v>
+      </c>
+      <c r="T196" s="51">
+        <v>0</v>
+      </c>
+      <c r="U196" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A197" s="29">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="565">
   <si>
     <t>Class</t>
   </si>
@@ -3078,7 +3078,85 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>activeness</t>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildmember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
+  </si>
+  <si>
+    <t>jointime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家总活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家职位</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3870,11 +3948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y197"/>
+  <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M155" sqref="M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11543,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="L144" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="32">
         <v>1</v>
@@ -12806,16 +12884,16 @@
         <v>165</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>351</v>
+        <v>545</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>352</v>
+        <v>546</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -12826,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" s="9">
         <v>1</v>
@@ -12868,13 +12946,13 @@
         <v>350</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -12919,557 +12997,637 @@
       <c r="X169" s="9"/>
       <c r="Y169" s="9"/>
     </row>
-    <row r="170" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A170" s="29">
         <v>167</v>
       </c>
-      <c r="B170" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C170" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="D170" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="E170" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="K170" s="43">
-        <v>1</v>
-      </c>
-      <c r="L170" s="43">
-        <v>1</v>
-      </c>
-      <c r="M170" s="43">
-        <v>1</v>
-      </c>
-      <c r="N170" s="43">
-        <v>1</v>
-      </c>
-      <c r="O170" s="43">
-        <v>1</v>
-      </c>
-      <c r="P170" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q170" s="43">
-        <v>0</v>
-      </c>
-      <c r="R170" s="43">
-        <v>0</v>
-      </c>
-      <c r="S170" s="43">
-        <v>0</v>
-      </c>
-      <c r="T170" s="43">
-        <v>0</v>
-      </c>
-      <c r="U170" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9">
+        <v>1</v>
+      </c>
+      <c r="L170" s="9">
+        <v>1</v>
+      </c>
+      <c r="M170" s="9">
+        <v>0</v>
+      </c>
+      <c r="N170" s="9">
+        <v>0</v>
+      </c>
+      <c r="O170" s="9">
+        <v>0</v>
+      </c>
+      <c r="P170" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="9">
+        <v>0</v>
+      </c>
+      <c r="R170" s="9">
+        <v>0</v>
+      </c>
+      <c r="S170" s="9">
+        <v>0</v>
+      </c>
+      <c r="T170" s="9">
+        <v>0</v>
+      </c>
+      <c r="U170" s="9">
+        <v>0</v>
+      </c>
+      <c r="V170" s="9"/>
+      <c r="W170" s="9"/>
+      <c r="X170" s="9"/>
+      <c r="Y170" s="9"/>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A171" s="29">
         <v>168</v>
       </c>
-      <c r="B171" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C171" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="D171" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="E171" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="K171" s="43">
-        <v>1</v>
-      </c>
-      <c r="L171" s="43">
-        <v>1</v>
-      </c>
-      <c r="M171" s="43">
-        <v>1</v>
-      </c>
-      <c r="N171" s="43">
-        <v>1</v>
-      </c>
-      <c r="O171" s="43">
-        <v>1</v>
-      </c>
-      <c r="P171" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="43">
-        <v>0</v>
-      </c>
-      <c r="R171" s="43">
-        <v>0</v>
-      </c>
-      <c r="S171" s="43">
-        <v>0</v>
-      </c>
-      <c r="T171" s="43">
-        <v>0</v>
-      </c>
-      <c r="U171" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9">
+        <v>1</v>
+      </c>
+      <c r="L171" s="9">
+        <v>0</v>
+      </c>
+      <c r="M171" s="9">
+        <v>1</v>
+      </c>
+      <c r="N171" s="9">
+        <v>0</v>
+      </c>
+      <c r="O171" s="9">
+        <v>0</v>
+      </c>
+      <c r="P171" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="9">
+        <v>0</v>
+      </c>
+      <c r="R171" s="9">
+        <v>0</v>
+      </c>
+      <c r="S171" s="9">
+        <v>0</v>
+      </c>
+      <c r="T171" s="9">
+        <v>0</v>
+      </c>
+      <c r="U171" s="9">
+        <v>0</v>
+      </c>
+      <c r="V171" s="9"/>
+      <c r="W171" s="9"/>
+      <c r="X171" s="9"/>
+      <c r="Y171" s="9"/>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A172" s="29">
         <v>169</v>
       </c>
-      <c r="B172" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C172" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="D172" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="E172" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="K172" s="43">
-        <v>1</v>
-      </c>
-      <c r="L172" s="43">
-        <v>1</v>
-      </c>
-      <c r="M172" s="43">
-        <v>1</v>
-      </c>
-      <c r="N172" s="43">
-        <v>1</v>
-      </c>
-      <c r="O172" s="43">
-        <v>1</v>
-      </c>
-      <c r="P172" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q172" s="43">
-        <v>0</v>
-      </c>
-      <c r="R172" s="43">
-        <v>0</v>
-      </c>
-      <c r="S172" s="43">
-        <v>0</v>
-      </c>
-      <c r="T172" s="43">
-        <v>0</v>
-      </c>
-      <c r="U172" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9">
+        <v>1</v>
+      </c>
+      <c r="L172" s="9">
+        <v>1</v>
+      </c>
+      <c r="M172" s="9">
+        <v>1</v>
+      </c>
+      <c r="N172" s="9">
+        <v>0</v>
+      </c>
+      <c r="O172" s="9">
+        <v>0</v>
+      </c>
+      <c r="P172" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="9">
+        <v>0</v>
+      </c>
+      <c r="R172" s="9">
+        <v>0</v>
+      </c>
+      <c r="S172" s="9">
+        <v>0</v>
+      </c>
+      <c r="T172" s="9">
+        <v>0</v>
+      </c>
+      <c r="U172" s="9">
+        <v>0</v>
+      </c>
+      <c r="V172" s="9"/>
+      <c r="W172" s="9"/>
+      <c r="X172" s="9"/>
+      <c r="Y172" s="9"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A173" s="29">
         <v>170</v>
       </c>
-      <c r="B173" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C173" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D173" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E173" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="K173" s="49">
-        <v>1</v>
-      </c>
-      <c r="L173" s="49">
-        <v>1</v>
-      </c>
-      <c r="M173" s="49">
-        <v>0</v>
-      </c>
-      <c r="N173" s="49">
-        <v>0</v>
-      </c>
-      <c r="O173" s="49">
-        <v>0</v>
-      </c>
-      <c r="P173" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q173" s="49">
-        <v>0</v>
-      </c>
-      <c r="R173" s="49">
-        <v>0</v>
-      </c>
-      <c r="S173" s="49">
-        <v>0</v>
-      </c>
-      <c r="T173" s="49">
-        <v>0</v>
-      </c>
-      <c r="U173" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9">
+        <v>1</v>
+      </c>
+      <c r="L173" s="9">
+        <v>1</v>
+      </c>
+      <c r="M173" s="9">
+        <v>1</v>
+      </c>
+      <c r="N173" s="9">
+        <v>0</v>
+      </c>
+      <c r="O173" s="9">
+        <v>0</v>
+      </c>
+      <c r="P173" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="9">
+        <v>0</v>
+      </c>
+      <c r="R173" s="9">
+        <v>0</v>
+      </c>
+      <c r="S173" s="9">
+        <v>0</v>
+      </c>
+      <c r="T173" s="9">
+        <v>0</v>
+      </c>
+      <c r="U173" s="9">
+        <v>0</v>
+      </c>
+      <c r="V173" s="9"/>
+      <c r="W173" s="9"/>
+      <c r="X173" s="9"/>
+      <c r="Y173" s="9"/>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A174" s="29">
         <v>171</v>
       </c>
-      <c r="B174" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C174" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E174" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="K174" s="49">
-        <v>1</v>
-      </c>
-      <c r="L174" s="49">
-        <v>1</v>
-      </c>
-      <c r="M174" s="49">
-        <v>0</v>
-      </c>
-      <c r="N174" s="49">
-        <v>0</v>
-      </c>
-      <c r="O174" s="49">
-        <v>0</v>
-      </c>
-      <c r="P174" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q174" s="49">
-        <v>0</v>
-      </c>
-      <c r="R174" s="49">
-        <v>0</v>
-      </c>
-      <c r="S174" s="49">
-        <v>0</v>
-      </c>
-      <c r="T174" s="49">
-        <v>0</v>
-      </c>
-      <c r="U174" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9">
+        <v>1</v>
+      </c>
+      <c r="L174" s="9">
+        <v>0</v>
+      </c>
+      <c r="M174" s="9">
+        <v>1</v>
+      </c>
+      <c r="N174" s="9">
+        <v>0</v>
+      </c>
+      <c r="O174" s="9">
+        <v>0</v>
+      </c>
+      <c r="P174" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="9">
+        <v>0</v>
+      </c>
+      <c r="R174" s="9">
+        <v>0</v>
+      </c>
+      <c r="S174" s="9">
+        <v>0</v>
+      </c>
+      <c r="T174" s="9">
+        <v>0</v>
+      </c>
+      <c r="U174" s="9">
+        <v>0</v>
+      </c>
+      <c r="V174" s="9"/>
+      <c r="W174" s="9"/>
+      <c r="X174" s="9"/>
+      <c r="Y174" s="9"/>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A175" s="29">
         <v>172</v>
       </c>
-      <c r="B175" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C175" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E175" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="K175" s="49">
-        <v>1</v>
-      </c>
-      <c r="L175" s="49">
-        <v>1</v>
-      </c>
-      <c r="M175" s="49">
-        <v>0</v>
-      </c>
-      <c r="N175" s="49">
-        <v>0</v>
-      </c>
-      <c r="O175" s="49">
-        <v>0</v>
-      </c>
-      <c r="P175" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="49">
-        <v>0</v>
-      </c>
-      <c r="R175" s="49">
-        <v>0</v>
-      </c>
-      <c r="S175" s="49">
-        <v>0</v>
-      </c>
-      <c r="T175" s="49">
-        <v>0</v>
-      </c>
-      <c r="U175" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9">
+        <v>1</v>
+      </c>
+      <c r="L175" s="9">
+        <v>1</v>
+      </c>
+      <c r="M175" s="9">
+        <v>1</v>
+      </c>
+      <c r="N175" s="9">
+        <v>0</v>
+      </c>
+      <c r="O175" s="9">
+        <v>0</v>
+      </c>
+      <c r="P175" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="9">
+        <v>0</v>
+      </c>
+      <c r="R175" s="9">
+        <v>0</v>
+      </c>
+      <c r="S175" s="9">
+        <v>0</v>
+      </c>
+      <c r="T175" s="9">
+        <v>0</v>
+      </c>
+      <c r="U175" s="9">
+        <v>0</v>
+      </c>
+      <c r="V175" s="9"/>
+      <c r="W175" s="9"/>
+      <c r="X175" s="9"/>
+      <c r="Y175" s="9"/>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A176" s="29">
         <v>173</v>
       </c>
-      <c r="B176" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C176" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="D176" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E176" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="K176" s="49">
-        <v>1</v>
-      </c>
-      <c r="L176" s="49">
-        <v>1</v>
-      </c>
-      <c r="M176" s="49">
-        <v>0</v>
-      </c>
-      <c r="N176" s="49">
-        <v>0</v>
-      </c>
-      <c r="O176" s="49">
-        <v>0</v>
-      </c>
-      <c r="P176" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q176" s="49">
-        <v>0</v>
-      </c>
-      <c r="R176" s="49">
-        <v>0</v>
-      </c>
-      <c r="S176" s="49">
-        <v>0</v>
-      </c>
-      <c r="T176" s="49">
-        <v>0</v>
-      </c>
-      <c r="U176" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9">
+        <v>1</v>
+      </c>
+      <c r="L176" s="9">
+        <v>1</v>
+      </c>
+      <c r="M176" s="9">
+        <v>1</v>
+      </c>
+      <c r="N176" s="9">
+        <v>0</v>
+      </c>
+      <c r="O176" s="9">
+        <v>0</v>
+      </c>
+      <c r="P176" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="9">
+        <v>0</v>
+      </c>
+      <c r="R176" s="9">
+        <v>0</v>
+      </c>
+      <c r="S176" s="9">
+        <v>0</v>
+      </c>
+      <c r="T176" s="9">
+        <v>0</v>
+      </c>
+      <c r="U176" s="9">
+        <v>0</v>
+      </c>
+      <c r="V176" s="9"/>
+      <c r="W176" s="9"/>
+      <c r="X176" s="9"/>
+      <c r="Y176" s="9"/>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A177" s="29">
         <v>174</v>
       </c>
-      <c r="B177" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C177" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="D177" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E177" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="K177" s="49">
-        <v>1</v>
-      </c>
-      <c r="L177" s="49">
-        <v>1</v>
-      </c>
-      <c r="M177" s="49">
-        <v>0</v>
-      </c>
-      <c r="N177" s="49">
-        <v>0</v>
-      </c>
-      <c r="O177" s="49">
-        <v>0</v>
-      </c>
-      <c r="P177" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="49">
-        <v>0</v>
-      </c>
-      <c r="R177" s="49">
-        <v>0</v>
-      </c>
-      <c r="S177" s="49">
-        <v>0</v>
-      </c>
-      <c r="T177" s="49">
-        <v>0</v>
-      </c>
-      <c r="U177" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9">
+        <v>1</v>
+      </c>
+      <c r="L177" s="9">
+        <v>1</v>
+      </c>
+      <c r="M177" s="9">
+        <v>1</v>
+      </c>
+      <c r="N177" s="9">
+        <v>0</v>
+      </c>
+      <c r="O177" s="9">
+        <v>0</v>
+      </c>
+      <c r="P177" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="9">
+        <v>0</v>
+      </c>
+      <c r="R177" s="9">
+        <v>0</v>
+      </c>
+      <c r="S177" s="9">
+        <v>0</v>
+      </c>
+      <c r="T177" s="9">
+        <v>0</v>
+      </c>
+      <c r="U177" s="9">
+        <v>0</v>
+      </c>
+      <c r="V177" s="9"/>
+      <c r="W177" s="9"/>
+      <c r="X177" s="9"/>
+      <c r="Y177" s="9"/>
+    </row>
+    <row r="178" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
         <v>175</v>
       </c>
-      <c r="B178" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C178" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D178" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E178" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="K178" s="49">
-        <v>1</v>
-      </c>
-      <c r="L178" s="49">
-        <v>1</v>
-      </c>
-      <c r="M178" s="49">
-        <v>0</v>
-      </c>
-      <c r="N178" s="49">
-        <v>0</v>
-      </c>
-      <c r="O178" s="49">
-        <v>0</v>
-      </c>
-      <c r="P178" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="49">
-        <v>0</v>
-      </c>
-      <c r="R178" s="49">
-        <v>0</v>
-      </c>
-      <c r="S178" s="49">
-        <v>0</v>
-      </c>
-      <c r="T178" s="49">
-        <v>0</v>
-      </c>
-      <c r="U178" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="D178" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E178" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K178" s="43">
+        <v>1</v>
+      </c>
+      <c r="L178" s="43">
+        <v>1</v>
+      </c>
+      <c r="M178" s="43">
+        <v>1</v>
+      </c>
+      <c r="N178" s="43">
+        <v>1</v>
+      </c>
+      <c r="O178" s="43">
+        <v>1</v>
+      </c>
+      <c r="P178" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="43">
+        <v>0</v>
+      </c>
+      <c r="R178" s="43">
+        <v>0</v>
+      </c>
+      <c r="S178" s="43">
+        <v>0</v>
+      </c>
+      <c r="T178" s="43">
+        <v>0</v>
+      </c>
+      <c r="U178" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
         <v>176</v>
       </c>
-      <c r="B179" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C179" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="D179" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E179" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="K179" s="49">
-        <v>1</v>
-      </c>
-      <c r="L179" s="49">
-        <v>1</v>
-      </c>
-      <c r="M179" s="49">
-        <v>0</v>
-      </c>
-      <c r="N179" s="49">
-        <v>0</v>
-      </c>
-      <c r="O179" s="49">
-        <v>0</v>
-      </c>
-      <c r="P179" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q179" s="49">
-        <v>0</v>
-      </c>
-      <c r="R179" s="49">
-        <v>0</v>
-      </c>
-      <c r="S179" s="49">
-        <v>0</v>
-      </c>
-      <c r="T179" s="49">
-        <v>0</v>
-      </c>
-      <c r="U179" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D179" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E179" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K179" s="43">
+        <v>1</v>
+      </c>
+      <c r="L179" s="43">
+        <v>1</v>
+      </c>
+      <c r="M179" s="43">
+        <v>1</v>
+      </c>
+      <c r="N179" s="43">
+        <v>1</v>
+      </c>
+      <c r="O179" s="43">
+        <v>1</v>
+      </c>
+      <c r="P179" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="43">
+        <v>0</v>
+      </c>
+      <c r="R179" s="43">
+        <v>0</v>
+      </c>
+      <c r="S179" s="43">
+        <v>0</v>
+      </c>
+      <c r="T179" s="43">
+        <v>0</v>
+      </c>
+      <c r="U179" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
         <v>177</v>
       </c>
-      <c r="B180" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C180" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="D180" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E180" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="K180" s="49">
-        <v>1</v>
-      </c>
-      <c r="L180" s="49">
-        <v>1</v>
-      </c>
-      <c r="M180" s="49">
-        <v>0</v>
-      </c>
-      <c r="N180" s="49">
-        <v>0</v>
-      </c>
-      <c r="O180" s="49">
-        <v>0</v>
-      </c>
-      <c r="P180" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="49">
-        <v>0</v>
-      </c>
-      <c r="R180" s="49">
-        <v>0</v>
-      </c>
-      <c r="S180" s="49">
-        <v>0</v>
-      </c>
-      <c r="T180" s="49">
-        <v>0</v>
-      </c>
-      <c r="U180" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D180" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E180" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K180" s="43">
+        <v>1</v>
+      </c>
+      <c r="L180" s="43">
+        <v>1</v>
+      </c>
+      <c r="M180" s="43">
+        <v>1</v>
+      </c>
+      <c r="N180" s="43">
+        <v>1</v>
+      </c>
+      <c r="O180" s="43">
+        <v>1</v>
+      </c>
+      <c r="P180" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="43">
+        <v>0</v>
+      </c>
+      <c r="R180" s="43">
+        <v>0</v>
+      </c>
+      <c r="S180" s="43">
+        <v>0</v>
+      </c>
+      <c r="T180" s="43">
+        <v>0</v>
+      </c>
+      <c r="U180" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
         <v>178</v>
       </c>
@@ -13477,13 +13635,13 @@
         <v>382</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D181" s="48" t="s">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K181" s="49">
         <v>1</v>
@@ -13519,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
         <v>179</v>
       </c>
@@ -13527,13 +13685,13 @@
         <v>382</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D182" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="48" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="K182" s="49">
         <v>1</v>
@@ -13569,21 +13727,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
         <v>180</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C183" s="49" t="s">
-        <v>401</v>
+      <c r="C183" s="48" t="s">
+        <v>453</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="K183" s="49">
         <v>1</v>
@@ -13619,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
         <v>181</v>
       </c>
@@ -13627,13 +13785,13 @@
         <v>382</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D184" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="K184" s="49">
         <v>1</v>
@@ -13669,21 +13827,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
         <v>182</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C185" s="48" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D185" s="48" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="K185" s="49">
         <v>1</v>
@@ -13719,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
         <v>183</v>
       </c>
@@ -13727,13 +13885,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="48" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="D186" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E186" s="48" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="K186" s="49">
         <v>1</v>
@@ -13769,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
         <v>184</v>
       </c>
@@ -13777,13 +13935,13 @@
         <v>382</v>
       </c>
       <c r="C187" s="48" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
       <c r="D187" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="K187" s="49">
         <v>1</v>
@@ -13819,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
         <v>185</v>
       </c>
@@ -13827,13 +13985,13 @@
         <v>382</v>
       </c>
       <c r="C188" s="48" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="D188" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E188" s="48" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="K188" s="49">
         <v>1</v>
@@ -13869,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
         <v>186</v>
       </c>
@@ -13877,13 +14035,13 @@
         <v>382</v>
       </c>
       <c r="C189" s="48" t="s">
-        <v>483</v>
+        <v>397</v>
       </c>
       <c r="D189" s="48" t="s">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="K189" s="49">
         <v>1</v>
@@ -13919,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
         <v>187</v>
       </c>
@@ -13927,13 +14085,13 @@
         <v>382</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K190" s="49">
         <v>1</v>
@@ -13969,21 +14127,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
         <v>188</v>
       </c>
       <c r="B191" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C191" s="48" t="s">
-        <v>411</v>
+      <c r="C191" s="49" t="s">
+        <v>401</v>
       </c>
       <c r="D191" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="K191" s="49">
         <v>1</v>
@@ -14019,21 +14177,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
         <v>189</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D192" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="K192" s="49">
         <v>1</v>
@@ -14074,16 +14232,16 @@
         <v>190</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D193" s="48" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K193" s="49">
         <v>1</v>
@@ -14127,15 +14285,14 @@
         <v>382</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D194" s="48" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="H194" s="48"/>
+        <v>476</v>
+      </c>
       <c r="K194" s="49">
         <v>1</v>
       </c>
@@ -14170,110 +14327,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
         <v>192</v>
       </c>
-      <c r="B195" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="C195" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="D195" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E195" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="K195" s="51">
-        <v>1</v>
-      </c>
-      <c r="L195" s="51">
-        <v>1</v>
-      </c>
-      <c r="M195" s="51">
-        <v>1</v>
-      </c>
-      <c r="N195" s="51">
-        <v>1</v>
-      </c>
-      <c r="O195" s="51">
-        <v>0</v>
-      </c>
-      <c r="P195" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="51">
-        <v>0</v>
-      </c>
-      <c r="R195" s="51">
-        <v>0</v>
-      </c>
-      <c r="S195" s="51">
-        <v>0</v>
-      </c>
-      <c r="T195" s="51">
-        <v>0</v>
-      </c>
-      <c r="U195" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D195" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E195" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="K195" s="49">
+        <v>1</v>
+      </c>
+      <c r="L195" s="49">
+        <v>1</v>
+      </c>
+      <c r="M195" s="49">
+        <v>0</v>
+      </c>
+      <c r="N195" s="49">
+        <v>0</v>
+      </c>
+      <c r="O195" s="49">
+        <v>0</v>
+      </c>
+      <c r="P195" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="49">
+        <v>0</v>
+      </c>
+      <c r="R195" s="49">
+        <v>0</v>
+      </c>
+      <c r="S195" s="49">
+        <v>0</v>
+      </c>
+      <c r="T195" s="49">
+        <v>0</v>
+      </c>
+      <c r="U195" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
         <v>193</v>
       </c>
-      <c r="B196" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="C196" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="D196" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E196" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="K196" s="51">
-        <v>1</v>
-      </c>
-      <c r="L196" s="51">
-        <v>1</v>
-      </c>
-      <c r="M196" s="51">
-        <v>1</v>
-      </c>
-      <c r="N196" s="51">
-        <v>1</v>
-      </c>
-      <c r="O196" s="51">
-        <v>0</v>
-      </c>
-      <c r="P196" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q196" s="51">
-        <v>0</v>
-      </c>
-      <c r="R196" s="51">
-        <v>0</v>
-      </c>
-      <c r="S196" s="51">
-        <v>0</v>
-      </c>
-      <c r="T196" s="51">
-        <v>0</v>
-      </c>
-      <c r="U196" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B196" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="D196" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E196" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="K196" s="49">
+        <v>1</v>
+      </c>
+      <c r="L196" s="49">
+        <v>1</v>
+      </c>
+      <c r="M196" s="49">
+        <v>0</v>
+      </c>
+      <c r="N196" s="49">
+        <v>0</v>
+      </c>
+      <c r="O196" s="49">
+        <v>0</v>
+      </c>
+      <c r="P196" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="49">
+        <v>0</v>
+      </c>
+      <c r="R196" s="49">
+        <v>0</v>
+      </c>
+      <c r="S196" s="49">
+        <v>0</v>
+      </c>
+      <c r="T196" s="49">
+        <v>0</v>
+      </c>
+      <c r="U196" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
         <v>194</v>
       </c>
+      <c r="B197" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C197" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="D197" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E197" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="K197" s="49">
+        <v>1</v>
+      </c>
+      <c r="L197" s="49">
+        <v>1</v>
+      </c>
+      <c r="M197" s="49">
+        <v>0</v>
+      </c>
+      <c r="N197" s="49">
+        <v>0</v>
+      </c>
+      <c r="O197" s="49">
+        <v>0</v>
+      </c>
+      <c r="P197" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="49">
+        <v>0</v>
+      </c>
+      <c r="R197" s="49">
+        <v>0</v>
+      </c>
+      <c r="S197" s="49">
+        <v>0</v>
+      </c>
+      <c r="T197" s="49">
+        <v>0</v>
+      </c>
+      <c r="U197" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="29">
+        <v>195</v>
+      </c>
+      <c r="B198" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C198" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K198" s="49">
+        <v>1</v>
+      </c>
+      <c r="L198" s="49">
+        <v>1</v>
+      </c>
+      <c r="M198" s="49">
+        <v>0</v>
+      </c>
+      <c r="N198" s="49">
+        <v>0</v>
+      </c>
+      <c r="O198" s="49">
+        <v>0</v>
+      </c>
+      <c r="P198" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="49">
+        <v>0</v>
+      </c>
+      <c r="R198" s="49">
+        <v>0</v>
+      </c>
+      <c r="S198" s="49">
+        <v>0</v>
+      </c>
+      <c r="T198" s="49">
+        <v>0</v>
+      </c>
+      <c r="U198" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="29">
+        <v>196</v>
+      </c>
+      <c r="B199" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D199" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K199" s="49">
+        <v>1</v>
+      </c>
+      <c r="L199" s="49">
+        <v>1</v>
+      </c>
+      <c r="M199" s="49">
+        <v>0</v>
+      </c>
+      <c r="N199" s="49">
+        <v>0</v>
+      </c>
+      <c r="O199" s="49">
+        <v>0</v>
+      </c>
+      <c r="P199" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="49">
+        <v>0</v>
+      </c>
+      <c r="R199" s="49">
+        <v>0</v>
+      </c>
+      <c r="S199" s="49">
+        <v>0</v>
+      </c>
+      <c r="T199" s="49">
+        <v>0</v>
+      </c>
+      <c r="U199" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="29">
+        <v>197</v>
+      </c>
+      <c r="B200" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D200" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E200" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K200" s="49">
+        <v>1</v>
+      </c>
+      <c r="L200" s="49">
+        <v>1</v>
+      </c>
+      <c r="M200" s="49">
+        <v>0</v>
+      </c>
+      <c r="N200" s="49">
+        <v>0</v>
+      </c>
+      <c r="O200" s="49">
+        <v>0</v>
+      </c>
+      <c r="P200" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="49">
+        <v>0</v>
+      </c>
+      <c r="R200" s="49">
+        <v>0</v>
+      </c>
+      <c r="S200" s="49">
+        <v>0</v>
+      </c>
+      <c r="T200" s="49">
+        <v>0</v>
+      </c>
+      <c r="U200" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="29">
+        <v>198</v>
+      </c>
+      <c r="B201" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E201" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K201" s="49">
+        <v>1</v>
+      </c>
+      <c r="L201" s="49">
+        <v>1</v>
+      </c>
+      <c r="M201" s="49">
+        <v>0</v>
+      </c>
+      <c r="N201" s="49">
+        <v>0</v>
+      </c>
+      <c r="O201" s="49">
+        <v>0</v>
+      </c>
+      <c r="P201" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="49">
+        <v>0</v>
+      </c>
+      <c r="R201" s="49">
+        <v>0</v>
+      </c>
+      <c r="S201" s="49">
+        <v>0</v>
+      </c>
+      <c r="T201" s="49">
+        <v>0</v>
+      </c>
+      <c r="U201" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="29">
+        <v>199</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D202" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="H202" s="48"/>
+      <c r="K202" s="49">
+        <v>1</v>
+      </c>
+      <c r="L202" s="49">
+        <v>1</v>
+      </c>
+      <c r="M202" s="49">
+        <v>0</v>
+      </c>
+      <c r="N202" s="49">
+        <v>0</v>
+      </c>
+      <c r="O202" s="49">
+        <v>0</v>
+      </c>
+      <c r="P202" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="49">
+        <v>0</v>
+      </c>
+      <c r="R202" s="49">
+        <v>0</v>
+      </c>
+      <c r="S202" s="49">
+        <v>0</v>
+      </c>
+      <c r="T202" s="49">
+        <v>0</v>
+      </c>
+      <c r="U202" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="29">
+        <v>200</v>
+      </c>
+      <c r="B203" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C203" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D203" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E203" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="K203" s="51">
+        <v>1</v>
+      </c>
+      <c r="L203" s="51">
+        <v>1</v>
+      </c>
+      <c r="M203" s="51">
+        <v>1</v>
+      </c>
+      <c r="N203" s="51">
+        <v>1</v>
+      </c>
+      <c r="O203" s="51">
+        <v>0</v>
+      </c>
+      <c r="P203" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="51">
+        <v>0</v>
+      </c>
+      <c r="R203" s="51">
+        <v>0</v>
+      </c>
+      <c r="S203" s="51">
+        <v>0</v>
+      </c>
+      <c r="T203" s="51">
+        <v>0</v>
+      </c>
+      <c r="U203" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="29">
+        <v>201</v>
+      </c>
+      <c r="B204" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C204" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="D204" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E204" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="K204" s="51">
+        <v>1</v>
+      </c>
+      <c r="L204" s="51">
+        <v>1</v>
+      </c>
+      <c r="M204" s="51">
+        <v>1</v>
+      </c>
+      <c r="N204" s="51">
+        <v>1</v>
+      </c>
+      <c r="O204" s="51">
+        <v>0</v>
+      </c>
+      <c r="P204" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="51">
+        <v>0</v>
+      </c>
+      <c r="R204" s="51">
+        <v>0</v>
+      </c>
+      <c r="S204" s="51">
+        <v>0</v>
+      </c>
+      <c r="T204" s="51">
+        <v>0</v>
+      </c>
+      <c r="U204" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A205" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="591">
   <si>
     <t>Class</t>
   </si>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>serverid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家所在服务器id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1774,10 +1770,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GroupInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3062,101 +3054,224 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>玩家帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派活跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
+  </si>
+  <si>
+    <t>jointime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家总活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家职位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildmember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>applytime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inviterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请者id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家申请的帮派列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildapply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经邀请的好友列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>guildid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>玩家帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派活跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者名字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildmember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员列表详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMember</t>
-  </si>
-  <si>
-    <t>GuildMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicPlayer</t>
-  </si>
-  <si>
-    <t>jointime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家总活跃度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家职位</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3262,7 +3377,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3389,6 +3504,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3419,7 +3540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3574,6 +3695,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3948,11 +4081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y205"/>
+  <dimension ref="A1:Y213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M155" sqref="M155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3985,7 +4118,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4000,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -4021,28 +4154,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4062,79 +4195,79 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="F2" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="U2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4203,7 +4336,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4316,17 +4449,17 @@
         <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -4373,17 +4506,17 @@
         <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -4784,7 +4917,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -4887,7 +5020,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -4981,13 +5114,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -5031,13 +5164,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -5081,7 +5214,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -5178,16 +5311,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -5228,16 +5361,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5278,16 +5411,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5328,7 +5461,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5431,7 +5564,7 @@
         <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -5481,7 +5614,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>36</v>
@@ -5531,13 +5664,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>275</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>276</v>
       </c>
       <c r="K31" s="20">
         <v>1</v>
@@ -5581,7 +5714,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
@@ -5682,7 +5815,7 @@
         <v>114</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>110</v>
@@ -5732,14 +5865,14 @@
       <c r="B35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>122</v>
+      <c r="C35" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="19"/>
       <c r="K35" s="20">
@@ -5784,13 +5917,13 @@
         <v>114</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36" s="19"/>
       <c r="K36" s="20">
@@ -5818,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="20">
         <v>1</v>
@@ -5835,13 +5968,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="F37" s="19"/>
       <c r="K37" s="20">
@@ -5869,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="20">
         <v>1</v>
@@ -5886,13 +6019,13 @@
         <v>114</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F38" s="19"/>
       <c r="K38" s="20">
@@ -5920,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="20">
         <v>1</v>
@@ -5937,13 +6070,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -5987,13 +6120,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I40" s="14"/>
       <c r="K40" s="5">
@@ -6035,22 +6168,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>118</v>
+        <v>587</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="H41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="I41" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -6193,8 +6326,8 @@
       <c r="A44" s="29">
         <v>41</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>49</v>
+      <c r="B44" s="15" t="s">
+        <v>586</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>53</v>
@@ -6249,13 +6382,13 @@
         <v>49</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6298,16 +6431,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="14"/>
       <c r="K46" s="5">
@@ -6349,22 +6482,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="H47" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="I47" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K47" s="5">
         <v>1</v>
@@ -6560,13 +6693,13 @@
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -6612,19 +6745,19 @@
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="I52" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K52" s="7">
         <v>1</v>
@@ -6668,13 +6801,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6718,13 +6851,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -6877,13 +7010,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -6977,7 +7110,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>25</v>
@@ -7204,7 +7337,7 @@
         <v>75</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>50</v>
@@ -7313,13 +7446,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K65" s="7">
         <v>1</v>
@@ -7363,13 +7496,13 @@
         <v>18</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K66" s="7">
         <v>1</v>
@@ -7413,22 +7546,22 @@
         <v>18</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="J67" s="13" t="s">
         <v>94</v>
@@ -7472,16 +7605,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="F68" s="7"/>
       <c r="K68" s="13">
@@ -7526,25 +7659,25 @@
         <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="F69" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
@@ -7588,22 +7721,22 @@
         <v>18</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="I70" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>50</v>
@@ -7647,25 +7780,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="I71" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="K71" s="7">
         <v>1</v>
@@ -7706,19 +7839,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="F72" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K72" s="7">
         <v>1</v>
@@ -7759,19 +7892,19 @@
         <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K73" s="7">
         <v>1</v>
@@ -7812,19 +7945,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -7865,25 +7998,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="I75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K75" s="7">
         <v>1</v>
@@ -7924,19 +8057,19 @@
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -7977,25 +8110,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K77" s="7">
         <v>1</v>
@@ -8036,25 +8169,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K78" s="7">
         <v>1</v>
@@ -8095,22 +8228,22 @@
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D79" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H79" s="41" t="s">
         <v>357</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>359</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -8151,22 +8284,22 @@
         <v>77</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K80" s="42">
         <v>1</v>
@@ -8207,22 +8340,22 @@
         <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K81" s="42">
         <v>1</v>
@@ -8263,22 +8396,22 @@
         <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K82" s="42">
         <v>1</v>
@@ -8319,25 +8452,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="I83" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8378,25 +8511,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8437,19 +8570,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
@@ -8493,13 +8626,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K86" s="7">
         <v>1</v>
@@ -8543,22 +8676,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="K87" s="7">
         <v>1</v>
@@ -8599,19 +8732,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K88" s="7">
         <v>1</v>
@@ -8647,133 +8780,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="29">
         <v>86</v>
       </c>
-      <c r="B89" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="K89" s="46">
-        <v>1</v>
-      </c>
-      <c r="L89" s="46">
-        <v>0</v>
-      </c>
-      <c r="M89" s="46">
-        <v>1</v>
-      </c>
-      <c r="N89" s="46">
-        <v>0</v>
-      </c>
-      <c r="O89" s="46">
-        <v>0</v>
-      </c>
-      <c r="P89" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="46">
-        <v>0</v>
-      </c>
-      <c r="R89" s="46">
-        <v>0</v>
-      </c>
-      <c r="S89" s="46">
-        <v>0</v>
-      </c>
-      <c r="T89" s="46">
-        <v>0</v>
-      </c>
-      <c r="U89" s="46">
-        <v>0</v>
-      </c>
-      <c r="V89" s="47"/>
-      <c r="W89" s="47"/>
-    </row>
-    <row r="90" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K89" s="7">
+        <v>1</v>
+      </c>
+      <c r="L89" s="7">
+        <v>1</v>
+      </c>
+      <c r="M89" s="7">
+        <v>1</v>
+      </c>
+      <c r="N89" s="7">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>0</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="29">
         <v>87</v>
       </c>
-      <c r="B90" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="C90" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="E90" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="H90" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I90" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="K90" s="46">
-        <v>1</v>
-      </c>
-      <c r="L90" s="46">
-        <v>0</v>
-      </c>
-      <c r="M90" s="46">
-        <v>1</v>
-      </c>
-      <c r="N90" s="46">
-        <v>0</v>
-      </c>
-      <c r="O90" s="46">
-        <v>0</v>
-      </c>
-      <c r="P90" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="46">
-        <v>0</v>
-      </c>
-      <c r="R90" s="46">
-        <v>0</v>
-      </c>
-      <c r="S90" s="46">
-        <v>0</v>
-      </c>
-      <c r="T90" s="46">
-        <v>0</v>
-      </c>
-      <c r="U90" s="46">
-        <v>0</v>
-      </c>
-      <c r="V90" s="47"/>
-      <c r="W90" s="47"/>
+      <c r="B90" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K90" s="7">
+        <v>1</v>
+      </c>
+      <c r="L90" s="7">
+        <v>1</v>
+      </c>
+      <c r="M90" s="7">
+        <v>1</v>
+      </c>
+      <c r="N90" s="7">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="29">
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>437</v>
+        <v>197</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -8818,19 +8957,23 @@
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
+        <v>433</v>
+      </c>
+      <c r="H92" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" s="45" t="s">
+        <v>195</v>
+      </c>
       <c r="K92" s="46">
         <v>1</v>
       </c>
@@ -8872,16 +9015,16 @@
         <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="C93" s="45" t="s">
-        <v>449</v>
-      </c>
       <c r="D93" s="45" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="H93" s="45"/>
       <c r="I93" s="45"/>
@@ -8926,16 +9069,16 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -8980,16 +9123,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9034,16 +9177,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9083,127 +9226,113 @@
       <c r="V96" s="47"/>
       <c r="W96" s="47"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="29">
         <v>94</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11">
-        <v>1</v>
-      </c>
-      <c r="L97" s="11">
-        <v>1</v>
-      </c>
-      <c r="M97" s="11">
-        <v>1</v>
-      </c>
-      <c r="N97" s="11">
-        <v>1</v>
-      </c>
-      <c r="O97" s="11">
-        <v>1</v>
-      </c>
-      <c r="P97" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="9">
-        <v>0</v>
-      </c>
-      <c r="R97" s="9">
-        <v>0</v>
-      </c>
-      <c r="S97" s="9">
-        <v>0</v>
-      </c>
-      <c r="T97" s="9">
-        <v>0</v>
-      </c>
-      <c r="U97" s="11">
-        <v>0</v>
-      </c>
-      <c r="V97" s="11"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B97" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="K97" s="46">
+        <v>1</v>
+      </c>
+      <c r="L97" s="46">
+        <v>0</v>
+      </c>
+      <c r="M97" s="46">
+        <v>1</v>
+      </c>
+      <c r="N97" s="46">
+        <v>0</v>
+      </c>
+      <c r="O97" s="46">
+        <v>0</v>
+      </c>
+      <c r="P97" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="46">
+        <v>0</v>
+      </c>
+      <c r="R97" s="46">
+        <v>0</v>
+      </c>
+      <c r="S97" s="46">
+        <v>0</v>
+      </c>
+      <c r="T97" s="46">
+        <v>0</v>
+      </c>
+      <c r="U97" s="46">
+        <v>0</v>
+      </c>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
+    </row>
+    <row r="98" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="29">
         <v>95</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11">
-        <v>1</v>
-      </c>
-      <c r="L98" s="11">
-        <v>1</v>
-      </c>
-      <c r="M98" s="11">
-        <v>1</v>
-      </c>
-      <c r="N98" s="11">
-        <v>1</v>
-      </c>
-      <c r="O98" s="11">
-        <v>1</v>
-      </c>
-      <c r="P98" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="9">
-        <v>0</v>
-      </c>
-      <c r="R98" s="9">
-        <v>0</v>
-      </c>
-      <c r="S98" s="9">
-        <v>0</v>
-      </c>
-      <c r="T98" s="9">
-        <v>0</v>
-      </c>
-      <c r="U98" s="11">
-        <v>0</v>
-      </c>
-      <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
+      <c r="B98" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="K98" s="46">
+        <v>1</v>
+      </c>
+      <c r="L98" s="46">
+        <v>0</v>
+      </c>
+      <c r="M98" s="46">
+        <v>1</v>
+      </c>
+      <c r="N98" s="46">
+        <v>0</v>
+      </c>
+      <c r="O98" s="46">
+        <v>0</v>
+      </c>
+      <c r="P98" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="46">
+        <v>0</v>
+      </c>
+      <c r="R98" s="46">
+        <v>0</v>
+      </c>
+      <c r="S98" s="46">
+        <v>0</v>
+      </c>
+      <c r="T98" s="46">
+        <v>0</v>
+      </c>
+      <c r="U98" s="46">
+        <v>0</v>
+      </c>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A99" s="29">
@@ -9212,19 +9341,23 @@
       <c r="B99" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>84</v>
+      <c r="C99" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="J99" s="11"/>
       <c r="K99" s="11">
         <v>1</v>
@@ -9271,14 +9404,14 @@
       <c r="B100" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>85</v>
+      <c r="C100" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -9331,13 +9464,13 @@
         <v>80</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -9390,13 +9523,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>79</v>
+      <c r="E102" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -9441,109 +9574,125 @@
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
     </row>
-    <row r="103" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A103" s="29">
         <v>100</v>
       </c>
-      <c r="B103" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F103" s="25"/>
-      <c r="K103" s="24">
-        <v>1</v>
-      </c>
-      <c r="L103" s="24">
-        <v>1</v>
-      </c>
-      <c r="M103" s="24">
-        <v>1</v>
-      </c>
-      <c r="N103" s="24">
-        <v>1</v>
-      </c>
-      <c r="O103" s="24">
-        <v>0</v>
-      </c>
-      <c r="P103" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="24">
-        <v>0</v>
-      </c>
-      <c r="R103" s="24">
-        <v>0</v>
-      </c>
-      <c r="S103" s="24">
-        <v>0</v>
-      </c>
-      <c r="T103" s="24">
-        <v>0</v>
-      </c>
-      <c r="U103" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11">
+        <v>1</v>
+      </c>
+      <c r="L103" s="11">
+        <v>1</v>
+      </c>
+      <c r="M103" s="11">
+        <v>1</v>
+      </c>
+      <c r="N103" s="11">
+        <v>1</v>
+      </c>
+      <c r="O103" s="11">
+        <v>1</v>
+      </c>
+      <c r="P103" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>0</v>
+      </c>
+      <c r="R103" s="9">
+        <v>0</v>
+      </c>
+      <c r="S103" s="9">
+        <v>0</v>
+      </c>
+      <c r="T103" s="9">
+        <v>0</v>
+      </c>
+      <c r="U103" s="11">
+        <v>0</v>
+      </c>
+      <c r="V103" s="11"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A104" s="29">
         <v>101</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="24" t="s">
+      <c r="B104" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" s="25"/>
-      <c r="K104" s="24">
-        <v>1</v>
-      </c>
-      <c r="L104" s="24">
-        <v>1</v>
-      </c>
-      <c r="M104" s="24">
-        <v>1</v>
-      </c>
-      <c r="N104" s="24">
-        <v>1</v>
-      </c>
-      <c r="O104" s="24">
-        <v>0</v>
-      </c>
-      <c r="P104" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="24">
-        <v>0</v>
-      </c>
-      <c r="R104" s="24">
-        <v>0</v>
-      </c>
-      <c r="S104" s="24">
-        <v>0</v>
-      </c>
-      <c r="T104" s="24">
-        <v>0</v>
-      </c>
-      <c r="U104" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E104" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11">
+        <v>1</v>
+      </c>
+      <c r="L104" s="11">
+        <v>1</v>
+      </c>
+      <c r="M104" s="11">
+        <v>1</v>
+      </c>
+      <c r="N104" s="11">
+        <v>1</v>
+      </c>
+      <c r="O104" s="11">
+        <v>1</v>
+      </c>
+      <c r="P104" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="9">
+        <v>0</v>
+      </c>
+      <c r="R104" s="9">
+        <v>0</v>
+      </c>
+      <c r="S104" s="9">
+        <v>0</v>
+      </c>
+      <c r="T104" s="9">
+        <v>0</v>
+      </c>
+      <c r="U104" s="11">
+        <v>0</v>
+      </c>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+    </row>
+    <row r="105" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="29">
         <v>102</v>
       </c>
@@ -9551,13 +9700,13 @@
         <v>95</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>99</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F105" s="25"/>
       <c r="K105" s="24">
@@ -9594,326 +9743,325 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9">
-        <v>1</v>
-      </c>
-      <c r="L106" s="9">
-        <v>1</v>
-      </c>
-      <c r="M106" s="9">
-        <v>1</v>
-      </c>
-      <c r="N106" s="9">
-        <v>1</v>
-      </c>
-      <c r="O106" s="9">
-        <v>1</v>
-      </c>
-      <c r="P106" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="9">
-        <v>0</v>
-      </c>
-      <c r="R106" s="9">
-        <v>0</v>
-      </c>
-      <c r="S106" s="9">
-        <v>0</v>
-      </c>
-      <c r="T106" s="9">
-        <v>0</v>
-      </c>
-      <c r="U106" s="9">
-        <v>0</v>
-      </c>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B106" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="K106" s="24">
+        <v>1</v>
+      </c>
+      <c r="L106" s="24">
+        <v>1</v>
+      </c>
+      <c r="M106" s="24">
+        <v>1</v>
+      </c>
+      <c r="N106" s="24">
+        <v>1</v>
+      </c>
+      <c r="O106" s="24">
+        <v>0</v>
+      </c>
+      <c r="P106" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="24">
+        <v>0</v>
+      </c>
+      <c r="R106" s="24">
+        <v>0</v>
+      </c>
+      <c r="S106" s="24">
+        <v>0</v>
+      </c>
+      <c r="T106" s="24">
+        <v>0</v>
+      </c>
+      <c r="U106" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9">
-        <v>1</v>
-      </c>
-      <c r="L107" s="9">
-        <v>1</v>
-      </c>
-      <c r="M107" s="9">
-        <v>1</v>
-      </c>
-      <c r="N107" s="9">
-        <v>1</v>
-      </c>
-      <c r="O107" s="9">
-        <v>1</v>
-      </c>
-      <c r="P107" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="9">
-        <v>0</v>
-      </c>
-      <c r="R107" s="9">
-        <v>0</v>
-      </c>
-      <c r="S107" s="9">
-        <v>0</v>
-      </c>
-      <c r="T107" s="9">
-        <v>0</v>
-      </c>
-      <c r="U107" s="9">
-        <v>0</v>
-      </c>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
-    </row>
-    <row r="108" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" s="25"/>
+      <c r="K107" s="24">
+        <v>1</v>
+      </c>
+      <c r="L107" s="24">
+        <v>1</v>
+      </c>
+      <c r="M107" s="24">
+        <v>1</v>
+      </c>
+      <c r="N107" s="24">
+        <v>1</v>
+      </c>
+      <c r="O107" s="24">
+        <v>0</v>
+      </c>
+      <c r="P107" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="24">
+        <v>0</v>
+      </c>
+      <c r="R107" s="24">
+        <v>0</v>
+      </c>
+      <c r="S107" s="24">
+        <v>0</v>
+      </c>
+      <c r="T107" s="24">
+        <v>0</v>
+      </c>
+      <c r="U107" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
-      <c r="B108" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="K108" s="37">
-        <v>1</v>
-      </c>
-      <c r="L108" s="37">
-        <v>1</v>
-      </c>
-      <c r="M108" s="37">
-        <v>1</v>
-      </c>
-      <c r="N108" s="37">
-        <v>1</v>
-      </c>
-      <c r="O108" s="37">
-        <v>0</v>
-      </c>
-      <c r="P108" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="37">
-        <v>0</v>
-      </c>
-      <c r="R108" s="37">
-        <v>0</v>
-      </c>
-      <c r="S108" s="37">
-        <v>0</v>
-      </c>
-      <c r="T108" s="37">
-        <v>0</v>
-      </c>
-      <c r="U108" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9">
+        <v>1</v>
+      </c>
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9">
+        <v>1</v>
+      </c>
+      <c r="N108" s="9">
+        <v>1</v>
+      </c>
+      <c r="O108" s="9">
+        <v>1</v>
+      </c>
+      <c r="P108" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="9">
+        <v>0</v>
+      </c>
+      <c r="R108" s="9">
+        <v>0</v>
+      </c>
+      <c r="S108" s="9">
+        <v>0</v>
+      </c>
+      <c r="T108" s="9">
+        <v>0</v>
+      </c>
+      <c r="U108" s="9">
+        <v>0</v>
+      </c>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
         <v>106</v>
       </c>
-      <c r="B109" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="K109" s="37">
-        <v>1</v>
-      </c>
-      <c r="L109" s="37">
-        <v>1</v>
-      </c>
-      <c r="M109" s="37">
-        <v>1</v>
-      </c>
-      <c r="N109" s="37">
-        <v>1</v>
-      </c>
-      <c r="O109" s="37">
-        <v>0</v>
-      </c>
-      <c r="P109" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="37">
-        <v>0</v>
-      </c>
-      <c r="R109" s="37">
-        <v>0</v>
-      </c>
-      <c r="S109" s="37">
-        <v>0</v>
-      </c>
-      <c r="T109" s="37">
-        <v>0</v>
-      </c>
-      <c r="U109" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9">
+        <v>1</v>
+      </c>
+      <c r="L109" s="9">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9">
+        <v>1</v>
+      </c>
+      <c r="O109" s="9">
+        <v>1</v>
+      </c>
+      <c r="P109" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="9">
+        <v>0</v>
+      </c>
+      <c r="R109" s="9">
+        <v>0</v>
+      </c>
+      <c r="S109" s="9">
+        <v>0</v>
+      </c>
+      <c r="T109" s="9">
+        <v>0</v>
+      </c>
+      <c r="U109" s="9">
+        <v>0</v>
+      </c>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+    </row>
+    <row r="110" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
         <v>107</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K110" s="31">
-        <v>1</v>
-      </c>
-      <c r="L110" s="31">
-        <v>1</v>
-      </c>
-      <c r="M110" s="31">
-        <v>1</v>
-      </c>
-      <c r="N110" s="31">
-        <v>1</v>
-      </c>
-      <c r="O110" s="31">
-        <v>1</v>
-      </c>
-      <c r="P110" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="31">
-        <v>0</v>
-      </c>
-      <c r="R110" s="31">
-        <v>0</v>
-      </c>
-      <c r="S110" s="31">
-        <v>0</v>
-      </c>
-      <c r="T110" s="31">
-        <v>0</v>
-      </c>
-      <c r="U110" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="K110" s="37">
+        <v>1</v>
+      </c>
+      <c r="L110" s="37">
+        <v>1</v>
+      </c>
+      <c r="M110" s="37">
+        <v>1</v>
+      </c>
+      <c r="N110" s="37">
+        <v>1</v>
+      </c>
+      <c r="O110" s="37">
+        <v>0</v>
+      </c>
+      <c r="P110" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="37">
+        <v>0</v>
+      </c>
+      <c r="R110" s="37">
+        <v>0</v>
+      </c>
+      <c r="S110" s="37">
+        <v>0</v>
+      </c>
+      <c r="T110" s="37">
+        <v>0</v>
+      </c>
+      <c r="U110" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="K111" s="31">
-        <v>1</v>
-      </c>
-      <c r="L111" s="31">
-        <v>1</v>
-      </c>
-      <c r="M111" s="31">
-        <v>1</v>
-      </c>
-      <c r="N111" s="31">
-        <v>1</v>
-      </c>
-      <c r="O111" s="31">
-        <v>1</v>
-      </c>
-      <c r="P111" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="31">
-        <v>0</v>
-      </c>
-      <c r="R111" s="31">
-        <v>0</v>
-      </c>
-      <c r="S111" s="31">
-        <v>0</v>
-      </c>
-      <c r="T111" s="31">
-        <v>0</v>
-      </c>
-      <c r="U111" s="31">
+      <c r="B111" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="K111" s="37">
+        <v>1</v>
+      </c>
+      <c r="L111" s="37">
+        <v>1</v>
+      </c>
+      <c r="M111" s="37">
+        <v>1</v>
+      </c>
+      <c r="N111" s="37">
+        <v>1</v>
+      </c>
+      <c r="O111" s="37">
+        <v>0</v>
+      </c>
+      <c r="P111" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="37">
+        <v>0</v>
+      </c>
+      <c r="R111" s="37">
+        <v>0</v>
+      </c>
+      <c r="S111" s="37">
+        <v>0</v>
+      </c>
+      <c r="T111" s="37">
+        <v>0</v>
+      </c>
+      <c r="U111" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9922,19 +10070,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="D112" s="30" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F112" s="31" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="K112" s="31">
         <v>1</v>
@@ -9975,19 +10120,19 @@
         <v>110</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K113" s="31">
         <v>1</v>
@@ -10023,21 +10168,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="29">
         <v>111</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>215</v>
@@ -10076,18 +10221,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="29">
         <v>112</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E115" s="30" t="s">
         <v>183</v>
@@ -10129,24 +10274,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="29">
         <v>113</v>
       </c>
       <c r="B116" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C116" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" s="30" t="s">
-        <v>185</v>
-      </c>
       <c r="F116" s="31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K116" s="31">
         <v>1</v>
@@ -10182,159 +10327,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
         <v>114</v>
       </c>
-      <c r="B117" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="K117" s="32">
-        <v>1</v>
-      </c>
-      <c r="L117" s="32">
-        <v>1</v>
-      </c>
-      <c r="M117" s="32">
-        <v>1</v>
-      </c>
-      <c r="N117" s="32">
-        <v>1</v>
-      </c>
-      <c r="O117" s="32">
-        <v>0</v>
-      </c>
-      <c r="P117" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="32">
-        <v>0</v>
-      </c>
-      <c r="R117" s="32">
-        <v>0</v>
-      </c>
-      <c r="S117" s="32">
-        <v>0</v>
-      </c>
-      <c r="T117" s="32">
-        <v>0</v>
-      </c>
-      <c r="U117" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K117" s="31">
+        <v>1</v>
+      </c>
+      <c r="L117" s="31">
+        <v>1</v>
+      </c>
+      <c r="M117" s="31">
+        <v>1</v>
+      </c>
+      <c r="N117" s="31">
+        <v>1</v>
+      </c>
+      <c r="O117" s="31">
+        <v>1</v>
+      </c>
+      <c r="P117" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="31">
+        <v>0</v>
+      </c>
+      <c r="R117" s="31">
+        <v>0</v>
+      </c>
+      <c r="S117" s="31">
+        <v>0</v>
+      </c>
+      <c r="T117" s="31">
+        <v>0</v>
+      </c>
+      <c r="U117" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="29">
         <v>115</v>
       </c>
-      <c r="B118" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E118" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F118" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="K118" s="34">
-        <v>1</v>
-      </c>
-      <c r="L118" s="34">
-        <v>1</v>
-      </c>
-      <c r="M118" s="34">
-        <v>1</v>
-      </c>
-      <c r="N118" s="34">
-        <v>1</v>
-      </c>
-      <c r="O118" s="34">
-        <v>1</v>
-      </c>
-      <c r="P118" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="34">
-        <v>0</v>
-      </c>
-      <c r="R118" s="34">
-        <v>0</v>
-      </c>
-      <c r="S118" s="34">
-        <v>0</v>
-      </c>
-      <c r="T118" s="34">
-        <v>0</v>
-      </c>
-      <c r="U118" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K118" s="31">
+        <v>1</v>
+      </c>
+      <c r="L118" s="31">
+        <v>1</v>
+      </c>
+      <c r="M118" s="31">
+        <v>1</v>
+      </c>
+      <c r="N118" s="31">
+        <v>1</v>
+      </c>
+      <c r="O118" s="31">
+        <v>1</v>
+      </c>
+      <c r="P118" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="31">
+        <v>0</v>
+      </c>
+      <c r="R118" s="31">
+        <v>0</v>
+      </c>
+      <c r="S118" s="31">
+        <v>0</v>
+      </c>
+      <c r="T118" s="31">
+        <v>0</v>
+      </c>
+      <c r="U118" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
         <v>116</v>
       </c>
-      <c r="B119" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="D119" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E119" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F119" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="K119" s="34">
-        <v>1</v>
-      </c>
-      <c r="L119" s="34">
-        <v>1</v>
-      </c>
-      <c r="M119" s="34">
-        <v>1</v>
-      </c>
-      <c r="N119" s="34">
-        <v>1</v>
-      </c>
-      <c r="O119" s="34">
-        <v>1</v>
-      </c>
-      <c r="P119" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="34">
-        <v>0</v>
-      </c>
-      <c r="R119" s="34">
-        <v>0</v>
-      </c>
-      <c r="S119" s="34">
-        <v>0</v>
-      </c>
-      <c r="T119" s="34">
-        <v>0</v>
-      </c>
-      <c r="U119" s="34">
+      <c r="B119" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K119" s="32">
+        <v>1</v>
+      </c>
+      <c r="L119" s="32">
+        <v>1</v>
+      </c>
+      <c r="M119" s="32">
+        <v>1</v>
+      </c>
+      <c r="N119" s="32">
+        <v>1</v>
+      </c>
+      <c r="O119" s="32">
+        <v>0</v>
+      </c>
+      <c r="P119" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="32">
+        <v>0</v>
+      </c>
+      <c r="R119" s="32">
+        <v>0</v>
+      </c>
+      <c r="S119" s="32">
+        <v>0</v>
+      </c>
+      <c r="T119" s="32">
+        <v>0</v>
+      </c>
+      <c r="U119" s="32">
         <v>0</v>
       </c>
     </row>
@@ -10343,19 +10488,19 @@
         <v>117</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K120" s="34">
         <v>1</v>
@@ -10391,24 +10536,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
         <v>118</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>501</v>
+        <v>295</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>510</v>
+        <v>297</v>
       </c>
       <c r="F121" s="35" t="s">
-        <v>502</v>
+        <v>297</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10449,19 +10594,19 @@
         <v>119</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10502,19 +10647,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>296</v>
+        <v>499</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>231</v>
+        <v>507</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>300</v>
+        <v>508</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10555,19 +10700,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10608,19 +10753,19 @@
         <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10661,16 +10806,16 @@
         <v>123</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>493</v>
+        <v>310</v>
       </c>
       <c r="F126" s="35" t="s">
         <v>310</v>
@@ -10714,19 +10859,19 @@
         <v>124</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>491</v>
+        <v>234</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E127" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="F127" s="34" t="s">
-        <v>232</v>
+        <v>197</v>
+      </c>
+      <c r="E127" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F127" s="35" t="s">
+        <v>235</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10767,19 +10912,19 @@
         <v>125</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>506</v>
+        <v>309</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10820,19 +10965,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E129" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F129" s="35" t="s">
-        <v>312</v>
+        <v>228</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -10873,19 +11018,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>306</v>
+        <v>503</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>307</v>
+        <v>510</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>307</v>
+        <v>504</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -10926,19 +11071,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D131" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -10974,24 +11119,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="29">
         <v>129</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F132" s="34" t="s">
-        <v>234</v>
+        <v>307</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>306</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -11032,19 +11177,19 @@
         <v>130</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -11080,24 +11225,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
         <v>131</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F134" s="35" t="s">
-        <v>297</v>
+        <v>315</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11138,19 +11283,19 @@
         <v>132</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11191,19 +11336,19 @@
         <v>133</v>
       </c>
       <c r="B136" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E136" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C136" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="F136" s="34" t="s">
-        <v>237</v>
+      <c r="F136" s="35" t="s">
+        <v>296</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11244,19 +11389,19 @@
         <v>134</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11297,19 +11442,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E138" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="F138" s="35" t="s">
-        <v>317</v>
+        <v>197</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F138" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11350,19 +11495,19 @@
         <v>136</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>446</v>
+        <v>242</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>447</v>
+        <v>318</v>
       </c>
       <c r="F139" s="35" t="s">
-        <v>447</v>
+        <v>318</v>
       </c>
       <c r="K139" s="34">
         <v>1</v>
@@ -11403,19 +11548,19 @@
         <v>137</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>503</v>
+        <v>314</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>511</v>
+        <v>316</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>504</v>
+        <v>316</v>
       </c>
       <c r="K140" s="34">
         <v>1</v>
@@ -11451,103 +11596,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="29">
         <v>138</v>
       </c>
-      <c r="B141" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="D141" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E141" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="K141" s="37">
-        <v>1</v>
-      </c>
-      <c r="L141" s="37">
-        <v>1</v>
-      </c>
-      <c r="M141" s="37">
-        <v>1</v>
-      </c>
-      <c r="N141" s="37">
-        <v>1</v>
-      </c>
-      <c r="O141" s="37">
-        <v>1</v>
-      </c>
-      <c r="P141" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="37">
-        <v>0</v>
-      </c>
-      <c r="R141" s="37">
-        <v>0</v>
-      </c>
-      <c r="S141" s="37">
-        <v>0</v>
-      </c>
-      <c r="T141" s="37">
-        <v>0</v>
-      </c>
-      <c r="U141" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="F141" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="K141" s="34">
+        <v>1</v>
+      </c>
+      <c r="L141" s="34">
+        <v>1</v>
+      </c>
+      <c r="M141" s="34">
+        <v>1</v>
+      </c>
+      <c r="N141" s="34">
+        <v>1</v>
+      </c>
+      <c r="O141" s="34">
+        <v>1</v>
+      </c>
+      <c r="P141" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="34">
+        <v>0</v>
+      </c>
+      <c r="R141" s="34">
+        <v>0</v>
+      </c>
+      <c r="S141" s="34">
+        <v>0</v>
+      </c>
+      <c r="T141" s="34">
+        <v>0</v>
+      </c>
+      <c r="U141" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="29">
         <v>139</v>
       </c>
-      <c r="B142" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C142" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D142" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="K142" s="37">
-        <v>1</v>
-      </c>
-      <c r="L142" s="37">
-        <v>1</v>
-      </c>
-      <c r="M142" s="37">
-        <v>1</v>
-      </c>
-      <c r="N142" s="37">
-        <v>1</v>
-      </c>
-      <c r="O142" s="37">
-        <v>1</v>
-      </c>
-      <c r="P142" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="37">
-        <v>0</v>
-      </c>
-      <c r="R142" s="37">
-        <v>0</v>
-      </c>
-      <c r="S142" s="37">
-        <v>0</v>
-      </c>
-      <c r="T142" s="37">
-        <v>0</v>
-      </c>
-      <c r="U142" s="37">
+      <c r="B142" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="F142" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="K142" s="34">
+        <v>1</v>
+      </c>
+      <c r="L142" s="34">
+        <v>1</v>
+      </c>
+      <c r="M142" s="34">
+        <v>1</v>
+      </c>
+      <c r="N142" s="34">
+        <v>1</v>
+      </c>
+      <c r="O142" s="34">
+        <v>1</v>
+      </c>
+      <c r="P142" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="34">
+        <v>0</v>
+      </c>
+      <c r="R142" s="34">
+        <v>0</v>
+      </c>
+      <c r="S142" s="34">
+        <v>0</v>
+      </c>
+      <c r="T142" s="34">
+        <v>0</v>
+      </c>
+      <c r="U142" s="34">
         <v>0</v>
       </c>
     </row>
@@ -11559,13 +11710,13 @@
         <v>245</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K143" s="37">
         <v>1</v>
@@ -11601,103 +11752,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
         <v>141</v>
       </c>
-      <c r="B144" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="K144" s="32">
-        <v>1</v>
-      </c>
-      <c r="L144" s="32">
-        <v>1</v>
-      </c>
-      <c r="M144" s="32">
-        <v>1</v>
-      </c>
-      <c r="N144" s="32">
-        <v>1</v>
-      </c>
-      <c r="O144" s="32">
-        <v>0</v>
-      </c>
-      <c r="P144" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="32">
-        <v>0</v>
-      </c>
-      <c r="R144" s="32">
-        <v>0</v>
-      </c>
-      <c r="S144" s="32">
-        <v>0</v>
-      </c>
-      <c r="T144" s="32">
-        <v>0</v>
-      </c>
-      <c r="U144" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K144" s="37">
+        <v>1</v>
+      </c>
+      <c r="L144" s="37">
+        <v>1</v>
+      </c>
+      <c r="M144" s="37">
+        <v>1</v>
+      </c>
+      <c r="N144" s="37">
+        <v>1</v>
+      </c>
+      <c r="O144" s="37">
+        <v>1</v>
+      </c>
+      <c r="P144" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="37">
+        <v>0</v>
+      </c>
+      <c r="R144" s="37">
+        <v>0</v>
+      </c>
+      <c r="S144" s="37">
+        <v>0</v>
+      </c>
+      <c r="T144" s="37">
+        <v>0</v>
+      </c>
+      <c r="U144" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="29">
         <v>142</v>
       </c>
-      <c r="B145" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="K145" s="32">
-        <v>1</v>
-      </c>
-      <c r="L145" s="32">
-        <v>0</v>
-      </c>
-      <c r="M145" s="32">
-        <v>1</v>
-      </c>
-      <c r="N145" s="32">
-        <v>1</v>
-      </c>
-      <c r="O145" s="32">
-        <v>0</v>
-      </c>
-      <c r="P145" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="32">
-        <v>0</v>
-      </c>
-      <c r="R145" s="32">
-        <v>0</v>
-      </c>
-      <c r="S145" s="32">
-        <v>0</v>
-      </c>
-      <c r="T145" s="32">
-        <v>0</v>
-      </c>
-      <c r="U145" s="32">
+      <c r="B145" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E145" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K145" s="37">
+        <v>1</v>
+      </c>
+      <c r="L145" s="37">
+        <v>1</v>
+      </c>
+      <c r="M145" s="37">
+        <v>1</v>
+      </c>
+      <c r="N145" s="37">
+        <v>1</v>
+      </c>
+      <c r="O145" s="37">
+        <v>1</v>
+      </c>
+      <c r="P145" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="37">
+        <v>0</v>
+      </c>
+      <c r="R145" s="37">
+        <v>0</v>
+      </c>
+      <c r="S145" s="37">
+        <v>0</v>
+      </c>
+      <c r="T145" s="37">
+        <v>0</v>
+      </c>
+      <c r="U145" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11706,22 +11857,22 @@
         <v>143</v>
       </c>
       <c r="B146" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C146" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>279</v>
-      </c>
       <c r="K146" s="32">
         <v>1</v>
       </c>
       <c r="L146" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" s="32">
         <v>1</v>
@@ -11756,16 +11907,16 @@
         <v>144</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -11801,59 +11952,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="29">
         <v>145</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C148" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="D148" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E148" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="H148" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="I148" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K148" s="40">
-        <v>1</v>
-      </c>
-      <c r="L148" s="40">
-        <v>0</v>
-      </c>
-      <c r="M148" s="40">
-        <v>1</v>
-      </c>
-      <c r="N148" s="40">
-        <v>1</v>
-      </c>
-      <c r="O148" s="40">
-        <v>0</v>
-      </c>
-      <c r="P148" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="40">
-        <v>0</v>
-      </c>
-      <c r="R148" s="40">
-        <v>0</v>
-      </c>
-      <c r="S148" s="40">
-        <v>0</v>
-      </c>
-      <c r="T148" s="40">
-        <v>0</v>
-      </c>
-      <c r="U148" s="40">
+        <v>263</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K148" s="32">
+        <v>1</v>
+      </c>
+      <c r="L148" s="32">
+        <v>0</v>
+      </c>
+      <c r="M148" s="32">
+        <v>1</v>
+      </c>
+      <c r="N148" s="32">
+        <v>1</v>
+      </c>
+      <c r="O148" s="32">
+        <v>0</v>
+      </c>
+      <c r="P148" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="32">
+        <v>0</v>
+      </c>
+      <c r="R148" s="32">
+        <v>0</v>
+      </c>
+      <c r="S148" s="32">
+        <v>0</v>
+      </c>
+      <c r="T148" s="32">
+        <v>0</v>
+      </c>
+      <c r="U148" s="32">
         <v>0</v>
       </c>
     </row>
@@ -11862,16 +12007,16 @@
         <v>146</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>196</v>
+        <v>484</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -11907,79 +12052,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
         <v>147</v>
       </c>
       <c r="B150" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C150" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C150" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E150" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H150" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="K150" s="32">
-        <v>1</v>
-      </c>
-      <c r="L150" s="32">
-        <v>0</v>
-      </c>
-      <c r="M150" s="32">
-        <v>1</v>
-      </c>
-      <c r="N150" s="32">
-        <v>1</v>
-      </c>
-      <c r="O150" s="32">
-        <v>0</v>
-      </c>
-      <c r="P150" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="32">
-        <v>0</v>
-      </c>
-      <c r="R150" s="32">
-        <v>0</v>
-      </c>
-      <c r="S150" s="32">
-        <v>0</v>
-      </c>
-      <c r="T150" s="32">
-        <v>0</v>
-      </c>
-      <c r="U150" s="32">
-        <v>0</v>
-      </c>
-      <c r="V150" s="39"/>
-      <c r="W150" s="39"/>
+      <c r="D150" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E150" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I150" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K150" s="40">
+        <v>1</v>
+      </c>
+      <c r="L150" s="40">
+        <v>0</v>
+      </c>
+      <c r="M150" s="40">
+        <v>1</v>
+      </c>
+      <c r="N150" s="40">
+        <v>1</v>
+      </c>
+      <c r="O150" s="40">
+        <v>0</v>
+      </c>
+      <c r="P150" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="40">
+        <v>0</v>
+      </c>
+      <c r="R150" s="40">
+        <v>0</v>
+      </c>
+      <c r="S150" s="40">
+        <v>0</v>
+      </c>
+      <c r="T150" s="40">
+        <v>0</v>
+      </c>
+      <c r="U150" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="K151" s="32">
         <v>1</v>
@@ -12020,16 +12163,22 @@
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>262</v>
+        <v>267</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D152" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E152" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H152" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I152" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="K152" s="32">
         <v>1</v>
@@ -12064,25 +12213,24 @@
       <c r="U152" s="32">
         <v>0</v>
       </c>
+      <c r="V152" s="39"/>
+      <c r="W152" s="39"/>
     </row>
     <row r="153" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="29">
         <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="G153" s="32">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -12123,16 +12271,16 @@
         <v>151</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>455</v>
+        <v>260</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12143,7 +12291,7 @@
       <c r="M154" s="32">
         <v>1</v>
       </c>
-      <c r="N154" s="40">
+      <c r="N154" s="32">
         <v>1</v>
       </c>
       <c r="O154" s="32">
@@ -12173,16 +12321,19 @@
         <v>152</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>324</v>
+        <v>277</v>
+      </c>
+      <c r="G155" s="32">
+        <v>1</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12193,7 +12344,7 @@
       <c r="M155" s="32">
         <v>1</v>
       </c>
-      <c r="N155" s="40">
+      <c r="N155" s="32">
         <v>1</v>
       </c>
       <c r="O155" s="32">
@@ -12223,16 +12374,16 @@
         <v>153</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>326</v>
+        <v>486</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12273,16 +12424,16 @@
         <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>330</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12323,22 +12474,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="D158" s="38" t="s">
-        <v>124</v>
+        <v>324</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H158" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I158" s="33" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="K158" s="32">
         <v>1</v>
@@ -12373,24 +12518,22 @@
       <c r="U158" s="32">
         <v>0</v>
       </c>
-      <c r="V158" s="39"/>
-      <c r="W158" s="39"/>
     </row>
     <row r="159" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="29">
         <v>156</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>455</v>
+        <v>328</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="K159" s="32">
         <v>1</v>
@@ -12426,21 +12569,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="29">
         <v>157</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>431</v>
+        <v>326</v>
+      </c>
+      <c r="D160" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>432</v>
+        <v>327</v>
+      </c>
+      <c r="H160" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I160" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12475,28 +12624,24 @@
       <c r="U160" s="32">
         <v>0</v>
       </c>
+      <c r="V160" s="39"/>
+      <c r="W160" s="39"/>
     </row>
     <row r="161" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="29">
         <v>158</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D161" s="38" t="s">
-        <v>124</v>
+        <v>453</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H161" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I161" s="33" t="s">
-        <v>196</v>
+        <v>454</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12531,24 +12676,22 @@
       <c r="U161" s="32">
         <v>0</v>
       </c>
-      <c r="V161" s="39"/>
-      <c r="W161" s="39"/>
-    </row>
-    <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
         <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D162" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="C162" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="33" t="s">
-        <v>99</v>
-      </c>
       <c r="E162" s="33" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12584,139 +12727,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9">
-        <v>1</v>
-      </c>
-      <c r="L163" s="9">
-        <v>0</v>
-      </c>
-      <c r="M163" s="9">
-        <v>1</v>
-      </c>
-      <c r="N163" s="9">
-        <v>0</v>
-      </c>
-      <c r="O163" s="9">
-        <v>0</v>
-      </c>
-      <c r="P163" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="9">
-        <v>0</v>
-      </c>
-      <c r="R163" s="9">
-        <v>0</v>
-      </c>
-      <c r="S163" s="9">
-        <v>0</v>
-      </c>
-      <c r="T163" s="9">
-        <v>0</v>
-      </c>
-      <c r="U163" s="9">
-        <v>0</v>
-      </c>
-      <c r="V163" s="9"/>
-      <c r="W163" s="9"/>
-      <c r="X163" s="9"/>
-      <c r="Y163" s="9"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B163" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E163" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H163" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I163" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="K163" s="32">
+        <v>1</v>
+      </c>
+      <c r="L163" s="32">
+        <v>0</v>
+      </c>
+      <c r="M163" s="32">
+        <v>1</v>
+      </c>
+      <c r="N163" s="40">
+        <v>1</v>
+      </c>
+      <c r="O163" s="32">
+        <v>0</v>
+      </c>
+      <c r="P163" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="32">
+        <v>0</v>
+      </c>
+      <c r="R163" s="32">
+        <v>0</v>
+      </c>
+      <c r="S163" s="32">
+        <v>0</v>
+      </c>
+      <c r="T163" s="32">
+        <v>0</v>
+      </c>
+      <c r="U163" s="32">
+        <v>0</v>
+      </c>
+      <c r="V163" s="39"/>
+      <c r="W163" s="39"/>
+    </row>
+    <row r="164" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9">
-        <v>1</v>
-      </c>
-      <c r="L164" s="9">
-        <v>0</v>
-      </c>
-      <c r="M164" s="9">
-        <v>1</v>
-      </c>
-      <c r="N164" s="9">
-        <v>0</v>
-      </c>
-      <c r="O164" s="9">
-        <v>0</v>
-      </c>
-      <c r="P164" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="9">
-        <v>0</v>
-      </c>
-      <c r="R164" s="9">
-        <v>0</v>
-      </c>
-      <c r="S164" s="9">
-        <v>0</v>
-      </c>
-      <c r="T164" s="9">
-        <v>0</v>
-      </c>
-      <c r="U164" s="9">
-        <v>0</v>
-      </c>
-      <c r="V164" s="9"/>
-      <c r="W164" s="9"/>
-      <c r="X164" s="9"/>
-      <c r="Y164" s="9"/>
+      <c r="B164" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="K164" s="32">
+        <v>1</v>
+      </c>
+      <c r="L164" s="32">
+        <v>0</v>
+      </c>
+      <c r="M164" s="32">
+        <v>1</v>
+      </c>
+      <c r="N164" s="40">
+        <v>1</v>
+      </c>
+      <c r="O164" s="32">
+        <v>0</v>
+      </c>
+      <c r="P164" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="32">
+        <v>0</v>
+      </c>
+      <c r="R164" s="32">
+        <v>0</v>
+      </c>
+      <c r="S164" s="32">
+        <v>0</v>
+      </c>
+      <c r="T164" s="32">
+        <v>0</v>
+      </c>
+      <c r="U164" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
         <v>162</v>
       </c>
       <c r="B165" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E165" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -12766,16 +12899,16 @@
         <v>163</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>538</v>
+        <v>343</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -12825,16 +12958,16 @@
         <v>164</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>544</v>
+        <v>346</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>543</v>
+        <v>347</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -12884,16 +13017,16 @@
         <v>165</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -12904,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="L168" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168" s="9">
         <v>1</v>
@@ -12943,16 +13076,16 @@
         <v>166</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>351</v>
+        <v>541</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>352</v>
+        <v>540</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13002,16 +13135,16 @@
         <v>167</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13025,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="M170" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170" s="9">
         <v>0</v>
@@ -13061,16 +13194,16 @@
         <v>168</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E171" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13120,25 +13253,21 @@
         <v>169</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>549</v>
+        <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
-      <c r="H172" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="I172" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9">
         <v>1</v>
@@ -13147,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="M172" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" s="9">
         <v>0</v>
@@ -13183,16 +13312,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>554</v>
+        <v>348</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>555</v>
+        <v>351</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13203,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="L173" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173" s="9">
         <v>1</v>
@@ -13242,31 +13371,31 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>130</v>
+        <v>583</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="10" t="s">
-        <v>557</v>
+      <c r="H174" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>196</v>
+        <v>584</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9">
         <v>1</v>
       </c>
       <c r="L174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174" s="9">
         <v>1</v>
@@ -13305,21 +13434,25 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
+      <c r="H175" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9">
         <v>1</v>
@@ -13364,21 +13497,21 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>562</v>
+        <v>142</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9">
         <v>1</v>
@@ -13423,27 +13556,31 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>564</v>
+        <v>129</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
+      <c r="H177" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9">
         <v>1</v>
       </c>
       <c r="L177" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M177" s="9">
         <v>1</v>
@@ -13477,553 +13614,590 @@
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
     </row>
-    <row r="178" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A178" s="29">
         <v>175</v>
       </c>
-      <c r="B178" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C178" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="D178" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="E178" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="K178" s="43">
-        <v>1</v>
-      </c>
-      <c r="L178" s="43">
-        <v>1</v>
-      </c>
-      <c r="M178" s="43">
-        <v>1</v>
-      </c>
-      <c r="N178" s="43">
-        <v>1</v>
-      </c>
-      <c r="O178" s="43">
-        <v>1</v>
-      </c>
-      <c r="P178" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="43">
-        <v>0</v>
-      </c>
-      <c r="R178" s="43">
-        <v>0</v>
-      </c>
-      <c r="S178" s="43">
-        <v>0</v>
-      </c>
-      <c r="T178" s="43">
-        <v>0</v>
-      </c>
-      <c r="U178" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9">
+        <v>1</v>
+      </c>
+      <c r="L178" s="9">
+        <v>1</v>
+      </c>
+      <c r="M178" s="9">
+        <v>1</v>
+      </c>
+      <c r="N178" s="9">
+        <v>0</v>
+      </c>
+      <c r="O178" s="9">
+        <v>0</v>
+      </c>
+      <c r="P178" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="9">
+        <v>0</v>
+      </c>
+      <c r="R178" s="9">
+        <v>0</v>
+      </c>
+      <c r="S178" s="9">
+        <v>0</v>
+      </c>
+      <c r="T178" s="9">
+        <v>0</v>
+      </c>
+      <c r="U178" s="9">
+        <v>0</v>
+      </c>
+      <c r="V178" s="9"/>
+      <c r="W178" s="9"/>
+      <c r="X178" s="9"/>
+      <c r="Y178" s="9"/>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A179" s="29">
         <v>176</v>
       </c>
-      <c r="B179" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C179" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="D179" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="E179" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="K179" s="43">
-        <v>1</v>
-      </c>
-      <c r="L179" s="43">
-        <v>1</v>
-      </c>
-      <c r="M179" s="43">
-        <v>1</v>
-      </c>
-      <c r="N179" s="43">
-        <v>1</v>
-      </c>
-      <c r="O179" s="43">
-        <v>1</v>
-      </c>
-      <c r="P179" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q179" s="43">
-        <v>0</v>
-      </c>
-      <c r="R179" s="43">
-        <v>0</v>
-      </c>
-      <c r="S179" s="43">
-        <v>0</v>
-      </c>
-      <c r="T179" s="43">
-        <v>0</v>
-      </c>
-      <c r="U179" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9">
+        <v>1</v>
+      </c>
+      <c r="L179" s="9">
+        <v>1</v>
+      </c>
+      <c r="M179" s="9">
+        <v>1</v>
+      </c>
+      <c r="N179" s="9">
+        <v>0</v>
+      </c>
+      <c r="O179" s="9">
+        <v>0</v>
+      </c>
+      <c r="P179" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="9">
+        <v>0</v>
+      </c>
+      <c r="R179" s="9">
+        <v>0</v>
+      </c>
+      <c r="S179" s="9">
+        <v>0</v>
+      </c>
+      <c r="T179" s="9">
+        <v>0</v>
+      </c>
+      <c r="U179" s="9">
+        <v>0</v>
+      </c>
+      <c r="V179" s="9"/>
+      <c r="W179" s="9"/>
+      <c r="X179" s="9"/>
+      <c r="Y179" s="9"/>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A180" s="29">
         <v>177</v>
       </c>
-      <c r="B180" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C180" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="D180" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="E180" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="K180" s="43">
-        <v>1</v>
-      </c>
-      <c r="L180" s="43">
-        <v>1</v>
-      </c>
-      <c r="M180" s="43">
-        <v>1</v>
-      </c>
-      <c r="N180" s="43">
-        <v>1</v>
-      </c>
-      <c r="O180" s="43">
-        <v>1</v>
-      </c>
-      <c r="P180" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="43">
-        <v>0</v>
-      </c>
-      <c r="R180" s="43">
-        <v>0</v>
-      </c>
-      <c r="S180" s="43">
-        <v>0</v>
-      </c>
-      <c r="T180" s="43">
-        <v>0</v>
-      </c>
-      <c r="U180" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9">
+        <v>1</v>
+      </c>
+      <c r="L180" s="9">
+        <v>1</v>
+      </c>
+      <c r="M180" s="9">
+        <v>1</v>
+      </c>
+      <c r="N180" s="9">
+        <v>0</v>
+      </c>
+      <c r="O180" s="9">
+        <v>0</v>
+      </c>
+      <c r="P180" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="9">
+        <v>0</v>
+      </c>
+      <c r="R180" s="9">
+        <v>0</v>
+      </c>
+      <c r="S180" s="9">
+        <v>0</v>
+      </c>
+      <c r="T180" s="9">
+        <v>0</v>
+      </c>
+      <c r="U180" s="9">
+        <v>0</v>
+      </c>
+      <c r="V180" s="9"/>
+      <c r="W180" s="9"/>
+      <c r="X180" s="9"/>
+      <c r="Y180" s="9"/>
+    </row>
+    <row r="181" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
         <v>178</v>
       </c>
-      <c r="B181" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C181" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E181" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="K181" s="49">
-        <v>1</v>
-      </c>
-      <c r="L181" s="49">
-        <v>1</v>
-      </c>
-      <c r="M181" s="49">
-        <v>0</v>
-      </c>
-      <c r="N181" s="49">
-        <v>0</v>
-      </c>
-      <c r="O181" s="49">
-        <v>0</v>
-      </c>
-      <c r="P181" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="49">
-        <v>0</v>
-      </c>
-      <c r="R181" s="49">
-        <v>0</v>
-      </c>
-      <c r="S181" s="49">
-        <v>0</v>
-      </c>
-      <c r="T181" s="49">
-        <v>0</v>
-      </c>
-      <c r="U181" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="D181" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E181" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
+      <c r="K181" s="53">
+        <v>1</v>
+      </c>
+      <c r="L181" s="53">
+        <v>1</v>
+      </c>
+      <c r="M181" s="53">
+        <v>1</v>
+      </c>
+      <c r="N181" s="53">
+        <v>0</v>
+      </c>
+      <c r="O181" s="53">
+        <v>0</v>
+      </c>
+      <c r="P181" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="53">
+        <v>0</v>
+      </c>
+      <c r="R181" s="53">
+        <v>0</v>
+      </c>
+      <c r="S181" s="53">
+        <v>0</v>
+      </c>
+      <c r="T181" s="53">
+        <v>0</v>
+      </c>
+      <c r="U181" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
         <v>179</v>
       </c>
-      <c r="B182" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C182" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="D182" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E182" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="K182" s="49">
-        <v>1</v>
-      </c>
-      <c r="L182" s="49">
-        <v>1</v>
-      </c>
-      <c r="M182" s="49">
-        <v>0</v>
-      </c>
-      <c r="N182" s="49">
-        <v>0</v>
-      </c>
-      <c r="O182" s="49">
-        <v>0</v>
-      </c>
-      <c r="P182" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="49">
-        <v>0</v>
-      </c>
-      <c r="R182" s="49">
-        <v>0</v>
-      </c>
-      <c r="S182" s="49">
-        <v>0</v>
-      </c>
-      <c r="T182" s="49">
-        <v>0</v>
-      </c>
-      <c r="U182" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C182" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="D182" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E182" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H182" s="52"/>
+      <c r="I182" s="52"/>
+      <c r="K182" s="53">
+        <v>1</v>
+      </c>
+      <c r="L182" s="53">
+        <v>1</v>
+      </c>
+      <c r="M182" s="53">
+        <v>1</v>
+      </c>
+      <c r="N182" s="53">
+        <v>0</v>
+      </c>
+      <c r="O182" s="53">
+        <v>0</v>
+      </c>
+      <c r="P182" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="53">
+        <v>0</v>
+      </c>
+      <c r="R182" s="53">
+        <v>0</v>
+      </c>
+      <c r="S182" s="53">
+        <v>0</v>
+      </c>
+      <c r="T182" s="53">
+        <v>0</v>
+      </c>
+      <c r="U182" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
         <v>180</v>
       </c>
-      <c r="B183" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C183" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E183" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="K183" s="49">
-        <v>1</v>
-      </c>
-      <c r="L183" s="49">
-        <v>1</v>
-      </c>
-      <c r="M183" s="49">
-        <v>0</v>
-      </c>
-      <c r="N183" s="49">
-        <v>0</v>
-      </c>
-      <c r="O183" s="49">
-        <v>0</v>
-      </c>
-      <c r="P183" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="49">
-        <v>0</v>
-      </c>
-      <c r="R183" s="49">
-        <v>0</v>
-      </c>
-      <c r="S183" s="49">
-        <v>0</v>
-      </c>
-      <c r="T183" s="49">
-        <v>0</v>
-      </c>
-      <c r="U183" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C183" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="D183" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E183" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="H183" s="52"/>
+      <c r="I183" s="52"/>
+      <c r="K183" s="53">
+        <v>1</v>
+      </c>
+      <c r="L183" s="53">
+        <v>1</v>
+      </c>
+      <c r="M183" s="53">
+        <v>0</v>
+      </c>
+      <c r="N183" s="53">
+        <v>0</v>
+      </c>
+      <c r="O183" s="53">
+        <v>0</v>
+      </c>
+      <c r="P183" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="53">
+        <v>0</v>
+      </c>
+      <c r="R183" s="53">
+        <v>0</v>
+      </c>
+      <c r="S183" s="53">
+        <v>0</v>
+      </c>
+      <c r="T183" s="53">
+        <v>0</v>
+      </c>
+      <c r="U183" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
         <v>181</v>
       </c>
-      <c r="B184" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C184" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="D184" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E184" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="K184" s="49">
-        <v>1</v>
-      </c>
-      <c r="L184" s="49">
-        <v>1</v>
-      </c>
-      <c r="M184" s="49">
-        <v>0</v>
-      </c>
-      <c r="N184" s="49">
-        <v>0</v>
-      </c>
-      <c r="O184" s="49">
-        <v>0</v>
-      </c>
-      <c r="P184" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="49">
-        <v>0</v>
-      </c>
-      <c r="R184" s="49">
-        <v>0</v>
-      </c>
-      <c r="S184" s="49">
-        <v>0</v>
-      </c>
-      <c r="T184" s="49">
-        <v>0</v>
-      </c>
-      <c r="U184" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="C184" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="D184" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E184" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="H184" s="54"/>
+      <c r="I184" s="54"/>
+      <c r="K184" s="55">
+        <v>1</v>
+      </c>
+      <c r="L184" s="55">
+        <v>1</v>
+      </c>
+      <c r="M184" s="55">
+        <v>1</v>
+      </c>
+      <c r="N184" s="55">
+        <v>0</v>
+      </c>
+      <c r="O184" s="55">
+        <v>0</v>
+      </c>
+      <c r="P184" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="55">
+        <v>0</v>
+      </c>
+      <c r="R184" s="55">
+        <v>0</v>
+      </c>
+      <c r="S184" s="55">
+        <v>0</v>
+      </c>
+      <c r="T184" s="55">
+        <v>0</v>
+      </c>
+      <c r="U184" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
         <v>182</v>
       </c>
-      <c r="B185" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="D185" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E185" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="K185" s="49">
-        <v>1</v>
-      </c>
-      <c r="L185" s="49">
-        <v>1</v>
-      </c>
-      <c r="M185" s="49">
-        <v>0</v>
-      </c>
-      <c r="N185" s="49">
-        <v>0</v>
-      </c>
-      <c r="O185" s="49">
-        <v>0</v>
-      </c>
-      <c r="P185" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="49">
-        <v>0</v>
-      </c>
-      <c r="R185" s="49">
-        <v>0</v>
-      </c>
-      <c r="S185" s="49">
-        <v>0</v>
-      </c>
-      <c r="T185" s="49">
-        <v>0</v>
-      </c>
-      <c r="U185" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="C185" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="D185" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E185" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+      <c r="K185" s="55">
+        <v>1</v>
+      </c>
+      <c r="L185" s="55">
+        <v>1</v>
+      </c>
+      <c r="M185" s="55">
+        <v>1</v>
+      </c>
+      <c r="N185" s="55">
+        <v>0</v>
+      </c>
+      <c r="O185" s="55">
+        <v>0</v>
+      </c>
+      <c r="P185" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="55">
+        <v>0</v>
+      </c>
+      <c r="R185" s="55">
+        <v>0</v>
+      </c>
+      <c r="S185" s="55">
+        <v>0</v>
+      </c>
+      <c r="T185" s="55">
+        <v>0</v>
+      </c>
+      <c r="U185" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
         <v>183</v>
       </c>
-      <c r="B186" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C186" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D186" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E186" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="K186" s="49">
-        <v>1</v>
-      </c>
-      <c r="L186" s="49">
-        <v>1</v>
-      </c>
-      <c r="M186" s="49">
-        <v>0</v>
-      </c>
-      <c r="N186" s="49">
-        <v>0</v>
-      </c>
-      <c r="O186" s="49">
-        <v>0</v>
-      </c>
-      <c r="P186" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="49">
-        <v>0</v>
-      </c>
-      <c r="R186" s="49">
-        <v>0</v>
-      </c>
-      <c r="S186" s="49">
-        <v>0</v>
-      </c>
-      <c r="T186" s="49">
-        <v>0</v>
-      </c>
-      <c r="U186" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C186" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="D186" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E186" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K186" s="43">
+        <v>1</v>
+      </c>
+      <c r="L186" s="43">
+        <v>1</v>
+      </c>
+      <c r="M186" s="43">
+        <v>1</v>
+      </c>
+      <c r="N186" s="43">
+        <v>1</v>
+      </c>
+      <c r="O186" s="43">
+        <v>1</v>
+      </c>
+      <c r="P186" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="43">
+        <v>0</v>
+      </c>
+      <c r="R186" s="43">
+        <v>0</v>
+      </c>
+      <c r="S186" s="43">
+        <v>0</v>
+      </c>
+      <c r="T186" s="43">
+        <v>0</v>
+      </c>
+      <c r="U186" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
         <v>184</v>
       </c>
-      <c r="B187" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C187" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="D187" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E187" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="K187" s="49">
-        <v>1</v>
-      </c>
-      <c r="L187" s="49">
-        <v>1</v>
-      </c>
-      <c r="M187" s="49">
-        <v>0</v>
-      </c>
-      <c r="N187" s="49">
-        <v>0</v>
-      </c>
-      <c r="O187" s="49">
-        <v>0</v>
-      </c>
-      <c r="P187" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="49">
-        <v>0</v>
-      </c>
-      <c r="R187" s="49">
-        <v>0</v>
-      </c>
-      <c r="S187" s="49">
-        <v>0</v>
-      </c>
-      <c r="T187" s="49">
-        <v>0</v>
-      </c>
-      <c r="U187" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E187" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K187" s="43">
+        <v>1</v>
+      </c>
+      <c r="L187" s="43">
+        <v>1</v>
+      </c>
+      <c r="M187" s="43">
+        <v>1</v>
+      </c>
+      <c r="N187" s="43">
+        <v>1</v>
+      </c>
+      <c r="O187" s="43">
+        <v>1</v>
+      </c>
+      <c r="P187" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="43">
+        <v>0</v>
+      </c>
+      <c r="R187" s="43">
+        <v>0</v>
+      </c>
+      <c r="S187" s="43">
+        <v>0</v>
+      </c>
+      <c r="T187" s="43">
+        <v>0</v>
+      </c>
+      <c r="U187" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
         <v>185</v>
       </c>
-      <c r="B188" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C188" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="D188" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E188" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="K188" s="49">
-        <v>1</v>
-      </c>
-      <c r="L188" s="49">
-        <v>1</v>
-      </c>
-      <c r="M188" s="49">
-        <v>0</v>
-      </c>
-      <c r="N188" s="49">
-        <v>0</v>
-      </c>
-      <c r="O188" s="49">
-        <v>0</v>
-      </c>
-      <c r="P188" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="49">
-        <v>0</v>
-      </c>
-      <c r="R188" s="49">
-        <v>0</v>
-      </c>
-      <c r="S188" s="49">
-        <v>0</v>
-      </c>
-      <c r="T188" s="49">
-        <v>0</v>
-      </c>
-      <c r="U188" s="49">
+      <c r="B188" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="D188" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E188" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K188" s="43">
+        <v>1</v>
+      </c>
+      <c r="L188" s="43">
+        <v>1</v>
+      </c>
+      <c r="M188" s="43">
+        <v>1</v>
+      </c>
+      <c r="N188" s="43">
+        <v>1</v>
+      </c>
+      <c r="O188" s="43">
+        <v>1</v>
+      </c>
+      <c r="P188" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="43">
+        <v>0</v>
+      </c>
+      <c r="R188" s="43">
+        <v>0</v>
+      </c>
+      <c r="S188" s="43">
+        <v>0</v>
+      </c>
+      <c r="T188" s="43">
+        <v>0</v>
+      </c>
+      <c r="U188" s="43">
         <v>0</v>
       </c>
     </row>
@@ -14032,16 +14206,16 @@
         <v>186</v>
       </c>
       <c r="B189" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D189" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E189" s="48" t="s">
         <v>382</v>
-      </c>
-      <c r="C189" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D189" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E189" s="48" t="s">
-        <v>398</v>
       </c>
       <c r="K189" s="49">
         <v>1</v>
@@ -14082,16 +14256,16 @@
         <v>187</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="K190" s="49">
         <v>1</v>
@@ -14132,16 +14306,16 @@
         <v>188</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C191" s="49" t="s">
-        <v>401</v>
+        <v>380</v>
+      </c>
+      <c r="C191" s="48" t="s">
+        <v>451</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="K191" s="49">
         <v>1</v>
@@ -14182,16 +14356,16 @@
         <v>189</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D192" s="48" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="K192" s="49">
         <v>1</v>
@@ -14232,16 +14406,16 @@
         <v>190</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="D193" s="48" t="s">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="K193" s="49">
         <v>1</v>
@@ -14282,16 +14456,16 @@
         <v>191</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
       <c r="D194" s="48" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="K194" s="49">
         <v>1</v>
@@ -14332,16 +14506,16 @@
         <v>192</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="D195" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>477</v>
+        <v>392</v>
       </c>
       <c r="K195" s="49">
         <v>1</v>
@@ -14382,16 +14556,16 @@
         <v>193</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>482</v>
+        <v>393</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="K196" s="49">
         <v>1</v>
@@ -14432,16 +14606,16 @@
         <v>194</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="K197" s="49">
         <v>1</v>
@@ -14482,16 +14656,16 @@
         <v>195</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>387</v>
+        <v>197</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14532,16 +14706,16 @@
         <v>196</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C199" s="48" t="s">
-        <v>411</v>
+        <v>380</v>
+      </c>
+      <c r="C199" s="49" t="s">
+        <v>399</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14582,16 +14756,16 @@
         <v>197</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D200" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14632,16 +14806,16 @@
         <v>198</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C201" s="48" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14682,18 +14856,17 @@
         <v>199</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="D202" s="48" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="H202" s="48"/>
+        <v>474</v>
+      </c>
       <c r="K202" s="49">
         <v>1</v>
       </c>
@@ -14728,108 +14901,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="29">
         <v>200</v>
       </c>
-      <c r="B203" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="C203" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="D203" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="E203" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="K203" s="51">
-        <v>1</v>
-      </c>
-      <c r="L203" s="51">
-        <v>1</v>
-      </c>
-      <c r="M203" s="51">
-        <v>1</v>
-      </c>
-      <c r="N203" s="51">
-        <v>1</v>
-      </c>
-      <c r="O203" s="51">
-        <v>0</v>
-      </c>
-      <c r="P203" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="51">
-        <v>0</v>
-      </c>
-      <c r="R203" s="51">
-        <v>0</v>
-      </c>
-      <c r="S203" s="51">
-        <v>0</v>
-      </c>
-      <c r="T203" s="51">
-        <v>0</v>
-      </c>
-      <c r="U203" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D203" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E203" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K203" s="49">
+        <v>1</v>
+      </c>
+      <c r="L203" s="49">
+        <v>1</v>
+      </c>
+      <c r="M203" s="49">
+        <v>0</v>
+      </c>
+      <c r="N203" s="49">
+        <v>0</v>
+      </c>
+      <c r="O203" s="49">
+        <v>0</v>
+      </c>
+      <c r="P203" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="49">
+        <v>0</v>
+      </c>
+      <c r="R203" s="49">
+        <v>0</v>
+      </c>
+      <c r="S203" s="49">
+        <v>0</v>
+      </c>
+      <c r="T203" s="49">
+        <v>0</v>
+      </c>
+      <c r="U203" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29">
         <v>201</v>
       </c>
-      <c r="B204" s="50" t="s">
+      <c r="B204" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C204" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="D204" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E204" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="K204" s="49">
+        <v>1</v>
+      </c>
+      <c r="L204" s="49">
+        <v>1</v>
+      </c>
+      <c r="M204" s="49">
+        <v>0</v>
+      </c>
+      <c r="N204" s="49">
+        <v>0</v>
+      </c>
+      <c r="O204" s="49">
+        <v>0</v>
+      </c>
+      <c r="P204" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="49">
+        <v>0</v>
+      </c>
+      <c r="R204" s="49">
+        <v>0</v>
+      </c>
+      <c r="S204" s="49">
+        <v>0</v>
+      </c>
+      <c r="T204" s="49">
+        <v>0</v>
+      </c>
+      <c r="U204" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="29">
+        <v>202</v>
+      </c>
+      <c r="B205" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D205" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E205" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="K205" s="49">
+        <v>1</v>
+      </c>
+      <c r="L205" s="49">
+        <v>1</v>
+      </c>
+      <c r="M205" s="49">
+        <v>0</v>
+      </c>
+      <c r="N205" s="49">
+        <v>0</v>
+      </c>
+      <c r="O205" s="49">
+        <v>0</v>
+      </c>
+      <c r="P205" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="49">
+        <v>0</v>
+      </c>
+      <c r="R205" s="49">
+        <v>0</v>
+      </c>
+      <c r="S205" s="49">
+        <v>0</v>
+      </c>
+      <c r="T205" s="49">
+        <v>0</v>
+      </c>
+      <c r="U205" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="29">
+        <v>203</v>
+      </c>
+      <c r="B206" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C206" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D206" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K206" s="49">
+        <v>1</v>
+      </c>
+      <c r="L206" s="49">
+        <v>1</v>
+      </c>
+      <c r="M206" s="49">
+        <v>0</v>
+      </c>
+      <c r="N206" s="49">
+        <v>0</v>
+      </c>
+      <c r="O206" s="49">
+        <v>0</v>
+      </c>
+      <c r="P206" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="49">
+        <v>0</v>
+      </c>
+      <c r="R206" s="49">
+        <v>0</v>
+      </c>
+      <c r="S206" s="49">
+        <v>0</v>
+      </c>
+      <c r="T206" s="49">
+        <v>0</v>
+      </c>
+      <c r="U206" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="29">
+        <v>204</v>
+      </c>
+      <c r="B207" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D207" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="K207" s="49">
+        <v>1</v>
+      </c>
+      <c r="L207" s="49">
+        <v>1</v>
+      </c>
+      <c r="M207" s="49">
+        <v>0</v>
+      </c>
+      <c r="N207" s="49">
+        <v>0</v>
+      </c>
+      <c r="O207" s="49">
+        <v>0</v>
+      </c>
+      <c r="P207" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="49">
+        <v>0</v>
+      </c>
+      <c r="R207" s="49">
+        <v>0</v>
+      </c>
+      <c r="S207" s="49">
+        <v>0</v>
+      </c>
+      <c r="T207" s="49">
+        <v>0</v>
+      </c>
+      <c r="U207" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="29">
+        <v>205</v>
+      </c>
+      <c r="B208" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D208" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E208" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K208" s="49">
+        <v>1</v>
+      </c>
+      <c r="L208" s="49">
+        <v>1</v>
+      </c>
+      <c r="M208" s="49">
+        <v>0</v>
+      </c>
+      <c r="N208" s="49">
+        <v>0</v>
+      </c>
+      <c r="O208" s="49">
+        <v>0</v>
+      </c>
+      <c r="P208" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="49">
+        <v>0</v>
+      </c>
+      <c r="R208" s="49">
+        <v>0</v>
+      </c>
+      <c r="S208" s="49">
+        <v>0</v>
+      </c>
+      <c r="T208" s="49">
+        <v>0</v>
+      </c>
+      <c r="U208" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="29">
+        <v>206</v>
+      </c>
+      <c r="B209" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D209" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K209" s="49">
+        <v>1</v>
+      </c>
+      <c r="L209" s="49">
+        <v>1</v>
+      </c>
+      <c r="M209" s="49">
+        <v>0</v>
+      </c>
+      <c r="N209" s="49">
+        <v>0</v>
+      </c>
+      <c r="O209" s="49">
+        <v>0</v>
+      </c>
+      <c r="P209" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="49">
+        <v>0</v>
+      </c>
+      <c r="R209" s="49">
+        <v>0</v>
+      </c>
+      <c r="S209" s="49">
+        <v>0</v>
+      </c>
+      <c r="T209" s="49">
+        <v>0</v>
+      </c>
+      <c r="U209" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="29">
+        <v>207</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="H210" s="48"/>
+      <c r="K210" s="49">
+        <v>1</v>
+      </c>
+      <c r="L210" s="49">
+        <v>1</v>
+      </c>
+      <c r="M210" s="49">
+        <v>0</v>
+      </c>
+      <c r="N210" s="49">
+        <v>0</v>
+      </c>
+      <c r="O210" s="49">
+        <v>0</v>
+      </c>
+      <c r="P210" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="49">
+        <v>0</v>
+      </c>
+      <c r="R210" s="49">
+        <v>0</v>
+      </c>
+      <c r="S210" s="49">
+        <v>0</v>
+      </c>
+      <c r="T210" s="49">
+        <v>0</v>
+      </c>
+      <c r="U210" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="29">
+        <v>208</v>
+      </c>
+      <c r="B211" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C211" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="D211" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C204" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="D204" s="50" t="s">
+      <c r="E211" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K211" s="51">
+        <v>1</v>
+      </c>
+      <c r="L211" s="51">
+        <v>1</v>
+      </c>
+      <c r="M211" s="51">
+        <v>1</v>
+      </c>
+      <c r="N211" s="51">
+        <v>1</v>
+      </c>
+      <c r="O211" s="51">
+        <v>0</v>
+      </c>
+      <c r="P211" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="51">
+        <v>0</v>
+      </c>
+      <c r="R211" s="51">
+        <v>0</v>
+      </c>
+      <c r="S211" s="51">
+        <v>0</v>
+      </c>
+      <c r="T211" s="51">
+        <v>0</v>
+      </c>
+      <c r="U211" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="29">
+        <v>209</v>
+      </c>
+      <c r="B212" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C212" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E204" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="K204" s="51">
-        <v>1</v>
-      </c>
-      <c r="L204" s="51">
-        <v>1</v>
-      </c>
-      <c r="M204" s="51">
-        <v>1</v>
-      </c>
-      <c r="N204" s="51">
-        <v>1</v>
-      </c>
-      <c r="O204" s="51">
-        <v>0</v>
-      </c>
-      <c r="P204" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="51">
-        <v>0</v>
-      </c>
-      <c r="R204" s="51">
-        <v>0</v>
-      </c>
-      <c r="S204" s="51">
-        <v>0</v>
-      </c>
-      <c r="T204" s="51">
-        <v>0</v>
-      </c>
-      <c r="U204" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A205" s="29"/>
+      <c r="D212" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="E212" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="K212" s="51">
+        <v>1</v>
+      </c>
+      <c r="L212" s="51">
+        <v>1</v>
+      </c>
+      <c r="M212" s="51">
+        <v>1</v>
+      </c>
+      <c r="N212" s="51">
+        <v>1</v>
+      </c>
+      <c r="O212" s="51">
+        <v>0</v>
+      </c>
+      <c r="P212" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="51">
+        <v>0</v>
+      </c>
+      <c r="R212" s="51">
+        <v>0</v>
+      </c>
+      <c r="S212" s="51">
+        <v>0</v>
+      </c>
+      <c r="T212" s="51">
+        <v>0</v>
+      </c>
+      <c r="U212" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A213" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="601">
   <si>
     <t>Class</t>
   </si>
@@ -1988,7 +1988,7 @@
   </si>
   <si>
     <r>
-      <t>心愿单商城i</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -1998,8 +1998,72 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>d</t>
+      <t>ime</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int64</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心愿单生成时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心愿单可见状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的最近列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2019,6 +2083,442 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家账号id(服务器使用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etting</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoopen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开门[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pi</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreview</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许他人查看历史战绩[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atchbattle</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许观战[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icture</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面品质[0,3]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数设置[0,3]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>utopick</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动拾取[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>picklistoff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起拾取列表时，停止自动拾取[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainsound</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oundeffects</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nterfacesound</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etting</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gm</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ike</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peaker</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬声器音量[0,100]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>howtime</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精彩时刻[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reerecord</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由录制[0,1]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ud</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义面板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线同步</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏设置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家渠道id(服务器使用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的玩家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家基础属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>u</t>
     </r>
@@ -2035,7 +2535,426 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>心愿单生成时间</t>
+    <t>RecentPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局排名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局击杀人数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局评分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总死亡数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系类型(0-队友，1-仇人)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalnum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局总人数或总队伍数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小眼睛灵敏度设置[0,2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyesdpi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头灵敏度设置[0,2]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起邀请的时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过时间( 防止快速操作造成数据混乱 )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动创建对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>键名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步查询者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐音量开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oundswitch</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfaceswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgmswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队伍信息, 队员包括自己</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配模式id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入队伍时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxcount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配队员信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axkill</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单场最多击伤数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总击杀数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupapply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>core</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>victory</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>opfive</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>kda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>averagekill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场均击杀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>doublescore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourscore</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜率(客户端显示需要除以10000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kda比(客户端显示需要除以10000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场均击杀(客户端显示需要除以10000)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationtype</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>recentplayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>skilllist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图鉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillData</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>killData</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2055,27 +2974,118 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>心愿单可见状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>record</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家的最近列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
+    <t>技能id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能熟练度评分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>captainid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignIn</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天签到数据(累计的天数)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenreward</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天领奖数据(按位累计)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sevenday</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派勋章</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派活跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2083,415 +3093,42 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家账号id(服务器使用)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>etting</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoopen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动开门[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pi</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreview</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许他人查看历史战绩[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>atchbattle</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许观战[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>icture</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面品质[0,3]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ps</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧数设置[0,3]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>utopick</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动拾取[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>picklistoff</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收起拾取列表时，停止自动拾取[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainsound</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oundeffects</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nterfacesound</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>etting</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gm</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ike</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克风音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>peaker</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬声器音量[0,100]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>howtime</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>精彩时刻[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>reerecord</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由录制[0,1]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ud</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义面板</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线同步</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏设置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家渠道id(服务器使用)</t>
+    <t>BasicPlayer</t>
+  </si>
+  <si>
+    <t>jointime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家总活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家职位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2499,462 +3136,78 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>GuildInvite</t>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>applytime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inviterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请者id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家申请的帮派列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GroupApply</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GroupApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的玩家</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家基础属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int64</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecentPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局排名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局击杀人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局评分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>die</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总死亡数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系类型(0-队友，1-仇人)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalnum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局总人数或总队伍数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小眼睛灵敏度设置[0,2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eyesdpi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头灵敏度设置[0,2]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起邀请的时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过时间( 防止快速操作造成数据混乱 )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatetime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动创建对象</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>键名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步查询者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sync</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐音量开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oundswitch</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>interfaceswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgmswitch</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配队伍信息, 队员包括自己</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配模式id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入队伍时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxcount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配队员信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>axkill</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单场最多击伤数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总击杀数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupapply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>core</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>victory</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>opfive</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>move</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Data</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜率</t>
-  </si>
-  <si>
-    <t>kda</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kda</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>averagekill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>场均击杀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>doublescore</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>fourscore</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>winrate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜率(客户端显示需要除以10000)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kda比(客户端显示需要除以10000)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>场均击杀(客户端显示需要除以10000)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationtype</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>recentplayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>skilllist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>record</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图鉴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillData</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>killData</t>
-    </r>
+    <t>guildapply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经邀请的好友列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请列表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2974,269 +3227,68 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>guildinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请列表详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>被邀请玩家id/申请玩家的id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能熟练度评分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>captainid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignIn</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7天签到数据(累计的天数)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenreward</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7天领奖数据(按位累计)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sevenday</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>medal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派勋章</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派活跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者名字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员列表详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMember</t>
-  </si>
-  <si>
-    <t>GuildMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildMember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicPlayer</t>
-  </si>
-  <si>
-    <t>jointime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家总活跃度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家职位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildmember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildInvite</t>
-  </si>
-  <si>
-    <t>GuildInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>invitetime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>applytime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>inviterid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请者id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家申请的帮派列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildapply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildinvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家已经邀请的好友列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
+      <t>心愿单商城i</t>
     </r>
     <r>
       <rPr>
@@ -3251,27 +3303,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>guildinvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>guildmember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicantlist</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3377,7 +3417,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3510,6 +3550,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3540,7 +3586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3707,6 +3753,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4081,17 +4136,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y213"/>
+  <dimension ref="A1:Y215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="8" bestFit="1" customWidth="1"/>
@@ -4154,19 +4209,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>263</v>
@@ -4175,7 +4230,7 @@
         <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4219,13 +4274,13 @@
         <v>159</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>160</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>161</v>
@@ -4234,25 +4289,25 @@
         <v>162</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>163</v>
@@ -5411,16 +5466,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5866,7 +5921,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>22</v>
@@ -6070,13 +6125,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -6168,10 +6223,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>123</v>
@@ -6327,7 +6382,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>53</v>
@@ -6431,7 +6486,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>139</v>
@@ -6801,13 +6856,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6851,13 +6906,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -7010,13 +7065,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -7337,7 +7392,7 @@
         <v>75</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>50</v>
@@ -8066,10 +8121,10 @@
         <v>123</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -8113,7 +8168,7 @@
         <v>170</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>187</v>
@@ -8122,7 +8177,7 @@
         <v>270</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>128</v>
@@ -8181,7 +8236,7 @@
         <v>269</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>128</v>
@@ -8287,7 +8342,7 @@
         <v>170</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>123</v>
@@ -8343,7 +8398,7 @@
         <v>170</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>123</v>
@@ -8514,22 +8569,22 @@
         <v>170</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8570,19 +8625,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
@@ -8626,13 +8681,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K86" s="7">
         <v>1</v>
@@ -8676,22 +8731,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="K87" s="7">
         <v>1</v>
@@ -8735,16 +8790,16 @@
         <v>170</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>535</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K88" s="7">
         <v>1</v>
@@ -8788,16 +8843,16 @@
         <v>170</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>128</v>
@@ -8847,16 +8902,16 @@
         <v>170</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>128</v>
@@ -8903,7 +8958,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C91" s="45" t="s">
         <v>195</v>
@@ -8957,16 +9012,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C92" s="45" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>432</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>433</v>
       </c>
       <c r="H92" s="45" t="s">
         <v>121</v>
@@ -9015,16 +9070,16 @@
         <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="E93" s="45" t="s">
         <v>376</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>377</v>
       </c>
       <c r="H93" s="45"/>
       <c r="I93" s="45"/>
@@ -9069,16 +9124,16 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C94" s="45" t="s">
         <v>436</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>437</v>
       </c>
       <c r="D94" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -9123,16 +9178,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C95" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="D95" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="E95" s="45" t="s">
         <v>448</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>449</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9177,16 +9232,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D96" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9231,16 +9286,16 @@
         <v>94</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D97" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9285,16 +9340,16 @@
         <v>95</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -9970,16 +10025,16 @@
         <v>107</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D110" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K110" s="37">
         <v>1</v>
@@ -10020,16 +10075,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D111" s="36" t="s">
         <v>143</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K111" s="37">
         <v>1</v>
@@ -10491,7 +10546,7 @@
         <v>295</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D120" s="35" t="s">
         <v>197</v>
@@ -10544,7 +10599,7 @@
         <v>295</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>228</v>
@@ -10597,7 +10652,7 @@
         <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D122" s="35" t="s">
         <v>197</v>
@@ -10647,19 +10702,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D123" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10703,7 +10758,7 @@
         <v>295</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>197</v>
@@ -10809,7 +10864,7 @@
         <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>99</v>
@@ -10915,13 +10970,13 @@
         <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D128" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F128" s="35" t="s">
         <v>309</v>
@@ -10968,13 +11023,13 @@
         <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D129" s="35" t="s">
         <v>228</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F129" s="34" t="s">
         <v>231</v>
@@ -11021,16 +11076,16 @@
         <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D130" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11604,16 +11659,16 @@
         <v>295</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D141" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K141" s="34">
         <v>1</v>
@@ -11657,16 +11712,16 @@
         <v>295</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11910,7 +11965,7 @@
         <v>263</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>197</v>
@@ -11960,7 +12015,7 @@
         <v>263</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>197</v>
@@ -12010,13 +12065,13 @@
         <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12066,7 +12121,7 @@
         <v>187</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H150" s="33" t="s">
         <v>267</v>
@@ -12377,13 +12432,13 @@
         <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12424,7 +12479,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>195</v>
@@ -12635,13 +12690,13 @@
         <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D161" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12682,16 +12737,16 @@
         <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D162" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" s="33" t="s">
         <v>429</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>430</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12732,16 +12787,16 @@
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C163" s="33" t="s">
         <v>427</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>428</v>
       </c>
       <c r="D163" s="38" t="s">
         <v>123</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>121</v>
@@ -12790,7 +12845,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>102</v>
@@ -12799,7 +12854,7 @@
         <v>99</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K164" s="32">
         <v>1</v>
@@ -13020,13 +13075,13 @@
         <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13079,13 +13134,13 @@
         <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13138,13 +13193,13 @@
         <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13256,13 +13311,13 @@
         <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13371,24 +13426,24 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>187</v>
+        <v>589</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="9" t="s">
-        <v>564</v>
+      <c r="H174" s="10" t="s">
+        <v>590</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9">
@@ -13434,21 +13489,21 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>187</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>128</v>
@@ -13497,10 +13552,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>143</v>
@@ -13556,10 +13611,10 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>123</v>
@@ -13570,7 +13625,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>195</v>
@@ -13619,16 +13674,16 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C178" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="E178" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -13678,16 +13733,16 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>319</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
@@ -13737,16 +13792,16 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
@@ -13796,16 +13851,16 @@
         <v>178</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="C181" s="52" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D181" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E181" s="52" t="s">
-        <v>142</v>
+        <v>596</v>
       </c>
       <c r="H181" s="52"/>
       <c r="I181" s="52"/>
@@ -13848,16 +13903,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C182" s="52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D182" s="52" t="s">
         <v>99</v>
       </c>
       <c r="E182" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H182" s="52"/>
       <c r="I182" s="52"/>
@@ -13900,16 +13955,16 @@
         <v>180</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C183" s="52" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D183" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E183" s="52" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H183" s="52"/>
       <c r="I183" s="52"/>
@@ -13952,16 +14007,16 @@
         <v>181</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D184" s="54" t="s">
         <v>319</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H184" s="54"/>
       <c r="I184" s="54"/>
@@ -14004,16 +14059,16 @@
         <v>182</v>
       </c>
       <c r="B185" s="54" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C185" s="54" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D185" s="54" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H185" s="54"/>
       <c r="I185" s="54"/>
@@ -14051,271 +14106,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="29">
-        <v>183</v>
-      </c>
-      <c r="B186" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="C186" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D186" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="K186" s="43">
-        <v>1</v>
-      </c>
-      <c r="L186" s="43">
-        <v>1</v>
-      </c>
-      <c r="M186" s="43">
-        <v>1</v>
-      </c>
-      <c r="N186" s="43">
-        <v>1</v>
-      </c>
-      <c r="O186" s="43">
-        <v>1</v>
-      </c>
-      <c r="P186" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="43">
-        <v>0</v>
-      </c>
-      <c r="R186" s="43">
-        <v>0</v>
-      </c>
-      <c r="S186" s="43">
-        <v>0</v>
-      </c>
-      <c r="T186" s="43">
-        <v>0</v>
-      </c>
-      <c r="U186" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="29">
-        <v>184</v>
-      </c>
-      <c r="B187" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="C187" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D187" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E187" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="K187" s="43">
-        <v>1</v>
-      </c>
-      <c r="L187" s="43">
-        <v>1</v>
-      </c>
-      <c r="M187" s="43">
-        <v>1</v>
-      </c>
-      <c r="N187" s="43">
-        <v>1</v>
-      </c>
-      <c r="O187" s="43">
-        <v>1</v>
-      </c>
-      <c r="P187" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="43">
-        <v>0</v>
-      </c>
-      <c r="R187" s="43">
-        <v>0</v>
-      </c>
-      <c r="S187" s="43">
-        <v>0</v>
-      </c>
-      <c r="T187" s="43">
-        <v>0</v>
-      </c>
-      <c r="U187" s="43">
+    <row r="186" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="56">
+        <v>182</v>
+      </c>
+      <c r="B186" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="C186" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D186" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E186" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="K186" s="58">
+        <v>1</v>
+      </c>
+      <c r="L186" s="58">
+        <v>1</v>
+      </c>
+      <c r="M186" s="58">
+        <v>1</v>
+      </c>
+      <c r="N186" s="58">
+        <v>0</v>
+      </c>
+      <c r="O186" s="58">
+        <v>0</v>
+      </c>
+      <c r="P186" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="58">
+        <v>0</v>
+      </c>
+      <c r="R186" s="58">
+        <v>0</v>
+      </c>
+      <c r="S186" s="58">
+        <v>0</v>
+      </c>
+      <c r="T186" s="58">
+        <v>0</v>
+      </c>
+      <c r="U186" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="56">
+        <v>182</v>
+      </c>
+      <c r="B187" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="C187" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="D187" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E187" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="H187" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="I187" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="K187" s="58">
+        <v>1</v>
+      </c>
+      <c r="L187" s="58">
+        <v>1</v>
+      </c>
+      <c r="M187" s="58">
+        <v>1</v>
+      </c>
+      <c r="N187" s="58">
+        <v>0</v>
+      </c>
+      <c r="O187" s="58">
+        <v>0</v>
+      </c>
+      <c r="P187" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="58">
+        <v>0</v>
+      </c>
+      <c r="R187" s="58">
+        <v>0</v>
+      </c>
+      <c r="S187" s="58">
+        <v>0</v>
+      </c>
+      <c r="T187" s="58">
+        <v>0</v>
+      </c>
+      <c r="U187" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B188" s="43" t="s">
         <v>360</v>
       </c>
       <c r="C188" s="44" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D188" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E188" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="K188" s="43">
+        <v>1</v>
+      </c>
+      <c r="L188" s="43">
+        <v>1</v>
+      </c>
+      <c r="M188" s="43">
+        <v>1</v>
+      </c>
+      <c r="N188" s="43">
+        <v>1</v>
+      </c>
+      <c r="O188" s="43">
+        <v>1</v>
+      </c>
+      <c r="P188" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="43">
+        <v>0</v>
+      </c>
+      <c r="R188" s="43">
+        <v>0</v>
+      </c>
+      <c r="S188" s="43">
+        <v>0</v>
+      </c>
+      <c r="T188" s="43">
+        <v>0</v>
+      </c>
+      <c r="U188" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="29">
+        <v>184</v>
+      </c>
+      <c r="B189" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C189" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="D189" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E189" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K189" s="43">
+        <v>1</v>
+      </c>
+      <c r="L189" s="43">
+        <v>1</v>
+      </c>
+      <c r="M189" s="43">
+        <v>1</v>
+      </c>
+      <c r="N189" s="43">
+        <v>1</v>
+      </c>
+      <c r="O189" s="43">
+        <v>1</v>
+      </c>
+      <c r="P189" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="43">
+        <v>0</v>
+      </c>
+      <c r="R189" s="43">
+        <v>0</v>
+      </c>
+      <c r="S189" s="43">
+        <v>0</v>
+      </c>
+      <c r="T189" s="43">
+        <v>0</v>
+      </c>
+      <c r="U189" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="29">
+        <v>185</v>
+      </c>
+      <c r="B190" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C190" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D190" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E190" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="E188" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="K188" s="43">
-        <v>1</v>
-      </c>
-      <c r="L188" s="43">
-        <v>1</v>
-      </c>
-      <c r="M188" s="43">
-        <v>1</v>
-      </c>
-      <c r="N188" s="43">
-        <v>1</v>
-      </c>
-      <c r="O188" s="43">
-        <v>1</v>
-      </c>
-      <c r="P188" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="43">
-        <v>0</v>
-      </c>
-      <c r="R188" s="43">
-        <v>0</v>
-      </c>
-      <c r="S188" s="43">
-        <v>0</v>
-      </c>
-      <c r="T188" s="43">
-        <v>0</v>
-      </c>
-      <c r="U188" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="29">
-        <v>186</v>
-      </c>
-      <c r="B189" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C189" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="D189" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E189" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="K189" s="49">
-        <v>1</v>
-      </c>
-      <c r="L189" s="49">
-        <v>1</v>
-      </c>
-      <c r="M189" s="49">
-        <v>0</v>
-      </c>
-      <c r="N189" s="49">
-        <v>0</v>
-      </c>
-      <c r="O189" s="49">
-        <v>0</v>
-      </c>
-      <c r="P189" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="49">
-        <v>0</v>
-      </c>
-      <c r="R189" s="49">
-        <v>0</v>
-      </c>
-      <c r="S189" s="49">
-        <v>0</v>
-      </c>
-      <c r="T189" s="49">
-        <v>0</v>
-      </c>
-      <c r="U189" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="29">
-        <v>187</v>
-      </c>
-      <c r="B190" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C190" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D190" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E190" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="K190" s="49">
-        <v>1</v>
-      </c>
-      <c r="L190" s="49">
-        <v>1</v>
-      </c>
-      <c r="M190" s="49">
-        <v>0</v>
-      </c>
-      <c r="N190" s="49">
-        <v>0</v>
-      </c>
-      <c r="O190" s="49">
-        <v>0</v>
-      </c>
-      <c r="P190" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q190" s="49">
-        <v>0</v>
-      </c>
-      <c r="R190" s="49">
-        <v>0</v>
-      </c>
-      <c r="S190" s="49">
-        <v>0</v>
-      </c>
-      <c r="T190" s="49">
-        <v>0</v>
-      </c>
-      <c r="U190" s="49">
+      <c r="K190" s="43">
+        <v>1</v>
+      </c>
+      <c r="L190" s="43">
+        <v>1</v>
+      </c>
+      <c r="M190" s="43">
+        <v>1</v>
+      </c>
+      <c r="N190" s="43">
+        <v>1</v>
+      </c>
+      <c r="O190" s="43">
+        <v>1</v>
+      </c>
+      <c r="P190" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="43">
+        <v>0</v>
+      </c>
+      <c r="R190" s="43">
+        <v>0</v>
+      </c>
+      <c r="S190" s="43">
+        <v>0</v>
+      </c>
+      <c r="T190" s="43">
+        <v>0</v>
+      </c>
+      <c r="U190" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B191" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="C191" s="48" t="s">
-        <v>451</v>
       </c>
       <c r="D191" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="K191" s="49">
         <v>1</v>
@@ -14353,19 +14416,19 @@
     </row>
     <row r="192" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D192" s="48" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="K192" s="49">
         <v>1</v>
@@ -14403,19 +14466,19 @@
     </row>
     <row r="193" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="D193" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="K193" s="49">
         <v>1</v>
@@ -14453,19 +14516,19 @@
     </row>
     <row r="194" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D194" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="E194" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="E194" s="48" t="s">
-        <v>390</v>
       </c>
       <c r="K194" s="49">
         <v>1</v>
@@ -14503,19 +14566,19 @@
     </row>
     <row r="195" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D195" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K195" s="49">
         <v>1</v>
@@ -14553,19 +14616,19 @@
     </row>
     <row r="196" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K196" s="49">
         <v>1</v>
@@ -14603,19 +14666,19 @@
     </row>
     <row r="197" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K197" s="49">
         <v>1</v>
@@ -14653,19 +14716,19 @@
     </row>
     <row r="198" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="29">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D198" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14703,19 +14766,19 @@
     </row>
     <row r="199" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="29">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C199" s="49" t="s">
-        <v>399</v>
+        <v>379</v>
+      </c>
+      <c r="C199" s="48" t="s">
+        <v>394</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14753,19 +14816,19 @@
     </row>
     <row r="200" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="29">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D200" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14803,19 +14866,19 @@
     </row>
     <row r="201" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="29">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="C201" s="48" t="s">
-        <v>404</v>
+        <v>379</v>
+      </c>
+      <c r="C201" s="49" t="s">
+        <v>398</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14853,19 +14916,19 @@
     </row>
     <row r="202" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="29">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="D202" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>474</v>
+        <v>401</v>
       </c>
       <c r="K202" s="49">
         <v>1</v>
@@ -14903,19 +14966,19 @@
     </row>
     <row r="203" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="29">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="K203" s="49">
         <v>1</v>
@@ -14953,19 +15016,19 @@
     </row>
     <row r="204" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D204" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K204" s="49">
         <v>1</v>
@@ -15003,19 +15066,19 @@
     </row>
     <row r="205" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="29">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C205" s="48" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D205" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15053,19 +15116,19 @@
     </row>
     <row r="206" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="29">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15103,19 +15166,19 @@
     </row>
     <row r="207" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="29">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="D207" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15153,19 +15216,19 @@
     </row>
     <row r="208" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="29">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15203,19 +15266,19 @@
     </row>
     <row r="209" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="29">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D209" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15253,157 +15316,257 @@
     </row>
     <row r="210" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="29">
+        <v>205</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K210" s="49">
+        <v>1</v>
+      </c>
+      <c r="L210" s="49">
+        <v>1</v>
+      </c>
+      <c r="M210" s="49">
+        <v>0</v>
+      </c>
+      <c r="N210" s="49">
+        <v>0</v>
+      </c>
+      <c r="O210" s="49">
+        <v>0</v>
+      </c>
+      <c r="P210" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="49">
+        <v>0</v>
+      </c>
+      <c r="R210" s="49">
+        <v>0</v>
+      </c>
+      <c r="S210" s="49">
+        <v>0</v>
+      </c>
+      <c r="T210" s="49">
+        <v>0</v>
+      </c>
+      <c r="U210" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="29">
+        <v>206</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C211" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D211" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E211" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K211" s="49">
+        <v>1</v>
+      </c>
+      <c r="L211" s="49">
+        <v>1</v>
+      </c>
+      <c r="M211" s="49">
+        <v>0</v>
+      </c>
+      <c r="N211" s="49">
+        <v>0</v>
+      </c>
+      <c r="O211" s="49">
+        <v>0</v>
+      </c>
+      <c r="P211" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="49">
+        <v>0</v>
+      </c>
+      <c r="R211" s="49">
+        <v>0</v>
+      </c>
+      <c r="S211" s="49">
+        <v>0</v>
+      </c>
+      <c r="T211" s="49">
+        <v>0</v>
+      </c>
+      <c r="U211" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="29">
         <v>207</v>
       </c>
-      <c r="B210" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C210" s="48" t="s">
+      <c r="B212" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C212" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D212" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E212" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E210" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="H210" s="48"/>
-      <c r="K210" s="49">
-        <v>1</v>
-      </c>
-      <c r="L210" s="49">
-        <v>1</v>
-      </c>
-      <c r="M210" s="49">
-        <v>0</v>
-      </c>
-      <c r="N210" s="49">
-        <v>0</v>
-      </c>
-      <c r="O210" s="49">
-        <v>0</v>
-      </c>
-      <c r="P210" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q210" s="49">
-        <v>0</v>
-      </c>
-      <c r="R210" s="49">
-        <v>0</v>
-      </c>
-      <c r="S210" s="49">
-        <v>0</v>
-      </c>
-      <c r="T210" s="49">
-        <v>0</v>
-      </c>
-      <c r="U210" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="29">
+      <c r="H212" s="48"/>
+      <c r="K212" s="49">
+        <v>1</v>
+      </c>
+      <c r="L212" s="49">
+        <v>1</v>
+      </c>
+      <c r="M212" s="49">
+        <v>0</v>
+      </c>
+      <c r="N212" s="49">
+        <v>0</v>
+      </c>
+      <c r="O212" s="49">
+        <v>0</v>
+      </c>
+      <c r="P212" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="49">
+        <v>0</v>
+      </c>
+      <c r="R212" s="49">
+        <v>0</v>
+      </c>
+      <c r="S212" s="49">
+        <v>0</v>
+      </c>
+      <c r="T212" s="49">
+        <v>0</v>
+      </c>
+      <c r="U212" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="29">
         <v>208</v>
       </c>
-      <c r="B211" s="50" t="s">
+      <c r="B213" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="C213" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="C211" s="50" t="s">
+      <c r="D213" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="D211" s="50" t="s">
+      <c r="E213" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="E211" s="50" t="s">
+      <c r="K213" s="51">
+        <v>1</v>
+      </c>
+      <c r="L213" s="51">
+        <v>1</v>
+      </c>
+      <c r="M213" s="51">
+        <v>1</v>
+      </c>
+      <c r="N213" s="51">
+        <v>1</v>
+      </c>
+      <c r="O213" s="51">
+        <v>0</v>
+      </c>
+      <c r="P213" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="51">
+        <v>0</v>
+      </c>
+      <c r="R213" s="51">
+        <v>0</v>
+      </c>
+      <c r="S213" s="51">
+        <v>0</v>
+      </c>
+      <c r="T213" s="51">
+        <v>0</v>
+      </c>
+      <c r="U213" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="29">
+        <v>209</v>
+      </c>
+      <c r="B214" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="C214" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="K211" s="51">
-        <v>1</v>
-      </c>
-      <c r="L211" s="51">
-        <v>1</v>
-      </c>
-      <c r="M211" s="51">
-        <v>1</v>
-      </c>
-      <c r="N211" s="51">
-        <v>1</v>
-      </c>
-      <c r="O211" s="51">
-        <v>0</v>
-      </c>
-      <c r="P211" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q211" s="51">
-        <v>0</v>
-      </c>
-      <c r="R211" s="51">
-        <v>0</v>
-      </c>
-      <c r="S211" s="51">
-        <v>0</v>
-      </c>
-      <c r="T211" s="51">
-        <v>0</v>
-      </c>
-      <c r="U211" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="29">
-        <v>209</v>
-      </c>
-      <c r="B212" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="C212" s="50" t="s">
+      <c r="D214" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="E214" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="D212" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="E212" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="K212" s="51">
-        <v>1</v>
-      </c>
-      <c r="L212" s="51">
-        <v>1</v>
-      </c>
-      <c r="M212" s="51">
-        <v>1</v>
-      </c>
-      <c r="N212" s="51">
-        <v>1</v>
-      </c>
-      <c r="O212" s="51">
-        <v>0</v>
-      </c>
-      <c r="P212" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q212" s="51">
-        <v>0</v>
-      </c>
-      <c r="R212" s="51">
-        <v>0</v>
-      </c>
-      <c r="S212" s="51">
-        <v>0</v>
-      </c>
-      <c r="T212" s="51">
-        <v>0</v>
-      </c>
-      <c r="U212" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A213" s="29"/>
+      <c r="K214" s="51">
+        <v>1</v>
+      </c>
+      <c r="L214" s="51">
+        <v>1</v>
+      </c>
+      <c r="M214" s="51">
+        <v>1</v>
+      </c>
+      <c r="N214" s="51">
+        <v>1</v>
+      </c>
+      <c r="O214" s="51">
+        <v>0</v>
+      </c>
+      <c r="P214" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="51">
+        <v>0</v>
+      </c>
+      <c r="R214" s="51">
+        <v>0</v>
+      </c>
+      <c r="S214" s="51">
+        <v>0</v>
+      </c>
+      <c r="T214" s="51">
+        <v>0</v>
+      </c>
+      <c r="U214" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A215" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="597">
   <si>
     <t>Class</t>
   </si>
@@ -1882,10 +1882,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>masterid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>帮主id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3120,10 +3116,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>basic</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3211,22 +3203,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>guildinvite</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3252,14 +3228,6 @@
   </si>
   <si>
     <t>GuildInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApplyList</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3312,6 +3280,10 @@
   </si>
   <si>
     <t>applicantlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4139,8 +4111,8 @@
   <dimension ref="A1:Y215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4209,19 +4181,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>263</v>
@@ -4230,7 +4202,7 @@
         <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4274,13 +4246,13 @@
         <v>159</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>160</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>161</v>
@@ -4289,25 +4261,25 @@
         <v>162</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>163</v>
@@ -5466,16 +5438,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5516,7 +5488,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5921,7 +5893,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>22</v>
@@ -6125,13 +6097,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -6223,10 +6195,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>123</v>
@@ -6382,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>53</v>
@@ -6486,7 +6458,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>139</v>
@@ -6856,13 +6828,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6906,13 +6878,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -7065,13 +7037,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -7392,7 +7364,7 @@
         <v>75</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>50</v>
@@ -8121,10 +8093,10 @@
         <v>123</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -8168,7 +8140,7 @@
         <v>170</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>187</v>
@@ -8177,7 +8149,7 @@
         <v>270</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>128</v>
@@ -8236,7 +8208,7 @@
         <v>269</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>128</v>
@@ -8286,10 +8258,10 @@
         <v>170</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>223</v>
@@ -8298,7 +8270,7 @@
         <v>223</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -8342,7 +8314,7 @@
         <v>170</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>123</v>
@@ -8398,7 +8370,7 @@
         <v>170</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>123</v>
@@ -8510,22 +8482,22 @@
         <v>198</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H83" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="J83" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8569,22 +8541,22 @@
         <v>170</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8625,19 +8597,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
@@ -8681,13 +8653,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K86" s="7">
         <v>1</v>
@@ -8731,22 +8703,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="K87" s="7">
         <v>1</v>
@@ -8790,16 +8762,16 @@
         <v>170</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K88" s="7">
         <v>1</v>
@@ -8843,16 +8815,16 @@
         <v>170</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>128</v>
@@ -8902,16 +8874,16 @@
         <v>170</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>128</v>
@@ -8958,7 +8930,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C91" s="45" t="s">
         <v>195</v>
@@ -9012,16 +8984,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C92" s="45" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>431</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>432</v>
       </c>
       <c r="H92" s="45" t="s">
         <v>121</v>
@@ -9070,16 +9042,16 @@
         <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="E93" s="45" t="s">
         <v>375</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>376</v>
       </c>
       <c r="H93" s="45"/>
       <c r="I93" s="45"/>
@@ -9124,16 +9096,16 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C94" s="45" t="s">
         <v>435</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>436</v>
       </c>
       <c r="D94" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -9178,16 +9150,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C95" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="E95" s="45" t="s">
         <v>447</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>448</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9232,16 +9204,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D96" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9286,16 +9258,16 @@
         <v>94</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D97" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9340,16 +9312,16 @@
         <v>95</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -10025,16 +9997,16 @@
         <v>107</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D110" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K110" s="37">
         <v>1</v>
@@ -10075,16 +10047,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D111" s="36" t="s">
         <v>143</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K111" s="37">
         <v>1</v>
@@ -10546,7 +10518,7 @@
         <v>295</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D120" s="35" t="s">
         <v>197</v>
@@ -10599,7 +10571,7 @@
         <v>295</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D121" s="35" t="s">
         <v>228</v>
@@ -10652,7 +10624,7 @@
         <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D122" s="35" t="s">
         <v>197</v>
@@ -10702,19 +10674,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D123" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10758,7 +10730,7 @@
         <v>295</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>197</v>
@@ -10864,7 +10836,7 @@
         <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>99</v>
@@ -10970,13 +10942,13 @@
         <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D128" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F128" s="35" t="s">
         <v>309</v>
@@ -11023,13 +10995,13 @@
         <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D129" s="35" t="s">
         <v>228</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F129" s="34" t="s">
         <v>231</v>
@@ -11076,16 +11048,16 @@
         <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D130" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11659,16 +11631,16 @@
         <v>295</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D141" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K141" s="34">
         <v>1</v>
@@ -11712,16 +11684,16 @@
         <v>295</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11965,7 +11937,7 @@
         <v>263</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>197</v>
@@ -12015,7 +11987,7 @@
         <v>263</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>197</v>
@@ -12065,13 +12037,13 @@
         <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12121,7 +12093,7 @@
         <v>187</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H150" s="33" t="s">
         <v>267</v>
@@ -12432,13 +12404,13 @@
         <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12479,7 +12451,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>195</v>
@@ -12690,13 +12662,13 @@
         <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D161" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12737,16 +12709,16 @@
         <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D162" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E162" s="33" t="s">
         <v>428</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>429</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12787,16 +12759,16 @@
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C163" s="33" t="s">
         <v>426</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>427</v>
       </c>
       <c r="D163" s="38" t="s">
         <v>123</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>121</v>
@@ -12845,7 +12817,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>102</v>
@@ -12854,7 +12826,7 @@
         <v>99</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K164" s="32">
         <v>1</v>
@@ -13075,13 +13047,13 @@
         <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13134,13 +13106,13 @@
         <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13193,13 +13165,13 @@
         <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13252,13 +13224,13 @@
         <v>348</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>349</v>
+        <v>596</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13311,13 +13283,13 @@
         <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13370,13 +13342,13 @@
         <v>348</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D173" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="E173" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13426,25 +13398,21 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>589</v>
+        <v>173</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="I174" s="10" t="s">
-        <v>581</v>
-      </c>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9">
         <v>1</v>
@@ -13489,21 +13457,21 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>187</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>128</v>
@@ -13552,10 +13520,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>143</v>
@@ -13611,10 +13579,10 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>123</v>
@@ -13625,7 +13593,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>195</v>
@@ -13674,16 +13642,16 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C178" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="E178" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -13733,16 +13701,16 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>319</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
@@ -13792,16 +13760,16 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
@@ -13851,16 +13819,16 @@
         <v>178</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C181" s="52" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D181" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E181" s="52" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H181" s="52"/>
       <c r="I181" s="52"/>
@@ -13903,16 +13871,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C182" s="52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D182" s="52" t="s">
         <v>99</v>
       </c>
       <c r="E182" s="52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H182" s="52"/>
       <c r="I182" s="52"/>
@@ -13955,16 +13923,16 @@
         <v>180</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C183" s="52" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D183" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E183" s="52" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H183" s="52"/>
       <c r="I183" s="52"/>
@@ -14007,16 +13975,16 @@
         <v>181</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D184" s="54" t="s">
         <v>319</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H184" s="54"/>
       <c r="I184" s="54"/>
@@ -14059,16 +14027,16 @@
         <v>182</v>
       </c>
       <c r="B185" s="54" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C185" s="54" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D185" s="54" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="54" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H185" s="54"/>
       <c r="I185" s="54"/>
@@ -14111,7 +14079,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C186" s="57" t="s">
         <v>128</v>
@@ -14120,7 +14088,7 @@
         <v>99</v>
       </c>
       <c r="E186" s="57" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H186" s="57"/>
       <c r="I186" s="57"/>
@@ -14163,22 +14131,22 @@
         <v>182</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C187" s="57" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D187" s="57" t="s">
         <v>187</v>
       </c>
       <c r="E187" s="57" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H187" s="57" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I187" s="57" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K187" s="58">
         <v>1</v>
@@ -14219,16 +14187,16 @@
         <v>183</v>
       </c>
       <c r="B188" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C188" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="D188" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="D188" s="44" t="s">
-        <v>363</v>
-      </c>
       <c r="E188" s="44" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K188" s="43">
         <v>1</v>
@@ -14269,16 +14237,16 @@
         <v>184</v>
       </c>
       <c r="B189" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C189" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="D189" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="D189" s="44" t="s">
+      <c r="E189" s="44" t="s">
         <v>365</v>
-      </c>
-      <c r="E189" s="44" t="s">
-        <v>366</v>
       </c>
       <c r="K189" s="43">
         <v>1</v>
@@ -14319,16 +14287,16 @@
         <v>185</v>
       </c>
       <c r="B190" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C190" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D190" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E190" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="E190" s="44" t="s">
-        <v>368</v>
       </c>
       <c r="K190" s="43">
         <v>1</v>
@@ -14369,16 +14337,16 @@
         <v>186</v>
       </c>
       <c r="B191" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="48" t="s">
         <v>379</v>
-      </c>
-      <c r="C191" s="48" t="s">
-        <v>380</v>
       </c>
       <c r="D191" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K191" s="49">
         <v>1</v>
@@ -14419,16 +14387,16 @@
         <v>187</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D192" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K192" s="49">
         <v>1</v>
@@ -14469,16 +14437,16 @@
         <v>188</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D193" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K193" s="49">
         <v>1</v>
@@ -14519,16 +14487,16 @@
         <v>189</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C194" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D194" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="D194" s="48" t="s">
+      <c r="E194" s="48" t="s">
         <v>384</v>
-      </c>
-      <c r="E194" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="K194" s="49">
         <v>1</v>
@@ -14569,16 +14537,16 @@
         <v>190</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D195" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K195" s="49">
         <v>1</v>
@@ -14619,16 +14587,16 @@
         <v>191</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C196" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D196" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E196" s="48" t="s">
         <v>388</v>
-      </c>
-      <c r="D196" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E196" s="48" t="s">
-        <v>389</v>
       </c>
       <c r="K196" s="49">
         <v>1</v>
@@ -14669,16 +14637,16 @@
         <v>192</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D197" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K197" s="49">
         <v>1</v>
@@ -14719,16 +14687,16 @@
         <v>193</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D198" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14769,16 +14737,16 @@
         <v>194</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C199" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D199" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E199" s="48" t="s">
         <v>394</v>
-      </c>
-      <c r="D199" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E199" s="48" t="s">
-        <v>395</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14819,16 +14787,16 @@
         <v>195</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D200" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14869,16 +14837,16 @@
         <v>196</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C201" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D201" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14919,16 +14887,16 @@
         <v>197</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D202" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K202" s="49">
         <v>1</v>
@@ -14969,16 +14937,16 @@
         <v>198</v>
       </c>
       <c r="B203" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="C203" s="48" t="s">
+      <c r="D203" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D203" s="48" t="s">
+      <c r="E203" s="48" t="s">
         <v>404</v>
-      </c>
-      <c r="E203" s="48" t="s">
-        <v>405</v>
       </c>
       <c r="K203" s="49">
         <v>1</v>
@@ -15019,16 +14987,16 @@
         <v>199</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D204" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K204" s="49">
         <v>1</v>
@@ -15069,16 +15037,16 @@
         <v>200</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C205" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D205" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15119,16 +15087,16 @@
         <v>201</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D206" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15169,16 +15137,16 @@
         <v>202</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D207" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15219,16 +15187,16 @@
         <v>203</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C208" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D208" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E208" s="48" t="s">
         <v>406</v>
-      </c>
-      <c r="D208" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E208" s="48" t="s">
-        <v>407</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15269,16 +15237,16 @@
         <v>204</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D209" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15319,16 +15287,16 @@
         <v>205</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D210" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K210" s="49">
         <v>1</v>
@@ -15369,16 +15337,16 @@
         <v>206</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D211" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K211" s="49">
         <v>1</v>
@@ -15419,16 +15387,16 @@
         <v>207</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D212" s="48" t="s">
         <v>173</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H212" s="48"/>
       <c r="K212" s="49">
@@ -15470,16 +15438,16 @@
         <v>208</v>
       </c>
       <c r="B213" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="C213" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="C213" s="50" t="s">
+      <c r="D213" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="D213" s="50" t="s">
+      <c r="E213" s="50" t="s">
         <v>520</v>
-      </c>
-      <c r="E213" s="50" t="s">
-        <v>521</v>
       </c>
       <c r="K213" s="51">
         <v>1</v>
@@ -15520,16 +15488,16 @@
         <v>209</v>
       </c>
       <c r="B214" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C214" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D214" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="E214" s="50" t="s">
         <v>522</v>
-      </c>
-      <c r="D214" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="E214" s="50" t="s">
-        <v>523</v>
       </c>
       <c r="K214" s="51">
         <v>1</v>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,12 +57,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="M166" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>苏昭展:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个涉及到public存储和guildshard存储，通过特定协议通知，确保两边数据一致</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="606">
   <si>
     <t>Class</t>
   </si>
@@ -1886,10 +1912,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>createtime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>uint64</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3018,10 +3040,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>签到信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3050,10 +3068,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>memberlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>成员列表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3066,10 +3080,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>成员列表详情</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3089,9 +3099,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>BasicPlayer</t>
-  </si>
-  <si>
     <t>jointime</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3120,46 +3127,95 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>serverid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupInvite</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GuildInvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitetime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>applytime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inviterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请者id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家申请的帮派列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupApply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildapply</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GuildInvite</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>invitetime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>applytime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>inviterid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApply</t>
+    <t>玩家已经邀请的好友列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildinvite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildid</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3167,87 +3223,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>邀请者id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家申请的帮派列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupApply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildapply</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildinvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GuildInvite</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>玩家已经邀请的好友列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildinvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApplyList</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>申请列表详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildInvite</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3283,7 +3263,89 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>serverid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>masterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+  </si>
+  <si>
+    <t>玩家申请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家基础属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帮派信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildapplylist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3558,7 +3620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3725,9 +3787,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4108,11 +4167,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y215"/>
+  <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4128,7 +4187,8 @@
     <col min="9" max="9" width="8.5" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.25" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="8" customWidth="1"/>
     <col min="14" max="14" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="8" bestFit="1" customWidth="1"/>
@@ -4181,19 +4241,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>263</v>
@@ -4202,7 +4262,7 @@
         <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4246,13 +4306,13 @@
         <v>159</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>160</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>161</v>
@@ -4261,25 +4321,25 @@
         <v>162</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>163</v>
@@ -4309,7 +4369,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>597</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>120</v>
@@ -5438,16 +5498,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5488,7 +5548,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5893,7 +5953,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>22</v>
@@ -6097,13 +6157,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -6195,10 +6255,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>123</v>
@@ -6354,7 +6414,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>53</v>
@@ -6458,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>139</v>
@@ -6828,13 +6888,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6878,13 +6938,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -7037,13 +7097,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -7364,7 +7424,7 @@
         <v>75</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>50</v>
@@ -8093,10 +8153,10 @@
         <v>123</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -8140,7 +8200,7 @@
         <v>170</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>187</v>
@@ -8149,7 +8209,7 @@
         <v>270</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>128</v>
@@ -8208,7 +8268,7 @@
         <v>269</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>128</v>
@@ -8258,10 +8318,10 @@
         <v>170</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>223</v>
@@ -8270,7 +8330,7 @@
         <v>223</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -8314,7 +8374,7 @@
         <v>170</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>123</v>
@@ -8370,7 +8430,7 @@
         <v>170</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>123</v>
@@ -8482,22 +8542,22 @@
         <v>198</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H83" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="J83" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8541,22 +8601,22 @@
         <v>170</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8597,19 +8657,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
@@ -8653,13 +8713,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K86" s="7">
         <v>1</v>
@@ -8703,22 +8763,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="K87" s="7">
         <v>1</v>
@@ -8762,16 +8822,16 @@
         <v>170</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K88" s="7">
         <v>1</v>
@@ -8815,16 +8875,16 @@
         <v>170</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>128</v>
@@ -8874,16 +8934,16 @@
         <v>170</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>128</v>
@@ -8925,82 +8985,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="29">
         <v>88</v>
       </c>
-      <c r="B91" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E91" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="K91" s="46">
-        <v>1</v>
-      </c>
-      <c r="L91" s="46">
-        <v>0</v>
-      </c>
-      <c r="M91" s="46">
-        <v>1</v>
-      </c>
-      <c r="N91" s="46">
-        <v>0</v>
-      </c>
-      <c r="O91" s="46">
-        <v>0</v>
-      </c>
-      <c r="P91" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="46">
-        <v>0</v>
-      </c>
-      <c r="R91" s="46">
-        <v>0</v>
-      </c>
-      <c r="S91" s="46">
-        <v>0</v>
-      </c>
-      <c r="T91" s="46">
-        <v>0</v>
-      </c>
-      <c r="U91" s="46">
-        <v>0</v>
-      </c>
-      <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
+      <c r="B91" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K91" s="7">
+        <v>1</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>1</v>
+      </c>
+      <c r="N91" s="7">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
         <v>89</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>430</v>
+        <v>197</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="H92" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I92" s="45" t="s">
-        <v>195</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
       <c r="K92" s="46">
         <v>1</v>
       </c>
@@ -9042,19 +9103,23 @@
         <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
+        <v>430</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I93" s="45" t="s">
+        <v>195</v>
+      </c>
       <c r="K93" s="46">
         <v>1</v>
       </c>
@@ -9096,16 +9161,16 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>143</v>
+        <v>432</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="H94" s="45"/>
       <c r="I94" s="45"/>
@@ -9150,16 +9215,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>446</v>
+        <v>143</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9204,16 +9269,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9258,16 +9323,16 @@
         <v>94</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D97" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9312,16 +9377,16 @@
         <v>95</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -9361,68 +9426,59 @@
       <c r="V98" s="47"/>
       <c r="W98" s="47"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="29">
         <v>96</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11">
-        <v>1</v>
-      </c>
-      <c r="L99" s="11">
-        <v>1</v>
-      </c>
-      <c r="M99" s="11">
-        <v>1</v>
-      </c>
-      <c r="N99" s="11">
-        <v>1</v>
-      </c>
-      <c r="O99" s="11">
-        <v>1</v>
-      </c>
-      <c r="P99" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="9">
-        <v>0</v>
-      </c>
-      <c r="R99" s="9">
-        <v>0</v>
-      </c>
-      <c r="S99" s="9">
-        <v>0</v>
-      </c>
-      <c r="T99" s="9">
-        <v>0</v>
-      </c>
-      <c r="U99" s="11">
-        <v>0</v>
-      </c>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
+      <c r="B99" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="K99" s="46">
+        <v>1</v>
+      </c>
+      <c r="L99" s="46">
+        <v>0</v>
+      </c>
+      <c r="M99" s="46">
+        <v>1</v>
+      </c>
+      <c r="N99" s="46">
+        <v>0</v>
+      </c>
+      <c r="O99" s="46">
+        <v>0</v>
+      </c>
+      <c r="P99" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="46">
+        <v>0</v>
+      </c>
+      <c r="R99" s="46">
+        <v>0</v>
+      </c>
+      <c r="S99" s="46">
+        <v>0</v>
+      </c>
+      <c r="T99" s="46">
+        <v>0</v>
+      </c>
+      <c r="U99" s="46">
+        <v>0</v>
+      </c>
+      <c r="V99" s="47"/>
+      <c r="W99" s="47"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
@@ -9431,19 +9487,23 @@
       <c r="B100" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>82</v>
+      <c r="C100" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="11">
         <v>1</v>
@@ -9491,13 +9551,13 @@
         <v>80</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -9549,14 +9609,14 @@
       <c r="B102" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>85</v>
+      <c r="C102" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -9608,14 +9668,14 @@
       <c r="B103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>87</v>
+      <c r="C103" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -9667,14 +9727,14 @@
       <c r="B104" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>53</v>
+      <c r="C104" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>79</v>
+      <c r="E104" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -9719,58 +9779,66 @@
       <c r="X104" s="11"/>
       <c r="Y104" s="11"/>
     </row>
-    <row r="105" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A105" s="29">
         <v>102</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F105" s="25"/>
-      <c r="K105" s="24">
-        <v>1</v>
-      </c>
-      <c r="L105" s="24">
-        <v>1</v>
-      </c>
-      <c r="M105" s="24">
-        <v>1</v>
-      </c>
-      <c r="N105" s="24">
-        <v>1</v>
-      </c>
-      <c r="O105" s="24">
-        <v>0</v>
-      </c>
-      <c r="P105" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="24">
-        <v>0</v>
-      </c>
-      <c r="R105" s="24">
-        <v>0</v>
-      </c>
-      <c r="S105" s="24">
-        <v>0</v>
-      </c>
-      <c r="T105" s="24">
-        <v>0</v>
-      </c>
-      <c r="U105" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11">
+        <v>1</v>
+      </c>
+      <c r="L105" s="11">
+        <v>1</v>
+      </c>
+      <c r="M105" s="11">
+        <v>1</v>
+      </c>
+      <c r="N105" s="11">
+        <v>1</v>
+      </c>
+      <c r="O105" s="11">
+        <v>1</v>
+      </c>
+      <c r="P105" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="9">
+        <v>0</v>
+      </c>
+      <c r="R105" s="9">
+        <v>0</v>
+      </c>
+      <c r="S105" s="9">
+        <v>0</v>
+      </c>
+      <c r="T105" s="9">
+        <v>0</v>
+      </c>
+      <c r="U105" s="11">
+        <v>0</v>
+      </c>
+      <c r="V105" s="11"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
+    </row>
+    <row r="106" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
@@ -9778,13 +9846,13 @@
         <v>95</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F106" s="25"/>
       <c r="K106" s="24">
@@ -9821,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -9829,13 +9897,13 @@
         <v>95</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F107" s="25"/>
       <c r="K107" s="24">
@@ -9872,66 +9940,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9">
-        <v>1</v>
-      </c>
-      <c r="L108" s="9">
-        <v>1</v>
-      </c>
-      <c r="M108" s="9">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9">
-        <v>1</v>
-      </c>
-      <c r="O108" s="9">
-        <v>1</v>
-      </c>
-      <c r="P108" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="9">
-        <v>0</v>
-      </c>
-      <c r="R108" s="9">
-        <v>0</v>
-      </c>
-      <c r="S108" s="9">
-        <v>0</v>
-      </c>
-      <c r="T108" s="9">
-        <v>0</v>
-      </c>
-      <c r="U108" s="9">
-        <v>0</v>
-      </c>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
+      <c r="B108" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="25"/>
+      <c r="K108" s="24">
+        <v>1</v>
+      </c>
+      <c r="L108" s="24">
+        <v>1</v>
+      </c>
+      <c r="M108" s="24">
+        <v>1</v>
+      </c>
+      <c r="N108" s="24">
+        <v>1</v>
+      </c>
+      <c r="O108" s="24">
+        <v>0</v>
+      </c>
+      <c r="P108" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="24">
+        <v>0</v>
+      </c>
+      <c r="R108" s="24">
+        <v>0</v>
+      </c>
+      <c r="S108" s="24">
+        <v>0</v>
+      </c>
+      <c r="T108" s="24">
+        <v>0</v>
+      </c>
+      <c r="U108" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
@@ -9940,16 +9998,18 @@
       <c r="B109" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>192</v>
+      <c r="C109" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F109" s="10"/>
+      <c r="E109" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -9992,72 +10052,81 @@
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
     </row>
-    <row r="110" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
         <v>107</v>
       </c>
-      <c r="B110" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E110" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="K110" s="37">
-        <v>1</v>
-      </c>
-      <c r="L110" s="37">
-        <v>1</v>
-      </c>
-      <c r="M110" s="37">
-        <v>1</v>
-      </c>
-      <c r="N110" s="37">
-        <v>1</v>
-      </c>
-      <c r="O110" s="37">
-        <v>0</v>
-      </c>
-      <c r="P110" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="37">
-        <v>0</v>
-      </c>
-      <c r="R110" s="37">
-        <v>0</v>
-      </c>
-      <c r="S110" s="37">
-        <v>0</v>
-      </c>
-      <c r="T110" s="37">
-        <v>0</v>
-      </c>
-      <c r="U110" s="37">
-        <v>0</v>
-      </c>
+      <c r="B110" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9">
+        <v>1</v>
+      </c>
+      <c r="L110" s="9">
+        <v>1</v>
+      </c>
+      <c r="M110" s="9">
+        <v>1</v>
+      </c>
+      <c r="N110" s="9">
+        <v>1</v>
+      </c>
+      <c r="O110" s="9">
+        <v>1</v>
+      </c>
+      <c r="P110" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="9">
+        <v>0</v>
+      </c>
+      <c r="R110" s="9">
+        <v>0</v>
+      </c>
+      <c r="S110" s="9">
+        <v>0</v>
+      </c>
+      <c r="T110" s="9">
+        <v>0</v>
+      </c>
+      <c r="U110" s="9">
+        <v>0</v>
+      </c>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
     </row>
     <row r="111" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
       <c r="B111" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>529</v>
-      </c>
       <c r="K111" s="37">
         <v>1</v>
       </c>
@@ -10092,53 +10161,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
         <v>109</v>
       </c>
-      <c r="B112" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K112" s="31">
-        <v>1</v>
-      </c>
-      <c r="L112" s="31">
-        <v>1</v>
-      </c>
-      <c r="M112" s="31">
-        <v>1</v>
-      </c>
-      <c r="N112" s="31">
-        <v>1</v>
-      </c>
-      <c r="O112" s="31">
-        <v>1</v>
-      </c>
-      <c r="P112" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="31">
-        <v>0</v>
-      </c>
-      <c r="R112" s="31">
-        <v>0</v>
-      </c>
-      <c r="S112" s="31">
-        <v>0</v>
-      </c>
-      <c r="T112" s="31">
-        <v>0</v>
-      </c>
-      <c r="U112" s="31">
+      <c r="B112" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="K112" s="37">
+        <v>1</v>
+      </c>
+      <c r="L112" s="37">
+        <v>1</v>
+      </c>
+      <c r="M112" s="37">
+        <v>1</v>
+      </c>
+      <c r="N112" s="37">
+        <v>1</v>
+      </c>
+      <c r="O112" s="37">
+        <v>0</v>
+      </c>
+      <c r="P112" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="37">
+        <v>0</v>
+      </c>
+      <c r="R112" s="37">
+        <v>0</v>
+      </c>
+      <c r="S112" s="37">
+        <v>0</v>
+      </c>
+      <c r="T112" s="37">
+        <v>0</v>
+      </c>
+      <c r="U112" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10150,16 +10219,13 @@
         <v>174</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="K113" s="31">
         <v>1</v>
@@ -10203,16 +10269,16 @@
         <v>174</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K114" s="31">
         <v>1</v>
@@ -10256,16 +10322,16 @@
         <v>174</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K115" s="31">
         <v>1</v>
@@ -10301,24 +10367,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="29">
         <v>113</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K116" s="31">
         <v>1</v>
@@ -10362,16 +10428,16 @@
         <v>180</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D117" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K117" s="31">
         <v>1</v>
@@ -10407,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="29">
         <v>115</v>
       </c>
@@ -10415,16 +10481,16 @@
         <v>180</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K118" s="31">
         <v>1</v>
@@ -10460,110 +10526,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
         <v>116</v>
       </c>
-      <c r="B119" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K119" s="32">
-        <v>1</v>
-      </c>
-      <c r="L119" s="32">
-        <v>1</v>
-      </c>
-      <c r="M119" s="32">
-        <v>1</v>
-      </c>
-      <c r="N119" s="32">
-        <v>1</v>
-      </c>
-      <c r="O119" s="32">
-        <v>0</v>
-      </c>
-      <c r="P119" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="32">
-        <v>0</v>
-      </c>
-      <c r="R119" s="32">
-        <v>0</v>
-      </c>
-      <c r="S119" s="32">
-        <v>0</v>
-      </c>
-      <c r="T119" s="32">
-        <v>0</v>
-      </c>
-      <c r="U119" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K119" s="31">
+        <v>1</v>
+      </c>
+      <c r="L119" s="31">
+        <v>1</v>
+      </c>
+      <c r="M119" s="31">
+        <v>1</v>
+      </c>
+      <c r="N119" s="31">
+        <v>1</v>
+      </c>
+      <c r="O119" s="31">
+        <v>1</v>
+      </c>
+      <c r="P119" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="31">
+        <v>0</v>
+      </c>
+      <c r="R119" s="31">
+        <v>0</v>
+      </c>
+      <c r="S119" s="31">
+        <v>0</v>
+      </c>
+      <c r="T119" s="31">
+        <v>0</v>
+      </c>
+      <c r="U119" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
         <v>117</v>
       </c>
-      <c r="B120" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="D120" s="35" t="s">
+      <c r="B120" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E120" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F120" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K120" s="34">
-        <v>1</v>
-      </c>
-      <c r="L120" s="34">
-        <v>1</v>
-      </c>
-      <c r="M120" s="34">
-        <v>1</v>
-      </c>
-      <c r="N120" s="34">
-        <v>1</v>
-      </c>
-      <c r="O120" s="34">
-        <v>1</v>
-      </c>
-      <c r="P120" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="34">
-        <v>0</v>
-      </c>
-      <c r="R120" s="34">
-        <v>0</v>
-      </c>
-      <c r="S120" s="34">
-        <v>0</v>
-      </c>
-      <c r="T120" s="34">
-        <v>0</v>
-      </c>
-      <c r="U120" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K120" s="32">
+        <v>1</v>
+      </c>
+      <c r="L120" s="32">
+        <v>1</v>
+      </c>
+      <c r="M120" s="32">
+        <v>1</v>
+      </c>
+      <c r="N120" s="32">
+        <v>1</v>
+      </c>
+      <c r="O120" s="32">
+        <v>0</v>
+      </c>
+      <c r="P120" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="32">
+        <v>0</v>
+      </c>
+      <c r="R120" s="32">
+        <v>0</v>
+      </c>
+      <c r="S120" s="32">
+        <v>0</v>
+      </c>
+      <c r="T120" s="32">
+        <v>0</v>
+      </c>
+      <c r="U120" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
         <v>118</v>
       </c>
@@ -10574,13 +10640,13 @@
         <v>491</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="F121" s="35" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="K121" s="34">
         <v>1</v>
@@ -10616,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
         <v>119</v>
       </c>
@@ -10624,16 +10690,16 @@
         <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10674,19 +10740,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>497</v>
+        <v>295</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D123" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>506</v>
+        <v>229</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>498</v>
+        <v>229</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10727,19 +10793,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>295</v>
+        <v>496</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>298</v>
+        <v>505</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10783,16 +10849,16 @@
         <v>295</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>230</v>
+        <v>493</v>
       </c>
       <c r="D125" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10836,16 +10902,16 @@
         <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>495</v>
+        <v>230</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10889,16 +10955,16 @@
         <v>295</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -10942,16 +11008,16 @@
         <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>496</v>
+        <v>234</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -10995,16 +11061,16 @@
         <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E129" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="F129" s="34" t="s">
-        <v>231</v>
+      <c r="F129" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -11048,16 +11114,16 @@
         <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>502</v>
+        <v>228</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11101,16 +11167,16 @@
         <v>295</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E131" s="35" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>311</v>
+        <v>501</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -11154,16 +11220,16 @@
         <v>295</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -11207,16 +11273,16 @@
         <v>295</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -11252,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
         <v>131</v>
       </c>
@@ -11260,16 +11326,16 @@
         <v>295</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E134" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F134" s="34" t="s">
-        <v>233</v>
+        <v>99</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>308</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11305,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
         <v>132</v>
       </c>
@@ -11313,16 +11379,16 @@
         <v>295</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F135" s="35" t="s">
-        <v>301</v>
+        <v>315</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11366,16 +11432,16 @@
         <v>295</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D136" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11419,16 +11485,16 @@
         <v>295</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D137" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11472,16 +11538,16 @@
         <v>295</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E138" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F138" s="34" t="s">
-        <v>236</v>
+      <c r="E138" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F138" s="35" t="s">
+        <v>313</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11525,16 +11591,16 @@
         <v>295</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E139" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F139" s="35" t="s">
-        <v>318</v>
+        <v>197</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="K139" s="34">
         <v>1</v>
@@ -11578,16 +11644,16 @@
         <v>295</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K140" s="34">
         <v>1</v>
@@ -11631,16 +11697,16 @@
         <v>295</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="D141" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>443</v>
+        <v>316</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>443</v>
+        <v>316</v>
       </c>
       <c r="K141" s="34">
         <v>1</v>
@@ -11684,16 +11750,16 @@
         <v>295</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11729,53 +11795,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="29">
         <v>140</v>
       </c>
-      <c r="B143" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C143" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D143" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K143" s="37">
-        <v>1</v>
-      </c>
-      <c r="L143" s="37">
-        <v>1</v>
-      </c>
-      <c r="M143" s="37">
-        <v>1</v>
-      </c>
-      <c r="N143" s="37">
-        <v>1</v>
-      </c>
-      <c r="O143" s="37">
-        <v>1</v>
-      </c>
-      <c r="P143" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="37">
-        <v>0</v>
-      </c>
-      <c r="R143" s="37">
-        <v>0</v>
-      </c>
-      <c r="S143" s="37">
-        <v>0</v>
-      </c>
-      <c r="T143" s="37">
-        <v>0</v>
-      </c>
-      <c r="U143" s="37">
+      <c r="B143" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="F143" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="K143" s="34">
+        <v>1</v>
+      </c>
+      <c r="L143" s="34">
+        <v>1</v>
+      </c>
+      <c r="M143" s="34">
+        <v>1</v>
+      </c>
+      <c r="N143" s="34">
+        <v>1</v>
+      </c>
+      <c r="O143" s="34">
+        <v>1</v>
+      </c>
+      <c r="P143" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="34">
+        <v>0</v>
+      </c>
+      <c r="R143" s="34">
+        <v>0</v>
+      </c>
+      <c r="S143" s="34">
+        <v>0</v>
+      </c>
+      <c r="T143" s="34">
+        <v>0</v>
+      </c>
+      <c r="U143" s="34">
         <v>0</v>
       </c>
     </row>
@@ -11787,13 +11856,13 @@
         <v>245</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E144" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K144" s="37">
         <v>1</v>
@@ -11834,16 +11903,16 @@
         <v>142</v>
       </c>
       <c r="B145" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K145" s="37">
         <v>1</v>
@@ -11879,53 +11948,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="29">
         <v>143</v>
       </c>
-      <c r="B146" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="K146" s="32">
-        <v>1</v>
-      </c>
-      <c r="L146" s="32">
-        <v>1</v>
-      </c>
-      <c r="M146" s="32">
-        <v>1</v>
-      </c>
-      <c r="N146" s="32">
-        <v>1</v>
-      </c>
-      <c r="O146" s="32">
-        <v>0</v>
-      </c>
-      <c r="P146" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="32">
-        <v>0</v>
-      </c>
-      <c r="R146" s="32">
-        <v>0</v>
-      </c>
-      <c r="S146" s="32">
-        <v>0</v>
-      </c>
-      <c r="T146" s="32">
-        <v>0</v>
-      </c>
-      <c r="U146" s="32">
+      <c r="B146" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K146" s="37">
+        <v>1</v>
+      </c>
+      <c r="L146" s="37">
+        <v>1</v>
+      </c>
+      <c r="M146" s="37">
+        <v>1</v>
+      </c>
+      <c r="N146" s="37">
+        <v>1</v>
+      </c>
+      <c r="O146" s="37">
+        <v>1</v>
+      </c>
+      <c r="P146" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="37">
+        <v>0</v>
+      </c>
+      <c r="R146" s="37">
+        <v>0</v>
+      </c>
+      <c r="S146" s="37">
+        <v>0</v>
+      </c>
+      <c r="T146" s="37">
+        <v>0</v>
+      </c>
+      <c r="U146" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11937,19 +12006,19 @@
         <v>263</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
       </c>
       <c r="L147" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="32">
         <v>1</v>
@@ -11987,13 +12056,13 @@
         <v>263</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -12037,13 +12106,13 @@
         <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>483</v>
+        <v>278</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12079,109 +12148,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="29">
         <v>147</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C150" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D150" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E150" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I150" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K150" s="40">
-        <v>1</v>
-      </c>
-      <c r="L150" s="40">
-        <v>0</v>
-      </c>
-      <c r="M150" s="40">
-        <v>1</v>
-      </c>
-      <c r="N150" s="40">
-        <v>1</v>
-      </c>
-      <c r="O150" s="40">
-        <v>0</v>
-      </c>
-      <c r="P150" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="40">
-        <v>0</v>
-      </c>
-      <c r="R150" s="40">
-        <v>0</v>
-      </c>
-      <c r="S150" s="40">
-        <v>0</v>
-      </c>
-      <c r="T150" s="40">
-        <v>0</v>
-      </c>
-      <c r="U150" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="K150" s="32">
+        <v>1</v>
+      </c>
+      <c r="L150" s="32">
+        <v>0</v>
+      </c>
+      <c r="M150" s="32">
+        <v>1</v>
+      </c>
+      <c r="N150" s="32">
+        <v>1</v>
+      </c>
+      <c r="O150" s="32">
+        <v>0</v>
+      </c>
+      <c r="P150" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="32">
+        <v>0</v>
+      </c>
+      <c r="R150" s="32">
+        <v>0</v>
+      </c>
+      <c r="S150" s="32">
+        <v>0</v>
+      </c>
+      <c r="T150" s="32">
+        <v>0</v>
+      </c>
+      <c r="U150" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K151" s="32">
-        <v>1</v>
-      </c>
-      <c r="L151" s="32">
-        <v>0</v>
-      </c>
-      <c r="M151" s="32">
-        <v>1</v>
-      </c>
-      <c r="N151" s="32">
-        <v>1</v>
-      </c>
-      <c r="O151" s="32">
-        <v>0</v>
-      </c>
-      <c r="P151" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="32">
-        <v>0</v>
-      </c>
-      <c r="R151" s="32">
-        <v>0</v>
-      </c>
-      <c r="S151" s="32">
-        <v>0</v>
-      </c>
-      <c r="T151" s="32">
-        <v>0</v>
-      </c>
-      <c r="U151" s="32">
+        <v>263</v>
+      </c>
+      <c r="C151" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E151" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I151" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K151" s="40">
+        <v>1</v>
+      </c>
+      <c r="L151" s="40">
+        <v>0</v>
+      </c>
+      <c r="M151" s="40">
+        <v>1</v>
+      </c>
+      <c r="N151" s="40">
+        <v>1</v>
+      </c>
+      <c r="O151" s="40">
+        <v>0</v>
+      </c>
+      <c r="P151" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="40">
+        <v>0</v>
+      </c>
+      <c r="R151" s="40">
+        <v>0</v>
+      </c>
+      <c r="S151" s="40">
+        <v>0</v>
+      </c>
+      <c r="T151" s="40">
+        <v>0</v>
+      </c>
+      <c r="U151" s="40">
         <v>0</v>
       </c>
     </row>
@@ -12190,22 +12259,16 @@
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C152" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E152" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H152" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="K152" s="32">
         <v>1</v>
@@ -12240,8 +12303,6 @@
       <c r="U152" s="32">
         <v>0</v>
       </c>
-      <c r="V152" s="39"/>
-      <c r="W152" s="39"/>
     </row>
     <row r="153" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="29">
@@ -12250,14 +12311,20 @@
       <c r="B153" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>259</v>
+      <c r="C153" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -12292,6 +12359,8 @@
       <c r="U153" s="32">
         <v>0</v>
       </c>
+      <c r="V153" s="39"/>
+      <c r="W153" s="39"/>
     </row>
     <row r="154" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
@@ -12301,13 +12370,13 @@
         <v>267</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12351,16 +12420,13 @@
         <v>267</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G155" s="32">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12404,13 +12470,16 @@
         <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>484</v>
+        <v>277</v>
+      </c>
+      <c r="G156" s="32">
+        <v>1</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12421,7 +12490,7 @@
       <c r="M156" s="32">
         <v>1</v>
       </c>
-      <c r="N156" s="40">
+      <c r="N156" s="32">
         <v>1</v>
       </c>
       <c r="O156" s="32">
@@ -12451,16 +12520,16 @@
         <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>559</v>
+        <v>267</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>323</v>
+        <v>483</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12501,16 +12570,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>322</v>
+        <v>553</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K158" s="32">
         <v>1</v>
@@ -12554,13 +12623,13 @@
         <v>322</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K159" s="32">
         <v>1</v>
@@ -12604,19 +12673,13 @@
         <v>322</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>123</v>
+        <v>328</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="H160" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I160" s="33" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12651,8 +12714,6 @@
       <c r="U160" s="32">
         <v>0</v>
       </c>
-      <c r="V160" s="39"/>
-      <c r="W160" s="39"/>
     </row>
     <row r="161" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="29">
@@ -12662,13 +12723,19 @@
         <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>99</v>
+        <v>326</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>452</v>
+        <v>327</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12703,22 +12770,24 @@
       <c r="U161" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V161" s="39"/>
+      <c r="W161" s="39"/>
+    </row>
+    <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
         <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>573</v>
+        <v>322</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12754,27 +12823,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="C163" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="D163" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="E163" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="H163" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I163" s="33" t="s">
-        <v>195</v>
+        <v>427</v>
       </c>
       <c r="K163" s="32">
         <v>1</v>
@@ -12809,24 +12872,28 @@
       <c r="U163" s="32">
         <v>0</v>
       </c>
-      <c r="V163" s="39"/>
-      <c r="W163" s="39"/>
     </row>
     <row r="164" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C164" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="C164" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>99</v>
+      <c r="D164" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>452</v>
+        <v>428</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I164" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K164" s="32">
         <v>1</v>
@@ -12861,65 +12928,58 @@
       <c r="U164" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V164" s="39"/>
+      <c r="W164" s="39"/>
+    </row>
+    <row r="165" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
         <v>162</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9">
-        <v>1</v>
-      </c>
-      <c r="L165" s="9">
-        <v>0</v>
-      </c>
-      <c r="M165" s="9">
-        <v>1</v>
-      </c>
-      <c r="N165" s="9">
-        <v>0</v>
-      </c>
-      <c r="O165" s="9">
-        <v>0</v>
-      </c>
-      <c r="P165" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="9">
-        <v>0</v>
-      </c>
-      <c r="R165" s="9">
-        <v>0</v>
-      </c>
-      <c r="S165" s="9">
-        <v>0</v>
-      </c>
-      <c r="T165" s="9">
-        <v>0</v>
-      </c>
-      <c r="U165" s="9">
-        <v>0</v>
-      </c>
-      <c r="V165" s="9"/>
-      <c r="W165" s="9"/>
-      <c r="X165" s="9"/>
-      <c r="Y165" s="9"/>
+      <c r="B165" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="K165" s="32">
+        <v>1</v>
+      </c>
+      <c r="L165" s="32">
+        <v>0</v>
+      </c>
+      <c r="M165" s="32">
+        <v>1</v>
+      </c>
+      <c r="N165" s="40">
+        <v>1</v>
+      </c>
+      <c r="O165" s="32">
+        <v>0</v>
+      </c>
+      <c r="P165" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="32">
+        <v>0</v>
+      </c>
+      <c r="R165" s="32">
+        <v>0</v>
+      </c>
+      <c r="S165" s="32">
+        <v>0</v>
+      </c>
+      <c r="T165" s="32">
+        <v>0</v>
+      </c>
+      <c r="U165" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
@@ -12928,14 +12988,14 @@
       <c r="B166" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>343</v>
+      <c r="C166" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -12946,16 +13006,16 @@
         <v>1</v>
       </c>
       <c r="L166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P166" s="9">
         <v>0</v>
@@ -12988,13 +13048,13 @@
         <v>337</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>344</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -13005,16 +13065,16 @@
         <v>1</v>
       </c>
       <c r="L167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" s="9">
         <v>1</v>
       </c>
       <c r="N167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" s="9">
         <v>0</v>
@@ -13047,13 +13107,13 @@
         <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13064,16 +13124,16 @@
         <v>1</v>
       </c>
       <c r="L168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" s="9">
         <v>1</v>
       </c>
       <c r="N168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" s="9">
         <v>0</v>
@@ -13106,13 +13166,13 @@
         <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>539</v>
+        <v>346</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>538</v>
+        <v>347</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13123,16 +13183,16 @@
         <v>1</v>
       </c>
       <c r="L169" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" s="9">
         <v>1</v>
       </c>
       <c r="N169" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P169" s="9">
         <v>0</v>
@@ -13165,13 +13225,13 @@
         <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13188,10 +13248,10 @@
         <v>1</v>
       </c>
       <c r="N170" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" s="9">
         <v>0</v>
@@ -13221,16 +13281,16 @@
         <v>168</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13241,16 +13301,16 @@
         <v>1</v>
       </c>
       <c r="L171" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" s="9">
         <v>1</v>
       </c>
       <c r="N171" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" s="9">
         <v>0</v>
@@ -13283,13 +13343,13 @@
         <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13303,10 +13363,10 @@
         <v>1</v>
       </c>
       <c r="M172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O172" s="9">
         <v>0</v>
@@ -13342,13 +13402,13 @@
         <v>348</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>350</v>
+        <v>585</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>351</v>
+        <v>143</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13359,16 +13419,16 @@
         <v>1</v>
       </c>
       <c r="L173" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" s="9">
         <v>1</v>
       </c>
       <c r="N173" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="9">
         <v>0</v>
@@ -13398,21 +13458,21 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>594</v>
+        <v>337</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9">
         <v>1</v>
@@ -13421,10 +13481,10 @@
         <v>1</v>
       </c>
       <c r="M174" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O174" s="9">
         <v>0</v>
@@ -13457,25 +13517,21 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>544</v>
+        <v>348</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>545</v>
+        <v>351</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
-      <c r="H175" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="I175" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
       <c r="J175" s="9"/>
       <c r="K175" s="9">
         <v>1</v>
@@ -13487,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="N175" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" s="9">
         <v>0</v>
@@ -13520,21 +13576,21 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>142</v>
+        <v>570</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9">
         <v>1</v>
@@ -13543,10 +13599,10 @@
         <v>1</v>
       </c>
       <c r="M176" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" s="9">
         <v>0</v>
@@ -13579,37 +13635,37 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>548</v>
+        <v>342</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>129</v>
+        <v>541</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
-      <c r="H177" s="10" t="s">
-        <v>550</v>
+      <c r="H177" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9">
         <v>1</v>
       </c>
       <c r="L177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" s="9">
         <v>1</v>
       </c>
       <c r="N177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" s="9">
         <v>0</v>
@@ -13642,27 +13698,31 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>552</v>
+        <v>201</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
+      <c r="H178" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>592</v>
+      </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9">
         <v>1</v>
       </c>
       <c r="L178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M178" s="9">
         <v>1</v>
@@ -13670,9 +13730,7 @@
       <c r="N178" s="9">
         <v>0</v>
       </c>
-      <c r="O178" s="9">
-        <v>0</v>
-      </c>
+      <c r="O178" s="9"/>
       <c r="P178" s="9">
         <v>0</v>
       </c>
@@ -13701,21 +13759,21 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>554</v>
+        <v>142</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
       <c r="J179" s="9"/>
       <c r="K179" s="9">
         <v>1</v>
@@ -13727,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="N179" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O179" s="9">
         <v>0</v>
@@ -13760,33 +13818,37 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>556</v>
+        <v>129</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
+      <c r="H180" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9">
         <v>1</v>
       </c>
       <c r="L180" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M180" s="9">
         <v>1</v>
       </c>
       <c r="N180" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180" s="9">
         <v>0</v>
@@ -13814,739 +13876,768 @@
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
     </row>
-    <row r="181" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A181" s="29">
         <v>178</v>
       </c>
-      <c r="B181" s="52" t="s">
-        <v>589</v>
-      </c>
-      <c r="C181" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="D181" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E181" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="H181" s="52"/>
-      <c r="I181" s="52"/>
-      <c r="K181" s="53">
-        <v>1</v>
-      </c>
-      <c r="L181" s="53">
-        <v>1</v>
-      </c>
-      <c r="M181" s="53">
-        <v>1</v>
-      </c>
-      <c r="N181" s="53">
-        <v>0</v>
-      </c>
-      <c r="O181" s="53">
-        <v>0</v>
-      </c>
-      <c r="P181" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="53">
-        <v>0</v>
-      </c>
-      <c r="R181" s="53">
-        <v>0</v>
-      </c>
-      <c r="S181" s="53">
-        <v>0</v>
-      </c>
-      <c r="T181" s="53">
-        <v>0</v>
-      </c>
-      <c r="U181" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9">
+        <v>1</v>
+      </c>
+      <c r="L181" s="9">
+        <v>1</v>
+      </c>
+      <c r="M181" s="9">
+        <v>1</v>
+      </c>
+      <c r="N181" s="9">
+        <v>1</v>
+      </c>
+      <c r="O181" s="9">
+        <v>0</v>
+      </c>
+      <c r="P181" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="9">
+        <v>0</v>
+      </c>
+      <c r="R181" s="9">
+        <v>0</v>
+      </c>
+      <c r="S181" s="9">
+        <v>0</v>
+      </c>
+      <c r="T181" s="9">
+        <v>0</v>
+      </c>
+      <c r="U181" s="9">
+        <v>0</v>
+      </c>
+      <c r="V181" s="9"/>
+      <c r="W181" s="9"/>
+      <c r="X181" s="9"/>
+      <c r="Y181" s="9"/>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A182" s="29">
         <v>179</v>
       </c>
-      <c r="B182" s="52" t="s">
-        <v>585</v>
-      </c>
-      <c r="C182" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="D182" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E182" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="H182" s="52"/>
-      <c r="I182" s="52"/>
-      <c r="K182" s="53">
-        <v>1</v>
-      </c>
-      <c r="L182" s="53">
-        <v>1</v>
-      </c>
-      <c r="M182" s="53">
-        <v>1</v>
-      </c>
-      <c r="N182" s="53">
-        <v>0</v>
-      </c>
-      <c r="O182" s="53">
-        <v>0</v>
-      </c>
-      <c r="P182" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="53">
-        <v>0</v>
-      </c>
-      <c r="R182" s="53">
-        <v>0</v>
-      </c>
-      <c r="S182" s="53">
-        <v>0</v>
-      </c>
-      <c r="T182" s="53">
-        <v>0</v>
-      </c>
-      <c r="U182" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9">
+        <v>1</v>
+      </c>
+      <c r="L182" s="9">
+        <v>1</v>
+      </c>
+      <c r="M182" s="9">
+        <v>1</v>
+      </c>
+      <c r="N182" s="9">
+        <v>1</v>
+      </c>
+      <c r="O182" s="9">
+        <v>0</v>
+      </c>
+      <c r="P182" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="9">
+        <v>0</v>
+      </c>
+      <c r="R182" s="9">
+        <v>0</v>
+      </c>
+      <c r="S182" s="9">
+        <v>0</v>
+      </c>
+      <c r="T182" s="9">
+        <v>0</v>
+      </c>
+      <c r="U182" s="9">
+        <v>0</v>
+      </c>
+      <c r="V182" s="9"/>
+      <c r="W182" s="9"/>
+      <c r="X182" s="9"/>
+      <c r="Y182" s="9"/>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A183" s="29">
         <v>180</v>
       </c>
-      <c r="B183" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="C183" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="D183" s="52" t="s">
+      <c r="B183" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D183" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E183" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="H183" s="52"/>
-      <c r="I183" s="52"/>
-      <c r="K183" s="53">
-        <v>1</v>
-      </c>
-      <c r="L183" s="53">
-        <v>1</v>
-      </c>
-      <c r="M183" s="53">
-        <v>0</v>
-      </c>
-      <c r="N183" s="53">
-        <v>0</v>
-      </c>
-      <c r="O183" s="53">
-        <v>0</v>
-      </c>
-      <c r="P183" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="53">
-        <v>0</v>
-      </c>
-      <c r="R183" s="53">
-        <v>0</v>
-      </c>
-      <c r="S183" s="53">
-        <v>0</v>
-      </c>
-      <c r="T183" s="53">
-        <v>0</v>
-      </c>
-      <c r="U183" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E183" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9">
+        <v>1</v>
+      </c>
+      <c r="L183" s="9">
+        <v>1</v>
+      </c>
+      <c r="M183" s="9">
+        <v>1</v>
+      </c>
+      <c r="N183" s="9">
+        <v>1</v>
+      </c>
+      <c r="O183" s="9">
+        <v>0</v>
+      </c>
+      <c r="P183" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="9">
+        <v>0</v>
+      </c>
+      <c r="R183" s="9">
+        <v>0</v>
+      </c>
+      <c r="S183" s="9">
+        <v>0</v>
+      </c>
+      <c r="T183" s="9">
+        <v>0</v>
+      </c>
+      <c r="U183" s="9">
+        <v>0</v>
+      </c>
+      <c r="V183" s="9"/>
+      <c r="W183" s="9"/>
+      <c r="X183" s="9"/>
+      <c r="Y183" s="9"/>
+    </row>
+    <row r="184" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
         <v>181</v>
       </c>
-      <c r="B184" s="54" t="s">
-        <v>568</v>
-      </c>
-      <c r="C184" s="54" t="s">
-        <v>569</v>
-      </c>
-      <c r="D184" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E184" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="H184" s="54"/>
-      <c r="I184" s="54"/>
-      <c r="K184" s="55">
-        <v>1</v>
-      </c>
-      <c r="L184" s="55">
-        <v>1</v>
-      </c>
-      <c r="M184" s="55">
-        <v>1</v>
-      </c>
-      <c r="N184" s="55">
-        <v>0</v>
-      </c>
-      <c r="O184" s="55">
-        <v>0</v>
-      </c>
-      <c r="P184" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="55">
-        <v>0</v>
-      </c>
-      <c r="R184" s="55">
-        <v>0</v>
-      </c>
-      <c r="S184" s="55">
-        <v>0</v>
-      </c>
-      <c r="T184" s="55">
-        <v>0</v>
-      </c>
-      <c r="U184" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C184" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="D184" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E184" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="H184" s="52"/>
+      <c r="I184" s="52"/>
+      <c r="K184" s="53">
+        <v>1</v>
+      </c>
+      <c r="L184" s="53">
+        <v>1</v>
+      </c>
+      <c r="M184" s="53">
+        <v>1</v>
+      </c>
+      <c r="N184" s="53">
+        <v>0</v>
+      </c>
+      <c r="O184" s="53">
+        <v>0</v>
+      </c>
+      <c r="P184" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="53">
+        <v>0</v>
+      </c>
+      <c r="R184" s="53">
+        <v>0</v>
+      </c>
+      <c r="S184" s="53">
+        <v>0</v>
+      </c>
+      <c r="T184" s="53">
+        <v>0</v>
+      </c>
+      <c r="U184" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
         <v>182</v>
       </c>
-      <c r="B185" s="54" t="s">
-        <v>571</v>
-      </c>
-      <c r="C185" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="D185" s="54" t="s">
+      <c r="B185" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="C185" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D185" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E185" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="H185" s="52"/>
+      <c r="I185" s="52"/>
+      <c r="K185" s="53">
+        <v>1</v>
+      </c>
+      <c r="L185" s="53">
+        <v>1</v>
+      </c>
+      <c r="M185" s="53">
+        <v>1</v>
+      </c>
+      <c r="N185" s="53">
+        <v>0</v>
+      </c>
+      <c r="O185" s="53">
+        <v>0</v>
+      </c>
+      <c r="P185" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="53">
+        <v>0</v>
+      </c>
+      <c r="R185" s="53">
+        <v>0</v>
+      </c>
+      <c r="S185" s="53">
+        <v>0</v>
+      </c>
+      <c r="T185" s="53">
+        <v>0</v>
+      </c>
+      <c r="U185" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="29">
+        <v>183</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C186" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="D186" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E186" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="H186" s="52"/>
+      <c r="I186" s="52"/>
+      <c r="K186" s="53">
+        <v>1</v>
+      </c>
+      <c r="L186" s="53">
+        <v>1</v>
+      </c>
+      <c r="M186" s="53">
+        <v>0</v>
+      </c>
+      <c r="N186" s="53">
+        <v>0</v>
+      </c>
+      <c r="O186" s="53">
+        <v>0</v>
+      </c>
+      <c r="P186" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="53">
+        <v>0</v>
+      </c>
+      <c r="R186" s="53">
+        <v>0</v>
+      </c>
+      <c r="S186" s="53">
+        <v>0</v>
+      </c>
+      <c r="T186" s="53">
+        <v>0</v>
+      </c>
+      <c r="U186" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="29">
+        <v>184</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C187" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="D187" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="E185" s="54" t="s">
-        <v>566</v>
-      </c>
-      <c r="H185" s="54"/>
-      <c r="I185" s="54"/>
-      <c r="K185" s="55">
-        <v>1</v>
-      </c>
-      <c r="L185" s="55">
-        <v>1</v>
-      </c>
-      <c r="M185" s="55">
-        <v>1</v>
-      </c>
-      <c r="N185" s="55">
-        <v>0</v>
-      </c>
-      <c r="O185" s="55">
-        <v>0</v>
-      </c>
-      <c r="P185" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="55">
-        <v>0</v>
-      </c>
-      <c r="R185" s="55">
-        <v>0</v>
-      </c>
-      <c r="S185" s="55">
-        <v>0</v>
-      </c>
-      <c r="T185" s="55">
-        <v>0</v>
-      </c>
-      <c r="U185" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="56">
-        <v>182</v>
-      </c>
-      <c r="B186" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="C186" s="57" t="s">
+      <c r="E187" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H187" s="54"/>
+      <c r="I187" s="54"/>
+      <c r="K187" s="55">
+        <v>1</v>
+      </c>
+      <c r="L187" s="55">
+        <v>1</v>
+      </c>
+      <c r="M187" s="55">
+        <v>1</v>
+      </c>
+      <c r="N187" s="55">
+        <v>0</v>
+      </c>
+      <c r="O187" s="55">
+        <v>0</v>
+      </c>
+      <c r="P187" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="55">
+        <v>0</v>
+      </c>
+      <c r="R187" s="55">
+        <v>0</v>
+      </c>
+      <c r="S187" s="55">
+        <v>0</v>
+      </c>
+      <c r="T187" s="55">
+        <v>0</v>
+      </c>
+      <c r="U187" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="29">
+        <v>185</v>
+      </c>
+      <c r="B188" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="C188" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="D188" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="H188" s="54"/>
+      <c r="I188" s="54"/>
+      <c r="K188" s="55">
+        <v>1</v>
+      </c>
+      <c r="L188" s="55">
+        <v>1</v>
+      </c>
+      <c r="M188" s="55">
+        <v>1</v>
+      </c>
+      <c r="N188" s="55">
+        <v>0</v>
+      </c>
+      <c r="O188" s="55">
+        <v>0</v>
+      </c>
+      <c r="P188" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="55">
+        <v>0</v>
+      </c>
+      <c r="R188" s="55">
+        <v>0</v>
+      </c>
+      <c r="S188" s="55">
+        <v>0</v>
+      </c>
+      <c r="T188" s="55">
+        <v>0</v>
+      </c>
+      <c r="U188" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="29">
+        <v>186</v>
+      </c>
+      <c r="B189" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="C189" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D186" s="57" t="s">
+      <c r="D189" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E186" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="H186" s="57"/>
-      <c r="I186" s="57"/>
-      <c r="K186" s="58">
-        <v>1</v>
-      </c>
-      <c r="L186" s="58">
-        <v>1</v>
-      </c>
-      <c r="M186" s="58">
-        <v>1</v>
-      </c>
-      <c r="N186" s="58">
-        <v>0</v>
-      </c>
-      <c r="O186" s="58">
-        <v>0</v>
-      </c>
-      <c r="P186" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="58">
-        <v>0</v>
-      </c>
-      <c r="R186" s="58">
-        <v>0</v>
-      </c>
-      <c r="S186" s="58">
-        <v>0</v>
-      </c>
-      <c r="T186" s="58">
-        <v>0</v>
-      </c>
-      <c r="U186" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="56">
-        <v>182</v>
-      </c>
-      <c r="B187" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="C187" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="D187" s="57" t="s">
+      <c r="E189" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H189" s="56"/>
+      <c r="I189" s="56"/>
+      <c r="K189" s="57">
+        <v>1</v>
+      </c>
+      <c r="L189" s="57">
+        <v>0</v>
+      </c>
+      <c r="M189" s="57">
+        <v>1</v>
+      </c>
+      <c r="N189" s="57">
+        <v>0</v>
+      </c>
+      <c r="O189" s="57">
+        <v>0</v>
+      </c>
+      <c r="P189" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="57">
+        <v>0</v>
+      </c>
+      <c r="R189" s="57">
+        <v>0</v>
+      </c>
+      <c r="S189" s="57">
+        <v>0</v>
+      </c>
+      <c r="T189" s="57">
+        <v>0</v>
+      </c>
+      <c r="U189" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="29">
         <v>187</v>
       </c>
-      <c r="E187" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="H187" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="I187" s="57" t="s">
-        <v>590</v>
-      </c>
-      <c r="K187" s="58">
-        <v>1</v>
-      </c>
-      <c r="L187" s="58">
-        <v>1</v>
-      </c>
-      <c r="M187" s="58">
-        <v>1</v>
-      </c>
-      <c r="N187" s="58">
-        <v>0</v>
-      </c>
-      <c r="O187" s="58">
-        <v>0</v>
-      </c>
-      <c r="P187" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="58">
-        <v>0</v>
-      </c>
-      <c r="R187" s="58">
-        <v>0</v>
-      </c>
-      <c r="S187" s="58">
-        <v>0</v>
-      </c>
-      <c r="T187" s="58">
-        <v>0</v>
-      </c>
-      <c r="U187" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="29">
-        <v>183</v>
-      </c>
-      <c r="B188" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C188" s="44" t="s">
+      <c r="B190" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="C190" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="H190" s="56"/>
+      <c r="I190" s="56"/>
+      <c r="K190" s="57">
+        <v>1</v>
+      </c>
+      <c r="L190" s="57">
+        <v>0</v>
+      </c>
+      <c r="M190" s="57">
+        <v>1</v>
+      </c>
+      <c r="N190" s="57">
+        <v>0</v>
+      </c>
+      <c r="O190" s="57">
+        <v>0</v>
+      </c>
+      <c r="P190" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="57">
+        <v>0</v>
+      </c>
+      <c r="R190" s="57">
+        <v>0</v>
+      </c>
+      <c r="S190" s="57">
+        <v>0</v>
+      </c>
+      <c r="T190" s="57">
+        <v>0</v>
+      </c>
+      <c r="U190" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="29">
+        <v>188</v>
+      </c>
+      <c r="B191" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="C191" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D191" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="H191" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="I191" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="57">
+        <v>1</v>
+      </c>
+      <c r="L191" s="57">
+        <v>0</v>
+      </c>
+      <c r="M191" s="57">
+        <v>1</v>
+      </c>
+      <c r="N191" s="57">
+        <v>0</v>
+      </c>
+      <c r="O191" s="57">
+        <v>0</v>
+      </c>
+      <c r="P191" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="57">
+        <v>0</v>
+      </c>
+      <c r="R191" s="57">
+        <v>0</v>
+      </c>
+      <c r="S191" s="57">
+        <v>0</v>
+      </c>
+      <c r="T191" s="57">
+        <v>0</v>
+      </c>
+      <c r="U191" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="29">
+        <v>189</v>
+      </c>
+      <c r="B192" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C192" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="D192" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="D188" s="44" t="s">
+      <c r="E192" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="K192" s="43">
+        <v>1</v>
+      </c>
+      <c r="L192" s="43">
+        <v>1</v>
+      </c>
+      <c r="M192" s="43">
+        <v>1</v>
+      </c>
+      <c r="N192" s="43">
+        <v>1</v>
+      </c>
+      <c r="O192" s="43">
+        <v>1</v>
+      </c>
+      <c r="P192" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="43">
+        <v>0</v>
+      </c>
+      <c r="R192" s="43">
+        <v>0</v>
+      </c>
+      <c r="S192" s="43">
+        <v>0</v>
+      </c>
+      <c r="T192" s="43">
+        <v>0</v>
+      </c>
+      <c r="U192" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="29">
+        <v>190</v>
+      </c>
+      <c r="B193" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C193" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="E188" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="K188" s="43">
-        <v>1</v>
-      </c>
-      <c r="L188" s="43">
-        <v>1</v>
-      </c>
-      <c r="M188" s="43">
-        <v>1</v>
-      </c>
-      <c r="N188" s="43">
-        <v>1</v>
-      </c>
-      <c r="O188" s="43">
-        <v>1</v>
-      </c>
-      <c r="P188" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="43">
-        <v>0</v>
-      </c>
-      <c r="R188" s="43">
-        <v>0</v>
-      </c>
-      <c r="S188" s="43">
-        <v>0</v>
-      </c>
-      <c r="T188" s="43">
-        <v>0</v>
-      </c>
-      <c r="U188" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="29">
-        <v>184</v>
-      </c>
-      <c r="B189" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C189" s="44" t="s">
+      <c r="D193" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="D189" s="44" t="s">
+      <c r="E193" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="E189" s="44" t="s">
+      <c r="K193" s="43">
+        <v>1</v>
+      </c>
+      <c r="L193" s="43">
+        <v>1</v>
+      </c>
+      <c r="M193" s="43">
+        <v>1</v>
+      </c>
+      <c r="N193" s="43">
+        <v>1</v>
+      </c>
+      <c r="O193" s="43">
+        <v>1</v>
+      </c>
+      <c r="P193" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="43">
+        <v>0</v>
+      </c>
+      <c r="R193" s="43">
+        <v>0</v>
+      </c>
+      <c r="S193" s="43">
+        <v>0</v>
+      </c>
+      <c r="T193" s="43">
+        <v>0</v>
+      </c>
+      <c r="U193" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="29">
+        <v>191</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C194" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D194" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="K189" s="43">
-        <v>1</v>
-      </c>
-      <c r="L189" s="43">
-        <v>1</v>
-      </c>
-      <c r="M189" s="43">
-        <v>1</v>
-      </c>
-      <c r="N189" s="43">
-        <v>1</v>
-      </c>
-      <c r="O189" s="43">
-        <v>1</v>
-      </c>
-      <c r="P189" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="43">
-        <v>0</v>
-      </c>
-      <c r="R189" s="43">
-        <v>0</v>
-      </c>
-      <c r="S189" s="43">
-        <v>0</v>
-      </c>
-      <c r="T189" s="43">
-        <v>0</v>
-      </c>
-      <c r="U189" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="29">
-        <v>185</v>
-      </c>
-      <c r="B190" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C190" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="D190" s="44" t="s">
+      <c r="E194" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="E190" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="K190" s="43">
-        <v>1</v>
-      </c>
-      <c r="L190" s="43">
-        <v>1</v>
-      </c>
-      <c r="M190" s="43">
-        <v>1</v>
-      </c>
-      <c r="N190" s="43">
-        <v>1</v>
-      </c>
-      <c r="O190" s="43">
-        <v>1</v>
-      </c>
-      <c r="P190" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q190" s="43">
-        <v>0</v>
-      </c>
-      <c r="R190" s="43">
-        <v>0</v>
-      </c>
-      <c r="S190" s="43">
-        <v>0</v>
-      </c>
-      <c r="T190" s="43">
-        <v>0</v>
-      </c>
-      <c r="U190" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="29">
-        <v>186</v>
-      </c>
-      <c r="B191" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C191" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="D191" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E191" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="K191" s="49">
-        <v>1</v>
-      </c>
-      <c r="L191" s="49">
-        <v>1</v>
-      </c>
-      <c r="M191" s="49">
-        <v>0</v>
-      </c>
-      <c r="N191" s="49">
-        <v>0</v>
-      </c>
-      <c r="O191" s="49">
-        <v>0</v>
-      </c>
-      <c r="P191" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="49">
-        <v>0</v>
-      </c>
-      <c r="R191" s="49">
-        <v>0</v>
-      </c>
-      <c r="S191" s="49">
-        <v>0</v>
-      </c>
-      <c r="T191" s="49">
-        <v>0</v>
-      </c>
-      <c r="U191" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="29">
-        <v>187</v>
-      </c>
-      <c r="B192" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="D192" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E192" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="K192" s="49">
-        <v>1</v>
-      </c>
-      <c r="L192" s="49">
-        <v>1</v>
-      </c>
-      <c r="M192" s="49">
-        <v>0</v>
-      </c>
-      <c r="N192" s="49">
-        <v>0</v>
-      </c>
-      <c r="O192" s="49">
-        <v>0</v>
-      </c>
-      <c r="P192" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q192" s="49">
-        <v>0</v>
-      </c>
-      <c r="R192" s="49">
-        <v>0</v>
-      </c>
-      <c r="S192" s="49">
-        <v>0</v>
-      </c>
-      <c r="T192" s="49">
-        <v>0</v>
-      </c>
-      <c r="U192" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="29">
-        <v>188</v>
-      </c>
-      <c r="B193" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C193" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="D193" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E193" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="K193" s="49">
-        <v>1</v>
-      </c>
-      <c r="L193" s="49">
-        <v>1</v>
-      </c>
-      <c r="M193" s="49">
-        <v>0</v>
-      </c>
-      <c r="N193" s="49">
-        <v>0</v>
-      </c>
-      <c r="O193" s="49">
-        <v>0</v>
-      </c>
-      <c r="P193" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q193" s="49">
-        <v>0</v>
-      </c>
-      <c r="R193" s="49">
-        <v>0</v>
-      </c>
-      <c r="S193" s="49">
-        <v>0</v>
-      </c>
-      <c r="T193" s="49">
-        <v>0</v>
-      </c>
-      <c r="U193" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="29">
-        <v>189</v>
-      </c>
-      <c r="B194" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C194" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="D194" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="E194" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="K194" s="49">
-        <v>1</v>
-      </c>
-      <c r="L194" s="49">
-        <v>1</v>
-      </c>
-      <c r="M194" s="49">
-        <v>0</v>
-      </c>
-      <c r="N194" s="49">
-        <v>0</v>
-      </c>
-      <c r="O194" s="49">
-        <v>0</v>
-      </c>
-      <c r="P194" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q194" s="49">
-        <v>0</v>
-      </c>
-      <c r="R194" s="49">
-        <v>0</v>
-      </c>
-      <c r="S194" s="49">
-        <v>0</v>
-      </c>
-      <c r="T194" s="49">
-        <v>0</v>
-      </c>
-      <c r="U194" s="49">
+      <c r="K194" s="43">
+        <v>1</v>
+      </c>
+      <c r="L194" s="43">
+        <v>1</v>
+      </c>
+      <c r="M194" s="43">
+        <v>1</v>
+      </c>
+      <c r="N194" s="43">
+        <v>1</v>
+      </c>
+      <c r="O194" s="43">
+        <v>1</v>
+      </c>
+      <c r="P194" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="43">
+        <v>0</v>
+      </c>
+      <c r="R194" s="43">
+        <v>0</v>
+      </c>
+      <c r="S194" s="43">
+        <v>0</v>
+      </c>
+      <c r="T194" s="43">
+        <v>0</v>
+      </c>
+      <c r="U194" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C195" s="48" t="s">
         <v>378</v>
-      </c>
-      <c r="C195" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="D195" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K195" s="49">
         <v>1</v>
@@ -14584,19 +14675,19 @@
     </row>
     <row r="196" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="K196" s="49">
         <v>1</v>
@@ -14634,19 +14725,19 @@
     </row>
     <row r="197" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="D197" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K197" s="49">
         <v>1</v>
@@ -14684,19 +14775,19 @@
     </row>
     <row r="198" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="29">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14734,19 +14825,19 @@
     </row>
     <row r="199" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="29">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C199" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14784,19 +14875,19 @@
     </row>
     <row r="200" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="29">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D200" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14834,19 +14925,19 @@
     </row>
     <row r="201" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="29">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C201" s="49" t="s">
-        <v>397</v>
+        <v>377</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>388</v>
       </c>
       <c r="D201" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14884,19 +14975,19 @@
     </row>
     <row r="202" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="29">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D202" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K202" s="49">
         <v>1</v>
@@ -14934,19 +15025,19 @@
     </row>
     <row r="203" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="29">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K203" s="49">
         <v>1</v>
@@ -14984,19 +15075,19 @@
     </row>
     <row r="204" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="D204" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="K204" s="49">
         <v>1</v>
@@ -15034,19 +15125,19 @@
     </row>
     <row r="205" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="29">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>477</v>
+        <v>377</v>
+      </c>
+      <c r="C205" s="49" t="s">
+        <v>396</v>
       </c>
       <c r="D205" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15084,19 +15175,19 @@
     </row>
     <row r="206" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="29">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="D206" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15134,19 +15225,19 @@
     </row>
     <row r="207" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="29">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>479</v>
+        <v>401</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15184,19 +15275,19 @@
     </row>
     <row r="208" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="29">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15234,19 +15325,19 @@
     </row>
     <row r="209" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="29">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="D209" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15284,19 +15375,19 @@
     </row>
     <row r="210" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="29">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="D210" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="K210" s="49">
         <v>1</v>
@@ -15334,19 +15425,19 @@
     </row>
     <row r="211" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="29">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="D211" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="K211" s="49">
         <v>1</v>
@@ -15384,157 +15475,357 @@
     </row>
     <row r="212" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="29">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C212" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D212" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E212" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="K212" s="49">
+        <v>1</v>
+      </c>
+      <c r="L212" s="49">
+        <v>1</v>
+      </c>
+      <c r="M212" s="49">
+        <v>0</v>
+      </c>
+      <c r="N212" s="49">
+        <v>0</v>
+      </c>
+      <c r="O212" s="49">
+        <v>0</v>
+      </c>
+      <c r="P212" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="49">
+        <v>0</v>
+      </c>
+      <c r="R212" s="49">
+        <v>0</v>
+      </c>
+      <c r="S212" s="49">
+        <v>0</v>
+      </c>
+      <c r="T212" s="49">
+        <v>0</v>
+      </c>
+      <c r="U212" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="29">
+        <v>210</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K213" s="49">
+        <v>1</v>
+      </c>
+      <c r="L213" s="49">
+        <v>1</v>
+      </c>
+      <c r="M213" s="49">
+        <v>0</v>
+      </c>
+      <c r="N213" s="49">
+        <v>0</v>
+      </c>
+      <c r="O213" s="49">
+        <v>0</v>
+      </c>
+      <c r="P213" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="49">
+        <v>0</v>
+      </c>
+      <c r="R213" s="49">
+        <v>0</v>
+      </c>
+      <c r="S213" s="49">
+        <v>0</v>
+      </c>
+      <c r="T213" s="49">
+        <v>0</v>
+      </c>
+      <c r="U213" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="29">
+        <v>211</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C214" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D214" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="K214" s="49">
+        <v>1</v>
+      </c>
+      <c r="L214" s="49">
+        <v>1</v>
+      </c>
+      <c r="M214" s="49">
+        <v>0</v>
+      </c>
+      <c r="N214" s="49">
+        <v>0</v>
+      </c>
+      <c r="O214" s="49">
+        <v>0</v>
+      </c>
+      <c r="P214" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="49">
+        <v>0</v>
+      </c>
+      <c r="R214" s="49">
+        <v>0</v>
+      </c>
+      <c r="S214" s="49">
+        <v>0</v>
+      </c>
+      <c r="T214" s="49">
+        <v>0</v>
+      </c>
+      <c r="U214" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="29">
+        <v>212</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K215" s="49">
+        <v>1</v>
+      </c>
+      <c r="L215" s="49">
+        <v>1</v>
+      </c>
+      <c r="M215" s="49">
+        <v>0</v>
+      </c>
+      <c r="N215" s="49">
+        <v>0</v>
+      </c>
+      <c r="O215" s="49">
+        <v>0</v>
+      </c>
+      <c r="P215" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="49">
+        <v>0</v>
+      </c>
+      <c r="R215" s="49">
+        <v>0</v>
+      </c>
+      <c r="S215" s="49">
+        <v>0</v>
+      </c>
+      <c r="T215" s="49">
+        <v>0</v>
+      </c>
+      <c r="U215" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="29">
+        <v>213</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E216" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D212" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E212" s="48" t="s">
-        <v>414</v>
-      </c>
-      <c r="H212" s="48"/>
-      <c r="K212" s="49">
-        <v>1</v>
-      </c>
-      <c r="L212" s="49">
-        <v>1</v>
-      </c>
-      <c r="M212" s="49">
-        <v>0</v>
-      </c>
-      <c r="N212" s="49">
-        <v>0</v>
-      </c>
-      <c r="O212" s="49">
-        <v>0</v>
-      </c>
-      <c r="P212" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q212" s="49">
-        <v>0</v>
-      </c>
-      <c r="R212" s="49">
-        <v>0</v>
-      </c>
-      <c r="S212" s="49">
-        <v>0</v>
-      </c>
-      <c r="T212" s="49">
-        <v>0</v>
-      </c>
-      <c r="U212" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="29">
-        <v>208</v>
-      </c>
-      <c r="B213" s="50" t="s">
+      <c r="H216" s="48"/>
+      <c r="K216" s="49">
+        <v>1</v>
+      </c>
+      <c r="L216" s="49">
+        <v>1</v>
+      </c>
+      <c r="M216" s="49">
+        <v>0</v>
+      </c>
+      <c r="N216" s="49">
+        <v>0</v>
+      </c>
+      <c r="O216" s="49">
+        <v>0</v>
+      </c>
+      <c r="P216" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q216" s="49">
+        <v>0</v>
+      </c>
+      <c r="R216" s="49">
+        <v>0</v>
+      </c>
+      <c r="S216" s="49">
+        <v>0</v>
+      </c>
+      <c r="T216" s="49">
+        <v>0</v>
+      </c>
+      <c r="U216" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="29">
+        <v>214</v>
+      </c>
+      <c r="B217" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C217" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="C213" s="50" t="s">
+      <c r="D217" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="D213" s="50" t="s">
+      <c r="E217" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="E213" s="50" t="s">
+      <c r="K217" s="51">
+        <v>1</v>
+      </c>
+      <c r="L217" s="51">
+        <v>1</v>
+      </c>
+      <c r="M217" s="51">
+        <v>1</v>
+      </c>
+      <c r="N217" s="51">
+        <v>1</v>
+      </c>
+      <c r="O217" s="51">
+        <v>0</v>
+      </c>
+      <c r="P217" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="51">
+        <v>0</v>
+      </c>
+      <c r="R217" s="51">
+        <v>0</v>
+      </c>
+      <c r="S217" s="51">
+        <v>0</v>
+      </c>
+      <c r="T217" s="51">
+        <v>0</v>
+      </c>
+      <c r="U217" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="29">
+        <v>215</v>
+      </c>
+      <c r="B218" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C218" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="K213" s="51">
-        <v>1</v>
-      </c>
-      <c r="L213" s="51">
-        <v>1</v>
-      </c>
-      <c r="M213" s="51">
-        <v>1</v>
-      </c>
-      <c r="N213" s="51">
-        <v>1</v>
-      </c>
-      <c r="O213" s="51">
-        <v>0</v>
-      </c>
-      <c r="P213" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q213" s="51">
-        <v>0</v>
-      </c>
-      <c r="R213" s="51">
-        <v>0</v>
-      </c>
-      <c r="S213" s="51">
-        <v>0</v>
-      </c>
-      <c r="T213" s="51">
-        <v>0</v>
-      </c>
-      <c r="U213" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="29">
-        <v>209</v>
-      </c>
-      <c r="B214" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="C214" s="50" t="s">
+      <c r="D218" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E218" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="D214" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="E214" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="K214" s="51">
-        <v>1</v>
-      </c>
-      <c r="L214" s="51">
-        <v>1</v>
-      </c>
-      <c r="M214" s="51">
-        <v>1</v>
-      </c>
-      <c r="N214" s="51">
-        <v>1</v>
-      </c>
-      <c r="O214" s="51">
-        <v>0</v>
-      </c>
-      <c r="P214" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q214" s="51">
-        <v>0</v>
-      </c>
-      <c r="R214" s="51">
-        <v>0</v>
-      </c>
-      <c r="S214" s="51">
-        <v>0</v>
-      </c>
-      <c r="T214" s="51">
-        <v>0</v>
-      </c>
-      <c r="U214" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A215" s="29"/>
+      <c r="K218" s="51">
+        <v>1</v>
+      </c>
+      <c r="L218" s="51">
+        <v>1</v>
+      </c>
+      <c r="M218" s="51">
+        <v>1</v>
+      </c>
+      <c r="N218" s="51">
+        <v>1</v>
+      </c>
+      <c r="O218" s="51">
+        <v>0</v>
+      </c>
+      <c r="P218" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="51">
+        <v>0</v>
+      </c>
+      <c r="R218" s="51">
+        <v>0</v>
+      </c>
+      <c r="S218" s="51">
+        <v>0</v>
+      </c>
+      <c r="T218" s="51">
+        <v>0</v>
+      </c>
+      <c r="U218" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A219" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M166" authorId="0" shapeId="0">
+    <comment ref="M167" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="607">
   <si>
     <t>Class</t>
   </si>
@@ -3346,6 +3346,10 @@
   </si>
   <si>
     <t>BasicPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4167,11 +4171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y219"/>
+  <dimension ref="A1:Y220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K195" sqref="K195"/>
+      <pane ySplit="3" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6169,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="20">
         <v>1</v>
@@ -9044,59 +9048,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
         <v>89</v>
       </c>
-      <c r="B92" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C92" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="K92" s="46">
-        <v>1</v>
-      </c>
-      <c r="L92" s="46">
-        <v>0</v>
-      </c>
-      <c r="M92" s="46">
-        <v>1</v>
-      </c>
-      <c r="N92" s="46">
-        <v>0</v>
-      </c>
-      <c r="O92" s="46">
-        <v>0</v>
-      </c>
-      <c r="P92" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="46">
-        <v>0</v>
-      </c>
-      <c r="R92" s="46">
-        <v>0</v>
-      </c>
-      <c r="S92" s="46">
-        <v>0</v>
-      </c>
-      <c r="T92" s="46">
-        <v>0</v>
-      </c>
-      <c r="U92" s="46">
-        <v>0</v>
-      </c>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
+      <c r="B92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K92" s="7">
+        <v>1</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
@@ -9106,20 +9106,16 @@
         <v>371</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>429</v>
+        <v>197</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I93" s="45" t="s">
-        <v>195</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
       <c r="K93" s="46">
         <v>1</v>
       </c>
@@ -9161,19 +9157,23 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
+        <v>430</v>
+      </c>
+      <c r="H94" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I94" s="45" t="s">
+        <v>195</v>
+      </c>
       <c r="K94" s="46">
         <v>1</v>
       </c>
@@ -9215,16 +9215,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>143</v>
+        <v>432</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9269,16 +9269,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9326,13 +9326,13 @@
         <v>371</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9380,13 +9380,13 @@
         <v>371</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -9434,13 +9434,13 @@
         <v>371</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H99" s="45"/>
       <c r="I99" s="45"/>
@@ -9480,68 +9480,59 @@
       <c r="V99" s="47"/>
       <c r="W99" s="47"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
         <v>97</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11">
-        <v>1</v>
-      </c>
-      <c r="L100" s="11">
-        <v>1</v>
-      </c>
-      <c r="M100" s="11">
-        <v>1</v>
-      </c>
-      <c r="N100" s="11">
-        <v>1</v>
-      </c>
-      <c r="O100" s="11">
-        <v>1</v>
-      </c>
-      <c r="P100" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="9">
-        <v>0</v>
-      </c>
-      <c r="R100" s="9">
-        <v>0</v>
-      </c>
-      <c r="S100" s="9">
-        <v>0</v>
-      </c>
-      <c r="T100" s="9">
-        <v>0</v>
-      </c>
-      <c r="U100" s="11">
-        <v>0</v>
-      </c>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
+      <c r="B100" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="K100" s="46">
+        <v>1</v>
+      </c>
+      <c r="L100" s="46">
+        <v>0</v>
+      </c>
+      <c r="M100" s="46">
+        <v>1</v>
+      </c>
+      <c r="N100" s="46">
+        <v>0</v>
+      </c>
+      <c r="O100" s="46">
+        <v>0</v>
+      </c>
+      <c r="P100" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>0</v>
+      </c>
+      <c r="R100" s="46">
+        <v>0</v>
+      </c>
+      <c r="S100" s="46">
+        <v>0</v>
+      </c>
+      <c r="T100" s="46">
+        <v>0</v>
+      </c>
+      <c r="U100" s="46">
+        <v>0</v>
+      </c>
+      <c r="V100" s="47"/>
+      <c r="W100" s="47"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
@@ -9550,19 +9541,23 @@
       <c r="B101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>82</v>
+      <c r="C101" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="H101" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="J101" s="11"/>
       <c r="K101" s="11">
         <v>1</v>
@@ -9610,13 +9605,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -9668,14 +9663,14 @@
       <c r="B103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>85</v>
+      <c r="C103" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -9727,14 +9722,14 @@
       <c r="B104" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>87</v>
+      <c r="C104" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -9786,14 +9781,14 @@
       <c r="B105" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>53</v>
+      <c r="C105" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="12" t="s">
-        <v>79</v>
+      <c r="E105" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -9838,58 +9833,66 @@
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
     </row>
-    <row r="106" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="25"/>
-      <c r="K106" s="24">
-        <v>1</v>
-      </c>
-      <c r="L106" s="24">
-        <v>1</v>
-      </c>
-      <c r="M106" s="24">
-        <v>1</v>
-      </c>
-      <c r="N106" s="24">
-        <v>1</v>
-      </c>
-      <c r="O106" s="24">
-        <v>0</v>
-      </c>
-      <c r="P106" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="24">
-        <v>0</v>
-      </c>
-      <c r="R106" s="24">
-        <v>0</v>
-      </c>
-      <c r="S106" s="24">
-        <v>0</v>
-      </c>
-      <c r="T106" s="24">
-        <v>0</v>
-      </c>
-      <c r="U106" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11">
+        <v>1</v>
+      </c>
+      <c r="L106" s="11">
+        <v>1</v>
+      </c>
+      <c r="M106" s="11">
+        <v>1</v>
+      </c>
+      <c r="N106" s="11">
+        <v>1</v>
+      </c>
+      <c r="O106" s="11">
+        <v>1</v>
+      </c>
+      <c r="P106" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="9">
+        <v>0</v>
+      </c>
+      <c r="R106" s="9">
+        <v>0</v>
+      </c>
+      <c r="S106" s="9">
+        <v>0</v>
+      </c>
+      <c r="T106" s="9">
+        <v>0</v>
+      </c>
+      <c r="U106" s="11">
+        <v>0</v>
+      </c>
+      <c r="V106" s="11"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
+    </row>
+    <row r="107" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -9897,13 +9900,13 @@
         <v>95</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F107" s="25"/>
       <c r="K107" s="24">
@@ -9940,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
@@ -9948,13 +9951,13 @@
         <v>95</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F108" s="25"/>
       <c r="K108" s="24">
@@ -9991,66 +9994,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
         <v>106</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9">
-        <v>1</v>
-      </c>
-      <c r="L109" s="9">
-        <v>1</v>
-      </c>
-      <c r="M109" s="9">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9">
-        <v>1</v>
-      </c>
-      <c r="O109" s="9">
-        <v>1</v>
-      </c>
-      <c r="P109" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="9">
-        <v>0</v>
-      </c>
-      <c r="R109" s="9">
-        <v>0</v>
-      </c>
-      <c r="S109" s="9">
-        <v>0</v>
-      </c>
-      <c r="T109" s="9">
-        <v>0</v>
-      </c>
-      <c r="U109" s="9">
-        <v>0</v>
-      </c>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
+      <c r="B109" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="25"/>
+      <c r="K109" s="24">
+        <v>1</v>
+      </c>
+      <c r="L109" s="24">
+        <v>1</v>
+      </c>
+      <c r="M109" s="24">
+        <v>1</v>
+      </c>
+      <c r="N109" s="24">
+        <v>1</v>
+      </c>
+      <c r="O109" s="24">
+        <v>0</v>
+      </c>
+      <c r="P109" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="24">
+        <v>0</v>
+      </c>
+      <c r="R109" s="24">
+        <v>0</v>
+      </c>
+      <c r="S109" s="24">
+        <v>0</v>
+      </c>
+      <c r="T109" s="24">
+        <v>0</v>
+      </c>
+      <c r="U109" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
@@ -10059,16 +10052,18 @@
       <c r="B110" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>192</v>
+      <c r="C110" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F110" s="10"/>
+      <c r="E110" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -10111,55 +10106,64 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="K111" s="37">
-        <v>1</v>
-      </c>
-      <c r="L111" s="37">
-        <v>1</v>
-      </c>
-      <c r="M111" s="37">
-        <v>1</v>
-      </c>
-      <c r="N111" s="37">
-        <v>1</v>
-      </c>
-      <c r="O111" s="37">
-        <v>0</v>
-      </c>
-      <c r="P111" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="37">
-        <v>0</v>
-      </c>
-      <c r="R111" s="37">
-        <v>0</v>
-      </c>
-      <c r="S111" s="37">
-        <v>0</v>
-      </c>
-      <c r="T111" s="37">
-        <v>0</v>
-      </c>
-      <c r="U111" s="37">
-        <v>0</v>
-      </c>
+      <c r="B111" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9">
+        <v>1</v>
+      </c>
+      <c r="L111" s="9">
+        <v>1</v>
+      </c>
+      <c r="M111" s="9">
+        <v>1</v>
+      </c>
+      <c r="N111" s="9">
+        <v>1</v>
+      </c>
+      <c r="O111" s="9">
+        <v>1</v>
+      </c>
+      <c r="P111" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="9">
+        <v>0</v>
+      </c>
+      <c r="R111" s="9">
+        <v>0</v>
+      </c>
+      <c r="S111" s="9">
+        <v>0</v>
+      </c>
+      <c r="T111" s="9">
+        <v>0</v>
+      </c>
+      <c r="U111" s="9">
+        <v>0</v>
+      </c>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
     </row>
     <row r="112" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
@@ -10169,13 +10173,13 @@
         <v>525</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K112" s="37">
         <v>1</v>
@@ -10211,53 +10215,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="29">
         <v>110</v>
       </c>
-      <c r="B113" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K113" s="31">
-        <v>1</v>
-      </c>
-      <c r="L113" s="31">
-        <v>1</v>
-      </c>
-      <c r="M113" s="31">
-        <v>1</v>
-      </c>
-      <c r="N113" s="31">
-        <v>1</v>
-      </c>
-      <c r="O113" s="31">
-        <v>1</v>
-      </c>
-      <c r="P113" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="31">
-        <v>0</v>
-      </c>
-      <c r="R113" s="31">
-        <v>0</v>
-      </c>
-      <c r="S113" s="31">
-        <v>0</v>
-      </c>
-      <c r="T113" s="31">
-        <v>0</v>
-      </c>
-      <c r="U113" s="31">
+      <c r="B113" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="K113" s="37">
+        <v>1</v>
+      </c>
+      <c r="L113" s="37">
+        <v>1</v>
+      </c>
+      <c r="M113" s="37">
+        <v>1</v>
+      </c>
+      <c r="N113" s="37">
+        <v>1</v>
+      </c>
+      <c r="O113" s="37">
+        <v>0</v>
+      </c>
+      <c r="P113" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="37">
+        <v>0</v>
+      </c>
+      <c r="R113" s="37">
+        <v>0</v>
+      </c>
+      <c r="S113" s="37">
+        <v>0</v>
+      </c>
+      <c r="T113" s="37">
+        <v>0</v>
+      </c>
+      <c r="U113" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10269,16 +10273,13 @@
         <v>174</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F114" s="31" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="K114" s="31">
         <v>1</v>
@@ -10322,16 +10323,16 @@
         <v>174</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D115" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K115" s="31">
         <v>1</v>
@@ -10375,16 +10376,16 @@
         <v>174</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K116" s="31">
         <v>1</v>
@@ -10420,24 +10421,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
         <v>114</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K117" s="31">
         <v>1</v>
@@ -10481,16 +10482,16 @@
         <v>180</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D118" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K118" s="31">
         <v>1</v>
@@ -10526,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
         <v>116</v>
       </c>
@@ -10534,16 +10535,16 @@
         <v>180</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K119" s="31">
         <v>1</v>
@@ -10579,110 +10580,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
         <v>117</v>
       </c>
-      <c r="B120" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K120" s="32">
-        <v>1</v>
-      </c>
-      <c r="L120" s="32">
-        <v>1</v>
-      </c>
-      <c r="M120" s="32">
-        <v>1</v>
-      </c>
-      <c r="N120" s="32">
-        <v>1</v>
-      </c>
-      <c r="O120" s="32">
-        <v>0</v>
-      </c>
-      <c r="P120" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="32">
-        <v>0</v>
-      </c>
-      <c r="R120" s="32">
-        <v>0</v>
-      </c>
-      <c r="S120" s="32">
-        <v>0</v>
-      </c>
-      <c r="T120" s="32">
-        <v>0</v>
-      </c>
-      <c r="U120" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K120" s="31">
+        <v>1</v>
+      </c>
+      <c r="L120" s="31">
+        <v>1</v>
+      </c>
+      <c r="M120" s="31">
+        <v>1</v>
+      </c>
+      <c r="N120" s="31">
+        <v>1</v>
+      </c>
+      <c r="O120" s="31">
+        <v>1</v>
+      </c>
+      <c r="P120" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="31">
+        <v>0</v>
+      </c>
+      <c r="R120" s="31">
+        <v>0</v>
+      </c>
+      <c r="S120" s="31">
+        <v>0</v>
+      </c>
+      <c r="T120" s="31">
+        <v>0</v>
+      </c>
+      <c r="U120" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
         <v>118</v>
       </c>
-      <c r="B121" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="D121" s="35" t="s">
+      <c r="B121" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E121" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K121" s="34">
-        <v>1</v>
-      </c>
-      <c r="L121" s="34">
-        <v>1</v>
-      </c>
-      <c r="M121" s="34">
-        <v>1</v>
-      </c>
-      <c r="N121" s="34">
-        <v>1</v>
-      </c>
-      <c r="O121" s="34">
-        <v>1</v>
-      </c>
-      <c r="P121" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="34">
-        <v>0</v>
-      </c>
-      <c r="R121" s="34">
-        <v>0</v>
-      </c>
-      <c r="S121" s="34">
-        <v>0</v>
-      </c>
-      <c r="T121" s="34">
-        <v>0</v>
-      </c>
-      <c r="U121" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K121" s="32">
+        <v>1</v>
+      </c>
+      <c r="L121" s="32">
+        <v>1</v>
+      </c>
+      <c r="M121" s="32">
+        <v>1</v>
+      </c>
+      <c r="N121" s="32">
+        <v>1</v>
+      </c>
+      <c r="O121" s="32">
+        <v>0</v>
+      </c>
+      <c r="P121" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="32">
+        <v>0</v>
+      </c>
+      <c r="R121" s="32">
+        <v>0</v>
+      </c>
+      <c r="S121" s="32">
+        <v>0</v>
+      </c>
+      <c r="T121" s="32">
+        <v>0</v>
+      </c>
+      <c r="U121" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
         <v>119</v>
       </c>
@@ -10690,16 +10691,16 @@
         <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10735,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
         <v>120</v>
       </c>
@@ -10743,16 +10744,16 @@
         <v>295</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10793,19 +10794,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>496</v>
+        <v>295</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>497</v>
+        <v>229</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10846,19 +10847,19 @@
         <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>295</v>
+        <v>496</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D125" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>298</v>
+        <v>505</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10902,16 +10903,16 @@
         <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>230</v>
+        <v>493</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10955,16 +10956,16 @@
         <v>295</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>494</v>
+        <v>230</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -11008,16 +11009,16 @@
         <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -11061,16 +11062,16 @@
         <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>495</v>
+        <v>234</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>488</v>
+        <v>235</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -11114,16 +11115,16 @@
         <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>231</v>
+        <v>143</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11167,16 +11168,16 @@
         <v>295</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E131" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>501</v>
+        <v>228</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -11220,16 +11221,16 @@
         <v>295</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>311</v>
+        <v>501</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -11273,16 +11274,16 @@
         <v>295</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -11326,16 +11327,16 @@
         <v>295</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11371,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
         <v>132</v>
       </c>
@@ -11379,16 +11380,16 @@
         <v>295</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>233</v>
+        <v>99</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>308</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11424,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
         <v>133</v>
       </c>
@@ -11432,16 +11433,16 @@
         <v>295</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>301</v>
+        <v>315</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11485,16 +11486,16 @@
         <v>295</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D137" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11538,16 +11539,16 @@
         <v>295</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11591,16 +11592,16 @@
         <v>295</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E139" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>236</v>
+      <c r="E139" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F139" s="35" t="s">
+        <v>313</v>
       </c>
       <c r="K139" s="34">
         <v>1</v>
@@ -11644,16 +11645,16 @@
         <v>295</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F140" s="35" t="s">
-        <v>318</v>
+        <v>197</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="K140" s="34">
         <v>1</v>
@@ -11697,16 +11698,16 @@
         <v>295</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K141" s="34">
         <v>1</v>
@@ -11750,16 +11751,16 @@
         <v>295</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>441</v>
+        <v>314</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11803,16 +11804,16 @@
         <v>295</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="D143" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="K143" s="34">
         <v>1</v>
@@ -11848,53 +11849,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
         <v>141</v>
       </c>
-      <c r="B144" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K144" s="37">
-        <v>1</v>
-      </c>
-      <c r="L144" s="37">
-        <v>1</v>
-      </c>
-      <c r="M144" s="37">
-        <v>1</v>
-      </c>
-      <c r="N144" s="37">
-        <v>1</v>
-      </c>
-      <c r="O144" s="37">
-        <v>1</v>
-      </c>
-      <c r="P144" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="37">
-        <v>0</v>
-      </c>
-      <c r="R144" s="37">
-        <v>0</v>
-      </c>
-      <c r="S144" s="37">
-        <v>0</v>
-      </c>
-      <c r="T144" s="37">
-        <v>0</v>
-      </c>
-      <c r="U144" s="37">
+      <c r="B144" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="F144" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="K144" s="34">
+        <v>1</v>
+      </c>
+      <c r="L144" s="34">
+        <v>1</v>
+      </c>
+      <c r="M144" s="34">
+        <v>1</v>
+      </c>
+      <c r="N144" s="34">
+        <v>1</v>
+      </c>
+      <c r="O144" s="34">
+        <v>1</v>
+      </c>
+      <c r="P144" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="34">
+        <v>0</v>
+      </c>
+      <c r="R144" s="34">
+        <v>0</v>
+      </c>
+      <c r="S144" s="34">
+        <v>0</v>
+      </c>
+      <c r="T144" s="34">
+        <v>0</v>
+      </c>
+      <c r="U144" s="34">
         <v>0</v>
       </c>
     </row>
@@ -11906,13 +11910,13 @@
         <v>245</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K145" s="37">
         <v>1</v>
@@ -11953,16 +11957,16 @@
         <v>143</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K146" s="37">
         <v>1</v>
@@ -11998,53 +12002,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
         <v>144</v>
       </c>
-      <c r="B147" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="K147" s="32">
-        <v>1</v>
-      </c>
-      <c r="L147" s="32">
-        <v>1</v>
-      </c>
-      <c r="M147" s="32">
-        <v>1</v>
-      </c>
-      <c r="N147" s="32">
-        <v>1</v>
-      </c>
-      <c r="O147" s="32">
-        <v>0</v>
-      </c>
-      <c r="P147" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="32">
-        <v>0</v>
-      </c>
-      <c r="R147" s="32">
-        <v>0</v>
-      </c>
-      <c r="S147" s="32">
-        <v>0</v>
-      </c>
-      <c r="T147" s="32">
-        <v>0</v>
-      </c>
-      <c r="U147" s="32">
+      <c r="B147" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K147" s="37">
+        <v>1</v>
+      </c>
+      <c r="L147" s="37">
+        <v>1</v>
+      </c>
+      <c r="M147" s="37">
+        <v>1</v>
+      </c>
+      <c r="N147" s="37">
+        <v>1</v>
+      </c>
+      <c r="O147" s="37">
+        <v>1</v>
+      </c>
+      <c r="P147" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="37">
+        <v>0</v>
+      </c>
+      <c r="R147" s="37">
+        <v>0</v>
+      </c>
+      <c r="S147" s="37">
+        <v>0</v>
+      </c>
+      <c r="T147" s="37">
+        <v>0</v>
+      </c>
+      <c r="U147" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12056,19 +12060,19 @@
         <v>263</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>484</v>
+        <v>195</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
       </c>
       <c r="L148" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="32">
         <v>1</v>
@@ -12106,13 +12110,13 @@
         <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12156,13 +12160,13 @@
         <v>263</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>482</v>
+        <v>278</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -12198,109 +12202,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C151" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D151" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="H151" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I151" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K151" s="40">
-        <v>1</v>
-      </c>
-      <c r="L151" s="40">
-        <v>0</v>
-      </c>
-      <c r="M151" s="40">
-        <v>1</v>
-      </c>
-      <c r="N151" s="40">
-        <v>1</v>
-      </c>
-      <c r="O151" s="40">
-        <v>0</v>
-      </c>
-      <c r="P151" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="40">
-        <v>0</v>
-      </c>
-      <c r="R151" s="40">
-        <v>0</v>
-      </c>
-      <c r="S151" s="40">
-        <v>0</v>
-      </c>
-      <c r="T151" s="40">
-        <v>0</v>
-      </c>
-      <c r="U151" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="K151" s="32">
+        <v>1</v>
+      </c>
+      <c r="L151" s="32">
+        <v>0</v>
+      </c>
+      <c r="M151" s="32">
+        <v>1</v>
+      </c>
+      <c r="N151" s="32">
+        <v>1</v>
+      </c>
+      <c r="O151" s="32">
+        <v>0</v>
+      </c>
+      <c r="P151" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="32">
+        <v>0</v>
+      </c>
+      <c r="R151" s="32">
+        <v>0</v>
+      </c>
+      <c r="S151" s="32">
+        <v>0</v>
+      </c>
+      <c r="T151" s="32">
+        <v>0</v>
+      </c>
+      <c r="U151" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K152" s="32">
-        <v>1</v>
-      </c>
-      <c r="L152" s="32">
-        <v>0</v>
-      </c>
-      <c r="M152" s="32">
-        <v>1</v>
-      </c>
-      <c r="N152" s="32">
-        <v>1</v>
-      </c>
-      <c r="O152" s="32">
-        <v>0</v>
-      </c>
-      <c r="P152" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="32">
-        <v>0</v>
-      </c>
-      <c r="R152" s="32">
-        <v>0</v>
-      </c>
-      <c r="S152" s="32">
-        <v>0</v>
-      </c>
-      <c r="T152" s="32">
-        <v>0</v>
-      </c>
-      <c r="U152" s="32">
+        <v>263</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E152" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I152" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K152" s="40">
+        <v>1</v>
+      </c>
+      <c r="L152" s="40">
+        <v>0</v>
+      </c>
+      <c r="M152" s="40">
+        <v>1</v>
+      </c>
+      <c r="N152" s="40">
+        <v>1</v>
+      </c>
+      <c r="O152" s="40">
+        <v>0</v>
+      </c>
+      <c r="P152" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="40">
+        <v>0</v>
+      </c>
+      <c r="R152" s="40">
+        <v>0</v>
+      </c>
+      <c r="S152" s="40">
+        <v>0</v>
+      </c>
+      <c r="T152" s="40">
+        <v>0</v>
+      </c>
+      <c r="U152" s="40">
         <v>0</v>
       </c>
     </row>
@@ -12309,22 +12313,16 @@
         <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D153" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E153" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H153" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -12359,8 +12357,6 @@
       <c r="U153" s="32">
         <v>0</v>
       </c>
-      <c r="V153" s="39"/>
-      <c r="W153" s="39"/>
     </row>
     <row r="154" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
@@ -12369,14 +12365,20 @@
       <c r="B154" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>259</v>
+      <c r="C154" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D154" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I154" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12411,6 +12413,8 @@
       <c r="U154" s="32">
         <v>0</v>
       </c>
+      <c r="V154" s="39"/>
+      <c r="W154" s="39"/>
     </row>
     <row r="155" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
@@ -12420,13 +12424,13 @@
         <v>267</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12470,16 +12474,13 @@
         <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G156" s="32">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12523,13 +12524,16 @@
         <v>267</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>450</v>
+        <v>276</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>483</v>
+        <v>277</v>
+      </c>
+      <c r="G157" s="32">
+        <v>1</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12540,7 +12544,7 @@
       <c r="M157" s="32">
         <v>1</v>
       </c>
-      <c r="N157" s="40">
+      <c r="N157" s="32">
         <v>1</v>
       </c>
       <c r="O157" s="32">
@@ -12570,16 +12574,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>553</v>
+        <v>267</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>323</v>
+        <v>483</v>
       </c>
       <c r="K158" s="32">
         <v>1</v>
@@ -12620,16 +12624,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>322</v>
+        <v>553</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K159" s="32">
         <v>1</v>
@@ -12673,13 +12677,13 @@
         <v>322</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12723,19 +12727,13 @@
         <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D161" s="38" t="s">
-        <v>123</v>
+        <v>328</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="H161" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I161" s="33" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12770,8 +12768,6 @@
       <c r="U161" s="32">
         <v>0</v>
       </c>
-      <c r="V161" s="39"/>
-      <c r="W161" s="39"/>
     </row>
     <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
@@ -12781,13 +12777,19 @@
         <v>322</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D162" s="33" t="s">
-        <v>99</v>
+        <v>326</v>
+      </c>
+      <c r="D162" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>451</v>
+        <v>327</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I162" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12822,22 +12824,24 @@
       <c r="U162" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V162" s="39"/>
+      <c r="W162" s="39"/>
+    </row>
+    <row r="163" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>566</v>
+        <v>322</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="K163" s="32">
         <v>1</v>
@@ -12873,27 +12877,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="D164" s="38" t="s">
-        <v>123</v>
+        <v>195</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>426</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I164" s="33" t="s">
-        <v>195</v>
+        <v>427</v>
       </c>
       <c r="K164" s="32">
         <v>1</v>
@@ -12928,8 +12926,6 @@
       <c r="U164" s="32">
         <v>0</v>
       </c>
-      <c r="V164" s="39"/>
-      <c r="W164" s="39"/>
     </row>
     <row r="165" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
@@ -12939,13 +12935,19 @@
         <v>424</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>451</v>
+        <v>428</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I165" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K165" s="32">
         <v>1</v>
@@ -12980,65 +12982,58 @@
       <c r="U165" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V165" s="39"/>
+      <c r="W165" s="39"/>
+    </row>
+    <row r="166" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
         <v>163</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9">
-        <v>1</v>
-      </c>
-      <c r="L166" s="9">
-        <v>1</v>
-      </c>
-      <c r="M166" s="9">
-        <v>0</v>
-      </c>
-      <c r="N166" s="9">
-        <v>1</v>
-      </c>
-      <c r="O166" s="9">
-        <v>1</v>
-      </c>
-      <c r="P166" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q166" s="9">
-        <v>0</v>
-      </c>
-      <c r="R166" s="9">
-        <v>0</v>
-      </c>
-      <c r="S166" s="9">
-        <v>0</v>
-      </c>
-      <c r="T166" s="9">
-        <v>0</v>
-      </c>
-      <c r="U166" s="9">
-        <v>0</v>
-      </c>
-      <c r="V166" s="9"/>
-      <c r="W166" s="9"/>
-      <c r="X166" s="9"/>
-      <c r="Y166" s="9"/>
+      <c r="B166" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="K166" s="32">
+        <v>1</v>
+      </c>
+      <c r="L166" s="32">
+        <v>0</v>
+      </c>
+      <c r="M166" s="32">
+        <v>1</v>
+      </c>
+      <c r="N166" s="40">
+        <v>1</v>
+      </c>
+      <c r="O166" s="32">
+        <v>0</v>
+      </c>
+      <c r="P166" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="32">
+        <v>0</v>
+      </c>
+      <c r="R166" s="32">
+        <v>0</v>
+      </c>
+      <c r="S166" s="32">
+        <v>0</v>
+      </c>
+      <c r="T166" s="32">
+        <v>0</v>
+      </c>
+      <c r="U166" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
@@ -13047,14 +13042,14 @@
       <c r="B167" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>343</v>
+      <c r="C167" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -13068,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="M167" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167" s="9">
         <v>1</v>
@@ -13107,13 +13102,13 @@
         <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>586</v>
+        <v>343</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>587</v>
+        <v>345</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13166,13 +13161,13 @@
         <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>346</v>
+        <v>586</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>347</v>
+        <v>587</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13225,13 +13220,13 @@
         <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>532</v>
+        <v>346</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>533</v>
+        <v>347</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13284,13 +13279,13 @@
         <v>337</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13343,13 +13338,13 @@
         <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13369,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P172" s="9">
         <v>0</v>
@@ -13399,16 +13394,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>349</v>
+        <v>538</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13428,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="9">
         <v>0</v>
@@ -13458,16 +13453,16 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>540</v>
+        <v>349</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
@@ -13481,13 +13476,13 @@
         <v>1</v>
       </c>
       <c r="M174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" s="9">
         <v>1</v>
       </c>
       <c r="O174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="9">
         <v>0</v>
@@ -13517,16 +13512,16 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
@@ -13540,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="M175" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175" s="9">
         <v>1</v>
@@ -13576,21 +13571,21 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>582</v>
+        <v>348</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>570</v>
+        <v>351</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9">
         <v>1</v>
@@ -13599,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="M176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176" s="9">
         <v>1</v>
@@ -13635,25 +13630,21 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>342</v>
+        <v>582</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
-      <c r="H177" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="I177" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9">
         <v>1</v>
@@ -13698,39 +13689,41 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>591</v>
+        <v>342</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>592</v>
+        <v>128</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9">
         <v>1</v>
       </c>
       <c r="L178" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" s="9">
         <v>1</v>
       </c>
       <c r="N178" s="9">
-        <v>0</v>
-      </c>
-      <c r="O178" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O178" s="9">
+        <v>0</v>
+      </c>
       <c r="P178" s="9">
         <v>0</v>
       </c>
@@ -13759,37 +13752,39 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>142</v>
+        <v>594</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
+      <c r="H179" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>592</v>
+      </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9">
         <v>1</v>
       </c>
       <c r="L179" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M179" s="9">
         <v>1</v>
       </c>
       <c r="N179" s="9">
-        <v>1</v>
-      </c>
-      <c r="O179" s="9">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O179" s="9"/>
       <c r="P179" s="9">
         <v>0</v>
       </c>
@@ -13818,31 +13813,27 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9">
         <v>1</v>
       </c>
       <c r="L180" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180" s="9">
         <v>1</v>
@@ -13881,27 +13872,31 @@
         <v>178</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>547</v>
+        <v>123</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>548</v>
+        <v>129</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
+      <c r="H181" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9">
         <v>1</v>
       </c>
       <c r="L181" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M181" s="9">
         <v>1</v>
@@ -13940,16 +13935,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>319</v>
+        <v>547</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -14002,13 +13997,13 @@
         <v>544</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -14053,73 +14048,80 @@
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
     </row>
-    <row r="184" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A184" s="29">
         <v>181</v>
       </c>
-      <c r="B184" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C184" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="D184" s="52" t="s">
+      <c r="B184" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E184" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="H184" s="52"/>
-      <c r="I184" s="52"/>
-      <c r="K184" s="53">
-        <v>1</v>
-      </c>
-      <c r="L184" s="53">
-        <v>1</v>
-      </c>
-      <c r="M184" s="53">
-        <v>1</v>
-      </c>
-      <c r="N184" s="53">
-        <v>0</v>
-      </c>
-      <c r="O184" s="53">
-        <v>0</v>
-      </c>
-      <c r="P184" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="53">
-        <v>0</v>
-      </c>
-      <c r="R184" s="53">
-        <v>0</v>
-      </c>
-      <c r="S184" s="53">
-        <v>0</v>
-      </c>
-      <c r="T184" s="53">
-        <v>0</v>
-      </c>
-      <c r="U184" s="53">
-        <v>0</v>
-      </c>
+      <c r="E184" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9">
+        <v>1</v>
+      </c>
+      <c r="L184" s="9">
+        <v>1</v>
+      </c>
+      <c r="M184" s="9">
+        <v>1</v>
+      </c>
+      <c r="N184" s="9">
+        <v>1</v>
+      </c>
+      <c r="O184" s="9">
+        <v>0</v>
+      </c>
+      <c r="P184" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="9">
+        <v>0</v>
+      </c>
+      <c r="R184" s="9">
+        <v>0</v>
+      </c>
+      <c r="S184" s="9">
+        <v>0</v>
+      </c>
+      <c r="T184" s="9">
+        <v>0</v>
+      </c>
+      <c r="U184" s="9">
+        <v>0</v>
+      </c>
+      <c r="V184" s="9"/>
+      <c r="W184" s="9"/>
+      <c r="X184" s="9"/>
+      <c r="Y184" s="9"/>
     </row>
     <row r="185" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
         <v>182</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="C185" s="52" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="D185" s="52" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E185" s="52" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="H185" s="52"/>
       <c r="I185" s="52"/>
@@ -14162,16 +14164,16 @@
         <v>183</v>
       </c>
       <c r="B186" s="52" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="C186" s="52" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D186" s="52" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E186" s="52" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H186" s="52"/>
       <c r="I186" s="52"/>
@@ -14182,7 +14184,7 @@
         <v>1</v>
       </c>
       <c r="M186" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" s="53">
         <v>0</v>
@@ -14209,55 +14211,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
         <v>184</v>
       </c>
-      <c r="B187" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="C187" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="D187" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E187" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="H187" s="54"/>
-      <c r="I187" s="54"/>
-      <c r="K187" s="55">
-        <v>1</v>
-      </c>
-      <c r="L187" s="55">
-        <v>1</v>
-      </c>
-      <c r="M187" s="55">
-        <v>1</v>
-      </c>
-      <c r="N187" s="55">
-        <v>0</v>
-      </c>
-      <c r="O187" s="55">
-        <v>0</v>
-      </c>
-      <c r="P187" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="55">
-        <v>0</v>
-      </c>
-      <c r="R187" s="55">
-        <v>0</v>
-      </c>
-      <c r="S187" s="55">
-        <v>0</v>
-      </c>
-      <c r="T187" s="55">
-        <v>0</v>
-      </c>
-      <c r="U187" s="55">
+      <c r="B187" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C187" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="D187" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E187" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="H187" s="52"/>
+      <c r="I187" s="52"/>
+      <c r="K187" s="53">
+        <v>1</v>
+      </c>
+      <c r="L187" s="53">
+        <v>1</v>
+      </c>
+      <c r="M187" s="53">
+        <v>0</v>
+      </c>
+      <c r="N187" s="53">
+        <v>0</v>
+      </c>
+      <c r="O187" s="53">
+        <v>0</v>
+      </c>
+      <c r="P187" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="53">
+        <v>0</v>
+      </c>
+      <c r="R187" s="53">
+        <v>0</v>
+      </c>
+      <c r="S187" s="53">
+        <v>0</v>
+      </c>
+      <c r="T187" s="53">
+        <v>0</v>
+      </c>
+      <c r="U187" s="53">
         <v>0</v>
       </c>
     </row>
@@ -14266,16 +14268,16 @@
         <v>185</v>
       </c>
       <c r="B188" s="54" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C188" s="54" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D188" s="54" t="s">
         <v>319</v>
       </c>
       <c r="E188" s="54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H188" s="54"/>
       <c r="I188" s="54"/>
@@ -14313,55 +14315,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
         <v>186</v>
       </c>
-      <c r="B189" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="C189" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D189" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E189" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H189" s="56"/>
-      <c r="I189" s="56"/>
-      <c r="K189" s="57">
-        <v>1</v>
-      </c>
-      <c r="L189" s="57">
-        <v>0</v>
-      </c>
-      <c r="M189" s="57">
-        <v>1</v>
-      </c>
-      <c r="N189" s="57">
-        <v>0</v>
-      </c>
-      <c r="O189" s="57">
-        <v>0</v>
-      </c>
-      <c r="P189" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="57">
-        <v>0</v>
-      </c>
-      <c r="R189" s="57">
-        <v>0</v>
-      </c>
-      <c r="S189" s="57">
-        <v>0</v>
-      </c>
-      <c r="T189" s="57">
-        <v>0</v>
-      </c>
-      <c r="U189" s="57">
+      <c r="B189" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="D189" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="H189" s="54"/>
+      <c r="I189" s="54"/>
+      <c r="K189" s="55">
+        <v>1</v>
+      </c>
+      <c r="L189" s="55">
+        <v>1</v>
+      </c>
+      <c r="M189" s="55">
+        <v>1</v>
+      </c>
+      <c r="N189" s="55">
+        <v>0</v>
+      </c>
+      <c r="O189" s="55">
+        <v>0</v>
+      </c>
+      <c r="P189" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="55">
+        <v>0</v>
+      </c>
+      <c r="R189" s="55">
+        <v>0</v>
+      </c>
+      <c r="S189" s="55">
+        <v>0</v>
+      </c>
+      <c r="T189" s="55">
+        <v>0</v>
+      </c>
+      <c r="U189" s="55">
         <v>0</v>
       </c>
     </row>
@@ -14373,13 +14375,13 @@
         <v>595</v>
       </c>
       <c r="C190" s="56" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D190" s="56" t="s">
         <v>99</v>
       </c>
       <c r="E190" s="56" t="s">
-        <v>578</v>
+        <v>142</v>
       </c>
       <c r="H190" s="56"/>
       <c r="I190" s="56"/>
@@ -14422,23 +14424,19 @@
         <v>188</v>
       </c>
       <c r="B191" s="56" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C191" s="56" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="D191" s="56" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E191" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="H191" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="I191" s="56" t="s">
-        <v>19</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="H191" s="56"/>
+      <c r="I191" s="56"/>
       <c r="K191" s="57">
         <v>1</v>
       </c>
@@ -14473,53 +14471,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
         <v>189</v>
       </c>
-      <c r="B192" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C192" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="D192" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="E192" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="K192" s="43">
-        <v>1</v>
-      </c>
-      <c r="L192" s="43">
-        <v>1</v>
-      </c>
-      <c r="M192" s="43">
-        <v>1</v>
-      </c>
-      <c r="N192" s="43">
-        <v>1</v>
-      </c>
-      <c r="O192" s="43">
-        <v>1</v>
-      </c>
-      <c r="P192" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q192" s="43">
-        <v>0</v>
-      </c>
-      <c r="R192" s="43">
-        <v>0</v>
-      </c>
-      <c r="S192" s="43">
-        <v>0</v>
-      </c>
-      <c r="T192" s="43">
-        <v>0</v>
-      </c>
-      <c r="U192" s="43">
+      <c r="B192" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="C192" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D192" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="H192" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="I192" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="57">
+        <v>1</v>
+      </c>
+      <c r="L192" s="57">
+        <v>0</v>
+      </c>
+      <c r="M192" s="57">
+        <v>1</v>
+      </c>
+      <c r="N192" s="57">
+        <v>0</v>
+      </c>
+      <c r="O192" s="57">
+        <v>0</v>
+      </c>
+      <c r="P192" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="57">
+        <v>0</v>
+      </c>
+      <c r="R192" s="57">
+        <v>0</v>
+      </c>
+      <c r="S192" s="57">
+        <v>0</v>
+      </c>
+      <c r="T192" s="57">
+        <v>0</v>
+      </c>
+      <c r="U192" s="57">
         <v>0</v>
       </c>
     </row>
@@ -14531,13 +14535,13 @@
         <v>358</v>
       </c>
       <c r="C193" s="44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D193" s="44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E193" s="44" t="s">
-        <v>364</v>
+        <v>580</v>
       </c>
       <c r="K193" s="43">
         <v>1</v>
@@ -14581,13 +14585,13 @@
         <v>358</v>
       </c>
       <c r="C194" s="44" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D194" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E194" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K194" s="43">
         <v>1</v>
@@ -14623,53 +14627,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
         <v>192</v>
       </c>
-      <c r="B195" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C195" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D195" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E195" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="K195" s="49">
-        <v>1</v>
-      </c>
-      <c r="L195" s="49">
-        <v>1</v>
-      </c>
-      <c r="M195" s="49">
-        <v>0</v>
-      </c>
-      <c r="N195" s="49">
-        <v>0</v>
-      </c>
-      <c r="O195" s="49">
-        <v>0</v>
-      </c>
-      <c r="P195" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="49">
-        <v>0</v>
-      </c>
-      <c r="R195" s="49">
-        <v>0</v>
-      </c>
-      <c r="S195" s="49">
-        <v>0</v>
-      </c>
-      <c r="T195" s="49">
-        <v>0</v>
-      </c>
-      <c r="U195" s="49">
+      <c r="B195" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D195" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E195" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K195" s="43">
+        <v>1</v>
+      </c>
+      <c r="L195" s="43">
+        <v>1</v>
+      </c>
+      <c r="M195" s="43">
+        <v>1</v>
+      </c>
+      <c r="N195" s="43">
+        <v>1</v>
+      </c>
+      <c r="O195" s="43">
+        <v>1</v>
+      </c>
+      <c r="P195" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="43">
+        <v>0</v>
+      </c>
+      <c r="R195" s="43">
+        <v>0</v>
+      </c>
+      <c r="S195" s="43">
+        <v>0</v>
+      </c>
+      <c r="T195" s="43">
+        <v>0</v>
+      </c>
+      <c r="U195" s="43">
         <v>0</v>
       </c>
     </row>
@@ -14681,13 +14685,13 @@
         <v>377</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D196" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="K196" s="49">
         <v>1</v>
@@ -14731,13 +14735,13 @@
         <v>377</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="D197" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K197" s="49">
         <v>1</v>
@@ -14781,13 +14785,13 @@
         <v>377</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14831,13 +14835,13 @@
         <v>377</v>
       </c>
       <c r="C199" s="48" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14881,13 +14885,13 @@
         <v>377</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D200" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14931,13 +14935,13 @@
         <v>377</v>
       </c>
       <c r="C201" s="48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14981,13 +14985,13 @@
         <v>377</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D202" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K202" s="49">
         <v>1</v>
@@ -15031,13 +15035,13 @@
         <v>377</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K203" s="49">
         <v>1</v>
@@ -15081,13 +15085,13 @@
         <v>377</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D204" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K204" s="49">
         <v>1</v>
@@ -15130,14 +15134,14 @@
       <c r="B205" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="C205" s="49" t="s">
-        <v>396</v>
+      <c r="C205" s="48" t="s">
+        <v>394</v>
       </c>
       <c r="D205" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15180,14 +15184,14 @@
       <c r="B206" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="C206" s="48" t="s">
-        <v>398</v>
+      <c r="C206" s="49" t="s">
+        <v>396</v>
       </c>
       <c r="D206" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15228,16 +15232,16 @@
         <v>204</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15278,16 +15282,16 @@
         <v>205</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15331,13 +15335,13 @@
         <v>377</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D209" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15381,13 +15385,13 @@
         <v>377</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D210" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K210" s="49">
         <v>1</v>
@@ -15431,13 +15435,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D211" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K211" s="49">
         <v>1</v>
@@ -15481,13 +15485,13 @@
         <v>377</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="D212" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="K212" s="49">
         <v>1</v>
@@ -15531,13 +15535,13 @@
         <v>377</v>
       </c>
       <c r="C213" s="48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E213" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K213" s="49">
         <v>1</v>
@@ -15578,16 +15582,16 @@
         <v>211</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D214" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E214" s="48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K214" s="49">
         <v>1</v>
@@ -15628,16 +15632,16 @@
         <v>212</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C215" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D215" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E215" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K215" s="49">
         <v>1</v>
@@ -15681,15 +15685,14 @@
         <v>377</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="H216" s="48"/>
+        <v>411</v>
+      </c>
       <c r="K216" s="49">
         <v>1</v>
       </c>
@@ -15724,53 +15727,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="29">
         <v>214</v>
       </c>
-      <c r="B217" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="C217" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D217" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="E217" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="K217" s="51">
-        <v>1</v>
-      </c>
-      <c r="L217" s="51">
-        <v>1</v>
-      </c>
-      <c r="M217" s="51">
-        <v>1</v>
-      </c>
-      <c r="N217" s="51">
-        <v>1</v>
-      </c>
-      <c r="O217" s="51">
-        <v>0</v>
-      </c>
-      <c r="P217" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q217" s="51">
-        <v>0</v>
-      </c>
-      <c r="R217" s="51">
-        <v>0</v>
-      </c>
-      <c r="S217" s="51">
-        <v>0</v>
-      </c>
-      <c r="T217" s="51">
-        <v>0</v>
-      </c>
-      <c r="U217" s="51">
+      <c r="B217" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D217" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E217" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H217" s="48"/>
+      <c r="K217" s="49">
+        <v>1</v>
+      </c>
+      <c r="L217" s="49">
+        <v>1</v>
+      </c>
+      <c r="M217" s="49">
+        <v>0</v>
+      </c>
+      <c r="N217" s="49">
+        <v>0</v>
+      </c>
+      <c r="O217" s="49">
+        <v>0</v>
+      </c>
+      <c r="P217" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="49">
+        <v>0</v>
+      </c>
+      <c r="R217" s="49">
+        <v>0</v>
+      </c>
+      <c r="S217" s="49">
+        <v>0</v>
+      </c>
+      <c r="T217" s="49">
+        <v>0</v>
+      </c>
+      <c r="U217" s="49">
         <v>0</v>
       </c>
     </row>
@@ -15782,50 +15786,100 @@
         <v>516</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D218" s="50" t="s">
         <v>518</v>
       </c>
       <c r="E218" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="K218" s="51">
+        <v>1</v>
+      </c>
+      <c r="L218" s="51">
+        <v>1</v>
+      </c>
+      <c r="M218" s="51">
+        <v>1</v>
+      </c>
+      <c r="N218" s="51">
+        <v>1</v>
+      </c>
+      <c r="O218" s="51">
+        <v>0</v>
+      </c>
+      <c r="P218" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="51">
+        <v>0</v>
+      </c>
+      <c r="R218" s="51">
+        <v>0</v>
+      </c>
+      <c r="S218" s="51">
+        <v>0</v>
+      </c>
+      <c r="T218" s="51">
+        <v>0</v>
+      </c>
+      <c r="U218" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="29">
+        <v>216</v>
+      </c>
+      <c r="B219" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C219" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="D219" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E219" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="K218" s="51">
-        <v>1</v>
-      </c>
-      <c r="L218" s="51">
-        <v>1</v>
-      </c>
-      <c r="M218" s="51">
-        <v>1</v>
-      </c>
-      <c r="N218" s="51">
-        <v>1</v>
-      </c>
-      <c r="O218" s="51">
-        <v>0</v>
-      </c>
-      <c r="P218" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q218" s="51">
-        <v>0</v>
-      </c>
-      <c r="R218" s="51">
-        <v>0</v>
-      </c>
-      <c r="S218" s="51">
-        <v>0</v>
-      </c>
-      <c r="T218" s="51">
-        <v>0</v>
-      </c>
-      <c r="U218" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A219" s="29"/>
+      <c r="K219" s="51">
+        <v>1</v>
+      </c>
+      <c r="L219" s="51">
+        <v>1</v>
+      </c>
+      <c r="M219" s="51">
+        <v>1</v>
+      </c>
+      <c r="N219" s="51">
+        <v>1</v>
+      </c>
+      <c r="O219" s="51">
+        <v>0</v>
+      </c>
+      <c r="P219" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="51">
+        <v>0</v>
+      </c>
+      <c r="R219" s="51">
+        <v>0</v>
+      </c>
+      <c r="S219" s="51">
+        <v>0</v>
+      </c>
+      <c r="T219" s="51">
+        <v>0</v>
+      </c>
+      <c r="U219" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A220" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M167" authorId="0" shapeId="0">
+    <comment ref="M166" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="614">
   <si>
     <t>Class</t>
   </si>
@@ -3349,7 +3349,35 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>uint64</t>
+    <t>vicemaster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>副帮主列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqlevel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入帮派最低等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewswitch</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4171,11 +4199,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y220"/>
+  <dimension ref="A1:Y222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
+      <pane ySplit="3" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6173,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="20">
         <v>1</v>
@@ -9048,55 +9076,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
         <v>89</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="K92" s="7">
-        <v>1</v>
-      </c>
-      <c r="L92" s="7">
-        <v>0</v>
-      </c>
-      <c r="M92" s="7">
-        <v>0</v>
-      </c>
-      <c r="N92" s="7">
-        <v>0</v>
-      </c>
-      <c r="O92" s="7">
-        <v>0</v>
-      </c>
-      <c r="P92" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="7">
-        <v>0</v>
-      </c>
-      <c r="R92" s="7">
-        <v>0</v>
-      </c>
-      <c r="S92" s="7">
-        <v>0</v>
-      </c>
-      <c r="T92" s="7">
-        <v>0</v>
-      </c>
-      <c r="U92" s="7">
-        <v>0</v>
-      </c>
+      <c r="B92" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="K92" s="46">
+        <v>1</v>
+      </c>
+      <c r="L92" s="46">
+        <v>0</v>
+      </c>
+      <c r="M92" s="46">
+        <v>1</v>
+      </c>
+      <c r="N92" s="46">
+        <v>0</v>
+      </c>
+      <c r="O92" s="46">
+        <v>0</v>
+      </c>
+      <c r="P92" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="46">
+        <v>0</v>
+      </c>
+      <c r="R92" s="46">
+        <v>0</v>
+      </c>
+      <c r="S92" s="46">
+        <v>0</v>
+      </c>
+      <c r="T92" s="46">
+        <v>0</v>
+      </c>
+      <c r="U92" s="46">
+        <v>0</v>
+      </c>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
     </row>
     <row r="93" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
@@ -9106,16 +9138,20 @@
         <v>371</v>
       </c>
       <c r="C93" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="H93" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I93" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D93" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
       <c r="K93" s="46">
         <v>1</v>
       </c>
@@ -9157,23 +9193,19 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="H94" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I94" s="45" t="s">
-        <v>195</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
       <c r="K94" s="46">
         <v>1</v>
       </c>
@@ -9215,16 +9247,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9269,16 +9301,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9326,13 +9358,13 @@
         <v>371</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9380,13 +9412,13 @@
         <v>371</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -9434,13 +9466,13 @@
         <v>371</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>143</v>
+        <v>440</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H99" s="45"/>
       <c r="I99" s="45"/>
@@ -9480,59 +9512,68 @@
       <c r="V99" s="47"/>
       <c r="W99" s="47"/>
     </row>
-    <row r="100" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
         <v>97</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="K100" s="46">
-        <v>1</v>
-      </c>
-      <c r="L100" s="46">
-        <v>0</v>
-      </c>
-      <c r="M100" s="46">
-        <v>1</v>
-      </c>
-      <c r="N100" s="46">
-        <v>0</v>
-      </c>
-      <c r="O100" s="46">
-        <v>0</v>
-      </c>
-      <c r="P100" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="46">
-        <v>0</v>
-      </c>
-      <c r="R100" s="46">
-        <v>0</v>
-      </c>
-      <c r="S100" s="46">
-        <v>0</v>
-      </c>
-      <c r="T100" s="46">
-        <v>0</v>
-      </c>
-      <c r="U100" s="46">
-        <v>0</v>
-      </c>
-      <c r="V100" s="47"/>
-      <c r="W100" s="47"/>
+      <c r="B100" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11">
+        <v>1</v>
+      </c>
+      <c r="L100" s="11">
+        <v>1</v>
+      </c>
+      <c r="M100" s="11">
+        <v>1</v>
+      </c>
+      <c r="N100" s="11">
+        <v>1</v>
+      </c>
+      <c r="O100" s="11">
+        <v>1</v>
+      </c>
+      <c r="P100" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>0</v>
+      </c>
+      <c r="R100" s="9">
+        <v>0</v>
+      </c>
+      <c r="S100" s="9">
+        <v>0</v>
+      </c>
+      <c r="T100" s="9">
+        <v>0</v>
+      </c>
+      <c r="U100" s="11">
+        <v>0</v>
+      </c>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
@@ -9541,23 +9582,19 @@
       <c r="B101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>130</v>
+      <c r="C101" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>282</v>
-      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11">
         <v>1</v>
@@ -9605,13 +9642,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -9663,14 +9700,14 @@
       <c r="B103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>83</v>
+      <c r="C103" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -9722,14 +9759,14 @@
       <c r="B104" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>85</v>
+      <c r="C104" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -9781,14 +9818,14 @@
       <c r="B105" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>87</v>
+      <c r="C105" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>88</v>
+      <c r="E105" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -9833,66 +9870,58 @@
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11">
-        <v>1</v>
-      </c>
-      <c r="L106" s="11">
-        <v>1</v>
-      </c>
-      <c r="M106" s="11">
-        <v>1</v>
-      </c>
-      <c r="N106" s="11">
-        <v>1</v>
-      </c>
-      <c r="O106" s="11">
-        <v>1</v>
-      </c>
-      <c r="P106" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="9">
-        <v>0</v>
-      </c>
-      <c r="R106" s="9">
-        <v>0</v>
-      </c>
-      <c r="S106" s="9">
-        <v>0</v>
-      </c>
-      <c r="T106" s="9">
-        <v>0</v>
-      </c>
-      <c r="U106" s="11">
-        <v>0</v>
-      </c>
-      <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
-      <c r="X106" s="11"/>
-      <c r="Y106" s="11"/>
-    </row>
-    <row r="107" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="K106" s="24">
+        <v>1</v>
+      </c>
+      <c r="L106" s="24">
+        <v>1</v>
+      </c>
+      <c r="M106" s="24">
+        <v>1</v>
+      </c>
+      <c r="N106" s="24">
+        <v>1</v>
+      </c>
+      <c r="O106" s="24">
+        <v>0</v>
+      </c>
+      <c r="P106" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="24">
+        <v>0</v>
+      </c>
+      <c r="R106" s="24">
+        <v>0</v>
+      </c>
+      <c r="S106" s="24">
+        <v>0</v>
+      </c>
+      <c r="T106" s="24">
+        <v>0</v>
+      </c>
+      <c r="U106" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -9900,13 +9929,13 @@
         <v>95</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="25"/>
       <c r="K107" s="24">
@@ -9943,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
@@ -9951,13 +9980,13 @@
         <v>95</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F108" s="25"/>
       <c r="K108" s="24">
@@ -9994,56 +10023,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
         <v>106</v>
       </c>
-      <c r="B109" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" s="25"/>
-      <c r="K109" s="24">
-        <v>1</v>
-      </c>
-      <c r="L109" s="24">
-        <v>1</v>
-      </c>
-      <c r="M109" s="24">
-        <v>1</v>
-      </c>
-      <c r="N109" s="24">
-        <v>1</v>
-      </c>
-      <c r="O109" s="24">
-        <v>0</v>
-      </c>
-      <c r="P109" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="24">
-        <v>0</v>
-      </c>
-      <c r="R109" s="24">
-        <v>0</v>
-      </c>
-      <c r="S109" s="24">
-        <v>0</v>
-      </c>
-      <c r="T109" s="24">
-        <v>0</v>
-      </c>
-      <c r="U109" s="24">
-        <v>0</v>
-      </c>
+      <c r="B109" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9">
+        <v>1</v>
+      </c>
+      <c r="L109" s="9">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9">
+        <v>1</v>
+      </c>
+      <c r="O109" s="9">
+        <v>1</v>
+      </c>
+      <c r="P109" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="9">
+        <v>0</v>
+      </c>
+      <c r="R109" s="9">
+        <v>0</v>
+      </c>
+      <c r="S109" s="9">
+        <v>0</v>
+      </c>
+      <c r="T109" s="9">
+        <v>0</v>
+      </c>
+      <c r="U109" s="9">
+        <v>0</v>
+      </c>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
@@ -10052,18 +10091,16 @@
       <c r="B110" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>147</v>
+      <c r="C110" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>214</v>
-      </c>
+      <c r="E110" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="10"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -10106,64 +10143,55 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9">
-        <v>1</v>
-      </c>
-      <c r="L111" s="9">
-        <v>1</v>
-      </c>
-      <c r="M111" s="9">
-        <v>1</v>
-      </c>
-      <c r="N111" s="9">
-        <v>1</v>
-      </c>
-      <c r="O111" s="9">
-        <v>1</v>
-      </c>
-      <c r="P111" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="9">
-        <v>0</v>
-      </c>
-      <c r="R111" s="9">
-        <v>0</v>
-      </c>
-      <c r="S111" s="9">
-        <v>0</v>
-      </c>
-      <c r="T111" s="9">
-        <v>0</v>
-      </c>
-      <c r="U111" s="9">
-        <v>0</v>
-      </c>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
+      <c r="B111" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="K111" s="37">
+        <v>1</v>
+      </c>
+      <c r="L111" s="37">
+        <v>1</v>
+      </c>
+      <c r="M111" s="37">
+        <v>1</v>
+      </c>
+      <c r="N111" s="37">
+        <v>1</v>
+      </c>
+      <c r="O111" s="37">
+        <v>0</v>
+      </c>
+      <c r="P111" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="37">
+        <v>0</v>
+      </c>
+      <c r="R111" s="37">
+        <v>0</v>
+      </c>
+      <c r="S111" s="37">
+        <v>0</v>
+      </c>
+      <c r="T111" s="37">
+        <v>0</v>
+      </c>
+      <c r="U111" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
@@ -10173,13 +10201,13 @@
         <v>525</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K112" s="37">
         <v>1</v>
@@ -10215,53 +10243,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="29">
         <v>110</v>
       </c>
-      <c r="B113" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="D113" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="K113" s="37">
-        <v>1</v>
-      </c>
-      <c r="L113" s="37">
-        <v>1</v>
-      </c>
-      <c r="M113" s="37">
-        <v>1</v>
-      </c>
-      <c r="N113" s="37">
-        <v>1</v>
-      </c>
-      <c r="O113" s="37">
-        <v>0</v>
-      </c>
-      <c r="P113" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="37">
-        <v>0</v>
-      </c>
-      <c r="R113" s="37">
-        <v>0</v>
-      </c>
-      <c r="S113" s="37">
-        <v>0</v>
-      </c>
-      <c r="T113" s="37">
-        <v>0</v>
-      </c>
-      <c r="U113" s="37">
+      <c r="B113" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K113" s="31">
+        <v>1</v>
+      </c>
+      <c r="L113" s="31">
+        <v>1</v>
+      </c>
+      <c r="M113" s="31">
+        <v>1</v>
+      </c>
+      <c r="N113" s="31">
+        <v>1</v>
+      </c>
+      <c r="O113" s="31">
+        <v>1</v>
+      </c>
+      <c r="P113" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="31">
+        <v>0</v>
+      </c>
+      <c r="R113" s="31">
+        <v>0</v>
+      </c>
+      <c r="S113" s="31">
+        <v>0</v>
+      </c>
+      <c r="T113" s="31">
+        <v>0</v>
+      </c>
+      <c r="U113" s="31">
         <v>0</v>
       </c>
     </row>
@@ -10273,13 +10301,16 @@
         <v>174</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="K114" s="31">
         <v>1</v>
@@ -10323,16 +10354,16 @@
         <v>174</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D115" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K115" s="31">
         <v>1</v>
@@ -10376,16 +10407,16 @@
         <v>174</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K116" s="31">
         <v>1</v>
@@ -10421,24 +10452,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
         <v>114</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K117" s="31">
         <v>1</v>
@@ -10482,16 +10513,16 @@
         <v>180</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D118" s="30" t="s">
         <v>149</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K118" s="31">
         <v>1</v>
@@ -10527,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
         <v>116</v>
       </c>
@@ -10535,16 +10566,16 @@
         <v>180</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K119" s="31">
         <v>1</v>
@@ -10580,110 +10611,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
         <v>117</v>
       </c>
-      <c r="B120" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F120" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="K120" s="31">
-        <v>1</v>
-      </c>
-      <c r="L120" s="31">
-        <v>1</v>
-      </c>
-      <c r="M120" s="31">
-        <v>1</v>
-      </c>
-      <c r="N120" s="31">
-        <v>1</v>
-      </c>
-      <c r="O120" s="31">
-        <v>1</v>
-      </c>
-      <c r="P120" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="31">
-        <v>0</v>
-      </c>
-      <c r="R120" s="31">
-        <v>0</v>
-      </c>
-      <c r="S120" s="31">
-        <v>0</v>
-      </c>
-      <c r="T120" s="31">
-        <v>0</v>
-      </c>
-      <c r="U120" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K120" s="32">
+        <v>1</v>
+      </c>
+      <c r="L120" s="32">
+        <v>1</v>
+      </c>
+      <c r="M120" s="32">
+        <v>1</v>
+      </c>
+      <c r="N120" s="32">
+        <v>1</v>
+      </c>
+      <c r="O120" s="32">
+        <v>0</v>
+      </c>
+      <c r="P120" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="32">
+        <v>0</v>
+      </c>
+      <c r="R120" s="32">
+        <v>0</v>
+      </c>
+      <c r="S120" s="32">
+        <v>0</v>
+      </c>
+      <c r="T120" s="32">
+        <v>0</v>
+      </c>
+      <c r="U120" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
         <v>118</v>
       </c>
-      <c r="B121" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" s="33" t="s">
+      <c r="B121" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D121" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E121" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K121" s="32">
-        <v>1</v>
-      </c>
-      <c r="L121" s="32">
-        <v>1</v>
-      </c>
-      <c r="M121" s="32">
-        <v>1</v>
-      </c>
-      <c r="N121" s="32">
-        <v>1</v>
-      </c>
-      <c r="O121" s="32">
-        <v>0</v>
-      </c>
-      <c r="P121" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="32">
-        <v>0</v>
-      </c>
-      <c r="R121" s="32">
-        <v>0</v>
-      </c>
-      <c r="S121" s="32">
-        <v>0</v>
-      </c>
-      <c r="T121" s="32">
-        <v>0</v>
-      </c>
-      <c r="U121" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="K121" s="34">
+        <v>1</v>
+      </c>
+      <c r="L121" s="34">
+        <v>1</v>
+      </c>
+      <c r="M121" s="34">
+        <v>1</v>
+      </c>
+      <c r="N121" s="34">
+        <v>1</v>
+      </c>
+      <c r="O121" s="34">
+        <v>1</v>
+      </c>
+      <c r="P121" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="34">
+        <v>0</v>
+      </c>
+      <c r="R121" s="34">
+        <v>0</v>
+      </c>
+      <c r="S121" s="34">
+        <v>0</v>
+      </c>
+      <c r="T121" s="34">
+        <v>0</v>
+      </c>
+      <c r="U121" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
         <v>119</v>
       </c>
@@ -10691,16 +10722,16 @@
         <v>295</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10736,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
         <v>120</v>
       </c>
@@ -10744,16 +10775,16 @@
         <v>295</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10794,19 +10825,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>295</v>
+        <v>496</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D124" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>229</v>
+        <v>497</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10847,19 +10878,19 @@
         <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>496</v>
+        <v>295</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D125" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>505</v>
+        <v>298</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>497</v>
+        <v>298</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10903,16 +10934,16 @@
         <v>295</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>493</v>
+        <v>230</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10956,16 +10987,16 @@
         <v>295</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -11009,16 +11040,16 @@
         <v>295</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -11062,16 +11093,16 @@
         <v>295</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>235</v>
+        <v>488</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -11115,16 +11146,16 @@
         <v>295</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>309</v>
+        <v>228</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11168,16 +11199,16 @@
         <v>295</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="F131" s="34" t="s">
-        <v>231</v>
+        <v>197</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>501</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -11221,16 +11252,16 @@
         <v>295</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>507</v>
+        <v>311</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>501</v>
+        <v>311</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -11274,16 +11305,16 @@
         <v>295</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -11327,16 +11358,16 @@
         <v>295</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11372,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
         <v>132</v>
       </c>
@@ -11380,16 +11411,16 @@
         <v>295</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F135" s="35" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11425,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
         <v>133</v>
       </c>
@@ -11433,16 +11464,16 @@
         <v>295</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E136" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F136" s="34" t="s">
-        <v>233</v>
+        <v>197</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F136" s="35" t="s">
+        <v>301</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11486,16 +11517,16 @@
         <v>295</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D137" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11539,16 +11570,16 @@
         <v>295</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>197</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11592,16 +11623,16 @@
         <v>295</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E139" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="F139" s="35" t="s">
-        <v>313</v>
+      <c r="E139" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="K139" s="34">
         <v>1</v>
@@ -11645,16 +11676,16 @@
         <v>295</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F140" s="34" t="s">
-        <v>236</v>
+        <v>99</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F140" s="35" t="s">
+        <v>318</v>
       </c>
       <c r="K140" s="34">
         <v>1</v>
@@ -11698,16 +11729,16 @@
         <v>295</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K141" s="34">
         <v>1</v>
@@ -11751,16 +11782,16 @@
         <v>295</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11804,16 +11835,16 @@
         <v>295</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="D143" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="K143" s="34">
         <v>1</v>
@@ -11849,56 +11880,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
         <v>141</v>
       </c>
-      <c r="B144" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="D144" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E144" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="F144" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="K144" s="34">
-        <v>1</v>
-      </c>
-      <c r="L144" s="34">
-        <v>1</v>
-      </c>
-      <c r="M144" s="34">
-        <v>1</v>
-      </c>
-      <c r="N144" s="34">
-        <v>1</v>
-      </c>
-      <c r="O144" s="34">
-        <v>1</v>
-      </c>
-      <c r="P144" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="34">
-        <v>0</v>
-      </c>
-      <c r="R144" s="34">
-        <v>0</v>
-      </c>
-      <c r="S144" s="34">
-        <v>0</v>
-      </c>
-      <c r="T144" s="34">
-        <v>0</v>
-      </c>
-      <c r="U144" s="34">
+      <c r="B144" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K144" s="37">
+        <v>1</v>
+      </c>
+      <c r="L144" s="37">
+        <v>1</v>
+      </c>
+      <c r="M144" s="37">
+        <v>1</v>
+      </c>
+      <c r="N144" s="37">
+        <v>1</v>
+      </c>
+      <c r="O144" s="37">
+        <v>1</v>
+      </c>
+      <c r="P144" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="37">
+        <v>0</v>
+      </c>
+      <c r="R144" s="37">
+        <v>0</v>
+      </c>
+      <c r="S144" s="37">
+        <v>0</v>
+      </c>
+      <c r="T144" s="37">
+        <v>0</v>
+      </c>
+      <c r="U144" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11910,13 +11938,13 @@
         <v>245</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K145" s="37">
         <v>1</v>
@@ -11957,16 +11985,16 @@
         <v>143</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K146" s="37">
         <v>1</v>
@@ -12002,53 +12030,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
         <v>144</v>
       </c>
-      <c r="B147" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D147" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="E147" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="K147" s="37">
-        <v>1</v>
-      </c>
-      <c r="L147" s="37">
-        <v>1</v>
-      </c>
-      <c r="M147" s="37">
-        <v>1</v>
-      </c>
-      <c r="N147" s="37">
-        <v>1</v>
-      </c>
-      <c r="O147" s="37">
-        <v>1</v>
-      </c>
-      <c r="P147" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="37">
-        <v>0</v>
-      </c>
-      <c r="R147" s="37">
-        <v>0</v>
-      </c>
-      <c r="S147" s="37">
-        <v>0</v>
-      </c>
-      <c r="T147" s="37">
-        <v>0</v>
-      </c>
-      <c r="U147" s="37">
+      <c r="B147" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K147" s="32">
+        <v>1</v>
+      </c>
+      <c r="L147" s="32">
+        <v>1</v>
+      </c>
+      <c r="M147" s="32">
+        <v>1</v>
+      </c>
+      <c r="N147" s="32">
+        <v>1</v>
+      </c>
+      <c r="O147" s="32">
+        <v>0</v>
+      </c>
+      <c r="P147" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="32">
+        <v>0</v>
+      </c>
+      <c r="R147" s="32">
+        <v>0</v>
+      </c>
+      <c r="S147" s="32">
+        <v>0</v>
+      </c>
+      <c r="T147" s="32">
+        <v>0</v>
+      </c>
+      <c r="U147" s="32">
         <v>0</v>
       </c>
     </row>
@@ -12060,19 +12088,19 @@
         <v>263</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>195</v>
+        <v>484</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
       </c>
       <c r="L148" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" s="32">
         <v>1</v>
@@ -12110,13 +12138,13 @@
         <v>263</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12160,13 +12188,13 @@
         <v>263</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>278</v>
+        <v>482</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -12202,109 +12230,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C151" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="K151" s="32">
-        <v>1</v>
-      </c>
-      <c r="L151" s="32">
-        <v>0</v>
-      </c>
-      <c r="M151" s="32">
-        <v>1</v>
-      </c>
-      <c r="N151" s="32">
-        <v>1</v>
-      </c>
-      <c r="O151" s="32">
-        <v>0</v>
-      </c>
-      <c r="P151" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="32">
-        <v>0</v>
-      </c>
-      <c r="R151" s="32">
-        <v>0</v>
-      </c>
-      <c r="S151" s="32">
-        <v>0</v>
-      </c>
-      <c r="T151" s="32">
-        <v>0</v>
-      </c>
-      <c r="U151" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E151" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I151" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K151" s="40">
+        <v>1</v>
+      </c>
+      <c r="L151" s="40">
+        <v>0</v>
+      </c>
+      <c r="M151" s="40">
+        <v>1</v>
+      </c>
+      <c r="N151" s="40">
+        <v>1</v>
+      </c>
+      <c r="O151" s="40">
+        <v>0</v>
+      </c>
+      <c r="P151" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="40">
+        <v>0</v>
+      </c>
+      <c r="R151" s="40">
+        <v>0</v>
+      </c>
+      <c r="S151" s="40">
+        <v>0</v>
+      </c>
+      <c r="T151" s="40">
+        <v>0</v>
+      </c>
+      <c r="U151" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C152" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D152" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E152" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="H152" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I152" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K152" s="40">
-        <v>1</v>
-      </c>
-      <c r="L152" s="40">
-        <v>0</v>
-      </c>
-      <c r="M152" s="40">
-        <v>1</v>
-      </c>
-      <c r="N152" s="40">
-        <v>1</v>
-      </c>
-      <c r="O152" s="40">
-        <v>0</v>
-      </c>
-      <c r="P152" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="40">
-        <v>0</v>
-      </c>
-      <c r="R152" s="40">
-        <v>0</v>
-      </c>
-      <c r="S152" s="40">
-        <v>0</v>
-      </c>
-      <c r="T152" s="40">
-        <v>0</v>
-      </c>
-      <c r="U152" s="40">
+        <v>279</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K152" s="32">
+        <v>1</v>
+      </c>
+      <c r="L152" s="32">
+        <v>0</v>
+      </c>
+      <c r="M152" s="32">
+        <v>1</v>
+      </c>
+      <c r="N152" s="32">
+        <v>1</v>
+      </c>
+      <c r="O152" s="32">
+        <v>0</v>
+      </c>
+      <c r="P152" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="32">
+        <v>0</v>
+      </c>
+      <c r="R152" s="32">
+        <v>0</v>
+      </c>
+      <c r="S152" s="32">
+        <v>0</v>
+      </c>
+      <c r="T152" s="32">
+        <v>0</v>
+      </c>
+      <c r="U152" s="32">
         <v>0</v>
       </c>
     </row>
@@ -12313,16 +12341,22 @@
         <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>142</v>
+        <v>267</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -12357,6 +12391,8 @@
       <c r="U153" s="32">
         <v>0</v>
       </c>
+      <c r="V153" s="39"/>
+      <c r="W153" s="39"/>
     </row>
     <row r="154" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
@@ -12365,20 +12401,14 @@
       <c r="B154" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D154" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E154" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H154" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I154" s="33" t="s">
-        <v>282</v>
+      <c r="C154" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>259</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12413,8 +12443,6 @@
       <c r="U154" s="32">
         <v>0</v>
       </c>
-      <c r="V154" s="39"/>
-      <c r="W154" s="39"/>
     </row>
     <row r="155" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
@@ -12424,13 +12452,13 @@
         <v>267</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12474,13 +12502,16 @@
         <v>267</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>197</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="G156" s="32">
+        <v>1</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12524,16 +12555,13 @@
         <v>267</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>276</v>
+        <v>450</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G157" s="32">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12544,7 +12572,7 @@
       <c r="M157" s="32">
         <v>1</v>
       </c>
-      <c r="N157" s="32">
+      <c r="N157" s="40">
         <v>1</v>
       </c>
       <c r="O157" s="32">
@@ -12574,16 +12602,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>267</v>
+        <v>553</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>483</v>
+        <v>323</v>
       </c>
       <c r="K158" s="32">
         <v>1</v>
@@ -12624,16 +12652,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>553</v>
+        <v>322</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K159" s="32">
         <v>1</v>
@@ -12677,13 +12705,13 @@
         <v>322</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12727,13 +12755,19 @@
         <v>322</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>173</v>
+        <v>326</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="K161" s="32">
         <v>1</v>
@@ -12768,6 +12802,8 @@
       <c r="U161" s="32">
         <v>0</v>
       </c>
+      <c r="V161" s="39"/>
+      <c r="W161" s="39"/>
     </row>
     <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
@@ -12777,19 +12813,13 @@
         <v>322</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="D162" s="38" t="s">
-        <v>123</v>
+        <v>450</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I162" s="33" t="s">
-        <v>195</v>
+        <v>451</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12824,24 +12854,22 @@
       <c r="U162" s="32">
         <v>0</v>
       </c>
-      <c r="V162" s="39"/>
-      <c r="W162" s="39"/>
-    </row>
-    <row r="163" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>322</v>
+        <v>566</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>99</v>
+        <v>426</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="K163" s="32">
         <v>1</v>
@@ -12877,22 +12905,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>566</v>
+        <v>424</v>
       </c>
       <c r="C164" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I164" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="D164" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>427</v>
-      </c>
       <c r="K164" s="32">
         <v>1</v>
       </c>
@@ -12926,6 +12960,8 @@
       <c r="U164" s="32">
         <v>0</v>
       </c>
+      <c r="V164" s="39"/>
+      <c r="W164" s="39"/>
     </row>
     <row r="165" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
@@ -12935,19 +12971,13 @@
         <v>424</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I165" s="33" t="s">
-        <v>195</v>
+        <v>451</v>
       </c>
       <c r="K165" s="32">
         <v>1</v>
@@ -12982,58 +13012,65 @@
       <c r="U165" s="32">
         <v>0</v>
       </c>
-      <c r="V165" s="39"/>
-      <c r="W165" s="39"/>
-    </row>
-    <row r="166" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
         <v>163</v>
       </c>
-      <c r="B166" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E166" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="K166" s="32">
-        <v>1</v>
-      </c>
-      <c r="L166" s="32">
-        <v>0</v>
-      </c>
-      <c r="M166" s="32">
-        <v>1</v>
-      </c>
-      <c r="N166" s="40">
-        <v>1</v>
-      </c>
-      <c r="O166" s="32">
-        <v>0</v>
-      </c>
-      <c r="P166" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q166" s="32">
-        <v>0</v>
-      </c>
-      <c r="R166" s="32">
-        <v>0</v>
-      </c>
-      <c r="S166" s="32">
-        <v>0</v>
-      </c>
-      <c r="T166" s="32">
-        <v>0</v>
-      </c>
-      <c r="U166" s="32">
-        <v>0</v>
-      </c>
+      <c r="B166" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9">
+        <v>1</v>
+      </c>
+      <c r="L166" s="9">
+        <v>1</v>
+      </c>
+      <c r="M166" s="9">
+        <v>0</v>
+      </c>
+      <c r="N166" s="9">
+        <v>1</v>
+      </c>
+      <c r="O166" s="9">
+        <v>1</v>
+      </c>
+      <c r="P166" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="9">
+        <v>0</v>
+      </c>
+      <c r="R166" s="9">
+        <v>0</v>
+      </c>
+      <c r="S166" s="9">
+        <v>0</v>
+      </c>
+      <c r="T166" s="9">
+        <v>0</v>
+      </c>
+      <c r="U166" s="9">
+        <v>0</v>
+      </c>
+      <c r="V166" s="9"/>
+      <c r="W166" s="9"/>
+      <c r="X166" s="9"/>
+      <c r="Y166" s="9"/>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
@@ -13042,14 +13079,14 @@
       <c r="B167" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C167" s="21" t="s">
-        <v>128</v>
+      <c r="C167" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -13063,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="M167" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167" s="9">
         <v>1</v>
@@ -13102,13 +13139,13 @@
         <v>337</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>345</v>
+        <v>587</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13161,13 +13198,13 @@
         <v>337</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>586</v>
+        <v>346</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>587</v>
+        <v>347</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13220,13 +13257,13 @@
         <v>337</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>346</v>
+        <v>532</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>347</v>
+        <v>533</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13279,13 +13316,13 @@
         <v>337</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13338,13 +13375,13 @@
         <v>337</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13364,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P172" s="9">
         <v>0</v>
@@ -13394,16 +13431,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>538</v>
+        <v>349</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13423,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="9">
         <v>0</v>
@@ -13453,16 +13490,16 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
@@ -13476,13 +13513,13 @@
         <v>1</v>
       </c>
       <c r="M174" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174" s="9">
         <v>1</v>
       </c>
       <c r="O174" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P174" s="9">
         <v>0</v>
@@ -13512,16 +13549,16 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>540</v>
+        <v>351</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
@@ -13535,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="M175" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175" s="9">
         <v>1</v>
@@ -13571,21 +13608,21 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>348</v>
+        <v>582</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>351</v>
+        <v>570</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9">
         <v>1</v>
@@ -13630,16 +13667,16 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>582</v>
+        <v>342</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
@@ -13653,10 +13690,10 @@
         <v>1</v>
       </c>
       <c r="M177" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177" s="9">
         <v>0</v>
@@ -13689,25 +13726,21 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>342</v>
+        <v>608</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>187</v>
+        <v>610</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
-      <c r="H178" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="I178" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9">
         <v>1</v>
@@ -13722,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="O178" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P178" s="9">
         <v>0</v>
@@ -13752,39 +13785,37 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>201</v>
+        <v>610</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
-      <c r="H179" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="I179" s="10" t="s">
-        <v>592</v>
-      </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
       <c r="J179" s="9"/>
       <c r="K179" s="9">
         <v>1</v>
       </c>
       <c r="L179" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" s="9">
         <v>1</v>
       </c>
       <c r="N179" s="9">
-        <v>0</v>
-      </c>
-      <c r="O179" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O179" s="9">
+        <v>1</v>
+      </c>
       <c r="P179" s="9">
         <v>0</v>
       </c>
@@ -13813,21 +13844,25 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>543</v>
+        <v>342</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>142</v>
+        <v>541</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
+      <c r="H180" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9">
         <v>1</v>
@@ -13872,24 +13907,24 @@
         <v>178</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>129</v>
+        <v>594</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
-      <c r="H181" s="10" t="s">
-        <v>605</v>
+      <c r="H181" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>195</v>
+        <v>592</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9">
@@ -13902,11 +13937,9 @@
         <v>1</v>
       </c>
       <c r="N181" s="9">
-        <v>1</v>
-      </c>
-      <c r="O181" s="9">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O181" s="9"/>
       <c r="P181" s="9">
         <v>0</v>
       </c>
@@ -13938,18 +13971,18 @@
         <v>543</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>547</v>
+        <v>143</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>548</v>
+        <v>142</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9">
         <v>1</v>
@@ -13997,24 +14030,28 @@
         <v>544</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>549</v>
+        <v>129</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
+      <c r="H183" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="J183" s="9"/>
       <c r="K183" s="9">
         <v>1</v>
       </c>
       <c r="L183" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183" s="9">
         <v>1</v>
@@ -14053,16 +14090,16 @@
         <v>181</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>143</v>
+        <v>547</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -14107,109 +14144,123 @@
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
     </row>
-    <row r="185" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A185" s="29">
         <v>182</v>
       </c>
-      <c r="B185" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C185" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="D185" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E185" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="H185" s="52"/>
-      <c r="I185" s="52"/>
-      <c r="K185" s="53">
-        <v>1</v>
-      </c>
-      <c r="L185" s="53">
-        <v>1</v>
-      </c>
-      <c r="M185" s="53">
-        <v>1</v>
-      </c>
-      <c r="N185" s="53">
-        <v>0</v>
-      </c>
-      <c r="O185" s="53">
-        <v>0</v>
-      </c>
-      <c r="P185" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="53">
-        <v>0</v>
-      </c>
-      <c r="R185" s="53">
-        <v>0</v>
-      </c>
-      <c r="S185" s="53">
-        <v>0</v>
-      </c>
-      <c r="T185" s="53">
-        <v>0</v>
-      </c>
-      <c r="U185" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9">
+        <v>1</v>
+      </c>
+      <c r="L185" s="9">
+        <v>1</v>
+      </c>
+      <c r="M185" s="9">
+        <v>1</v>
+      </c>
+      <c r="N185" s="9">
+        <v>1</v>
+      </c>
+      <c r="O185" s="9">
+        <v>0</v>
+      </c>
+      <c r="P185" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="9">
+        <v>0</v>
+      </c>
+      <c r="R185" s="9">
+        <v>0</v>
+      </c>
+      <c r="S185" s="9">
+        <v>0</v>
+      </c>
+      <c r="T185" s="9">
+        <v>0</v>
+      </c>
+      <c r="U185" s="9">
+        <v>0</v>
+      </c>
+      <c r="V185" s="9"/>
+      <c r="W185" s="9"/>
+      <c r="X185" s="9"/>
+      <c r="Y185" s="9"/>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A186" s="29">
         <v>183</v>
       </c>
-      <c r="B186" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="C186" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="D186" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E186" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="H186" s="52"/>
-      <c r="I186" s="52"/>
-      <c r="K186" s="53">
-        <v>1</v>
-      </c>
-      <c r="L186" s="53">
-        <v>1</v>
-      </c>
-      <c r="M186" s="53">
-        <v>1</v>
-      </c>
-      <c r="N186" s="53">
-        <v>0</v>
-      </c>
-      <c r="O186" s="53">
-        <v>0</v>
-      </c>
-      <c r="P186" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q186" s="53">
-        <v>0</v>
-      </c>
-      <c r="R186" s="53">
-        <v>0</v>
-      </c>
-      <c r="S186" s="53">
-        <v>0</v>
-      </c>
-      <c r="T186" s="53">
-        <v>0</v>
-      </c>
-      <c r="U186" s="53">
-        <v>0</v>
-      </c>
+      <c r="B186" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9">
+        <v>1</v>
+      </c>
+      <c r="L186" s="9">
+        <v>1</v>
+      </c>
+      <c r="M186" s="9">
+        <v>1</v>
+      </c>
+      <c r="N186" s="9">
+        <v>1</v>
+      </c>
+      <c r="O186" s="9">
+        <v>0</v>
+      </c>
+      <c r="P186" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="9">
+        <v>0</v>
+      </c>
+      <c r="R186" s="9">
+        <v>0</v>
+      </c>
+      <c r="S186" s="9">
+        <v>0</v>
+      </c>
+      <c r="T186" s="9">
+        <v>0</v>
+      </c>
+      <c r="U186" s="9">
+        <v>0</v>
+      </c>
+      <c r="V186" s="9"/>
+      <c r="W186" s="9"/>
+      <c r="X186" s="9"/>
+      <c r="Y186" s="9"/>
     </row>
     <row r="187" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
@@ -14219,13 +14270,13 @@
         <v>554</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="D187" s="52" t="s">
         <v>143</v>
       </c>
       <c r="E187" s="52" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="H187" s="52"/>
       <c r="I187" s="52"/>
@@ -14236,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="M187" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" s="53">
         <v>0</v>
@@ -14263,211 +14314,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
         <v>185</v>
       </c>
-      <c r="B188" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="C188" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="D188" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E188" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="H188" s="54"/>
-      <c r="I188" s="54"/>
-      <c r="K188" s="55">
-        <v>1</v>
-      </c>
-      <c r="L188" s="55">
-        <v>1</v>
-      </c>
-      <c r="M188" s="55">
-        <v>1</v>
-      </c>
-      <c r="N188" s="55">
-        <v>0</v>
-      </c>
-      <c r="O188" s="55">
-        <v>0</v>
-      </c>
-      <c r="P188" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="55">
-        <v>0</v>
-      </c>
-      <c r="R188" s="55">
-        <v>0</v>
-      </c>
-      <c r="S188" s="55">
-        <v>0</v>
-      </c>
-      <c r="T188" s="55">
-        <v>0</v>
-      </c>
-      <c r="U188" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="C188" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D188" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E188" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="H188" s="52"/>
+      <c r="I188" s="52"/>
+      <c r="K188" s="53">
+        <v>1</v>
+      </c>
+      <c r="L188" s="53">
+        <v>1</v>
+      </c>
+      <c r="M188" s="53">
+        <v>1</v>
+      </c>
+      <c r="N188" s="53">
+        <v>0</v>
+      </c>
+      <c r="O188" s="53">
+        <v>0</v>
+      </c>
+      <c r="P188" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="53">
+        <v>0</v>
+      </c>
+      <c r="R188" s="53">
+        <v>0</v>
+      </c>
+      <c r="S188" s="53">
+        <v>0</v>
+      </c>
+      <c r="T188" s="53">
+        <v>0</v>
+      </c>
+      <c r="U188" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
         <v>186</v>
       </c>
-      <c r="B189" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="C189" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="D189" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E189" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="H189" s="54"/>
-      <c r="I189" s="54"/>
-      <c r="K189" s="55">
-        <v>1</v>
-      </c>
-      <c r="L189" s="55">
-        <v>1</v>
-      </c>
-      <c r="M189" s="55">
-        <v>1</v>
-      </c>
-      <c r="N189" s="55">
-        <v>0</v>
-      </c>
-      <c r="O189" s="55">
-        <v>0</v>
-      </c>
-      <c r="P189" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="55">
-        <v>0</v>
-      </c>
-      <c r="R189" s="55">
-        <v>0</v>
-      </c>
-      <c r="S189" s="55">
-        <v>0</v>
-      </c>
-      <c r="T189" s="55">
-        <v>0</v>
-      </c>
-      <c r="U189" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C189" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="D189" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E189" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="H189" s="52"/>
+      <c r="I189" s="52"/>
+      <c r="K189" s="53">
+        <v>1</v>
+      </c>
+      <c r="L189" s="53">
+        <v>1</v>
+      </c>
+      <c r="M189" s="53">
+        <v>0</v>
+      </c>
+      <c r="N189" s="53">
+        <v>0</v>
+      </c>
+      <c r="O189" s="53">
+        <v>0</v>
+      </c>
+      <c r="P189" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="53">
+        <v>0</v>
+      </c>
+      <c r="R189" s="53">
+        <v>0</v>
+      </c>
+      <c r="S189" s="53">
+        <v>0</v>
+      </c>
+      <c r="T189" s="53">
+        <v>0</v>
+      </c>
+      <c r="U189" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
         <v>187</v>
       </c>
-      <c r="B190" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="C190" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D190" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E190" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H190" s="56"/>
-      <c r="I190" s="56"/>
-      <c r="K190" s="57">
-        <v>1</v>
-      </c>
-      <c r="L190" s="57">
-        <v>0</v>
-      </c>
-      <c r="M190" s="57">
-        <v>1</v>
-      </c>
-      <c r="N190" s="57">
-        <v>0</v>
-      </c>
-      <c r="O190" s="57">
-        <v>0</v>
-      </c>
-      <c r="P190" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q190" s="57">
-        <v>0</v>
-      </c>
-      <c r="R190" s="57">
-        <v>0</v>
-      </c>
-      <c r="S190" s="57">
-        <v>0</v>
-      </c>
-      <c r="T190" s="57">
-        <v>0</v>
-      </c>
-      <c r="U190" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="D190" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E190" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H190" s="54"/>
+      <c r="I190" s="54"/>
+      <c r="K190" s="55">
+        <v>1</v>
+      </c>
+      <c r="L190" s="55">
+        <v>1</v>
+      </c>
+      <c r="M190" s="55">
+        <v>1</v>
+      </c>
+      <c r="N190" s="55">
+        <v>0</v>
+      </c>
+      <c r="O190" s="55">
+        <v>0</v>
+      </c>
+      <c r="P190" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="55">
+        <v>0</v>
+      </c>
+      <c r="R190" s="55">
+        <v>0</v>
+      </c>
+      <c r="S190" s="55">
+        <v>0</v>
+      </c>
+      <c r="T190" s="55">
+        <v>0</v>
+      </c>
+      <c r="U190" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
         <v>188</v>
       </c>
-      <c r="B191" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="C191" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D191" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E191" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="H191" s="56"/>
-      <c r="I191" s="56"/>
-      <c r="K191" s="57">
-        <v>1</v>
-      </c>
-      <c r="L191" s="57">
-        <v>0</v>
-      </c>
-      <c r="M191" s="57">
-        <v>1</v>
-      </c>
-      <c r="N191" s="57">
-        <v>0</v>
-      </c>
-      <c r="O191" s="57">
-        <v>0</v>
-      </c>
-      <c r="P191" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="57">
-        <v>0</v>
-      </c>
-      <c r="R191" s="57">
-        <v>0</v>
-      </c>
-      <c r="S191" s="57">
-        <v>0</v>
-      </c>
-      <c r="T191" s="57">
-        <v>0</v>
-      </c>
-      <c r="U191" s="57">
+      <c r="B191" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="C191" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="D191" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E191" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="H191" s="54"/>
+      <c r="I191" s="54"/>
+      <c r="K191" s="55">
+        <v>1</v>
+      </c>
+      <c r="L191" s="55">
+        <v>1</v>
+      </c>
+      <c r="M191" s="55">
+        <v>1</v>
+      </c>
+      <c r="N191" s="55">
+        <v>0</v>
+      </c>
+      <c r="O191" s="55">
+        <v>0</v>
+      </c>
+      <c r="P191" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="55">
+        <v>0</v>
+      </c>
+      <c r="R191" s="55">
+        <v>0</v>
+      </c>
+      <c r="S191" s="55">
+        <v>0</v>
+      </c>
+      <c r="T191" s="55">
+        <v>0</v>
+      </c>
+      <c r="U191" s="55">
         <v>0</v>
       </c>
     </row>
@@ -14476,23 +14527,19 @@
         <v>189</v>
       </c>
       <c r="B192" s="56" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C192" s="56" t="s">
-        <v>596</v>
+        <v>128</v>
       </c>
       <c r="D192" s="56" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E192" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="H192" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="I192" s="56" t="s">
-        <v>19</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56"/>
       <c r="K192" s="57">
         <v>1</v>
       </c>
@@ -14527,103 +14574,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
         <v>190</v>
       </c>
-      <c r="B193" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="D193" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="E193" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="K193" s="43">
-        <v>1</v>
-      </c>
-      <c r="L193" s="43">
-        <v>1</v>
-      </c>
-      <c r="M193" s="43">
-        <v>1</v>
-      </c>
-      <c r="N193" s="43">
-        <v>1</v>
-      </c>
-      <c r="O193" s="43">
-        <v>1</v>
-      </c>
-      <c r="P193" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q193" s="43">
-        <v>0</v>
-      </c>
-      <c r="R193" s="43">
-        <v>0</v>
-      </c>
-      <c r="S193" s="43">
-        <v>0</v>
-      </c>
-      <c r="T193" s="43">
-        <v>0</v>
-      </c>
-      <c r="U193" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="C193" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D193" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E193" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="K193" s="57">
+        <v>1</v>
+      </c>
+      <c r="L193" s="57">
+        <v>0</v>
+      </c>
+      <c r="M193" s="57">
+        <v>1</v>
+      </c>
+      <c r="N193" s="57">
+        <v>0</v>
+      </c>
+      <c r="O193" s="57">
+        <v>0</v>
+      </c>
+      <c r="P193" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="57">
+        <v>0</v>
+      </c>
+      <c r="R193" s="57">
+        <v>0</v>
+      </c>
+      <c r="S193" s="57">
+        <v>0</v>
+      </c>
+      <c r="T193" s="57">
+        <v>0</v>
+      </c>
+      <c r="U193" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
         <v>191</v>
       </c>
-      <c r="B194" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C194" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D194" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="E194" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="K194" s="43">
-        <v>1</v>
-      </c>
-      <c r="L194" s="43">
-        <v>1</v>
-      </c>
-      <c r="M194" s="43">
-        <v>1</v>
-      </c>
-      <c r="N194" s="43">
-        <v>1</v>
-      </c>
-      <c r="O194" s="43">
-        <v>1</v>
-      </c>
-      <c r="P194" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q194" s="43">
-        <v>0</v>
-      </c>
-      <c r="R194" s="43">
-        <v>0</v>
-      </c>
-      <c r="S194" s="43">
-        <v>0</v>
-      </c>
-      <c r="T194" s="43">
-        <v>0</v>
-      </c>
-      <c r="U194" s="43">
+      <c r="B194" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="C194" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D194" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="H194" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="I194" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="57">
+        <v>1</v>
+      </c>
+      <c r="L194" s="57">
+        <v>0</v>
+      </c>
+      <c r="M194" s="57">
+        <v>1</v>
+      </c>
+      <c r="N194" s="57">
+        <v>0</v>
+      </c>
+      <c r="O194" s="57">
+        <v>0</v>
+      </c>
+      <c r="P194" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="57">
+        <v>0</v>
+      </c>
+      <c r="R194" s="57">
+        <v>0</v>
+      </c>
+      <c r="S194" s="57">
+        <v>0</v>
+      </c>
+      <c r="T194" s="57">
+        <v>0</v>
+      </c>
+      <c r="U194" s="57">
         <v>0</v>
       </c>
     </row>
@@ -14635,13 +14690,13 @@
         <v>358</v>
       </c>
       <c r="C195" s="44" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D195" s="44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E195" s="44" t="s">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="K195" s="43">
         <v>1</v>
@@ -14677,103 +14732,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
         <v>193</v>
       </c>
-      <c r="B196" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C196" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D196" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E196" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="K196" s="49">
-        <v>1</v>
-      </c>
-      <c r="L196" s="49">
-        <v>1</v>
-      </c>
-      <c r="M196" s="49">
-        <v>0</v>
-      </c>
-      <c r="N196" s="49">
-        <v>0</v>
-      </c>
-      <c r="O196" s="49">
-        <v>0</v>
-      </c>
-      <c r="P196" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q196" s="49">
-        <v>0</v>
-      </c>
-      <c r="R196" s="49">
-        <v>0</v>
-      </c>
-      <c r="S196" s="49">
-        <v>0</v>
-      </c>
-      <c r="T196" s="49">
-        <v>0</v>
-      </c>
-      <c r="U196" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C196" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="D196" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E196" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K196" s="43">
+        <v>1</v>
+      </c>
+      <c r="L196" s="43">
+        <v>1</v>
+      </c>
+      <c r="M196" s="43">
+        <v>1</v>
+      </c>
+      <c r="N196" s="43">
+        <v>1</v>
+      </c>
+      <c r="O196" s="43">
+        <v>1</v>
+      </c>
+      <c r="P196" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="43">
+        <v>0</v>
+      </c>
+      <c r="R196" s="43">
+        <v>0</v>
+      </c>
+      <c r="S196" s="43">
+        <v>0</v>
+      </c>
+      <c r="T196" s="43">
+        <v>0</v>
+      </c>
+      <c r="U196" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
         <v>194</v>
       </c>
-      <c r="B197" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C197" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="D197" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E197" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="K197" s="49">
-        <v>1</v>
-      </c>
-      <c r="L197" s="49">
-        <v>1</v>
-      </c>
-      <c r="M197" s="49">
-        <v>0</v>
-      </c>
-      <c r="N197" s="49">
-        <v>0</v>
-      </c>
-      <c r="O197" s="49">
-        <v>0</v>
-      </c>
-      <c r="P197" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q197" s="49">
-        <v>0</v>
-      </c>
-      <c r="R197" s="49">
-        <v>0</v>
-      </c>
-      <c r="S197" s="49">
-        <v>0</v>
-      </c>
-      <c r="T197" s="49">
-        <v>0</v>
-      </c>
-      <c r="U197" s="49">
+      <c r="B197" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C197" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D197" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E197" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K197" s="43">
+        <v>1</v>
+      </c>
+      <c r="L197" s="43">
+        <v>1</v>
+      </c>
+      <c r="M197" s="43">
+        <v>1</v>
+      </c>
+      <c r="N197" s="43">
+        <v>1</v>
+      </c>
+      <c r="O197" s="43">
+        <v>1</v>
+      </c>
+      <c r="P197" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="43">
+        <v>0</v>
+      </c>
+      <c r="R197" s="43">
+        <v>0</v>
+      </c>
+      <c r="S197" s="43">
+        <v>0</v>
+      </c>
+      <c r="T197" s="43">
+        <v>0</v>
+      </c>
+      <c r="U197" s="43">
         <v>0</v>
       </c>
     </row>
@@ -14785,13 +14840,13 @@
         <v>377</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="D198" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="K198" s="49">
         <v>1</v>
@@ -14835,13 +14890,13 @@
         <v>377</v>
       </c>
       <c r="C199" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="K199" s="49">
         <v>1</v>
@@ -14885,13 +14940,13 @@
         <v>377</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="D200" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E200" s="48" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="K200" s="49">
         <v>1</v>
@@ -14935,13 +14990,13 @@
         <v>377</v>
       </c>
       <c r="C201" s="48" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D201" s="48" t="s">
         <v>382</v>
       </c>
       <c r="E201" s="48" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K201" s="49">
         <v>1</v>
@@ -14985,13 +15040,13 @@
         <v>377</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D202" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K202" s="49">
         <v>1</v>
@@ -15035,13 +15090,13 @@
         <v>377</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K203" s="49">
         <v>1</v>
@@ -15085,13 +15140,13 @@
         <v>377</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D204" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K204" s="49">
         <v>1</v>
@@ -15135,13 +15190,13 @@
         <v>377</v>
       </c>
       <c r="C205" s="48" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D205" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15184,14 +15239,14 @@
       <c r="B206" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="C206" s="49" t="s">
-        <v>396</v>
+      <c r="C206" s="48" t="s">
+        <v>392</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15235,13 +15290,13 @@
         <v>377</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D207" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15282,16 +15337,16 @@
         <v>205</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C208" s="48" t="s">
-        <v>401</v>
+        <v>377</v>
+      </c>
+      <c r="C208" s="49" t="s">
+        <v>396</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15335,13 +15390,13 @@
         <v>377</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="D209" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15382,16 +15437,16 @@
         <v>207</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
       <c r="D210" s="48" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="K210" s="49">
         <v>1</v>
@@ -15435,13 +15490,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D211" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K211" s="49">
         <v>1</v>
@@ -15485,13 +15540,13 @@
         <v>377</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D212" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K212" s="49">
         <v>1</v>
@@ -15535,13 +15590,13 @@
         <v>377</v>
       </c>
       <c r="C213" s="48" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="E213" s="48" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="K213" s="49">
         <v>1</v>
@@ -15585,13 +15640,13 @@
         <v>377</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="D214" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E214" s="48" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="K214" s="49">
         <v>1</v>
@@ -15632,16 +15687,16 @@
         <v>212</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C215" s="48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D215" s="48" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E215" s="48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K215" s="49">
         <v>1</v>
@@ -15685,13 +15740,13 @@
         <v>377</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D216" s="48" t="s">
         <v>197</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K216" s="49">
         <v>1</v>
@@ -15732,18 +15787,17 @@
         <v>214</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C217" s="48" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D217" s="48" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E217" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="H217" s="48"/>
+        <v>409</v>
+      </c>
       <c r="K217" s="49">
         <v>1</v>
       </c>
@@ -15778,108 +15832,209 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="29">
         <v>215</v>
       </c>
-      <c r="B218" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="C218" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D218" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="E218" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="K218" s="51">
-        <v>1</v>
-      </c>
-      <c r="L218" s="51">
-        <v>1</v>
-      </c>
-      <c r="M218" s="51">
-        <v>1</v>
-      </c>
-      <c r="N218" s="51">
-        <v>1</v>
-      </c>
-      <c r="O218" s="51">
-        <v>0</v>
-      </c>
-      <c r="P218" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q218" s="51">
-        <v>0</v>
-      </c>
-      <c r="R218" s="51">
-        <v>0</v>
-      </c>
-      <c r="S218" s="51">
-        <v>0</v>
-      </c>
-      <c r="T218" s="51">
-        <v>0</v>
-      </c>
-      <c r="U218" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E218" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K218" s="49">
+        <v>1</v>
+      </c>
+      <c r="L218" s="49">
+        <v>1</v>
+      </c>
+      <c r="M218" s="49">
+        <v>0</v>
+      </c>
+      <c r="N218" s="49">
+        <v>0</v>
+      </c>
+      <c r="O218" s="49">
+        <v>0</v>
+      </c>
+      <c r="P218" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="49">
+        <v>0</v>
+      </c>
+      <c r="R218" s="49">
+        <v>0</v>
+      </c>
+      <c r="S218" s="49">
+        <v>0</v>
+      </c>
+      <c r="T218" s="49">
+        <v>0</v>
+      </c>
+      <c r="U218" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="29">
         <v>216</v>
       </c>
-      <c r="B219" s="50" t="s">
+      <c r="B219" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C219" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D219" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E219" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H219" s="48"/>
+      <c r="K219" s="49">
+        <v>1</v>
+      </c>
+      <c r="L219" s="49">
+        <v>1</v>
+      </c>
+      <c r="M219" s="49">
+        <v>0</v>
+      </c>
+      <c r="N219" s="49">
+        <v>0</v>
+      </c>
+      <c r="O219" s="49">
+        <v>0</v>
+      </c>
+      <c r="P219" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="49">
+        <v>0</v>
+      </c>
+      <c r="R219" s="49">
+        <v>0</v>
+      </c>
+      <c r="S219" s="49">
+        <v>0</v>
+      </c>
+      <c r="T219" s="49">
+        <v>0</v>
+      </c>
+      <c r="U219" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="29">
+        <v>217</v>
+      </c>
+      <c r="B220" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="C219" s="50" t="s">
+      <c r="C220" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D220" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E220" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="K220" s="51">
+        <v>1</v>
+      </c>
+      <c r="L220" s="51">
+        <v>1</v>
+      </c>
+      <c r="M220" s="51">
+        <v>1</v>
+      </c>
+      <c r="N220" s="51">
+        <v>1</v>
+      </c>
+      <c r="O220" s="51">
+        <v>0</v>
+      </c>
+      <c r="P220" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="51">
+        <v>0</v>
+      </c>
+      <c r="R220" s="51">
+        <v>0</v>
+      </c>
+      <c r="S220" s="51">
+        <v>0</v>
+      </c>
+      <c r="T220" s="51">
+        <v>0</v>
+      </c>
+      <c r="U220" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="29">
+        <v>218</v>
+      </c>
+      <c r="B221" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C221" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="D219" s="50" t="s">
+      <c r="D221" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="E219" s="50" t="s">
+      <c r="E221" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="K219" s="51">
-        <v>1</v>
-      </c>
-      <c r="L219" s="51">
-        <v>1</v>
-      </c>
-      <c r="M219" s="51">
-        <v>1</v>
-      </c>
-      <c r="N219" s="51">
-        <v>1</v>
-      </c>
-      <c r="O219" s="51">
-        <v>0</v>
-      </c>
-      <c r="P219" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q219" s="51">
-        <v>0</v>
-      </c>
-      <c r="R219" s="51">
-        <v>0</v>
-      </c>
-      <c r="S219" s="51">
-        <v>0</v>
-      </c>
-      <c r="T219" s="51">
-        <v>0</v>
-      </c>
-      <c r="U219" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A220" s="29"/>
+      <c r="K221" s="51">
+        <v>1</v>
+      </c>
+      <c r="L221" s="51">
+        <v>1</v>
+      </c>
+      <c r="M221" s="51">
+        <v>1</v>
+      </c>
+      <c r="N221" s="51">
+        <v>1</v>
+      </c>
+      <c r="O221" s="51">
+        <v>0</v>
+      </c>
+      <c r="P221" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="51">
+        <v>0</v>
+      </c>
+      <c r="R221" s="51">
+        <v>0</v>
+      </c>
+      <c r="S221" s="51">
+        <v>0</v>
+      </c>
+      <c r="T221" s="51">
+        <v>0</v>
+      </c>
+      <c r="U221" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A222" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -57,7 +57,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="M166" authorId="0" shapeId="0">
+    <comment ref="C92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>苏昭展:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+帮派单日获取活跃度列表,记录在玩家身上,不随玩家帮派变化改变</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M167" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="635">
   <si>
     <t>Class</t>
   </si>
@@ -758,10 +782,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>邮件标题</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1328,10 +1348,6 @@
     <t>单场最多点穴次数</t>
   </si>
   <si>
-    <t>diamond</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3064,10 +3080,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>成员列表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3251,133 +3263,229 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicantlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberlist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+  </si>
+  <si>
+    <t>玩家申请列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家基础属性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帮派信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildapplylist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
+  </si>
+  <si>
+    <t>BasicPlayer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicemaster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>副帮主列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqlevel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入帮派最低等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批开关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewswitch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家帮派日活跃度获取列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildApplyList</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildDayactiviness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilddayactiviness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派活跃度任务id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派活跃值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildDayactiviness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经获得任务数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>usevalue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周活跃度时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekactiveness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获取周活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMember</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>guildmember</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicantlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterid</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮派等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalactiveness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberlist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApplyList</t>
-  </si>
-  <si>
-    <t>玩家申请列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApplyList</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家基础属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家帮派信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildApplyList</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>guildapplylist</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicPlayer</t>
-  </si>
-  <si>
-    <t>BasicPlayer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>vicemaster</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>副帮主列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>reqlevel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入帮派最低等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批开关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewswitch</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3385,7 +3493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3482,8 +3590,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3622,6 +3743,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3652,7 +3779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3825,6 +3952,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4199,17 +4332,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y222"/>
+  <dimension ref="A1:Y229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <pane ySplit="3" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="8" bestFit="1" customWidth="1"/>
@@ -4237,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4252,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -4273,28 +4406,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4314,79 +4447,79 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="F2" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="N2" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="U2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4401,7 +4534,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>120</v>
@@ -4455,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4568,17 +4701,17 @@
         <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -4625,17 +4758,17 @@
         <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -5036,7 +5169,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -5139,7 +5272,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -5233,13 +5366,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -5283,13 +5416,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -5333,7 +5466,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -5430,16 +5563,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -5480,16 +5613,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5530,16 +5663,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5580,7 +5713,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -5683,7 +5816,7 @@
         <v>114</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
@@ -5733,7 +5866,7 @@
         <v>114</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>36</v>
@@ -5783,13 +5916,13 @@
         <v>121</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>273</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="K31" s="20">
         <v>1</v>
@@ -5833,7 +5966,7 @@
         <v>114</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
@@ -5934,7 +6067,7 @@
         <v>114</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>110</v>
@@ -5985,7 +6118,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>22</v>
@@ -6036,13 +6169,13 @@
         <v>114</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F36" s="19"/>
       <c r="K36" s="20">
@@ -6087,13 +6220,13 @@
         <v>114</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D37" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>332</v>
       </c>
       <c r="F37" s="19"/>
       <c r="K37" s="20">
@@ -6138,13 +6271,13 @@
         <v>114</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F38" s="19"/>
       <c r="K38" s="20">
@@ -6189,13 +6322,13 @@
         <v>114</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K39" s="20">
         <v>1</v>
@@ -6239,13 +6372,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" s="14"/>
       <c r="K40" s="5">
@@ -6287,10 +6420,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>123</v>
@@ -6302,7 +6435,7 @@
         <v>125</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -6446,7 +6579,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>53</v>
@@ -6550,16 +6683,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="14"/>
       <c r="K46" s="5">
@@ -6601,7 +6734,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>118</v>
@@ -6616,7 +6749,7 @@
         <v>125</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K47" s="5">
         <v>1</v>
@@ -6815,10 +6948,10 @@
         <v>128</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -6863,8 +6996,8 @@
       <c r="B52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>137</v>
+      <c r="C52" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>126</v>
@@ -6876,7 +7009,7 @@
         <v>127</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K52" s="7">
         <v>1</v>
@@ -6920,13 +7053,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K53" s="7">
         <v>1</v>
@@ -6970,13 +7103,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K54" s="7">
         <v>1</v>
@@ -7126,16 +7259,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>18</v>
+        <v>623</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K57" s="7">
         <v>1</v>
@@ -7229,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>25</v>
@@ -7456,7 +7589,7 @@
         <v>75</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>50</v>
@@ -7565,13 +7698,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K65" s="7">
         <v>1</v>
@@ -7615,13 +7748,13 @@
         <v>18</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" s="7">
         <v>1</v>
@@ -7665,22 +7798,22 @@
         <v>18</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H67" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="J67" s="13" t="s">
         <v>94</v>
@@ -7724,16 +7857,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="F68" s="7"/>
       <c r="K68" s="13">
@@ -7778,25 +7911,25 @@
         <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="F69" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
@@ -7840,22 +7973,22 @@
         <v>18</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="I70" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>50</v>
@@ -7899,25 +8032,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="I71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="K71" s="7">
         <v>1</v>
@@ -7958,19 +8091,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="F72" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K72" s="7">
         <v>1</v>
@@ -8011,19 +8144,19 @@
         <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="K73" s="7">
         <v>1</v>
@@ -8064,19 +8197,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -8117,19 +8250,19 @@
         <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>128</v>
@@ -8176,19 +8309,19 @@
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -8229,19 +8362,19 @@
         <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>128</v>
@@ -8288,19 +8421,19 @@
         <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>128</v>
@@ -8347,22 +8480,22 @@
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D79" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H79" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>355</v>
       </c>
       <c r="K79" s="42">
         <v>1</v>
@@ -8403,22 +8536,22 @@
         <v>77</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K80" s="42">
         <v>1</v>
@@ -8459,22 +8592,22 @@
         <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K81" s="42">
         <v>1</v>
@@ -8515,22 +8648,22 @@
         <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K82" s="42">
         <v>1</v>
@@ -8571,25 +8704,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="I83" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K83" s="7">
         <v>1</v>
@@ -8630,25 +8763,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K84" s="7">
         <v>1</v>
@@ -8689,19 +8822,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K85" s="7">
         <v>1</v>
@@ -8745,13 +8878,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K86" s="7">
         <v>1</v>
@@ -8795,22 +8928,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="K87" s="7">
         <v>1</v>
@@ -8851,19 +8984,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K88" s="7">
         <v>1</v>
@@ -8904,19 +9037,19 @@
         <v>86</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>128</v>
@@ -8963,19 +9096,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>128</v>
@@ -9022,19 +9155,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>340</v>
+        <v>621</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>128</v>
@@ -9076,82 +9209,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29">
         <v>89</v>
       </c>
-      <c r="B92" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C92" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="K92" s="46">
-        <v>1</v>
-      </c>
-      <c r="L92" s="46">
-        <v>0</v>
-      </c>
-      <c r="M92" s="46">
-        <v>1</v>
-      </c>
-      <c r="N92" s="46">
-        <v>0</v>
-      </c>
-      <c r="O92" s="46">
-        <v>0</v>
-      </c>
-      <c r="P92" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="46">
-        <v>0</v>
-      </c>
-      <c r="R92" s="46">
-        <v>0</v>
-      </c>
-      <c r="S92" s="46">
-        <v>0</v>
-      </c>
-      <c r="T92" s="46">
-        <v>0</v>
-      </c>
-      <c r="U92" s="46">
-        <v>0</v>
-      </c>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
+      <c r="B92" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K92" s="7">
+        <v>1</v>
+      </c>
+      <c r="L92" s="7">
+        <v>1</v>
+      </c>
+      <c r="M92" s="7">
+        <v>1</v>
+      </c>
+      <c r="N92" s="7">
+        <v>1</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="29">
         <v>90</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>429</v>
+        <v>196</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I93" s="45" t="s">
-        <v>195</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
       <c r="K93" s="46">
         <v>1</v>
       </c>
@@ -9193,19 +9327,23 @@
         <v>91</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
+        <v>428</v>
+      </c>
+      <c r="H94" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I94" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="K94" s="46">
         <v>1</v>
       </c>
@@ -9247,16 +9385,16 @@
         <v>92</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>143</v>
+        <v>430</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
@@ -9301,16 +9439,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>445</v>
+        <v>142</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
@@ -9355,16 +9493,16 @@
         <v>94</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>143</v>
+        <v>443</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H97" s="45"/>
       <c r="I97" s="45"/>
@@ -9409,16 +9547,16 @@
         <v>95</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
@@ -9463,16 +9601,16 @@
         <v>96</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>440</v>
+        <v>142</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H99" s="45"/>
       <c r="I99" s="45"/>
@@ -9512,68 +9650,59 @@
       <c r="V99" s="47"/>
       <c r="W99" s="47"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
         <v>97</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11">
-        <v>1</v>
-      </c>
-      <c r="L100" s="11">
-        <v>1</v>
-      </c>
-      <c r="M100" s="11">
-        <v>1</v>
-      </c>
-      <c r="N100" s="11">
-        <v>1</v>
-      </c>
-      <c r="O100" s="11">
-        <v>1</v>
-      </c>
-      <c r="P100" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="9">
-        <v>0</v>
-      </c>
-      <c r="R100" s="9">
-        <v>0</v>
-      </c>
-      <c r="S100" s="9">
-        <v>0</v>
-      </c>
-      <c r="T100" s="9">
-        <v>0</v>
-      </c>
-      <c r="U100" s="11">
-        <v>0</v>
-      </c>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
+      <c r="B100" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="K100" s="46">
+        <v>1</v>
+      </c>
+      <c r="L100" s="46">
+        <v>0</v>
+      </c>
+      <c r="M100" s="46">
+        <v>1</v>
+      </c>
+      <c r="N100" s="46">
+        <v>0</v>
+      </c>
+      <c r="O100" s="46">
+        <v>0</v>
+      </c>
+      <c r="P100" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="46">
+        <v>0</v>
+      </c>
+      <c r="R100" s="46">
+        <v>0</v>
+      </c>
+      <c r="S100" s="46">
+        <v>0</v>
+      </c>
+      <c r="T100" s="46">
+        <v>0</v>
+      </c>
+      <c r="U100" s="46">
+        <v>0</v>
+      </c>
+      <c r="V100" s="47"/>
+      <c r="W100" s="47"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="29">
@@ -9582,19 +9711,23 @@
       <c r="B101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>82</v>
+      <c r="C101" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="H101" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="J101" s="11"/>
       <c r="K101" s="11">
         <v>1</v>
@@ -9642,13 +9775,13 @@
         <v>80</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -9700,14 +9833,14 @@
       <c r="B103" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>85</v>
+      <c r="C103" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -9759,14 +9892,14 @@
       <c r="B104" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>87</v>
+      <c r="C104" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -9818,14 +9951,14 @@
       <c r="B105" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>53</v>
+      <c r="C105" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="12" t="s">
-        <v>79</v>
+      <c r="E105" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -9870,58 +10003,66 @@
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
     </row>
-    <row r="106" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="25"/>
-      <c r="K106" s="24">
-        <v>1</v>
-      </c>
-      <c r="L106" s="24">
-        <v>1</v>
-      </c>
-      <c r="M106" s="24">
-        <v>1</v>
-      </c>
-      <c r="N106" s="24">
-        <v>1</v>
-      </c>
-      <c r="O106" s="24">
-        <v>0</v>
-      </c>
-      <c r="P106" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="24">
-        <v>0</v>
-      </c>
-      <c r="R106" s="24">
-        <v>0</v>
-      </c>
-      <c r="S106" s="24">
-        <v>0</v>
-      </c>
-      <c r="T106" s="24">
-        <v>0</v>
-      </c>
-      <c r="U106" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11">
+        <v>1</v>
+      </c>
+      <c r="L106" s="11">
+        <v>1</v>
+      </c>
+      <c r="M106" s="11">
+        <v>1</v>
+      </c>
+      <c r="N106" s="11">
+        <v>1</v>
+      </c>
+      <c r="O106" s="11">
+        <v>1</v>
+      </c>
+      <c r="P106" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="9">
+        <v>0</v>
+      </c>
+      <c r="R106" s="9">
+        <v>0</v>
+      </c>
+      <c r="S106" s="9">
+        <v>0</v>
+      </c>
+      <c r="T106" s="9">
+        <v>0</v>
+      </c>
+      <c r="U106" s="11">
+        <v>0</v>
+      </c>
+      <c r="V106" s="11"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
+    </row>
+    <row r="107" spans="1:25" s="24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -9929,13 +10070,13 @@
         <v>95</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F107" s="25"/>
       <c r="K107" s="24">
@@ -9972,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="29">
         <v>105</v>
       </c>
@@ -9980,13 +10121,13 @@
         <v>95</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F108" s="25"/>
       <c r="K108" s="24">
@@ -10023,84 +10164,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
         <v>106</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9">
-        <v>1</v>
-      </c>
-      <c r="L109" s="9">
-        <v>1</v>
-      </c>
-      <c r="M109" s="9">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9">
-        <v>1</v>
-      </c>
-      <c r="O109" s="9">
-        <v>1</v>
-      </c>
-      <c r="P109" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="9">
-        <v>0</v>
-      </c>
-      <c r="R109" s="9">
-        <v>0</v>
-      </c>
-      <c r="S109" s="9">
-        <v>0</v>
-      </c>
-      <c r="T109" s="9">
-        <v>0</v>
-      </c>
-      <c r="U109" s="9">
-        <v>0</v>
-      </c>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
+      <c r="B109" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="25"/>
+      <c r="K109" s="24">
+        <v>1</v>
+      </c>
+      <c r="L109" s="24">
+        <v>1</v>
+      </c>
+      <c r="M109" s="24">
+        <v>1</v>
+      </c>
+      <c r="N109" s="24">
+        <v>1</v>
+      </c>
+      <c r="O109" s="24">
+        <v>0</v>
+      </c>
+      <c r="P109" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="24">
+        <v>0</v>
+      </c>
+      <c r="R109" s="24">
+        <v>0</v>
+      </c>
+      <c r="S109" s="24">
+        <v>0</v>
+      </c>
+      <c r="T109" s="24">
+        <v>0</v>
+      </c>
+      <c r="U109" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
         <v>107</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F110" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -10143,71 +10276,80 @@
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
     </row>
-    <row r="111" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A111" s="29">
         <v>108</v>
       </c>
-      <c r="B111" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="K111" s="37">
-        <v>1</v>
-      </c>
-      <c r="L111" s="37">
-        <v>1</v>
-      </c>
-      <c r="M111" s="37">
-        <v>1</v>
-      </c>
-      <c r="N111" s="37">
-        <v>1</v>
-      </c>
-      <c r="O111" s="37">
-        <v>0</v>
-      </c>
-      <c r="P111" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="37">
-        <v>0</v>
-      </c>
-      <c r="R111" s="37">
-        <v>0</v>
-      </c>
-      <c r="S111" s="37">
-        <v>0</v>
-      </c>
-      <c r="T111" s="37">
-        <v>0</v>
-      </c>
-      <c r="U111" s="37">
-        <v>0</v>
-      </c>
+      <c r="B111" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9">
+        <v>1</v>
+      </c>
+      <c r="L111" s="9">
+        <v>1</v>
+      </c>
+      <c r="M111" s="9">
+        <v>1</v>
+      </c>
+      <c r="N111" s="9">
+        <v>1</v>
+      </c>
+      <c r="O111" s="9">
+        <v>1</v>
+      </c>
+      <c r="P111" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="9">
+        <v>0</v>
+      </c>
+      <c r="R111" s="9">
+        <v>0</v>
+      </c>
+      <c r="S111" s="9">
+        <v>0</v>
+      </c>
+      <c r="T111" s="9">
+        <v>0</v>
+      </c>
+      <c r="U111" s="9">
+        <v>0</v>
+      </c>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
     </row>
     <row r="112" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="29">
         <v>109</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C112" s="36" t="s">
         <v>527</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K112" s="37">
         <v>1</v>
@@ -10243,53 +10385,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="29">
         <v>110</v>
       </c>
-      <c r="B113" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K113" s="31">
-        <v>1</v>
-      </c>
-      <c r="L113" s="31">
-        <v>1</v>
-      </c>
-      <c r="M113" s="31">
-        <v>1</v>
-      </c>
-      <c r="N113" s="31">
-        <v>1</v>
-      </c>
-      <c r="O113" s="31">
-        <v>1</v>
-      </c>
-      <c r="P113" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="31">
-        <v>0</v>
-      </c>
-      <c r="R113" s="31">
-        <v>0</v>
-      </c>
-      <c r="S113" s="31">
-        <v>0</v>
-      </c>
-      <c r="T113" s="31">
-        <v>0</v>
-      </c>
-      <c r="U113" s="31">
+      <c r="B113" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="K113" s="37">
+        <v>1</v>
+      </c>
+      <c r="L113" s="37">
+        <v>1</v>
+      </c>
+      <c r="M113" s="37">
+        <v>1</v>
+      </c>
+      <c r="N113" s="37">
+        <v>1</v>
+      </c>
+      <c r="O113" s="37">
+        <v>0</v>
+      </c>
+      <c r="P113" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="37">
+        <v>0</v>
+      </c>
+      <c r="R113" s="37">
+        <v>0</v>
+      </c>
+      <c r="S113" s="37">
+        <v>0</v>
+      </c>
+      <c r="T113" s="37">
+        <v>0</v>
+      </c>
+      <c r="U113" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10298,19 +10440,16 @@
         <v>111</v>
       </c>
       <c r="B114" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="D114" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F114" s="31" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="K114" s="31">
         <v>1</v>
@@ -10351,19 +10490,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K115" s="31">
         <v>1</v>
@@ -10404,19 +10543,19 @@
         <v>113</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K116" s="31">
         <v>1</v>
@@ -10452,24 +10591,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="29">
         <v>114</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K117" s="31">
         <v>1</v>
@@ -10510,19 +10649,19 @@
         <v>115</v>
       </c>
       <c r="B118" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C118" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>182</v>
-      </c>
       <c r="F118" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K118" s="31">
         <v>1</v>
@@ -10558,24 +10697,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="29">
         <v>116</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K119" s="31">
         <v>1</v>
@@ -10611,127 +10750,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="29">
         <v>117</v>
       </c>
-      <c r="B120" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="K120" s="32">
-        <v>1</v>
-      </c>
-      <c r="L120" s="32">
-        <v>1</v>
-      </c>
-      <c r="M120" s="32">
-        <v>1</v>
-      </c>
-      <c r="N120" s="32">
-        <v>1</v>
-      </c>
-      <c r="O120" s="32">
-        <v>0</v>
-      </c>
-      <c r="P120" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="32">
-        <v>0</v>
-      </c>
-      <c r="R120" s="32">
-        <v>0</v>
-      </c>
-      <c r="S120" s="32">
-        <v>0</v>
-      </c>
-      <c r="T120" s="32">
-        <v>0</v>
-      </c>
-      <c r="U120" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K120" s="31">
+        <v>1</v>
+      </c>
+      <c r="L120" s="31">
+        <v>1</v>
+      </c>
+      <c r="M120" s="31">
+        <v>1</v>
+      </c>
+      <c r="N120" s="31">
+        <v>1</v>
+      </c>
+      <c r="O120" s="31">
+        <v>1</v>
+      </c>
+      <c r="P120" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="31">
+        <v>0</v>
+      </c>
+      <c r="R120" s="31">
+        <v>0</v>
+      </c>
+      <c r="S120" s="31">
+        <v>0</v>
+      </c>
+      <c r="T120" s="31">
+        <v>0</v>
+      </c>
+      <c r="U120" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
         <v>118</v>
       </c>
-      <c r="B121" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="K121" s="34">
-        <v>1</v>
-      </c>
-      <c r="L121" s="34">
-        <v>1</v>
-      </c>
-      <c r="M121" s="34">
-        <v>1</v>
-      </c>
-      <c r="N121" s="34">
-        <v>1</v>
-      </c>
-      <c r="O121" s="34">
-        <v>1</v>
-      </c>
-      <c r="P121" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="34">
-        <v>0</v>
-      </c>
-      <c r="R121" s="34">
-        <v>0</v>
-      </c>
-      <c r="S121" s="34">
-        <v>0</v>
-      </c>
-      <c r="T121" s="34">
-        <v>0</v>
-      </c>
-      <c r="U121" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="K121" s="32">
+        <v>1</v>
+      </c>
+      <c r="L121" s="32">
+        <v>1</v>
+      </c>
+      <c r="M121" s="32">
+        <v>1</v>
+      </c>
+      <c r="N121" s="32">
+        <v>1</v>
+      </c>
+      <c r="O121" s="32">
+        <v>0</v>
+      </c>
+      <c r="P121" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="32">
+        <v>0</v>
+      </c>
+      <c r="R121" s="32">
+        <v>0</v>
+      </c>
+      <c r="S121" s="32">
+        <v>0</v>
+      </c>
+      <c r="T121" s="32">
+        <v>0</v>
+      </c>
+      <c r="U121" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="29">
         <v>119</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="K122" s="34">
         <v>1</v>
@@ -10767,24 +10906,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="29">
         <v>120</v>
       </c>
       <c r="B123" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C123" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="D123" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>229</v>
-      </c>
       <c r="F123" s="35" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="K123" s="34">
         <v>1</v>
@@ -10825,19 +10964,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>496</v>
+        <v>293</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>497</v>
+        <v>228</v>
       </c>
       <c r="K124" s="34">
         <v>1</v>
@@ -10878,19 +11017,19 @@
         <v>122</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>298</v>
+        <v>503</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>298</v>
+        <v>495</v>
       </c>
       <c r="K125" s="34">
         <v>1</v>
@@ -10931,19 +11070,19 @@
         <v>123</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>230</v>
+        <v>491</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K126" s="34">
         <v>1</v>
@@ -10984,19 +11123,19 @@
         <v>124</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="K127" s="34">
         <v>1</v>
@@ -11037,19 +11176,19 @@
         <v>125</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>234</v>
+        <v>492</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="K128" s="34">
         <v>1</v>
@@ -11090,19 +11229,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>495</v>
+        <v>233</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="E129" s="35" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="K129" s="34">
         <v>1</v>
@@ -11143,19 +11282,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="D130" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>231</v>
+      <c r="F130" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="K130" s="34">
         <v>1</v>
@@ -11196,19 +11335,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E131" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>501</v>
+        <v>227</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>230</v>
       </c>
       <c r="K131" s="34">
         <v>1</v>
@@ -11249,19 +11388,19 @@
         <v>129</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>311</v>
+        <v>505</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>311</v>
+        <v>499</v>
       </c>
       <c r="K132" s="34">
         <v>1</v>
@@ -11302,19 +11441,19 @@
         <v>130</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K133" s="34">
         <v>1</v>
@@ -11355,19 +11494,19 @@
         <v>131</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K134" s="34">
         <v>1</v>
@@ -11403,24 +11542,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
         <v>132</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>233</v>
+        <v>99</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>306</v>
       </c>
       <c r="K135" s="34">
         <v>1</v>
@@ -11456,24 +11595,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
         <v>133</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F136" s="35" t="s">
-        <v>301</v>
+        <v>313</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="K136" s="34">
         <v>1</v>
@@ -11514,19 +11653,19 @@
         <v>134</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K137" s="34">
         <v>1</v>
@@ -11567,19 +11706,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="K138" s="34">
         <v>1</v>
@@ -11620,19 +11759,19 @@
         <v>136</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>236</v>
+        <v>196</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="F139" s="35" t="s">
+        <v>311</v>
       </c>
       <c r="K139" s="34">
         <v>1</v>
@@ -11673,19 +11812,19 @@
         <v>137</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F140" s="35" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="K140" s="34">
         <v>1</v>
@@ -11726,13 +11865,13 @@
         <v>138</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E141" s="35" t="s">
         <v>316</v>
@@ -11779,19 +11918,19 @@
         <v>139</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>441</v>
+        <v>312</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="K142" s="34">
         <v>1</v>
@@ -11832,19 +11971,19 @@
         <v>140</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="K143" s="34">
         <v>1</v>
@@ -11880,53 +12019,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="29">
         <v>141</v>
       </c>
-      <c r="B144" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K144" s="37">
-        <v>1</v>
-      </c>
-      <c r="L144" s="37">
-        <v>1</v>
-      </c>
-      <c r="M144" s="37">
-        <v>1</v>
-      </c>
-      <c r="N144" s="37">
-        <v>1</v>
-      </c>
-      <c r="O144" s="37">
-        <v>1</v>
-      </c>
-      <c r="P144" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="37">
-        <v>0</v>
-      </c>
-      <c r="R144" s="37">
-        <v>0</v>
-      </c>
-      <c r="S144" s="37">
-        <v>0</v>
-      </c>
-      <c r="T144" s="37">
-        <v>0</v>
-      </c>
-      <c r="U144" s="37">
+      <c r="B144" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="F144" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="K144" s="34">
+        <v>1</v>
+      </c>
+      <c r="L144" s="34">
+        <v>1</v>
+      </c>
+      <c r="M144" s="34">
+        <v>1</v>
+      </c>
+      <c r="N144" s="34">
+        <v>1</v>
+      </c>
+      <c r="O144" s="34">
+        <v>1</v>
+      </c>
+      <c r="P144" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="34">
+        <v>0</v>
+      </c>
+      <c r="R144" s="34">
+        <v>0</v>
+      </c>
+      <c r="S144" s="34">
+        <v>0</v>
+      </c>
+      <c r="T144" s="34">
+        <v>0</v>
+      </c>
+      <c r="U144" s="34">
         <v>0</v>
       </c>
     </row>
@@ -11935,16 +12077,16 @@
         <v>142</v>
       </c>
       <c r="B145" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="E145" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D145" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="E145" s="36" t="s">
-        <v>253</v>
       </c>
       <c r="K145" s="37">
         <v>1</v>
@@ -11985,16 +12127,16 @@
         <v>143</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K146" s="37">
         <v>1</v>
@@ -12030,53 +12172,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="29">
         <v>144</v>
       </c>
-      <c r="B147" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="K147" s="32">
-        <v>1</v>
-      </c>
-      <c r="L147" s="32">
-        <v>1</v>
-      </c>
-      <c r="M147" s="32">
-        <v>1</v>
-      </c>
-      <c r="N147" s="32">
-        <v>1</v>
-      </c>
-      <c r="O147" s="32">
-        <v>0</v>
-      </c>
-      <c r="P147" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="32">
-        <v>0</v>
-      </c>
-      <c r="R147" s="32">
-        <v>0</v>
-      </c>
-      <c r="S147" s="32">
-        <v>0</v>
-      </c>
-      <c r="T147" s="32">
-        <v>0</v>
-      </c>
-      <c r="U147" s="32">
+      <c r="B147" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K147" s="37">
+        <v>1</v>
+      </c>
+      <c r="L147" s="37">
+        <v>1</v>
+      </c>
+      <c r="M147" s="37">
+        <v>1</v>
+      </c>
+      <c r="N147" s="37">
+        <v>1</v>
+      </c>
+      <c r="O147" s="37">
+        <v>1</v>
+      </c>
+      <c r="P147" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="37">
+        <v>0</v>
+      </c>
+      <c r="R147" s="37">
+        <v>0</v>
+      </c>
+      <c r="S147" s="37">
+        <v>0</v>
+      </c>
+      <c r="T147" s="37">
+        <v>0</v>
+      </c>
+      <c r="U147" s="37">
         <v>0</v>
       </c>
     </row>
@@ -12085,22 +12227,22 @@
         <v>145</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>484</v>
+        <v>194</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
       </c>
       <c r="L148" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="32">
         <v>1</v>
@@ -12135,16 +12277,16 @@
         <v>146</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12185,16 +12327,16 @@
         <v>147</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>482</v>
+        <v>276</v>
       </c>
       <c r="K150" s="32">
         <v>1</v>
@@ -12230,109 +12372,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="29">
         <v>148</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C151" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D151" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="H151" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I151" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K151" s="40">
-        <v>1</v>
-      </c>
-      <c r="L151" s="40">
-        <v>0</v>
-      </c>
-      <c r="M151" s="40">
-        <v>1</v>
-      </c>
-      <c r="N151" s="40">
-        <v>1</v>
-      </c>
-      <c r="O151" s="40">
-        <v>0</v>
-      </c>
-      <c r="P151" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="40">
-        <v>0</v>
-      </c>
-      <c r="R151" s="40">
-        <v>0</v>
-      </c>
-      <c r="S151" s="40">
-        <v>0</v>
-      </c>
-      <c r="T151" s="40">
-        <v>0</v>
-      </c>
-      <c r="U151" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="K151" s="32">
+        <v>1</v>
+      </c>
+      <c r="L151" s="32">
+        <v>0</v>
+      </c>
+      <c r="M151" s="32">
+        <v>1</v>
+      </c>
+      <c r="N151" s="32">
+        <v>1</v>
+      </c>
+      <c r="O151" s="32">
+        <v>0</v>
+      </c>
+      <c r="P151" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="32">
+        <v>0</v>
+      </c>
+      <c r="R151" s="32">
+        <v>0</v>
+      </c>
+      <c r="S151" s="32">
+        <v>0</v>
+      </c>
+      <c r="T151" s="32">
+        <v>0</v>
+      </c>
+      <c r="U151" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="29">
         <v>149</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K152" s="32">
-        <v>1</v>
-      </c>
-      <c r="L152" s="32">
-        <v>0</v>
-      </c>
-      <c r="M152" s="32">
-        <v>1</v>
-      </c>
-      <c r="N152" s="32">
-        <v>1</v>
-      </c>
-      <c r="O152" s="32">
-        <v>0</v>
-      </c>
-      <c r="P152" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="32">
-        <v>0</v>
-      </c>
-      <c r="R152" s="32">
-        <v>0</v>
-      </c>
-      <c r="S152" s="32">
-        <v>0</v>
-      </c>
-      <c r="T152" s="32">
-        <v>0</v>
-      </c>
-      <c r="U152" s="32">
+        <v>261</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D152" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E152" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="I152" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K152" s="40">
+        <v>1</v>
+      </c>
+      <c r="L152" s="40">
+        <v>0</v>
+      </c>
+      <c r="M152" s="40">
+        <v>1</v>
+      </c>
+      <c r="N152" s="40">
+        <v>1</v>
+      </c>
+      <c r="O152" s="40">
+        <v>0</v>
+      </c>
+      <c r="P152" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="40">
+        <v>0</v>
+      </c>
+      <c r="R152" s="40">
+        <v>0</v>
+      </c>
+      <c r="S152" s="40">
+        <v>0</v>
+      </c>
+      <c r="T152" s="40">
+        <v>0</v>
+      </c>
+      <c r="U152" s="40">
         <v>0</v>
       </c>
     </row>
@@ -12341,22 +12483,16 @@
         <v>150</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D153" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E153" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H153" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="K153" s="32">
         <v>1</v>
@@ -12391,24 +12527,28 @@
       <c r="U153" s="32">
         <v>0</v>
       </c>
-      <c r="V153" s="39"/>
-      <c r="W153" s="39"/>
     </row>
     <row r="154" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="29">
         <v>151</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D154" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I154" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="K154" s="32">
         <v>1</v>
@@ -12443,22 +12583,24 @@
       <c r="U154" s="32">
         <v>0</v>
       </c>
+      <c r="V154" s="39"/>
+      <c r="W154" s="39"/>
     </row>
     <row r="155" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
         <v>152</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K155" s="32">
         <v>1</v>
@@ -12499,19 +12641,16 @@
         <v>153</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G156" s="32">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="K156" s="32">
         <v>1</v>
@@ -12552,16 +12691,19 @@
         <v>154</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>450</v>
+        <v>274</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>483</v>
+        <v>275</v>
+      </c>
+      <c r="G157" s="32">
+        <v>1</v>
       </c>
       <c r="K157" s="32">
         <v>1</v>
@@ -12572,7 +12714,7 @@
       <c r="M157" s="32">
         <v>1</v>
       </c>
-      <c r="N157" s="40">
+      <c r="N157" s="32">
         <v>1</v>
       </c>
       <c r="O157" s="32">
@@ -12602,16 +12744,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>553</v>
+        <v>265</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>99</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="K158" s="32">
         <v>1</v>
@@ -12652,16 +12794,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K159" s="32">
         <v>1</v>
@@ -12702,16 +12844,16 @@
         <v>157</v>
       </c>
       <c r="B160" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C160" s="33" t="s">
-        <v>328</v>
-      </c>
       <c r="D160" s="33" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K160" s="32">
         <v>1</v>
@@ -12752,23 +12894,17 @@
         <v>158</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="D161" s="38" t="s">
-        <v>123</v>
+      <c r="D161" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="E161" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="H161" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I161" s="33" t="s">
-        <v>195</v>
-      </c>
       <c r="K161" s="32">
         <v>1</v>
       </c>
@@ -12802,24 +12938,28 @@
       <c r="U161" s="32">
         <v>0</v>
       </c>
-      <c r="V161" s="39"/>
-      <c r="W161" s="39"/>
     </row>
     <row r="162" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
         <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D162" s="33" t="s">
-        <v>99</v>
+        <v>324</v>
+      </c>
+      <c r="D162" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>451</v>
+        <v>325</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I162" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="K162" s="32">
         <v>1</v>
@@ -12854,22 +12994,24 @@
       <c r="U162" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V162" s="39"/>
+      <c r="W162" s="39"/>
+    </row>
+    <row r="163" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="29">
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>566</v>
+        <v>320</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="K163" s="32">
         <v>1</v>
@@ -12905,28 +13047,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
         <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D164" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="E164" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="D164" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I164" s="33" t="s">
-        <v>195</v>
-      </c>
       <c r="K164" s="32">
         <v>1</v>
       </c>
@@ -12960,24 +13096,28 @@
       <c r="U164" s="32">
         <v>0</v>
       </c>
-      <c r="V164" s="39"/>
-      <c r="W164" s="39"/>
     </row>
     <row r="165" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29">
         <v>162</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>99</v>
+        <v>423</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>451</v>
+        <v>426</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I165" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="K165" s="32">
         <v>1</v>
@@ -13012,81 +13152,74 @@
       <c r="U165" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V165" s="39"/>
+      <c r="W165" s="39"/>
+    </row>
+    <row r="166" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
         <v>163</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9">
-        <v>1</v>
-      </c>
-      <c r="L166" s="9">
-        <v>1</v>
-      </c>
-      <c r="M166" s="9">
-        <v>0</v>
-      </c>
-      <c r="N166" s="9">
-        <v>1</v>
-      </c>
-      <c r="O166" s="9">
-        <v>1</v>
-      </c>
-      <c r="P166" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q166" s="9">
-        <v>0</v>
-      </c>
-      <c r="R166" s="9">
-        <v>0</v>
-      </c>
-      <c r="S166" s="9">
-        <v>0</v>
-      </c>
-      <c r="T166" s="9">
-        <v>0</v>
-      </c>
-      <c r="U166" s="9">
-        <v>0</v>
-      </c>
-      <c r="V166" s="9"/>
-      <c r="W166" s="9"/>
-      <c r="X166" s="9"/>
-      <c r="Y166" s="9"/>
+      <c r="B166" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="K166" s="32">
+        <v>1</v>
+      </c>
+      <c r="L166" s="32">
+        <v>0</v>
+      </c>
+      <c r="M166" s="32">
+        <v>1</v>
+      </c>
+      <c r="N166" s="40">
+        <v>1</v>
+      </c>
+      <c r="O166" s="32">
+        <v>0</v>
+      </c>
+      <c r="P166" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="32">
+        <v>0</v>
+      </c>
+      <c r="R166" s="32">
+        <v>0</v>
+      </c>
+      <c r="S166" s="32">
+        <v>0</v>
+      </c>
+      <c r="T166" s="32">
+        <v>0</v>
+      </c>
+      <c r="U166" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A167" s="29">
         <v>164</v>
       </c>
       <c r="B167" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E167" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -13100,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="M167" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167" s="9">
         <v>1</v>
@@ -13136,16 +13269,16 @@
         <v>165</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>586</v>
+        <v>341</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>587</v>
+        <v>343</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -13195,16 +13328,16 @@
         <v>166</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>346</v>
+        <v>582</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>347</v>
+        <v>583</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -13254,16 +13387,16 @@
         <v>167</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>532</v>
+        <v>344</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>533</v>
+        <v>345</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -13313,16 +13446,16 @@
         <v>168</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>319</v>
+        <v>142</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -13372,16 +13505,16 @@
         <v>169</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -13401,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P172" s="9">
         <v>0</v>
@@ -13431,16 +13564,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>349</v>
+        <v>535</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -13460,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="9">
         <v>0</v>
@@ -13490,16 +13623,16 @@
         <v>171</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
@@ -13513,13 +13646,13 @@
         <v>1</v>
       </c>
       <c r="M174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" s="9">
         <v>1</v>
       </c>
       <c r="O174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="9">
         <v>0</v>
@@ -13549,16 +13682,16 @@
         <v>172</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>351</v>
+        <v>537</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
@@ -13572,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="M175" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175" s="9">
         <v>1</v>
@@ -13608,21 +13741,21 @@
         <v>173</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>582</v>
+        <v>346</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>570</v>
+        <v>349</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9">
         <v>1</v>
@@ -13667,16 +13800,16 @@
         <v>174</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>342</v>
+        <v>578</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
@@ -13690,10 +13823,10 @@
         <v>1</v>
       </c>
       <c r="M177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" s="9">
         <v>0</v>
@@ -13726,16 +13859,16 @@
         <v>175</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>608</v>
+        <v>340</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>610</v>
+        <v>172</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -13749,13 +13882,13 @@
         <v>1</v>
       </c>
       <c r="M178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O178" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178" s="9">
         <v>0</v>
@@ -13785,16 +13918,16 @@
         <v>176</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
@@ -13844,25 +13977,21 @@
         <v>177</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>342</v>
+        <v>604</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>187</v>
+        <v>606</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
-      <c r="H180" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9">
         <v>1</v>
@@ -13877,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="O180" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180" s="9">
         <v>0</v>
@@ -13907,39 +14036,41 @@
         <v>178</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>591</v>
+        <v>340</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>592</v>
+        <v>128</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9">
         <v>1</v>
       </c>
       <c r="L181" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="9">
         <v>1</v>
       </c>
       <c r="N181" s="9">
-        <v>0</v>
-      </c>
-      <c r="O181" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O181" s="9">
+        <v>0</v>
+      </c>
       <c r="P181" s="9">
         <v>0</v>
       </c>
@@ -13968,33 +14099,37 @@
         <v>179</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>142</v>
+        <v>590</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
+      <c r="H182" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>588</v>
+      </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9">
         <v>1</v>
       </c>
       <c r="L182" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182" s="9">
         <v>1</v>
       </c>
       <c r="N182" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" s="9">
         <v>0</v>
@@ -14027,31 +14162,27 @@
         <v>180</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
-      <c r="H183" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="I183" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9">
         <v>1</v>
       </c>
       <c r="L183" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" s="9">
         <v>1</v>
@@ -14090,21 +14221,21 @@
         <v>181</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>548</v>
+        <v>337</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9">
         <v>1</v>
@@ -14149,27 +14280,31 @@
         <v>182</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>549</v>
+        <v>129</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
+      <c r="H185" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="J185" s="9"/>
       <c r="K185" s="9">
         <v>1</v>
       </c>
       <c r="L185" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M185" s="9">
         <v>1</v>
@@ -14208,16 +14343,16 @@
         <v>183</v>
       </c>
       <c r="B186" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C186" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="E186" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -14262,923 +14397,965 @@
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
     </row>
-    <row r="187" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A187" s="29">
         <v>184</v>
       </c>
-      <c r="B187" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C187" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="D187" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E187" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="H187" s="52"/>
-      <c r="I187" s="52"/>
-      <c r="K187" s="53">
-        <v>1</v>
-      </c>
-      <c r="L187" s="53">
-        <v>1</v>
-      </c>
-      <c r="M187" s="53">
-        <v>1</v>
-      </c>
-      <c r="N187" s="53">
-        <v>0</v>
-      </c>
-      <c r="O187" s="53">
-        <v>0</v>
-      </c>
-      <c r="P187" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="53">
-        <v>0</v>
-      </c>
-      <c r="R187" s="53">
-        <v>0</v>
-      </c>
-      <c r="S187" s="53">
-        <v>0</v>
-      </c>
-      <c r="T187" s="53">
-        <v>0</v>
-      </c>
-      <c r="U187" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9">
+        <v>1</v>
+      </c>
+      <c r="L187" s="9">
+        <v>1</v>
+      </c>
+      <c r="M187" s="9">
+        <v>1</v>
+      </c>
+      <c r="N187" s="9">
+        <v>1</v>
+      </c>
+      <c r="O187" s="9">
+        <v>0</v>
+      </c>
+      <c r="P187" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="9">
+        <v>0</v>
+      </c>
+      <c r="R187" s="9">
+        <v>0</v>
+      </c>
+      <c r="S187" s="9">
+        <v>0</v>
+      </c>
+      <c r="T187" s="9">
+        <v>0</v>
+      </c>
+      <c r="U187" s="9">
+        <v>0</v>
+      </c>
+      <c r="V187" s="9"/>
+      <c r="W187" s="9"/>
+      <c r="X187" s="9"/>
+      <c r="Y187" s="9"/>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A188" s="29">
         <v>185</v>
       </c>
-      <c r="B188" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="C188" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="D188" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E188" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="H188" s="52"/>
-      <c r="I188" s="52"/>
-      <c r="K188" s="53">
-        <v>1</v>
-      </c>
-      <c r="L188" s="53">
-        <v>1</v>
-      </c>
-      <c r="M188" s="53">
-        <v>1</v>
-      </c>
-      <c r="N188" s="53">
-        <v>0</v>
-      </c>
-      <c r="O188" s="53">
-        <v>0</v>
-      </c>
-      <c r="P188" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="53">
-        <v>0</v>
-      </c>
-      <c r="R188" s="53">
-        <v>0</v>
-      </c>
-      <c r="S188" s="53">
-        <v>0</v>
-      </c>
-      <c r="T188" s="53">
-        <v>0</v>
-      </c>
-      <c r="U188" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9">
+        <v>1</v>
+      </c>
+      <c r="L188" s="9">
+        <v>1</v>
+      </c>
+      <c r="M188" s="9">
+        <v>1</v>
+      </c>
+      <c r="N188" s="9">
+        <v>1</v>
+      </c>
+      <c r="O188" s="9">
+        <v>0</v>
+      </c>
+      <c r="P188" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="9">
+        <v>0</v>
+      </c>
+      <c r="R188" s="9">
+        <v>0</v>
+      </c>
+      <c r="S188" s="9">
+        <v>0</v>
+      </c>
+      <c r="T188" s="9">
+        <v>0</v>
+      </c>
+      <c r="U188" s="9">
+        <v>0</v>
+      </c>
+      <c r="V188" s="9"/>
+      <c r="W188" s="9"/>
+      <c r="X188" s="9"/>
+      <c r="Y188" s="9"/>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A189" s="29">
         <v>186</v>
       </c>
-      <c r="B189" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C189" s="52" t="s">
-        <v>560</v>
-      </c>
-      <c r="D189" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E189" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="H189" s="52"/>
-      <c r="I189" s="52"/>
-      <c r="K189" s="53">
-        <v>1</v>
-      </c>
-      <c r="L189" s="53">
-        <v>1</v>
-      </c>
-      <c r="M189" s="53">
-        <v>0</v>
-      </c>
-      <c r="N189" s="53">
-        <v>0</v>
-      </c>
-      <c r="O189" s="53">
-        <v>0</v>
-      </c>
-      <c r="P189" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q189" s="53">
-        <v>0</v>
-      </c>
-      <c r="R189" s="53">
-        <v>0</v>
-      </c>
-      <c r="S189" s="53">
-        <v>0</v>
-      </c>
-      <c r="T189" s="53">
-        <v>0</v>
-      </c>
-      <c r="U189" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9">
+        <v>1</v>
+      </c>
+      <c r="L189" s="9">
+        <v>1</v>
+      </c>
+      <c r="M189" s="9">
+        <v>1</v>
+      </c>
+      <c r="N189" s="9">
+        <v>1</v>
+      </c>
+      <c r="O189" s="9">
+        <v>0</v>
+      </c>
+      <c r="P189" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="9">
+        <v>0</v>
+      </c>
+      <c r="R189" s="9">
+        <v>0</v>
+      </c>
+      <c r="S189" s="9">
+        <v>0</v>
+      </c>
+      <c r="T189" s="9">
+        <v>0</v>
+      </c>
+      <c r="U189" s="9">
+        <v>0</v>
+      </c>
+      <c r="V189" s="9"/>
+      <c r="W189" s="9"/>
+      <c r="X189" s="9"/>
+      <c r="Y189" s="9"/>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A190" s="29">
         <v>187</v>
       </c>
-      <c r="B190" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="C190" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="D190" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E190" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="H190" s="54"/>
-      <c r="I190" s="54"/>
-      <c r="K190" s="55">
-        <v>1</v>
-      </c>
-      <c r="L190" s="55">
-        <v>1</v>
-      </c>
-      <c r="M190" s="55">
-        <v>1</v>
-      </c>
-      <c r="N190" s="55">
-        <v>0</v>
-      </c>
-      <c r="O190" s="55">
-        <v>0</v>
-      </c>
-      <c r="P190" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q190" s="55">
-        <v>0</v>
-      </c>
-      <c r="R190" s="55">
-        <v>0</v>
-      </c>
-      <c r="S190" s="55">
-        <v>0</v>
-      </c>
-      <c r="T190" s="55">
-        <v>0</v>
-      </c>
-      <c r="U190" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9">
+        <v>1</v>
+      </c>
+      <c r="L190" s="9">
+        <v>1</v>
+      </c>
+      <c r="M190" s="9">
+        <v>1</v>
+      </c>
+      <c r="N190" s="9">
+        <v>1</v>
+      </c>
+      <c r="O190" s="9">
+        <v>0</v>
+      </c>
+      <c r="P190" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="9">
+        <v>0</v>
+      </c>
+      <c r="R190" s="9">
+        <v>0</v>
+      </c>
+      <c r="S190" s="9">
+        <v>0</v>
+      </c>
+      <c r="T190" s="9">
+        <v>0</v>
+      </c>
+      <c r="U190" s="9">
+        <v>0</v>
+      </c>
+      <c r="V190" s="9"/>
+      <c r="W190" s="9"/>
+      <c r="X190" s="9"/>
+      <c r="Y190" s="9"/>
+    </row>
+    <row r="191" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
         <v>188</v>
       </c>
-      <c r="B191" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="C191" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="D191" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E191" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="H191" s="54"/>
-      <c r="I191" s="54"/>
-      <c r="K191" s="55">
-        <v>1</v>
-      </c>
-      <c r="L191" s="55">
-        <v>1</v>
-      </c>
-      <c r="M191" s="55">
-        <v>1</v>
-      </c>
-      <c r="N191" s="55">
-        <v>0</v>
-      </c>
-      <c r="O191" s="55">
-        <v>0</v>
-      </c>
-      <c r="P191" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="55">
-        <v>0</v>
-      </c>
-      <c r="R191" s="55">
-        <v>0</v>
-      </c>
-      <c r="S191" s="55">
-        <v>0</v>
-      </c>
-      <c r="T191" s="55">
-        <v>0</v>
-      </c>
-      <c r="U191" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C191" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="D191" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E191" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="H191" s="52"/>
+      <c r="I191" s="52"/>
+      <c r="K191" s="53">
+        <v>1</v>
+      </c>
+      <c r="L191" s="53">
+        <v>1</v>
+      </c>
+      <c r="M191" s="53">
+        <v>1</v>
+      </c>
+      <c r="N191" s="53">
+        <v>0</v>
+      </c>
+      <c r="O191" s="53">
+        <v>0</v>
+      </c>
+      <c r="P191" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="53">
+        <v>0</v>
+      </c>
+      <c r="R191" s="53">
+        <v>0</v>
+      </c>
+      <c r="S191" s="53">
+        <v>0</v>
+      </c>
+      <c r="T191" s="53">
+        <v>0</v>
+      </c>
+      <c r="U191" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="29">
         <v>189</v>
       </c>
-      <c r="B192" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="C192" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D192" s="56" t="s">
+      <c r="B192" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C192" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="D192" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E192" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H192" s="56"/>
-      <c r="I192" s="56"/>
-      <c r="K192" s="57">
-        <v>1</v>
-      </c>
-      <c r="L192" s="57">
-        <v>0</v>
-      </c>
-      <c r="M192" s="57">
-        <v>1</v>
-      </c>
-      <c r="N192" s="57">
-        <v>0</v>
-      </c>
-      <c r="O192" s="57">
-        <v>0</v>
-      </c>
-      <c r="P192" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q192" s="57">
-        <v>0</v>
-      </c>
-      <c r="R192" s="57">
-        <v>0</v>
-      </c>
-      <c r="S192" s="57">
-        <v>0</v>
-      </c>
-      <c r="T192" s="57">
-        <v>0</v>
-      </c>
-      <c r="U192" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E192" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="H192" s="52"/>
+      <c r="I192" s="52"/>
+      <c r="K192" s="53">
+        <v>1</v>
+      </c>
+      <c r="L192" s="53">
+        <v>1</v>
+      </c>
+      <c r="M192" s="53">
+        <v>1</v>
+      </c>
+      <c r="N192" s="53">
+        <v>0</v>
+      </c>
+      <c r="O192" s="53">
+        <v>0</v>
+      </c>
+      <c r="P192" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="53">
+        <v>0</v>
+      </c>
+      <c r="R192" s="53">
+        <v>0</v>
+      </c>
+      <c r="S192" s="53">
+        <v>0</v>
+      </c>
+      <c r="T192" s="53">
+        <v>0</v>
+      </c>
+      <c r="U192" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="29">
         <v>190</v>
       </c>
-      <c r="B193" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="C193" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D193" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E193" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="H193" s="56"/>
-      <c r="I193" s="56"/>
-      <c r="K193" s="57">
-        <v>1</v>
-      </c>
-      <c r="L193" s="57">
-        <v>0</v>
-      </c>
-      <c r="M193" s="57">
-        <v>1</v>
-      </c>
-      <c r="N193" s="57">
-        <v>0</v>
-      </c>
-      <c r="O193" s="57">
-        <v>0</v>
-      </c>
-      <c r="P193" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q193" s="57">
-        <v>0</v>
-      </c>
-      <c r="R193" s="57">
-        <v>0</v>
-      </c>
-      <c r="S193" s="57">
-        <v>0</v>
-      </c>
-      <c r="T193" s="57">
-        <v>0</v>
-      </c>
-      <c r="U193" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C193" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="D193" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E193" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="H193" s="52"/>
+      <c r="I193" s="52"/>
+      <c r="K193" s="53">
+        <v>1</v>
+      </c>
+      <c r="L193" s="53">
+        <v>1</v>
+      </c>
+      <c r="M193" s="53">
+        <v>0</v>
+      </c>
+      <c r="N193" s="53">
+        <v>0</v>
+      </c>
+      <c r="O193" s="53">
+        <v>0</v>
+      </c>
+      <c r="P193" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="53">
+        <v>0</v>
+      </c>
+      <c r="R193" s="53">
+        <v>0</v>
+      </c>
+      <c r="S193" s="53">
+        <v>0</v>
+      </c>
+      <c r="T193" s="53">
+        <v>0</v>
+      </c>
+      <c r="U193" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="29">
         <v>191</v>
       </c>
-      <c r="B194" s="56" t="s">
-        <v>593</v>
-      </c>
-      <c r="C194" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="D194" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="H194" s="56" t="s">
-        <v>604</v>
-      </c>
-      <c r="I194" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K194" s="57">
-        <v>1</v>
-      </c>
-      <c r="L194" s="57">
-        <v>0</v>
-      </c>
-      <c r="M194" s="57">
-        <v>1</v>
-      </c>
-      <c r="N194" s="57">
-        <v>0</v>
-      </c>
-      <c r="O194" s="57">
-        <v>0</v>
-      </c>
-      <c r="P194" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q194" s="57">
-        <v>0</v>
-      </c>
-      <c r="R194" s="57">
-        <v>0</v>
-      </c>
-      <c r="S194" s="57">
-        <v>0</v>
-      </c>
-      <c r="T194" s="57">
-        <v>0</v>
-      </c>
-      <c r="U194" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C194" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="D194" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E194" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="H194" s="54"/>
+      <c r="I194" s="54"/>
+      <c r="K194" s="55">
+        <v>1</v>
+      </c>
+      <c r="L194" s="55">
+        <v>1</v>
+      </c>
+      <c r="M194" s="55">
+        <v>1</v>
+      </c>
+      <c r="N194" s="55">
+        <v>0</v>
+      </c>
+      <c r="O194" s="55">
+        <v>0</v>
+      </c>
+      <c r="P194" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="55">
+        <v>0</v>
+      </c>
+      <c r="R194" s="55">
+        <v>0</v>
+      </c>
+      <c r="S194" s="55">
+        <v>0</v>
+      </c>
+      <c r="T194" s="55">
+        <v>0</v>
+      </c>
+      <c r="U194" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="29">
         <v>192</v>
       </c>
-      <c r="B195" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C195" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="D195" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="E195" s="44" t="s">
-        <v>580</v>
-      </c>
-      <c r="K195" s="43">
-        <v>1</v>
-      </c>
-      <c r="L195" s="43">
-        <v>1</v>
-      </c>
-      <c r="M195" s="43">
-        <v>1</v>
-      </c>
-      <c r="N195" s="43">
-        <v>1</v>
-      </c>
-      <c r="O195" s="43">
-        <v>1</v>
-      </c>
-      <c r="P195" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="43">
-        <v>0</v>
-      </c>
-      <c r="R195" s="43">
-        <v>0</v>
-      </c>
-      <c r="S195" s="43">
-        <v>0</v>
-      </c>
-      <c r="T195" s="43">
-        <v>0</v>
-      </c>
-      <c r="U195" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C195" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="D195" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E195" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="K195" s="55">
+        <v>1</v>
+      </c>
+      <c r="L195" s="55">
+        <v>1</v>
+      </c>
+      <c r="M195" s="55">
+        <v>1</v>
+      </c>
+      <c r="N195" s="55">
+        <v>0</v>
+      </c>
+      <c r="O195" s="55">
+        <v>0</v>
+      </c>
+      <c r="P195" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="55">
+        <v>0</v>
+      </c>
+      <c r="R195" s="55">
+        <v>0</v>
+      </c>
+      <c r="S195" s="55">
+        <v>0</v>
+      </c>
+      <c r="T195" s="55">
+        <v>0</v>
+      </c>
+      <c r="U195" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="29">
         <v>193</v>
       </c>
-      <c r="B196" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C196" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D196" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="E196" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="K196" s="43">
-        <v>1</v>
-      </c>
-      <c r="L196" s="43">
-        <v>1</v>
-      </c>
-      <c r="M196" s="43">
-        <v>1</v>
-      </c>
-      <c r="N196" s="43">
-        <v>1</v>
-      </c>
-      <c r="O196" s="43">
-        <v>1</v>
-      </c>
-      <c r="P196" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q196" s="43">
-        <v>0</v>
-      </c>
-      <c r="R196" s="43">
-        <v>0</v>
-      </c>
-      <c r="S196" s="43">
-        <v>0</v>
-      </c>
-      <c r="T196" s="43">
-        <v>0</v>
-      </c>
-      <c r="U196" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="C196" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D196" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E196" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H196" s="56"/>
+      <c r="I196" s="56"/>
+      <c r="K196" s="57">
+        <v>1</v>
+      </c>
+      <c r="L196" s="57">
+        <v>0</v>
+      </c>
+      <c r="M196" s="57">
+        <v>1</v>
+      </c>
+      <c r="N196" s="57">
+        <v>0</v>
+      </c>
+      <c r="O196" s="57">
+        <v>0</v>
+      </c>
+      <c r="P196" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="57">
+        <v>0</v>
+      </c>
+      <c r="R196" s="57">
+        <v>0</v>
+      </c>
+      <c r="S196" s="57">
+        <v>0</v>
+      </c>
+      <c r="T196" s="57">
+        <v>0</v>
+      </c>
+      <c r="U196" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="29">
         <v>194</v>
       </c>
-      <c r="B197" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C197" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D197" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="E197" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="K197" s="43">
-        <v>1</v>
-      </c>
-      <c r="L197" s="43">
-        <v>1</v>
-      </c>
-      <c r="M197" s="43">
-        <v>1</v>
-      </c>
-      <c r="N197" s="43">
-        <v>1</v>
-      </c>
-      <c r="O197" s="43">
-        <v>1</v>
-      </c>
-      <c r="P197" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q197" s="43">
-        <v>0</v>
-      </c>
-      <c r="R197" s="43">
-        <v>0</v>
-      </c>
-      <c r="S197" s="43">
-        <v>0</v>
-      </c>
-      <c r="T197" s="43">
-        <v>0</v>
-      </c>
-      <c r="U197" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="C197" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E197" s="56" t="s">
+        <v>575</v>
+      </c>
+      <c r="H197" s="56"/>
+      <c r="I197" s="56"/>
+      <c r="K197" s="57">
+        <v>1</v>
+      </c>
+      <c r="L197" s="57">
+        <v>0</v>
+      </c>
+      <c r="M197" s="57">
+        <v>1</v>
+      </c>
+      <c r="N197" s="57">
+        <v>0</v>
+      </c>
+      <c r="O197" s="57">
+        <v>0</v>
+      </c>
+      <c r="P197" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="57">
+        <v>0</v>
+      </c>
+      <c r="R197" s="57">
+        <v>0</v>
+      </c>
+      <c r="S197" s="57">
+        <v>0</v>
+      </c>
+      <c r="T197" s="57">
+        <v>0</v>
+      </c>
+      <c r="U197" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="29">
         <v>195</v>
       </c>
-      <c r="B198" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C198" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D198" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E198" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="K198" s="49">
-        <v>1</v>
-      </c>
-      <c r="L198" s="49">
-        <v>1</v>
-      </c>
-      <c r="M198" s="49">
-        <v>0</v>
-      </c>
-      <c r="N198" s="49">
-        <v>0</v>
-      </c>
-      <c r="O198" s="49">
-        <v>0</v>
-      </c>
-      <c r="P198" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q198" s="49">
-        <v>0</v>
-      </c>
-      <c r="R198" s="49">
-        <v>0</v>
-      </c>
-      <c r="S198" s="49">
-        <v>0</v>
-      </c>
-      <c r="T198" s="49">
-        <v>0</v>
-      </c>
-      <c r="U198" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="C198" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="H198" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="I198" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" s="57">
+        <v>1</v>
+      </c>
+      <c r="L198" s="57">
+        <v>0</v>
+      </c>
+      <c r="M198" s="57">
+        <v>1</v>
+      </c>
+      <c r="N198" s="57">
+        <v>0</v>
+      </c>
+      <c r="O198" s="57">
+        <v>0</v>
+      </c>
+      <c r="P198" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="57">
+        <v>0</v>
+      </c>
+      <c r="R198" s="57">
+        <v>0</v>
+      </c>
+      <c r="S198" s="57">
+        <v>0</v>
+      </c>
+      <c r="T198" s="57">
+        <v>0</v>
+      </c>
+      <c r="U198" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="29">
         <v>196</v>
       </c>
-      <c r="B199" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C199" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="D199" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E199" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="K199" s="49">
-        <v>1</v>
-      </c>
-      <c r="L199" s="49">
-        <v>1</v>
-      </c>
-      <c r="M199" s="49">
-        <v>0</v>
-      </c>
-      <c r="N199" s="49">
-        <v>0</v>
-      </c>
-      <c r="O199" s="49">
-        <v>0</v>
-      </c>
-      <c r="P199" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q199" s="49">
-        <v>0</v>
-      </c>
-      <c r="R199" s="49">
-        <v>0</v>
-      </c>
-      <c r="S199" s="49">
-        <v>0</v>
-      </c>
-      <c r="T199" s="49">
-        <v>0</v>
-      </c>
-      <c r="U199" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="C199" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D199" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E199" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="H199" s="58"/>
+      <c r="I199" s="58"/>
+      <c r="K199" s="59">
+        <v>1</v>
+      </c>
+      <c r="L199" s="59">
+        <v>1</v>
+      </c>
+      <c r="M199" s="59">
+        <v>1</v>
+      </c>
+      <c r="N199" s="59">
+        <v>1</v>
+      </c>
+      <c r="O199" s="59">
+        <v>0</v>
+      </c>
+      <c r="P199" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="59">
+        <v>0</v>
+      </c>
+      <c r="R199" s="59">
+        <v>0</v>
+      </c>
+      <c r="S199" s="59">
+        <v>1</v>
+      </c>
+      <c r="T199" s="59">
+        <v>0</v>
+      </c>
+      <c r="U199" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="29">
         <v>197</v>
       </c>
-      <c r="B200" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C200" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="D200" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E200" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="K200" s="49">
-        <v>1</v>
-      </c>
-      <c r="L200" s="49">
-        <v>1</v>
-      </c>
-      <c r="M200" s="49">
-        <v>0</v>
-      </c>
-      <c r="N200" s="49">
-        <v>0</v>
-      </c>
-      <c r="O200" s="49">
-        <v>0</v>
-      </c>
-      <c r="P200" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q200" s="49">
-        <v>0</v>
-      </c>
-      <c r="R200" s="49">
-        <v>0</v>
-      </c>
-      <c r="S200" s="49">
-        <v>0</v>
-      </c>
-      <c r="T200" s="49">
-        <v>0</v>
-      </c>
-      <c r="U200" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="C200" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D200" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="E200" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
+      <c r="K200" s="59">
+        <v>1</v>
+      </c>
+      <c r="L200" s="59">
+        <v>1</v>
+      </c>
+      <c r="M200" s="59">
+        <v>1</v>
+      </c>
+      <c r="N200" s="59">
+        <v>1</v>
+      </c>
+      <c r="O200" s="59">
+        <v>0</v>
+      </c>
+      <c r="P200" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="59">
+        <v>0</v>
+      </c>
+      <c r="R200" s="59">
+        <v>0</v>
+      </c>
+      <c r="S200" s="59">
+        <v>1</v>
+      </c>
+      <c r="T200" s="59">
+        <v>0</v>
+      </c>
+      <c r="U200" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="29">
         <v>198</v>
       </c>
-      <c r="B201" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C201" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="D201" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="E201" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="K201" s="49">
-        <v>1</v>
-      </c>
-      <c r="L201" s="49">
-        <v>1</v>
-      </c>
-      <c r="M201" s="49">
-        <v>0</v>
-      </c>
-      <c r="N201" s="49">
-        <v>0</v>
-      </c>
-      <c r="O201" s="49">
-        <v>0</v>
-      </c>
-      <c r="P201" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q201" s="49">
-        <v>0</v>
-      </c>
-      <c r="R201" s="49">
-        <v>0</v>
-      </c>
-      <c r="S201" s="49">
-        <v>0</v>
-      </c>
-      <c r="T201" s="49">
-        <v>0</v>
-      </c>
-      <c r="U201" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="C201" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="D201" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="E201" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="H201" s="58"/>
+      <c r="I201" s="58"/>
+      <c r="K201" s="59">
+        <v>1</v>
+      </c>
+      <c r="L201" s="59">
+        <v>1</v>
+      </c>
+      <c r="M201" s="59">
+        <v>1</v>
+      </c>
+      <c r="N201" s="59">
+        <v>1</v>
+      </c>
+      <c r="O201" s="59">
+        <v>0</v>
+      </c>
+      <c r="P201" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="59">
+        <v>0</v>
+      </c>
+      <c r="R201" s="59">
+        <v>0</v>
+      </c>
+      <c r="S201" s="59">
+        <v>1</v>
+      </c>
+      <c r="T201" s="59">
+        <v>0</v>
+      </c>
+      <c r="U201" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="29">
         <v>199</v>
       </c>
-      <c r="B202" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C202" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="D202" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E202" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="K202" s="49">
-        <v>1</v>
-      </c>
-      <c r="L202" s="49">
-        <v>1</v>
-      </c>
-      <c r="M202" s="49">
-        <v>0</v>
-      </c>
-      <c r="N202" s="49">
-        <v>0</v>
-      </c>
-      <c r="O202" s="49">
-        <v>0</v>
-      </c>
-      <c r="P202" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q202" s="49">
-        <v>0</v>
-      </c>
-      <c r="R202" s="49">
-        <v>0</v>
-      </c>
-      <c r="S202" s="49">
-        <v>0</v>
-      </c>
-      <c r="T202" s="49">
-        <v>0</v>
-      </c>
-      <c r="U202" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D202" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="E202" s="44" t="s">
+        <v>577</v>
+      </c>
+      <c r="K202" s="43">
+        <v>1</v>
+      </c>
+      <c r="L202" s="43">
+        <v>1</v>
+      </c>
+      <c r="M202" s="43">
+        <v>1</v>
+      </c>
+      <c r="N202" s="43">
+        <v>1</v>
+      </c>
+      <c r="O202" s="43">
+        <v>1</v>
+      </c>
+      <c r="P202" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="43">
+        <v>0</v>
+      </c>
+      <c r="R202" s="43">
+        <v>0</v>
+      </c>
+      <c r="S202" s="43">
+        <v>0</v>
+      </c>
+      <c r="T202" s="43">
+        <v>0</v>
+      </c>
+      <c r="U202" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="29">
         <v>200</v>
       </c>
-      <c r="B203" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C203" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="D203" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="E203" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="K203" s="49">
-        <v>1</v>
-      </c>
-      <c r="L203" s="49">
-        <v>1</v>
-      </c>
-      <c r="M203" s="49">
-        <v>0</v>
-      </c>
-      <c r="N203" s="49">
-        <v>0</v>
-      </c>
-      <c r="O203" s="49">
-        <v>0</v>
-      </c>
-      <c r="P203" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="49">
-        <v>0</v>
-      </c>
-      <c r="R203" s="49">
-        <v>0</v>
-      </c>
-      <c r="S203" s="49">
-        <v>0</v>
-      </c>
-      <c r="T203" s="49">
-        <v>0</v>
-      </c>
-      <c r="U203" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C203" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="D203" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E203" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K203" s="43">
+        <v>1</v>
+      </c>
+      <c r="L203" s="43">
+        <v>1</v>
+      </c>
+      <c r="M203" s="43">
+        <v>1</v>
+      </c>
+      <c r="N203" s="43">
+        <v>1</v>
+      </c>
+      <c r="O203" s="43">
+        <v>1</v>
+      </c>
+      <c r="P203" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="43">
+        <v>0</v>
+      </c>
+      <c r="R203" s="43">
+        <v>0</v>
+      </c>
+      <c r="S203" s="43">
+        <v>0</v>
+      </c>
+      <c r="T203" s="43">
+        <v>0</v>
+      </c>
+      <c r="U203" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="29">
         <v>201</v>
       </c>
-      <c r="B204" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C204" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="D204" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E204" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="K204" s="49">
-        <v>1</v>
-      </c>
-      <c r="L204" s="49">
-        <v>1</v>
-      </c>
-      <c r="M204" s="49">
-        <v>0</v>
-      </c>
-      <c r="N204" s="49">
-        <v>0</v>
-      </c>
-      <c r="O204" s="49">
-        <v>0</v>
-      </c>
-      <c r="P204" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="49">
-        <v>0</v>
-      </c>
-      <c r="R204" s="49">
-        <v>0</v>
-      </c>
-      <c r="S204" s="49">
-        <v>0</v>
-      </c>
-      <c r="T204" s="49">
-        <v>0</v>
-      </c>
-      <c r="U204" s="49">
+      <c r="B204" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C204" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D204" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E204" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K204" s="43">
+        <v>1</v>
+      </c>
+      <c r="L204" s="43">
+        <v>1</v>
+      </c>
+      <c r="M204" s="43">
+        <v>1</v>
+      </c>
+      <c r="N204" s="43">
+        <v>1</v>
+      </c>
+      <c r="O204" s="43">
+        <v>1</v>
+      </c>
+      <c r="P204" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="43">
+        <v>0</v>
+      </c>
+      <c r="R204" s="43">
+        <v>0</v>
+      </c>
+      <c r="S204" s="43">
+        <v>0</v>
+      </c>
+      <c r="T204" s="43">
+        <v>0</v>
+      </c>
+      <c r="U204" s="43">
         <v>0</v>
       </c>
     </row>
@@ -15187,16 +15364,16 @@
         <v>202</v>
       </c>
       <c r="B205" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D205" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" s="48" t="s">
         <v>377</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="D205" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E205" s="48" t="s">
-        <v>391</v>
       </c>
       <c r="K205" s="49">
         <v>1</v>
@@ -15237,16 +15414,16 @@
         <v>203</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>382</v>
+        <v>196</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="K206" s="49">
         <v>1</v>
@@ -15287,16 +15464,16 @@
         <v>204</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K207" s="49">
         <v>1</v>
@@ -15337,16 +15514,16 @@
         <v>205</v>
       </c>
       <c r="B208" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C208" s="49" t="s">
-        <v>396</v>
+        <v>375</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K208" s="49">
         <v>1</v>
@@ -15387,16 +15564,16 @@
         <v>206</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D209" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="K209" s="49">
         <v>1</v>
@@ -15437,16 +15614,16 @@
         <v>207</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D210" s="48" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="K210" s="49">
         <v>1</v>
@@ -15487,16 +15664,16 @@
         <v>208</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>471</v>
+        <v>387</v>
       </c>
       <c r="K211" s="49">
         <v>1</v>
@@ -15537,16 +15714,16 @@
         <v>209</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
       <c r="D212" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="K212" s="49">
         <v>1</v>
@@ -15587,16 +15764,16 @@
         <v>210</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C213" s="48" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="E213" s="48" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="K213" s="49">
         <v>1</v>
@@ -15637,16 +15814,16 @@
         <v>211</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>478</v>
+        <v>392</v>
       </c>
       <c r="D214" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E214" s="48" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="K214" s="49">
         <v>1</v>
@@ -15687,16 +15864,16 @@
         <v>212</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C215" s="48" t="s">
-        <v>404</v>
+        <v>375</v>
+      </c>
+      <c r="C215" s="49" t="s">
+        <v>394</v>
       </c>
       <c r="D215" s="48" t="s">
-        <v>382</v>
+        <v>196</v>
       </c>
       <c r="E215" s="48" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K215" s="49">
         <v>1</v>
@@ -15737,16 +15914,16 @@
         <v>213</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K216" s="49">
         <v>1</v>
@@ -15787,16 +15964,16 @@
         <v>214</v>
       </c>
       <c r="B217" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="D217" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="C217" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="D217" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="E217" s="48" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K217" s="49">
         <v>1</v>
@@ -15837,16 +16014,16 @@
         <v>215</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C218" s="48" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="D218" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E218" s="48" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="K218" s="49">
         <v>1</v>
@@ -15887,18 +16064,17 @@
         <v>216</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C219" s="48" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="D219" s="48" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="H219" s="48"/>
+        <v>470</v>
+      </c>
       <c r="K219" s="49">
         <v>1</v>
       </c>
@@ -15933,108 +16109,459 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="29">
         <v>217</v>
       </c>
-      <c r="B220" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="C220" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D220" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="E220" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="K220" s="51">
-        <v>1</v>
-      </c>
-      <c r="L220" s="51">
-        <v>1</v>
-      </c>
-      <c r="M220" s="51">
-        <v>1</v>
-      </c>
-      <c r="N220" s="51">
-        <v>1</v>
-      </c>
-      <c r="O220" s="51">
-        <v>0</v>
-      </c>
-      <c r="P220" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q220" s="51">
-        <v>0</v>
-      </c>
-      <c r="R220" s="51">
-        <v>0</v>
-      </c>
-      <c r="S220" s="51">
-        <v>0</v>
-      </c>
-      <c r="T220" s="51">
-        <v>0</v>
-      </c>
-      <c r="U220" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="D220" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="K220" s="49">
+        <v>1</v>
+      </c>
+      <c r="L220" s="49">
+        <v>1</v>
+      </c>
+      <c r="M220" s="49">
+        <v>0</v>
+      </c>
+      <c r="N220" s="49">
+        <v>0</v>
+      </c>
+      <c r="O220" s="49">
+        <v>0</v>
+      </c>
+      <c r="P220" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="49">
+        <v>0</v>
+      </c>
+      <c r="R220" s="49">
+        <v>0</v>
+      </c>
+      <c r="S220" s="49">
+        <v>0</v>
+      </c>
+      <c r="T220" s="49">
+        <v>0</v>
+      </c>
+      <c r="U220" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="29">
         <v>218</v>
       </c>
-      <c r="B221" s="50" t="s">
+      <c r="B221" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E221" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="K221" s="49">
+        <v>1</v>
+      </c>
+      <c r="L221" s="49">
+        <v>1</v>
+      </c>
+      <c r="M221" s="49">
+        <v>0</v>
+      </c>
+      <c r="N221" s="49">
+        <v>0</v>
+      </c>
+      <c r="O221" s="49">
+        <v>0</v>
+      </c>
+      <c r="P221" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="49">
+        <v>0</v>
+      </c>
+      <c r="R221" s="49">
+        <v>0</v>
+      </c>
+      <c r="S221" s="49">
+        <v>0</v>
+      </c>
+      <c r="T221" s="49">
+        <v>0</v>
+      </c>
+      <c r="U221" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="29">
+        <v>219</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C222" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D222" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="E222" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K222" s="49">
+        <v>1</v>
+      </c>
+      <c r="L222" s="49">
+        <v>1</v>
+      </c>
+      <c r="M222" s="49">
+        <v>0</v>
+      </c>
+      <c r="N222" s="49">
+        <v>0</v>
+      </c>
+      <c r="O222" s="49">
+        <v>0</v>
+      </c>
+      <c r="P222" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="49">
+        <v>0</v>
+      </c>
+      <c r="R222" s="49">
+        <v>0</v>
+      </c>
+      <c r="S222" s="49">
+        <v>0</v>
+      </c>
+      <c r="T222" s="49">
+        <v>0</v>
+      </c>
+      <c r="U222" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="29">
+        <v>220</v>
+      </c>
+      <c r="B223" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E223" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="K223" s="49">
+        <v>1</v>
+      </c>
+      <c r="L223" s="49">
+        <v>1</v>
+      </c>
+      <c r="M223" s="49">
+        <v>0</v>
+      </c>
+      <c r="N223" s="49">
+        <v>0</v>
+      </c>
+      <c r="O223" s="49">
+        <v>0</v>
+      </c>
+      <c r="P223" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="49">
+        <v>0</v>
+      </c>
+      <c r="R223" s="49">
+        <v>0</v>
+      </c>
+      <c r="S223" s="49">
+        <v>0</v>
+      </c>
+      <c r="T223" s="49">
+        <v>0</v>
+      </c>
+      <c r="U223" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="29">
+        <v>221</v>
+      </c>
+      <c r="B224" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C224" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D224" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E224" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K224" s="49">
+        <v>1</v>
+      </c>
+      <c r="L224" s="49">
+        <v>1</v>
+      </c>
+      <c r="M224" s="49">
+        <v>0</v>
+      </c>
+      <c r="N224" s="49">
+        <v>0</v>
+      </c>
+      <c r="O224" s="49">
+        <v>0</v>
+      </c>
+      <c r="P224" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="49">
+        <v>0</v>
+      </c>
+      <c r="R224" s="49">
+        <v>0</v>
+      </c>
+      <c r="S224" s="49">
+        <v>0</v>
+      </c>
+      <c r="T224" s="49">
+        <v>0</v>
+      </c>
+      <c r="U224" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="29">
+        <v>222</v>
+      </c>
+      <c r="B225" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C225" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D225" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E225" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="K225" s="49">
+        <v>1</v>
+      </c>
+      <c r="L225" s="49">
+        <v>1</v>
+      </c>
+      <c r="M225" s="49">
+        <v>0</v>
+      </c>
+      <c r="N225" s="49">
+        <v>0</v>
+      </c>
+      <c r="O225" s="49">
+        <v>0</v>
+      </c>
+      <c r="P225" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="49">
+        <v>0</v>
+      </c>
+      <c r="R225" s="49">
+        <v>0</v>
+      </c>
+      <c r="S225" s="49">
+        <v>0</v>
+      </c>
+      <c r="T225" s="49">
+        <v>0</v>
+      </c>
+      <c r="U225" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="29">
+        <v>223</v>
+      </c>
+      <c r="B226" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C226" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E226" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="H226" s="48"/>
+      <c r="K226" s="49">
+        <v>1</v>
+      </c>
+      <c r="L226" s="49">
+        <v>1</v>
+      </c>
+      <c r="M226" s="49">
+        <v>0</v>
+      </c>
+      <c r="N226" s="49">
+        <v>0</v>
+      </c>
+      <c r="O226" s="49">
+        <v>0</v>
+      </c>
+      <c r="P226" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="49">
+        <v>0</v>
+      </c>
+      <c r="R226" s="49">
+        <v>0</v>
+      </c>
+      <c r="S226" s="49">
+        <v>0</v>
+      </c>
+      <c r="T226" s="49">
+        <v>0</v>
+      </c>
+      <c r="U226" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="29">
+        <v>224</v>
+      </c>
+      <c r="B227" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="C227" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="D227" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="C221" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="D221" s="50" t="s">
+      <c r="E227" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="K227" s="51">
+        <v>1</v>
+      </c>
+      <c r="L227" s="51">
+        <v>1</v>
+      </c>
+      <c r="M227" s="51">
+        <v>1</v>
+      </c>
+      <c r="N227" s="51">
+        <v>1</v>
+      </c>
+      <c r="O227" s="51">
+        <v>0</v>
+      </c>
+      <c r="P227" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="51">
+        <v>0</v>
+      </c>
+      <c r="R227" s="51">
+        <v>0</v>
+      </c>
+      <c r="S227" s="51">
+        <v>0</v>
+      </c>
+      <c r="T227" s="51">
+        <v>0</v>
+      </c>
+      <c r="U227" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="29">
+        <v>225</v>
+      </c>
+      <c r="B228" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="E221" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="K221" s="51">
-        <v>1</v>
-      </c>
-      <c r="L221" s="51">
-        <v>1</v>
-      </c>
-      <c r="M221" s="51">
-        <v>1</v>
-      </c>
-      <c r="N221" s="51">
-        <v>1</v>
-      </c>
-      <c r="O221" s="51">
-        <v>0</v>
-      </c>
-      <c r="P221" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q221" s="51">
-        <v>0</v>
-      </c>
-      <c r="R221" s="51">
-        <v>0</v>
-      </c>
-      <c r="S221" s="51">
-        <v>0</v>
-      </c>
-      <c r="T221" s="51">
-        <v>0</v>
-      </c>
-      <c r="U221" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A222" s="29"/>
+      <c r="D228" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="E228" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="K228" s="51">
+        <v>1</v>
+      </c>
+      <c r="L228" s="51">
+        <v>1</v>
+      </c>
+      <c r="M228" s="51">
+        <v>1</v>
+      </c>
+      <c r="N228" s="51">
+        <v>1</v>
+      </c>
+      <c r="O228" s="51">
+        <v>0</v>
+      </c>
+      <c r="P228" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="51">
+        <v>0</v>
+      </c>
+      <c r="R228" s="51">
+        <v>0</v>
+      </c>
+      <c r="S228" s="51">
+        <v>0</v>
+      </c>
+      <c r="T228" s="51">
+        <v>0</v>
+      </c>
+      <c r="U228" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A229" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="648">
   <si>
     <t>Class</t>
   </si>
@@ -3554,6 +3554,22 @@
   </si>
   <si>
     <t>玩家账号(服务器使用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4400,10 +4416,10 @@
   <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59:XFD59"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8789,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="56">
         <v>0</v>
@@ -8845,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="56">
         <v>0</v>
@@ -8901,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="T85" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="56">
         <v>0</v>
@@ -8957,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="56">
         <v>0</v>
@@ -11122,7 +11138,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>286</v>
+        <v>647</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>481</v>
@@ -11164,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="T126" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U126" s="32">
         <v>0</v>
@@ -11270,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="T128" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U128" s="32">
         <v>0</v>
@@ -11323,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="T129" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129" s="32">
         <v>0</v>
@@ -11376,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="T130" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U130" s="32">
         <v>0</v>
@@ -11694,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" s="32">
         <v>0</v>
@@ -12330,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="T148" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U148" s="32">
         <v>0</v>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -1430,10 +1430,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>grading</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -3570,6 +3566,10 @@
       </rPr>
       <t>Data</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4416,10 +4416,10 @@
   <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A129" sqref="A129:XFD129"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4489,28 +4489,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4554,13 +4554,13 @@
         <v>153</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>154</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>155</v>
@@ -4569,25 +4569,25 @@
         <v>156</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>157</v>
@@ -4617,7 +4617,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>116</v>
@@ -4841,17 +4841,17 @@
         <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -5252,7 +5252,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -5449,13 +5449,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -5505,7 +5505,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -5646,16 +5646,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -5696,16 +5696,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5746,16 +5746,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>19</v>
@@ -5899,7 +5899,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>22</v>
@@ -5949,7 +5949,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>36</v>
@@ -6049,7 +6049,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>271</v>
+        <v>647</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>22</v>
@@ -6201,7 +6201,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>22</v>
@@ -6303,13 +6303,13 @@
         <v>110</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="17"/>
       <c r="K37" s="18">
@@ -6354,13 +6354,13 @@
         <v>110</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F38" s="17"/>
       <c r="K38" s="18">
@@ -6405,13 +6405,13 @@
         <v>110</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K39" s="18">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>119</v>
@@ -6518,7 +6518,7 @@
         <v>121</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>52</v>
@@ -6766,7 +6766,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>134</v>
@@ -6832,7 +6832,7 @@
         <v>121</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K47" s="5">
         <v>1</v>
@@ -7078,7 +7078,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D52" s="56" t="s">
         <v>122</v>
@@ -7090,7 +7090,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K52" s="56">
         <v>1</v>
@@ -7134,13 +7134,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="D53" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="E53" s="56" t="s">
         <v>645</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>646</v>
       </c>
       <c r="K53" s="56">
         <v>1</v>
@@ -7184,13 +7184,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K54" s="56">
         <v>1</v>
@@ -7234,13 +7234,13 @@
         <v>18</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K55" s="56">
         <v>1</v>
@@ -7390,16 +7390,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D58" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K58" s="56">
         <v>1</v>
@@ -7443,13 +7443,13 @@
         <v>164</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K59" s="56">
         <v>1</v>
@@ -7493,13 +7493,13 @@
         <v>164</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D60" s="56" t="s">
         <v>95</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K60" s="56">
         <v>1</v>
@@ -7543,13 +7543,13 @@
         <v>164</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D61" s="56" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K61" s="56">
         <v>1</v>
@@ -7643,7 +7643,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D63" s="56" t="s">
         <v>25</v>
@@ -7705,10 +7705,10 @@
         <v>26</v>
       </c>
       <c r="I64" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J64" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K64" s="56">
         <v>1</v>
@@ -7764,10 +7764,10 @@
         <v>49</v>
       </c>
       <c r="I65" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J65" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K65" s="56">
         <v>1</v>
@@ -7870,13 +7870,13 @@
         <v>74</v>
       </c>
       <c r="H67" s="56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I67" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J67" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K67" s="56">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D68" s="56" t="s">
         <v>89</v>
@@ -7932,10 +7932,10 @@
         <v>90</v>
       </c>
       <c r="I68" s="56" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J68" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K68" s="56">
         <v>1</v>
@@ -7979,7 +7979,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D69" s="56" t="s">
         <v>22</v>
@@ -8094,10 +8094,10 @@
         <v>146</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J71" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K71" s="56">
         <v>1</v>
@@ -8209,7 +8209,7 @@
         <v>184</v>
       </c>
       <c r="J73" s="56" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K73" s="56">
         <v>1</v>
@@ -8271,7 +8271,7 @@
         <v>142</v>
       </c>
       <c r="J74" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K74" s="56">
         <v>1</v>
@@ -8480,7 +8480,7 @@
         <v>214</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D78" s="56" t="s">
         <v>201</v>
@@ -8598,10 +8598,10 @@
         <v>119</v>
       </c>
       <c r="E80" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="H80" s="56" t="s">
         <v>469</v>
-      </c>
-      <c r="H80" s="56" t="s">
-        <v>470</v>
       </c>
       <c r="K80" s="56">
         <v>1</v>
@@ -8645,7 +8645,7 @@
         <v>164</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D81" s="56" t="s">
         <v>181</v>
@@ -8654,7 +8654,7 @@
         <v>261</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I81" s="56" t="s">
         <v>124</v>
@@ -8704,7 +8704,7 @@
         <v>164</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D82" s="56" t="s">
         <v>181</v>
@@ -8713,7 +8713,7 @@
         <v>260</v>
       </c>
       <c r="H82" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I82" s="56" t="s">
         <v>124</v>
@@ -8763,10 +8763,10 @@
         <v>164</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E83" s="56" t="s">
         <v>215</v>
@@ -8775,7 +8775,7 @@
         <v>215</v>
       </c>
       <c r="H83" s="56" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K83" s="56">
         <v>1</v>
@@ -8819,7 +8819,7 @@
         <v>164</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D84" s="56" t="s">
         <v>119</v>
@@ -8831,7 +8831,7 @@
         <v>216</v>
       </c>
       <c r="H84" s="56" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K84" s="56">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D85" s="56" t="s">
         <v>119</v>
@@ -8887,7 +8887,7 @@
         <v>217</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K85" s="56">
         <v>1</v>
@@ -8931,7 +8931,7 @@
         <v>164</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D86" s="56" t="s">
         <v>119</v>
@@ -8943,7 +8943,7 @@
         <v>218</v>
       </c>
       <c r="H86" s="56" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K86" s="56">
         <v>1</v>
@@ -8987,22 +8987,22 @@
         <v>190</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D87" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E87" s="56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H87" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="I87" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="I87" s="56" t="s">
-        <v>350</v>
-      </c>
       <c r="J87" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K87" s="56">
         <v>1</v>
@@ -9046,22 +9046,22 @@
         <v>164</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D88" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="E88" s="56" t="s">
         <v>359</v>
-      </c>
-      <c r="E88" s="56" t="s">
-        <v>360</v>
       </c>
       <c r="H88" s="56" t="s">
         <v>77</v>
       </c>
       <c r="I88" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J88" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K88" s="56">
         <v>1</v>
@@ -9102,19 +9102,19 @@
         <v>85</v>
       </c>
       <c r="B89" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" s="56" t="s">
         <v>406</v>
-      </c>
-      <c r="C89" s="56" t="s">
-        <v>407</v>
       </c>
       <c r="D89" s="56" t="s">
         <v>119</v>
       </c>
       <c r="E89" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="H89" s="56" t="s">
         <v>408</v>
-      </c>
-      <c r="H89" s="56" t="s">
-        <v>409</v>
       </c>
       <c r="K89" s="56">
         <v>1</v>
@@ -9158,13 +9158,13 @@
         <v>18</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D90" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K90" s="56">
         <v>1</v>
@@ -9208,22 +9208,22 @@
         <v>18</v>
       </c>
       <c r="C91" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="D91" s="56" t="s">
+      <c r="E91" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="H91" s="56" t="s">
         <v>502</v>
       </c>
-      <c r="H91" s="56" t="s">
+      <c r="I91" s="56" t="s">
         <v>503</v>
       </c>
-      <c r="I91" s="56" t="s">
+      <c r="J91" s="56" t="s">
         <v>504</v>
-      </c>
-      <c r="J91" s="56" t="s">
-        <v>505</v>
       </c>
       <c r="K91" s="56">
         <v>1</v>
@@ -9267,16 +9267,16 @@
         <v>164</v>
       </c>
       <c r="C92" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="E92" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="D92" s="56" t="s">
-        <v>587</v>
-      </c>
-      <c r="E92" s="56" t="s">
-        <v>521</v>
-      </c>
       <c r="H92" s="56" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K92" s="56">
         <v>1</v>
@@ -9320,16 +9320,16 @@
         <v>164</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D93" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H93" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I93" s="56" t="s">
         <v>124</v>
@@ -9379,16 +9379,16 @@
         <v>164</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D94" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H94" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>124</v>
@@ -9438,16 +9438,16 @@
         <v>164</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D95" s="56" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="H95" s="56" t="s">
         <v>588</v>
-      </c>
-      <c r="H95" s="56" t="s">
-        <v>589</v>
       </c>
       <c r="I95" s="56" t="s">
         <v>124</v>
@@ -9497,16 +9497,16 @@
         <v>164</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D96" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H96" s="56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>124</v>
@@ -9553,7 +9553,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C97" s="41" t="s">
         <v>187</v>
@@ -9607,16 +9607,16 @@
         <v>94</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D98" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="E98" s="41" t="s">
         <v>419</v>
-      </c>
-      <c r="E98" s="41" t="s">
-        <v>420</v>
       </c>
       <c r="H98" s="41" t="s">
         <v>117</v>
@@ -9665,16 +9665,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="E99" s="41" t="s">
         <v>363</v>
-      </c>
-      <c r="D99" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>364</v>
       </c>
       <c r="H99" s="41"/>
       <c r="I99" s="41"/>
@@ -9719,16 +9719,16 @@
         <v>96</v>
       </c>
       <c r="B100" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C100" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>424</v>
       </c>
       <c r="D100" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="41"/>
@@ -9773,16 +9773,16 @@
         <v>97</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C101" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D101" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="E101" s="41" t="s">
         <v>435</v>
-      </c>
-      <c r="E101" s="41" t="s">
-        <v>436</v>
       </c>
       <c r="H101" s="41"/>
       <c r="I101" s="41"/>
@@ -9827,16 +9827,16 @@
         <v>98</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D102" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H102" s="41"/>
       <c r="I102" s="41"/>
@@ -9881,16 +9881,16 @@
         <v>99</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D103" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="41"/>
@@ -9935,16 +9935,16 @@
         <v>100</v>
       </c>
       <c r="B104" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
@@ -10006,7 +10006,7 @@
         <v>123</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10">
@@ -10620,16 +10620,16 @@
         <v>112</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D116" s="34" t="s">
         <v>189</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K116" s="35">
         <v>1</v>
@@ -10670,16 +10670,16 @@
         <v>113</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K117" s="35">
         <v>1</v>
@@ -11138,10 +11138,10 @@
         <v>122</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D126" s="33" t="s">
         <v>189</v>
@@ -11191,19 +11191,19 @@
         <v>123</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>220</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K127" s="32">
         <v>1</v>
@@ -11244,10 +11244,10 @@
         <v>124</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>189</v>
@@ -11297,19 +11297,19 @@
         <v>125</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K129" s="32">
         <v>1</v>
@@ -11350,19 +11350,19 @@
         <v>126</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K130" s="32">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>222</v>
@@ -11412,10 +11412,10 @@
         <v>189</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K131" s="32">
         <v>1</v>
@@ -11456,19 +11456,19 @@
         <v>128</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K132" s="32">
         <v>1</v>
@@ -11509,7 +11509,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>226</v>
@@ -11562,19 +11562,19 @@
         <v>130</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K134" s="32">
         <v>1</v>
@@ -11615,16 +11615,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>220</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F135" s="32" t="s">
         <v>223</v>
@@ -11668,19 +11668,19 @@
         <v>132</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K136" s="32">
         <v>1</v>
@@ -11721,19 +11721,19 @@
         <v>133</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K137" s="32">
         <v>1</v>
@@ -11774,19 +11774,19 @@
         <v>134</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C138" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E138" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D138" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>297</v>
-      </c>
       <c r="F138" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K138" s="32">
         <v>1</v>
@@ -11827,19 +11827,19 @@
         <v>135</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K139" s="32">
         <v>1</v>
@@ -11880,13 +11880,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>224</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E140" s="32" t="s">
         <v>225</v>
@@ -11933,19 +11933,19 @@
         <v>137</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11986,19 +11986,19 @@
         <v>138</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K142" s="32">
         <v>1</v>
@@ -12039,19 +12039,19 @@
         <v>139</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K143" s="32">
         <v>1</v>
@@ -12092,10 +12092,10 @@
         <v>140</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>189</v>
@@ -12145,7 +12145,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>233</v>
@@ -12154,10 +12154,10 @@
         <v>95</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F145" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -12198,19 +12198,19 @@
         <v>142</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F146" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -12251,19 +12251,19 @@
         <v>143</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -12304,19 +12304,19 @@
         <v>144</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -12360,7 +12360,7 @@
         <v>236</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>237</v>
@@ -12560,13 +12560,13 @@
         <v>254</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D153" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K153" s="30">
         <v>1</v>
@@ -12610,7 +12610,7 @@
         <v>254</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D154" s="31" t="s">
         <v>189</v>
@@ -12660,13 +12660,13 @@
         <v>254</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D155" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K155" s="30">
         <v>1</v>
@@ -12716,7 +12716,7 @@
         <v>181</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H156" s="31" t="s">
         <v>258</v>
@@ -12828,7 +12828,7 @@
         <v>117</v>
       </c>
       <c r="I158" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K158" s="30">
         <v>1</v>
@@ -13027,13 +13027,13 @@
         <v>258</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D162" s="31" t="s">
         <v>95</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K162" s="30">
         <v>1</v>
@@ -13074,7 +13074,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C163" s="31" t="s">
         <v>187</v>
@@ -13083,7 +13083,7 @@
         <v>95</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K163" s="30">
         <v>1</v>
@@ -13124,16 +13124,16 @@
         <v>160</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D164" s="31" t="s">
         <v>138</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K164" s="30">
         <v>1</v>
@@ -13174,16 +13174,16 @@
         <v>161</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D165" s="31" t="s">
         <v>167</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K165" s="30">
         <v>1</v>
@@ -13224,16 +13224,16 @@
         <v>162</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D166" s="36" t="s">
         <v>119</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H166" s="36" t="s">
         <v>117</v>
@@ -13282,16 +13282,16 @@
         <v>163</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D167" s="31" t="s">
         <v>95</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K167" s="30">
         <v>1</v>
@@ -13332,16 +13332,16 @@
         <v>164</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C168" s="31" t="s">
         <v>187</v>
       </c>
       <c r="D168" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>416</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>417</v>
       </c>
       <c r="K168" s="30">
         <v>1</v>
@@ -13382,16 +13382,16 @@
         <v>165</v>
       </c>
       <c r="B169" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C169" s="31" t="s">
         <v>414</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>415</v>
       </c>
       <c r="D169" s="36" t="s">
         <v>119</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H169" s="36" t="s">
         <v>117</v>
@@ -13440,7 +13440,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C170" s="31" t="s">
         <v>98</v>
@@ -13449,7 +13449,7 @@
         <v>95</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K170" s="30">
         <v>1</v>
@@ -13490,16 +13490,16 @@
         <v>167</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D171" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
@@ -13549,16 +13549,16 @@
         <v>168</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="E172" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
@@ -13608,16 +13608,16 @@
         <v>169</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
@@ -13667,16 +13667,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C174" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
@@ -13726,16 +13726,16 @@
         <v>171</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
@@ -13785,16 +13785,16 @@
         <v>172</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
@@ -13844,16 +13844,16 @@
         <v>173</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
@@ -13903,16 +13903,16 @@
         <v>174</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -13962,16 +13962,16 @@
         <v>175</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -14021,16 +14021,16 @@
         <v>176</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D180" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -14080,16 +14080,16 @@
         <v>177</v>
       </c>
       <c r="B181" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -14139,16 +14139,16 @@
         <v>178</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
@@ -14198,16 +14198,16 @@
         <v>179</v>
       </c>
       <c r="B183" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C183" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="D183" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="E183" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>599</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
@@ -14257,16 +14257,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
@@ -14316,21 +14316,21 @@
         <v>181</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>124</v>
@@ -14379,24 +14379,24 @@
         <v>182</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J186" s="8"/>
       <c r="K186" s="8">
@@ -14442,10 +14442,10 @@
         <v>183</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>138</v>
@@ -14501,16 +14501,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C188" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D188" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="D188" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E188" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
@@ -14560,10 +14560,10 @@
         <v>185</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>119</v>
@@ -14574,7 +14574,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I189" s="9" t="s">
         <v>187</v>
@@ -14623,16 +14623,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C190" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="E190" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
@@ -14682,16 +14682,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
@@ -14741,16 +14741,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
@@ -14800,16 +14800,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
@@ -14859,16 +14859,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C194" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="E194" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>624</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
@@ -14918,16 +14918,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D195" s="48" t="s">
         <v>138</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H195" s="48"/>
       <c r="I195" s="48"/>
@@ -14970,16 +14970,16 @@
         <v>192</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D196" s="48" t="s">
         <v>95</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H196" s="48"/>
       <c r="I196" s="48"/>
@@ -15022,16 +15022,16 @@
         <v>193</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D197" s="48" t="s">
         <v>138</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
@@ -15074,16 +15074,16 @@
         <v>194</v>
       </c>
       <c r="B198" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="C198" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="C198" s="50" t="s">
-        <v>551</v>
-      </c>
       <c r="D198" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H198" s="50"/>
       <c r="I198" s="50"/>
@@ -15126,16 +15126,16 @@
         <v>195</v>
       </c>
       <c r="B199" s="50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C199" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E199" s="50" t="s">
         <v>547</v>
-      </c>
-      <c r="D199" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="E199" s="50" t="s">
-        <v>548</v>
       </c>
       <c r="H199" s="50"/>
       <c r="I199" s="50"/>
@@ -15178,7 +15178,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="52" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C200" s="52" t="s">
         <v>124</v>
@@ -15230,7 +15230,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C201" s="52" t="s">
         <v>98</v>
@@ -15239,7 +15239,7 @@
         <v>95</v>
       </c>
       <c r="E201" s="52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H201" s="52"/>
       <c r="I201" s="52"/>
@@ -15282,19 +15282,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C202" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D202" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E202" s="52" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H202" s="52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I202" s="52" t="s">
         <v>19</v>
@@ -15338,16 +15338,16 @@
         <v>199</v>
       </c>
       <c r="B203" s="54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C203" s="54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D203" s="54" t="s">
         <v>138</v>
       </c>
       <c r="E203" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H203" s="54"/>
       <c r="I203" s="54"/>
@@ -15390,16 +15390,16 @@
         <v>200</v>
       </c>
       <c r="B204" s="54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C204" s="54" t="s">
         <v>242</v>
       </c>
       <c r="D204" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E204" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H204" s="54"/>
       <c r="I204" s="54"/>
@@ -15442,16 +15442,16 @@
         <v>201</v>
       </c>
       <c r="B205" s="54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C205" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D205" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="E205" s="54" t="s">
         <v>617</v>
-      </c>
-      <c r="E205" s="54" t="s">
-        <v>618</v>
       </c>
       <c r="H205" s="54"/>
       <c r="I205" s="54"/>
@@ -15494,16 +15494,16 @@
         <v>202</v>
       </c>
       <c r="B206" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D206" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D206" s="40" t="s">
-        <v>351</v>
-      </c>
       <c r="E206" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K206" s="39">
         <v>1</v>
@@ -15544,16 +15544,16 @@
         <v>203</v>
       </c>
       <c r="B207" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D207" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="E207" s="40" t="s">
         <v>353</v>
-      </c>
-      <c r="E207" s="40" t="s">
-        <v>354</v>
       </c>
       <c r="K207" s="39">
         <v>1</v>
@@ -15594,16 +15594,16 @@
         <v>204</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C208" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D208" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E208" s="40" t="s">
         <v>355</v>
-      </c>
-      <c r="E208" s="40" t="s">
-        <v>356</v>
       </c>
       <c r="K208" s="39">
         <v>1</v>
@@ -15644,16 +15644,16 @@
         <v>205</v>
       </c>
       <c r="B209" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C209" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="C209" s="44" t="s">
-        <v>368</v>
       </c>
       <c r="D209" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E209" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K209" s="45">
         <v>1</v>
@@ -15694,16 +15694,16 @@
         <v>206</v>
       </c>
       <c r="B210" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C210" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D210" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E210" s="44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K210" s="45">
         <v>1</v>
@@ -15744,16 +15744,16 @@
         <v>207</v>
       </c>
       <c r="B211" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C211" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D211" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E211" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K211" s="45">
         <v>1</v>
@@ -15794,16 +15794,16 @@
         <v>208</v>
       </c>
       <c r="B212" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C212" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D212" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="D212" s="44" t="s">
+      <c r="E212" s="44" t="s">
         <v>372</v>
-      </c>
-      <c r="E212" s="44" t="s">
-        <v>373</v>
       </c>
       <c r="K212" s="45">
         <v>1</v>
@@ -15844,16 +15844,16 @@
         <v>209</v>
       </c>
       <c r="B213" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C213" s="44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D213" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E213" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K213" s="45">
         <v>1</v>
@@ -15894,16 +15894,16 @@
         <v>210</v>
       </c>
       <c r="B214" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C214" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D214" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E214" s="44" t="s">
         <v>376</v>
-      </c>
-      <c r="D214" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="E214" s="44" t="s">
-        <v>377</v>
       </c>
       <c r="K214" s="45">
         <v>1</v>
@@ -15944,16 +15944,16 @@
         <v>211</v>
       </c>
       <c r="B215" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C215" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D215" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E215" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K215" s="45">
         <v>1</v>
@@ -15994,16 +15994,16 @@
         <v>212</v>
       </c>
       <c r="B216" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C216" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D216" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E216" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K216" s="45">
         <v>1</v>
@@ -16044,16 +16044,16 @@
         <v>213</v>
       </c>
       <c r="B217" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C217" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="D217" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E217" s="44" t="s">
         <v>382</v>
-      </c>
-      <c r="D217" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="E217" s="44" t="s">
-        <v>383</v>
       </c>
       <c r="K217" s="45">
         <v>1</v>
@@ -16094,16 +16094,16 @@
         <v>214</v>
       </c>
       <c r="B218" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C218" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D218" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E218" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K218" s="45">
         <v>1</v>
@@ -16144,16 +16144,16 @@
         <v>215</v>
       </c>
       <c r="B219" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C219" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D219" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E219" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K219" s="45">
         <v>1</v>
@@ -16194,16 +16194,16 @@
         <v>216</v>
       </c>
       <c r="B220" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C220" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E220" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K220" s="45">
         <v>1</v>
@@ -16244,16 +16244,16 @@
         <v>217</v>
       </c>
       <c r="B221" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C221" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="C221" s="44" t="s">
+      <c r="D221" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="D221" s="44" t="s">
+      <c r="E221" s="44" t="s">
         <v>392</v>
-      </c>
-      <c r="E221" s="44" t="s">
-        <v>393</v>
       </c>
       <c r="K221" s="45">
         <v>1</v>
@@ -16294,16 +16294,16 @@
         <v>218</v>
       </c>
       <c r="B222" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C222" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D222" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E222" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K222" s="45">
         <v>1</v>
@@ -16344,16 +16344,16 @@
         <v>219</v>
       </c>
       <c r="B223" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C223" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D223" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E223" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K223" s="45">
         <v>1</v>
@@ -16394,16 +16394,16 @@
         <v>220</v>
       </c>
       <c r="B224" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C224" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D224" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E224" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K224" s="45">
         <v>1</v>
@@ -16444,16 +16444,16 @@
         <v>221</v>
       </c>
       <c r="B225" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C225" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D225" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E225" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K225" s="45">
         <v>1</v>
@@ -16494,16 +16494,16 @@
         <v>222</v>
       </c>
       <c r="B226" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C226" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="D226" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E226" s="44" t="s">
         <v>394</v>
-      </c>
-      <c r="D226" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="E226" s="44" t="s">
-        <v>395</v>
       </c>
       <c r="K226" s="45">
         <v>1</v>
@@ -16544,16 +16544,16 @@
         <v>223</v>
       </c>
       <c r="B227" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C227" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D227" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E227" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K227" s="45">
         <v>1</v>
@@ -16594,16 +16594,16 @@
         <v>224</v>
       </c>
       <c r="B228" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C228" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D228" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E228" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K228" s="45">
         <v>1</v>
@@ -16644,16 +16644,16 @@
         <v>225</v>
       </c>
       <c r="B229" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D229" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E229" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K229" s="45">
         <v>1</v>
@@ -16694,16 +16694,16 @@
         <v>226</v>
       </c>
       <c r="B230" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C230" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D230" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E230" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H230" s="44"/>
       <c r="K230" s="45">
@@ -16745,16 +16745,16 @@
         <v>227</v>
       </c>
       <c r="B231" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="C231" s="46" t="s">
+      <c r="D231" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="D231" s="46" t="s">
+      <c r="E231" s="46" t="s">
         <v>508</v>
-      </c>
-      <c r="E231" s="46" t="s">
-        <v>509</v>
       </c>
       <c r="K231" s="47">
         <v>1</v>
@@ -16795,16 +16795,16 @@
         <v>228</v>
       </c>
       <c r="B232" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C232" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="D232" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="E232" s="46" t="s">
         <v>510</v>
-      </c>
-      <c r="D232" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="E232" s="46" t="s">
-        <v>511</v>
       </c>
       <c r="K232" s="47">
         <v>1</v>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="5670" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C96" authorId="0" shapeId="0">
+    <comment ref="C97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M171" authorId="0" shapeId="0">
+    <comment ref="M175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="656">
   <si>
     <t>Class</t>
   </si>
@@ -3570,6 +3570,37 @@
   </si>
   <si>
     <t>grade</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成数值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4413,13 +4444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y233"/>
+  <dimension ref="A1:Y237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7178,7 +7209,7 @@
     </row>
     <row r="54" spans="1:21" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>18</v>
@@ -7228,7 +7259,7 @@
     </row>
     <row r="55" spans="1:21" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>18</v>
@@ -7278,7 +7309,7 @@
     </row>
     <row r="56" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>18</v>
@@ -7328,7 +7359,7 @@
     </row>
     <row r="57" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="56" t="s">
         <v>18</v>
@@ -7387,7 +7418,7 @@
     </row>
     <row r="58" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>614</v>
@@ -7437,7 +7468,7 @@
     </row>
     <row r="59" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="56" t="s">
         <v>164</v>
@@ -7487,7 +7518,7 @@
     </row>
     <row r="60" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="56" t="s">
         <v>164</v>
@@ -7537,7 +7568,7 @@
     </row>
     <row r="61" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>164</v>
@@ -7587,7 +7618,7 @@
     </row>
     <row r="62" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>18</v>
@@ -7637,7 +7668,7 @@
     </row>
     <row r="63" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>18</v>
@@ -7687,7 +7718,7 @@
     </row>
     <row r="64" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>18</v>
@@ -7746,7 +7777,7 @@
     </row>
     <row r="65" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>18</v>
@@ -7805,7 +7836,7 @@
     </row>
     <row r="66" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="56" t="s">
         <v>18</v>
@@ -7855,7 +7886,7 @@
     </row>
     <row r="67" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="56" t="s">
         <v>18</v>
@@ -7914,7 +7945,7 @@
     </row>
     <row r="68" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="56" t="s">
         <v>18</v>
@@ -7973,7 +8004,7 @@
     </row>
     <row r="69" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="56" t="s">
         <v>18</v>
@@ -8023,7 +8054,7 @@
     </row>
     <row r="70" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="56" t="s">
         <v>18</v>
@@ -8073,7 +8104,7 @@
     </row>
     <row r="71" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="56" t="s">
         <v>18</v>
@@ -8135,7 +8166,7 @@
     </row>
     <row r="72" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="27">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="56" t="s">
         <v>164</v>
@@ -8185,7 +8216,7 @@
     </row>
     <row r="73" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="27">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="56" t="s">
         <v>18</v>
@@ -8247,7 +8278,7 @@
     </row>
     <row r="74" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" s="56" t="s">
         <v>18</v>
@@ -8309,7 +8340,7 @@
     </row>
     <row r="75" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="27">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" s="56" t="s">
         <v>190</v>
@@ -8368,7 +8399,7 @@
     </row>
     <row r="76" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="27">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" s="56" t="s">
         <v>198</v>
@@ -8421,7 +8452,7 @@
     </row>
     <row r="77" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="27">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="56" t="s">
         <v>214</v>
@@ -8474,7 +8505,7 @@
     </row>
     <row r="78" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="27">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" s="56" t="s">
         <v>214</v>
@@ -8527,7 +8558,7 @@
     </row>
     <row r="79" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="27">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" s="56" t="s">
         <v>164</v>
@@ -8586,37 +8617,43 @@
     </row>
     <row r="80" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="27">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>256</v>
+        <v>653</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>468</v>
+        <v>654</v>
       </c>
       <c r="H80" s="56" t="s">
-        <v>469</v>
+        <v>655</v>
+      </c>
+      <c r="I80" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J80" s="56" t="s">
+        <v>124</v>
       </c>
       <c r="K80" s="56">
         <v>1</v>
       </c>
       <c r="L80" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="56">
         <v>1</v>
       </c>
       <c r="N80" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="56">
         <v>0</v>
@@ -8639,28 +8676,22 @@
     </row>
     <row r="81" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="27">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>478</v>
+        <v>256</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>261</v>
+        <v>468</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="J81" s="56" t="s">
-        <v>124</v>
+        <v>469</v>
       </c>
       <c r="K81" s="56">
         <v>1</v>
@@ -8672,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="56">
         <v>0</v>
@@ -8698,22 +8729,22 @@
     </row>
     <row r="82" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="27">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="D82" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H82" s="56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I82" s="56" t="s">
         <v>124</v>
@@ -8757,31 +8788,34 @@
     </row>
     <row r="83" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="27">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="F83" s="56" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="H83" s="56" t="s">
-        <v>634</v>
+        <v>411</v>
+      </c>
+      <c r="I83" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" s="56" t="s">
+        <v>124</v>
       </c>
       <c r="K83" s="56">
         <v>1</v>
       </c>
       <c r="L83" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="56">
         <v>1</v>
@@ -8790,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="O83" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" s="56">
         <v>0</v>
@@ -8805,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="56">
         <v>0</v>
@@ -8813,25 +8847,25 @@
     </row>
     <row r="84" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>491</v>
+        <v>344</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="E84" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F84" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H84" s="56" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K84" s="56">
         <v>1</v>
@@ -8869,25 +8903,25 @@
     </row>
     <row r="85" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="27">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D85" s="56" t="s">
         <v>119</v>
       </c>
       <c r="E85" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F85" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K85" s="56">
         <v>1</v>
@@ -8923,24 +8957,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="27">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="D86" s="56" t="s">
         <v>119</v>
       </c>
       <c r="E86" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F86" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H86" s="56" t="s">
         <v>628</v>
@@ -8979,30 +9013,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="27">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="E87" s="56" t="s">
-        <v>346</v>
+        <v>218</v>
+      </c>
+      <c r="F87" s="56" t="s">
+        <v>218</v>
       </c>
       <c r="H87" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="I87" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>349</v>
+        <v>628</v>
       </c>
       <c r="K87" s="56">
         <v>1</v>
@@ -9032,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="T87" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="56">
         <v>0</v>
@@ -9040,28 +9071,28 @@
     </row>
     <row r="88" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="27">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>498</v>
+        <v>345</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="E88" s="56" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="H88" s="56" t="s">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="I88" s="56" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J88" s="56" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K88" s="56">
         <v>1</v>
@@ -9099,22 +9130,28 @@
     </row>
     <row r="89" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="27">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>405</v>
+        <v>164</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="H89" s="56" t="s">
-        <v>408</v>
+        <v>77</v>
+      </c>
+      <c r="I89" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="J89" s="56" t="s">
+        <v>361</v>
       </c>
       <c r="K89" s="56">
         <v>1</v>
@@ -9123,13 +9160,13 @@
         <v>1</v>
       </c>
       <c r="M89" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" s="56">
         <v>0</v>
@@ -9152,25 +9189,28 @@
     </row>
     <row r="90" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>441</v>
+        <v>407</v>
+      </c>
+      <c r="H90" s="56" t="s">
+        <v>408</v>
       </c>
       <c r="K90" s="56">
         <v>1</v>
       </c>
       <c r="L90" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="56">
         <v>0</v>
@@ -9202,40 +9242,31 @@
     </row>
     <row r="91" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="27">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>501</v>
-      </c>
-      <c r="H91" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="I91" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="J91" s="56" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="K91" s="56">
         <v>1</v>
       </c>
       <c r="L91" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" s="56">
         <v>0</v>
@@ -9261,22 +9292,28 @@
     </row>
     <row r="92" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="H92" s="56" t="s">
-        <v>514</v>
+        <v>502</v>
+      </c>
+      <c r="I92" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="J92" s="56" t="s">
+        <v>504</v>
       </c>
       <c r="K92" s="56">
         <v>1</v>
@@ -9314,28 +9351,22 @@
     </row>
     <row r="93" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>181</v>
+        <v>586</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="H93" s="56" t="s">
-        <v>549</v>
-      </c>
-      <c r="I93" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="J93" s="56" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
       <c r="K93" s="56">
         <v>1</v>
@@ -9373,22 +9404,22 @@
     </row>
     <row r="94" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="27">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D94" s="56" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H94" s="56" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I94" s="56" t="s">
         <v>124</v>
@@ -9432,22 +9463,22 @@
     </row>
     <row r="95" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>612</v>
+        <v>559</v>
       </c>
       <c r="D95" s="56" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="H95" s="56" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I95" s="56" t="s">
         <v>124</v>
@@ -9459,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="56">
         <v>1</v>
@@ -9491,22 +9522,22 @@
     </row>
     <row r="96" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" s="56" t="s">
         <v>164</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="H96" s="56" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="I96" s="56" t="s">
         <v>124</v>
@@ -9518,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" s="56">
         <v>1</v>
@@ -9548,82 +9579,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="27">
-        <v>93</v>
-      </c>
-      <c r="B97" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="K97" s="42">
-        <v>1</v>
-      </c>
-      <c r="L97" s="42">
-        <v>0</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1</v>
-      </c>
-      <c r="N97" s="42">
-        <v>0</v>
-      </c>
-      <c r="O97" s="42">
-        <v>0</v>
-      </c>
-      <c r="P97" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="42">
-        <v>0</v>
-      </c>
-      <c r="R97" s="42">
-        <v>0</v>
-      </c>
-      <c r="S97" s="42">
-        <v>0</v>
-      </c>
-      <c r="T97" s="42">
-        <v>0</v>
-      </c>
-      <c r="U97" s="42">
-        <v>0</v>
-      </c>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="H97" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="I97" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J97" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K97" s="56">
+        <v>1</v>
+      </c>
+      <c r="L97" s="56">
+        <v>1</v>
+      </c>
+      <c r="M97" s="56">
+        <v>1</v>
+      </c>
+      <c r="N97" s="56">
+        <v>1</v>
+      </c>
+      <c r="O97" s="56">
+        <v>0</v>
+      </c>
+      <c r="P97" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="56">
+        <v>0</v>
+      </c>
+      <c r="R97" s="56">
+        <v>0</v>
+      </c>
+      <c r="S97" s="56">
+        <v>0</v>
+      </c>
+      <c r="T97" s="56">
+        <v>0</v>
+      </c>
+      <c r="U97" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>418</v>
+        <v>189</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="H98" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I98" s="41" t="s">
-        <v>187</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
       <c r="K98" s="42">
         <v>1</v>
       </c>
@@ -9662,22 +9694,26 @@
     </row>
     <row r="99" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
+        <v>419</v>
+      </c>
+      <c r="H99" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I99" s="41" t="s">
+        <v>187</v>
+      </c>
       <c r="K99" s="42">
         <v>1</v>
       </c>
@@ -9716,19 +9752,19 @@
     </row>
     <row r="100" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="41"/>
@@ -9770,19 +9806,19 @@
     </row>
     <row r="101" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>434</v>
+        <v>138</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H101" s="41"/>
       <c r="I101" s="41"/>
@@ -9824,19 +9860,19 @@
     </row>
     <row r="102" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H102" s="41"/>
       <c r="I102" s="41"/>
@@ -9878,19 +9914,19 @@
     </row>
     <row r="103" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D103" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="41"/>
@@ -9932,19 +9968,19 @@
     </row>
     <row r="104" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="27">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
@@ -9984,89 +10020,84 @@
       <c r="V104" s="43"/>
       <c r="W104" s="43"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="27">
-        <v>101</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10">
-        <v>1</v>
-      </c>
-      <c r="L105" s="10">
-        <v>1</v>
-      </c>
-      <c r="M105" s="10">
-        <v>1</v>
-      </c>
-      <c r="N105" s="10">
-        <v>1</v>
-      </c>
-      <c r="O105" s="10">
-        <v>1</v>
-      </c>
-      <c r="P105" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="8">
-        <v>0</v>
-      </c>
-      <c r="R105" s="8">
-        <v>0</v>
-      </c>
-      <c r="S105" s="8">
-        <v>0</v>
-      </c>
-      <c r="T105" s="8">
-        <v>0</v>
-      </c>
-      <c r="U105" s="10">
-        <v>0</v>
-      </c>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
-      <c r="X105" s="10"/>
-      <c r="Y105" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="K105" s="42">
+        <v>1</v>
+      </c>
+      <c r="L105" s="42">
+        <v>0</v>
+      </c>
+      <c r="M105" s="42">
+        <v>1</v>
+      </c>
+      <c r="N105" s="42">
+        <v>0</v>
+      </c>
+      <c r="O105" s="42">
+        <v>0</v>
+      </c>
+      <c r="P105" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="42">
+        <v>0</v>
+      </c>
+      <c r="R105" s="42">
+        <v>0</v>
+      </c>
+      <c r="S105" s="42">
+        <v>0</v>
+      </c>
+      <c r="T105" s="42">
+        <v>0</v>
+      </c>
+      <c r="U105" s="42">
+        <v>0</v>
+      </c>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A106" s="27">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>81</v>
+      <c r="C106" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="H106" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10">
         <v>1</v>
@@ -10108,19 +10139,19 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A107" s="27">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -10167,19 +10198,19 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A108" s="27">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>84</v>
+      <c r="C108" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -10226,19 +10257,19 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A109" s="27">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>86</v>
+      <c r="C109" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -10285,19 +10316,19 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A110" s="27">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>52</v>
+      <c r="C110" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>78</v>
+      <c r="E110" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -10342,72 +10373,80 @@
       <c r="X110" s="10"/>
       <c r="Y110" s="10"/>
     </row>
-    <row r="111" spans="1:25" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A111" s="27">
-        <v>107</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" s="23"/>
-      <c r="K111" s="22">
-        <v>1</v>
-      </c>
-      <c r="L111" s="22">
-        <v>1</v>
-      </c>
-      <c r="M111" s="22">
-        <v>1</v>
-      </c>
-      <c r="N111" s="22">
-        <v>1</v>
-      </c>
-      <c r="O111" s="22">
-        <v>0</v>
-      </c>
-      <c r="P111" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="22">
-        <v>0</v>
-      </c>
-      <c r="R111" s="22">
-        <v>0</v>
-      </c>
-      <c r="S111" s="22">
-        <v>0</v>
-      </c>
-      <c r="T111" s="22">
-        <v>0</v>
-      </c>
-      <c r="U111" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10">
+        <v>1</v>
+      </c>
+      <c r="L111" s="10">
+        <v>1</v>
+      </c>
+      <c r="M111" s="10">
+        <v>1</v>
+      </c>
+      <c r="N111" s="10">
+        <v>1</v>
+      </c>
+      <c r="O111" s="10">
+        <v>1</v>
+      </c>
+      <c r="P111" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0</v>
+      </c>
+      <c r="R111" s="8">
+        <v>0</v>
+      </c>
+      <c r="S111" s="8">
+        <v>0</v>
+      </c>
+      <c r="T111" s="8">
+        <v>0</v>
+      </c>
+      <c r="U111" s="10">
+        <v>0</v>
+      </c>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+    </row>
+    <row r="112" spans="1:25" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="27">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F112" s="23"/>
       <c r="K112" s="22">
@@ -10444,21 +10483,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:25" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F113" s="23"/>
       <c r="K113" s="22">
@@ -10495,84 +10534,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="27">
-        <v>110</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8">
-        <v>1</v>
-      </c>
-      <c r="L114" s="8">
-        <v>1</v>
-      </c>
-      <c r="M114" s="8">
-        <v>1</v>
-      </c>
-      <c r="N114" s="8">
-        <v>1</v>
-      </c>
-      <c r="O114" s="8">
-        <v>1</v>
-      </c>
-      <c r="P114" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="8">
-        <v>0</v>
-      </c>
-      <c r="R114" s="8">
-        <v>0</v>
-      </c>
-      <c r="S114" s="8">
-        <v>0</v>
-      </c>
-      <c r="T114" s="8">
-        <v>0</v>
-      </c>
-      <c r="U114" s="8">
-        <v>0</v>
-      </c>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="8"/>
-      <c r="Y114" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="K114" s="22">
+        <v>1</v>
+      </c>
+      <c r="L114" s="22">
+        <v>1</v>
+      </c>
+      <c r="M114" s="22">
+        <v>1</v>
+      </c>
+      <c r="N114" s="22">
+        <v>1</v>
+      </c>
+      <c r="O114" s="22">
+        <v>0</v>
+      </c>
+      <c r="P114" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="22">
+        <v>0</v>
+      </c>
+      <c r="R114" s="22">
+        <v>0</v>
+      </c>
+      <c r="S114" s="22">
+        <v>0</v>
+      </c>
+      <c r="T114" s="22">
+        <v>0</v>
+      </c>
+      <c r="U114" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A115" s="27">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>185</v>
+      <c r="C115" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F115" s="9"/>
+      <c r="E115" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -10615,174 +10646,180 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A116" s="27">
-        <v>112</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="K116" s="35">
-        <v>1</v>
-      </c>
-      <c r="L116" s="35">
-        <v>1</v>
-      </c>
-      <c r="M116" s="35">
-        <v>1</v>
-      </c>
-      <c r="N116" s="35">
-        <v>1</v>
-      </c>
-      <c r="O116" s="35">
-        <v>0</v>
-      </c>
-      <c r="P116" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="35">
-        <v>0</v>
-      </c>
-      <c r="R116" s="35">
-        <v>0</v>
-      </c>
-      <c r="S116" s="35">
-        <v>0</v>
-      </c>
-      <c r="T116" s="35">
-        <v>0</v>
-      </c>
-      <c r="U116" s="35">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F116" s="9"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8">
+        <v>1</v>
+      </c>
+      <c r="M116" s="8">
+        <v>1</v>
+      </c>
+      <c r="N116" s="8">
+        <v>1</v>
+      </c>
+      <c r="O116" s="8">
+        <v>1</v>
+      </c>
+      <c r="P116" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>0</v>
+      </c>
+      <c r="R116" s="8">
+        <v>0</v>
+      </c>
+      <c r="S116" s="8">
+        <v>0</v>
+      </c>
+      <c r="T116" s="8">
+        <v>0</v>
+      </c>
+      <c r="U116" s="8">
+        <v>0</v>
+      </c>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
     </row>
     <row r="117" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="27">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>514</v>
       </c>
       <c r="C117" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E117" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="K117" s="35">
+        <v>1</v>
+      </c>
+      <c r="L117" s="35">
+        <v>1</v>
+      </c>
+      <c r="M117" s="35">
+        <v>1</v>
+      </c>
+      <c r="N117" s="35">
+        <v>1</v>
+      </c>
+      <c r="O117" s="35">
+        <v>0</v>
+      </c>
+      <c r="P117" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="35">
+        <v>0</v>
+      </c>
+      <c r="R117" s="35">
+        <v>0</v>
+      </c>
+      <c r="S117" s="35">
+        <v>0</v>
+      </c>
+      <c r="T117" s="35">
+        <v>0</v>
+      </c>
+      <c r="U117" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="27">
+        <v>115</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="C118" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D118" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E118" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="K117" s="35">
-        <v>1</v>
-      </c>
-      <c r="L117" s="35">
-        <v>1</v>
-      </c>
-      <c r="M117" s="35">
-        <v>1</v>
-      </c>
-      <c r="N117" s="35">
-        <v>1</v>
-      </c>
-      <c r="O117" s="35">
-        <v>0</v>
-      </c>
-      <c r="P117" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="35">
-        <v>0</v>
-      </c>
-      <c r="R117" s="35">
-        <v>0</v>
-      </c>
-      <c r="S117" s="35">
-        <v>0</v>
-      </c>
-      <c r="T117" s="35">
-        <v>0</v>
-      </c>
-      <c r="U117" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="27">
-        <v>114</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="K118" s="29">
-        <v>1</v>
-      </c>
-      <c r="L118" s="29">
-        <v>1</v>
-      </c>
-      <c r="M118" s="29">
-        <v>1</v>
-      </c>
-      <c r="N118" s="29">
-        <v>1</v>
-      </c>
-      <c r="O118" s="29">
-        <v>1</v>
-      </c>
-      <c r="P118" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="29">
-        <v>0</v>
-      </c>
-      <c r="R118" s="29">
-        <v>0</v>
-      </c>
-      <c r="S118" s="29">
-        <v>0</v>
-      </c>
-      <c r="T118" s="29">
-        <v>0</v>
-      </c>
-      <c r="U118" s="29">
+      <c r="K118" s="35">
+        <v>1</v>
+      </c>
+      <c r="L118" s="35">
+        <v>1</v>
+      </c>
+      <c r="M118" s="35">
+        <v>1</v>
+      </c>
+      <c r="N118" s="35">
+        <v>1</v>
+      </c>
+      <c r="O118" s="35">
+        <v>0</v>
+      </c>
+      <c r="P118" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="35">
+        <v>0</v>
+      </c>
+      <c r="R118" s="35">
+        <v>0</v>
+      </c>
+      <c r="S118" s="35">
+        <v>0</v>
+      </c>
+      <c r="T118" s="35">
+        <v>0</v>
+      </c>
+      <c r="U118" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="27">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>168</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="K119" s="29">
         <v>1</v>
@@ -10820,22 +10857,22 @@
     </row>
     <row r="120" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="27">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" s="28" t="s">
         <v>168</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>144</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K120" s="29">
         <v>1</v>
@@ -10873,75 +10910,75 @@
     </row>
     <row r="121" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="27">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="28" t="s">
         <v>168</v>
       </c>
       <c r="C121" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K121" s="29">
+        <v>1</v>
+      </c>
+      <c r="L121" s="29">
+        <v>1</v>
+      </c>
+      <c r="M121" s="29">
+        <v>1</v>
+      </c>
+      <c r="N121" s="29">
+        <v>1</v>
+      </c>
+      <c r="O121" s="29">
+        <v>1</v>
+      </c>
+      <c r="P121" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="29">
+        <v>0</v>
+      </c>
+      <c r="R121" s="29">
+        <v>0</v>
+      </c>
+      <c r="S121" s="29">
+        <v>0</v>
+      </c>
+      <c r="T121" s="29">
+        <v>0</v>
+      </c>
+      <c r="U121" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="27">
+        <v>119</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D122" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="E122" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F122" s="29" t="s">
         <v>208</v>
-      </c>
-      <c r="K121" s="29">
-        <v>1</v>
-      </c>
-      <c r="L121" s="29">
-        <v>1</v>
-      </c>
-      <c r="M121" s="29">
-        <v>1</v>
-      </c>
-      <c r="N121" s="29">
-        <v>1</v>
-      </c>
-      <c r="O121" s="29">
-        <v>1</v>
-      </c>
-      <c r="P121" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="29">
-        <v>0</v>
-      </c>
-      <c r="R121" s="29">
-        <v>0</v>
-      </c>
-      <c r="S121" s="29">
-        <v>0</v>
-      </c>
-      <c r="T121" s="29">
-        <v>0</v>
-      </c>
-      <c r="U121" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="27">
-        <v>118</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>206</v>
       </c>
       <c r="K122" s="29">
         <v>1</v>
@@ -10979,22 +11016,22 @@
     </row>
     <row r="123" spans="1:25" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="27">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D123" s="28" t="s">
         <v>144</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K123" s="29">
         <v>1</v>
@@ -11030,181 +11067,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:25" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="27">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C124" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K124" s="29">
+        <v>1</v>
+      </c>
+      <c r="L124" s="29">
+        <v>1</v>
+      </c>
+      <c r="M124" s="29">
+        <v>1</v>
+      </c>
+      <c r="N124" s="29">
+        <v>1</v>
+      </c>
+      <c r="O124" s="29">
+        <v>1</v>
+      </c>
+      <c r="P124" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="29">
+        <v>0</v>
+      </c>
+      <c r="R124" s="29">
+        <v>0</v>
+      </c>
+      <c r="S124" s="29">
+        <v>0</v>
+      </c>
+      <c r="T124" s="29">
+        <v>0</v>
+      </c>
+      <c r="U124" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="27">
+        <v>122</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D125" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E125" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F125" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="K124" s="29">
-        <v>1</v>
-      </c>
-      <c r="L124" s="29">
-        <v>1</v>
-      </c>
-      <c r="M124" s="29">
-        <v>1</v>
-      </c>
-      <c r="N124" s="29">
-        <v>1</v>
-      </c>
-      <c r="O124" s="29">
-        <v>1</v>
-      </c>
-      <c r="P124" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="29">
-        <v>0</v>
-      </c>
-      <c r="R124" s="29">
-        <v>0</v>
-      </c>
-      <c r="S124" s="29">
-        <v>0</v>
-      </c>
-      <c r="T124" s="29">
-        <v>0</v>
-      </c>
-      <c r="U124" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="27">
-        <v>121</v>
-      </c>
-      <c r="B125" s="31" t="s">
+      <c r="K125" s="29">
+        <v>1</v>
+      </c>
+      <c r="L125" s="29">
+        <v>1</v>
+      </c>
+      <c r="M125" s="29">
+        <v>1</v>
+      </c>
+      <c r="N125" s="29">
+        <v>1</v>
+      </c>
+      <c r="O125" s="29">
+        <v>1</v>
+      </c>
+      <c r="P125" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="29">
+        <v>0</v>
+      </c>
+      <c r="R125" s="29">
+        <v>0</v>
+      </c>
+      <c r="S125" s="29">
+        <v>0</v>
+      </c>
+      <c r="T125" s="29">
+        <v>0</v>
+      </c>
+      <c r="U125" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="27">
+        <v>123</v>
+      </c>
+      <c r="B126" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C126" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D126" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E126" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="K125" s="30">
-        <v>1</v>
-      </c>
-      <c r="L125" s="30">
-        <v>1</v>
-      </c>
-      <c r="M125" s="30">
-        <v>1</v>
-      </c>
-      <c r="N125" s="30">
-        <v>1</v>
-      </c>
-      <c r="O125" s="30">
-        <v>0</v>
-      </c>
-      <c r="P125" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="30">
-        <v>0</v>
-      </c>
-      <c r="R125" s="30">
-        <v>0</v>
-      </c>
-      <c r="S125" s="30">
-        <v>0</v>
-      </c>
-      <c r="T125" s="30">
-        <v>0</v>
-      </c>
-      <c r="U125" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="27">
-        <v>122</v>
-      </c>
-      <c r="B126" s="33" t="s">
+      <c r="K126" s="30">
+        <v>1</v>
+      </c>
+      <c r="L126" s="30">
+        <v>1</v>
+      </c>
+      <c r="M126" s="30">
+        <v>1</v>
+      </c>
+      <c r="N126" s="30">
+        <v>1</v>
+      </c>
+      <c r="O126" s="30">
+        <v>0</v>
+      </c>
+      <c r="P126" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="30">
+        <v>0</v>
+      </c>
+      <c r="R126" s="30">
+        <v>0</v>
+      </c>
+      <c r="S126" s="30">
+        <v>0</v>
+      </c>
+      <c r="T126" s="30">
+        <v>0</v>
+      </c>
+      <c r="U126" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="27">
+        <v>124</v>
+      </c>
+      <c r="B127" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C127" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="D127" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E127" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F127" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K126" s="32">
-        <v>1</v>
-      </c>
-      <c r="L126" s="32">
-        <v>1</v>
-      </c>
-      <c r="M126" s="32">
-        <v>1</v>
-      </c>
-      <c r="N126" s="32">
-        <v>1</v>
-      </c>
-      <c r="O126" s="32">
-        <v>1</v>
-      </c>
-      <c r="P126" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="32">
-        <v>0</v>
-      </c>
-      <c r="R126" s="32">
-        <v>0</v>
-      </c>
-      <c r="S126" s="32">
-        <v>0</v>
-      </c>
-      <c r="T126" s="32">
-        <v>1</v>
-      </c>
-      <c r="U126" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="27">
-        <v>123</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>287</v>
-      </c>
       <c r="K127" s="32">
         <v>1</v>
       </c>
@@ -11233,30 +11270,30 @@
         <v>0</v>
       </c>
       <c r="T127" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:25" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="K128" s="32">
         <v>1</v>
@@ -11286,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="T128" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" s="32">
         <v>0</v>
@@ -11294,22 +11331,22 @@
     </row>
     <row r="129" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="27">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>494</v>
+        <v>221</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>486</v>
+        <v>221</v>
       </c>
       <c r="K129" s="32">
         <v>1</v>
@@ -11347,22 +11384,22 @@
     </row>
     <row r="130" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="27">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>288</v>
+        <v>494</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="K130" s="32">
         <v>1</v>
@@ -11400,22 +11437,22 @@
     </row>
     <row r="131" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>222</v>
+        <v>482</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K131" s="32">
         <v>1</v>
@@ -11445,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="T131" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131" s="32">
         <v>0</v>
@@ -11453,22 +11490,22 @@
     </row>
     <row r="132" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>483</v>
+        <v>222</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K132" s="32">
         <v>1</v>
@@ -11506,22 +11543,22 @@
     </row>
     <row r="133" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="K133" s="32">
         <v>1</v>
@@ -11559,22 +11596,22 @@
     </row>
     <row r="134" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>484</v>
+        <v>226</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="K134" s="32">
         <v>1</v>
@@ -11612,22 +11649,22 @@
     </row>
     <row r="135" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="F135" s="32" t="s">
-        <v>223</v>
+        <v>138</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>299</v>
       </c>
       <c r="K135" s="32">
         <v>1</v>
@@ -11665,22 +11702,22 @@
     </row>
     <row r="136" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="27">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>490</v>
+        <v>220</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="F136" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="K136" s="32">
         <v>1</v>
@@ -11710,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" s="32">
         <v>0</v>
@@ -11718,22 +11755,22 @@
     </row>
     <row r="137" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="27">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>290</v>
+        <v>489</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>301</v>
+        <v>496</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>301</v>
+        <v>490</v>
       </c>
       <c r="K137" s="32">
         <v>1</v>
@@ -11763,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="T137" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" s="32">
         <v>0</v>
@@ -11771,22 +11808,22 @@
     </row>
     <row r="138" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="27">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K138" s="32">
         <v>1</v>
@@ -11824,22 +11861,22 @@
     </row>
     <row r="139" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="27">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K139" s="32">
         <v>1</v>
@@ -11875,24 +11912,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="27">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="F140" s="32" t="s">
-        <v>225</v>
+        <v>95</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>298</v>
       </c>
       <c r="K140" s="32">
         <v>1</v>
@@ -11928,24 +11965,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="27">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>291</v>
+        <v>305</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -11983,22 +12020,22 @@
     </row>
     <row r="142" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="27">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K142" s="32">
         <v>1</v>
@@ -12036,22 +12073,22 @@
     </row>
     <row r="143" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="27">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="K143" s="32">
         <v>1</v>
@@ -12089,22 +12126,22 @@
     </row>
     <row r="144" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="27">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E144" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="F144" s="32" t="s">
-        <v>228</v>
+      <c r="E144" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="K144" s="32">
         <v>1</v>
@@ -12140,24 +12177,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="27">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -12193,24 +12230,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="27">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F146" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -12246,24 +12283,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="27">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -12299,480 +12336,477 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="27">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E148" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="K148" s="32">
+        <v>1</v>
+      </c>
+      <c r="L148" s="32">
+        <v>1</v>
+      </c>
+      <c r="M148" s="32">
+        <v>1</v>
+      </c>
+      <c r="N148" s="32">
+        <v>1</v>
+      </c>
+      <c r="O148" s="32">
+        <v>1</v>
+      </c>
+      <c r="P148" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="32">
+        <v>0</v>
+      </c>
+      <c r="R148" s="32">
+        <v>0</v>
+      </c>
+      <c r="S148" s="32">
+        <v>0</v>
+      </c>
+      <c r="T148" s="32">
+        <v>0</v>
+      </c>
+      <c r="U148" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="27">
+        <v>146</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="F148" s="33" t="s">
+      <c r="F149" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="K148" s="32">
-        <v>1</v>
-      </c>
-      <c r="L148" s="32">
-        <v>1</v>
-      </c>
-      <c r="M148" s="32">
-        <v>1</v>
-      </c>
-      <c r="N148" s="32">
-        <v>1</v>
-      </c>
-      <c r="O148" s="32">
-        <v>1</v>
-      </c>
-      <c r="P148" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="32">
-        <v>0</v>
-      </c>
-      <c r="R148" s="32">
-        <v>0</v>
-      </c>
-      <c r="S148" s="32">
-        <v>0</v>
-      </c>
-      <c r="T148" s="32">
-        <v>1</v>
-      </c>
-      <c r="U148" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="27">
-        <v>145</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="E149" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="K149" s="35">
-        <v>1</v>
-      </c>
-      <c r="L149" s="35">
-        <v>1</v>
-      </c>
-      <c r="M149" s="35">
-        <v>1</v>
-      </c>
-      <c r="N149" s="35">
-        <v>1</v>
-      </c>
-      <c r="O149" s="35">
-        <v>1</v>
-      </c>
-      <c r="P149" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="35">
-        <v>0</v>
-      </c>
-      <c r="R149" s="35">
-        <v>0</v>
-      </c>
-      <c r="S149" s="35">
-        <v>0</v>
-      </c>
-      <c r="T149" s="35">
-        <v>0</v>
-      </c>
-      <c r="U149" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K149" s="32">
+        <v>1</v>
+      </c>
+      <c r="L149" s="32">
+        <v>1</v>
+      </c>
+      <c r="M149" s="32">
+        <v>1</v>
+      </c>
+      <c r="N149" s="32">
+        <v>1</v>
+      </c>
+      <c r="O149" s="32">
+        <v>1</v>
+      </c>
+      <c r="P149" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="32">
+        <v>0</v>
+      </c>
+      <c r="R149" s="32">
+        <v>0</v>
+      </c>
+      <c r="S149" s="32">
+        <v>0</v>
+      </c>
+      <c r="T149" s="32">
+        <v>1</v>
+      </c>
+      <c r="U149" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>236</v>
       </c>
       <c r="C150" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E150" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K150" s="35">
+        <v>1</v>
+      </c>
+      <c r="L150" s="35">
+        <v>1</v>
+      </c>
+      <c r="M150" s="35">
+        <v>1</v>
+      </c>
+      <c r="N150" s="35">
+        <v>1</v>
+      </c>
+      <c r="O150" s="35">
+        <v>1</v>
+      </c>
+      <c r="P150" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="35">
+        <v>0</v>
+      </c>
+      <c r="R150" s="35">
+        <v>0</v>
+      </c>
+      <c r="S150" s="35">
+        <v>0</v>
+      </c>
+      <c r="T150" s="35">
+        <v>0</v>
+      </c>
+      <c r="U150" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="27">
+        <v>148</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D151" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="E150" s="34" t="s">
+      <c r="E151" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="K150" s="35">
-        <v>1</v>
-      </c>
-      <c r="L150" s="35">
-        <v>1</v>
-      </c>
-      <c r="M150" s="35">
-        <v>1</v>
-      </c>
-      <c r="N150" s="35">
-        <v>1</v>
-      </c>
-      <c r="O150" s="35">
-        <v>1</v>
-      </c>
-      <c r="P150" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="35">
-        <v>0</v>
-      </c>
-      <c r="R150" s="35">
-        <v>0</v>
-      </c>
-      <c r="S150" s="35">
-        <v>0</v>
-      </c>
-      <c r="T150" s="35">
-        <v>0</v>
-      </c>
-      <c r="U150" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="27">
-        <v>147</v>
-      </c>
-      <c r="B151" s="34" t="s">
+      <c r="K151" s="35">
+        <v>1</v>
+      </c>
+      <c r="L151" s="35">
+        <v>1</v>
+      </c>
+      <c r="M151" s="35">
+        <v>1</v>
+      </c>
+      <c r="N151" s="35">
+        <v>1</v>
+      </c>
+      <c r="O151" s="35">
+        <v>1</v>
+      </c>
+      <c r="P151" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="35">
+        <v>0</v>
+      </c>
+      <c r="R151" s="35">
+        <v>0</v>
+      </c>
+      <c r="S151" s="35">
+        <v>0</v>
+      </c>
+      <c r="T151" s="35">
+        <v>0</v>
+      </c>
+      <c r="U151" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="27">
+        <v>149</v>
+      </c>
+      <c r="B152" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C152" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D152" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E151" s="34" t="s">
+      <c r="E152" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="K151" s="35">
-        <v>1</v>
-      </c>
-      <c r="L151" s="35">
-        <v>1</v>
-      </c>
-      <c r="M151" s="35">
-        <v>1</v>
-      </c>
-      <c r="N151" s="35">
-        <v>1</v>
-      </c>
-      <c r="O151" s="35">
-        <v>1</v>
-      </c>
-      <c r="P151" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="35">
-        <v>0</v>
-      </c>
-      <c r="R151" s="35">
-        <v>0</v>
-      </c>
-      <c r="S151" s="35">
-        <v>0</v>
-      </c>
-      <c r="T151" s="35">
-        <v>0</v>
-      </c>
-      <c r="U151" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="27">
-        <v>148</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D152" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="K152" s="30">
-        <v>1</v>
-      </c>
-      <c r="L152" s="30">
-        <v>1</v>
-      </c>
-      <c r="M152" s="30">
-        <v>1</v>
-      </c>
-      <c r="N152" s="30">
-        <v>1</v>
-      </c>
-      <c r="O152" s="30">
-        <v>0</v>
-      </c>
-      <c r="P152" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="30">
-        <v>0</v>
-      </c>
-      <c r="R152" s="30">
-        <v>0</v>
-      </c>
-      <c r="S152" s="30">
-        <v>0</v>
-      </c>
-      <c r="T152" s="30">
-        <v>0</v>
-      </c>
-      <c r="U152" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K152" s="35">
+        <v>1</v>
+      </c>
+      <c r="L152" s="35">
+        <v>1</v>
+      </c>
+      <c r="M152" s="35">
+        <v>1</v>
+      </c>
+      <c r="N152" s="35">
+        <v>1</v>
+      </c>
+      <c r="O152" s="35">
+        <v>1</v>
+      </c>
+      <c r="P152" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="35">
+        <v>0</v>
+      </c>
+      <c r="R152" s="35">
+        <v>0</v>
+      </c>
+      <c r="S152" s="35">
+        <v>0</v>
+      </c>
+      <c r="T152" s="35">
+        <v>0</v>
+      </c>
+      <c r="U152" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="27">
-        <v>149</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="D153" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E153" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="K153" s="30">
-        <v>1</v>
-      </c>
-      <c r="L153" s="30">
-        <v>0</v>
-      </c>
-      <c r="M153" s="30">
-        <v>1</v>
-      </c>
-      <c r="N153" s="30">
-        <v>1</v>
-      </c>
-      <c r="O153" s="30">
-        <v>0</v>
-      </c>
-      <c r="P153" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="30">
-        <v>0</v>
-      </c>
-      <c r="R153" s="30">
-        <v>0</v>
-      </c>
-      <c r="S153" s="30">
-        <v>0</v>
-      </c>
-      <c r="T153" s="30">
-        <v>0</v>
-      </c>
-      <c r="U153" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D153" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="K153" s="35">
+        <v>1</v>
+      </c>
+      <c r="L153" s="35">
+        <v>1</v>
+      </c>
+      <c r="M153" s="35">
+        <v>1</v>
+      </c>
+      <c r="N153" s="35">
+        <v>1</v>
+      </c>
+      <c r="O153" s="35">
+        <v>1</v>
+      </c>
+      <c r="P153" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="35">
+        <v>0</v>
+      </c>
+      <c r="R153" s="35">
+        <v>0</v>
+      </c>
+      <c r="S153" s="35">
+        <v>0</v>
+      </c>
+      <c r="T153" s="35">
+        <v>0</v>
+      </c>
+      <c r="U153" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="27">
-        <v>150</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="K154" s="30">
-        <v>1</v>
-      </c>
-      <c r="L154" s="30">
-        <v>0</v>
-      </c>
-      <c r="M154" s="30">
-        <v>1</v>
-      </c>
-      <c r="N154" s="30">
-        <v>1</v>
-      </c>
-      <c r="O154" s="30">
-        <v>0</v>
-      </c>
-      <c r="P154" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q154" s="30">
-        <v>0</v>
-      </c>
-      <c r="R154" s="30">
-        <v>0</v>
-      </c>
-      <c r="S154" s="30">
-        <v>0</v>
-      </c>
-      <c r="T154" s="30">
-        <v>0</v>
-      </c>
-      <c r="U154" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D154" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="K154" s="35">
+        <v>1</v>
+      </c>
+      <c r="L154" s="35">
+        <v>1</v>
+      </c>
+      <c r="M154" s="35">
+        <v>1</v>
+      </c>
+      <c r="N154" s="35">
+        <v>1</v>
+      </c>
+      <c r="O154" s="35">
+        <v>1</v>
+      </c>
+      <c r="P154" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="35">
+        <v>0</v>
+      </c>
+      <c r="R154" s="35">
+        <v>0</v>
+      </c>
+      <c r="S154" s="35">
+        <v>0</v>
+      </c>
+      <c r="T154" s="35">
+        <v>0</v>
+      </c>
+      <c r="U154" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="27">
-        <v>151</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="D155" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K155" s="30">
-        <v>1</v>
-      </c>
-      <c r="L155" s="30">
-        <v>0</v>
-      </c>
-      <c r="M155" s="30">
-        <v>1</v>
-      </c>
-      <c r="N155" s="30">
-        <v>1</v>
-      </c>
-      <c r="O155" s="30">
-        <v>0</v>
-      </c>
-      <c r="P155" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q155" s="30">
-        <v>0</v>
-      </c>
-      <c r="R155" s="30">
-        <v>0</v>
-      </c>
-      <c r="S155" s="30">
-        <v>0</v>
-      </c>
-      <c r="T155" s="30">
-        <v>0</v>
-      </c>
-      <c r="U155" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" s="38" customFormat="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="K155" s="35">
+        <v>1</v>
+      </c>
+      <c r="L155" s="35">
+        <v>1</v>
+      </c>
+      <c r="M155" s="35">
+        <v>1</v>
+      </c>
+      <c r="N155" s="35">
+        <v>1</v>
+      </c>
+      <c r="O155" s="35">
+        <v>1</v>
+      </c>
+      <c r="P155" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="35">
+        <v>0</v>
+      </c>
+      <c r="R155" s="35">
+        <v>0</v>
+      </c>
+      <c r="S155" s="35">
+        <v>0</v>
+      </c>
+      <c r="T155" s="35">
+        <v>0</v>
+      </c>
+      <c r="U155" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="27">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C156" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D156" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="H156" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="I156" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K156" s="38">
-        <v>1</v>
-      </c>
-      <c r="L156" s="38">
-        <v>0</v>
-      </c>
-      <c r="M156" s="38">
-        <v>1</v>
-      </c>
-      <c r="N156" s="38">
-        <v>1</v>
-      </c>
-      <c r="O156" s="38">
-        <v>0</v>
-      </c>
-      <c r="P156" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="38">
-        <v>0</v>
-      </c>
-      <c r="R156" s="38">
-        <v>0</v>
-      </c>
-      <c r="S156" s="38">
-        <v>0</v>
-      </c>
-      <c r="T156" s="38">
-        <v>0</v>
-      </c>
-      <c r="U156" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K156" s="30">
+        <v>1</v>
+      </c>
+      <c r="L156" s="30">
+        <v>1</v>
+      </c>
+      <c r="M156" s="30">
+        <v>1</v>
+      </c>
+      <c r="N156" s="30">
+        <v>1</v>
+      </c>
+      <c r="O156" s="30">
+        <v>0</v>
+      </c>
+      <c r="P156" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="30">
+        <v>0</v>
+      </c>
+      <c r="R156" s="30">
+        <v>0</v>
+      </c>
+      <c r="S156" s="30">
+        <v>0</v>
+      </c>
+      <c r="T156" s="30">
+        <v>0</v>
+      </c>
+      <c r="U156" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="27">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="D157" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="K157" s="30">
         <v>1</v>
@@ -12808,27 +12842,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="27">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C158" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E158" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H158" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I158" s="31" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>269</v>
       </c>
       <c r="K158" s="30">
         <v>1</v>
@@ -12863,24 +12891,22 @@
       <c r="U158" s="30">
         <v>0</v>
       </c>
-      <c r="V158" s="37"/>
-      <c r="W158" s="37"/>
-    </row>
-    <row r="159" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="27">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>250</v>
+        <v>471</v>
       </c>
       <c r="K159" s="30">
         <v>1</v>
@@ -12916,74 +12942,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="27">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C160" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D160" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="H160" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C160" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D160" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E160" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="K160" s="30">
-        <v>1</v>
-      </c>
-      <c r="L160" s="30">
-        <v>0</v>
-      </c>
-      <c r="M160" s="30">
-        <v>1</v>
-      </c>
-      <c r="N160" s="30">
-        <v>1</v>
-      </c>
-      <c r="O160" s="30">
-        <v>0</v>
-      </c>
-      <c r="P160" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="30">
-        <v>0</v>
-      </c>
-      <c r="R160" s="30">
-        <v>0</v>
-      </c>
-      <c r="S160" s="30">
-        <v>0</v>
-      </c>
-      <c r="T160" s="30">
-        <v>0</v>
-      </c>
-      <c r="U160" s="30">
+      <c r="I160" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="K160" s="38">
+        <v>1</v>
+      </c>
+      <c r="L160" s="38">
+        <v>0</v>
+      </c>
+      <c r="M160" s="38">
+        <v>1</v>
+      </c>
+      <c r="N160" s="38">
+        <v>1</v>
+      </c>
+      <c r="O160" s="38">
+        <v>0</v>
+      </c>
+      <c r="P160" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="38">
+        <v>0</v>
+      </c>
+      <c r="R160" s="38">
+        <v>0</v>
+      </c>
+      <c r="S160" s="38">
+        <v>0</v>
+      </c>
+      <c r="T160" s="38">
+        <v>0</v>
+      </c>
+      <c r="U160" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="27">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="D161" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G161" s="30">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="K161" s="30">
         <v>1</v>
@@ -13021,19 +13050,25 @@
     </row>
     <row r="162" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="27">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C162" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D162" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E162" s="31" t="s">
-        <v>472</v>
+      <c r="C162" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H162" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I162" s="31" t="s">
+        <v>272</v>
       </c>
       <c r="K162" s="30">
         <v>1</v>
@@ -13044,7 +13079,7 @@
       <c r="M162" s="30">
         <v>1</v>
       </c>
-      <c r="N162" s="38">
+      <c r="N162" s="30">
         <v>1</v>
       </c>
       <c r="O162" s="30">
@@ -13068,22 +13103,24 @@
       <c r="U162" s="30">
         <v>0</v>
       </c>
+      <c r="V162" s="37"/>
+      <c r="W162" s="37"/>
     </row>
     <row r="163" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="27">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="K163" s="30">
         <v>1</v>
@@ -13094,7 +13131,7 @@
       <c r="M163" s="30">
         <v>1</v>
       </c>
-      <c r="N163" s="38">
+      <c r="N163" s="30">
         <v>1</v>
       </c>
       <c r="O163" s="30">
@@ -13121,19 +13158,19 @@
     </row>
     <row r="164" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="27">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="K164" s="30">
         <v>1</v>
@@ -13144,7 +13181,7 @@
       <c r="M164" s="30">
         <v>1</v>
       </c>
-      <c r="N164" s="38">
+      <c r="N164" s="30">
         <v>1</v>
       </c>
       <c r="O164" s="30">
@@ -13171,19 +13208,22 @@
     </row>
     <row r="165" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="27">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>319</v>
+        <v>268</v>
+      </c>
+      <c r="G165" s="30">
+        <v>1</v>
       </c>
       <c r="K165" s="30">
         <v>1</v>
@@ -13194,7 +13234,7 @@
       <c r="M165" s="30">
         <v>1</v>
       </c>
-      <c r="N165" s="38">
+      <c r="N165" s="30">
         <v>1</v>
       </c>
       <c r="O165" s="30">
@@ -13221,25 +13261,19 @@
     </row>
     <row r="166" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="27">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>119</v>
+        <v>439</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="H166" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I166" s="31" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="K166" s="30">
         <v>1</v>
@@ -13274,24 +13308,22 @@
       <c r="U166" s="30">
         <v>0</v>
       </c>
-      <c r="V166" s="37"/>
-      <c r="W166" s="37"/>
     </row>
     <row r="167" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>312</v>
+        <v>541</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>439</v>
+        <v>187</v>
       </c>
       <c r="D167" s="31" t="s">
         <v>95</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="K167" s="30">
         <v>1</v>
@@ -13327,21 +13359,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>554</v>
+        <v>312</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>415</v>
+        <v>138</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="K168" s="30">
         <v>1</v>
@@ -13379,25 +13411,19 @@
     </row>
     <row r="169" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>119</v>
+        <v>318</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="H169" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I169" s="31" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="K169" s="30">
         <v>1</v>
@@ -13432,310 +13458,288 @@
       <c r="U169" s="30">
         <v>0</v>
       </c>
-      <c r="V169" s="37"/>
-      <c r="W169" s="37"/>
     </row>
     <row r="170" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B170" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D170" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="H170" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I170" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K170" s="30">
+        <v>1</v>
+      </c>
+      <c r="L170" s="30">
+        <v>0</v>
+      </c>
+      <c r="M170" s="30">
+        <v>1</v>
+      </c>
+      <c r="N170" s="38">
+        <v>1</v>
+      </c>
+      <c r="O170" s="30">
+        <v>0</v>
+      </c>
+      <c r="P170" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="30">
+        <v>0</v>
+      </c>
+      <c r="R170" s="30">
+        <v>0</v>
+      </c>
+      <c r="S170" s="30">
+        <v>0</v>
+      </c>
+      <c r="T170" s="30">
+        <v>0</v>
+      </c>
+      <c r="U170" s="30">
+        <v>0</v>
+      </c>
+      <c r="V170" s="37"/>
+      <c r="W170" s="37"/>
+    </row>
+    <row r="171" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="27">
+        <v>168</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="K171" s="30">
+        <v>1</v>
+      </c>
+      <c r="L171" s="30">
+        <v>0</v>
+      </c>
+      <c r="M171" s="30">
+        <v>1</v>
+      </c>
+      <c r="N171" s="38">
+        <v>1</v>
+      </c>
+      <c r="O171" s="30">
+        <v>0</v>
+      </c>
+      <c r="P171" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="30">
+        <v>0</v>
+      </c>
+      <c r="R171" s="30">
+        <v>0</v>
+      </c>
+      <c r="S171" s="30">
+        <v>0</v>
+      </c>
+      <c r="T171" s="30">
+        <v>0</v>
+      </c>
+      <c r="U171" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="27">
+        <v>169</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="K172" s="30">
+        <v>1</v>
+      </c>
+      <c r="L172" s="30">
+        <v>0</v>
+      </c>
+      <c r="M172" s="30">
+        <v>1</v>
+      </c>
+      <c r="N172" s="38">
+        <v>1</v>
+      </c>
+      <c r="O172" s="30">
+        <v>0</v>
+      </c>
+      <c r="P172" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="30">
+        <v>0</v>
+      </c>
+      <c r="R172" s="30">
+        <v>0</v>
+      </c>
+      <c r="S172" s="30">
+        <v>0</v>
+      </c>
+      <c r="T172" s="30">
+        <v>0</v>
+      </c>
+      <c r="U172" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="27">
+        <v>170</v>
+      </c>
+      <c r="B173" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="C170" s="31" t="s">
+      <c r="C173" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="H173" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I173" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K173" s="30">
+        <v>1</v>
+      </c>
+      <c r="L173" s="30">
+        <v>0</v>
+      </c>
+      <c r="M173" s="30">
+        <v>1</v>
+      </c>
+      <c r="N173" s="38">
+        <v>1</v>
+      </c>
+      <c r="O173" s="30">
+        <v>0</v>
+      </c>
+      <c r="P173" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="30">
+        <v>0</v>
+      </c>
+      <c r="R173" s="30">
+        <v>0</v>
+      </c>
+      <c r="S173" s="30">
+        <v>0</v>
+      </c>
+      <c r="T173" s="30">
+        <v>0</v>
+      </c>
+      <c r="U173" s="30">
+        <v>0</v>
+      </c>
+      <c r="V173" s="37"/>
+      <c r="W173" s="37"/>
+    </row>
+    <row r="174" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="27">
+        <v>171</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D174" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E174" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="K170" s="30">
-        <v>1</v>
-      </c>
-      <c r="L170" s="30">
-        <v>0</v>
-      </c>
-      <c r="M170" s="30">
-        <v>1</v>
-      </c>
-      <c r="N170" s="38">
-        <v>1</v>
-      </c>
-      <c r="O170" s="30">
-        <v>0</v>
-      </c>
-      <c r="P170" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q170" s="30">
-        <v>0</v>
-      </c>
-      <c r="R170" s="30">
-        <v>0</v>
-      </c>
-      <c r="S170" s="30">
-        <v>0</v>
-      </c>
-      <c r="T170" s="30">
-        <v>0</v>
-      </c>
-      <c r="U170" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A171" s="27">
-        <v>167</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8">
-        <v>1</v>
-      </c>
-      <c r="L171" s="8">
-        <v>1</v>
-      </c>
-      <c r="M171" s="8">
-        <v>0</v>
-      </c>
-      <c r="N171" s="8">
-        <v>1</v>
-      </c>
-      <c r="O171" s="8">
-        <v>1</v>
-      </c>
-      <c r="P171" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="8">
-        <v>0</v>
-      </c>
-      <c r="R171" s="8">
-        <v>0</v>
-      </c>
-      <c r="S171" s="8">
-        <v>0</v>
-      </c>
-      <c r="T171" s="8">
-        <v>0</v>
-      </c>
-      <c r="U171" s="8">
-        <v>0</v>
-      </c>
-      <c r="V171" s="8"/>
-      <c r="W171" s="8"/>
-      <c r="X171" s="8"/>
-      <c r="Y171" s="8"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A172" s="27">
-        <v>168</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8">
-        <v>1</v>
-      </c>
-      <c r="L172" s="8">
-        <v>1</v>
-      </c>
-      <c r="M172" s="8">
-        <v>1</v>
-      </c>
-      <c r="N172" s="8">
-        <v>1</v>
-      </c>
-      <c r="O172" s="8">
-        <v>1</v>
-      </c>
-      <c r="P172" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q172" s="8">
-        <v>0</v>
-      </c>
-      <c r="R172" s="8">
-        <v>0</v>
-      </c>
-      <c r="S172" s="8">
-        <v>0</v>
-      </c>
-      <c r="T172" s="8">
-        <v>0</v>
-      </c>
-      <c r="U172" s="8">
-        <v>0</v>
-      </c>
-      <c r="V172" s="8"/>
-      <c r="W172" s="8"/>
-      <c r="X172" s="8"/>
-      <c r="Y172" s="8"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A173" s="27">
-        <v>169</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8">
-        <v>1</v>
-      </c>
-      <c r="L173" s="8">
-        <v>1</v>
-      </c>
-      <c r="M173" s="8">
-        <v>1</v>
-      </c>
-      <c r="N173" s="8">
-        <v>1</v>
-      </c>
-      <c r="O173" s="8">
-        <v>1</v>
-      </c>
-      <c r="P173" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q173" s="8">
-        <v>0</v>
-      </c>
-      <c r="R173" s="8">
-        <v>0</v>
-      </c>
-      <c r="S173" s="8">
-        <v>0</v>
-      </c>
-      <c r="T173" s="8">
-        <v>0</v>
-      </c>
-      <c r="U173" s="8">
-        <v>0</v>
-      </c>
-      <c r="V173" s="8"/>
-      <c r="W173" s="8"/>
-      <c r="X173" s="8"/>
-      <c r="Y173" s="8"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A174" s="27">
-        <v>170</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8">
-        <v>1</v>
-      </c>
-      <c r="L174" s="8">
-        <v>1</v>
-      </c>
-      <c r="M174" s="8">
-        <v>1</v>
-      </c>
-      <c r="N174" s="8">
-        <v>1</v>
-      </c>
-      <c r="O174" s="8">
-        <v>1</v>
-      </c>
-      <c r="P174" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q174" s="8">
-        <v>0</v>
-      </c>
-      <c r="R174" s="8">
-        <v>0</v>
-      </c>
-      <c r="S174" s="8">
-        <v>0</v>
-      </c>
-      <c r="T174" s="8">
-        <v>0</v>
-      </c>
-      <c r="U174" s="8">
-        <v>0</v>
-      </c>
-      <c r="V174" s="8"/>
-      <c r="W174" s="8"/>
-      <c r="X174" s="8"/>
-      <c r="Y174" s="8"/>
+      <c r="K174" s="30">
+        <v>1</v>
+      </c>
+      <c r="L174" s="30">
+        <v>0</v>
+      </c>
+      <c r="M174" s="30">
+        <v>1</v>
+      </c>
+      <c r="N174" s="38">
+        <v>1</v>
+      </c>
+      <c r="O174" s="30">
+        <v>0</v>
+      </c>
+      <c r="P174" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="30">
+        <v>0</v>
+      </c>
+      <c r="R174" s="30">
+        <v>0</v>
+      </c>
+      <c r="S174" s="30">
+        <v>0</v>
+      </c>
+      <c r="T174" s="30">
+        <v>0</v>
+      </c>
+      <c r="U174" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C175" s="9" t="s">
-        <v>521</v>
+      <c r="C175" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>522</v>
+        <v>329</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
@@ -13749,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="M175" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175" s="8">
         <v>1</v>
@@ -13782,19 +13786,19 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>327</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>576</v>
+        <v>333</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>525</v>
+        <v>335</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
@@ -13841,19 +13845,19 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>327</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
@@ -13873,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="O177" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177" s="8">
         <v>0</v>
@@ -13900,19 +13904,19 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A178" s="27">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>572</v>
+        <v>336</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -13959,19 +13963,19 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A179" s="27">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>327</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -13985,13 +13989,13 @@
         <v>1</v>
       </c>
       <c r="M179" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179" s="8">
         <v>1</v>
       </c>
       <c r="O179" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" s="8">
         <v>0</v>
@@ -14018,19 +14022,19 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A180" s="27">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>341</v>
+        <v>525</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -14050,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="O180" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180" s="8">
         <v>0</v>
@@ -14077,24 +14081,24 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A181" s="27">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>569</v>
+        <v>327</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8">
         <v>1</v>
@@ -14136,24 +14140,24 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A182" s="27">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>594</v>
+        <v>339</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8">
         <v>1</v>
@@ -14162,13 +14166,13 @@
         <v>1</v>
       </c>
       <c r="M182" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O182" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P182" s="8">
         <v>0</v>
@@ -14195,24 +14199,24 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A183" s="27">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>595</v>
+        <v>327</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>597</v>
+        <v>167</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8">
         <v>1</v>
@@ -14221,13 +14225,13 @@
         <v>1</v>
       </c>
       <c r="M183" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183" s="8">
         <v>1</v>
       </c>
       <c r="O183" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P183" s="8">
         <v>0</v>
@@ -14254,24 +14258,24 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A184" s="27">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>595</v>
+        <v>338</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>597</v>
+        <v>340</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>599</v>
+        <v>341</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8">
         <v>1</v>
@@ -14286,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P184" s="8">
         <v>0</v>
@@ -14313,28 +14317,24 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A185" s="27">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>332</v>
+        <v>569</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8">
         <v>1</v>
@@ -14376,37 +14376,33 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A186" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>578</v>
+        <v>332</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>579</v>
-      </c>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8">
         <v>1</v>
       </c>
       <c r="L186" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186" s="8">
         <v>0</v>
@@ -14439,24 +14435,24 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A187" s="27">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>138</v>
+        <v>597</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>137</v>
+        <v>598</v>
       </c>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8">
         <v>1</v>
@@ -14471,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P187" s="8">
         <v>0</v>
@@ -14498,24 +14494,24 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A188" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>329</v>
+        <v>599</v>
       </c>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8">
         <v>1</v>
@@ -14530,7 +14526,7 @@
         <v>1</v>
       </c>
       <c r="O188" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P188" s="8">
         <v>0</v>
@@ -14557,34 +14553,34 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A189" s="27">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>532</v>
+        <v>332</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>125</v>
+        <v>529</v>
       </c>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="9" t="s">
-        <v>592</v>
+      <c r="H189" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="8">
         <v>1</v>
       </c>
       <c r="L189" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" s="8">
         <v>1</v>
@@ -14620,36 +14616,40 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A190" s="27">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>535</v>
+        <v>193</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9"/>
+      <c r="H190" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>579</v>
+      </c>
       <c r="J190" s="8"/>
       <c r="K190" s="8">
         <v>1</v>
       </c>
       <c r="L190" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="8">
         <v>1</v>
       </c>
       <c r="N190" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" s="8">
         <v>0</v>
@@ -14679,24 +14679,24 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A191" s="27">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>532</v>
+        <v>624</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>537</v>
+        <v>137</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8">
         <v>1</v>
@@ -14738,24 +14738,24 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A192" s="27">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>138</v>
+        <v>602</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>539</v>
+        <v>329</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8">
         <v>1</v>
@@ -14797,30 +14797,34 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A193" s="27">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>620</v>
+        <v>125</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9"/>
+      <c r="H193" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="J193" s="8"/>
       <c r="K193" s="8">
         <v>1</v>
       </c>
       <c r="L193" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" s="8">
         <v>1</v>
@@ -14856,19 +14860,19 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A194" s="27">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>622</v>
+        <v>535</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>623</v>
+        <v>536</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
@@ -14913,947 +14917,983 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A195" s="27">
-        <v>191</v>
-      </c>
-      <c r="B195" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="8">
+        <v>1</v>
+      </c>
+      <c r="L195" s="8">
+        <v>1</v>
+      </c>
+      <c r="M195" s="8">
+        <v>1</v>
+      </c>
+      <c r="N195" s="8">
+        <v>1</v>
+      </c>
+      <c r="O195" s="8">
+        <v>0</v>
+      </c>
+      <c r="P195" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="8">
+        <v>0</v>
+      </c>
+      <c r="R195" s="8">
+        <v>0</v>
+      </c>
+      <c r="S195" s="8">
+        <v>0</v>
+      </c>
+      <c r="T195" s="8">
+        <v>0</v>
+      </c>
+      <c r="U195" s="8">
+        <v>0</v>
+      </c>
+      <c r="V195" s="8"/>
+      <c r="W195" s="8"/>
+      <c r="X195" s="8"/>
+      <c r="Y195" s="8"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A196" s="27">
+        <v>193</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8">
+        <v>1</v>
+      </c>
+      <c r="L196" s="8">
+        <v>1</v>
+      </c>
+      <c r="M196" s="8">
+        <v>1</v>
+      </c>
+      <c r="N196" s="8">
+        <v>1</v>
+      </c>
+      <c r="O196" s="8">
+        <v>0</v>
+      </c>
+      <c r="P196" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="8">
+        <v>0</v>
+      </c>
+      <c r="R196" s="8">
+        <v>0</v>
+      </c>
+      <c r="S196" s="8">
+        <v>0</v>
+      </c>
+      <c r="T196" s="8">
+        <v>0</v>
+      </c>
+      <c r="U196" s="8">
+        <v>0</v>
+      </c>
+      <c r="V196" s="8"/>
+      <c r="W196" s="8"/>
+      <c r="X196" s="8"/>
+      <c r="Y196" s="8"/>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A197" s="27">
+        <v>194</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8">
+        <v>1</v>
+      </c>
+      <c r="L197" s="8">
+        <v>1</v>
+      </c>
+      <c r="M197" s="8">
+        <v>1</v>
+      </c>
+      <c r="N197" s="8">
+        <v>1</v>
+      </c>
+      <c r="O197" s="8">
+        <v>0</v>
+      </c>
+      <c r="P197" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="8">
+        <v>0</v>
+      </c>
+      <c r="R197" s="8">
+        <v>0</v>
+      </c>
+      <c r="S197" s="8">
+        <v>0</v>
+      </c>
+      <c r="T197" s="8">
+        <v>0</v>
+      </c>
+      <c r="U197" s="8">
+        <v>0</v>
+      </c>
+      <c r="V197" s="8"/>
+      <c r="W197" s="8"/>
+      <c r="X197" s="8"/>
+      <c r="Y197" s="8"/>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A198" s="27">
+        <v>195</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="8">
+        <v>1</v>
+      </c>
+      <c r="L198" s="8">
+        <v>1</v>
+      </c>
+      <c r="M198" s="8">
+        <v>1</v>
+      </c>
+      <c r="N198" s="8">
+        <v>1</v>
+      </c>
+      <c r="O198" s="8">
+        <v>0</v>
+      </c>
+      <c r="P198" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="8">
+        <v>0</v>
+      </c>
+      <c r="R198" s="8">
+        <v>0</v>
+      </c>
+      <c r="S198" s="8">
+        <v>0</v>
+      </c>
+      <c r="T198" s="8">
+        <v>0</v>
+      </c>
+      <c r="U198" s="8">
+        <v>0</v>
+      </c>
+      <c r="V198" s="8"/>
+      <c r="W198" s="8"/>
+      <c r="X198" s="8"/>
+      <c r="Y198" s="8"/>
+    </row>
+    <row r="199" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="27">
+        <v>196</v>
+      </c>
+      <c r="B199" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="C195" s="48" t="s">
+      <c r="C199" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="D195" s="48" t="s">
+      <c r="D199" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E195" s="48" t="s">
+      <c r="E199" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="H195" s="48"/>
-      <c r="I195" s="48"/>
-      <c r="K195" s="49">
-        <v>1</v>
-      </c>
-      <c r="L195" s="49">
-        <v>1</v>
-      </c>
-      <c r="M195" s="49">
-        <v>1</v>
-      </c>
-      <c r="N195" s="49">
-        <v>0</v>
-      </c>
-      <c r="O195" s="49">
-        <v>0</v>
-      </c>
-      <c r="P195" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="49">
-        <v>0</v>
-      </c>
-      <c r="R195" s="49">
-        <v>0</v>
-      </c>
-      <c r="S195" s="49">
-        <v>0</v>
-      </c>
-      <c r="T195" s="49">
-        <v>0</v>
-      </c>
-      <c r="U195" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="27">
-        <v>192</v>
-      </c>
-      <c r="B196" s="48" t="s">
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
+      <c r="K199" s="49">
+        <v>1</v>
+      </c>
+      <c r="L199" s="49">
+        <v>1</v>
+      </c>
+      <c r="M199" s="49">
+        <v>1</v>
+      </c>
+      <c r="N199" s="49">
+        <v>0</v>
+      </c>
+      <c r="O199" s="49">
+        <v>0</v>
+      </c>
+      <c r="P199" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="49">
+        <v>0</v>
+      </c>
+      <c r="R199" s="49">
+        <v>0</v>
+      </c>
+      <c r="S199" s="49">
+        <v>0</v>
+      </c>
+      <c r="T199" s="49">
+        <v>0</v>
+      </c>
+      <c r="U199" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="27">
+        <v>197</v>
+      </c>
+      <c r="B200" s="48" t="s">
         <v>565</v>
       </c>
-      <c r="C196" s="48" t="s">
+      <c r="C200" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="D196" s="48" t="s">
+      <c r="D200" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E196" s="48" t="s">
+      <c r="E200" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="H196" s="48"/>
-      <c r="I196" s="48"/>
-      <c r="K196" s="49">
-        <v>1</v>
-      </c>
-      <c r="L196" s="49">
-        <v>1</v>
-      </c>
-      <c r="M196" s="49">
-        <v>1</v>
-      </c>
-      <c r="N196" s="49">
-        <v>0</v>
-      </c>
-      <c r="O196" s="49">
-        <v>0</v>
-      </c>
-      <c r="P196" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q196" s="49">
-        <v>0</v>
-      </c>
-      <c r="R196" s="49">
-        <v>0</v>
-      </c>
-      <c r="S196" s="49">
-        <v>0</v>
-      </c>
-      <c r="T196" s="49">
-        <v>0</v>
-      </c>
-      <c r="U196" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="27">
-        <v>193</v>
-      </c>
-      <c r="B197" s="48" t="s">
+      <c r="H200" s="48"/>
+      <c r="I200" s="48"/>
+      <c r="K200" s="49">
+        <v>1</v>
+      </c>
+      <c r="L200" s="49">
+        <v>1</v>
+      </c>
+      <c r="M200" s="49">
+        <v>1</v>
+      </c>
+      <c r="N200" s="49">
+        <v>0</v>
+      </c>
+      <c r="O200" s="49">
+        <v>0</v>
+      </c>
+      <c r="P200" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="49">
+        <v>0</v>
+      </c>
+      <c r="R200" s="49">
+        <v>0</v>
+      </c>
+      <c r="S200" s="49">
+        <v>0</v>
+      </c>
+      <c r="T200" s="49">
+        <v>0</v>
+      </c>
+      <c r="U200" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="27">
+        <v>198</v>
+      </c>
+      <c r="B201" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="C197" s="48" t="s">
+      <c r="C201" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="D197" s="48" t="s">
+      <c r="D201" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E197" s="48" t="s">
+      <c r="E201" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H197" s="48"/>
-      <c r="I197" s="48"/>
-      <c r="K197" s="49">
-        <v>1</v>
-      </c>
-      <c r="L197" s="49">
-        <v>1</v>
-      </c>
-      <c r="M197" s="49">
-        <v>0</v>
-      </c>
-      <c r="N197" s="49">
-        <v>0</v>
-      </c>
-      <c r="O197" s="49">
-        <v>0</v>
-      </c>
-      <c r="P197" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q197" s="49">
-        <v>0</v>
-      </c>
-      <c r="R197" s="49">
-        <v>0</v>
-      </c>
-      <c r="S197" s="49">
-        <v>0</v>
-      </c>
-      <c r="T197" s="49">
-        <v>0</v>
-      </c>
-      <c r="U197" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="27">
-        <v>194</v>
-      </c>
-      <c r="B198" s="50" t="s">
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="K201" s="49">
+        <v>1</v>
+      </c>
+      <c r="L201" s="49">
+        <v>1</v>
+      </c>
+      <c r="M201" s="49">
+        <v>0</v>
+      </c>
+      <c r="N201" s="49">
+        <v>0</v>
+      </c>
+      <c r="O201" s="49">
+        <v>0</v>
+      </c>
+      <c r="P201" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="49">
+        <v>0</v>
+      </c>
+      <c r="R201" s="49">
+        <v>0</v>
+      </c>
+      <c r="S201" s="49">
+        <v>0</v>
+      </c>
+      <c r="T201" s="49">
+        <v>0</v>
+      </c>
+      <c r="U201" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="27">
+        <v>199</v>
+      </c>
+      <c r="B202" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="C198" s="50" t="s">
+      <c r="C202" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="D198" s="50" t="s">
+      <c r="D202" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="E198" s="50" t="s">
+      <c r="E202" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="H198" s="50"/>
-      <c r="I198" s="50"/>
-      <c r="K198" s="51">
-        <v>1</v>
-      </c>
-      <c r="L198" s="51">
-        <v>1</v>
-      </c>
-      <c r="M198" s="51">
-        <v>1</v>
-      </c>
-      <c r="N198" s="51">
-        <v>0</v>
-      </c>
-      <c r="O198" s="51">
-        <v>0</v>
-      </c>
-      <c r="P198" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q198" s="51">
-        <v>0</v>
-      </c>
-      <c r="R198" s="51">
-        <v>0</v>
-      </c>
-      <c r="S198" s="51">
-        <v>0</v>
-      </c>
-      <c r="T198" s="51">
-        <v>0</v>
-      </c>
-      <c r="U198" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="27">
-        <v>195</v>
-      </c>
-      <c r="B199" s="50" t="s">
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
+      <c r="K202" s="51">
+        <v>1</v>
+      </c>
+      <c r="L202" s="51">
+        <v>1</v>
+      </c>
+      <c r="M202" s="51">
+        <v>1</v>
+      </c>
+      <c r="N202" s="51">
+        <v>0</v>
+      </c>
+      <c r="O202" s="51">
+        <v>0</v>
+      </c>
+      <c r="P202" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="51">
+        <v>0</v>
+      </c>
+      <c r="R202" s="51">
+        <v>0</v>
+      </c>
+      <c r="S202" s="51">
+        <v>0</v>
+      </c>
+      <c r="T202" s="51">
+        <v>0</v>
+      </c>
+      <c r="U202" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="27">
+        <v>200</v>
+      </c>
+      <c r="B203" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="C199" s="50" t="s">
+      <c r="C203" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="D199" s="50" t="s">
+      <c r="D203" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="E199" s="50" t="s">
+      <c r="E203" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="H199" s="50"/>
-      <c r="I199" s="50"/>
-      <c r="K199" s="51">
-        <v>1</v>
-      </c>
-      <c r="L199" s="51">
-        <v>1</v>
-      </c>
-      <c r="M199" s="51">
-        <v>1</v>
-      </c>
-      <c r="N199" s="51">
-        <v>0</v>
-      </c>
-      <c r="O199" s="51">
-        <v>0</v>
-      </c>
-      <c r="P199" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q199" s="51">
-        <v>0</v>
-      </c>
-      <c r="R199" s="51">
-        <v>0</v>
-      </c>
-      <c r="S199" s="51">
-        <v>0</v>
-      </c>
-      <c r="T199" s="51">
-        <v>0</v>
-      </c>
-      <c r="U199" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="27">
-        <v>196</v>
-      </c>
-      <c r="B200" s="52" t="s">
+      <c r="H203" s="50"/>
+      <c r="I203" s="50"/>
+      <c r="K203" s="51">
+        <v>1</v>
+      </c>
+      <c r="L203" s="51">
+        <v>1</v>
+      </c>
+      <c r="M203" s="51">
+        <v>1</v>
+      </c>
+      <c r="N203" s="51">
+        <v>0</v>
+      </c>
+      <c r="O203" s="51">
+        <v>0</v>
+      </c>
+      <c r="P203" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="51">
+        <v>0</v>
+      </c>
+      <c r="R203" s="51">
+        <v>0</v>
+      </c>
+      <c r="S203" s="51">
+        <v>0</v>
+      </c>
+      <c r="T203" s="51">
+        <v>0</v>
+      </c>
+      <c r="U203" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="27">
+        <v>201</v>
+      </c>
+      <c r="B204" s="52" t="s">
         <v>604</v>
       </c>
-      <c r="C200" s="52" t="s">
+      <c r="C204" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D200" s="52" t="s">
+      <c r="D204" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E200" s="52" t="s">
+      <c r="E204" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="H200" s="52"/>
-      <c r="I200" s="52"/>
-      <c r="K200" s="53">
-        <v>1</v>
-      </c>
-      <c r="L200" s="53">
-        <v>0</v>
-      </c>
-      <c r="M200" s="53">
-        <v>1</v>
-      </c>
-      <c r="N200" s="53">
-        <v>0</v>
-      </c>
-      <c r="O200" s="53">
-        <v>0</v>
-      </c>
-      <c r="P200" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q200" s="53">
-        <v>0</v>
-      </c>
-      <c r="R200" s="53">
-        <v>0</v>
-      </c>
-      <c r="S200" s="53">
-        <v>0</v>
-      </c>
-      <c r="T200" s="53">
-        <v>0</v>
-      </c>
-      <c r="U200" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="27">
-        <v>197</v>
-      </c>
-      <c r="B201" s="52" t="s">
+      <c r="H204" s="52"/>
+      <c r="I204" s="52"/>
+      <c r="K204" s="53">
+        <v>1</v>
+      </c>
+      <c r="L204" s="53">
+        <v>0</v>
+      </c>
+      <c r="M204" s="53">
+        <v>1</v>
+      </c>
+      <c r="N204" s="53">
+        <v>0</v>
+      </c>
+      <c r="O204" s="53">
+        <v>0</v>
+      </c>
+      <c r="P204" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="53">
+        <v>0</v>
+      </c>
+      <c r="R204" s="53">
+        <v>0</v>
+      </c>
+      <c r="S204" s="53">
+        <v>0</v>
+      </c>
+      <c r="T204" s="53">
+        <v>0</v>
+      </c>
+      <c r="U204" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="27">
+        <v>202</v>
+      </c>
+      <c r="B205" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="C201" s="52" t="s">
+      <c r="C205" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D201" s="52" t="s">
+      <c r="D205" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E201" s="52" t="s">
+      <c r="E205" s="52" t="s">
         <v>566</v>
       </c>
-      <c r="H201" s="52"/>
-      <c r="I201" s="52"/>
-      <c r="K201" s="53">
-        <v>1</v>
-      </c>
-      <c r="L201" s="53">
-        <v>0</v>
-      </c>
-      <c r="M201" s="53">
-        <v>1</v>
-      </c>
-      <c r="N201" s="53">
-        <v>0</v>
-      </c>
-      <c r="O201" s="53">
-        <v>0</v>
-      </c>
-      <c r="P201" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q201" s="53">
-        <v>0</v>
-      </c>
-      <c r="R201" s="53">
-        <v>0</v>
-      </c>
-      <c r="S201" s="53">
-        <v>0</v>
-      </c>
-      <c r="T201" s="53">
-        <v>0</v>
-      </c>
-      <c r="U201" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="27">
-        <v>198</v>
-      </c>
-      <c r="B202" s="52" t="s">
+      <c r="H205" s="52"/>
+      <c r="I205" s="52"/>
+      <c r="K205" s="53">
+        <v>1</v>
+      </c>
+      <c r="L205" s="53">
+        <v>0</v>
+      </c>
+      <c r="M205" s="53">
+        <v>1</v>
+      </c>
+      <c r="N205" s="53">
+        <v>0</v>
+      </c>
+      <c r="O205" s="53">
+        <v>0</v>
+      </c>
+      <c r="P205" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="53">
+        <v>0</v>
+      </c>
+      <c r="R205" s="53">
+        <v>0</v>
+      </c>
+      <c r="S205" s="53">
+        <v>0</v>
+      </c>
+      <c r="T205" s="53">
+        <v>0</v>
+      </c>
+      <c r="U205" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="27">
+        <v>203</v>
+      </c>
+      <c r="B206" s="52" t="s">
         <v>580</v>
       </c>
-      <c r="C202" s="52" t="s">
+      <c r="C206" s="52" t="s">
         <v>583</v>
       </c>
-      <c r="D202" s="52" t="s">
+      <c r="D206" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E202" s="52" t="s">
+      <c r="E206" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="H202" s="52" t="s">
+      <c r="H206" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="I202" s="52" t="s">
+      <c r="I206" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K202" s="53">
-        <v>1</v>
-      </c>
-      <c r="L202" s="53">
-        <v>0</v>
-      </c>
-      <c r="M202" s="53">
-        <v>1</v>
-      </c>
-      <c r="N202" s="53">
-        <v>0</v>
-      </c>
-      <c r="O202" s="53">
-        <v>0</v>
-      </c>
-      <c r="P202" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q202" s="53">
-        <v>0</v>
-      </c>
-      <c r="R202" s="53">
-        <v>0</v>
-      </c>
-      <c r="S202" s="53">
-        <v>0</v>
-      </c>
-      <c r="T202" s="53">
-        <v>0</v>
-      </c>
-      <c r="U202" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="27">
-        <v>199</v>
-      </c>
-      <c r="B203" s="54" t="s">
+      <c r="K206" s="53">
+        <v>1</v>
+      </c>
+      <c r="L206" s="53">
+        <v>0</v>
+      </c>
+      <c r="M206" s="53">
+        <v>1</v>
+      </c>
+      <c r="N206" s="53">
+        <v>0</v>
+      </c>
+      <c r="O206" s="53">
+        <v>0</v>
+      </c>
+      <c r="P206" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="53">
+        <v>0</v>
+      </c>
+      <c r="R206" s="53">
+        <v>0</v>
+      </c>
+      <c r="S206" s="53">
+        <v>0</v>
+      </c>
+      <c r="T206" s="53">
+        <v>0</v>
+      </c>
+      <c r="U206" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="27">
+        <v>204</v>
+      </c>
+      <c r="B207" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="C203" s="54" t="s">
+      <c r="C207" s="54" t="s">
         <v>605</v>
       </c>
-      <c r="D203" s="54" t="s">
+      <c r="D207" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="E203" s="54" t="s">
+      <c r="E207" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="K203" s="55">
-        <v>1</v>
-      </c>
-      <c r="L203" s="55">
-        <v>1</v>
-      </c>
-      <c r="M203" s="55">
-        <v>1</v>
-      </c>
-      <c r="N203" s="55">
-        <v>1</v>
-      </c>
-      <c r="O203" s="55">
-        <v>0</v>
-      </c>
-      <c r="P203" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="55">
-        <v>0</v>
-      </c>
-      <c r="R203" s="55">
-        <v>0</v>
-      </c>
-      <c r="S203" s="55">
-        <v>1</v>
-      </c>
-      <c r="T203" s="55">
-        <v>0</v>
-      </c>
-      <c r="U203" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="27">
-        <v>200</v>
-      </c>
-      <c r="B204" s="54" t="s">
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="K207" s="55">
+        <v>1</v>
+      </c>
+      <c r="L207" s="55">
+        <v>1</v>
+      </c>
+      <c r="M207" s="55">
+        <v>1</v>
+      </c>
+      <c r="N207" s="55">
+        <v>1</v>
+      </c>
+      <c r="O207" s="55">
+        <v>0</v>
+      </c>
+      <c r="P207" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="55">
+        <v>0</v>
+      </c>
+      <c r="R207" s="55">
+        <v>0</v>
+      </c>
+      <c r="S207" s="55">
+        <v>1</v>
+      </c>
+      <c r="T207" s="55">
+        <v>0</v>
+      </c>
+      <c r="U207" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="27">
+        <v>205</v>
+      </c>
+      <c r="B208" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="C204" s="54" t="s">
+      <c r="C208" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D204" s="54" t="s">
+      <c r="D208" s="54" t="s">
         <v>608</v>
       </c>
-      <c r="E204" s="54" t="s">
+      <c r="E208" s="54" t="s">
         <v>610</v>
       </c>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="K204" s="55">
-        <v>1</v>
-      </c>
-      <c r="L204" s="55">
-        <v>1</v>
-      </c>
-      <c r="M204" s="55">
-        <v>1</v>
-      </c>
-      <c r="N204" s="55">
-        <v>1</v>
-      </c>
-      <c r="O204" s="55">
-        <v>0</v>
-      </c>
-      <c r="P204" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="55">
-        <v>0</v>
-      </c>
-      <c r="R204" s="55">
-        <v>0</v>
-      </c>
-      <c r="S204" s="55">
-        <v>1</v>
-      </c>
-      <c r="T204" s="55">
-        <v>0</v>
-      </c>
-      <c r="U204" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="27">
-        <v>201</v>
-      </c>
-      <c r="B205" s="54" t="s">
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="K208" s="55">
+        <v>1</v>
+      </c>
+      <c r="L208" s="55">
+        <v>1</v>
+      </c>
+      <c r="M208" s="55">
+        <v>1</v>
+      </c>
+      <c r="N208" s="55">
+        <v>1</v>
+      </c>
+      <c r="O208" s="55">
+        <v>0</v>
+      </c>
+      <c r="P208" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="55">
+        <v>0</v>
+      </c>
+      <c r="R208" s="55">
+        <v>0</v>
+      </c>
+      <c r="S208" s="55">
+        <v>1</v>
+      </c>
+      <c r="T208" s="55">
+        <v>0</v>
+      </c>
+      <c r="U208" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="27">
+        <v>206</v>
+      </c>
+      <c r="B209" s="54" t="s">
         <v>606</v>
       </c>
-      <c r="C205" s="54" t="s">
+      <c r="C209" s="54" t="s">
         <v>618</v>
       </c>
-      <c r="D205" s="54" t="s">
+      <c r="D209" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="E205" s="54" t="s">
+      <c r="E209" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="K205" s="55">
-        <v>1</v>
-      </c>
-      <c r="L205" s="55">
-        <v>1</v>
-      </c>
-      <c r="M205" s="55">
-        <v>1</v>
-      </c>
-      <c r="N205" s="55">
-        <v>1</v>
-      </c>
-      <c r="O205" s="55">
-        <v>0</v>
-      </c>
-      <c r="P205" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q205" s="55">
-        <v>0</v>
-      </c>
-      <c r="R205" s="55">
-        <v>0</v>
-      </c>
-      <c r="S205" s="55">
-        <v>1</v>
-      </c>
-      <c r="T205" s="55">
-        <v>0</v>
-      </c>
-      <c r="U205" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="27">
-        <v>202</v>
-      </c>
-      <c r="B206" s="39" t="s">
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="K209" s="55">
+        <v>1</v>
+      </c>
+      <c r="L209" s="55">
+        <v>1</v>
+      </c>
+      <c r="M209" s="55">
+        <v>1</v>
+      </c>
+      <c r="N209" s="55">
+        <v>1</v>
+      </c>
+      <c r="O209" s="55">
+        <v>0</v>
+      </c>
+      <c r="P209" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="55">
+        <v>0</v>
+      </c>
+      <c r="R209" s="55">
+        <v>0</v>
+      </c>
+      <c r="S209" s="55">
+        <v>1</v>
+      </c>
+      <c r="T209" s="55">
+        <v>0</v>
+      </c>
+      <c r="U209" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="27">
+        <v>207</v>
+      </c>
+      <c r="B210" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C206" s="40" t="s">
+      <c r="C210" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D206" s="40" t="s">
+      <c r="D210" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="E206" s="40" t="s">
+      <c r="E210" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="K206" s="39">
-        <v>1</v>
-      </c>
-      <c r="L206" s="39">
-        <v>1</v>
-      </c>
-      <c r="M206" s="39">
-        <v>1</v>
-      </c>
-      <c r="N206" s="39">
-        <v>1</v>
-      </c>
-      <c r="O206" s="39">
-        <v>1</v>
-      </c>
-      <c r="P206" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q206" s="39">
-        <v>0</v>
-      </c>
-      <c r="R206" s="39">
-        <v>0</v>
-      </c>
-      <c r="S206" s="39">
-        <v>0</v>
-      </c>
-      <c r="T206" s="39">
-        <v>0</v>
-      </c>
-      <c r="U206" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="27">
-        <v>203</v>
-      </c>
-      <c r="B207" s="39" t="s">
+      <c r="K210" s="39">
+        <v>1</v>
+      </c>
+      <c r="L210" s="39">
+        <v>1</v>
+      </c>
+      <c r="M210" s="39">
+        <v>1</v>
+      </c>
+      <c r="N210" s="39">
+        <v>1</v>
+      </c>
+      <c r="O210" s="39">
+        <v>1</v>
+      </c>
+      <c r="P210" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="39">
+        <v>0</v>
+      </c>
+      <c r="R210" s="39">
+        <v>0</v>
+      </c>
+      <c r="S210" s="39">
+        <v>0</v>
+      </c>
+      <c r="T210" s="39">
+        <v>0</v>
+      </c>
+      <c r="U210" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="27">
+        <v>208</v>
+      </c>
+      <c r="B211" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C207" s="40" t="s">
+      <c r="C211" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D211" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="E207" s="40" t="s">
+      <c r="E211" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="K207" s="39">
-        <v>1</v>
-      </c>
-      <c r="L207" s="39">
-        <v>1</v>
-      </c>
-      <c r="M207" s="39">
-        <v>1</v>
-      </c>
-      <c r="N207" s="39">
-        <v>1</v>
-      </c>
-      <c r="O207" s="39">
-        <v>1</v>
-      </c>
-      <c r="P207" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q207" s="39">
-        <v>0</v>
-      </c>
-      <c r="R207" s="39">
-        <v>0</v>
-      </c>
-      <c r="S207" s="39">
-        <v>0</v>
-      </c>
-      <c r="T207" s="39">
-        <v>0</v>
-      </c>
-      <c r="U207" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="27">
-        <v>204</v>
-      </c>
-      <c r="B208" s="39" t="s">
+      <c r="K211" s="39">
+        <v>1</v>
+      </c>
+      <c r="L211" s="39">
+        <v>1</v>
+      </c>
+      <c r="M211" s="39">
+        <v>1</v>
+      </c>
+      <c r="N211" s="39">
+        <v>1</v>
+      </c>
+      <c r="O211" s="39">
+        <v>1</v>
+      </c>
+      <c r="P211" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="39">
+        <v>0</v>
+      </c>
+      <c r="R211" s="39">
+        <v>0</v>
+      </c>
+      <c r="S211" s="39">
+        <v>0</v>
+      </c>
+      <c r="T211" s="39">
+        <v>0</v>
+      </c>
+      <c r="U211" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="27">
+        <v>209</v>
+      </c>
+      <c r="B212" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C208" s="40" t="s">
+      <c r="C212" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="D208" s="40" t="s">
+      <c r="D212" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="E208" s="40" t="s">
+      <c r="E212" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="K208" s="39">
-        <v>1</v>
-      </c>
-      <c r="L208" s="39">
-        <v>1</v>
-      </c>
-      <c r="M208" s="39">
-        <v>1</v>
-      </c>
-      <c r="N208" s="39">
-        <v>1</v>
-      </c>
-      <c r="O208" s="39">
-        <v>1</v>
-      </c>
-      <c r="P208" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q208" s="39">
-        <v>0</v>
-      </c>
-      <c r="R208" s="39">
-        <v>0</v>
-      </c>
-      <c r="S208" s="39">
-        <v>0</v>
-      </c>
-      <c r="T208" s="39">
-        <v>0</v>
-      </c>
-      <c r="U208" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="27">
-        <v>205</v>
-      </c>
-      <c r="B209" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C209" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="D209" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E209" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="K209" s="45">
-        <v>1</v>
-      </c>
-      <c r="L209" s="45">
-        <v>1</v>
-      </c>
-      <c r="M209" s="45">
-        <v>0</v>
-      </c>
-      <c r="N209" s="45">
-        <v>0</v>
-      </c>
-      <c r="O209" s="45">
-        <v>0</v>
-      </c>
-      <c r="P209" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q209" s="45">
-        <v>0</v>
-      </c>
-      <c r="R209" s="45">
-        <v>0</v>
-      </c>
-      <c r="S209" s="45">
-        <v>0</v>
-      </c>
-      <c r="T209" s="45">
-        <v>0</v>
-      </c>
-      <c r="U209" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="27">
-        <v>206</v>
-      </c>
-      <c r="B210" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C210" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="D210" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E210" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="K210" s="45">
-        <v>1</v>
-      </c>
-      <c r="L210" s="45">
-        <v>1</v>
-      </c>
-      <c r="M210" s="45">
-        <v>0</v>
-      </c>
-      <c r="N210" s="45">
-        <v>0</v>
-      </c>
-      <c r="O210" s="45">
-        <v>0</v>
-      </c>
-      <c r="P210" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q210" s="45">
-        <v>0</v>
-      </c>
-      <c r="R210" s="45">
-        <v>0</v>
-      </c>
-      <c r="S210" s="45">
-        <v>0</v>
-      </c>
-      <c r="T210" s="45">
-        <v>0</v>
-      </c>
-      <c r="U210" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="27">
-        <v>207</v>
-      </c>
-      <c r="B211" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C211" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="D211" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E211" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="K211" s="45">
-        <v>1</v>
-      </c>
-      <c r="L211" s="45">
-        <v>1</v>
-      </c>
-      <c r="M211" s="45">
-        <v>0</v>
-      </c>
-      <c r="N211" s="45">
-        <v>0</v>
-      </c>
-      <c r="O211" s="45">
-        <v>0</v>
-      </c>
-      <c r="P211" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q211" s="45">
-        <v>0</v>
-      </c>
-      <c r="R211" s="45">
-        <v>0</v>
-      </c>
-      <c r="S211" s="45">
-        <v>0</v>
-      </c>
-      <c r="T211" s="45">
-        <v>0</v>
-      </c>
-      <c r="U211" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="27">
-        <v>208</v>
-      </c>
-      <c r="B212" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C212" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="D212" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="E212" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="K212" s="45">
-        <v>1</v>
-      </c>
-      <c r="L212" s="45">
-        <v>1</v>
-      </c>
-      <c r="M212" s="45">
-        <v>0</v>
-      </c>
-      <c r="N212" s="45">
-        <v>0</v>
-      </c>
-      <c r="O212" s="45">
-        <v>0</v>
-      </c>
-      <c r="P212" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q212" s="45">
-        <v>0</v>
-      </c>
-      <c r="R212" s="45">
-        <v>0</v>
-      </c>
-      <c r="S212" s="45">
-        <v>0</v>
-      </c>
-      <c r="T212" s="45">
-        <v>0</v>
-      </c>
-      <c r="U212" s="45">
+      <c r="K212" s="39">
+        <v>1</v>
+      </c>
+      <c r="L212" s="39">
+        <v>1</v>
+      </c>
+      <c r="M212" s="39">
+        <v>1</v>
+      </c>
+      <c r="N212" s="39">
+        <v>1</v>
+      </c>
+      <c r="O212" s="39">
+        <v>1</v>
+      </c>
+      <c r="P212" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="39">
+        <v>0</v>
+      </c>
+      <c r="R212" s="39">
+        <v>0</v>
+      </c>
+      <c r="S212" s="39">
+        <v>0</v>
+      </c>
+      <c r="T212" s="39">
+        <v>0</v>
+      </c>
+      <c r="U212" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="27">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C213" s="44" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D213" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E213" s="44" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K213" s="45">
         <v>1</v>
@@ -15891,19 +15931,19 @@
     </row>
     <row r="214" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="27">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C214" s="44" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D214" s="44" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="E214" s="44" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="K214" s="45">
         <v>1</v>
@@ -15941,19 +15981,19 @@
     </row>
     <row r="215" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B215" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C215" s="44" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="D215" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E215" s="44" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="K215" s="45">
         <v>1</v>
@@ -15991,19 +16031,19 @@
     </row>
     <row r="216" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B216" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C216" s="44" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D216" s="44" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="E216" s="44" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K216" s="45">
         <v>1</v>
@@ -16041,19 +16081,19 @@
     </row>
     <row r="217" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B217" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C217" s="44" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D217" s="44" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="E217" s="44" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K217" s="45">
         <v>1</v>
@@ -16091,19 +16131,19 @@
     </row>
     <row r="218" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B218" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C218" s="44" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D218" s="44" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="E218" s="44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K218" s="45">
         <v>1</v>
@@ -16141,19 +16181,19 @@
     </row>
     <row r="219" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C219" s="45" t="s">
-        <v>385</v>
+      <c r="C219" s="44" t="s">
+        <v>377</v>
       </c>
       <c r="D219" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E219" s="44" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K219" s="45">
         <v>1</v>
@@ -16191,19 +16231,19 @@
     </row>
     <row r="220" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B220" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C220" s="44" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E220" s="44" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K220" s="45">
         <v>1</v>
@@ -16241,19 +16281,19 @@
     </row>
     <row r="221" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B221" s="44" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C221" s="44" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D221" s="44" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E221" s="44" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K221" s="45">
         <v>1</v>
@@ -16291,19 +16331,19 @@
     </row>
     <row r="222" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="27">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B222" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C222" s="44" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
       <c r="D222" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E222" s="44" t="s">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="K222" s="45">
         <v>1</v>
@@ -16341,19 +16381,19 @@
     </row>
     <row r="223" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="27">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B223" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C223" s="44" t="s">
-        <v>465</v>
+      <c r="C223" s="45" t="s">
+        <v>385</v>
       </c>
       <c r="D223" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E223" s="44" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="K223" s="45">
         <v>1</v>
@@ -16391,19 +16431,19 @@
     </row>
     <row r="224" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="27">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B224" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C224" s="44" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="D224" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E224" s="44" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="K224" s="45">
         <v>1</v>
@@ -16441,19 +16481,19 @@
     </row>
     <row r="225" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="27">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B225" s="44" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C225" s="44" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="D225" s="44" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
       <c r="E225" s="44" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="K225" s="45">
         <v>1</v>
@@ -16491,19 +16531,19 @@
     </row>
     <row r="226" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="27">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B226" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C226" s="44" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="D226" s="44" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="E226" s="44" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="K226" s="45">
         <v>1</v>
@@ -16541,19 +16581,19 @@
     </row>
     <row r="227" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="27">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C227" s="44" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="D227" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E227" s="44" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="K227" s="45">
         <v>1</v>
@@ -16591,19 +16631,19 @@
     </row>
     <row r="228" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="27">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B228" s="44" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C228" s="44" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="D228" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E228" s="44" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="K228" s="45">
         <v>1</v>
@@ -16641,19 +16681,19 @@
     </row>
     <row r="229" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="27">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B229" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C229" s="44" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="D229" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E229" s="44" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="K229" s="45">
         <v>1</v>
@@ -16691,157 +16731,357 @@
     </row>
     <row r="230" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="27">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B230" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C230" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="D230" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="E230" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K230" s="45">
+        <v>1</v>
+      </c>
+      <c r="L230" s="45">
+        <v>1</v>
+      </c>
+      <c r="M230" s="45">
+        <v>0</v>
+      </c>
+      <c r="N230" s="45">
+        <v>0</v>
+      </c>
+      <c r="O230" s="45">
+        <v>0</v>
+      </c>
+      <c r="P230" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="45">
+        <v>0</v>
+      </c>
+      <c r="R230" s="45">
+        <v>0</v>
+      </c>
+      <c r="S230" s="45">
+        <v>0</v>
+      </c>
+      <c r="T230" s="45">
+        <v>0</v>
+      </c>
+      <c r="U230" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="27">
+        <v>228</v>
+      </c>
+      <c r="B231" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C231" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="D231" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E231" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K231" s="45">
+        <v>1</v>
+      </c>
+      <c r="L231" s="45">
+        <v>1</v>
+      </c>
+      <c r="M231" s="45">
+        <v>0</v>
+      </c>
+      <c r="N231" s="45">
+        <v>0</v>
+      </c>
+      <c r="O231" s="45">
+        <v>0</v>
+      </c>
+      <c r="P231" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="45">
+        <v>0</v>
+      </c>
+      <c r="R231" s="45">
+        <v>0</v>
+      </c>
+      <c r="S231" s="45">
+        <v>0</v>
+      </c>
+      <c r="T231" s="45">
+        <v>0</v>
+      </c>
+      <c r="U231" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="27">
+        <v>229</v>
+      </c>
+      <c r="B232" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C232" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D232" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E232" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K232" s="45">
+        <v>1</v>
+      </c>
+      <c r="L232" s="45">
+        <v>1</v>
+      </c>
+      <c r="M232" s="45">
+        <v>0</v>
+      </c>
+      <c r="N232" s="45">
+        <v>0</v>
+      </c>
+      <c r="O232" s="45">
+        <v>0</v>
+      </c>
+      <c r="P232" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="45">
+        <v>0</v>
+      </c>
+      <c r="R232" s="45">
+        <v>0</v>
+      </c>
+      <c r="S232" s="45">
+        <v>0</v>
+      </c>
+      <c r="T232" s="45">
+        <v>0</v>
+      </c>
+      <c r="U232" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="27">
+        <v>230</v>
+      </c>
+      <c r="B233" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C233" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="D233" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E233" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="K233" s="45">
+        <v>1</v>
+      </c>
+      <c r="L233" s="45">
+        <v>1</v>
+      </c>
+      <c r="M233" s="45">
+        <v>0</v>
+      </c>
+      <c r="N233" s="45">
+        <v>0</v>
+      </c>
+      <c r="O233" s="45">
+        <v>0</v>
+      </c>
+      <c r="P233" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="45">
+        <v>0</v>
+      </c>
+      <c r="R233" s="45">
+        <v>0</v>
+      </c>
+      <c r="S233" s="45">
+        <v>0</v>
+      </c>
+      <c r="T233" s="45">
+        <v>0</v>
+      </c>
+      <c r="U233" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="27">
+        <v>231</v>
+      </c>
+      <c r="B234" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C234" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="D230" s="44" t="s">
+      <c r="D234" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E230" s="44" t="s">
+      <c r="E234" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="H230" s="44"/>
-      <c r="K230" s="45">
-        <v>1</v>
-      </c>
-      <c r="L230" s="45">
-        <v>1</v>
-      </c>
-      <c r="M230" s="45">
-        <v>0</v>
-      </c>
-      <c r="N230" s="45">
-        <v>0</v>
-      </c>
-      <c r="O230" s="45">
-        <v>0</v>
-      </c>
-      <c r="P230" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q230" s="45">
-        <v>0</v>
-      </c>
-      <c r="R230" s="45">
-        <v>0</v>
-      </c>
-      <c r="S230" s="45">
-        <v>0</v>
-      </c>
-      <c r="T230" s="45">
-        <v>0</v>
-      </c>
-      <c r="U230" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="27">
-        <v>227</v>
-      </c>
-      <c r="B231" s="46" t="s">
+      <c r="H234" s="44"/>
+      <c r="K234" s="45">
+        <v>1</v>
+      </c>
+      <c r="L234" s="45">
+        <v>1</v>
+      </c>
+      <c r="M234" s="45">
+        <v>0</v>
+      </c>
+      <c r="N234" s="45">
+        <v>0</v>
+      </c>
+      <c r="O234" s="45">
+        <v>0</v>
+      </c>
+      <c r="P234" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="45">
+        <v>0</v>
+      </c>
+      <c r="R234" s="45">
+        <v>0</v>
+      </c>
+      <c r="S234" s="45">
+        <v>0</v>
+      </c>
+      <c r="T234" s="45">
+        <v>0</v>
+      </c>
+      <c r="U234" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="27">
+        <v>232</v>
+      </c>
+      <c r="B235" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="C231" s="46" t="s">
+      <c r="C235" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="D231" s="46" t="s">
+      <c r="D235" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="E231" s="46" t="s">
+      <c r="E235" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="K231" s="47">
-        <v>1</v>
-      </c>
-      <c r="L231" s="47">
-        <v>1</v>
-      </c>
-      <c r="M231" s="47">
-        <v>1</v>
-      </c>
-      <c r="N231" s="47">
-        <v>1</v>
-      </c>
-      <c r="O231" s="47">
-        <v>0</v>
-      </c>
-      <c r="P231" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q231" s="47">
-        <v>0</v>
-      </c>
-      <c r="R231" s="47">
-        <v>0</v>
-      </c>
-      <c r="S231" s="47">
-        <v>0</v>
-      </c>
-      <c r="T231" s="47">
-        <v>0</v>
-      </c>
-      <c r="U231" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="27">
-        <v>228</v>
-      </c>
-      <c r="B232" s="46" t="s">
+      <c r="K235" s="47">
+        <v>1</v>
+      </c>
+      <c r="L235" s="47">
+        <v>1</v>
+      </c>
+      <c r="M235" s="47">
+        <v>1</v>
+      </c>
+      <c r="N235" s="47">
+        <v>1</v>
+      </c>
+      <c r="O235" s="47">
+        <v>0</v>
+      </c>
+      <c r="P235" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="47">
+        <v>0</v>
+      </c>
+      <c r="R235" s="47">
+        <v>0</v>
+      </c>
+      <c r="S235" s="47">
+        <v>0</v>
+      </c>
+      <c r="T235" s="47">
+        <v>0</v>
+      </c>
+      <c r="U235" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="27">
+        <v>233</v>
+      </c>
+      <c r="B236" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="C232" s="46" t="s">
+      <c r="C236" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="D232" s="46" t="s">
+      <c r="D236" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="E232" s="46" t="s">
+      <c r="E236" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="K232" s="47">
-        <v>1</v>
-      </c>
-      <c r="L232" s="47">
-        <v>1</v>
-      </c>
-      <c r="M232" s="47">
-        <v>1</v>
-      </c>
-      <c r="N232" s="47">
-        <v>1</v>
-      </c>
-      <c r="O232" s="47">
-        <v>0</v>
-      </c>
-      <c r="P232" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q232" s="47">
-        <v>0</v>
-      </c>
-      <c r="R232" s="47">
-        <v>0</v>
-      </c>
-      <c r="S232" s="47">
-        <v>0</v>
-      </c>
-      <c r="T232" s="47">
-        <v>0</v>
-      </c>
-      <c r="U232" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A233" s="27"/>
+      <c r="K236" s="47">
+        <v>1</v>
+      </c>
+      <c r="L236" s="47">
+        <v>1</v>
+      </c>
+      <c r="M236" s="47">
+        <v>1</v>
+      </c>
+      <c r="N236" s="47">
+        <v>1</v>
+      </c>
+      <c r="O236" s="47">
+        <v>0</v>
+      </c>
+      <c r="P236" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="47">
+        <v>0</v>
+      </c>
+      <c r="R236" s="47">
+        <v>0</v>
+      </c>
+      <c r="S236" s="47">
+        <v>0</v>
+      </c>
+      <c r="T236" s="47">
+        <v>0</v>
+      </c>
+      <c r="U236" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A237" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="656">
   <si>
     <t>Class</t>
   </si>
@@ -4447,10 +4447,10 @@
   <dimension ref="A1:Y237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
+      <selection pane="bottomRight" activeCell="T135" sqref="T135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="T135" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" s="32">
         <v>0</v>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newserver2\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="8505" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0">
+    <comment ref="C98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M175" authorId="0" shapeId="0">
+    <comment ref="M176" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="658">
   <si>
     <t>Class</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>record</t>
-  </si>
-  <si>
-    <t>gateid</t>
   </si>
   <si>
     <t>玩家所在的gateid(服务器使用)</t>
@@ -3601,6 +3598,18 @@
   </si>
   <si>
     <t>Task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inviterid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存邀请人id(服务器使用)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4444,13 +4453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y237"/>
+  <dimension ref="A1:Y238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T135" sqref="T135"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4484,7 +4493,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4499,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -4520,28 +4529,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -4561,79 +4570,79 @@
     </row>
     <row r="2" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="K2" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="U2" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="U2" s="25" t="s">
+      <c r="V2" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="X2" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4642,20 +4651,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
@@ -4702,7 +4711,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4755,20 +4764,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>19</v>
@@ -4812,20 +4821,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -4869,20 +4878,20 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
@@ -5077,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
@@ -5283,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
@@ -5386,7 +5395,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -5480,13 +5489,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -5530,13 +5539,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -5580,7 +5589,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -5677,16 +5686,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -5727,16 +5736,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5777,16 +5786,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
@@ -5827,7 +5836,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>19</v>
@@ -5877,7 +5886,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>50</v>
@@ -5927,10 +5936,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>22</v>
@@ -5977,16 +5986,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30" s="18">
         <v>1</v>
@@ -6027,16 +6036,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="K31" s="18">
         <v>1</v>
@@ -6077,16 +6086,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32" s="18">
         <v>1</v>
@@ -6127,16 +6136,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="17"/>
       <c r="K33" s="18">
@@ -6178,16 +6187,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="17"/>
       <c r="K34" s="18">
@@ -6229,16 +6238,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="17"/>
       <c r="K35" s="18">
@@ -6280,16 +6289,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="F36" s="17"/>
       <c r="K36" s="18">
@@ -6331,16 +6340,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F37" s="17"/>
       <c r="K37" s="18">
@@ -6382,16 +6391,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="17"/>
       <c r="K38" s="18">
@@ -6433,16 +6442,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K39" s="18">
         <v>1</v>
@@ -6486,13 +6495,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I40" s="12"/>
       <c r="K40" s="5">
@@ -6534,22 +6543,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>562</v>
-      </c>
       <c r="D41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="I41" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -6593,7 +6602,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
@@ -6641,16 +6650,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -6693,7 +6702,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>52</v>
@@ -6748,13 +6757,13 @@
         <v>49</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6797,16 +6806,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="12"/>
       <c r="K46" s="5">
@@ -6848,22 +6857,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="I47" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K47" s="5">
         <v>1</v>
@@ -7059,13 +7068,13 @@
         <v>18</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K51" s="56">
         <v>1</v>
@@ -7109,19 +7118,19 @@
         <v>18</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D52" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="56" t="s">
-        <v>123</v>
-      </c>
       <c r="I52" s="56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K52" s="56">
         <v>1</v>
@@ -7165,13 +7174,13 @@
         <v>18</v>
       </c>
       <c r="C53" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="D53" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="E53" s="56" t="s">
         <v>644</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>645</v>
       </c>
       <c r="K53" s="56">
         <v>1</v>
@@ -7215,13 +7224,13 @@
         <v>18</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K54" s="56">
         <v>1</v>
@@ -7265,13 +7274,13 @@
         <v>18</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K55" s="56">
         <v>1</v>
@@ -7315,13 +7324,13 @@
         <v>18</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>64</v>
+        <v>655</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K56" s="56">
         <v>1</v>
@@ -7357,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>54</v>
       </c>
@@ -7365,22 +7374,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>61</v>
+        <v>656</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="56" t="s">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="K57" s="56">
         <v>1</v>
@@ -7421,16 +7421,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>614</v>
+        <v>18</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>512</v>
+        <v>61</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>513</v>
+        <v>62</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="56">
         <v>1</v>
@@ -7471,16 +7480,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>639</v>
+        <v>511</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>635</v>
+        <v>25</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>641</v>
+        <v>512</v>
       </c>
       <c r="K59" s="56">
         <v>1</v>
@@ -7521,22 +7530,22 @@
         <v>57</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>634</v>
+      </c>
+      <c r="E60" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="D60" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>642</v>
-      </c>
       <c r="K60" s="56">
         <v>1</v>
       </c>
       <c r="L60" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="56">
         <v>0</v>
@@ -7571,22 +7580,22 @@
         <v>58</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K61" s="56">
         <v>1</v>
       </c>
       <c r="L61" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="56">
         <v>0</v>
@@ -7616,21 +7625,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
         <v>59</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>66</v>
+        <v>625</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>67</v>
+        <v>635</v>
       </c>
       <c r="K62" s="56">
         <v>1</v>
@@ -7639,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="56">
         <v>0</v>
@@ -7674,13 +7683,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K63" s="56">
         <v>1</v>
@@ -7689,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="M63" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="56">
         <v>0</v>
@@ -7724,34 +7733,25 @@
         <v>18</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E64" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="J64" s="56" t="s">
-        <v>627</v>
+        <v>67</v>
       </c>
       <c r="K64" s="56">
         <v>1</v>
       </c>
       <c r="L64" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="56">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>18</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D65" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H65" s="56" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I65" s="56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J65" s="56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K65" s="56">
         <v>1</v>
@@ -7842,19 +7842,28 @@
         <v>18</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="H66" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="J66" s="56" t="s">
+        <v>626</v>
       </c>
       <c r="K66" s="56">
         <v>1</v>
       </c>
       <c r="L66" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="56">
         <v>1</v>
@@ -7863,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="O66" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="56">
         <v>0</v>
@@ -7875,10 +7884,10 @@
         <v>0</v>
       </c>
       <c r="S66" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="56">
         <v>0</v>
@@ -7892,28 +7901,19 @@
         <v>18</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="J67" s="56" t="s">
-        <v>627</v>
+        <v>106</v>
       </c>
       <c r="K67" s="56">
         <v>1</v>
       </c>
       <c r="L67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="56">
         <v>1</v>
@@ -7922,10 +7922,10 @@
         <v>1</v>
       </c>
       <c r="O67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="56">
         <v>0</v>
@@ -7934,10 +7934,10 @@
         <v>0</v>
       </c>
       <c r="S67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="56">
         <v>0</v>
@@ -7951,28 +7951,28 @@
         <v>18</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>638</v>
+        <v>72</v>
       </c>
       <c r="D68" s="56" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E68" s="56" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="I68" s="56" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J68" s="56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K68" s="56">
         <v>1</v>
       </c>
       <c r="L68" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="56">
         <v>1</v>
@@ -8010,13 +8010,22 @@
         <v>18</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="H69" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>626</v>
       </c>
       <c r="K69" s="56">
         <v>1</v>
@@ -8031,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="O69" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" s="56">
         <v>0</v>
@@ -8040,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="56">
         <v>0</v>
@@ -8060,13 +8069,13 @@
         <v>18</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>186</v>
+        <v>629</v>
       </c>
       <c r="D70" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K70" s="56">
         <v>1</v>
@@ -8110,25 +8119,13 @@
         <v>18</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="D71" s="56" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="I71" s="56" t="s">
-        <v>633</v>
-      </c>
-      <c r="J71" s="56" t="s">
-        <v>627</v>
+        <v>139</v>
       </c>
       <c r="K71" s="56">
         <v>1</v>
@@ -8143,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="56">
         <v>0</v>
@@ -8152,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="56">
         <v>0</v>
@@ -8169,16 +8166,28 @@
         <v>69</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="F72" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="J72" s="56" t="s">
+        <v>626</v>
       </c>
       <c r="K72" s="56">
         <v>1</v>
@@ -8193,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="56">
         <v>0</v>
@@ -8219,28 +8228,16 @@
         <v>70</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D73" s="56" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="F73" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="H73" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="J73" s="56" t="s">
-        <v>631</v>
+        <v>165</v>
       </c>
       <c r="K73" s="56">
         <v>1</v>
@@ -8255,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="56">
         <v>0</v>
@@ -8284,25 +8281,25 @@
         <v>18</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="D74" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F74" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H74" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="I74" s="56" t="s">
-        <v>142</v>
-      </c>
       <c r="J74" s="56" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K74" s="56">
         <v>1</v>
@@ -8343,25 +8340,28 @@
         <v>72</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D75" s="56" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="H75" s="56" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I75" s="56" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J75" s="56" t="s">
-        <v>197</v>
+        <v>626</v>
       </c>
       <c r="K75" s="56">
         <v>1</v>
@@ -8402,19 +8402,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E76" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="F76" s="56" t="s">
-        <v>205</v>
+        <v>191</v>
+      </c>
+      <c r="H76" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="I76" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="K76" s="56">
         <v>1</v>
@@ -8429,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="O76" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="56">
         <v>0</v>
@@ -8455,19 +8461,19 @@
         <v>74</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F77" s="56" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K77" s="56">
         <v>1</v>
@@ -8482,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="56">
         <v>0</v>
@@ -8508,19 +8514,19 @@
         <v>75</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>615</v>
+        <v>246</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="56" t="s">
         <v>230</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>232</v>
       </c>
       <c r="K78" s="56">
         <v>1</v>
@@ -8561,25 +8567,19 @@
         <v>76</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>253</v>
+        <v>614</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="H79" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="I79" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="J79" s="56" t="s">
-        <v>124</v>
+        <v>229</v>
+      </c>
+      <c r="F79" s="56" t="s">
+        <v>231</v>
       </c>
       <c r="K79" s="56">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" s="56">
         <v>0</v>
@@ -8620,25 +8620,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>653</v>
+        <v>252</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>654</v>
+        <v>233</v>
       </c>
       <c r="H80" s="56" t="s">
-        <v>655</v>
+        <v>234</v>
       </c>
       <c r="I80" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J80" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K80" s="56">
         <v>1</v>
@@ -8679,34 +8679,40 @@
         <v>78</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>256</v>
+        <v>652</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>468</v>
+        <v>653</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>469</v>
+        <v>654</v>
+      </c>
+      <c r="I81" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J81" s="56" t="s">
+        <v>123</v>
       </c>
       <c r="K81" s="56">
         <v>1</v>
       </c>
       <c r="L81" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="56">
         <v>1</v>
       </c>
       <c r="N81" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" s="56">
         <v>0</v>
@@ -8732,25 +8738,19 @@
         <v>79</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>478</v>
+        <v>255</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
       <c r="H82" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="I82" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="J82" s="56" t="s">
-        <v>124</v>
+        <v>468</v>
       </c>
       <c r="K82" s="56">
         <v>1</v>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="N82" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" s="56">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>311</v>
+        <v>477</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E83" s="56" t="s">
         <v>260</v>
@@ -8806,10 +8806,10 @@
         <v>411</v>
       </c>
       <c r="I83" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J83" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K83" s="56">
         <v>1</v>
@@ -8850,28 +8850,31 @@
         <v>81</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E84" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="56" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="H84" s="56" t="s">
-        <v>634</v>
+        <v>410</v>
+      </c>
+      <c r="I84" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" s="56" t="s">
+        <v>123</v>
       </c>
       <c r="K84" s="56">
         <v>1</v>
       </c>
       <c r="L84" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="56">
         <v>1</v>
@@ -8880,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="O84" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" s="56">
         <v>0</v>
@@ -8895,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="56">
         <v>0</v>
@@ -8906,22 +8909,22 @@
         <v>82</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>119</v>
+        <v>342</v>
       </c>
       <c r="E85" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F85" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K85" s="56">
         <v>1</v>
@@ -8962,22 +8965,22 @@
         <v>83</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F86" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H86" s="56" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K86" s="56">
         <v>1</v>
@@ -9013,27 +9016,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="27">
         <v>84</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F87" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H87" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K87" s="56">
         <v>1</v>
@@ -9069,30 +9072,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="27">
         <v>85</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="E88" s="56" t="s">
-        <v>346</v>
+        <v>217</v>
+      </c>
+      <c r="F88" s="56" t="s">
+        <v>217</v>
       </c>
       <c r="H88" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="I88" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="J88" s="56" t="s">
-        <v>349</v>
+        <v>627</v>
       </c>
       <c r="K88" s="56">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="T88" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" s="56">
         <v>0</v>
@@ -9133,25 +9133,25 @@
         <v>86</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>498</v>
+        <v>344</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>358</v>
+        <v>180</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H89" s="56" t="s">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="I89" s="56" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J89" s="56" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K89" s="56">
         <v>1</v>
@@ -9192,19 +9192,25 @@
         <v>87</v>
       </c>
       <c r="B90" s="56" t="s">
-        <v>405</v>
+        <v>163</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="H90" s="56" t="s">
-        <v>408</v>
+        <v>76</v>
+      </c>
+      <c r="I90" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J90" s="56" t="s">
+        <v>360</v>
       </c>
       <c r="K90" s="56">
         <v>1</v>
@@ -9213,13 +9219,13 @@
         <v>1</v>
       </c>
       <c r="M90" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" s="56">
         <v>0</v>
@@ -9245,22 +9251,25 @@
         <v>88</v>
       </c>
       <c r="B91" s="56" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>441</v>
+        <v>406</v>
+      </c>
+      <c r="H91" s="56" t="s">
+        <v>407</v>
       </c>
       <c r="K91" s="56">
         <v>1</v>
       </c>
       <c r="L91" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="56">
         <v>0</v>
@@ -9298,34 +9307,25 @@
         <v>18</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>501</v>
-      </c>
-      <c r="H92" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="I92" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="K92" s="56">
         <v>1</v>
       </c>
       <c r="L92" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="56">
         <v>0</v>
@@ -9354,19 +9354,25 @@
         <v>90</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="H93" s="56" t="s">
-        <v>514</v>
+        <v>501</v>
+      </c>
+      <c r="I93" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="J93" s="56" t="s">
+        <v>503</v>
       </c>
       <c r="K93" s="56">
         <v>1</v>
@@ -9407,25 +9413,19 @@
         <v>91</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="D94" s="56" t="s">
-        <v>181</v>
+        <v>585</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="H94" s="56" t="s">
-        <v>549</v>
-      </c>
-      <c r="I94" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="J94" s="56" t="s">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="K94" s="56">
         <v>1</v>
@@ -9466,25 +9466,25 @@
         <v>92</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D95" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H95" s="56" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I95" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J95" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K95" s="56">
         <v>1</v>
@@ -9525,31 +9525,31 @@
         <v>93</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="H96" s="56" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="I96" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J96" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K96" s="56">
         <v>1</v>
       </c>
       <c r="L96" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" s="56">
         <v>1</v>
@@ -9584,31 +9584,31 @@
         <v>94</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="H97" s="56" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="I97" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J97" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K97" s="56">
         <v>1</v>
       </c>
       <c r="L97" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="56">
         <v>1</v>
@@ -9638,82 +9638,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
         <v>95</v>
       </c>
-      <c r="B98" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E98" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="K98" s="42">
-        <v>1</v>
-      </c>
-      <c r="L98" s="42">
-        <v>0</v>
-      </c>
-      <c r="M98" s="42">
-        <v>1</v>
-      </c>
-      <c r="N98" s="42">
-        <v>0</v>
-      </c>
-      <c r="O98" s="42">
-        <v>0</v>
-      </c>
-      <c r="P98" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="42">
-        <v>0</v>
-      </c>
-      <c r="R98" s="42">
-        <v>0</v>
-      </c>
-      <c r="S98" s="42">
-        <v>0</v>
-      </c>
-      <c r="T98" s="42">
-        <v>0</v>
-      </c>
-      <c r="U98" s="42">
-        <v>0</v>
-      </c>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
+      <c r="B98" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="D98" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>602</v>
+      </c>
+      <c r="H98" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="I98" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="K98" s="56">
+        <v>1</v>
+      </c>
+      <c r="L98" s="56">
+        <v>1</v>
+      </c>
+      <c r="M98" s="56">
+        <v>1</v>
+      </c>
+      <c r="N98" s="56">
+        <v>1</v>
+      </c>
+      <c r="O98" s="56">
+        <v>0</v>
+      </c>
+      <c r="P98" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="56">
+        <v>0</v>
+      </c>
+      <c r="R98" s="56">
+        <v>0</v>
+      </c>
+      <c r="S98" s="56">
+        <v>0</v>
+      </c>
+      <c r="T98" s="56">
+        <v>0</v>
+      </c>
+      <c r="U98" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>96</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>418</v>
+        <v>188</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I99" s="41" t="s">
-        <v>187</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
       <c r="K99" s="42">
         <v>1</v>
       </c>
@@ -9755,19 +9756,23 @@
         <v>97</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="K100" s="42">
         <v>1</v>
       </c>
@@ -9809,16 +9814,16 @@
         <v>98</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="H101" s="41"/>
       <c r="I101" s="41"/>
@@ -9863,16 +9868,16 @@
         <v>99</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H102" s="41"/>
       <c r="I102" s="41"/>
@@ -9917,16 +9922,16 @@
         <v>100</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H103" s="41"/>
       <c r="I103" s="41"/>
@@ -9971,16 +9976,16 @@
         <v>101</v>
       </c>
       <c r="B104" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
@@ -10025,16 +10030,16 @@
         <v>102</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>429</v>
+        <v>137</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H105" s="41"/>
       <c r="I105" s="41"/>
@@ -10074,89 +10079,84 @@
       <c r="V105" s="43"/>
       <c r="W105" s="43"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="27">
         <v>103</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10">
-        <v>1</v>
-      </c>
-      <c r="L106" s="10">
-        <v>1</v>
-      </c>
-      <c r="M106" s="10">
-        <v>1</v>
-      </c>
-      <c r="N106" s="10">
-        <v>1</v>
-      </c>
-      <c r="O106" s="10">
-        <v>1</v>
-      </c>
-      <c r="P106" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="8">
-        <v>0</v>
-      </c>
-      <c r="R106" s="8">
-        <v>0</v>
-      </c>
-      <c r="S106" s="8">
-        <v>0</v>
-      </c>
-      <c r="T106" s="8">
-        <v>0</v>
-      </c>
-      <c r="U106" s="10">
-        <v>0</v>
-      </c>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
+      <c r="B106" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="K106" s="42">
+        <v>1</v>
+      </c>
+      <c r="L106" s="42">
+        <v>0</v>
+      </c>
+      <c r="M106" s="42">
+        <v>1</v>
+      </c>
+      <c r="N106" s="42">
+        <v>0</v>
+      </c>
+      <c r="O106" s="42">
+        <v>0</v>
+      </c>
+      <c r="P106" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="42">
+        <v>0</v>
+      </c>
+      <c r="R106" s="42">
+        <v>0</v>
+      </c>
+      <c r="S106" s="42">
+        <v>0</v>
+      </c>
+      <c r="T106" s="42">
+        <v>0</v>
+      </c>
+      <c r="U106" s="42">
+        <v>0</v>
+      </c>
+      <c r="V106" s="43"/>
+      <c r="W106" s="43"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A107" s="27">
         <v>104</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
+      <c r="H107" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10">
         <v>1</v>
@@ -10201,16 +10201,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -10260,16 +10260,16 @@
         <v>106</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -10319,16 +10319,16 @@
         <v>107</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -10378,16 +10378,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>78</v>
+      <c r="E111" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -10432,72 +10432,80 @@
       <c r="X111" s="10"/>
       <c r="Y111" s="10"/>
     </row>
-    <row r="112" spans="1:25" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A112" s="27">
         <v>109</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F112" s="23"/>
-      <c r="K112" s="22">
-        <v>1</v>
-      </c>
-      <c r="L112" s="22">
-        <v>1</v>
-      </c>
-      <c r="M112" s="22">
-        <v>1</v>
-      </c>
-      <c r="N112" s="22">
-        <v>1</v>
-      </c>
-      <c r="O112" s="22">
-        <v>0</v>
-      </c>
-      <c r="P112" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="22">
-        <v>0</v>
-      </c>
-      <c r="R112" s="22">
-        <v>0</v>
-      </c>
-      <c r="S112" s="22">
-        <v>0</v>
-      </c>
-      <c r="T112" s="22">
-        <v>0</v>
-      </c>
-      <c r="U112" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10">
+        <v>1</v>
+      </c>
+      <c r="L112" s="10">
+        <v>1</v>
+      </c>
+      <c r="M112" s="10">
+        <v>1</v>
+      </c>
+      <c r="N112" s="10">
+        <v>1</v>
+      </c>
+      <c r="O112" s="10">
+        <v>1</v>
+      </c>
+      <c r="P112" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>0</v>
+      </c>
+      <c r="R112" s="8">
+        <v>0</v>
+      </c>
+      <c r="S112" s="8">
+        <v>0</v>
+      </c>
+      <c r="T112" s="8">
+        <v>0</v>
+      </c>
+      <c r="U112" s="10">
+        <v>0</v>
+      </c>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+    </row>
+    <row r="113" spans="1:25" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="27">
         <v>110</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F113" s="23"/>
       <c r="K113" s="22">
@@ -10534,21 +10542,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:25" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="27">
         <v>111</v>
       </c>
       <c r="B114" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C114" s="22" t="s">
-        <v>58</v>
-      </c>
       <c r="D114" s="22" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F114" s="23"/>
       <c r="K114" s="22">
@@ -10585,84 +10593,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="27">
         <v>112</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8">
-        <v>1</v>
-      </c>
-      <c r="M115" s="8">
-        <v>1</v>
-      </c>
-      <c r="N115" s="8">
-        <v>1</v>
-      </c>
-      <c r="O115" s="8">
-        <v>1</v>
-      </c>
-      <c r="P115" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="8">
-        <v>0</v>
-      </c>
-      <c r="R115" s="8">
-        <v>0</v>
-      </c>
-      <c r="S115" s="8">
-        <v>0</v>
-      </c>
-      <c r="T115" s="8">
-        <v>0</v>
-      </c>
-      <c r="U115" s="8">
-        <v>0</v>
-      </c>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
+      <c r="B115" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" s="23"/>
+      <c r="K115" s="22">
+        <v>1</v>
+      </c>
+      <c r="L115" s="22">
+        <v>1</v>
+      </c>
+      <c r="M115" s="22">
+        <v>1</v>
+      </c>
+      <c r="N115" s="22">
+        <v>1</v>
+      </c>
+      <c r="O115" s="22">
+        <v>0</v>
+      </c>
+      <c r="P115" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="22">
+        <v>0</v>
+      </c>
+      <c r="R115" s="22">
+        <v>0</v>
+      </c>
+      <c r="S115" s="22">
+        <v>0</v>
+      </c>
+      <c r="T115" s="22">
+        <v>0</v>
+      </c>
+      <c r="U115" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A116" s="27">
         <v>113</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>185</v>
+        <v>144</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F116" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -10705,72 +10705,81 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A117" s="27">
         <v>114</v>
       </c>
-      <c r="B117" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="K117" s="35">
-        <v>1</v>
-      </c>
-      <c r="L117" s="35">
-        <v>1</v>
-      </c>
-      <c r="M117" s="35">
-        <v>1</v>
-      </c>
-      <c r="N117" s="35">
-        <v>1</v>
-      </c>
-      <c r="O117" s="35">
-        <v>0</v>
-      </c>
-      <c r="P117" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="35">
-        <v>0</v>
-      </c>
-      <c r="R117" s="35">
-        <v>0</v>
-      </c>
-      <c r="S117" s="35">
-        <v>0</v>
-      </c>
-      <c r="T117" s="35">
-        <v>0</v>
-      </c>
-      <c r="U117" s="35">
-        <v>0</v>
-      </c>
+      <c r="B117" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" s="9"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8">
+        <v>1</v>
+      </c>
+      <c r="L117" s="8">
+        <v>1</v>
+      </c>
+      <c r="M117" s="8">
+        <v>1</v>
+      </c>
+      <c r="N117" s="8">
+        <v>1</v>
+      </c>
+      <c r="O117" s="8">
+        <v>1</v>
+      </c>
+      <c r="P117" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>0</v>
+      </c>
+      <c r="R117" s="8">
+        <v>0</v>
+      </c>
+      <c r="S117" s="8">
+        <v>0</v>
+      </c>
+      <c r="T117" s="8">
+        <v>0</v>
+      </c>
+      <c r="U117" s="8">
+        <v>0</v>
+      </c>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
     </row>
     <row r="118" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="27">
         <v>115</v>
       </c>
       <c r="B118" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="C118" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="34" t="s">
-        <v>517</v>
-      </c>
       <c r="K118" s="35">
         <v>1</v>
       </c>
@@ -10805,53 +10814,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="27">
         <v>116</v>
       </c>
-      <c r="B119" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="K119" s="29">
-        <v>1</v>
-      </c>
-      <c r="L119" s="29">
-        <v>1</v>
-      </c>
-      <c r="M119" s="29">
-        <v>1</v>
-      </c>
-      <c r="N119" s="29">
-        <v>1</v>
-      </c>
-      <c r="O119" s="29">
-        <v>1</v>
-      </c>
-      <c r="P119" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="29">
-        <v>0</v>
-      </c>
-      <c r="R119" s="29">
-        <v>0</v>
-      </c>
-      <c r="S119" s="29">
-        <v>0</v>
-      </c>
-      <c r="T119" s="29">
-        <v>0</v>
-      </c>
-      <c r="U119" s="29">
+      <c r="B119" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="K119" s="35">
+        <v>1</v>
+      </c>
+      <c r="L119" s="35">
+        <v>1</v>
+      </c>
+      <c r="M119" s="35">
+        <v>1</v>
+      </c>
+      <c r="N119" s="35">
+        <v>1</v>
+      </c>
+      <c r="O119" s="35">
+        <v>0</v>
+      </c>
+      <c r="P119" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="35">
+        <v>0</v>
+      </c>
+      <c r="R119" s="35">
+        <v>0</v>
+      </c>
+      <c r="S119" s="35">
+        <v>0</v>
+      </c>
+      <c r="T119" s="35">
+        <v>0</v>
+      </c>
+      <c r="U119" s="35">
         <v>0</v>
       </c>
     </row>
@@ -10860,19 +10869,16 @@
         <v>117</v>
       </c>
       <c r="B120" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C120" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="D120" s="28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="K120" s="29">
         <v>1</v>
@@ -10913,19 +10919,19 @@
         <v>118</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K121" s="29">
         <v>1</v>
@@ -10966,19 +10972,19 @@
         <v>119</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K122" s="29">
         <v>1</v>
@@ -11014,24 +11020,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="27">
         <v>120</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K123" s="29">
         <v>1</v>
@@ -11072,19 +11078,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="F124" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K124" s="29">
         <v>1</v>
@@ -11120,24 +11126,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:25" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27">
         <v>122</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K125" s="29">
         <v>1</v>
@@ -11173,127 +11179,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27">
         <v>123</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="K126" s="30">
-        <v>1</v>
-      </c>
-      <c r="L126" s="30">
-        <v>1</v>
-      </c>
-      <c r="M126" s="30">
-        <v>1</v>
-      </c>
-      <c r="N126" s="30">
-        <v>1</v>
-      </c>
-      <c r="O126" s="30">
-        <v>0</v>
-      </c>
-      <c r="P126" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="30">
-        <v>0</v>
-      </c>
-      <c r="R126" s="30">
-        <v>0</v>
-      </c>
-      <c r="S126" s="30">
-        <v>0</v>
-      </c>
-      <c r="T126" s="30">
-        <v>0</v>
-      </c>
-      <c r="U126" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K126" s="29">
+        <v>1</v>
+      </c>
+      <c r="L126" s="29">
+        <v>1</v>
+      </c>
+      <c r="M126" s="29">
+        <v>1</v>
+      </c>
+      <c r="N126" s="29">
+        <v>1</v>
+      </c>
+      <c r="O126" s="29">
+        <v>1</v>
+      </c>
+      <c r="P126" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="29">
+        <v>0</v>
+      </c>
+      <c r="R126" s="29">
+        <v>0</v>
+      </c>
+      <c r="S126" s="29">
+        <v>0</v>
+      </c>
+      <c r="T126" s="29">
+        <v>0</v>
+      </c>
+      <c r="U126" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27">
         <v>124</v>
       </c>
-      <c r="B127" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K127" s="32">
-        <v>1</v>
-      </c>
-      <c r="L127" s="32">
-        <v>1</v>
-      </c>
-      <c r="M127" s="32">
-        <v>1</v>
-      </c>
-      <c r="N127" s="32">
-        <v>1</v>
-      </c>
-      <c r="O127" s="32">
-        <v>1</v>
-      </c>
-      <c r="P127" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="32">
-        <v>0</v>
-      </c>
-      <c r="R127" s="32">
-        <v>0</v>
-      </c>
-      <c r="S127" s="32">
-        <v>0</v>
-      </c>
-      <c r="T127" s="32">
-        <v>1</v>
-      </c>
-      <c r="U127" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="K127" s="30">
+        <v>1</v>
+      </c>
+      <c r="L127" s="30">
+        <v>1</v>
+      </c>
+      <c r="M127" s="30">
+        <v>1</v>
+      </c>
+      <c r="N127" s="30">
+        <v>1</v>
+      </c>
+      <c r="O127" s="30">
+        <v>0</v>
+      </c>
+      <c r="P127" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="30">
+        <v>0</v>
+      </c>
+      <c r="R127" s="30">
+        <v>0</v>
+      </c>
+      <c r="S127" s="30">
+        <v>0</v>
+      </c>
+      <c r="T127" s="30">
+        <v>0</v>
+      </c>
+      <c r="U127" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27">
         <v>125</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>285</v>
+        <v>645</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>479</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="K128" s="32">
         <v>1</v>
@@ -11323,30 +11329,30 @@
         <v>0</v>
       </c>
       <c r="T128" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U128" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="27">
         <v>126</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="K129" s="32">
         <v>1</v>
@@ -11376,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="T129" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129" s="32">
         <v>0</v>
@@ -11387,19 +11393,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>485</v>
+        <v>284</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>494</v>
+        <v>220</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>486</v>
+        <v>220</v>
       </c>
       <c r="K130" s="32">
         <v>1</v>
@@ -11440,19 +11446,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>285</v>
+        <v>484</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>288</v>
+        <v>493</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
       <c r="K131" s="32">
         <v>1</v>
@@ -11493,19 +11499,19 @@
         <v>129</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>222</v>
+        <v>481</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K132" s="32">
         <v>1</v>
@@ -11535,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="T132" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" s="32">
         <v>0</v>
@@ -11546,19 +11552,19 @@
         <v>130</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>483</v>
+        <v>221</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K133" s="32">
         <v>1</v>
@@ -11599,19 +11605,19 @@
         <v>131</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="K134" s="32">
         <v>1</v>
@@ -11652,19 +11658,19 @@
         <v>132</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>484</v>
+        <v>225</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>477</v>
+        <v>226</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="K135" s="32">
         <v>1</v>
@@ -11694,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="T135" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135" s="32">
         <v>0</v>
@@ -11705,19 +11711,19 @@
         <v>133</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E136" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="F136" s="32" t="s">
-        <v>223</v>
+      <c r="F136" s="33" t="s">
+        <v>298</v>
       </c>
       <c r="K136" s="32">
         <v>1</v>
@@ -11747,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" s="32">
         <v>0</v>
@@ -11758,19 +11764,19 @@
         <v>134</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>490</v>
+        <v>219</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="F137" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="K137" s="32">
         <v>1</v>
@@ -11800,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="T137" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137" s="32">
         <v>0</v>
@@ -11811,19 +11817,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>290</v>
+        <v>488</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>301</v>
+        <v>495</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="K138" s="32">
         <v>1</v>
@@ -11853,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="T138" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138" s="32">
         <v>0</v>
@@ -11864,19 +11870,19 @@
         <v>136</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K139" s="32">
         <v>1</v>
@@ -11917,19 +11923,19 @@
         <v>137</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>95</v>
+        <v>296</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K140" s="32">
         <v>1</v>
@@ -11965,24 +11971,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="27">
         <v>138</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>225</v>
+        <v>94</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>297</v>
       </c>
       <c r="K141" s="32">
         <v>1</v>
@@ -12018,24 +12024,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="27">
         <v>139</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>291</v>
+        <v>304</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>224</v>
       </c>
       <c r="K142" s="32">
         <v>1</v>
@@ -12076,19 +12082,19 @@
         <v>140</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K143" s="32">
         <v>1</v>
@@ -12129,19 +12135,19 @@
         <v>141</v>
       </c>
       <c r="B144" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="F144" s="33" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="K144" s="32">
         <v>1</v>
@@ -12182,19 +12188,19 @@
         <v>142</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E145" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="F145" s="32" t="s">
-        <v>228</v>
+        <v>188</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="K145" s="32">
         <v>1</v>
@@ -12235,19 +12241,19 @@
         <v>143</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>308</v>
+        <v>188</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="K146" s="32">
         <v>1</v>
@@ -12288,19 +12294,19 @@
         <v>144</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -12341,19 +12347,19 @@
         <v>145</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -12394,19 +12400,19 @@
         <v>146</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -12436,59 +12442,62 @@
         <v>0</v>
       </c>
       <c r="T149" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U149" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="27">
         <v>147</v>
       </c>
-      <c r="B150" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="K150" s="35">
-        <v>1</v>
-      </c>
-      <c r="L150" s="35">
-        <v>1</v>
-      </c>
-      <c r="M150" s="35">
-        <v>1</v>
-      </c>
-      <c r="N150" s="35">
-        <v>1</v>
-      </c>
-      <c r="O150" s="35">
-        <v>1</v>
-      </c>
-      <c r="P150" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="35">
-        <v>0</v>
-      </c>
-      <c r="R150" s="35">
-        <v>0</v>
-      </c>
-      <c r="S150" s="35">
-        <v>0</v>
-      </c>
-      <c r="T150" s="35">
-        <v>0</v>
-      </c>
-      <c r="U150" s="35">
+      <c r="B150" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="K150" s="32">
+        <v>1</v>
+      </c>
+      <c r="L150" s="32">
+        <v>1</v>
+      </c>
+      <c r="M150" s="32">
+        <v>1</v>
+      </c>
+      <c r="N150" s="32">
+        <v>1</v>
+      </c>
+      <c r="O150" s="32">
+        <v>1</v>
+      </c>
+      <c r="P150" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="32">
+        <v>0</v>
+      </c>
+      <c r="R150" s="32">
+        <v>0</v>
+      </c>
+      <c r="S150" s="32">
+        <v>0</v>
+      </c>
+      <c r="T150" s="32">
+        <v>1</v>
+      </c>
+      <c r="U150" s="32">
         <v>0</v>
       </c>
     </row>
@@ -12497,16 +12506,16 @@
         <v>148</v>
       </c>
       <c r="B151" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D151" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C151" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>243</v>
-      </c>
       <c r="E151" s="34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K151" s="35">
         <v>1</v>
@@ -12550,13 +12559,13 @@
         <v>235</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K152" s="35">
         <v>1</v>
@@ -12597,16 +12606,16 @@
         <v>150</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>649</v>
+        <v>234</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>650</v>
+        <v>240</v>
       </c>
       <c r="K153" s="35">
         <v>1</v>
@@ -12650,13 +12659,13 @@
         <v>648</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K154" s="35">
         <v>1</v>
@@ -12697,16 +12706,16 @@
         <v>152</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D155" s="34" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K155" s="35">
         <v>1</v>
@@ -12742,53 +12751,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="27">
         <v>153</v>
       </c>
-      <c r="B156" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D156" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="K156" s="30">
-        <v>1</v>
-      </c>
-      <c r="L156" s="30">
-        <v>1</v>
-      </c>
-      <c r="M156" s="30">
-        <v>1</v>
-      </c>
-      <c r="N156" s="30">
-        <v>1</v>
-      </c>
-      <c r="O156" s="30">
-        <v>0</v>
-      </c>
-      <c r="P156" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="30">
-        <v>0</v>
-      </c>
-      <c r="R156" s="30">
-        <v>0</v>
-      </c>
-      <c r="S156" s="30">
-        <v>0</v>
-      </c>
-      <c r="T156" s="30">
-        <v>0</v>
-      </c>
-      <c r="U156" s="30">
+      <c r="B156" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="K156" s="35">
+        <v>1</v>
+      </c>
+      <c r="L156" s="35">
+        <v>1</v>
+      </c>
+      <c r="M156" s="35">
+        <v>1</v>
+      </c>
+      <c r="N156" s="35">
+        <v>1</v>
+      </c>
+      <c r="O156" s="35">
+        <v>1</v>
+      </c>
+      <c r="P156" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="35">
+        <v>0</v>
+      </c>
+      <c r="R156" s="35">
+        <v>0</v>
+      </c>
+      <c r="S156" s="35">
+        <v>0</v>
+      </c>
+      <c r="T156" s="35">
+        <v>0</v>
+      </c>
+      <c r="U156" s="35">
         <v>0</v>
       </c>
     </row>
@@ -12797,22 +12806,22 @@
         <v>154</v>
       </c>
       <c r="B157" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E157" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C157" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>324</v>
-      </c>
       <c r="K157" s="30">
         <v>1</v>
       </c>
       <c r="L157" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" s="30">
         <v>1</v>
@@ -12847,16 +12856,16 @@
         <v>155</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="K158" s="30">
         <v>1</v>
@@ -12897,16 +12906,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>471</v>
+        <v>268</v>
       </c>
       <c r="K159" s="30">
         <v>1</v>
@@ -12942,109 +12951,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="27">
         <v>157</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C160" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E160" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="H160" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="I160" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K160" s="38">
-        <v>1</v>
-      </c>
-      <c r="L160" s="38">
-        <v>0</v>
-      </c>
-      <c r="M160" s="38">
-        <v>1</v>
-      </c>
-      <c r="N160" s="38">
-        <v>1</v>
-      </c>
-      <c r="O160" s="38">
-        <v>0</v>
-      </c>
-      <c r="P160" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="38">
-        <v>0</v>
-      </c>
-      <c r="R160" s="38">
-        <v>0</v>
-      </c>
-      <c r="S160" s="38">
-        <v>0</v>
-      </c>
-      <c r="T160" s="38">
-        <v>0</v>
-      </c>
-      <c r="U160" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K160" s="30">
+        <v>1</v>
+      </c>
+      <c r="L160" s="30">
+        <v>0</v>
+      </c>
+      <c r="M160" s="30">
+        <v>1</v>
+      </c>
+      <c r="N160" s="30">
+        <v>1</v>
+      </c>
+      <c r="O160" s="30">
+        <v>0</v>
+      </c>
+      <c r="P160" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="30">
+        <v>0</v>
+      </c>
+      <c r="R160" s="30">
+        <v>0</v>
+      </c>
+      <c r="S160" s="30">
+        <v>0</v>
+      </c>
+      <c r="T160" s="30">
+        <v>0</v>
+      </c>
+      <c r="U160" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="27">
         <v>158</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D161" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="K161" s="30">
-        <v>1</v>
-      </c>
-      <c r="L161" s="30">
-        <v>0</v>
-      </c>
-      <c r="M161" s="30">
-        <v>1</v>
-      </c>
-      <c r="N161" s="30">
-        <v>1</v>
-      </c>
-      <c r="O161" s="30">
-        <v>0</v>
-      </c>
-      <c r="P161" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="30">
-        <v>0</v>
-      </c>
-      <c r="R161" s="30">
-        <v>0</v>
-      </c>
-      <c r="S161" s="30">
-        <v>0</v>
-      </c>
-      <c r="T161" s="30">
-        <v>0</v>
-      </c>
-      <c r="U161" s="30">
+        <v>253</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D161" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I161" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K161" s="38">
+        <v>1</v>
+      </c>
+      <c r="L161" s="38">
+        <v>0</v>
+      </c>
+      <c r="M161" s="38">
+        <v>1</v>
+      </c>
+      <c r="N161" s="38">
+        <v>1</v>
+      </c>
+      <c r="O161" s="38">
+        <v>0</v>
+      </c>
+      <c r="P161" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="38">
+        <v>0</v>
+      </c>
+      <c r="R161" s="38">
+        <v>0</v>
+      </c>
+      <c r="S161" s="38">
+        <v>0</v>
+      </c>
+      <c r="T161" s="38">
+        <v>0</v>
+      </c>
+      <c r="U161" s="38">
         <v>0</v>
       </c>
     </row>
@@ -13053,22 +13062,16 @@
         <v>159</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C162" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E162" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H162" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I162" s="31" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="K162" s="30">
         <v>1</v>
@@ -13103,24 +13106,28 @@
       <c r="U162" s="30">
         <v>0</v>
       </c>
-      <c r="V162" s="37"/>
-      <c r="W162" s="37"/>
     </row>
     <row r="163" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="27">
         <v>160</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C163" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E163" s="31" t="s">
-        <v>250</v>
+        <v>257</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E163" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H163" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I163" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="K163" s="30">
         <v>1</v>
@@ -13155,22 +13162,24 @@
       <c r="U163" s="30">
         <v>0</v>
       </c>
+      <c r="V163" s="37"/>
+      <c r="W163" s="37"/>
     </row>
     <row r="164" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="27">
         <v>161</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K164" s="30">
         <v>1</v>
@@ -13211,19 +13220,16 @@
         <v>162</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G165" s="30">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="K165" s="30">
         <v>1</v>
@@ -13264,16 +13270,19 @@
         <v>163</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>439</v>
+        <v>266</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>472</v>
+        <v>267</v>
+      </c>
+      <c r="G166" s="30">
+        <v>1</v>
       </c>
       <c r="K166" s="30">
         <v>1</v>
@@ -13284,7 +13293,7 @@
       <c r="M166" s="30">
         <v>1</v>
       </c>
-      <c r="N166" s="38">
+      <c r="N166" s="30">
         <v>1</v>
       </c>
       <c r="O166" s="30">
@@ -13314,16 +13323,16 @@
         <v>164</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>541</v>
+        <v>257</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="K167" s="30">
         <v>1</v>
@@ -13364,16 +13373,16 @@
         <v>165</v>
       </c>
       <c r="B168" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>312</v>
-      </c>
-      <c r="C168" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>315</v>
       </c>
       <c r="K168" s="30">
         <v>1</v>
@@ -13414,16 +13423,16 @@
         <v>166</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K169" s="30">
         <v>1</v>
@@ -13464,22 +13473,16 @@
         <v>167</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>119</v>
+        <v>317</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="H170" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I170" s="31" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="K170" s="30">
         <v>1</v>
@@ -13514,24 +13517,28 @@
       <c r="U170" s="30">
         <v>0</v>
       </c>
-      <c r="V170" s="37"/>
-      <c r="W170" s="37"/>
     </row>
     <row r="171" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>168</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>95</v>
+        <v>315</v>
+      </c>
+      <c r="D171" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>440</v>
+        <v>316</v>
+      </c>
+      <c r="H171" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="K171" s="30">
         <v>1</v>
@@ -13566,22 +13573,24 @@
       <c r="U171" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V171" s="37"/>
+      <c r="W171" s="37"/>
+    </row>
+    <row r="172" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>169</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>554</v>
+        <v>311</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="K172" s="30">
         <v>1</v>
@@ -13617,27 +13626,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:25" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>170</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="C173" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="D173" s="36" t="s">
-        <v>119</v>
-      </c>
       <c r="E173" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="H173" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I173" s="31" t="s">
-        <v>187</v>
+        <v>415</v>
       </c>
       <c r="K173" s="30">
         <v>1</v>
@@ -13672,24 +13675,28 @@
       <c r="U173" s="30">
         <v>0</v>
       </c>
-      <c r="V173" s="37"/>
-      <c r="W173" s="37"/>
     </row>
     <row r="174" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>171</v>
       </c>
       <c r="B174" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C174" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="C174" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D174" s="31" t="s">
-        <v>95</v>
+      <c r="D174" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>440</v>
+        <v>416</v>
+      </c>
+      <c r="H174" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I174" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="K174" s="30">
         <v>1</v>
@@ -13724,81 +13731,74 @@
       <c r="U174" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V174" s="37"/>
+      <c r="W174" s="37"/>
+    </row>
+    <row r="175" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>172</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8">
-        <v>1</v>
-      </c>
-      <c r="L175" s="8">
-        <v>1</v>
-      </c>
-      <c r="M175" s="8">
-        <v>0</v>
-      </c>
-      <c r="N175" s="8">
-        <v>1</v>
-      </c>
-      <c r="O175" s="8">
-        <v>1</v>
-      </c>
-      <c r="P175" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="8">
-        <v>0</v>
-      </c>
-      <c r="R175" s="8">
-        <v>0</v>
-      </c>
-      <c r="S175" s="8">
-        <v>0</v>
-      </c>
-      <c r="T175" s="8">
-        <v>0</v>
-      </c>
-      <c r="U175" s="8">
-        <v>0</v>
-      </c>
-      <c r="V175" s="8"/>
-      <c r="W175" s="8"/>
-      <c r="X175" s="8"/>
-      <c r="Y175" s="8"/>
+      <c r="B175" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="K175" s="30">
+        <v>1</v>
+      </c>
+      <c r="L175" s="30">
+        <v>0</v>
+      </c>
+      <c r="M175" s="30">
+        <v>1</v>
+      </c>
+      <c r="N175" s="38">
+        <v>1</v>
+      </c>
+      <c r="O175" s="30">
+        <v>0</v>
+      </c>
+      <c r="P175" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="30">
+        <v>0</v>
+      </c>
+      <c r="R175" s="30">
+        <v>0</v>
+      </c>
+      <c r="S175" s="30">
+        <v>0</v>
+      </c>
+      <c r="T175" s="30">
+        <v>0</v>
+      </c>
+      <c r="U175" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>173</v>
       </c>
       <c r="B176" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C176" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="E176" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="M176" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" s="8">
         <v>1</v>
@@ -13848,16 +13848,16 @@
         <v>174</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>573</v>
+        <v>332</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>574</v>
+        <v>334</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
@@ -13907,16 +13907,16 @@
         <v>175</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>336</v>
+        <v>572</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>337</v>
+        <v>573</v>
       </c>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
@@ -13966,16 +13966,16 @@
         <v>176</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>521</v>
+        <v>335</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>522</v>
+        <v>336</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -14025,16 +14025,16 @@
         <v>177</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -14084,16 +14084,16 @@
         <v>178</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -14113,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="O181" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P181" s="8">
         <v>0</v>
@@ -14143,16 +14143,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="O182" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P182" s="8">
         <v>0</v>
@@ -14202,16 +14202,16 @@
         <v>180</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>528</v>
+        <v>338</v>
       </c>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
@@ -14225,13 +14225,13 @@
         <v>1</v>
       </c>
       <c r="M183" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183" s="8">
         <v>1</v>
       </c>
       <c r="O183" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P183" s="8">
         <v>0</v>
@@ -14261,16 +14261,16 @@
         <v>181</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>341</v>
+        <v>527</v>
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="M184" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184" s="8">
         <v>1</v>
@@ -14320,21 +14320,21 @@
         <v>182</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>569</v>
+        <v>337</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>558</v>
+        <v>340</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8">
         <v>1</v>
@@ -14379,16 +14379,16 @@
         <v>183</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>332</v>
+        <v>568</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
@@ -14402,10 +14402,10 @@
         <v>1</v>
       </c>
       <c r="M186" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O186" s="8">
         <v>0</v>
@@ -14438,16 +14438,16 @@
         <v>184</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>595</v>
+        <v>331</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>597</v>
+        <v>166</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
@@ -14461,13 +14461,13 @@
         <v>1</v>
       </c>
       <c r="M187" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N187" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O187" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P187" s="8">
         <v>0</v>
@@ -14497,16 +14497,16 @@
         <v>185</v>
       </c>
       <c r="B188" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C188" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="D188" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E188" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>599</v>
       </c>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
@@ -14556,25 +14556,21 @@
         <v>186</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>181</v>
+        <v>596</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8">
         <v>1</v>
@@ -14589,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="O189" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189" s="8">
         <v>0</v>
@@ -14619,37 +14615,37 @@
         <v>187</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>578</v>
+        <v>331</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>579</v>
+        <v>123</v>
       </c>
       <c r="J190" s="8"/>
       <c r="K190" s="8">
         <v>1</v>
       </c>
       <c r="L190" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" s="8">
         <v>1</v>
       </c>
       <c r="N190" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" s="8">
         <v>0</v>
@@ -14682,33 +14678,37 @@
         <v>188</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>137</v>
+        <v>580</v>
       </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
+      <c r="H191" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>578</v>
+      </c>
       <c r="J191" s="8"/>
       <c r="K191" s="8">
         <v>1</v>
       </c>
       <c r="L191" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191" s="8">
         <v>1</v>
       </c>
       <c r="N191" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O191" s="8">
         <v>0</v>
@@ -14741,16 +14741,16 @@
         <v>189</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>602</v>
+        <v>137</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
@@ -14800,31 +14800,27 @@
         <v>190</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>119</v>
+        <v>601</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8">
         <v>1</v>
       </c>
       <c r="L193" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" s="8">
         <v>1</v>
@@ -14866,24 +14862,28 @@
         <v>531</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>535</v>
+        <v>118</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>536</v>
+        <v>124</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
+      <c r="H194" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="J194" s="8"/>
       <c r="K194" s="8">
         <v>1</v>
       </c>
       <c r="L194" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194" s="8">
         <v>1</v>
@@ -14922,16 +14922,16 @@
         <v>192</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -14981,16 +14981,16 @@
         <v>193</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>538</v>
+        <v>618</v>
       